--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="13440" windowHeight="9132" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
     <sheet name="Ressourcen" sheetId="3" r:id="rId2"/>
-    <sheet name="Ergebnisse" sheetId="5" r:id="rId3"/>
+    <sheet name="Termine" sheetId="5" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
     <sheet name="Settings" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
@@ -1752,24 +1752,24 @@
   <dimension ref="B1:G256"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
@@ -1779,21 +1779,23 @@
       <c r="F2" s="11"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24"/>
+      <c r="C4" s="24">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>17</v>
       </c>
@@ -1802,21 +1804,21 @@
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="2:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="16"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
       <c r="C8" s="16"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="2:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:7" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
@@ -1824,8 +1826,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="36" t="s">
         <v>26</v>
       </c>
@@ -1833,13 +1835,13 @@
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
       <c r="D13" s="27"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>0</v>
       </c>
@@ -1847,43 +1849,43 @@
       <c r="D14" s="99"/>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="101"/>
       <c r="D15" s="102"/>
       <c r="E15" s="103"/>
     </row>
-    <row r="16" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
       <c r="C16" s="101"/>
       <c r="D16" s="102"/>
       <c r="E16" s="103"/>
     </row>
-    <row r="17" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
       <c r="C17" s="101"/>
       <c r="D17" s="102"/>
       <c r="E17" s="103"/>
     </row>
-    <row r="18" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
       <c r="C18" s="101"/>
       <c r="D18" s="102"/>
       <c r="E18" s="103"/>
     </row>
-    <row r="19" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
       <c r="C19" s="104"/>
       <c r="D19" s="105"/>
       <c r="E19" s="106"/>
     </row>
-    <row r="20" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
@@ -1891,12 +1893,12 @@
       <c r="D21" s="33"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
@@ -1904,259 +1906,259 @@
       <c r="D23" s="99"/>
       <c r="E23" s="100"/>
     </row>
-    <row r="24" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="101"/>
       <c r="D24" s="102"/>
       <c r="E24" s="103"/>
     </row>
-    <row r="25" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="101"/>
       <c r="D25" s="102"/>
       <c r="E25" s="103"/>
     </row>
-    <row r="26" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="101"/>
       <c r="D26" s="102"/>
       <c r="E26" s="103"/>
     </row>
-    <row r="27" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="101"/>
       <c r="D27" s="102"/>
       <c r="E27" s="103"/>
     </row>
-    <row r="28" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C28" s="104"/>
       <c r="D28" s="105"/>
       <c r="E28" s="106"/>
     </row>
-    <row r="29" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
@@ -2209,19 +2211,19 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="189" width="4.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" customWidth="1"/>
+    <col min="4" max="189" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:190" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2231,7 +2233,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2246,7 +2248,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2256,19 +2258,19 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
         <f>StartDatum</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="G4" s="3"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -2277,7 +2279,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2287,12 +2289,12 @@
         <v>2958465</v>
       </c>
     </row>
-    <row r="7" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2300,373 +2302,759 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:190" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:190" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="92">
-        <v>40634.709328703706</v>
+        <f>StartDatum</f>
+        <v>1</v>
       </c>
       <c r="E10" s="91">
-        <v>40664.709328703706</v>
+        <f>EDATE(D10,1)</f>
+        <v>32</v>
       </c>
-      <c r="F10" s="92">
-        <v>40695</v>
+      <c r="F10" s="91">
+        <f t="shared" ref="F10:BQ10" si="0">EDATE(E10,1)</f>
+        <v>61</v>
       </c>
       <c r="G10" s="91">
-        <v>40725</v>
+        <f t="shared" si="0"/>
+        <v>92</v>
       </c>
-      <c r="H10" s="92">
-        <v>40756</v>
+      <c r="H10" s="91">
+        <f t="shared" si="0"/>
+        <v>122</v>
       </c>
       <c r="I10" s="91">
-        <v>40787</v>
+        <f t="shared" si="0"/>
+        <v>153</v>
       </c>
-      <c r="J10" s="92">
-        <v>40817</v>
+      <c r="J10" s="91">
+        <f t="shared" si="0"/>
+        <v>183</v>
       </c>
       <c r="K10" s="91">
-        <v>40848</v>
+        <f t="shared" si="0"/>
+        <v>214</v>
       </c>
-      <c r="L10" s="92">
-        <v>40878</v>
+      <c r="L10" s="91">
+        <f t="shared" si="0"/>
+        <v>245</v>
       </c>
       <c r="M10" s="91">
-        <v>40909</v>
+        <f t="shared" si="0"/>
+        <v>275</v>
       </c>
-      <c r="N10" s="92">
-        <v>40940</v>
+      <c r="N10" s="91">
+        <f t="shared" si="0"/>
+        <v>306</v>
       </c>
       <c r="O10" s="91">
-        <v>40969</v>
+        <f t="shared" si="0"/>
+        <v>336</v>
       </c>
-      <c r="P10" s="92">
-        <v>41000</v>
+      <c r="P10" s="91">
+        <f t="shared" si="0"/>
+        <v>367</v>
       </c>
       <c r="Q10" s="91">
-        <v>41030</v>
+        <f t="shared" si="0"/>
+        <v>398</v>
       </c>
-      <c r="R10" s="92">
-        <v>41061</v>
+      <c r="R10" s="91">
+        <f t="shared" si="0"/>
+        <v>426</v>
       </c>
       <c r="S10" s="91">
-        <v>41091</v>
+        <f t="shared" si="0"/>
+        <v>457</v>
       </c>
-      <c r="T10" s="92">
-        <v>41122</v>
+      <c r="T10" s="91">
+        <f t="shared" si="0"/>
+        <v>487</v>
       </c>
       <c r="U10" s="91">
-        <v>41153</v>
+        <f t="shared" si="0"/>
+        <v>518</v>
       </c>
-      <c r="V10" s="92">
-        <v>41183</v>
+      <c r="V10" s="91">
+        <f t="shared" si="0"/>
+        <v>548</v>
       </c>
       <c r="W10" s="91">
-        <v>41214</v>
+        <f t="shared" si="0"/>
+        <v>579</v>
       </c>
-      <c r="X10" s="92">
-        <v>41244</v>
+      <c r="X10" s="91">
+        <f t="shared" si="0"/>
+        <v>610</v>
       </c>
       <c r="Y10" s="91">
-        <v>41275</v>
+        <f t="shared" si="0"/>
+        <v>640</v>
       </c>
-      <c r="Z10" s="92">
-        <v>41306</v>
+      <c r="Z10" s="91">
+        <f t="shared" si="0"/>
+        <v>671</v>
       </c>
       <c r="AA10" s="91">
-        <v>41334</v>
+        <f t="shared" si="0"/>
+        <v>701</v>
       </c>
-      <c r="AB10" s="92">
-        <v>41365</v>
+      <c r="AB10" s="91">
+        <f t="shared" si="0"/>
+        <v>732</v>
       </c>
       <c r="AC10" s="91">
-        <v>41395</v>
+        <f t="shared" si="0"/>
+        <v>763</v>
       </c>
-      <c r="AD10" s="92">
-        <v>41426</v>
+      <c r="AD10" s="91">
+        <f t="shared" si="0"/>
+        <v>791</v>
       </c>
       <c r="AE10" s="91">
-        <v>41456</v>
+        <f t="shared" si="0"/>
+        <v>822</v>
       </c>
-      <c r="AF10" s="92">
-        <v>41487</v>
+      <c r="AF10" s="91">
+        <f t="shared" si="0"/>
+        <v>852</v>
       </c>
       <c r="AG10" s="91">
-        <v>41518</v>
+        <f t="shared" si="0"/>
+        <v>883</v>
       </c>
-      <c r="AH10" s="92">
-        <v>41548</v>
+      <c r="AH10" s="91">
+        <f t="shared" si="0"/>
+        <v>913</v>
       </c>
       <c r="AI10" s="91">
-        <v>41579</v>
+        <f t="shared" si="0"/>
+        <v>944</v>
       </c>
-      <c r="AJ10" s="92">
-        <v>41609</v>
+      <c r="AJ10" s="91">
+        <f t="shared" si="0"/>
+        <v>975</v>
       </c>
       <c r="AK10" s="91">
-        <v>41640</v>
+        <f t="shared" si="0"/>
+        <v>1005</v>
       </c>
-      <c r="AL10" s="92">
-        <v>41671</v>
+      <c r="AL10" s="91">
+        <f t="shared" si="0"/>
+        <v>1036</v>
       </c>
       <c r="AM10" s="91">
-        <v>41699</v>
+        <f t="shared" si="0"/>
+        <v>1066</v>
       </c>
-      <c r="AN10" s="92">
-        <v>41730</v>
+      <c r="AN10" s="91">
+        <f t="shared" si="0"/>
+        <v>1097</v>
       </c>
       <c r="AO10" s="91">
-        <v>41760</v>
+        <f t="shared" si="0"/>
+        <v>1128</v>
       </c>
-      <c r="AP10" s="92">
-        <v>41791</v>
+      <c r="AP10" s="91">
+        <f t="shared" si="0"/>
+        <v>1156</v>
       </c>
       <c r="AQ10" s="91">
-        <v>41821</v>
+        <f t="shared" si="0"/>
+        <v>1187</v>
       </c>
-      <c r="AR10" s="92">
-        <v>41852</v>
+      <c r="AR10" s="91">
+        <f t="shared" si="0"/>
+        <v>1217</v>
       </c>
       <c r="AS10" s="91">
-        <v>41883</v>
+        <f t="shared" si="0"/>
+        <v>1248</v>
       </c>
-      <c r="AT10" s="92">
-        <v>41913</v>
+      <c r="AT10" s="91">
+        <f t="shared" si="0"/>
+        <v>1278</v>
       </c>
       <c r="AU10" s="91">
-        <v>41944</v>
+        <f t="shared" si="0"/>
+        <v>1309</v>
       </c>
-      <c r="AV10" s="92">
-        <v>41974</v>
+      <c r="AV10" s="91">
+        <f t="shared" si="0"/>
+        <v>1340</v>
       </c>
       <c r="AW10" s="91">
-        <v>42005</v>
+        <f t="shared" si="0"/>
+        <v>1370</v>
       </c>
-      <c r="AX10" s="92">
-        <v>42036</v>
+      <c r="AX10" s="91">
+        <f t="shared" si="0"/>
+        <v>1401</v>
       </c>
       <c r="AY10" s="91">
-        <v>42064</v>
+        <f t="shared" si="0"/>
+        <v>1431</v>
       </c>
-      <c r="AZ10" s="92">
-        <v>42095</v>
+      <c r="AZ10" s="91">
+        <f t="shared" si="0"/>
+        <v>1462</v>
       </c>
       <c r="BA10" s="91">
-        <v>42125</v>
+        <f t="shared" si="0"/>
+        <v>1493</v>
       </c>
-      <c r="BB10" s="92">
-        <v>42156</v>
+      <c r="BB10" s="91">
+        <f t="shared" si="0"/>
+        <v>1522</v>
       </c>
       <c r="BC10" s="91">
-        <v>42186</v>
+        <f t="shared" si="0"/>
+        <v>1553</v>
       </c>
-      <c r="BD10" s="92">
-        <v>42217</v>
+      <c r="BD10" s="91">
+        <f t="shared" si="0"/>
+        <v>1583</v>
       </c>
       <c r="BE10" s="91">
-        <v>42248</v>
+        <f t="shared" si="0"/>
+        <v>1614</v>
       </c>
-      <c r="BF10" s="92">
-        <v>42278</v>
+      <c r="BF10" s="91">
+        <f t="shared" si="0"/>
+        <v>1644</v>
       </c>
       <c r="BG10" s="91">
-        <v>42309</v>
+        <f t="shared" si="0"/>
+        <v>1675</v>
       </c>
-      <c r="BH10" s="92">
-        <v>42339</v>
+      <c r="BH10" s="91">
+        <f t="shared" si="0"/>
+        <v>1706</v>
       </c>
       <c r="BI10" s="91">
-        <v>42370</v>
+        <f t="shared" si="0"/>
+        <v>1736</v>
       </c>
-      <c r="BJ10" s="92">
-        <v>42401</v>
+      <c r="BJ10" s="91">
+        <f t="shared" si="0"/>
+        <v>1767</v>
       </c>
       <c r="BK10" s="91">
-        <v>42430</v>
+        <f t="shared" si="0"/>
+        <v>1797</v>
       </c>
-      <c r="BL10" s="92">
-        <v>42461</v>
+      <c r="BL10" s="91">
+        <f t="shared" si="0"/>
+        <v>1828</v>
       </c>
       <c r="BM10" s="91">
-        <v>42491</v>
+        <f t="shared" si="0"/>
+        <v>1859</v>
       </c>
-      <c r="BN10" s="92">
-        <v>42522</v>
+      <c r="BN10" s="91">
+        <f t="shared" si="0"/>
+        <v>1887</v>
       </c>
       <c r="BO10" s="91">
-        <v>42552</v>
+        <f t="shared" si="0"/>
+        <v>1918</v>
       </c>
-      <c r="BP10" s="92">
-        <v>42583</v>
+      <c r="BP10" s="91">
+        <f t="shared" si="0"/>
+        <v>1948</v>
       </c>
       <c r="BQ10" s="91">
-        <v>42614</v>
+        <f t="shared" si="0"/>
+        <v>1979</v>
       </c>
-      <c r="BR10" s="92">
-        <v>42644</v>
+      <c r="BR10" s="91">
+        <f t="shared" ref="BR10:EC10" si="1">EDATE(BQ10,1)</f>
+        <v>2009</v>
       </c>
       <c r="BS10" s="91">
-        <v>42675</v>
+        <f t="shared" si="1"/>
+        <v>2040</v>
       </c>
-      <c r="BT10" s="92">
-        <v>42705</v>
+      <c r="BT10" s="91">
+        <f t="shared" si="1"/>
+        <v>2071</v>
       </c>
       <c r="BU10" s="91">
-        <v>42736</v>
+        <f t="shared" si="1"/>
+        <v>2101</v>
       </c>
-      <c r="BV10" s="92">
-        <v>42767</v>
+      <c r="BV10" s="91">
+        <f t="shared" si="1"/>
+        <v>2132</v>
       </c>
       <c r="BW10" s="91">
-        <v>42795</v>
+        <f t="shared" si="1"/>
+        <v>2162</v>
       </c>
-      <c r="BX10" s="92">
-        <v>42826</v>
+      <c r="BX10" s="91">
+        <f t="shared" si="1"/>
+        <v>2193</v>
       </c>
       <c r="BY10" s="91">
-        <v>42856</v>
+        <f t="shared" si="1"/>
+        <v>2224</v>
       </c>
-      <c r="BZ10" s="92">
-        <v>42887</v>
+      <c r="BZ10" s="91">
+        <f t="shared" si="1"/>
+        <v>2252</v>
       </c>
       <c r="CA10" s="91">
-        <v>42917</v>
+        <f t="shared" si="1"/>
+        <v>2283</v>
       </c>
-      <c r="CB10" s="92">
-        <v>42948</v>
+      <c r="CB10" s="91">
+        <f t="shared" si="1"/>
+        <v>2313</v>
       </c>
       <c r="CC10" s="91">
-        <v>42979</v>
+        <f t="shared" si="1"/>
+        <v>2344</v>
       </c>
-      <c r="CD10" s="92">
-        <v>43009</v>
+      <c r="CD10" s="91">
+        <f t="shared" si="1"/>
+        <v>2374</v>
       </c>
       <c r="CE10" s="91">
-        <v>43040</v>
+        <f t="shared" si="1"/>
+        <v>2405</v>
       </c>
-      <c r="CF10" s="92">
-        <v>43070</v>
+      <c r="CF10" s="91">
+        <f t="shared" si="1"/>
+        <v>2436</v>
       </c>
       <c r="CG10" s="91">
-        <v>43101</v>
+        <f t="shared" si="1"/>
+        <v>2466</v>
       </c>
-      <c r="CH10" s="92">
-        <v>43132</v>
+      <c r="CH10" s="91">
+        <f t="shared" si="1"/>
+        <v>2497</v>
       </c>
       <c r="CI10" s="91">
-        <v>43160</v>
+        <f t="shared" si="1"/>
+        <v>2527</v>
       </c>
-      <c r="CJ10" s="92">
-        <v>43191</v>
+      <c r="CJ10" s="91">
+        <f t="shared" si="1"/>
+        <v>2558</v>
       </c>
       <c r="CK10" s="91">
-        <v>43221</v>
+        <f t="shared" si="1"/>
+        <v>2589</v>
       </c>
-      <c r="CL10" s="91"/>
-      <c r="CM10" s="91"/>
-      <c r="CN10" s="91"/>
-      <c r="CO10" s="91"/>
-      <c r="CP10" s="91"/>
-      <c r="CQ10" s="91"/>
-      <c r="CR10" s="91"/>
-      <c r="CS10" s="91"/>
-      <c r="CT10" s="91"/>
-      <c r="CU10" s="91"/>
-      <c r="CV10" s="91"/>
-      <c r="CW10" s="91"/>
-      <c r="CX10" s="91"/>
-      <c r="CY10" s="91"/>
-      <c r="CZ10" s="91"/>
-      <c r="DA10" s="91"/>
-      <c r="DB10" s="91"/>
-      <c r="DC10" s="91"/>
-      <c r="DD10" s="91"/>
-      <c r="DE10" s="91"/>
-      <c r="DF10" s="91"/>
-      <c r="DG10" s="91"/>
-      <c r="DH10" s="91"/>
-      <c r="DI10" s="91"/>
-      <c r="DJ10" s="91"/>
-      <c r="DK10" s="91"/>
-      <c r="DL10" s="91"/>
-      <c r="DM10" s="91"/>
-      <c r="DN10" s="91"/>
-      <c r="DO10" s="91"/>
-      <c r="DP10" s="91"/>
-      <c r="DQ10" s="91"/>
-      <c r="DR10" s="91"/>
-      <c r="DS10" s="91"/>
-      <c r="DT10" s="91"/>
-      <c r="DU10" s="91"/>
-      <c r="DV10" s="91"/>
-      <c r="DW10" s="91"/>
-      <c r="DX10" s="91"/>
-      <c r="DY10" s="91"/>
-      <c r="DZ10" s="91"/>
-      <c r="EA10" s="91"/>
-      <c r="EB10" s="91"/>
-      <c r="EC10" s="91"/>
-      <c r="ED10" s="91"/>
-      <c r="EE10" s="91"/>
-      <c r="EF10" s="91"/>
-      <c r="EG10" s="91"/>
-      <c r="EH10" s="91"/>
-      <c r="EI10" s="91"/>
-      <c r="EJ10" s="91"/>
-      <c r="EK10" s="91"/>
-      <c r="EL10" s="91"/>
-      <c r="EM10" s="91"/>
-      <c r="EN10" s="91"/>
-      <c r="EO10" s="91"/>
-      <c r="EP10" s="91"/>
-      <c r="EQ10" s="91"/>
-      <c r="ER10" s="91"/>
-      <c r="ES10" s="91"/>
-      <c r="ET10" s="91"/>
-      <c r="EU10" s="91"/>
-      <c r="EV10" s="91"/>
-      <c r="EW10" s="91"/>
-      <c r="EX10" s="91"/>
-      <c r="EY10" s="91"/>
-      <c r="EZ10" s="91"/>
-      <c r="FA10" s="91"/>
-      <c r="FB10" s="91"/>
-      <c r="FC10" s="91"/>
-      <c r="FD10" s="91"/>
-      <c r="FE10" s="91"/>
-      <c r="FF10" s="91"/>
-      <c r="FG10" s="91"/>
-      <c r="FH10" s="91"/>
-      <c r="FI10" s="91"/>
-      <c r="FJ10" s="91"/>
-      <c r="FK10" s="91"/>
-      <c r="FL10" s="91"/>
-      <c r="FM10" s="91"/>
-      <c r="FN10" s="91"/>
-      <c r="FO10" s="91"/>
-      <c r="FP10" s="91"/>
-      <c r="FQ10" s="91"/>
-      <c r="FR10" s="91"/>
-      <c r="FS10" s="91"/>
-      <c r="FT10" s="91"/>
-      <c r="FU10" s="91"/>
-      <c r="FV10" s="91"/>
-      <c r="FW10" s="91"/>
-      <c r="FX10" s="91"/>
-      <c r="FY10" s="91"/>
-      <c r="FZ10" s="91"/>
-      <c r="GA10" s="91"/>
-      <c r="GB10" s="91"/>
-      <c r="GC10" s="91"/>
-      <c r="GD10" s="91"/>
-      <c r="GE10" s="91"/>
-      <c r="GF10" s="91"/>
-      <c r="GG10" s="92"/>
+      <c r="CL10" s="91">
+        <f t="shared" si="1"/>
+        <v>2617</v>
+      </c>
+      <c r="CM10" s="91">
+        <f t="shared" si="1"/>
+        <v>2648</v>
+      </c>
+      <c r="CN10" s="91">
+        <f t="shared" si="1"/>
+        <v>2678</v>
+      </c>
+      <c r="CO10" s="91">
+        <f t="shared" si="1"/>
+        <v>2709</v>
+      </c>
+      <c r="CP10" s="91">
+        <f t="shared" si="1"/>
+        <v>2739</v>
+      </c>
+      <c r="CQ10" s="91">
+        <f t="shared" si="1"/>
+        <v>2770</v>
+      </c>
+      <c r="CR10" s="91">
+        <f t="shared" si="1"/>
+        <v>2801</v>
+      </c>
+      <c r="CS10" s="91">
+        <f t="shared" si="1"/>
+        <v>2831</v>
+      </c>
+      <c r="CT10" s="91">
+        <f t="shared" si="1"/>
+        <v>2862</v>
+      </c>
+      <c r="CU10" s="91">
+        <f t="shared" si="1"/>
+        <v>2892</v>
+      </c>
+      <c r="CV10" s="91">
+        <f t="shared" si="1"/>
+        <v>2923</v>
+      </c>
+      <c r="CW10" s="91">
+        <f t="shared" si="1"/>
+        <v>2954</v>
+      </c>
+      <c r="CX10" s="91">
+        <f t="shared" si="1"/>
+        <v>2983</v>
+      </c>
+      <c r="CY10" s="91">
+        <f t="shared" si="1"/>
+        <v>3014</v>
+      </c>
+      <c r="CZ10" s="91">
+        <f t="shared" si="1"/>
+        <v>3044</v>
+      </c>
+      <c r="DA10" s="91">
+        <f t="shared" si="1"/>
+        <v>3075</v>
+      </c>
+      <c r="DB10" s="91">
+        <f t="shared" si="1"/>
+        <v>3105</v>
+      </c>
+      <c r="DC10" s="91">
+        <f t="shared" si="1"/>
+        <v>3136</v>
+      </c>
+      <c r="DD10" s="91">
+        <f t="shared" si="1"/>
+        <v>3167</v>
+      </c>
+      <c r="DE10" s="91">
+        <f t="shared" si="1"/>
+        <v>3197</v>
+      </c>
+      <c r="DF10" s="91">
+        <f t="shared" si="1"/>
+        <v>3228</v>
+      </c>
+      <c r="DG10" s="91">
+        <f t="shared" si="1"/>
+        <v>3258</v>
+      </c>
+      <c r="DH10" s="91">
+        <f t="shared" si="1"/>
+        <v>3289</v>
+      </c>
+      <c r="DI10" s="91">
+        <f t="shared" si="1"/>
+        <v>3320</v>
+      </c>
+      <c r="DJ10" s="91">
+        <f t="shared" si="1"/>
+        <v>3348</v>
+      </c>
+      <c r="DK10" s="91">
+        <f t="shared" si="1"/>
+        <v>3379</v>
+      </c>
+      <c r="DL10" s="91">
+        <f t="shared" si="1"/>
+        <v>3409</v>
+      </c>
+      <c r="DM10" s="91">
+        <f t="shared" si="1"/>
+        <v>3440</v>
+      </c>
+      <c r="DN10" s="91">
+        <f t="shared" si="1"/>
+        <v>3470</v>
+      </c>
+      <c r="DO10" s="91">
+        <f t="shared" si="1"/>
+        <v>3501</v>
+      </c>
+      <c r="DP10" s="91">
+        <f t="shared" si="1"/>
+        <v>3532</v>
+      </c>
+      <c r="DQ10" s="91">
+        <f t="shared" si="1"/>
+        <v>3562</v>
+      </c>
+      <c r="DR10" s="91">
+        <f t="shared" si="1"/>
+        <v>3593</v>
+      </c>
+      <c r="DS10" s="91">
+        <f t="shared" si="1"/>
+        <v>3623</v>
+      </c>
+      <c r="DT10" s="91">
+        <f t="shared" si="1"/>
+        <v>3654</v>
+      </c>
+      <c r="DU10" s="91">
+        <f t="shared" si="1"/>
+        <v>3685</v>
+      </c>
+      <c r="DV10" s="91">
+        <f t="shared" si="1"/>
+        <v>3713</v>
+      </c>
+      <c r="DW10" s="91">
+        <f t="shared" si="1"/>
+        <v>3744</v>
+      </c>
+      <c r="DX10" s="91">
+        <f t="shared" si="1"/>
+        <v>3774</v>
+      </c>
+      <c r="DY10" s="91">
+        <f t="shared" si="1"/>
+        <v>3805</v>
+      </c>
+      <c r="DZ10" s="91">
+        <f t="shared" si="1"/>
+        <v>3835</v>
+      </c>
+      <c r="EA10" s="91">
+        <f t="shared" si="1"/>
+        <v>3866</v>
+      </c>
+      <c r="EB10" s="91">
+        <f t="shared" si="1"/>
+        <v>3897</v>
+      </c>
+      <c r="EC10" s="91">
+        <f t="shared" si="1"/>
+        <v>3927</v>
+      </c>
+      <c r="ED10" s="91">
+        <f t="shared" ref="ED10:GG10" si="2">EDATE(EC10,1)</f>
+        <v>3958</v>
+      </c>
+      <c r="EE10" s="91">
+        <f t="shared" si="2"/>
+        <v>3988</v>
+      </c>
+      <c r="EF10" s="91">
+        <f t="shared" si="2"/>
+        <v>4019</v>
+      </c>
+      <c r="EG10" s="91">
+        <f t="shared" si="2"/>
+        <v>4050</v>
+      </c>
+      <c r="EH10" s="91">
+        <f t="shared" si="2"/>
+        <v>4078</v>
+      </c>
+      <c r="EI10" s="91">
+        <f t="shared" si="2"/>
+        <v>4109</v>
+      </c>
+      <c r="EJ10" s="91">
+        <f t="shared" si="2"/>
+        <v>4139</v>
+      </c>
+      <c r="EK10" s="91">
+        <f t="shared" si="2"/>
+        <v>4170</v>
+      </c>
+      <c r="EL10" s="91">
+        <f t="shared" si="2"/>
+        <v>4200</v>
+      </c>
+      <c r="EM10" s="91">
+        <f t="shared" si="2"/>
+        <v>4231</v>
+      </c>
+      <c r="EN10" s="91">
+        <f t="shared" si="2"/>
+        <v>4262</v>
+      </c>
+      <c r="EO10" s="91">
+        <f t="shared" si="2"/>
+        <v>4292</v>
+      </c>
+      <c r="EP10" s="91">
+        <f t="shared" si="2"/>
+        <v>4323</v>
+      </c>
+      <c r="EQ10" s="91">
+        <f t="shared" si="2"/>
+        <v>4353</v>
+      </c>
+      <c r="ER10" s="91">
+        <f t="shared" si="2"/>
+        <v>4384</v>
+      </c>
+      <c r="ES10" s="91">
+        <f t="shared" si="2"/>
+        <v>4415</v>
+      </c>
+      <c r="ET10" s="91">
+        <f t="shared" si="2"/>
+        <v>4444</v>
+      </c>
+      <c r="EU10" s="91">
+        <f t="shared" si="2"/>
+        <v>4475</v>
+      </c>
+      <c r="EV10" s="91">
+        <f t="shared" si="2"/>
+        <v>4505</v>
+      </c>
+      <c r="EW10" s="91">
+        <f t="shared" si="2"/>
+        <v>4536</v>
+      </c>
+      <c r="EX10" s="91">
+        <f t="shared" si="2"/>
+        <v>4566</v>
+      </c>
+      <c r="EY10" s="91">
+        <f t="shared" si="2"/>
+        <v>4597</v>
+      </c>
+      <c r="EZ10" s="91">
+        <f t="shared" si="2"/>
+        <v>4628</v>
+      </c>
+      <c r="FA10" s="91">
+        <f t="shared" si="2"/>
+        <v>4658</v>
+      </c>
+      <c r="FB10" s="91">
+        <f t="shared" si="2"/>
+        <v>4689</v>
+      </c>
+      <c r="FC10" s="91">
+        <f t="shared" si="2"/>
+        <v>4719</v>
+      </c>
+      <c r="FD10" s="91">
+        <f t="shared" si="2"/>
+        <v>4750</v>
+      </c>
+      <c r="FE10" s="91">
+        <f t="shared" si="2"/>
+        <v>4781</v>
+      </c>
+      <c r="FF10" s="91">
+        <f t="shared" si="2"/>
+        <v>4809</v>
+      </c>
+      <c r="FG10" s="91">
+        <f t="shared" si="2"/>
+        <v>4840</v>
+      </c>
+      <c r="FH10" s="91">
+        <f t="shared" si="2"/>
+        <v>4870</v>
+      </c>
+      <c r="FI10" s="91">
+        <f t="shared" si="2"/>
+        <v>4901</v>
+      </c>
+      <c r="FJ10" s="91">
+        <f t="shared" si="2"/>
+        <v>4931</v>
+      </c>
+      <c r="FK10" s="91">
+        <f t="shared" si="2"/>
+        <v>4962</v>
+      </c>
+      <c r="FL10" s="91">
+        <f t="shared" si="2"/>
+        <v>4993</v>
+      </c>
+      <c r="FM10" s="91">
+        <f t="shared" si="2"/>
+        <v>5023</v>
+      </c>
+      <c r="FN10" s="91">
+        <f t="shared" si="2"/>
+        <v>5054</v>
+      </c>
+      <c r="FO10" s="91">
+        <f t="shared" si="2"/>
+        <v>5084</v>
+      </c>
+      <c r="FP10" s="91">
+        <f t="shared" si="2"/>
+        <v>5115</v>
+      </c>
+      <c r="FQ10" s="91">
+        <f t="shared" si="2"/>
+        <v>5146</v>
+      </c>
+      <c r="FR10" s="91">
+        <f t="shared" si="2"/>
+        <v>5174</v>
+      </c>
+      <c r="FS10" s="91">
+        <f t="shared" si="2"/>
+        <v>5205</v>
+      </c>
+      <c r="FT10" s="91">
+        <f t="shared" si="2"/>
+        <v>5235</v>
+      </c>
+      <c r="FU10" s="91">
+        <f t="shared" si="2"/>
+        <v>5266</v>
+      </c>
+      <c r="FV10" s="91">
+        <f t="shared" si="2"/>
+        <v>5296</v>
+      </c>
+      <c r="FW10" s="91">
+        <f t="shared" si="2"/>
+        <v>5327</v>
+      </c>
+      <c r="FX10" s="91">
+        <f t="shared" si="2"/>
+        <v>5358</v>
+      </c>
+      <c r="FY10" s="91">
+        <f t="shared" si="2"/>
+        <v>5388</v>
+      </c>
+      <c r="FZ10" s="91">
+        <f t="shared" si="2"/>
+        <v>5419</v>
+      </c>
+      <c r="GA10" s="91">
+        <f t="shared" si="2"/>
+        <v>5449</v>
+      </c>
+      <c r="GB10" s="91">
+        <f t="shared" si="2"/>
+        <v>5480</v>
+      </c>
+      <c r="GC10" s="91">
+        <f t="shared" si="2"/>
+        <v>5511</v>
+      </c>
+      <c r="GD10" s="91">
+        <f t="shared" si="2"/>
+        <v>5539</v>
+      </c>
+      <c r="GE10" s="91">
+        <f t="shared" si="2"/>
+        <v>5570</v>
+      </c>
+      <c r="GF10" s="91">
+        <f t="shared" si="2"/>
+        <v>5600</v>
+      </c>
+      <c r="GG10" s="91">
+        <f t="shared" si="2"/>
+        <v>5631</v>
+      </c>
       <c r="GH10" s="90"/>
     </row>
-    <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="93"/>
       <c r="C11" s="42"/>
       <c r="D11" s="47"/>
@@ -2856,7 +3244,7 @@
       <c r="GF11" s="47"/>
       <c r="GG11" s="47"/>
     </row>
-    <row r="12" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="46"/>
@@ -3046,7 +3434,7 @@
       <c r="GF12" s="46"/>
       <c r="GG12" s="46"/>
     </row>
-    <row r="13" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="46"/>
@@ -3236,7 +3624,7 @@
       <c r="GF13" s="46"/>
       <c r="GG13" s="46"/>
     </row>
-    <row r="14" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="46"/>
@@ -3426,7 +3814,7 @@
       <c r="GF14" s="46"/>
       <c r="GG14" s="46"/>
     </row>
-    <row r="15" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="46"/>
@@ -3616,7 +4004,7 @@
       <c r="GF15" s="46"/>
       <c r="GG15" s="46"/>
     </row>
-    <row r="16" spans="1:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:190" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="46"/>
@@ -3806,7 +4194,7 @@
       <c r="GF16" s="46"/>
       <c r="GG16" s="46"/>
     </row>
-    <row r="17" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="46"/>
@@ -3996,7 +4384,7 @@
       <c r="GF17" s="46"/>
       <c r="GG17" s="46"/>
     </row>
-    <row r="18" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="46"/>
@@ -4186,7 +4574,7 @@
       <c r="GF18" s="46"/>
       <c r="GG18" s="46"/>
     </row>
-    <row r="19" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="46"/>
@@ -4376,7 +4764,7 @@
       <c r="GF19" s="46"/>
       <c r="GG19" s="46"/>
     </row>
-    <row r="20" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
       <c r="D20" s="46"/>
@@ -4566,7 +4954,7 @@
       <c r="GF20" s="46"/>
       <c r="GG20" s="46"/>
     </row>
-    <row r="21" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="46"/>
@@ -4756,7 +5144,7 @@
       <c r="GF21" s="46"/>
       <c r="GG21" s="46"/>
     </row>
-    <row r="22" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="46"/>
@@ -4946,7 +5334,7 @@
       <c r="GF22" s="46"/>
       <c r="GG22" s="46"/>
     </row>
-    <row r="23" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="46"/>
@@ -5136,7 +5524,7 @@
       <c r="GF23" s="46"/>
       <c r="GG23" s="46"/>
     </row>
-    <row r="24" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="46"/>
@@ -5326,7 +5714,7 @@
       <c r="GF24" s="46"/>
       <c r="GG24" s="46"/>
     </row>
-    <row r="25" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="46"/>
@@ -5516,7 +5904,7 @@
       <c r="GF25" s="46"/>
       <c r="GG25" s="46"/>
     </row>
-    <row r="26" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="46"/>
@@ -5706,7 +6094,7 @@
       <c r="GF26" s="46"/>
       <c r="GG26" s="46"/>
     </row>
-    <row r="27" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="46"/>
@@ -5896,7 +6284,7 @@
       <c r="GF27" s="46"/>
       <c r="GG27" s="46"/>
     </row>
-    <row r="28" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="46"/>
@@ -6086,7 +6474,7 @@
       <c r="GF28" s="46"/>
       <c r="GG28" s="46"/>
     </row>
-    <row r="29" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="46"/>
@@ -6276,7 +6664,7 @@
       <c r="GF29" s="46"/>
       <c r="GG29" s="46"/>
     </row>
-    <row r="30" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="46"/>
@@ -6466,7 +6854,7 @@
       <c r="GF30" s="46"/>
       <c r="GG30" s="46"/>
     </row>
-    <row r="31" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="46"/>
@@ -6656,7 +7044,7 @@
       <c r="GF31" s="46"/>
       <c r="GG31" s="46"/>
     </row>
-    <row r="32" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="46"/>
@@ -6846,7 +7234,7 @@
       <c r="GF32" s="46"/>
       <c r="GG32" s="46"/>
     </row>
-    <row r="33" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="46"/>
@@ -7036,7 +7424,7 @@
       <c r="GF33" s="46"/>
       <c r="GG33" s="46"/>
     </row>
-    <row r="34" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="46"/>
@@ -7226,7 +7614,7 @@
       <c r="GF34" s="46"/>
       <c r="GG34" s="46"/>
     </row>
-    <row r="35" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="46"/>
@@ -7416,7 +7804,7 @@
       <c r="GF35" s="46"/>
       <c r="GG35" s="46"/>
     </row>
-    <row r="36" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="46"/>
@@ -7606,7 +7994,7 @@
       <c r="GF36" s="46"/>
       <c r="GG36" s="46"/>
     </row>
-    <row r="37" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="46"/>
@@ -7796,7 +8184,7 @@
       <c r="GF37" s="46"/>
       <c r="GG37" s="46"/>
     </row>
-    <row r="38" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
       <c r="D38" s="46"/>
@@ -7986,7 +8374,7 @@
       <c r="GF38" s="46"/>
       <c r="GG38" s="46"/>
     </row>
-    <row r="39" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="46"/>
@@ -8176,7 +8564,7 @@
       <c r="GF39" s="46"/>
       <c r="GG39" s="46"/>
     </row>
-    <row r="40" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="46"/>
@@ -8366,7 +8754,7 @@
       <c r="GF40" s="46"/>
       <c r="GG40" s="46"/>
     </row>
-    <row r="41" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="46"/>
@@ -8556,7 +8944,7 @@
       <c r="GF41" s="46"/>
       <c r="GG41" s="46"/>
     </row>
-    <row r="42" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="46"/>
@@ -8746,7 +9134,7 @@
       <c r="GF42" s="46"/>
       <c r="GG42" s="46"/>
     </row>
-    <row r="43" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="46"/>
@@ -8936,7 +9324,7 @@
       <c r="GF43" s="46"/>
       <c r="GG43" s="46"/>
     </row>
-    <row r="44" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="46"/>
@@ -9126,7 +9514,7 @@
       <c r="GF44" s="46"/>
       <c r="GG44" s="46"/>
     </row>
-    <row r="45" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="46"/>
@@ -9316,7 +9704,7 @@
       <c r="GF45" s="46"/>
       <c r="GG45" s="46"/>
     </row>
-    <row r="46" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="46"/>
@@ -9506,7 +9894,7 @@
       <c r="GF46" s="46"/>
       <c r="GG46" s="46"/>
     </row>
-    <row r="47" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="46"/>
@@ -9696,7 +10084,7 @@
       <c r="GF47" s="46"/>
       <c r="GG47" s="46"/>
     </row>
-    <row r="48" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="46"/>
@@ -9886,7 +10274,7 @@
       <c r="GF48" s="46"/>
       <c r="GG48" s="46"/>
     </row>
-    <row r="49" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="46"/>
@@ -10076,7 +10464,7 @@
       <c r="GF49" s="46"/>
       <c r="GG49" s="46"/>
     </row>
-    <row r="50" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="46"/>
@@ -10266,7 +10654,7 @@
       <c r="GF50" s="46"/>
       <c r="GG50" s="46"/>
     </row>
-    <row r="51" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="46"/>
@@ -10456,7 +10844,7 @@
       <c r="GF51" s="46"/>
       <c r="GG51" s="46"/>
     </row>
-    <row r="52" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="46"/>
@@ -10646,7 +11034,7 @@
       <c r="GF52" s="46"/>
       <c r="GG52" s="46"/>
     </row>
-    <row r="53" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="46"/>
@@ -10836,7 +11224,7 @@
       <c r="GF53" s="46"/>
       <c r="GG53" s="46"/>
     </row>
-    <row r="54" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
       <c r="D54" s="46"/>
@@ -11026,7 +11414,7 @@
       <c r="GF54" s="46"/>
       <c r="GG54" s="46"/>
     </row>
-    <row r="55" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="46"/>
@@ -11216,7 +11604,7 @@
       <c r="GF55" s="46"/>
       <c r="GG55" s="46"/>
     </row>
-    <row r="56" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
       <c r="D56" s="46"/>
@@ -11406,7 +11794,7 @@
       <c r="GF56" s="46"/>
       <c r="GG56" s="46"/>
     </row>
-    <row r="57" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="46"/>
@@ -11596,7 +11984,7 @@
       <c r="GF57" s="46"/>
       <c r="GG57" s="46"/>
     </row>
-    <row r="58" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
       <c r="D58" s="46"/>
@@ -11786,7 +12174,7 @@
       <c r="GF58" s="46"/>
       <c r="GG58" s="46"/>
     </row>
-    <row r="59" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
       <c r="D59" s="46"/>
@@ -11976,7 +12364,7 @@
       <c r="GF59" s="46"/>
       <c r="GG59" s="46"/>
     </row>
-    <row r="60" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
       <c r="D60" s="46"/>
@@ -12166,7 +12554,7 @@
       <c r="GF60" s="46"/>
       <c r="GG60" s="46"/>
     </row>
-    <row r="61" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
       <c r="D61" s="46"/>
@@ -12356,7 +12744,7 @@
       <c r="GF61" s="46"/>
       <c r="GG61" s="46"/>
     </row>
-    <row r="62" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
       <c r="D62" s="46"/>
@@ -12546,7 +12934,7 @@
       <c r="GF62" s="46"/>
       <c r="GG62" s="46"/>
     </row>
-    <row r="63" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
       <c r="D63" s="46"/>
@@ -12736,7 +13124,7 @@
       <c r="GF63" s="46"/>
       <c r="GG63" s="46"/>
     </row>
-    <row r="64" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
       <c r="D64" s="46"/>
@@ -12926,7 +13314,7 @@
       <c r="GF64" s="46"/>
       <c r="GG64" s="46"/>
     </row>
-    <row r="65" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
       <c r="D65" s="46"/>
@@ -13116,7 +13504,7 @@
       <c r="GF65" s="46"/>
       <c r="GG65" s="46"/>
     </row>
-    <row r="66" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="46"/>
@@ -13306,7 +13694,7 @@
       <c r="GF66" s="46"/>
       <c r="GG66" s="46"/>
     </row>
-    <row r="67" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="46"/>
@@ -13496,7 +13884,7 @@
       <c r="GF67" s="46"/>
       <c r="GG67" s="46"/>
     </row>
-    <row r="68" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="46"/>
@@ -13686,7 +14074,7 @@
       <c r="GF68" s="46"/>
       <c r="GG68" s="46"/>
     </row>
-    <row r="69" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
       <c r="D69" s="46"/>
@@ -13876,7 +14264,7 @@
       <c r="GF69" s="46"/>
       <c r="GG69" s="46"/>
     </row>
-    <row r="70" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
       <c r="D70" s="46"/>
@@ -14066,7 +14454,7 @@
       <c r="GF70" s="46"/>
       <c r="GG70" s="46"/>
     </row>
-    <row r="71" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
       <c r="D71" s="46"/>
@@ -14256,7 +14644,7 @@
       <c r="GF71" s="46"/>
       <c r="GG71" s="46"/>
     </row>
-    <row r="72" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
       <c r="D72" s="46"/>
@@ -14446,7 +14834,7 @@
       <c r="GF72" s="46"/>
       <c r="GG72" s="46"/>
     </row>
-    <row r="73" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="46"/>
@@ -14636,7 +15024,7 @@
       <c r="GF73" s="46"/>
       <c r="GG73" s="46"/>
     </row>
-    <row r="74" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
       <c r="D74" s="46"/>
@@ -14826,7 +15214,7 @@
       <c r="GF74" s="46"/>
       <c r="GG74" s="46"/>
     </row>
-    <row r="75" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
       <c r="D75" s="46"/>
@@ -15016,7 +15404,7 @@
       <c r="GF75" s="46"/>
       <c r="GG75" s="46"/>
     </row>
-    <row r="76" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
       <c r="D76" s="46"/>
@@ -15206,7 +15594,7 @@
       <c r="GF76" s="46"/>
       <c r="GG76" s="46"/>
     </row>
-    <row r="77" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
       <c r="D77" s="46"/>
@@ -15396,7 +15784,7 @@
       <c r="GF77" s="46"/>
       <c r="GG77" s="46"/>
     </row>
-    <row r="78" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
       <c r="D78" s="46"/>
@@ -15586,7 +15974,7 @@
       <c r="GF78" s="46"/>
       <c r="GG78" s="46"/>
     </row>
-    <row r="79" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
       <c r="D79" s="46"/>
@@ -15776,7 +16164,7 @@
       <c r="GF79" s="46"/>
       <c r="GG79" s="46"/>
     </row>
-    <row r="80" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
       <c r="D80" s="46"/>
@@ -15966,7 +16354,7 @@
       <c r="GF80" s="46"/>
       <c r="GG80" s="46"/>
     </row>
-    <row r="81" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
       <c r="D81" s="46"/>
@@ -16156,7 +16544,7 @@
       <c r="GF81" s="46"/>
       <c r="GG81" s="46"/>
     </row>
-    <row r="82" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
       <c r="D82" s="46"/>
@@ -16346,7 +16734,7 @@
       <c r="GF82" s="46"/>
       <c r="GG82" s="46"/>
     </row>
-    <row r="83" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="46"/>
@@ -16536,7 +16924,7 @@
       <c r="GF83" s="46"/>
       <c r="GG83" s="46"/>
     </row>
-    <row r="84" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
       <c r="D84" s="46"/>
@@ -16726,7 +17114,7 @@
       <c r="GF84" s="46"/>
       <c r="GG84" s="46"/>
     </row>
-    <row r="85" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="46"/>
@@ -16916,7 +17304,7 @@
       <c r="GF85" s="46"/>
       <c r="GG85" s="46"/>
     </row>
-    <row r="86" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="46"/>
@@ -17106,7 +17494,7 @@
       <c r="GF86" s="46"/>
       <c r="GG86" s="46"/>
     </row>
-    <row r="87" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
       <c r="D87" s="46"/>
@@ -17296,7 +17684,7 @@
       <c r="GF87" s="46"/>
       <c r="GG87" s="46"/>
     </row>
-    <row r="88" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" s="46"/>
@@ -17486,7 +17874,7 @@
       <c r="GF88" s="46"/>
       <c r="GG88" s="46"/>
     </row>
-    <row r="89" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="46"/>
@@ -17676,7 +18064,7 @@
       <c r="GF89" s="46"/>
       <c r="GG89" s="46"/>
     </row>
-    <row r="90" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="46"/>
@@ -17866,7 +18254,7 @@
       <c r="GF90" s="46"/>
       <c r="GG90" s="46"/>
     </row>
-    <row r="91" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="46"/>
@@ -18056,7 +18444,7 @@
       <c r="GF91" s="46"/>
       <c r="GG91" s="46"/>
     </row>
-    <row r="92" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="46"/>
@@ -18246,7 +18634,7 @@
       <c r="GF92" s="46"/>
       <c r="GG92" s="46"/>
     </row>
-    <row r="93" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
       <c r="D93" s="46"/>
@@ -18436,7 +18824,7 @@
       <c r="GF93" s="46"/>
       <c r="GG93" s="46"/>
     </row>
-    <row r="94" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="46"/>
@@ -18626,7 +19014,7 @@
       <c r="GF94" s="46"/>
       <c r="GG94" s="46"/>
     </row>
-    <row r="95" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="46"/>
@@ -18816,7 +19204,7 @@
       <c r="GF95" s="46"/>
       <c r="GG95" s="46"/>
     </row>
-    <row r="96" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="46"/>
@@ -19006,7 +19394,7 @@
       <c r="GF96" s="46"/>
       <c r="GG96" s="46"/>
     </row>
-    <row r="97" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="46"/>
@@ -19196,7 +19584,7 @@
       <c r="GF97" s="46"/>
       <c r="GG97" s="46"/>
     </row>
-    <row r="98" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="46"/>
@@ -19386,7 +19774,7 @@
       <c r="GF98" s="46"/>
       <c r="GG98" s="46"/>
     </row>
-    <row r="99" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="46"/>
@@ -19576,7 +19964,7 @@
       <c r="GF99" s="46"/>
       <c r="GG99" s="46"/>
     </row>
-    <row r="100" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="46"/>
@@ -19766,7 +20154,7 @@
       <c r="GF100" s="46"/>
       <c r="GG100" s="46"/>
     </row>
-    <row r="101" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="46"/>
@@ -19956,7 +20344,7 @@
       <c r="GF101" s="46"/>
       <c r="GG101" s="46"/>
     </row>
-    <row r="102" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="46"/>
@@ -20146,7 +20534,7 @@
       <c r="GF102" s="46"/>
       <c r="GG102" s="46"/>
     </row>
-    <row r="103" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="46"/>
@@ -20336,7 +20724,7 @@
       <c r="GF103" s="46"/>
       <c r="GG103" s="46"/>
     </row>
-    <row r="104" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="46"/>
@@ -20526,7 +20914,7 @@
       <c r="GF104" s="46"/>
       <c r="GG104" s="46"/>
     </row>
-    <row r="105" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="46"/>
@@ -20716,7 +21104,7 @@
       <c r="GF105" s="46"/>
       <c r="GG105" s="46"/>
     </row>
-    <row r="106" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="46"/>
@@ -20906,7 +21294,7 @@
       <c r="GF106" s="46"/>
       <c r="GG106" s="46"/>
     </row>
-    <row r="107" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="46"/>
@@ -21096,7 +21484,7 @@
       <c r="GF107" s="46"/>
       <c r="GG107" s="46"/>
     </row>
-    <row r="108" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="46"/>
@@ -21286,7 +21674,7 @@
       <c r="GF108" s="46"/>
       <c r="GG108" s="46"/>
     </row>
-    <row r="109" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="46"/>
@@ -21476,7 +21864,7 @@
       <c r="GF109" s="46"/>
       <c r="GG109" s="46"/>
     </row>
-    <row r="110" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
       <c r="D110" s="46"/>
@@ -21666,7 +22054,7 @@
       <c r="GF110" s="46"/>
       <c r="GG110" s="46"/>
     </row>
-    <row r="111" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
       <c r="D111" s="46"/>
@@ -21856,7 +22244,7 @@
       <c r="GF111" s="46"/>
       <c r="GG111" s="46"/>
     </row>
-    <row r="112" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
       <c r="D112" s="46"/>
@@ -22046,7 +22434,7 @@
       <c r="GF112" s="46"/>
       <c r="GG112" s="46"/>
     </row>
-    <row r="113" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="46"/>
@@ -22236,7 +22624,7 @@
       <c r="GF113" s="46"/>
       <c r="GG113" s="46"/>
     </row>
-    <row r="114" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
       <c r="D114" s="46"/>
@@ -22426,7 +22814,7 @@
       <c r="GF114" s="46"/>
       <c r="GG114" s="46"/>
     </row>
-    <row r="115" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="46"/>
@@ -22616,7 +23004,7 @@
       <c r="GF115" s="46"/>
       <c r="GG115" s="46"/>
     </row>
-    <row r="116" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
       <c r="D116" s="46"/>
@@ -22806,7 +23194,7 @@
       <c r="GF116" s="46"/>
       <c r="GG116" s="46"/>
     </row>
-    <row r="117" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
       <c r="D117" s="46"/>
@@ -22996,7 +23384,7 @@
       <c r="GF117" s="46"/>
       <c r="GG117" s="46"/>
     </row>
-    <row r="118" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
       <c r="D118" s="46"/>
@@ -23186,7 +23574,7 @@
       <c r="GF118" s="46"/>
       <c r="GG118" s="46"/>
     </row>
-    <row r="119" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
       <c r="D119" s="46"/>
@@ -23376,7 +23764,7 @@
       <c r="GF119" s="46"/>
       <c r="GG119" s="46"/>
     </row>
-    <row r="120" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
       <c r="D120" s="46"/>
@@ -23566,7 +23954,7 @@
       <c r="GF120" s="46"/>
       <c r="GG120" s="46"/>
     </row>
-    <row r="121" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
       <c r="D121" s="46"/>
@@ -23756,7 +24144,7 @@
       <c r="GF121" s="46"/>
       <c r="GG121" s="46"/>
     </row>
-    <row r="122" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="D122" s="46"/>
@@ -23946,7 +24334,7 @@
       <c r="GF122" s="46"/>
       <c r="GG122" s="46"/>
     </row>
-    <row r="123" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="D123" s="46"/>
@@ -24136,7 +24524,7 @@
       <c r="GF123" s="46"/>
       <c r="GG123" s="46"/>
     </row>
-    <row r="124" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
       <c r="D124" s="46"/>
@@ -24326,7 +24714,7 @@
       <c r="GF124" s="46"/>
       <c r="GG124" s="46"/>
     </row>
-    <row r="125" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="46"/>
@@ -24516,7 +24904,7 @@
       <c r="GF125" s="46"/>
       <c r="GG125" s="46"/>
     </row>
-    <row r="126" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="46"/>
@@ -24706,7 +25094,7 @@
       <c r="GF126" s="46"/>
       <c r="GG126" s="46"/>
     </row>
-    <row r="127" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="46"/>
@@ -24896,7 +25284,7 @@
       <c r="GF127" s="46"/>
       <c r="GG127" s="46"/>
     </row>
-    <row r="128" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="46"/>
@@ -25086,7 +25474,7 @@
       <c r="GF128" s="46"/>
       <c r="GG128" s="46"/>
     </row>
-    <row r="129" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="46"/>
@@ -25276,7 +25664,7 @@
       <c r="GF129" s="46"/>
       <c r="GG129" s="46"/>
     </row>
-    <row r="130" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="46"/>
@@ -25466,7 +25854,7 @@
       <c r="GF130" s="46"/>
       <c r="GG130" s="46"/>
     </row>
-    <row r="131" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="46"/>
@@ -25656,7 +26044,7 @@
       <c r="GF131" s="46"/>
       <c r="GG131" s="46"/>
     </row>
-    <row r="132" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
       <c r="D132" s="46"/>
@@ -25846,7 +26234,7 @@
       <c r="GF132" s="46"/>
       <c r="GG132" s="46"/>
     </row>
-    <row r="133" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
       <c r="D133" s="46"/>
@@ -26036,7 +26424,7 @@
       <c r="GF133" s="46"/>
       <c r="GG133" s="46"/>
     </row>
-    <row r="134" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="46"/>
@@ -26226,7 +26614,7 @@
       <c r="GF134" s="46"/>
       <c r="GG134" s="46"/>
     </row>
-    <row r="135" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
       <c r="D135" s="46"/>
@@ -26416,7 +26804,7 @@
       <c r="GF135" s="46"/>
       <c r="GG135" s="46"/>
     </row>
-    <row r="136" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="46"/>
@@ -26606,7 +26994,7 @@
       <c r="GF136" s="46"/>
       <c r="GG136" s="46"/>
     </row>
-    <row r="137" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
       <c r="D137" s="46"/>
@@ -26796,7 +27184,7 @@
       <c r="GF137" s="46"/>
       <c r="GG137" s="46"/>
     </row>
-    <row r="138" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
       <c r="D138" s="46"/>
@@ -26986,7 +27374,7 @@
       <c r="GF138" s="46"/>
       <c r="GG138" s="46"/>
     </row>
-    <row r="139" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
       <c r="D139" s="46"/>
@@ -27176,7 +27564,7 @@
       <c r="GF139" s="46"/>
       <c r="GG139" s="46"/>
     </row>
-    <row r="140" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
       <c r="D140" s="46"/>
@@ -27366,7 +27754,7 @@
       <c r="GF140" s="46"/>
       <c r="GG140" s="46"/>
     </row>
-    <row r="141" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
       <c r="D141" s="46"/>
@@ -27556,7 +27944,7 @@
       <c r="GF141" s="46"/>
       <c r="GG141" s="46"/>
     </row>
-    <row r="142" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
       <c r="D142" s="46"/>
@@ -27746,7 +28134,7 @@
       <c r="GF142" s="46"/>
       <c r="GG142" s="46"/>
     </row>
-    <row r="143" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
       <c r="D143" s="46"/>
@@ -27936,7 +28324,7 @@
       <c r="GF143" s="46"/>
       <c r="GG143" s="46"/>
     </row>
-    <row r="144" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
       <c r="D144" s="46"/>
@@ -28126,7 +28514,7 @@
       <c r="GF144" s="46"/>
       <c r="GG144" s="46"/>
     </row>
-    <row r="145" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
       <c r="D145" s="46"/>
@@ -28316,7 +28704,7 @@
       <c r="GF145" s="46"/>
       <c r="GG145" s="46"/>
     </row>
-    <row r="146" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
       <c r="D146" s="46"/>
@@ -28506,7 +28894,7 @@
       <c r="GF146" s="46"/>
       <c r="GG146" s="46"/>
     </row>
-    <row r="147" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
       <c r="D147" s="46"/>
@@ -28696,7 +29084,7 @@
       <c r="GF147" s="46"/>
       <c r="GG147" s="46"/>
     </row>
-    <row r="148" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="46"/>
@@ -28886,7 +29274,7 @@
       <c r="GF148" s="46"/>
       <c r="GG148" s="46"/>
     </row>
-    <row r="149" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
       <c r="D149" s="46"/>
@@ -29076,7 +29464,7 @@
       <c r="GF149" s="46"/>
       <c r="GG149" s="46"/>
     </row>
-    <row r="150" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
       <c r="D150" s="46"/>
@@ -29266,7 +29654,7 @@
       <c r="GF150" s="46"/>
       <c r="GG150" s="46"/>
     </row>
-    <row r="151" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
       <c r="D151" s="46"/>
@@ -29456,7 +29844,7 @@
       <c r="GF151" s="46"/>
       <c r="GG151" s="46"/>
     </row>
-    <row r="152" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="46"/>
@@ -29646,7 +30034,7 @@
       <c r="GF152" s="46"/>
       <c r="GG152" s="46"/>
     </row>
-    <row r="153" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
       <c r="D153" s="46"/>
@@ -29836,7 +30224,7 @@
       <c r="GF153" s="46"/>
       <c r="GG153" s="46"/>
     </row>
-    <row r="154" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
       <c r="D154" s="46"/>
@@ -30026,7 +30414,7 @@
       <c r="GF154" s="46"/>
       <c r="GG154" s="46"/>
     </row>
-    <row r="155" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
       <c r="D155" s="46"/>
@@ -30216,7 +30604,7 @@
       <c r="GF155" s="46"/>
       <c r="GG155" s="46"/>
     </row>
-    <row r="156" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="46"/>
@@ -30406,7 +30794,7 @@
       <c r="GF156" s="46"/>
       <c r="GG156" s="46"/>
     </row>
-    <row r="157" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
       <c r="D157" s="46"/>
@@ -30596,7 +30984,7 @@
       <c r="GF157" s="46"/>
       <c r="GG157" s="46"/>
     </row>
-    <row r="158" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
       <c r="D158" s="46"/>
@@ -30786,7 +31174,7 @@
       <c r="GF158" s="46"/>
       <c r="GG158" s="46"/>
     </row>
-    <row r="159" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
       <c r="D159" s="46"/>
@@ -30976,7 +31364,7 @@
       <c r="GF159" s="46"/>
       <c r="GG159" s="46"/>
     </row>
-    <row r="160" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="46"/>
@@ -31166,7 +31554,7 @@
       <c r="GF160" s="46"/>
       <c r="GG160" s="46"/>
     </row>
-    <row r="161" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="46"/>
@@ -31356,7 +31744,7 @@
       <c r="GF161" s="46"/>
       <c r="GG161" s="46"/>
     </row>
-    <row r="162" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
       <c r="D162" s="46"/>
@@ -31546,7 +31934,7 @@
       <c r="GF162" s="46"/>
       <c r="GG162" s="46"/>
     </row>
-    <row r="163" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="46"/>
@@ -31736,7 +32124,7 @@
       <c r="GF163" s="46"/>
       <c r="GG163" s="46"/>
     </row>
-    <row r="164" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="46"/>
@@ -31926,7 +32314,7 @@
       <c r="GF164" s="46"/>
       <c r="GG164" s="46"/>
     </row>
-    <row r="165" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
       <c r="D165" s="46"/>
@@ -32116,7 +32504,7 @@
       <c r="GF165" s="46"/>
       <c r="GG165" s="46"/>
     </row>
-    <row r="166" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="46"/>
@@ -32306,7 +32694,7 @@
       <c r="GF166" s="46"/>
       <c r="GG166" s="46"/>
     </row>
-    <row r="167" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
       <c r="D167" s="46"/>
@@ -32496,7 +32884,7 @@
       <c r="GF167" s="46"/>
       <c r="GG167" s="46"/>
     </row>
-    <row r="168" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
       <c r="D168" s="46"/>
@@ -32686,7 +33074,7 @@
       <c r="GF168" s="46"/>
       <c r="GG168" s="46"/>
     </row>
-    <row r="169" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
       <c r="D169" s="46"/>
@@ -32876,7 +33264,7 @@
       <c r="GF169" s="46"/>
       <c r="GG169" s="46"/>
     </row>
-    <row r="170" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
       <c r="D170" s="46"/>
@@ -33066,7 +33454,7 @@
       <c r="GF170" s="46"/>
       <c r="GG170" s="46"/>
     </row>
-    <row r="171" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
       <c r="D171" s="46"/>
@@ -33256,7 +33644,7 @@
       <c r="GF171" s="46"/>
       <c r="GG171" s="46"/>
     </row>
-    <row r="172" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
       <c r="D172" s="46"/>
@@ -33446,7 +33834,7 @@
       <c r="GF172" s="46"/>
       <c r="GG172" s="46"/>
     </row>
-    <row r="173" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
       <c r="D173" s="46"/>
@@ -33636,7 +34024,7 @@
       <c r="GF173" s="46"/>
       <c r="GG173" s="46"/>
     </row>
-    <row r="174" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
       <c r="D174" s="46"/>
@@ -33826,7 +34214,7 @@
       <c r="GF174" s="46"/>
       <c r="GG174" s="46"/>
     </row>
-    <row r="175" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
       <c r="D175" s="46"/>
@@ -34016,7 +34404,7 @@
       <c r="GF175" s="46"/>
       <c r="GG175" s="46"/>
     </row>
-    <row r="176" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
       <c r="D176" s="46"/>
@@ -34206,7 +34594,7 @@
       <c r="GF176" s="46"/>
       <c r="GG176" s="46"/>
     </row>
-    <row r="177" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
       <c r="D177" s="46"/>
@@ -34396,7 +34784,7 @@
       <c r="GF177" s="46"/>
       <c r="GG177" s="46"/>
     </row>
-    <row r="178" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
       <c r="D178" s="46"/>
@@ -34586,7 +34974,7 @@
       <c r="GF178" s="46"/>
       <c r="GG178" s="46"/>
     </row>
-    <row r="179" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
       <c r="D179" s="46"/>
@@ -34776,7 +35164,7 @@
       <c r="GF179" s="46"/>
       <c r="GG179" s="46"/>
     </row>
-    <row r="180" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
       <c r="D180" s="46"/>
@@ -34966,7 +35354,7 @@
       <c r="GF180" s="46"/>
       <c r="GG180" s="46"/>
     </row>
-    <row r="181" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
       <c r="D181" s="46"/>
@@ -35156,7 +35544,7 @@
       <c r="GF181" s="46"/>
       <c r="GG181" s="46"/>
     </row>
-    <row r="182" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
       <c r="D182" s="46"/>
@@ -35346,7 +35734,7 @@
       <c r="GF182" s="46"/>
       <c r="GG182" s="46"/>
     </row>
-    <row r="183" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
       <c r="D183" s="46"/>
@@ -35536,7 +35924,7 @@
       <c r="GF183" s="46"/>
       <c r="GG183" s="46"/>
     </row>
-    <row r="184" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
       <c r="D184" s="46"/>
@@ -35726,7 +36114,7 @@
       <c r="GF184" s="46"/>
       <c r="GG184" s="46"/>
     </row>
-    <row r="185" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
       <c r="D185" s="46"/>
@@ -35916,7 +36304,7 @@
       <c r="GF185" s="46"/>
       <c r="GG185" s="46"/>
     </row>
-    <row r="186" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
       <c r="D186" s="46"/>
@@ -36106,7 +36494,7 @@
       <c r="GF186" s="46"/>
       <c r="GG186" s="46"/>
     </row>
-    <row r="187" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
       <c r="D187" s="46"/>
@@ -36296,7 +36684,7 @@
       <c r="GF187" s="46"/>
       <c r="GG187" s="46"/>
     </row>
-    <row r="188" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
       <c r="D188" s="46"/>
@@ -36486,7 +36874,7 @@
       <c r="GF188" s="46"/>
       <c r="GG188" s="46"/>
     </row>
-    <row r="189" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
       <c r="D189" s="46"/>
@@ -36676,7 +37064,7 @@
       <c r="GF189" s="46"/>
       <c r="GG189" s="46"/>
     </row>
-    <row r="190" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
       <c r="D190" s="46"/>
@@ -36866,7 +37254,7 @@
       <c r="GF190" s="46"/>
       <c r="GG190" s="46"/>
     </row>
-    <row r="191" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
       <c r="D191" s="46"/>
@@ -37056,7 +37444,7 @@
       <c r="GF191" s="46"/>
       <c r="GG191" s="46"/>
     </row>
-    <row r="192" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
       <c r="D192" s="46"/>
@@ -37246,7 +37634,7 @@
       <c r="GF192" s="46"/>
       <c r="GG192" s="46"/>
     </row>
-    <row r="193" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
       <c r="D193" s="46"/>
@@ -37436,7 +37824,7 @@
       <c r="GF193" s="46"/>
       <c r="GG193" s="46"/>
     </row>
-    <row r="194" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
       <c r="D194" s="46"/>
@@ -37626,7 +38014,7 @@
       <c r="GF194" s="46"/>
       <c r="GG194" s="46"/>
     </row>
-    <row r="195" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
       <c r="D195" s="46"/>
@@ -37816,7 +38204,7 @@
       <c r="GF195" s="46"/>
       <c r="GG195" s="46"/>
     </row>
-    <row r="196" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
       <c r="D196" s="46"/>
@@ -38006,7 +38394,7 @@
       <c r="GF196" s="46"/>
       <c r="GG196" s="46"/>
     </row>
-    <row r="197" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
       <c r="D197" s="46"/>
@@ -38196,7 +38584,7 @@
       <c r="GF197" s="46"/>
       <c r="GG197" s="46"/>
     </row>
-    <row r="198" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
       <c r="D198" s="46"/>
@@ -38386,7 +38774,7 @@
       <c r="GF198" s="46"/>
       <c r="GG198" s="46"/>
     </row>
-    <row r="199" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
       <c r="D199" s="46"/>
@@ -38576,7 +38964,7 @@
       <c r="GF199" s="46"/>
       <c r="GG199" s="46"/>
     </row>
-    <row r="200" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
       <c r="D200" s="46"/>
@@ -38766,7 +39154,7 @@
       <c r="GF200" s="46"/>
       <c r="GG200" s="46"/>
     </row>
-    <row r="201" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
       <c r="D201" s="46"/>
@@ -38956,7 +39344,7 @@
       <c r="GF201" s="46"/>
       <c r="GG201" s="46"/>
     </row>
-    <row r="202" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
       <c r="D202" s="46"/>
@@ -39146,7 +39534,7 @@
       <c r="GF202" s="46"/>
       <c r="GG202" s="46"/>
     </row>
-    <row r="203" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
       <c r="D203" s="46"/>
@@ -39336,7 +39724,7 @@
       <c r="GF203" s="46"/>
       <c r="GG203" s="46"/>
     </row>
-    <row r="204" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
       <c r="D204" s="46"/>
@@ -39526,7 +39914,7 @@
       <c r="GF204" s="46"/>
       <c r="GG204" s="46"/>
     </row>
-    <row r="205" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
       <c r="D205" s="46"/>
@@ -39716,7 +40104,7 @@
       <c r="GF205" s="46"/>
       <c r="GG205" s="46"/>
     </row>
-    <row r="206" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
       <c r="D206" s="46"/>
@@ -39906,7 +40294,7 @@
       <c r="GF206" s="46"/>
       <c r="GG206" s="46"/>
     </row>
-    <row r="207" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
       <c r="D207" s="46"/>
@@ -40096,7 +40484,7 @@
       <c r="GF207" s="46"/>
       <c r="GG207" s="46"/>
     </row>
-    <row r="208" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
       <c r="D208" s="46"/>
@@ -40286,7 +40674,7 @@
       <c r="GF208" s="46"/>
       <c r="GG208" s="46"/>
     </row>
-    <row r="209" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
       <c r="D209" s="46"/>
@@ -40476,7 +40864,7 @@
       <c r="GF209" s="46"/>
       <c r="GG209" s="46"/>
     </row>
-    <row r="210" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
       <c r="D210" s="46"/>
@@ -40666,7 +41054,7 @@
       <c r="GF210" s="46"/>
       <c r="GG210" s="46"/>
     </row>
-    <row r="211" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
       <c r="D211" s="46"/>
@@ -40856,7 +41244,7 @@
       <c r="GF211" s="46"/>
       <c r="GG211" s="46"/>
     </row>
-    <row r="212" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
       <c r="D212" s="46"/>
@@ -41046,7 +41434,7 @@
       <c r="GF212" s="46"/>
       <c r="GG212" s="46"/>
     </row>
-    <row r="213" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
       <c r="D213" s="46"/>
@@ -41236,7 +41624,7 @@
       <c r="GF213" s="46"/>
       <c r="GG213" s="46"/>
     </row>
-    <row r="214" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
       <c r="D214" s="46"/>
@@ -41426,7 +41814,7 @@
       <c r="GF214" s="46"/>
       <c r="GG214" s="46"/>
     </row>
-    <row r="215" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
       <c r="D215" s="46"/>
@@ -41616,7 +42004,7 @@
       <c r="GF215" s="46"/>
       <c r="GG215" s="46"/>
     </row>
-    <row r="216" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
       <c r="D216" s="46"/>
@@ -41806,7 +42194,7 @@
       <c r="GF216" s="46"/>
       <c r="GG216" s="46"/>
     </row>
-    <row r="217" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
       <c r="D217" s="46"/>
@@ -41996,7 +42384,7 @@
       <c r="GF217" s="46"/>
       <c r="GG217" s="46"/>
     </row>
-    <row r="218" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
       <c r="D218" s="46"/>
@@ -42186,7 +42574,7 @@
       <c r="GF218" s="46"/>
       <c r="GG218" s="46"/>
     </row>
-    <row r="219" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
       <c r="D219" s="46"/>
@@ -42376,7 +42764,7 @@
       <c r="GF219" s="46"/>
       <c r="GG219" s="46"/>
     </row>
-    <row r="220" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
       <c r="D220" s="46"/>
@@ -42566,7 +42954,7 @@
       <c r="GF220" s="46"/>
       <c r="GG220" s="46"/>
     </row>
-    <row r="221" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
       <c r="D221" s="46"/>
@@ -42756,7 +43144,7 @@
       <c r="GF221" s="46"/>
       <c r="GG221" s="46"/>
     </row>
-    <row r="222" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
       <c r="D222" s="46"/>
@@ -42946,7 +43334,7 @@
       <c r="GF222" s="46"/>
       <c r="GG222" s="46"/>
     </row>
-    <row r="223" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
       <c r="D223" s="46"/>
@@ -43136,7 +43524,7 @@
       <c r="GF223" s="46"/>
       <c r="GG223" s="46"/>
     </row>
-    <row r="224" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
       <c r="D224" s="46"/>
@@ -43326,7 +43714,7 @@
       <c r="GF224" s="46"/>
       <c r="GG224" s="46"/>
     </row>
-    <row r="225" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
       <c r="D225" s="46"/>
@@ -43516,7 +43904,7 @@
       <c r="GF225" s="46"/>
       <c r="GG225" s="46"/>
     </row>
-    <row r="226" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
       <c r="D226" s="46"/>
@@ -43706,7 +44094,7 @@
       <c r="GF226" s="46"/>
       <c r="GG226" s="46"/>
     </row>
-    <row r="227" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
       <c r="D227" s="46"/>
@@ -43896,7 +44284,7 @@
       <c r="GF227" s="46"/>
       <c r="GG227" s="46"/>
     </row>
-    <row r="228" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
       <c r="D228" s="46"/>
@@ -44086,7 +44474,7 @@
       <c r="GF228" s="46"/>
       <c r="GG228" s="46"/>
     </row>
-    <row r="229" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
       <c r="D229" s="46"/>
@@ -44276,7 +44664,7 @@
       <c r="GF229" s="46"/>
       <c r="GG229" s="46"/>
     </row>
-    <row r="230" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
       <c r="D230" s="46"/>
@@ -44466,7 +44854,7 @@
       <c r="GF230" s="46"/>
       <c r="GG230" s="46"/>
     </row>
-    <row r="231" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
       <c r="D231" s="46"/>
@@ -44656,7 +45044,7 @@
       <c r="GF231" s="46"/>
       <c r="GG231" s="46"/>
     </row>
-    <row r="232" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
       <c r="D232" s="46"/>
@@ -44846,7 +45234,7 @@
       <c r="GF232" s="46"/>
       <c r="GG232" s="46"/>
     </row>
-    <row r="233" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
       <c r="D233" s="46"/>
@@ -45036,7 +45424,7 @@
       <c r="GF233" s="46"/>
       <c r="GG233" s="46"/>
     </row>
-    <row r="234" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
       <c r="D234" s="46"/>
@@ -45226,7 +45614,7 @@
       <c r="GF234" s="46"/>
       <c r="GG234" s="46"/>
     </row>
-    <row r="235" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
       <c r="D235" s="46"/>
@@ -45416,7 +45804,7 @@
       <c r="GF235" s="46"/>
       <c r="GG235" s="46"/>
     </row>
-    <row r="236" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
       <c r="D236" s="46"/>
@@ -45606,7 +45994,7 @@
       <c r="GF236" s="46"/>
       <c r="GG236" s="46"/>
     </row>
-    <row r="237" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
       <c r="D237" s="46"/>
@@ -45796,7 +46184,7 @@
       <c r="GF237" s="46"/>
       <c r="GG237" s="46"/>
     </row>
-    <row r="238" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
       <c r="D238" s="46"/>
@@ -45986,7 +46374,7 @@
       <c r="GF238" s="46"/>
       <c r="GG238" s="46"/>
     </row>
-    <row r="239" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
       <c r="D239" s="46"/>
@@ -46176,7 +46564,7 @@
       <c r="GF239" s="46"/>
       <c r="GG239" s="46"/>
     </row>
-    <row r="240" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
       <c r="D240" s="46"/>
@@ -46366,7 +46754,7 @@
       <c r="GF240" s="46"/>
       <c r="GG240" s="46"/>
     </row>
-    <row r="241" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
       <c r="D241" s="46"/>
@@ -46556,7 +46944,7 @@
       <c r="GF241" s="46"/>
       <c r="GG241" s="46"/>
     </row>
-    <row r="242" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
       <c r="D242" s="46"/>
@@ -46746,7 +47134,7 @@
       <c r="GF242" s="46"/>
       <c r="GG242" s="46"/>
     </row>
-    <row r="243" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
       <c r="D243" s="46"/>
@@ -46936,7 +47324,7 @@
       <c r="GF243" s="46"/>
       <c r="GG243" s="46"/>
     </row>
-    <row r="244" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
       <c r="D244" s="46"/>
@@ -47126,7 +47514,7 @@
       <c r="GF244" s="46"/>
       <c r="GG244" s="46"/>
     </row>
-    <row r="245" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
       <c r="D245" s="46"/>
@@ -47316,7 +47704,7 @@
       <c r="GF245" s="46"/>
       <c r="GG245" s="46"/>
     </row>
-    <row r="246" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
       <c r="D246" s="46"/>
@@ -47506,7 +47894,7 @@
       <c r="GF246" s="46"/>
       <c r="GG246" s="46"/>
     </row>
-    <row r="247" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
       <c r="D247" s="46"/>
@@ -47696,7 +48084,7 @@
       <c r="GF247" s="46"/>
       <c r="GG247" s="46"/>
     </row>
-    <row r="248" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
       <c r="D248" s="46"/>
@@ -47886,7 +48274,7 @@
       <c r="GF248" s="46"/>
       <c r="GG248" s="46"/>
     </row>
-    <row r="249" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
       <c r="D249" s="46"/>
@@ -48076,7 +48464,7 @@
       <c r="GF249" s="46"/>
       <c r="GG249" s="46"/>
     </row>
-    <row r="250" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
       <c r="D250" s="46"/>
@@ -48325,20 +48713,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="57.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="57.88671875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="51.5703125" customWidth="1"/>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51.5546875" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -48357,7 +48745,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -48381,7 +48769,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -48400,14 +48788,14 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="13">
         <f>StartDatum</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="1"/>
@@ -48423,7 +48811,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -48442,7 +48830,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -48466,7 +48854,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
@@ -48485,7 +48873,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -48506,7 +48894,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -48525,7 +48913,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
@@ -48551,7 +48939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
@@ -48561,7 +48949,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="53"/>
       <c r="D12" s="54"/>
@@ -48571,7 +48959,7 @@
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="55"/>
       <c r="D13" s="50"/>
@@ -48581,7 +48969,7 @@
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
@@ -48591,7 +48979,7 @@
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -48601,7 +48989,7 @@
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -48611,7 +48999,7 @@
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
@@ -48621,7 +49009,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
@@ -48631,7 +49019,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
@@ -48641,7 +49029,7 @@
       <c r="H19" s="60"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
@@ -48651,7 +49039,7 @@
       <c r="H20" s="60"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="56"/>
       <c r="C21" s="57"/>
       <c r="D21" s="58"/>
@@ -48661,7 +49049,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
       <c r="D22" s="58"/>
@@ -48671,7 +49059,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="52"/>
     </row>
-    <row r="23" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="56"/>
       <c r="C23" s="57"/>
       <c r="D23" s="58"/>
@@ -48681,7 +49069,7 @@
       <c r="H23" s="60"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="24" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="56"/>
       <c r="C24" s="57"/>
       <c r="D24" s="58"/>
@@ -48691,7 +49079,7 @@
       <c r="H24" s="60"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="56"/>
       <c r="C25" s="57"/>
       <c r="D25" s="58"/>
@@ -48701,7 +49089,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="52"/>
     </row>
-    <row r="26" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
       <c r="D26" s="58"/>
@@ -48711,7 +49099,7 @@
       <c r="H26" s="60"/>
       <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="56"/>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
@@ -48721,7 +49109,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="52"/>
     </row>
-    <row r="28" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
@@ -48731,7 +49119,7 @@
       <c r="H28" s="60"/>
       <c r="I28" s="52"/>
     </row>
-    <row r="29" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
       <c r="D29" s="63"/>
@@ -48741,7 +49129,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
@@ -48751,7 +49139,7 @@
       <c r="H30" s="60"/>
       <c r="I30" s="52"/>
     </row>
-    <row r="31" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
@@ -48761,7 +49149,7 @@
       <c r="H31" s="60"/>
       <c r="I31" s="52"/>
     </row>
-    <row r="32" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="68"/>
@@ -48771,7 +49159,7 @@
       <c r="H32" s="60"/>
       <c r="I32" s="52"/>
     </row>
-    <row r="33" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="68"/>
@@ -48781,7 +49169,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
       <c r="D34" s="68"/>
@@ -48791,7 +49179,7 @@
       <c r="H34" s="60"/>
       <c r="I34" s="52"/>
     </row>
-    <row r="35" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="68"/>
@@ -48801,7 +49189,7 @@
       <c r="H35" s="60"/>
       <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
       <c r="D36" s="68"/>
@@ -48811,7 +49199,7 @@
       <c r="H36" s="60"/>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
       <c r="D37" s="68"/>
@@ -48821,7 +49209,7 @@
       <c r="H37" s="60"/>
       <c r="I37" s="52"/>
     </row>
-    <row r="38" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="68"/>
@@ -48831,7 +49219,7 @@
       <c r="H38" s="60"/>
       <c r="I38" s="52"/>
     </row>
-    <row r="39" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="66"/>
       <c r="C39" s="67"/>
       <c r="D39" s="68"/>
@@ -48841,7 +49229,7 @@
       <c r="H39" s="60"/>
       <c r="I39" s="52"/>
     </row>
-    <row r="40" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="68"/>
@@ -48851,7 +49239,7 @@
       <c r="H40" s="60"/>
       <c r="I40" s="52"/>
     </row>
-    <row r="41" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="68"/>
@@ -48861,7 +49249,7 @@
       <c r="H41" s="60"/>
       <c r="I41" s="52"/>
     </row>
-    <row r="42" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="68"/>
@@ -48871,7 +49259,7 @@
       <c r="H42" s="60"/>
       <c r="I42" s="52"/>
     </row>
-    <row r="43" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
       <c r="D43" s="68"/>
@@ -48881,7 +49269,7 @@
       <c r="H43" s="60"/>
       <c r="I43" s="52"/>
     </row>
-    <row r="44" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="68"/>
@@ -48891,7 +49279,7 @@
       <c r="H44" s="60"/>
       <c r="I44" s="52"/>
     </row>
-    <row r="45" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="66"/>
       <c r="C45" s="67"/>
       <c r="D45" s="68"/>
@@ -48901,7 +49289,7 @@
       <c r="H45" s="60"/>
       <c r="I45" s="52"/>
     </row>
-    <row r="46" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="66"/>
       <c r="C46" s="67"/>
       <c r="D46" s="68"/>
@@ -48911,7 +49299,7 @@
       <c r="H46" s="60"/>
       <c r="I46" s="52"/>
     </row>
-    <row r="47" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
       <c r="D47" s="68"/>
@@ -48921,7 +49309,7 @@
       <c r="H47" s="60"/>
       <c r="I47" s="52"/>
     </row>
-    <row r="48" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="66"/>
       <c r="C48" s="67"/>
       <c r="D48" s="68"/>
@@ -48931,7 +49319,7 @@
       <c r="H48" s="60"/>
       <c r="I48" s="52"/>
     </row>
-    <row r="49" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
       <c r="D49" s="68"/>
@@ -48941,7 +49329,7 @@
       <c r="H49" s="60"/>
       <c r="I49" s="52"/>
     </row>
-    <row r="50" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="68"/>
@@ -48951,7 +49339,7 @@
       <c r="H50" s="60"/>
       <c r="I50" s="52"/>
     </row>
-    <row r="51" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="68"/>
@@ -48961,7 +49349,7 @@
       <c r="H51" s="60"/>
       <c r="I51" s="52"/>
     </row>
-    <row r="52" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="66"/>
       <c r="C52" s="67"/>
       <c r="D52" s="68"/>
@@ -48971,7 +49359,7 @@
       <c r="H52" s="60"/>
       <c r="I52" s="52"/>
     </row>
-    <row r="53" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
       <c r="D53" s="68"/>
@@ -48981,7 +49369,7 @@
       <c r="H53" s="60"/>
       <c r="I53" s="52"/>
     </row>
-    <row r="54" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="68"/>
@@ -48991,7 +49379,7 @@
       <c r="H54" s="60"/>
       <c r="I54" s="52"/>
     </row>
-    <row r="55" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="68"/>
@@ -49001,7 +49389,7 @@
       <c r="H55" s="60"/>
       <c r="I55" s="52"/>
     </row>
-    <row r="56" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="68"/>
@@ -49011,7 +49399,7 @@
       <c r="H56" s="60"/>
       <c r="I56" s="52"/>
     </row>
-    <row r="57" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="66"/>
       <c r="C57" s="67"/>
       <c r="D57" s="68"/>
@@ -49021,7 +49409,7 @@
       <c r="H57" s="60"/>
       <c r="I57" s="52"/>
     </row>
-    <row r="58" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="66"/>
       <c r="C58" s="67"/>
       <c r="D58" s="68"/>
@@ -49031,7 +49419,7 @@
       <c r="H58" s="60"/>
       <c r="I58" s="52"/>
     </row>
-    <row r="59" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="66"/>
       <c r="C59" s="67"/>
       <c r="D59" s="68"/>
@@ -49041,7 +49429,7 @@
       <c r="H59" s="60"/>
       <c r="I59" s="52"/>
     </row>
-    <row r="60" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="66"/>
       <c r="C60" s="67"/>
       <c r="D60" s="68"/>
@@ -49051,7 +49439,7 @@
       <c r="H60" s="60"/>
       <c r="I60" s="52"/>
     </row>
-    <row r="61" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="66"/>
       <c r="C61" s="67"/>
       <c r="D61" s="68"/>
@@ -49061,7 +49449,7 @@
       <c r="H61" s="60"/>
       <c r="I61" s="52"/>
     </row>
-    <row r="62" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="66"/>
       <c r="C62" s="67"/>
       <c r="D62" s="68"/>
@@ -49071,7 +49459,7 @@
       <c r="H62" s="60"/>
       <c r="I62" s="52"/>
     </row>
-    <row r="63" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="66"/>
       <c r="C63" s="67"/>
       <c r="D63" s="68"/>
@@ -49081,7 +49469,7 @@
       <c r="H63" s="60"/>
       <c r="I63" s="52"/>
     </row>
-    <row r="64" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="66"/>
       <c r="C64" s="67"/>
       <c r="D64" s="68"/>
@@ -49091,7 +49479,7 @@
       <c r="H64" s="60"/>
       <c r="I64" s="52"/>
     </row>
-    <row r="65" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="66"/>
       <c r="C65" s="67"/>
       <c r="D65" s="68"/>
@@ -49101,7 +49489,7 @@
       <c r="H65" s="60"/>
       <c r="I65" s="52"/>
     </row>
-    <row r="66" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="66"/>
       <c r="C66" s="67"/>
       <c r="D66" s="68"/>
@@ -49111,7 +49499,7 @@
       <c r="H66" s="60"/>
       <c r="I66" s="52"/>
     </row>
-    <row r="67" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="66"/>
       <c r="C67" s="67"/>
       <c r="D67" s="68"/>
@@ -49121,7 +49509,7 @@
       <c r="H67" s="60"/>
       <c r="I67" s="52"/>
     </row>
-    <row r="68" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="66"/>
       <c r="C68" s="67"/>
       <c r="D68" s="68"/>
@@ -49131,7 +49519,7 @@
       <c r="H68" s="60"/>
       <c r="I68" s="52"/>
     </row>
-    <row r="69" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="66"/>
       <c r="C69" s="67"/>
       <c r="D69" s="68"/>
@@ -49141,7 +49529,7 @@
       <c r="H69" s="60"/>
       <c r="I69" s="52"/>
     </row>
-    <row r="70" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="66"/>
       <c r="C70" s="67"/>
       <c r="D70" s="68"/>
@@ -49151,7 +49539,7 @@
       <c r="H70" s="60"/>
       <c r="I70" s="52"/>
     </row>
-    <row r="71" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="66"/>
       <c r="C71" s="67"/>
       <c r="D71" s="68"/>
@@ -49161,7 +49549,7 @@
       <c r="H71" s="60"/>
       <c r="I71" s="52"/>
     </row>
-    <row r="72" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="66"/>
       <c r="C72" s="67"/>
       <c r="D72" s="68"/>
@@ -49171,7 +49559,7 @@
       <c r="H72" s="60"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="66"/>
       <c r="C73" s="67"/>
       <c r="D73" s="68"/>
@@ -49181,7 +49569,7 @@
       <c r="H73" s="60"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="66"/>
       <c r="C74" s="67"/>
       <c r="D74" s="68"/>
@@ -49191,7 +49579,7 @@
       <c r="H74" s="60"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="66"/>
       <c r="C75" s="67"/>
       <c r="D75" s="68"/>
@@ -49201,7 +49589,7 @@
       <c r="H75" s="60"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="66"/>
       <c r="C76" s="67"/>
       <c r="D76" s="68"/>
@@ -49211,7 +49599,7 @@
       <c r="H76" s="60"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="66"/>
       <c r="C77" s="67"/>
       <c r="D77" s="68"/>
@@ -49221,7 +49609,7 @@
       <c r="H77" s="60"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="66"/>
       <c r="C78" s="67"/>
       <c r="D78" s="68"/>
@@ -49231,7 +49619,7 @@
       <c r="H78" s="60"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="66"/>
       <c r="C79" s="67"/>
       <c r="D79" s="68"/>
@@ -49241,7 +49629,7 @@
       <c r="H79" s="60"/>
       <c r="I79" s="52"/>
     </row>
-    <row r="80" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="66"/>
       <c r="C80" s="67"/>
       <c r="D80" s="68"/>
@@ -49251,7 +49639,7 @@
       <c r="H80" s="60"/>
       <c r="I80" s="52"/>
     </row>
-    <row r="81" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="66"/>
       <c r="C81" s="67"/>
       <c r="D81" s="68"/>
@@ -49261,7 +49649,7 @@
       <c r="H81" s="60"/>
       <c r="I81" s="52"/>
     </row>
-    <row r="82" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="66"/>
       <c r="C82" s="67"/>
       <c r="D82" s="68"/>
@@ -49271,7 +49659,7 @@
       <c r="H82" s="60"/>
       <c r="I82" s="52"/>
     </row>
-    <row r="83" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="66"/>
       <c r="C83" s="67"/>
       <c r="D83" s="68"/>
@@ -49281,7 +49669,7 @@
       <c r="H83" s="60"/>
       <c r="I83" s="52"/>
     </row>
-    <row r="84" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="66"/>
       <c r="C84" s="67"/>
       <c r="D84" s="68"/>
@@ -49291,7 +49679,7 @@
       <c r="H84" s="60"/>
       <c r="I84" s="52"/>
     </row>
-    <row r="85" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="66"/>
       <c r="C85" s="67"/>
       <c r="D85" s="68"/>
@@ -49301,7 +49689,7 @@
       <c r="H85" s="60"/>
       <c r="I85" s="52"/>
     </row>
-    <row r="86" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="66"/>
       <c r="C86" s="67"/>
       <c r="D86" s="68"/>
@@ -49311,7 +49699,7 @@
       <c r="H86" s="60"/>
       <c r="I86" s="52"/>
     </row>
-    <row r="87" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="66"/>
       <c r="C87" s="67"/>
       <c r="D87" s="68"/>
@@ -49321,7 +49709,7 @@
       <c r="H87" s="60"/>
       <c r="I87" s="52"/>
     </row>
-    <row r="88" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="66"/>
       <c r="C88" s="67"/>
       <c r="D88" s="68"/>
@@ -49331,7 +49719,7 @@
       <c r="H88" s="60"/>
       <c r="I88" s="52"/>
     </row>
-    <row r="89" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="66"/>
       <c r="C89" s="67"/>
       <c r="D89" s="68"/>
@@ -49341,7 +49729,7 @@
       <c r="H89" s="60"/>
       <c r="I89" s="52"/>
     </row>
-    <row r="90" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="66"/>
       <c r="C90" s="67"/>
       <c r="D90" s="68"/>
@@ -49351,7 +49739,7 @@
       <c r="H90" s="60"/>
       <c r="I90" s="52"/>
     </row>
-    <row r="91" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="66"/>
       <c r="C91" s="67"/>
       <c r="D91" s="68"/>
@@ -49361,7 +49749,7 @@
       <c r="H91" s="60"/>
       <c r="I91" s="52"/>
     </row>
-    <row r="92" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="66"/>
       <c r="C92" s="67"/>
       <c r="D92" s="68"/>
@@ -49371,7 +49759,7 @@
       <c r="H92" s="60"/>
       <c r="I92" s="52"/>
     </row>
-    <row r="93" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="66"/>
       <c r="C93" s="67"/>
       <c r="D93" s="68"/>
@@ -49381,7 +49769,7 @@
       <c r="H93" s="60"/>
       <c r="I93" s="52"/>
     </row>
-    <row r="94" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="66"/>
       <c r="C94" s="67"/>
       <c r="D94" s="68"/>
@@ -49391,7 +49779,7 @@
       <c r="H94" s="60"/>
       <c r="I94" s="52"/>
     </row>
-    <row r="95" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="66"/>
       <c r="C95" s="67"/>
       <c r="D95" s="68"/>
@@ -49401,7 +49789,7 @@
       <c r="H95" s="60"/>
       <c r="I95" s="52"/>
     </row>
-    <row r="96" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="66"/>
       <c r="C96" s="67"/>
       <c r="D96" s="68"/>
@@ -49411,7 +49799,7 @@
       <c r="H96" s="60"/>
       <c r="I96" s="52"/>
     </row>
-    <row r="97" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="66"/>
       <c r="C97" s="67"/>
       <c r="D97" s="68"/>
@@ -49421,7 +49809,7 @@
       <c r="H97" s="60"/>
       <c r="I97" s="52"/>
     </row>
-    <row r="98" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="66"/>
       <c r="C98" s="67"/>
       <c r="D98" s="68"/>
@@ -49431,7 +49819,7 @@
       <c r="H98" s="60"/>
       <c r="I98" s="52"/>
     </row>
-    <row r="99" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="66"/>
       <c r="C99" s="67"/>
       <c r="D99" s="68"/>
@@ -49441,7 +49829,7 @@
       <c r="H99" s="60"/>
       <c r="I99" s="52"/>
     </row>
-    <row r="100" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="66"/>
       <c r="C100" s="67"/>
       <c r="D100" s="68"/>
@@ -49451,7 +49839,7 @@
       <c r="H100" s="60"/>
       <c r="I100" s="52"/>
     </row>
-    <row r="101" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
       <c r="D101" s="68"/>
@@ -49461,7 +49849,7 @@
       <c r="H101" s="60"/>
       <c r="I101" s="52"/>
     </row>
-    <row r="102" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
       <c r="D102" s="68"/>
@@ -49471,7 +49859,7 @@
       <c r="H102" s="60"/>
       <c r="I102" s="52"/>
     </row>
-    <row r="103" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
       <c r="D103" s="68"/>
@@ -49481,7 +49869,7 @@
       <c r="H103" s="60"/>
       <c r="I103" s="52"/>
     </row>
-    <row r="104" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
       <c r="D104" s="68"/>
@@ -49491,7 +49879,7 @@
       <c r="H104" s="60"/>
       <c r="I104" s="52"/>
     </row>
-    <row r="105" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
       <c r="D105" s="68"/>
@@ -49501,7 +49889,7 @@
       <c r="H105" s="60"/>
       <c r="I105" s="52"/>
     </row>
-    <row r="106" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="66"/>
       <c r="C106" s="67"/>
       <c r="D106" s="68"/>
@@ -49511,7 +49899,7 @@
       <c r="H106" s="60"/>
       <c r="I106" s="52"/>
     </row>
-    <row r="107" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="66"/>
       <c r="C107" s="67"/>
       <c r="D107" s="68"/>
@@ -49521,7 +49909,7 @@
       <c r="H107" s="60"/>
       <c r="I107" s="52"/>
     </row>
-    <row r="108" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="66"/>
       <c r="C108" s="67"/>
       <c r="D108" s="68"/>
@@ -49531,7 +49919,7 @@
       <c r="H108" s="60"/>
       <c r="I108" s="52"/>
     </row>
-    <row r="109" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="66"/>
       <c r="C109" s="67"/>
       <c r="D109" s="68"/>
@@ -49541,7 +49929,7 @@
       <c r="H109" s="60"/>
       <c r="I109" s="52"/>
     </row>
-    <row r="110" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="66"/>
       <c r="C110" s="67"/>
       <c r="D110" s="68"/>
@@ -49551,7 +49939,7 @@
       <c r="H110" s="60"/>
       <c r="I110" s="52"/>
     </row>
-    <row r="111" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="66"/>
       <c r="C111" s="67"/>
       <c r="D111" s="68"/>
@@ -49561,7 +49949,7 @@
       <c r="H111" s="60"/>
       <c r="I111" s="52"/>
     </row>
-    <row r="112" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="66"/>
       <c r="C112" s="67"/>
       <c r="D112" s="68"/>
@@ -49571,7 +49959,7 @@
       <c r="H112" s="60"/>
       <c r="I112" s="52"/>
     </row>
-    <row r="113" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="66"/>
       <c r="C113" s="67"/>
       <c r="D113" s="68"/>
@@ -49581,7 +49969,7 @@
       <c r="H113" s="60"/>
       <c r="I113" s="52"/>
     </row>
-    <row r="114" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="66"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68"/>
@@ -49591,7 +49979,7 @@
       <c r="H114" s="60"/>
       <c r="I114" s="52"/>
     </row>
-    <row r="115" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="66"/>
       <c r="C115" s="67"/>
       <c r="D115" s="68"/>
@@ -49601,7 +49989,7 @@
       <c r="H115" s="60"/>
       <c r="I115" s="52"/>
     </row>
-    <row r="116" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="66"/>
       <c r="C116" s="67"/>
       <c r="D116" s="68"/>
@@ -49611,7 +49999,7 @@
       <c r="H116" s="60"/>
       <c r="I116" s="52"/>
     </row>
-    <row r="117" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="66"/>
       <c r="C117" s="67"/>
       <c r="D117" s="68"/>
@@ -49621,7 +50009,7 @@
       <c r="H117" s="60"/>
       <c r="I117" s="52"/>
     </row>
-    <row r="118" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="66"/>
       <c r="C118" s="67"/>
       <c r="D118" s="68"/>
@@ -49631,7 +50019,7 @@
       <c r="H118" s="60"/>
       <c r="I118" s="52"/>
     </row>
-    <row r="119" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="66"/>
       <c r="C119" s="67"/>
       <c r="D119" s="68"/>
@@ -49641,7 +50029,7 @@
       <c r="H119" s="60"/>
       <c r="I119" s="52"/>
     </row>
-    <row r="120" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="66"/>
       <c r="C120" s="67"/>
       <c r="D120" s="68"/>
@@ -49651,7 +50039,7 @@
       <c r="H120" s="60"/>
       <c r="I120" s="52"/>
     </row>
-    <row r="121" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="66"/>
       <c r="C121" s="67"/>
       <c r="D121" s="68"/>
@@ -49661,7 +50049,7 @@
       <c r="H121" s="60"/>
       <c r="I121" s="52"/>
     </row>
-    <row r="122" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="66"/>
       <c r="C122" s="67"/>
       <c r="D122" s="68"/>
@@ -49671,7 +50059,7 @@
       <c r="H122" s="60"/>
       <c r="I122" s="52"/>
     </row>
-    <row r="123" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="66"/>
       <c r="C123" s="67"/>
       <c r="D123" s="68"/>
@@ -49681,7 +50069,7 @@
       <c r="H123" s="60"/>
       <c r="I123" s="52"/>
     </row>
-    <row r="124" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="66"/>
       <c r="C124" s="67"/>
       <c r="D124" s="68"/>
@@ -49691,7 +50079,7 @@
       <c r="H124" s="60"/>
       <c r="I124" s="52"/>
     </row>
-    <row r="125" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="66"/>
       <c r="C125" s="67"/>
       <c r="D125" s="68"/>
@@ -49701,7 +50089,7 @@
       <c r="H125" s="60"/>
       <c r="I125" s="52"/>
     </row>
-    <row r="126" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="66"/>
       <c r="C126" s="67"/>
       <c r="D126" s="68"/>
@@ -49711,7 +50099,7 @@
       <c r="H126" s="60"/>
       <c r="I126" s="52"/>
     </row>
-    <row r="127" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="66"/>
       <c r="C127" s="67"/>
       <c r="D127" s="68"/>
@@ -49721,7 +50109,7 @@
       <c r="H127" s="60"/>
       <c r="I127" s="52"/>
     </row>
-    <row r="128" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="66"/>
       <c r="C128" s="67"/>
       <c r="D128" s="68"/>
@@ -49731,7 +50119,7 @@
       <c r="H128" s="60"/>
       <c r="I128" s="52"/>
     </row>
-    <row r="129" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="66"/>
       <c r="C129" s="67"/>
       <c r="D129" s="68"/>
@@ -49741,7 +50129,7 @@
       <c r="H129" s="60"/>
       <c r="I129" s="52"/>
     </row>
-    <row r="130" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="66"/>
       <c r="C130" s="67"/>
       <c r="D130" s="68"/>
@@ -49751,7 +50139,7 @@
       <c r="H130" s="60"/>
       <c r="I130" s="52"/>
     </row>
-    <row r="131" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="66"/>
       <c r="C131" s="67"/>
       <c r="D131" s="68"/>
@@ -49761,7 +50149,7 @@
       <c r="H131" s="60"/>
       <c r="I131" s="52"/>
     </row>
-    <row r="132" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="66"/>
       <c r="C132" s="67"/>
       <c r="D132" s="68"/>
@@ -49771,7 +50159,7 @@
       <c r="H132" s="60"/>
       <c r="I132" s="52"/>
     </row>
-    <row r="133" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="66"/>
       <c r="C133" s="67"/>
       <c r="D133" s="68"/>
@@ -49781,7 +50169,7 @@
       <c r="H133" s="60"/>
       <c r="I133" s="52"/>
     </row>
-    <row r="134" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="66"/>
       <c r="C134" s="67"/>
       <c r="D134" s="68"/>
@@ -49791,7 +50179,7 @@
       <c r="H134" s="60"/>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="66"/>
       <c r="C135" s="67"/>
       <c r="D135" s="68"/>
@@ -49801,7 +50189,7 @@
       <c r="H135" s="60"/>
       <c r="I135" s="52"/>
     </row>
-    <row r="136" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="66"/>
       <c r="C136" s="67"/>
       <c r="D136" s="68"/>
@@ -49811,7 +50199,7 @@
       <c r="H136" s="60"/>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="66"/>
       <c r="C137" s="67"/>
       <c r="D137" s="68"/>
@@ -49821,7 +50209,7 @@
       <c r="H137" s="60"/>
       <c r="I137" s="52"/>
     </row>
-    <row r="138" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="66"/>
       <c r="C138" s="67"/>
       <c r="D138" s="68"/>
@@ -49831,7 +50219,7 @@
       <c r="H138" s="60"/>
       <c r="I138" s="52"/>
     </row>
-    <row r="139" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="66"/>
       <c r="C139" s="67"/>
       <c r="D139" s="68"/>
@@ -49841,7 +50229,7 @@
       <c r="H139" s="60"/>
       <c r="I139" s="52"/>
     </row>
-    <row r="140" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="66"/>
       <c r="C140" s="67"/>
       <c r="D140" s="68"/>
@@ -49851,7 +50239,7 @@
       <c r="H140" s="60"/>
       <c r="I140" s="52"/>
     </row>
-    <row r="141" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="66"/>
       <c r="C141" s="67"/>
       <c r="D141" s="68"/>
@@ -49861,7 +50249,7 @@
       <c r="H141" s="60"/>
       <c r="I141" s="52"/>
     </row>
-    <row r="142" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="66"/>
       <c r="C142" s="67"/>
       <c r="D142" s="68"/>
@@ -49871,7 +50259,7 @@
       <c r="H142" s="60"/>
       <c r="I142" s="52"/>
     </row>
-    <row r="143" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="66"/>
       <c r="C143" s="67"/>
       <c r="D143" s="68"/>
@@ -49881,7 +50269,7 @@
       <c r="H143" s="60"/>
       <c r="I143" s="52"/>
     </row>
-    <row r="144" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="66"/>
       <c r="C144" s="67"/>
       <c r="D144" s="68"/>
@@ -49891,7 +50279,7 @@
       <c r="H144" s="60"/>
       <c r="I144" s="52"/>
     </row>
-    <row r="145" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="66"/>
       <c r="C145" s="67"/>
       <c r="D145" s="68"/>
@@ -49901,7 +50289,7 @@
       <c r="H145" s="60"/>
       <c r="I145" s="52"/>
     </row>
-    <row r="146" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="66"/>
       <c r="C146" s="67"/>
       <c r="D146" s="68"/>
@@ -49911,7 +50299,7 @@
       <c r="H146" s="60"/>
       <c r="I146" s="52"/>
     </row>
-    <row r="147" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="66"/>
       <c r="C147" s="67"/>
       <c r="D147" s="68"/>
@@ -49921,7 +50309,7 @@
       <c r="H147" s="60"/>
       <c r="I147" s="52"/>
     </row>
-    <row r="148" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="66"/>
       <c r="C148" s="67"/>
       <c r="D148" s="68"/>
@@ -49931,7 +50319,7 @@
       <c r="H148" s="60"/>
       <c r="I148" s="52"/>
     </row>
-    <row r="149" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="66"/>
       <c r="C149" s="67"/>
       <c r="D149" s="68"/>
@@ -49941,7 +50329,7 @@
       <c r="H149" s="60"/>
       <c r="I149" s="52"/>
     </row>
-    <row r="150" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="66"/>
       <c r="C150" s="67"/>
       <c r="D150" s="68"/>
@@ -49951,7 +50339,7 @@
       <c r="H150" s="60"/>
       <c r="I150" s="52"/>
     </row>
-    <row r="151" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="66"/>
       <c r="C151" s="67"/>
       <c r="D151" s="68"/>
@@ -49961,7 +50349,7 @@
       <c r="H151" s="60"/>
       <c r="I151" s="52"/>
     </row>
-    <row r="152" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="66"/>
       <c r="C152" s="67"/>
       <c r="D152" s="68"/>
@@ -49971,7 +50359,7 @@
       <c r="H152" s="60"/>
       <c r="I152" s="52"/>
     </row>
-    <row r="153" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="66"/>
       <c r="C153" s="67"/>
       <c r="D153" s="68"/>
@@ -49981,7 +50369,7 @@
       <c r="H153" s="60"/>
       <c r="I153" s="52"/>
     </row>
-    <row r="154" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="66"/>
       <c r="C154" s="67"/>
       <c r="D154" s="68"/>
@@ -49991,7 +50379,7 @@
       <c r="H154" s="60"/>
       <c r="I154" s="52"/>
     </row>
-    <row r="155" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="66"/>
       <c r="C155" s="67"/>
       <c r="D155" s="68"/>
@@ -50001,7 +50389,7 @@
       <c r="H155" s="60"/>
       <c r="I155" s="52"/>
     </row>
-    <row r="156" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="66"/>
       <c r="C156" s="67"/>
       <c r="D156" s="68"/>
@@ -50011,7 +50399,7 @@
       <c r="H156" s="60"/>
       <c r="I156" s="52"/>
     </row>
-    <row r="157" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="66"/>
       <c r="C157" s="67"/>
       <c r="D157" s="68"/>
@@ -50021,7 +50409,7 @@
       <c r="H157" s="60"/>
       <c r="I157" s="52"/>
     </row>
-    <row r="158" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="66"/>
       <c r="C158" s="67"/>
       <c r="D158" s="68"/>
@@ -50031,7 +50419,7 @@
       <c r="H158" s="60"/>
       <c r="I158" s="52"/>
     </row>
-    <row r="159" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="66"/>
       <c r="C159" s="67"/>
       <c r="D159" s="68"/>
@@ -50041,7 +50429,7 @@
       <c r="H159" s="60"/>
       <c r="I159" s="52"/>
     </row>
-    <row r="160" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="66"/>
       <c r="C160" s="67"/>
       <c r="D160" s="68"/>
@@ -50051,7 +50439,7 @@
       <c r="H160" s="60"/>
       <c r="I160" s="52"/>
     </row>
-    <row r="161" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="66"/>
       <c r="C161" s="67"/>
       <c r="D161" s="68"/>
@@ -50061,7 +50449,7 @@
       <c r="H161" s="60"/>
       <c r="I161" s="52"/>
     </row>
-    <row r="162" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="66"/>
       <c r="C162" s="67"/>
       <c r="D162" s="68"/>
@@ -50071,7 +50459,7 @@
       <c r="H162" s="60"/>
       <c r="I162" s="52"/>
     </row>
-    <row r="163" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="66"/>
       <c r="C163" s="67"/>
       <c r="D163" s="68"/>
@@ -50081,7 +50469,7 @@
       <c r="H163" s="60"/>
       <c r="I163" s="52"/>
     </row>
-    <row r="164" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="66"/>
       <c r="C164" s="67"/>
       <c r="D164" s="68"/>
@@ -50091,7 +50479,7 @@
       <c r="H164" s="60"/>
       <c r="I164" s="52"/>
     </row>
-    <row r="165" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="66"/>
       <c r="C165" s="67"/>
       <c r="D165" s="68"/>
@@ -50101,7 +50489,7 @@
       <c r="H165" s="60"/>
       <c r="I165" s="52"/>
     </row>
-    <row r="166" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="66"/>
       <c r="C166" s="67"/>
       <c r="D166" s="68"/>
@@ -50111,7 +50499,7 @@
       <c r="H166" s="60"/>
       <c r="I166" s="52"/>
     </row>
-    <row r="167" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="66"/>
       <c r="C167" s="67"/>
       <c r="D167" s="68"/>
@@ -50121,7 +50509,7 @@
       <c r="H167" s="60"/>
       <c r="I167" s="52"/>
     </row>
-    <row r="168" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="66"/>
       <c r="C168" s="67"/>
       <c r="D168" s="68"/>
@@ -50131,7 +50519,7 @@
       <c r="H168" s="60"/>
       <c r="I168" s="52"/>
     </row>
-    <row r="169" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="66"/>
       <c r="C169" s="67"/>
       <c r="D169" s="68"/>
@@ -50141,7 +50529,7 @@
       <c r="H169" s="60"/>
       <c r="I169" s="52"/>
     </row>
-    <row r="170" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="66"/>
       <c r="C170" s="67"/>
       <c r="D170" s="68"/>
@@ -50151,7 +50539,7 @@
       <c r="H170" s="60"/>
       <c r="I170" s="52"/>
     </row>
-    <row r="171" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="66"/>
       <c r="C171" s="67"/>
       <c r="D171" s="68"/>
@@ -50161,7 +50549,7 @@
       <c r="H171" s="60"/>
       <c r="I171" s="52"/>
     </row>
-    <row r="172" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="66"/>
       <c r="C172" s="67"/>
       <c r="D172" s="68"/>
@@ -50171,7 +50559,7 @@
       <c r="H172" s="60"/>
       <c r="I172" s="52"/>
     </row>
-    <row r="173" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="66"/>
       <c r="C173" s="67"/>
       <c r="D173" s="68"/>
@@ -50181,7 +50569,7 @@
       <c r="H173" s="60"/>
       <c r="I173" s="52"/>
     </row>
-    <row r="174" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="66"/>
       <c r="C174" s="67"/>
       <c r="D174" s="68"/>
@@ -50191,7 +50579,7 @@
       <c r="H174" s="60"/>
       <c r="I174" s="52"/>
     </row>
-    <row r="175" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="66"/>
       <c r="C175" s="67"/>
       <c r="D175" s="68"/>
@@ -50201,7 +50589,7 @@
       <c r="H175" s="60"/>
       <c r="I175" s="52"/>
     </row>
-    <row r="176" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="66"/>
       <c r="C176" s="67"/>
       <c r="D176" s="68"/>
@@ -50211,7 +50599,7 @@
       <c r="H176" s="60"/>
       <c r="I176" s="52"/>
     </row>
-    <row r="177" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="66"/>
       <c r="C177" s="67"/>
       <c r="D177" s="68"/>
@@ -50221,7 +50609,7 @@
       <c r="H177" s="60"/>
       <c r="I177" s="52"/>
     </row>
-    <row r="178" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="66"/>
       <c r="C178" s="67"/>
       <c r="D178" s="68"/>
@@ -50231,7 +50619,7 @@
       <c r="H178" s="60"/>
       <c r="I178" s="52"/>
     </row>
-    <row r="179" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
       <c r="D179" s="68"/>
@@ -50241,7 +50629,7 @@
       <c r="H179" s="60"/>
       <c r="I179" s="52"/>
     </row>
-    <row r="180" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="66"/>
       <c r="C180" s="67"/>
       <c r="D180" s="68"/>
@@ -50251,7 +50639,7 @@
       <c r="H180" s="60"/>
       <c r="I180" s="52"/>
     </row>
-    <row r="181" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="66"/>
       <c r="C181" s="67"/>
       <c r="D181" s="68"/>
@@ -50261,7 +50649,7 @@
       <c r="H181" s="60"/>
       <c r="I181" s="52"/>
     </row>
-    <row r="182" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="66"/>
       <c r="C182" s="67"/>
       <c r="D182" s="68"/>
@@ -50271,7 +50659,7 @@
       <c r="H182" s="60"/>
       <c r="I182" s="52"/>
     </row>
-    <row r="183" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="66"/>
       <c r="C183" s="67"/>
       <c r="D183" s="68"/>
@@ -50281,7 +50669,7 @@
       <c r="H183" s="60"/>
       <c r="I183" s="52"/>
     </row>
-    <row r="184" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="66"/>
       <c r="C184" s="67"/>
       <c r="D184" s="68"/>
@@ -50291,7 +50679,7 @@
       <c r="H184" s="60"/>
       <c r="I184" s="52"/>
     </row>
-    <row r="185" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="66"/>
       <c r="C185" s="67"/>
       <c r="D185" s="68"/>
@@ -50301,7 +50689,7 @@
       <c r="H185" s="60"/>
       <c r="I185" s="52"/>
     </row>
-    <row r="186" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="66"/>
       <c r="C186" s="67"/>
       <c r="D186" s="68"/>
@@ -50311,7 +50699,7 @@
       <c r="H186" s="60"/>
       <c r="I186" s="52"/>
     </row>
-    <row r="187" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="66"/>
       <c r="C187" s="67"/>
       <c r="D187" s="68"/>
@@ -50321,7 +50709,7 @@
       <c r="H187" s="60"/>
       <c r="I187" s="52"/>
     </row>
-    <row r="188" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="66"/>
       <c r="C188" s="67"/>
       <c r="D188" s="68"/>
@@ -50331,7 +50719,7 @@
       <c r="H188" s="60"/>
       <c r="I188" s="52"/>
     </row>
-    <row r="189" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="66"/>
       <c r="C189" s="67"/>
       <c r="D189" s="68"/>
@@ -50341,7 +50729,7 @@
       <c r="H189" s="60"/>
       <c r="I189" s="52"/>
     </row>
-    <row r="190" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="66"/>
       <c r="C190" s="67"/>
       <c r="D190" s="68"/>
@@ -50351,7 +50739,7 @@
       <c r="H190" s="60"/>
       <c r="I190" s="52"/>
     </row>
-    <row r="191" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="66"/>
       <c r="C191" s="67"/>
       <c r="D191" s="68"/>
@@ -50361,7 +50749,7 @@
       <c r="H191" s="60"/>
       <c r="I191" s="52"/>
     </row>
-    <row r="192" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="66"/>
       <c r="C192" s="67"/>
       <c r="D192" s="68"/>
@@ -50371,7 +50759,7 @@
       <c r="H192" s="60"/>
       <c r="I192" s="52"/>
     </row>
-    <row r="193" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="66"/>
       <c r="C193" s="67"/>
       <c r="D193" s="68"/>
@@ -50381,7 +50769,7 @@
       <c r="H193" s="60"/>
       <c r="I193" s="52"/>
     </row>
-    <row r="194" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="66"/>
       <c r="C194" s="67"/>
       <c r="D194" s="68"/>
@@ -50391,7 +50779,7 @@
       <c r="H194" s="60"/>
       <c r="I194" s="52"/>
     </row>
-    <row r="195" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="66"/>
       <c r="C195" s="67"/>
       <c r="D195" s="68"/>
@@ -50401,7 +50789,7 @@
       <c r="H195" s="60"/>
       <c r="I195" s="52"/>
     </row>
-    <row r="196" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="66"/>
       <c r="C196" s="67"/>
       <c r="D196" s="68"/>
@@ -50411,7 +50799,7 @@
       <c r="H196" s="60"/>
       <c r="I196" s="52"/>
     </row>
-    <row r="197" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="66"/>
       <c r="C197" s="67"/>
       <c r="D197" s="68"/>
@@ -50421,7 +50809,7 @@
       <c r="H197" s="60"/>
       <c r="I197" s="52"/>
     </row>
-    <row r="198" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="66"/>
       <c r="C198" s="67"/>
       <c r="D198" s="68"/>
@@ -50431,7 +50819,7 @@
       <c r="H198" s="60"/>
       <c r="I198" s="52"/>
     </row>
-    <row r="199" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="66"/>
       <c r="C199" s="67"/>
       <c r="D199" s="68"/>
@@ -50441,7 +50829,7 @@
       <c r="H199" s="60"/>
       <c r="I199" s="52"/>
     </row>
-    <row r="200" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="66"/>
       <c r="C200" s="67"/>
       <c r="D200" s="68"/>
@@ -50451,7 +50839,7 @@
       <c r="H200" s="60"/>
       <c r="I200" s="52"/>
     </row>
-    <row r="201" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="66"/>
       <c r="C201" s="67"/>
       <c r="D201" s="68"/>
@@ -50461,7 +50849,7 @@
       <c r="H201" s="60"/>
       <c r="I201" s="52"/>
     </row>
-    <row r="202" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="66"/>
       <c r="C202" s="67"/>
       <c r="D202" s="68"/>
@@ -50471,7 +50859,7 @@
       <c r="H202" s="60"/>
       <c r="I202" s="52"/>
     </row>
-    <row r="203" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="66"/>
       <c r="C203" s="67"/>
       <c r="D203" s="68"/>
@@ -50481,7 +50869,7 @@
       <c r="H203" s="60"/>
       <c r="I203" s="52"/>
     </row>
-    <row r="204" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="66"/>
       <c r="C204" s="67"/>
       <c r="D204" s="68"/>
@@ -50491,7 +50879,7 @@
       <c r="H204" s="60"/>
       <c r="I204" s="52"/>
     </row>
-    <row r="205" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="66"/>
       <c r="C205" s="67"/>
       <c r="D205" s="68"/>
@@ -50501,7 +50889,7 @@
       <c r="H205" s="60"/>
       <c r="I205" s="52"/>
     </row>
-    <row r="206" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="66"/>
       <c r="C206" s="67"/>
       <c r="D206" s="68"/>
@@ -50511,7 +50899,7 @@
       <c r="H206" s="60"/>
       <c r="I206" s="52"/>
     </row>
-    <row r="207" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="66"/>
       <c r="C207" s="67"/>
       <c r="D207" s="68"/>
@@ -50521,7 +50909,7 @@
       <c r="H207" s="60"/>
       <c r="I207" s="52"/>
     </row>
-    <row r="208" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="66"/>
       <c r="C208" s="67"/>
       <c r="D208" s="68"/>
@@ -50531,7 +50919,7 @@
       <c r="H208" s="60"/>
       <c r="I208" s="52"/>
     </row>
-    <row r="209" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="66"/>
       <c r="C209" s="67"/>
       <c r="D209" s="68"/>
@@ -50541,7 +50929,7 @@
       <c r="H209" s="60"/>
       <c r="I209" s="52"/>
     </row>
-    <row r="210" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="66"/>
       <c r="C210" s="67"/>
       <c r="D210" s="68"/>
@@ -50551,7 +50939,7 @@
       <c r="H210" s="60"/>
       <c r="I210" s="52"/>
     </row>
-    <row r="211" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="66"/>
       <c r="C211" s="67"/>
       <c r="D211" s="68"/>
@@ -50561,7 +50949,7 @@
       <c r="H211" s="60"/>
       <c r="I211" s="52"/>
     </row>
-    <row r="212" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="66"/>
       <c r="C212" s="67"/>
       <c r="D212" s="68"/>
@@ -50571,7 +50959,7 @@
       <c r="H212" s="60"/>
       <c r="I212" s="52"/>
     </row>
-    <row r="213" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="66"/>
       <c r="C213" s="67"/>
       <c r="D213" s="68"/>
@@ -50581,7 +50969,7 @@
       <c r="H213" s="60"/>
       <c r="I213" s="52"/>
     </row>
-    <row r="214" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="66"/>
       <c r="C214" s="67"/>
       <c r="D214" s="68"/>
@@ -50591,7 +50979,7 @@
       <c r="H214" s="60"/>
       <c r="I214" s="52"/>
     </row>
-    <row r="215" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="66"/>
       <c r="C215" s="67"/>
       <c r="D215" s="68"/>
@@ -50601,7 +50989,7 @@
       <c r="H215" s="60"/>
       <c r="I215" s="52"/>
     </row>
-    <row r="216" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="66"/>
       <c r="C216" s="67"/>
       <c r="D216" s="68"/>
@@ -50611,7 +50999,7 @@
       <c r="H216" s="60"/>
       <c r="I216" s="52"/>
     </row>
-    <row r="217" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="66"/>
       <c r="C217" s="67"/>
       <c r="D217" s="68"/>
@@ -50621,7 +51009,7 @@
       <c r="H217" s="60"/>
       <c r="I217" s="52"/>
     </row>
-    <row r="218" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="66"/>
       <c r="C218" s="67"/>
       <c r="D218" s="68"/>
@@ -50631,7 +51019,7 @@
       <c r="H218" s="60"/>
       <c r="I218" s="52"/>
     </row>
-    <row r="219" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="66"/>
       <c r="C219" s="67"/>
       <c r="D219" s="68"/>
@@ -50641,7 +51029,7 @@
       <c r="H219" s="60"/>
       <c r="I219" s="52"/>
     </row>
-    <row r="220" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="66"/>
       <c r="C220" s="67"/>
       <c r="D220" s="68"/>
@@ -50651,7 +51039,7 @@
       <c r="H220" s="60"/>
       <c r="I220" s="52"/>
     </row>
-    <row r="221" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="66"/>
       <c r="C221" s="67"/>
       <c r="D221" s="68"/>
@@ -50661,7 +51049,7 @@
       <c r="H221" s="60"/>
       <c r="I221" s="52"/>
     </row>
-    <row r="222" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="66"/>
       <c r="C222" s="67"/>
       <c r="D222" s="68"/>
@@ -50671,7 +51059,7 @@
       <c r="H222" s="60"/>
       <c r="I222" s="52"/>
     </row>
-    <row r="223" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="66"/>
       <c r="C223" s="67"/>
       <c r="D223" s="68"/>
@@ -50681,7 +51069,7 @@
       <c r="H223" s="60"/>
       <c r="I223" s="52"/>
     </row>
-    <row r="224" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="66"/>
       <c r="C224" s="67"/>
       <c r="D224" s="68"/>
@@ -50691,7 +51079,7 @@
       <c r="H224" s="60"/>
       <c r="I224" s="52"/>
     </row>
-    <row r="225" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="66"/>
       <c r="C225" s="67"/>
       <c r="D225" s="68"/>
@@ -50701,7 +51089,7 @@
       <c r="H225" s="60"/>
       <c r="I225" s="52"/>
     </row>
-    <row r="226" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="66"/>
       <c r="C226" s="67"/>
       <c r="D226" s="68"/>
@@ -50711,7 +51099,7 @@
       <c r="H226" s="60"/>
       <c r="I226" s="52"/>
     </row>
-    <row r="227" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="66"/>
       <c r="C227" s="67"/>
       <c r="D227" s="68"/>
@@ -50721,7 +51109,7 @@
       <c r="H227" s="60"/>
       <c r="I227" s="52"/>
     </row>
-    <row r="228" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="66"/>
       <c r="C228" s="67"/>
       <c r="D228" s="68"/>
@@ -50731,7 +51119,7 @@
       <c r="H228" s="60"/>
       <c r="I228" s="52"/>
     </row>
-    <row r="229" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="66"/>
       <c r="C229" s="67"/>
       <c r="D229" s="68"/>
@@ -50741,7 +51129,7 @@
       <c r="H229" s="60"/>
       <c r="I229" s="52"/>
     </row>
-    <row r="230" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="66"/>
       <c r="C230" s="67"/>
       <c r="D230" s="68"/>
@@ -50751,7 +51139,7 @@
       <c r="H230" s="60"/>
       <c r="I230" s="52"/>
     </row>
-    <row r="231" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="66"/>
       <c r="C231" s="67"/>
       <c r="D231" s="68"/>
@@ -50761,7 +51149,7 @@
       <c r="H231" s="60"/>
       <c r="I231" s="52"/>
     </row>
-    <row r="232" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="66"/>
       <c r="C232" s="67"/>
       <c r="D232" s="68"/>
@@ -50771,7 +51159,7 @@
       <c r="H232" s="60"/>
       <c r="I232" s="52"/>
     </row>
-    <row r="233" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="66"/>
       <c r="C233" s="67"/>
       <c r="D233" s="68"/>
@@ -50781,7 +51169,7 @@
       <c r="H233" s="60"/>
       <c r="I233" s="52"/>
     </row>
-    <row r="234" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="66"/>
       <c r="C234" s="67"/>
       <c r="D234" s="68"/>
@@ -50791,7 +51179,7 @@
       <c r="H234" s="60"/>
       <c r="I234" s="52"/>
     </row>
-    <row r="235" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="66"/>
       <c r="C235" s="67"/>
       <c r="D235" s="68"/>
@@ -50801,7 +51189,7 @@
       <c r="H235" s="60"/>
       <c r="I235" s="52"/>
     </row>
-    <row r="236" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="66"/>
       <c r="C236" s="67"/>
       <c r="D236" s="68"/>
@@ -50811,7 +51199,7 @@
       <c r="H236" s="60"/>
       <c r="I236" s="52"/>
     </row>
-    <row r="237" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="66"/>
       <c r="C237" s="67"/>
       <c r="D237" s="68"/>
@@ -50821,7 +51209,7 @@
       <c r="H237" s="60"/>
       <c r="I237" s="52"/>
     </row>
-    <row r="238" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="66"/>
       <c r="C238" s="67"/>
       <c r="D238" s="68"/>
@@ -50831,7 +51219,7 @@
       <c r="H238" s="60"/>
       <c r="I238" s="52"/>
     </row>
-    <row r="239" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="66"/>
       <c r="C239" s="67"/>
       <c r="D239" s="68"/>
@@ -50841,7 +51229,7 @@
       <c r="H239" s="60"/>
       <c r="I239" s="52"/>
     </row>
-    <row r="240" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="66"/>
       <c r="C240" s="67"/>
       <c r="D240" s="68"/>
@@ -50851,7 +51239,7 @@
       <c r="H240" s="60"/>
       <c r="I240" s="52"/>
     </row>
-    <row r="241" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="66"/>
       <c r="C241" s="67"/>
       <c r="D241" s="68"/>
@@ -50861,7 +51249,7 @@
       <c r="H241" s="60"/>
       <c r="I241" s="52"/>
     </row>
-    <row r="242" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="66"/>
       <c r="C242" s="67"/>
       <c r="D242" s="68"/>
@@ -50871,7 +51259,7 @@
       <c r="H242" s="60"/>
       <c r="I242" s="52"/>
     </row>
-    <row r="243" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="66"/>
       <c r="C243" s="67"/>
       <c r="D243" s="68"/>
@@ -50881,7 +51269,7 @@
       <c r="H243" s="60"/>
       <c r="I243" s="52"/>
     </row>
-    <row r="244" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="66"/>
       <c r="C244" s="67"/>
       <c r="D244" s="68"/>
@@ -50891,7 +51279,7 @@
       <c r="H244" s="60"/>
       <c r="I244" s="52"/>
     </row>
-    <row r="245" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="66"/>
       <c r="C245" s="67"/>
       <c r="D245" s="68"/>
@@ -50901,7 +51289,7 @@
       <c r="H245" s="60"/>
       <c r="I245" s="52"/>
     </row>
-    <row r="246" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="66"/>
       <c r="C246" s="67"/>
       <c r="D246" s="68"/>
@@ -50911,7 +51299,7 @@
       <c r="H246" s="60"/>
       <c r="I246" s="52"/>
     </row>
-    <row r="247" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="66"/>
       <c r="C247" s="67"/>
       <c r="D247" s="68"/>
@@ -50921,7 +51309,7 @@
       <c r="H247" s="60"/>
       <c r="I247" s="52"/>
     </row>
-    <row r="248" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="66"/>
       <c r="C248" s="67"/>
       <c r="D248" s="68"/>
@@ -50931,7 +51319,7 @@
       <c r="H248" s="60"/>
       <c r="I248" s="52"/>
     </row>
-    <row r="249" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="66"/>
       <c r="C249" s="67"/>
       <c r="D249" s="68"/>
@@ -50941,7 +51329,7 @@
       <c r="H249" s="60"/>
       <c r="I249" s="52"/>
     </row>
-    <row r="250" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="66"/>
       <c r="C250" s="67"/>
       <c r="D250" s="68"/>
@@ -50951,7 +51339,7 @@
       <c r="H250" s="60"/>
       <c r="I250" s="52"/>
     </row>
-    <row r="251" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B251" s="66"/>
       <c r="C251" s="67"/>
       <c r="D251" s="68"/>
@@ -50961,7 +51349,7 @@
       <c r="H251" s="60"/>
       <c r="I251" s="52"/>
     </row>
-    <row r="252" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B252" s="66"/>
       <c r="C252" s="67"/>
       <c r="D252" s="68"/>
@@ -50971,7 +51359,7 @@
       <c r="H252" s="60"/>
       <c r="I252" s="52"/>
     </row>
-    <row r="253" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B253" s="66"/>
       <c r="C253" s="67"/>
       <c r="D253" s="68"/>
@@ -50981,7 +51369,7 @@
       <c r="H253" s="60"/>
       <c r="I253" s="52"/>
     </row>
-    <row r="254" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B254" s="66"/>
       <c r="C254" s="67"/>
       <c r="D254" s="68"/>
@@ -50991,7 +51379,7 @@
       <c r="H254" s="60"/>
       <c r="I254" s="52"/>
     </row>
-    <row r="255" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B255" s="66"/>
       <c r="C255" s="67"/>
       <c r="D255" s="68"/>
@@ -51001,7 +51389,7 @@
       <c r="H255" s="60"/>
       <c r="I255" s="52"/>
     </row>
-    <row r="256" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B256" s="66"/>
       <c r="C256" s="67"/>
       <c r="D256" s="68"/>
@@ -51011,7 +51399,7 @@
       <c r="H256" s="60"/>
       <c r="I256" s="52"/>
     </row>
-    <row r="257" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B257" s="66"/>
       <c r="C257" s="67"/>
       <c r="D257" s="68"/>
@@ -51021,7 +51409,7 @@
       <c r="H257" s="60"/>
       <c r="I257" s="52"/>
     </row>
-    <row r="258" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B258" s="66"/>
       <c r="C258" s="67"/>
       <c r="D258" s="68"/>
@@ -51031,7 +51419,7 @@
       <c r="H258" s="60"/>
       <c r="I258" s="52"/>
     </row>
-    <row r="259" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B259" s="66"/>
       <c r="C259" s="67"/>
       <c r="D259" s="68"/>
@@ -51041,7 +51429,7 @@
       <c r="H259" s="60"/>
       <c r="I259" s="52"/>
     </row>
-    <row r="260" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B260" s="66"/>
       <c r="C260" s="67"/>
       <c r="D260" s="68"/>
@@ -51051,7 +51439,7 @@
       <c r="H260" s="60"/>
       <c r="I260" s="52"/>
     </row>
-    <row r="261" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B261" s="66"/>
       <c r="C261" s="67"/>
       <c r="D261" s="68"/>
@@ -51061,7 +51449,7 @@
       <c r="H261" s="60"/>
       <c r="I261" s="52"/>
     </row>
-    <row r="262" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B262" s="66"/>
       <c r="C262" s="67"/>
       <c r="D262" s="68"/>
@@ -51071,7 +51459,7 @@
       <c r="H262" s="60"/>
       <c r="I262" s="52"/>
     </row>
-    <row r="263" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B263" s="66"/>
       <c r="C263" s="67"/>
       <c r="D263" s="68"/>
@@ -51081,7 +51469,7 @@
       <c r="H263" s="60"/>
       <c r="I263" s="52"/>
     </row>
-    <row r="264" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B264" s="66"/>
       <c r="C264" s="67"/>
       <c r="D264" s="68"/>
@@ -51091,7 +51479,7 @@
       <c r="H264" s="60"/>
       <c r="I264" s="52"/>
     </row>
-    <row r="265" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B265" s="66"/>
       <c r="C265" s="67"/>
       <c r="D265" s="68"/>
@@ -51101,7 +51489,7 @@
       <c r="H265" s="60"/>
       <c r="I265" s="52"/>
     </row>
-    <row r="266" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B266" s="66"/>
       <c r="C266" s="67"/>
       <c r="D266" s="68"/>
@@ -51111,7 +51499,7 @@
       <c r="H266" s="60"/>
       <c r="I266" s="52"/>
     </row>
-    <row r="267" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B267" s="66"/>
       <c r="C267" s="67"/>
       <c r="D267" s="68"/>
@@ -51121,7 +51509,7 @@
       <c r="H267" s="60"/>
       <c r="I267" s="52"/>
     </row>
-    <row r="268" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B268" s="66"/>
       <c r="C268" s="67"/>
       <c r="D268" s="68"/>
@@ -51131,7 +51519,7 @@
       <c r="H268" s="60"/>
       <c r="I268" s="52"/>
     </row>
-    <row r="269" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B269" s="66"/>
       <c r="C269" s="67"/>
       <c r="D269" s="68"/>
@@ -51141,7 +51529,7 @@
       <c r="H269" s="60"/>
       <c r="I269" s="52"/>
     </row>
-    <row r="270" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B270" s="66"/>
       <c r="C270" s="67"/>
       <c r="D270" s="68"/>
@@ -51151,7 +51539,7 @@
       <c r="H270" s="60"/>
       <c r="I270" s="52"/>
     </row>
-    <row r="271" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B271" s="66"/>
       <c r="C271" s="67"/>
       <c r="D271" s="68"/>
@@ -51161,7 +51549,7 @@
       <c r="H271" s="60"/>
       <c r="I271" s="52"/>
     </row>
-    <row r="272" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B272" s="66"/>
       <c r="C272" s="67"/>
       <c r="D272" s="68"/>
@@ -51171,7 +51559,7 @@
       <c r="H272" s="60"/>
       <c r="I272" s="52"/>
     </row>
-    <row r="273" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B273" s="66"/>
       <c r="C273" s="67"/>
       <c r="D273" s="68"/>
@@ -51181,7 +51569,7 @@
       <c r="H273" s="60"/>
       <c r="I273" s="52"/>
     </row>
-    <row r="274" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B274" s="66"/>
       <c r="C274" s="67"/>
       <c r="D274" s="68"/>
@@ -51191,7 +51579,7 @@
       <c r="H274" s="60"/>
       <c r="I274" s="52"/>
     </row>
-    <row r="275" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B275" s="66"/>
       <c r="C275" s="67"/>
       <c r="D275" s="68"/>
@@ -51201,7 +51589,7 @@
       <c r="H275" s="60"/>
       <c r="I275" s="52"/>
     </row>
-    <row r="276" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B276" s="66"/>
       <c r="C276" s="67"/>
       <c r="D276" s="68"/>
@@ -51211,7 +51599,7 @@
       <c r="H276" s="60"/>
       <c r="I276" s="52"/>
     </row>
-    <row r="277" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B277" s="66"/>
       <c r="C277" s="67"/>
       <c r="D277" s="68"/>
@@ -51221,7 +51609,7 @@
       <c r="H277" s="60"/>
       <c r="I277" s="52"/>
     </row>
-    <row r="278" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B278" s="66"/>
       <c r="C278" s="67"/>
       <c r="D278" s="68"/>
@@ -51231,7 +51619,7 @@
       <c r="H278" s="60"/>
       <c r="I278" s="52"/>
     </row>
-    <row r="279" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B279" s="66"/>
       <c r="C279" s="67"/>
       <c r="D279" s="68"/>
@@ -51241,7 +51629,7 @@
       <c r="H279" s="60"/>
       <c r="I279" s="52"/>
     </row>
-    <row r="280" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B280" s="66"/>
       <c r="C280" s="67"/>
       <c r="D280" s="68"/>
@@ -51251,7 +51639,7 @@
       <c r="H280" s="60"/>
       <c r="I280" s="52"/>
     </row>
-    <row r="281" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B281" s="66"/>
       <c r="C281" s="67"/>
       <c r="D281" s="68"/>
@@ -51261,7 +51649,7 @@
       <c r="H281" s="60"/>
       <c r="I281" s="52"/>
     </row>
-    <row r="282" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B282" s="66"/>
       <c r="C282" s="67"/>
       <c r="D282" s="68"/>
@@ -51271,7 +51659,7 @@
       <c r="H282" s="60"/>
       <c r="I282" s="52"/>
     </row>
-    <row r="283" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B283" s="66"/>
       <c r="C283" s="67"/>
       <c r="D283" s="68"/>
@@ -51281,7 +51669,7 @@
       <c r="H283" s="60"/>
       <c r="I283" s="52"/>
     </row>
-    <row r="284" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B284" s="66"/>
       <c r="C284" s="67"/>
       <c r="D284" s="68"/>
@@ -51291,7 +51679,7 @@
       <c r="H284" s="60"/>
       <c r="I284" s="52"/>
     </row>
-    <row r="285" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B285" s="66"/>
       <c r="C285" s="67"/>
       <c r="D285" s="68"/>
@@ -51301,7 +51689,7 @@
       <c r="H285" s="60"/>
       <c r="I285" s="52"/>
     </row>
-    <row r="286" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B286" s="66"/>
       <c r="C286" s="67"/>
       <c r="D286" s="68"/>
@@ -51311,7 +51699,7 @@
       <c r="H286" s="60"/>
       <c r="I286" s="52"/>
     </row>
-    <row r="287" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B287" s="66"/>
       <c r="C287" s="67"/>
       <c r="D287" s="68"/>
@@ -51321,7 +51709,7 @@
       <c r="H287" s="60"/>
       <c r="I287" s="52"/>
     </row>
-    <row r="288" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B288" s="66"/>
       <c r="C288" s="67"/>
       <c r="D288" s="68"/>
@@ -51331,7 +51719,7 @@
       <c r="H288" s="60"/>
       <c r="I288" s="52"/>
     </row>
-    <row r="289" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B289" s="66"/>
       <c r="C289" s="67"/>
       <c r="D289" s="68"/>
@@ -51341,7 +51729,7 @@
       <c r="H289" s="60"/>
       <c r="I289" s="52"/>
     </row>
-    <row r="290" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B290" s="66"/>
       <c r="C290" s="67"/>
       <c r="D290" s="68"/>
@@ -51351,7 +51739,7 @@
       <c r="H290" s="60"/>
       <c r="I290" s="52"/>
     </row>
-    <row r="291" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B291" s="66"/>
       <c r="C291" s="67"/>
       <c r="D291" s="68"/>
@@ -51361,7 +51749,7 @@
       <c r="H291" s="60"/>
       <c r="I291" s="52"/>
     </row>
-    <row r="292" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B292" s="66"/>
       <c r="C292" s="67"/>
       <c r="D292" s="68"/>
@@ -51371,7 +51759,7 @@
       <c r="H292" s="60"/>
       <c r="I292" s="52"/>
     </row>
-    <row r="293" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B293" s="66"/>
       <c r="C293" s="67"/>
       <c r="D293" s="68"/>
@@ -51381,7 +51769,7 @@
       <c r="H293" s="60"/>
       <c r="I293" s="52"/>
     </row>
-    <row r="294" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B294" s="66"/>
       <c r="C294" s="67"/>
       <c r="D294" s="68"/>
@@ -51391,7 +51779,7 @@
       <c r="H294" s="60"/>
       <c r="I294" s="52"/>
     </row>
-    <row r="295" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B295" s="66"/>
       <c r="C295" s="67"/>
       <c r="D295" s="68"/>
@@ -51401,7 +51789,7 @@
       <c r="H295" s="60"/>
       <c r="I295" s="52"/>
     </row>
-    <row r="296" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B296" s="66"/>
       <c r="C296" s="67"/>
       <c r="D296" s="68"/>
@@ -51411,7 +51799,7 @@
       <c r="H296" s="60"/>
       <c r="I296" s="52"/>
     </row>
-    <row r="297" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B297" s="66"/>
       <c r="C297" s="67"/>
       <c r="D297" s="68"/>
@@ -51421,7 +51809,7 @@
       <c r="H297" s="60"/>
       <c r="I297" s="52"/>
     </row>
-    <row r="298" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B298" s="66"/>
       <c r="C298" s="67"/>
       <c r="D298" s="68"/>
@@ -51431,7 +51819,7 @@
       <c r="H298" s="60"/>
       <c r="I298" s="52"/>
     </row>
-    <row r="299" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B299" s="66"/>
       <c r="C299" s="67"/>
       <c r="D299" s="68"/>
@@ -51441,7 +51829,7 @@
       <c r="H299" s="60"/>
       <c r="I299" s="52"/>
     </row>
-    <row r="300" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B300" s="69"/>
       <c r="C300" s="70"/>
       <c r="D300" s="71"/>
@@ -51498,25 +51886,25 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" style="1"/>
+    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -51531,25 +51919,25 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="20">
         <f>StartDatum</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="G5" s="3"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -51561,7 +51949,7 @@
       <c r="G6" s="3"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -51569,13 +51957,13 @@
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
@@ -51587,17 +51975,17 @@
       <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
@@ -51608,37 +51996,37 @@
       <c r="E16" s="21"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:4" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
@@ -51687,201 +52075,201 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="41"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>58</v>
       </c>
       <c r="B10" s="83"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="86"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="84"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>55</v>
       </c>
       <c r="B13" s="41"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
       <c r="B14" s="41"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
       <c r="B15" s="83"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="83"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="37"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>50</v>
       </c>
       <c r="B18" s="85"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="84"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
       <c r="B20" s="82"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
       <c r="B21" s="83"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
       <c r="B22" s="82"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>41</v>
       </c>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="13440" windowHeight="9132" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="36" windowWidth="13440" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -1103,6 +1103,97 @@
   </cellStyles>
   <dxfs count="23">
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CBCB4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31869B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1292,97 +1383,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CBCB4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31869B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007E39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1442,20 +1442,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B10:I300"/>
   <sortState ref="B12:E19">
     <sortCondition ref="B11:B19"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nr." dataDxfId="7"/>
-    <tableColumn id="2" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Bezug" dataDxfId="5"/>
-    <tableColumn id="4" name="StartDatum" dataDxfId="4"/>
-    <tableColumn id="8" name="EndeDatum" dataDxfId="3"/>
-    <tableColumn id="5" name="Ampel" dataDxfId="2"/>
-    <tableColumn id="6" name="Erläuterung " dataDxfId="1"/>
-    <tableColumn id="7" name="Maßnahmen" dataDxfId="0"/>
+    <tableColumn id="1" name="Nr." dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Bezug" dataDxfId="18"/>
+    <tableColumn id="4" name="StartDatum" dataDxfId="17"/>
+    <tableColumn id="8" name="EndeDatum" dataDxfId="16"/>
+    <tableColumn id="5" name="Ampel" dataDxfId="15"/>
+    <tableColumn id="6" name="Erläuterung " dataDxfId="14"/>
+    <tableColumn id="7" name="Maßnahmen" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2167,16 +2167,16 @@
     <mergeCell ref="C23:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$C$21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C21=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$C21=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2211,7 +2211,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -48470,9 +48470,6 @@
       <c r="D250" s="46"/>
       <c r="E250" s="46"/>
       <c r="F250" s="46"/>
-      <c r="G250" s="46"/>
-      <c r="H250" s="46"/>
-      <c r="I250" s="46"/>
       <c r="J250" s="46"/>
       <c r="K250" s="46"/>
       <c r="L250" s="46"/>
@@ -48660,22 +48657,22 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B116">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51845,13 +51842,13 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="G11:G300">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>G11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>G11=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>G11=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51886,7 +51883,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -11,39 +11,31 @@
     <sheet name="Ressourcen" sheetId="3" r:id="rId2"/>
     <sheet name="Termine" sheetId="5" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
-    <sheet name="Settings" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="Settings" sheetId="11" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="AmpelFarben" localSheetId="4">Settings!$A$34:$A$37</definedName>
+    <definedName name="AmpelFarben">Settings!$A$27:$A$31</definedName>
     <definedName name="Bedarfe">Ressourcen!$D$12:$BX$100</definedName>
     <definedName name="BewertgErläuterung">Stammdaten!$C$23</definedName>
     <definedName name="Bewertung">Stammdaten!$C$21</definedName>
     <definedName name="Budget">Stammdaten!$C$12</definedName>
     <definedName name="Business_Unit">Attribute!$C$14</definedName>
-    <definedName name="EndeDatum" localSheetId="4">[1]Stammdaten!$C$6</definedName>
     <definedName name="EndeDatum">Stammdaten!$C$6</definedName>
     <definedName name="IndiviName3">Attribute!$C$26</definedName>
     <definedName name="IndivName1">Attribute!$C$22</definedName>
     <definedName name="IndivName2">Attribute!$C$24</definedName>
-    <definedName name="Kosten">Settings!$A$29:$A$31</definedName>
-    <definedName name="Phasen" localSheetId="4">Settings!$A$9:$A$22</definedName>
-    <definedName name="Phasen">Settings!$A$9:$A$22</definedName>
+    <definedName name="Kosten">Settings!$A$23:$A$25</definedName>
+    <definedName name="Phasen">Settings!$A$9:$A$14</definedName>
     <definedName name="Phasen_des_Projekts">Ressourcen!$B$11:$B$250</definedName>
-    <definedName name="Projekt_Name" localSheetId="4">[1]Stammdaten!$C$2</definedName>
     <definedName name="Projekt_Name">Stammdaten!$C$2</definedName>
     <definedName name="Projekt_Typ">Attribute!$C$11</definedName>
     <definedName name="ProjektBeschreibung">Stammdaten!$C$14</definedName>
     <definedName name="Projektleiter">Stammdaten!$C$10</definedName>
-    <definedName name="ProjektVorlagen" localSheetId="4">Settings!$A$4:$A$6</definedName>
     <definedName name="ProjektVorlagen">Settings!$A$4:$A$6</definedName>
     <definedName name="Risiko">Attribute!$E$16</definedName>
-    <definedName name="Rollen" localSheetId="4">Settings!$A$25:$A$28</definedName>
-    <definedName name="Rollen_Kostenarten">Settings!$A$25:$A$31</definedName>
+    <definedName name="Rollen">Settings!$A$17:$A$22</definedName>
+    <definedName name="Rollen_Kostenarten">Settings!$A$17:$A$25</definedName>
     <definedName name="RollenKosten_des_Projekts">Ressourcen!$C$11:$C$250</definedName>
-    <definedName name="StartDatum" localSheetId="4">[1]Stammdaten!$C$4</definedName>
     <definedName name="StartDatum">Stammdaten!$C$4</definedName>
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
@@ -55,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -232,67 +224,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Material-Kosten</t>
-  </si>
-  <si>
-    <t>Fertigungsplaner</t>
-  </si>
-  <si>
-    <t>Designer</t>
-  </si>
-  <si>
     <t>Rollen/Kostenarten</t>
-  </si>
-  <si>
-    <t>Wintererprobung mit PVL</t>
-  </si>
-  <si>
-    <t>Wintererprobung mit BBG</t>
-  </si>
-  <si>
-    <t>F2 Anlaufproduktion</t>
-  </si>
-  <si>
-    <t>F2 Vorserie 2</t>
-  </si>
-  <si>
-    <t>F2 Vorserie 1</t>
-  </si>
-  <si>
-    <t>F2 Vorserie 0</t>
-  </si>
-  <si>
-    <t>BBG Montage FIZ</t>
-  </si>
-  <si>
-    <t>BBG Karosseriebau FIZ</t>
-  </si>
-  <si>
-    <t>VBBG</t>
-  </si>
-  <si>
-    <t>Simulation VBBG</t>
-  </si>
-  <si>
-    <t>PPA</t>
-  </si>
-  <si>
-    <t>SWZ</t>
-  </si>
-  <si>
-    <t>TK</t>
-  </si>
-  <si>
-    <t>DTK</t>
-  </si>
-  <si>
-    <t>Weite Ableitung</t>
-  </si>
-  <si>
-    <t>Erstanläufer</t>
-  </si>
-  <si>
-    <t>Enge Ableitung</t>
   </si>
   <si>
     <t>Name</t>
@@ -303,6 +235,45 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Innovationsprojekt</t>
+  </si>
+  <si>
+    <t>IT Einführungsprojekt</t>
+  </si>
+  <si>
+    <t>IT Entwicklungsprojekt</t>
+  </si>
+  <si>
+    <t>Business Case</t>
+  </si>
+  <si>
+    <t>Konzept</t>
+  </si>
+  <si>
+    <t>Entwicklung</t>
+  </si>
+  <si>
+    <t>Prototyp</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Rollout</t>
+  </si>
+  <si>
+    <t>GUI Spezialist</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Architekt</t>
+  </si>
+  <si>
+    <t>Trainings-Kosten</t>
+  </si>
 </sst>
 </file>
 
@@ -312,13 +283,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -448,7 +425,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,37 +482,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
+        <fgColor rgb="FFC4BD97"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
+        <fgColor rgb="FFC5D9F1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA6A6A6"/>
+        <fgColor rgb="FF8DB4E2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFBFBFBF"/>
+        <fgColor rgb="FF6CBCB4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD243"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor rgb="FF31869B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,15 +753,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -798,71 +769,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -883,36 +854,72 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -927,14 +934,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -947,45 +946,25 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1001,33 +980,16 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1040,61 +1002,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1102,97 +1072,6 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CBCB4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31869B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007E39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1383,6 +1262,97 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CBCB4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31869B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1402,60 +1372,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Stammdaten"/>
-      <sheetName val="Ressourcen"/>
-      <sheetName val="Ergebnisse "/>
-      <sheetName val="Ergebnisse"/>
-      <sheetName val="Attribute"/>
-      <sheetName val="Settings"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Einführung 3</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>41456</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>42350</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B10:I300"/>
   <sortState ref="B12:E19">
     <sortCondition ref="B11:B19"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nr." dataDxfId="20"/>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Bezug" dataDxfId="18"/>
-    <tableColumn id="4" name="StartDatum" dataDxfId="17"/>
-    <tableColumn id="8" name="EndeDatum" dataDxfId="16"/>
-    <tableColumn id="5" name="Ampel" dataDxfId="15"/>
-    <tableColumn id="6" name="Erläuterung " dataDxfId="14"/>
-    <tableColumn id="7" name="Maßnahmen" dataDxfId="13"/>
+    <tableColumn id="1" name="Nr." dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Bezug" dataDxfId="5"/>
+    <tableColumn id="4" name="StartDatum" dataDxfId="4"/>
+    <tableColumn id="8" name="EndeDatum" dataDxfId="3"/>
+    <tableColumn id="5" name="Ampel" dataDxfId="2"/>
+    <tableColumn id="6" name="Erläuterung " dataDxfId="1"/>
+    <tableColumn id="7" name="Maßnahmen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1751,8 +1682,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:G256"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1773,9 +1704,9 @@
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="11"/>
       <c r="G2" s="8"/>
     </row>
@@ -1823,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1845,39 +1776,39 @@
       <c r="B14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="100"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
     </row>
     <row r="17" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
     </row>
     <row r="18" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
     </row>
     <row r="19" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
-      <c r="C19" s="104"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="106"/>
+      <c r="C19" s="103"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
@@ -1889,7 +1820,7 @@
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="89"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="33"/>
       <c r="E21" s="25"/>
     </row>
@@ -1902,34 +1833,34 @@
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="100"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="99"/>
     </row>
     <row r="24" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
     </row>
     <row r="25" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
     </row>
     <row r="26" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
     </row>
     <row r="27" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
     </row>
     <row r="28" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="106"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="104"/>
+      <c r="E28" s="105"/>
     </row>
     <row r="29" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2160,23 +2091,23 @@
     <row r="255" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="256" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E19"/>
     <mergeCell ref="C23:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$C$21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$C21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$C21=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$C21=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2211,8 +2142,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2237,12 +2168,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="106">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -2308,754 +2239,754 @@
         <v>39</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="92">
+      <c r="D10" s="86">
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="85">
         <f>EDATE(D10,1)</f>
         <v>32</v>
       </c>
-      <c r="F10" s="91">
+      <c r="F10" s="85">
         <f t="shared" ref="F10:BQ10" si="0">EDATE(E10,1)</f>
         <v>61</v>
       </c>
-      <c r="G10" s="91">
+      <c r="G10" s="85">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H10" s="91">
+      <c r="H10" s="85">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I10" s="91">
+      <c r="I10" s="85">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="J10" s="91">
+      <c r="J10" s="85">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="K10" s="91">
+      <c r="K10" s="85">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="L10" s="91">
+      <c r="L10" s="85">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="M10" s="91">
+      <c r="M10" s="85">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="N10" s="91">
+      <c r="N10" s="85">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="O10" s="91">
+      <c r="O10" s="85">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="P10" s="91">
+      <c r="P10" s="85">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="Q10" s="91">
+      <c r="Q10" s="85">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="R10" s="91">
+      <c r="R10" s="85">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="S10" s="91">
+      <c r="S10" s="85">
         <f t="shared" si="0"/>
         <v>457</v>
       </c>
-      <c r="T10" s="91">
+      <c r="T10" s="85">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="85">
         <f t="shared" si="0"/>
         <v>518</v>
       </c>
-      <c r="V10" s="91">
+      <c r="V10" s="85">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
-      <c r="W10" s="91">
+      <c r="W10" s="85">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="X10" s="91">
+      <c r="X10" s="85">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="Y10" s="91">
+      <c r="Y10" s="85">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="Z10" s="91">
+      <c r="Z10" s="85">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="AA10" s="91">
+      <c r="AA10" s="85">
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
-      <c r="AB10" s="91">
+      <c r="AB10" s="85">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="AC10" s="91">
+      <c r="AC10" s="85">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="AD10" s="91">
+      <c r="AD10" s="85">
         <f t="shared" si="0"/>
         <v>791</v>
       </c>
-      <c r="AE10" s="91">
+      <c r="AE10" s="85">
         <f t="shared" si="0"/>
         <v>822</v>
       </c>
-      <c r="AF10" s="91">
+      <c r="AF10" s="85">
         <f t="shared" si="0"/>
         <v>852</v>
       </c>
-      <c r="AG10" s="91">
+      <c r="AG10" s="85">
         <f t="shared" si="0"/>
         <v>883</v>
       </c>
-      <c r="AH10" s="91">
+      <c r="AH10" s="85">
         <f t="shared" si="0"/>
         <v>913</v>
       </c>
-      <c r="AI10" s="91">
+      <c r="AI10" s="85">
         <f t="shared" si="0"/>
         <v>944</v>
       </c>
-      <c r="AJ10" s="91">
+      <c r="AJ10" s="85">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
-      <c r="AK10" s="91">
+      <c r="AK10" s="85">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="AL10" s="91">
+      <c r="AL10" s="85">
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="AM10" s="91">
+      <c r="AM10" s="85">
         <f t="shared" si="0"/>
         <v>1066</v>
       </c>
-      <c r="AN10" s="91">
+      <c r="AN10" s="85">
         <f t="shared" si="0"/>
         <v>1097</v>
       </c>
-      <c r="AO10" s="91">
+      <c r="AO10" s="85">
         <f t="shared" si="0"/>
         <v>1128</v>
       </c>
-      <c r="AP10" s="91">
+      <c r="AP10" s="85">
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="AQ10" s="91">
+      <c r="AQ10" s="85">
         <f t="shared" si="0"/>
         <v>1187</v>
       </c>
-      <c r="AR10" s="91">
+      <c r="AR10" s="85">
         <f t="shared" si="0"/>
         <v>1217</v>
       </c>
-      <c r="AS10" s="91">
+      <c r="AS10" s="85">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="AT10" s="91">
+      <c r="AT10" s="85">
         <f t="shared" si="0"/>
         <v>1278</v>
       </c>
-      <c r="AU10" s="91">
+      <c r="AU10" s="85">
         <f t="shared" si="0"/>
         <v>1309</v>
       </c>
-      <c r="AV10" s="91">
+      <c r="AV10" s="85">
         <f t="shared" si="0"/>
         <v>1340</v>
       </c>
-      <c r="AW10" s="91">
+      <c r="AW10" s="85">
         <f t="shared" si="0"/>
         <v>1370</v>
       </c>
-      <c r="AX10" s="91">
+      <c r="AX10" s="85">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="AY10" s="91">
+      <c r="AY10" s="85">
         <f t="shared" si="0"/>
         <v>1431</v>
       </c>
-      <c r="AZ10" s="91">
+      <c r="AZ10" s="85">
         <f t="shared" si="0"/>
         <v>1462</v>
       </c>
-      <c r="BA10" s="91">
+      <c r="BA10" s="85">
         <f t="shared" si="0"/>
         <v>1493</v>
       </c>
-      <c r="BB10" s="91">
+      <c r="BB10" s="85">
         <f t="shared" si="0"/>
         <v>1522</v>
       </c>
-      <c r="BC10" s="91">
+      <c r="BC10" s="85">
         <f t="shared" si="0"/>
         <v>1553</v>
       </c>
-      <c r="BD10" s="91">
+      <c r="BD10" s="85">
         <f t="shared" si="0"/>
         <v>1583</v>
       </c>
-      <c r="BE10" s="91">
+      <c r="BE10" s="85">
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-      <c r="BF10" s="91">
+      <c r="BF10" s="85">
         <f t="shared" si="0"/>
         <v>1644</v>
       </c>
-      <c r="BG10" s="91">
+      <c r="BG10" s="85">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="BH10" s="91">
+      <c r="BH10" s="85">
         <f t="shared" si="0"/>
         <v>1706</v>
       </c>
-      <c r="BI10" s="91">
+      <c r="BI10" s="85">
         <f t="shared" si="0"/>
         <v>1736</v>
       </c>
-      <c r="BJ10" s="91">
+      <c r="BJ10" s="85">
         <f t="shared" si="0"/>
         <v>1767</v>
       </c>
-      <c r="BK10" s="91">
+      <c r="BK10" s="85">
         <f t="shared" si="0"/>
         <v>1797</v>
       </c>
-      <c r="BL10" s="91">
+      <c r="BL10" s="85">
         <f t="shared" si="0"/>
         <v>1828</v>
       </c>
-      <c r="BM10" s="91">
+      <c r="BM10" s="85">
         <f t="shared" si="0"/>
         <v>1859</v>
       </c>
-      <c r="BN10" s="91">
+      <c r="BN10" s="85">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="BO10" s="91">
+      <c r="BO10" s="85">
         <f t="shared" si="0"/>
         <v>1918</v>
       </c>
-      <c r="BP10" s="91">
+      <c r="BP10" s="85">
         <f t="shared" si="0"/>
         <v>1948</v>
       </c>
-      <c r="BQ10" s="91">
+      <c r="BQ10" s="85">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="BR10" s="91">
+      <c r="BR10" s="85">
         <f t="shared" ref="BR10:EC10" si="1">EDATE(BQ10,1)</f>
         <v>2009</v>
       </c>
-      <c r="BS10" s="91">
+      <c r="BS10" s="85">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="BT10" s="91">
+      <c r="BT10" s="85">
         <f t="shared" si="1"/>
         <v>2071</v>
       </c>
-      <c r="BU10" s="91">
+      <c r="BU10" s="85">
         <f t="shared" si="1"/>
         <v>2101</v>
       </c>
-      <c r="BV10" s="91">
+      <c r="BV10" s="85">
         <f t="shared" si="1"/>
         <v>2132</v>
       </c>
-      <c r="BW10" s="91">
+      <c r="BW10" s="85">
         <f t="shared" si="1"/>
         <v>2162</v>
       </c>
-      <c r="BX10" s="91">
+      <c r="BX10" s="85">
         <f t="shared" si="1"/>
         <v>2193</v>
       </c>
-      <c r="BY10" s="91">
+      <c r="BY10" s="85">
         <f t="shared" si="1"/>
         <v>2224</v>
       </c>
-      <c r="BZ10" s="91">
+      <c r="BZ10" s="85">
         <f t="shared" si="1"/>
         <v>2252</v>
       </c>
-      <c r="CA10" s="91">
+      <c r="CA10" s="85">
         <f t="shared" si="1"/>
         <v>2283</v>
       </c>
-      <c r="CB10" s="91">
+      <c r="CB10" s="85">
         <f t="shared" si="1"/>
         <v>2313</v>
       </c>
-      <c r="CC10" s="91">
+      <c r="CC10" s="85">
         <f t="shared" si="1"/>
         <v>2344</v>
       </c>
-      <c r="CD10" s="91">
+      <c r="CD10" s="85">
         <f t="shared" si="1"/>
         <v>2374</v>
       </c>
-      <c r="CE10" s="91">
+      <c r="CE10" s="85">
         <f t="shared" si="1"/>
         <v>2405</v>
       </c>
-      <c r="CF10" s="91">
+      <c r="CF10" s="85">
         <f t="shared" si="1"/>
         <v>2436</v>
       </c>
-      <c r="CG10" s="91">
+      <c r="CG10" s="85">
         <f t="shared" si="1"/>
         <v>2466</v>
       </c>
-      <c r="CH10" s="91">
+      <c r="CH10" s="85">
         <f t="shared" si="1"/>
         <v>2497</v>
       </c>
-      <c r="CI10" s="91">
+      <c r="CI10" s="85">
         <f t="shared" si="1"/>
         <v>2527</v>
       </c>
-      <c r="CJ10" s="91">
+      <c r="CJ10" s="85">
         <f t="shared" si="1"/>
         <v>2558</v>
       </c>
-      <c r="CK10" s="91">
+      <c r="CK10" s="85">
         <f t="shared" si="1"/>
         <v>2589</v>
       </c>
-      <c r="CL10" s="91">
+      <c r="CL10" s="85">
         <f t="shared" si="1"/>
         <v>2617</v>
       </c>
-      <c r="CM10" s="91">
+      <c r="CM10" s="85">
         <f t="shared" si="1"/>
         <v>2648</v>
       </c>
-      <c r="CN10" s="91">
+      <c r="CN10" s="85">
         <f t="shared" si="1"/>
         <v>2678</v>
       </c>
-      <c r="CO10" s="91">
+      <c r="CO10" s="85">
         <f t="shared" si="1"/>
         <v>2709</v>
       </c>
-      <c r="CP10" s="91">
+      <c r="CP10" s="85">
         <f t="shared" si="1"/>
         <v>2739</v>
       </c>
-      <c r="CQ10" s="91">
+      <c r="CQ10" s="85">
         <f t="shared" si="1"/>
         <v>2770</v>
       </c>
-      <c r="CR10" s="91">
+      <c r="CR10" s="85">
         <f t="shared" si="1"/>
         <v>2801</v>
       </c>
-      <c r="CS10" s="91">
+      <c r="CS10" s="85">
         <f t="shared" si="1"/>
         <v>2831</v>
       </c>
-      <c r="CT10" s="91">
+      <c r="CT10" s="85">
         <f t="shared" si="1"/>
         <v>2862</v>
       </c>
-      <c r="CU10" s="91">
+      <c r="CU10" s="85">
         <f t="shared" si="1"/>
         <v>2892</v>
       </c>
-      <c r="CV10" s="91">
+      <c r="CV10" s="85">
         <f t="shared" si="1"/>
         <v>2923</v>
       </c>
-      <c r="CW10" s="91">
+      <c r="CW10" s="85">
         <f t="shared" si="1"/>
         <v>2954</v>
       </c>
-      <c r="CX10" s="91">
+      <c r="CX10" s="85">
         <f t="shared" si="1"/>
         <v>2983</v>
       </c>
-      <c r="CY10" s="91">
+      <c r="CY10" s="85">
         <f t="shared" si="1"/>
         <v>3014</v>
       </c>
-      <c r="CZ10" s="91">
+      <c r="CZ10" s="85">
         <f t="shared" si="1"/>
         <v>3044</v>
       </c>
-      <c r="DA10" s="91">
+      <c r="DA10" s="85">
         <f t="shared" si="1"/>
         <v>3075</v>
       </c>
-      <c r="DB10" s="91">
+      <c r="DB10" s="85">
         <f t="shared" si="1"/>
         <v>3105</v>
       </c>
-      <c r="DC10" s="91">
+      <c r="DC10" s="85">
         <f t="shared" si="1"/>
         <v>3136</v>
       </c>
-      <c r="DD10" s="91">
+      <c r="DD10" s="85">
         <f t="shared" si="1"/>
         <v>3167</v>
       </c>
-      <c r="DE10" s="91">
+      <c r="DE10" s="85">
         <f t="shared" si="1"/>
         <v>3197</v>
       </c>
-      <c r="DF10" s="91">
+      <c r="DF10" s="85">
         <f t="shared" si="1"/>
         <v>3228</v>
       </c>
-      <c r="DG10" s="91">
+      <c r="DG10" s="85">
         <f t="shared" si="1"/>
         <v>3258</v>
       </c>
-      <c r="DH10" s="91">
+      <c r="DH10" s="85">
         <f t="shared" si="1"/>
         <v>3289</v>
       </c>
-      <c r="DI10" s="91">
+      <c r="DI10" s="85">
         <f t="shared" si="1"/>
         <v>3320</v>
       </c>
-      <c r="DJ10" s="91">
+      <c r="DJ10" s="85">
         <f t="shared" si="1"/>
         <v>3348</v>
       </c>
-      <c r="DK10" s="91">
+      <c r="DK10" s="85">
         <f t="shared" si="1"/>
         <v>3379</v>
       </c>
-      <c r="DL10" s="91">
+      <c r="DL10" s="85">
         <f t="shared" si="1"/>
         <v>3409</v>
       </c>
-      <c r="DM10" s="91">
+      <c r="DM10" s="85">
         <f t="shared" si="1"/>
         <v>3440</v>
       </c>
-      <c r="DN10" s="91">
+      <c r="DN10" s="85">
         <f t="shared" si="1"/>
         <v>3470</v>
       </c>
-      <c r="DO10" s="91">
+      <c r="DO10" s="85">
         <f t="shared" si="1"/>
         <v>3501</v>
       </c>
-      <c r="DP10" s="91">
+      <c r="DP10" s="85">
         <f t="shared" si="1"/>
         <v>3532</v>
       </c>
-      <c r="DQ10" s="91">
+      <c r="DQ10" s="85">
         <f t="shared" si="1"/>
         <v>3562</v>
       </c>
-      <c r="DR10" s="91">
+      <c r="DR10" s="85">
         <f t="shared" si="1"/>
         <v>3593</v>
       </c>
-      <c r="DS10" s="91">
+      <c r="DS10" s="85">
         <f t="shared" si="1"/>
         <v>3623</v>
       </c>
-      <c r="DT10" s="91">
+      <c r="DT10" s="85">
         <f t="shared" si="1"/>
         <v>3654</v>
       </c>
-      <c r="DU10" s="91">
+      <c r="DU10" s="85">
         <f t="shared" si="1"/>
         <v>3685</v>
       </c>
-      <c r="DV10" s="91">
+      <c r="DV10" s="85">
         <f t="shared" si="1"/>
         <v>3713</v>
       </c>
-      <c r="DW10" s="91">
+      <c r="DW10" s="85">
         <f t="shared" si="1"/>
         <v>3744</v>
       </c>
-      <c r="DX10" s="91">
+      <c r="DX10" s="85">
         <f t="shared" si="1"/>
         <v>3774</v>
       </c>
-      <c r="DY10" s="91">
+      <c r="DY10" s="85">
         <f t="shared" si="1"/>
         <v>3805</v>
       </c>
-      <c r="DZ10" s="91">
+      <c r="DZ10" s="85">
         <f t="shared" si="1"/>
         <v>3835</v>
       </c>
-      <c r="EA10" s="91">
+      <c r="EA10" s="85">
         <f t="shared" si="1"/>
         <v>3866</v>
       </c>
-      <c r="EB10" s="91">
+      <c r="EB10" s="85">
         <f t="shared" si="1"/>
         <v>3897</v>
       </c>
-      <c r="EC10" s="91">
+      <c r="EC10" s="85">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="ED10" s="91">
+      <c r="ED10" s="85">
         <f t="shared" ref="ED10:GG10" si="2">EDATE(EC10,1)</f>
         <v>3958</v>
       </c>
-      <c r="EE10" s="91">
+      <c r="EE10" s="85">
         <f t="shared" si="2"/>
         <v>3988</v>
       </c>
-      <c r="EF10" s="91">
+      <c r="EF10" s="85">
         <f t="shared" si="2"/>
         <v>4019</v>
       </c>
-      <c r="EG10" s="91">
+      <c r="EG10" s="85">
         <f t="shared" si="2"/>
         <v>4050</v>
       </c>
-      <c r="EH10" s="91">
+      <c r="EH10" s="85">
         <f t="shared" si="2"/>
         <v>4078</v>
       </c>
-      <c r="EI10" s="91">
+      <c r="EI10" s="85">
         <f t="shared" si="2"/>
         <v>4109</v>
       </c>
-      <c r="EJ10" s="91">
+      <c r="EJ10" s="85">
         <f t="shared" si="2"/>
         <v>4139</v>
       </c>
-      <c r="EK10" s="91">
+      <c r="EK10" s="85">
         <f t="shared" si="2"/>
         <v>4170</v>
       </c>
-      <c r="EL10" s="91">
+      <c r="EL10" s="85">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
-      <c r="EM10" s="91">
+      <c r="EM10" s="85">
         <f t="shared" si="2"/>
         <v>4231</v>
       </c>
-      <c r="EN10" s="91">
+      <c r="EN10" s="85">
         <f t="shared" si="2"/>
         <v>4262</v>
       </c>
-      <c r="EO10" s="91">
+      <c r="EO10" s="85">
         <f t="shared" si="2"/>
         <v>4292</v>
       </c>
-      <c r="EP10" s="91">
+      <c r="EP10" s="85">
         <f t="shared" si="2"/>
         <v>4323</v>
       </c>
-      <c r="EQ10" s="91">
+      <c r="EQ10" s="85">
         <f t="shared" si="2"/>
         <v>4353</v>
       </c>
-      <c r="ER10" s="91">
+      <c r="ER10" s="85">
         <f t="shared" si="2"/>
         <v>4384</v>
       </c>
-      <c r="ES10" s="91">
+      <c r="ES10" s="85">
         <f t="shared" si="2"/>
         <v>4415</v>
       </c>
-      <c r="ET10" s="91">
+      <c r="ET10" s="85">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="EU10" s="91">
+      <c r="EU10" s="85">
         <f t="shared" si="2"/>
         <v>4475</v>
       </c>
-      <c r="EV10" s="91">
+      <c r="EV10" s="85">
         <f t="shared" si="2"/>
         <v>4505</v>
       </c>
-      <c r="EW10" s="91">
+      <c r="EW10" s="85">
         <f t="shared" si="2"/>
         <v>4536</v>
       </c>
-      <c r="EX10" s="91">
+      <c r="EX10" s="85">
         <f t="shared" si="2"/>
         <v>4566</v>
       </c>
-      <c r="EY10" s="91">
+      <c r="EY10" s="85">
         <f t="shared" si="2"/>
         <v>4597</v>
       </c>
-      <c r="EZ10" s="91">
+      <c r="EZ10" s="85">
         <f t="shared" si="2"/>
         <v>4628</v>
       </c>
-      <c r="FA10" s="91">
+      <c r="FA10" s="85">
         <f t="shared" si="2"/>
         <v>4658</v>
       </c>
-      <c r="FB10" s="91">
+      <c r="FB10" s="85">
         <f t="shared" si="2"/>
         <v>4689</v>
       </c>
-      <c r="FC10" s="91">
+      <c r="FC10" s="85">
         <f t="shared" si="2"/>
         <v>4719</v>
       </c>
-      <c r="FD10" s="91">
+      <c r="FD10" s="85">
         <f t="shared" si="2"/>
         <v>4750</v>
       </c>
-      <c r="FE10" s="91">
+      <c r="FE10" s="85">
         <f t="shared" si="2"/>
         <v>4781</v>
       </c>
-      <c r="FF10" s="91">
+      <c r="FF10" s="85">
         <f t="shared" si="2"/>
         <v>4809</v>
       </c>
-      <c r="FG10" s="91">
+      <c r="FG10" s="85">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="FH10" s="91">
+      <c r="FH10" s="85">
         <f t="shared" si="2"/>
         <v>4870</v>
       </c>
-      <c r="FI10" s="91">
+      <c r="FI10" s="85">
         <f t="shared" si="2"/>
         <v>4901</v>
       </c>
-      <c r="FJ10" s="91">
+      <c r="FJ10" s="85">
         <f t="shared" si="2"/>
         <v>4931</v>
       </c>
-      <c r="FK10" s="91">
+      <c r="FK10" s="85">
         <f t="shared" si="2"/>
         <v>4962</v>
       </c>
-      <c r="FL10" s="91">
+      <c r="FL10" s="85">
         <f t="shared" si="2"/>
         <v>4993</v>
       </c>
-      <c r="FM10" s="91">
+      <c r="FM10" s="85">
         <f t="shared" si="2"/>
         <v>5023</v>
       </c>
-      <c r="FN10" s="91">
+      <c r="FN10" s="85">
         <f t="shared" si="2"/>
         <v>5054</v>
       </c>
-      <c r="FO10" s="91">
+      <c r="FO10" s="85">
         <f t="shared" si="2"/>
         <v>5084</v>
       </c>
-      <c r="FP10" s="91">
+      <c r="FP10" s="85">
         <f t="shared" si="2"/>
         <v>5115</v>
       </c>
-      <c r="FQ10" s="91">
+      <c r="FQ10" s="85">
         <f t="shared" si="2"/>
         <v>5146</v>
       </c>
-      <c r="FR10" s="91">
+      <c r="FR10" s="85">
         <f t="shared" si="2"/>
         <v>5174</v>
       </c>
-      <c r="FS10" s="91">
+      <c r="FS10" s="85">
         <f t="shared" si="2"/>
         <v>5205</v>
       </c>
-      <c r="FT10" s="91">
+      <c r="FT10" s="85">
         <f t="shared" si="2"/>
         <v>5235</v>
       </c>
-      <c r="FU10" s="91">
+      <c r="FU10" s="85">
         <f t="shared" si="2"/>
         <v>5266</v>
       </c>
-      <c r="FV10" s="91">
+      <c r="FV10" s="85">
         <f t="shared" si="2"/>
         <v>5296</v>
       </c>
-      <c r="FW10" s="91">
+      <c r="FW10" s="85">
         <f t="shared" si="2"/>
         <v>5327</v>
       </c>
-      <c r="FX10" s="91">
+      <c r="FX10" s="85">
         <f t="shared" si="2"/>
         <v>5358</v>
       </c>
-      <c r="FY10" s="91">
+      <c r="FY10" s="85">
         <f t="shared" si="2"/>
         <v>5388</v>
       </c>
-      <c r="FZ10" s="91">
+      <c r="FZ10" s="85">
         <f t="shared" si="2"/>
         <v>5419</v>
       </c>
-      <c r="GA10" s="91">
+      <c r="GA10" s="85">
         <f t="shared" si="2"/>
         <v>5449</v>
       </c>
-      <c r="GB10" s="91">
+      <c r="GB10" s="85">
         <f t="shared" si="2"/>
         <v>5480</v>
       </c>
-      <c r="GC10" s="91">
+      <c r="GC10" s="85">
         <f t="shared" si="2"/>
         <v>5511</v>
       </c>
-      <c r="GD10" s="91">
+      <c r="GD10" s="85">
         <f t="shared" si="2"/>
         <v>5539</v>
       </c>
-      <c r="GE10" s="91">
+      <c r="GE10" s="85">
         <f t="shared" si="2"/>
         <v>5570</v>
       </c>
-      <c r="GF10" s="91">
+      <c r="GF10" s="85">
         <f t="shared" si="2"/>
         <v>5600</v>
       </c>
-      <c r="GG10" s="91">
+      <c r="GG10" s="85">
         <f t="shared" si="2"/>
         <v>5631</v>
       </c>
-      <c r="GH10" s="90"/>
+      <c r="GH10" s="84"/>
     </row>
     <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="93"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="42"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -48652,27 +48583,27 @@
       <c r="GG250" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B116">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48707,7 +48638,7 @@
   <dimension ref="A1:Q300"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48747,13 +48678,13 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="106">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="81"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -48914,16 +48845,16 @@
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="87" t="s">
-        <v>63</v>
+      <c r="C10" s="81" t="s">
+        <v>43</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>64</v>
+      <c r="D10" s="82" t="s">
+        <v>44</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="72" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -48940,8 +48871,8 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="51"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
@@ -48949,20 +48880,24 @@
     <row r="12" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="51"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
+      <c r="G12" s="51">
+        <v>1</v>
+      </c>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="55"/>
+      <c r="C13" s="54"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="51"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="51">
+        <v>2</v>
+      </c>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
@@ -48970,8 +48905,8 @@
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -48980,8 +48915,8 @@
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -48990,8 +48925,8 @@
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -49000,8 +48935,8 @@
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -49010,2845 +48945,2845 @@
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
     </row>
     <row r="19" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="56"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="60"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
       <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="56"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="60"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="60"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="60"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="60"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="60"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="59"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="60"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="59"/>
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="56"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="60"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="60"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="60"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="61"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="75"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="64"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="65"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="64"/>
     </row>
     <row r="30" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="60"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="59"/>
       <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="66"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="60"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="60"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="59"/>
       <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="66"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="60"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="59"/>
       <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="66"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="60"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="59"/>
       <c r="I34" s="52"/>
     </row>
     <row r="35" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="66"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="68"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="60"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="67"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
       <c r="I35" s="52"/>
     </row>
     <row r="36" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="66"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="60"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="67"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="78"/>
+      <c r="G36" s="58"/>
+      <c r="H36" s="59"/>
       <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="66"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="60"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="78"/>
+      <c r="G37" s="58"/>
+      <c r="H37" s="59"/>
       <c r="I37" s="52"/>
     </row>
     <row r="38" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="66"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="60"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="78"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="59"/>
       <c r="I38" s="52"/>
     </row>
     <row r="39" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="60"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="78"/>
+      <c r="G39" s="58"/>
+      <c r="H39" s="59"/>
       <c r="I39" s="52"/>
     </row>
     <row r="40" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="66"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="78"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="60"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="78"/>
+      <c r="G40" s="58"/>
+      <c r="H40" s="59"/>
       <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="66"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="59"/>
-      <c r="H41" s="60"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="58"/>
+      <c r="H41" s="59"/>
       <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="66"/>
-      <c r="C42" s="67"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="60"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="59"/>
       <c r="I42" s="52"/>
     </row>
     <row r="43" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="66"/>
-      <c r="C43" s="67"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="60"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="58"/>
+      <c r="H43" s="59"/>
       <c r="I43" s="52"/>
     </row>
     <row r="44" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="66"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="59"/>
-      <c r="H44" s="60"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="78"/>
+      <c r="G44" s="58"/>
+      <c r="H44" s="59"/>
       <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="66"/>
-      <c r="C45" s="67"/>
-      <c r="D45" s="68"/>
-      <c r="E45" s="78"/>
-      <c r="F45" s="79"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="67"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="78"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="59"/>
       <c r="I45" s="52"/>
     </row>
     <row r="46" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="66"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="78"/>
-      <c r="F46" s="79"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="60"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="78"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="59"/>
       <c r="I46" s="52"/>
     </row>
     <row r="47" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="66"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="78"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="67"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="78"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="59"/>
       <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="66"/>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="78"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="60"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="67"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="59"/>
       <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="66"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="78"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="52"/>
     </row>
     <row r="50" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="66"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="59"/>
       <c r="I50" s="52"/>
     </row>
     <row r="51" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="66"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="79"/>
-      <c r="G51" s="59"/>
-      <c r="H51" s="60"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="67"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="78"/>
+      <c r="G51" s="58"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="52"/>
     </row>
     <row r="52" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="66"/>
-      <c r="C52" s="67"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="78"/>
-      <c r="F52" s="79"/>
-      <c r="G52" s="59"/>
-      <c r="H52" s="60"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="67"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="78"/>
+      <c r="G52" s="58"/>
+      <c r="H52" s="59"/>
       <c r="I52" s="52"/>
     </row>
     <row r="53" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="66"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="78"/>
-      <c r="F53" s="79"/>
-      <c r="G53" s="59"/>
-      <c r="H53" s="60"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="78"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
       <c r="I53" s="52"/>
     </row>
     <row r="54" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="66"/>
-      <c r="C54" s="67"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="78"/>
-      <c r="F54" s="79"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="60"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="78"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="59"/>
       <c r="I54" s="52"/>
     </row>
     <row r="55" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="66"/>
-      <c r="C55" s="67"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="78"/>
-      <c r="F55" s="79"/>
-      <c r="G55" s="59"/>
-      <c r="H55" s="60"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="67"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="78"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="59"/>
       <c r="I55" s="52"/>
     </row>
     <row r="56" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="66"/>
-      <c r="C56" s="67"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="78"/>
-      <c r="F56" s="79"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="60"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="67"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="78"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="59"/>
       <c r="I56" s="52"/>
     </row>
     <row r="57" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="66"/>
-      <c r="C57" s="67"/>
-      <c r="D57" s="68"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="79"/>
-      <c r="G57" s="59"/>
-      <c r="H57" s="60"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="67"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="59"/>
       <c r="I57" s="52"/>
     </row>
     <row r="58" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="66"/>
-      <c r="C58" s="67"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="59"/>
-      <c r="H58" s="60"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="67"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="59"/>
       <c r="I58" s="52"/>
     </row>
     <row r="59" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="66"/>
-      <c r="C59" s="67"/>
-      <c r="D59" s="68"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="59"/>
-      <c r="H59" s="60"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="67"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="78"/>
+      <c r="G59" s="58"/>
+      <c r="H59" s="59"/>
       <c r="I59" s="52"/>
     </row>
     <row r="60" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="66"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="60"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="78"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="59"/>
       <c r="I60" s="52"/>
     </row>
     <row r="61" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="66"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="68"/>
-      <c r="E61" s="78"/>
-      <c r="F61" s="79"/>
-      <c r="G61" s="59"/>
-      <c r="H61" s="60"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="78"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="59"/>
       <c r="I61" s="52"/>
     </row>
     <row r="62" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="66"/>
-      <c r="C62" s="67"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="79"/>
-      <c r="G62" s="59"/>
-      <c r="H62" s="60"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="78"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="59"/>
       <c r="I62" s="52"/>
     </row>
     <row r="63" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="66"/>
-      <c r="C63" s="67"/>
-      <c r="D63" s="68"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="79"/>
-      <c r="G63" s="59"/>
-      <c r="H63" s="60"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="78"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="59"/>
       <c r="I63" s="52"/>
     </row>
     <row r="64" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="66"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="79"/>
-      <c r="G64" s="59"/>
-      <c r="H64" s="60"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="78"/>
+      <c r="G64" s="58"/>
+      <c r="H64" s="59"/>
       <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="66"/>
-      <c r="C65" s="67"/>
-      <c r="D65" s="68"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="59"/>
-      <c r="H65" s="60"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="78"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="59"/>
       <c r="I65" s="52"/>
     </row>
     <row r="66" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="66"/>
-      <c r="C66" s="67"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="79"/>
-      <c r="G66" s="59"/>
-      <c r="H66" s="60"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="78"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="59"/>
       <c r="I66" s="52"/>
     </row>
     <row r="67" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="66"/>
-      <c r="C67" s="67"/>
-      <c r="D67" s="68"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
-      <c r="G67" s="59"/>
-      <c r="H67" s="60"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="78"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="59"/>
       <c r="I67" s="52"/>
     </row>
     <row r="68" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="66"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="79"/>
-      <c r="G68" s="59"/>
-      <c r="H68" s="60"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="77"/>
+      <c r="F68" s="78"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="59"/>
       <c r="I68" s="52"/>
     </row>
     <row r="69" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="66"/>
-      <c r="C69" s="67"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="79"/>
-      <c r="G69" s="59"/>
-      <c r="H69" s="60"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="78"/>
+      <c r="G69" s="58"/>
+      <c r="H69" s="59"/>
       <c r="I69" s="52"/>
     </row>
     <row r="70" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="66"/>
-      <c r="C70" s="67"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="79"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="60"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="78"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="59"/>
       <c r="I70" s="52"/>
     </row>
     <row r="71" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="66"/>
-      <c r="C71" s="67"/>
-      <c r="D71" s="68"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="79"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="60"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="78"/>
+      <c r="G71" s="58"/>
+      <c r="H71" s="59"/>
       <c r="I71" s="52"/>
     </row>
     <row r="72" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="66"/>
-      <c r="C72" s="67"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="79"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="60"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="78"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="59"/>
       <c r="I72" s="52"/>
     </row>
     <row r="73" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="66"/>
-      <c r="C73" s="67"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="79"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="60"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="78"/>
+      <c r="G73" s="58"/>
+      <c r="H73" s="59"/>
       <c r="I73" s="52"/>
     </row>
     <row r="74" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="66"/>
-      <c r="C74" s="67"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="79"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="60"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="67"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="78"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="59"/>
       <c r="I74" s="52"/>
     </row>
     <row r="75" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="66"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="68"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="79"/>
-      <c r="G75" s="59"/>
-      <c r="H75" s="60"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="59"/>
       <c r="I75" s="52"/>
     </row>
     <row r="76" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="66"/>
-      <c r="C76" s="67"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="59"/>
-      <c r="H76" s="60"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="59"/>
       <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="66"/>
-      <c r="C77" s="67"/>
-      <c r="D77" s="68"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="79"/>
-      <c r="G77" s="59"/>
-      <c r="H77" s="60"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="78"/>
+      <c r="G77" s="58"/>
+      <c r="H77" s="59"/>
       <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="66"/>
-      <c r="C78" s="67"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="79"/>
-      <c r="G78" s="59"/>
-      <c r="H78" s="60"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="67"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="78"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="59"/>
       <c r="I78" s="52"/>
     </row>
     <row r="79" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="66"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="78"/>
-      <c r="F79" s="79"/>
-      <c r="G79" s="59"/>
-      <c r="H79" s="60"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="78"/>
+      <c r="G79" s="58"/>
+      <c r="H79" s="59"/>
       <c r="I79" s="52"/>
     </row>
     <row r="80" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="66"/>
-      <c r="C80" s="67"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="78"/>
-      <c r="F80" s="79"/>
-      <c r="G80" s="59"/>
-      <c r="H80" s="60"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="78"/>
+      <c r="G80" s="58"/>
+      <c r="H80" s="59"/>
       <c r="I80" s="52"/>
     </row>
     <row r="81" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="66"/>
-      <c r="C81" s="67"/>
-      <c r="D81" s="68"/>
-      <c r="E81" s="78"/>
-      <c r="F81" s="79"/>
-      <c r="G81" s="59"/>
-      <c r="H81" s="60"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="78"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="59"/>
       <c r="I81" s="52"/>
     </row>
     <row r="82" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="66"/>
-      <c r="C82" s="67"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="78"/>
-      <c r="F82" s="79"/>
-      <c r="G82" s="59"/>
-      <c r="H82" s="60"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="78"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="59"/>
       <c r="I82" s="52"/>
     </row>
     <row r="83" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="66"/>
-      <c r="C83" s="67"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="79"/>
-      <c r="G83" s="59"/>
-      <c r="H83" s="60"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="59"/>
       <c r="I83" s="52"/>
     </row>
     <row r="84" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="66"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="59"/>
-      <c r="H84" s="60"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
       <c r="I84" s="52"/>
     </row>
     <row r="85" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="66"/>
-      <c r="C85" s="67"/>
-      <c r="D85" s="68"/>
-      <c r="E85" s="78"/>
-      <c r="F85" s="79"/>
-      <c r="G85" s="59"/>
-      <c r="H85" s="60"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="78"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="59"/>
       <c r="I85" s="52"/>
     </row>
     <row r="86" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="66"/>
-      <c r="C86" s="67"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="78"/>
-      <c r="F86" s="79"/>
-      <c r="G86" s="59"/>
-      <c r="H86" s="60"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="67"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="78"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="59"/>
       <c r="I86" s="52"/>
     </row>
     <row r="87" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="66"/>
-      <c r="C87" s="67"/>
-      <c r="D87" s="68"/>
-      <c r="E87" s="78"/>
-      <c r="F87" s="79"/>
-      <c r="G87" s="59"/>
-      <c r="H87" s="60"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="67"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="78"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="59"/>
       <c r="I87" s="52"/>
     </row>
     <row r="88" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="66"/>
-      <c r="C88" s="67"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="78"/>
-      <c r="F88" s="79"/>
-      <c r="G88" s="59"/>
-      <c r="H88" s="60"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="67"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="78"/>
+      <c r="G88" s="58"/>
+      <c r="H88" s="59"/>
       <c r="I88" s="52"/>
     </row>
     <row r="89" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="66"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="68"/>
-      <c r="E89" s="78"/>
-      <c r="F89" s="79"/>
-      <c r="G89" s="59"/>
-      <c r="H89" s="60"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="78"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="59"/>
       <c r="I89" s="52"/>
     </row>
     <row r="90" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="66"/>
-      <c r="C90" s="67"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="79"/>
-      <c r="G90" s="59"/>
-      <c r="H90" s="60"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="67"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="59"/>
       <c r="I90" s="52"/>
     </row>
     <row r="91" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="66"/>
-      <c r="C91" s="67"/>
-      <c r="D91" s="68"/>
-      <c r="E91" s="78"/>
-      <c r="F91" s="79"/>
-      <c r="G91" s="59"/>
-      <c r="H91" s="60"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="67"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="78"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="59"/>
       <c r="I91" s="52"/>
     </row>
     <row r="92" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="66"/>
-      <c r="C92" s="67"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="78"/>
-      <c r="F92" s="79"/>
-      <c r="G92" s="59"/>
-      <c r="H92" s="60"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="67"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78"/>
+      <c r="G92" s="58"/>
+      <c r="H92" s="59"/>
       <c r="I92" s="52"/>
     </row>
     <row r="93" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="66"/>
-      <c r="C93" s="67"/>
-      <c r="D93" s="68"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="79"/>
-      <c r="G93" s="59"/>
-      <c r="H93" s="60"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="67"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="78"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="59"/>
       <c r="I93" s="52"/>
     </row>
     <row r="94" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="66"/>
-      <c r="C94" s="67"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="79"/>
-      <c r="G94" s="59"/>
-      <c r="H94" s="60"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="59"/>
       <c r="I94" s="52"/>
     </row>
     <row r="95" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="66"/>
-      <c r="C95" s="67"/>
-      <c r="D95" s="68"/>
-      <c r="E95" s="78"/>
-      <c r="F95" s="79"/>
-      <c r="G95" s="59"/>
-      <c r="H95" s="60"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="67"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="59"/>
       <c r="I95" s="52"/>
     </row>
     <row r="96" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="66"/>
-      <c r="C96" s="67"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="78"/>
-      <c r="F96" s="79"/>
-      <c r="G96" s="59"/>
-      <c r="H96" s="60"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="67"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="78"/>
+      <c r="G96" s="58"/>
+      <c r="H96" s="59"/>
       <c r="I96" s="52"/>
     </row>
     <row r="97" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="66"/>
-      <c r="C97" s="67"/>
-      <c r="D97" s="68"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="79"/>
-      <c r="G97" s="59"/>
-      <c r="H97" s="60"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="67"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="58"/>
+      <c r="H97" s="59"/>
       <c r="I97" s="52"/>
     </row>
     <row r="98" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="66"/>
-      <c r="C98" s="67"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="59"/>
-      <c r="H98" s="60"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="67"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="59"/>
       <c r="I98" s="52"/>
     </row>
     <row r="99" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="66"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="68"/>
-      <c r="E99" s="78"/>
-      <c r="F99" s="79"/>
-      <c r="G99" s="59"/>
-      <c r="H99" s="60"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="78"/>
+      <c r="G99" s="58"/>
+      <c r="H99" s="59"/>
       <c r="I99" s="52"/>
     </row>
     <row r="100" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="66"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="78"/>
-      <c r="F100" s="79"/>
-      <c r="G100" s="59"/>
-      <c r="H100" s="60"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="78"/>
+      <c r="G100" s="58"/>
+      <c r="H100" s="59"/>
       <c r="I100" s="52"/>
     </row>
     <row r="101" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="66"/>
-      <c r="C101" s="67"/>
-      <c r="D101" s="68"/>
-      <c r="E101" s="78"/>
-      <c r="F101" s="79"/>
-      <c r="G101" s="59"/>
-      <c r="H101" s="60"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="78"/>
+      <c r="G101" s="58"/>
+      <c r="H101" s="59"/>
       <c r="I101" s="52"/>
     </row>
     <row r="102" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="66"/>
-      <c r="C102" s="67"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="78"/>
-      <c r="F102" s="79"/>
-      <c r="G102" s="59"/>
-      <c r="H102" s="60"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="67"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="78"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="59"/>
       <c r="I102" s="52"/>
     </row>
     <row r="103" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="66"/>
-      <c r="C103" s="67"/>
-      <c r="D103" s="68"/>
-      <c r="E103" s="78"/>
-      <c r="F103" s="79"/>
-      <c r="G103" s="59"/>
-      <c r="H103" s="60"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="67"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="78"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="59"/>
       <c r="I103" s="52"/>
     </row>
     <row r="104" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="66"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="78"/>
-      <c r="F104" s="79"/>
-      <c r="G104" s="59"/>
-      <c r="H104" s="60"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="67"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="78"/>
+      <c r="G104" s="58"/>
+      <c r="H104" s="59"/>
       <c r="I104" s="52"/>
     </row>
     <row r="105" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="66"/>
-      <c r="C105" s="67"/>
-      <c r="D105" s="68"/>
-      <c r="E105" s="78"/>
-      <c r="F105" s="79"/>
-      <c r="G105" s="59"/>
-      <c r="H105" s="60"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="67"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="78"/>
+      <c r="G105" s="58"/>
+      <c r="H105" s="59"/>
       <c r="I105" s="52"/>
     </row>
     <row r="106" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="66"/>
-      <c r="C106" s="67"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="78"/>
-      <c r="F106" s="79"/>
-      <c r="G106" s="59"/>
-      <c r="H106" s="60"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="78"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="59"/>
       <c r="I106" s="52"/>
     </row>
     <row r="107" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="66"/>
-      <c r="C107" s="67"/>
-      <c r="D107" s="68"/>
-      <c r="E107" s="78"/>
-      <c r="F107" s="79"/>
-      <c r="G107" s="59"/>
-      <c r="H107" s="60"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="78"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="59"/>
       <c r="I107" s="52"/>
     </row>
     <row r="108" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="66"/>
-      <c r="C108" s="67"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="78"/>
-      <c r="F108" s="79"/>
-      <c r="G108" s="59"/>
-      <c r="H108" s="60"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="67"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="78"/>
+      <c r="G108" s="58"/>
+      <c r="H108" s="59"/>
       <c r="I108" s="52"/>
     </row>
     <row r="109" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="66"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="78"/>
-      <c r="F109" s="79"/>
-      <c r="G109" s="59"/>
-      <c r="H109" s="60"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="78"/>
+      <c r="G109" s="58"/>
+      <c r="H109" s="59"/>
       <c r="I109" s="52"/>
     </row>
     <row r="110" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="66"/>
-      <c r="C110" s="67"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="78"/>
-      <c r="F110" s="79"/>
-      <c r="G110" s="59"/>
-      <c r="H110" s="60"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="67"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="78"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="59"/>
       <c r="I110" s="52"/>
     </row>
     <row r="111" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="66"/>
-      <c r="C111" s="67"/>
-      <c r="D111" s="68"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="79"/>
-      <c r="G111" s="59"/>
-      <c r="H111" s="60"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="67"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="78"/>
+      <c r="G111" s="58"/>
+      <c r="H111" s="59"/>
       <c r="I111" s="52"/>
     </row>
     <row r="112" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="66"/>
-      <c r="C112" s="67"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="79"/>
-      <c r="G112" s="59"/>
-      <c r="H112" s="60"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="78"/>
+      <c r="G112" s="58"/>
+      <c r="H112" s="59"/>
       <c r="I112" s="52"/>
     </row>
     <row r="113" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="66"/>
-      <c r="C113" s="67"/>
-      <c r="D113" s="68"/>
-      <c r="E113" s="78"/>
-      <c r="F113" s="79"/>
-      <c r="G113" s="59"/>
-      <c r="H113" s="60"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="67"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="78"/>
+      <c r="G113" s="58"/>
+      <c r="H113" s="59"/>
       <c r="I113" s="52"/>
     </row>
     <row r="114" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="66"/>
-      <c r="C114" s="67"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="78"/>
-      <c r="F114" s="79"/>
-      <c r="G114" s="59"/>
-      <c r="H114" s="60"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="67"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="59"/>
       <c r="I114" s="52"/>
     </row>
     <row r="115" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="66"/>
-      <c r="C115" s="67"/>
-      <c r="D115" s="68"/>
-      <c r="E115" s="78"/>
-      <c r="F115" s="79"/>
-      <c r="G115" s="59"/>
-      <c r="H115" s="60"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="67"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="78"/>
+      <c r="G115" s="58"/>
+      <c r="H115" s="59"/>
       <c r="I115" s="52"/>
     </row>
     <row r="116" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="66"/>
-      <c r="C116" s="67"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="78"/>
-      <c r="F116" s="79"/>
-      <c r="G116" s="59"/>
-      <c r="H116" s="60"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="67"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="78"/>
+      <c r="G116" s="58"/>
+      <c r="H116" s="59"/>
       <c r="I116" s="52"/>
     </row>
     <row r="117" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="66"/>
-      <c r="C117" s="67"/>
-      <c r="D117" s="68"/>
-      <c r="E117" s="78"/>
-      <c r="F117" s="79"/>
-      <c r="G117" s="59"/>
-      <c r="H117" s="60"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="67"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="78"/>
+      <c r="G117" s="58"/>
+      <c r="H117" s="59"/>
       <c r="I117" s="52"/>
     </row>
     <row r="118" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="66"/>
-      <c r="C118" s="67"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="78"/>
-      <c r="F118" s="79"/>
-      <c r="G118" s="59"/>
-      <c r="H118" s="60"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="78"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="59"/>
       <c r="I118" s="52"/>
     </row>
     <row r="119" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="66"/>
-      <c r="C119" s="67"/>
-      <c r="D119" s="68"/>
-      <c r="E119" s="78"/>
-      <c r="F119" s="79"/>
-      <c r="G119" s="59"/>
-      <c r="H119" s="60"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="78"/>
+      <c r="G119" s="58"/>
+      <c r="H119" s="59"/>
       <c r="I119" s="52"/>
     </row>
     <row r="120" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="66"/>
-      <c r="C120" s="67"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="78"/>
-      <c r="F120" s="79"/>
-      <c r="G120" s="59"/>
-      <c r="H120" s="60"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="67"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="78"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="59"/>
       <c r="I120" s="52"/>
     </row>
     <row r="121" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="66"/>
-      <c r="C121" s="67"/>
-      <c r="D121" s="68"/>
-      <c r="E121" s="78"/>
-      <c r="F121" s="79"/>
-      <c r="G121" s="59"/>
-      <c r="H121" s="60"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="67"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="78"/>
+      <c r="G121" s="58"/>
+      <c r="H121" s="59"/>
       <c r="I121" s="52"/>
     </row>
     <row r="122" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="66"/>
-      <c r="C122" s="67"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="78"/>
-      <c r="F122" s="79"/>
-      <c r="G122" s="59"/>
-      <c r="H122" s="60"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="67"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="58"/>
+      <c r="H122" s="59"/>
       <c r="I122" s="52"/>
     </row>
     <row r="123" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="66"/>
-      <c r="C123" s="67"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="78"/>
-      <c r="F123" s="79"/>
-      <c r="G123" s="59"/>
-      <c r="H123" s="60"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="67"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="59"/>
       <c r="I123" s="52"/>
     </row>
     <row r="124" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="66"/>
-      <c r="C124" s="67"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="78"/>
-      <c r="F124" s="79"/>
-      <c r="G124" s="59"/>
-      <c r="H124" s="60"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="67"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="78"/>
+      <c r="G124" s="58"/>
+      <c r="H124" s="59"/>
       <c r="I124" s="52"/>
     </row>
     <row r="125" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="66"/>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="78"/>
-      <c r="F125" s="79"/>
-      <c r="G125" s="59"/>
-      <c r="H125" s="60"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="67"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="78"/>
+      <c r="G125" s="58"/>
+      <c r="H125" s="59"/>
       <c r="I125" s="52"/>
     </row>
     <row r="126" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="66"/>
-      <c r="C126" s="67"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="78"/>
-      <c r="F126" s="79"/>
-      <c r="G126" s="59"/>
-      <c r="H126" s="60"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="67"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="59"/>
       <c r="I126" s="52"/>
     </row>
     <row r="127" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="66"/>
-      <c r="C127" s="67"/>
-      <c r="D127" s="68"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="79"/>
-      <c r="G127" s="59"/>
-      <c r="H127" s="60"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="67"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="59"/>
       <c r="I127" s="52"/>
     </row>
     <row r="128" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="66"/>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="78"/>
-      <c r="F128" s="79"/>
-      <c r="G128" s="59"/>
-      <c r="H128" s="60"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="67"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="58"/>
+      <c r="H128" s="59"/>
       <c r="I128" s="52"/>
     </row>
     <row r="129" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="66"/>
-      <c r="C129" s="67"/>
-      <c r="D129" s="68"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="79"/>
-      <c r="G129" s="59"/>
-      <c r="H129" s="60"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="67"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="58"/>
+      <c r="H129" s="59"/>
       <c r="I129" s="52"/>
     </row>
     <row r="130" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="66"/>
-      <c r="C130" s="67"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="79"/>
-      <c r="G130" s="59"/>
-      <c r="H130" s="60"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="78"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="59"/>
       <c r="I130" s="52"/>
     </row>
     <row r="131" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="66"/>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="78"/>
-      <c r="F131" s="79"/>
-      <c r="G131" s="59"/>
-      <c r="H131" s="60"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="67"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="58"/>
+      <c r="H131" s="59"/>
       <c r="I131" s="52"/>
     </row>
     <row r="132" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="66"/>
-      <c r="C132" s="67"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="79"/>
-      <c r="G132" s="59"/>
-      <c r="H132" s="60"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="67"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="78"/>
+      <c r="G132" s="58"/>
+      <c r="H132" s="59"/>
       <c r="I132" s="52"/>
     </row>
     <row r="133" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="66"/>
-      <c r="C133" s="67"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="78"/>
-      <c r="F133" s="79"/>
-      <c r="G133" s="59"/>
-      <c r="H133" s="60"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="67"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="78"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="59"/>
       <c r="I133" s="52"/>
     </row>
     <row r="134" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="66"/>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="78"/>
-      <c r="F134" s="79"/>
-      <c r="G134" s="59"/>
-      <c r="H134" s="60"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="66"/>
+      <c r="D134" s="67"/>
+      <c r="E134" s="77"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="59"/>
       <c r="I134" s="52"/>
     </row>
     <row r="135" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="66"/>
-      <c r="C135" s="67"/>
-      <c r="D135" s="68"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="79"/>
-      <c r="G135" s="59"/>
-      <c r="H135" s="60"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="67"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="58"/>
+      <c r="H135" s="59"/>
       <c r="I135" s="52"/>
     </row>
     <row r="136" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="66"/>
-      <c r="C136" s="67"/>
-      <c r="D136" s="68"/>
-      <c r="E136" s="78"/>
-      <c r="F136" s="79"/>
-      <c r="G136" s="59"/>
-      <c r="H136" s="60"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="78"/>
+      <c r="G136" s="58"/>
+      <c r="H136" s="59"/>
       <c r="I136" s="52"/>
     </row>
     <row r="137" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="66"/>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="78"/>
-      <c r="F137" s="79"/>
-      <c r="G137" s="59"/>
-      <c r="H137" s="60"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="78"/>
+      <c r="G137" s="58"/>
+      <c r="H137" s="59"/>
       <c r="I137" s="52"/>
     </row>
     <row r="138" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="66"/>
-      <c r="C138" s="67"/>
-      <c r="D138" s="68"/>
-      <c r="E138" s="78"/>
-      <c r="F138" s="79"/>
-      <c r="G138" s="59"/>
-      <c r="H138" s="60"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="67"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="78"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="59"/>
       <c r="I138" s="52"/>
     </row>
     <row r="139" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="66"/>
-      <c r="C139" s="67"/>
-      <c r="D139" s="68"/>
-      <c r="E139" s="78"/>
-      <c r="F139" s="79"/>
-      <c r="G139" s="59"/>
-      <c r="H139" s="60"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="67"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="78"/>
+      <c r="G139" s="58"/>
+      <c r="H139" s="59"/>
       <c r="I139" s="52"/>
     </row>
     <row r="140" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="66"/>
-      <c r="C140" s="67"/>
-      <c r="D140" s="68"/>
-      <c r="E140" s="78"/>
-      <c r="F140" s="79"/>
-      <c r="G140" s="59"/>
-      <c r="H140" s="60"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="67"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="78"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="59"/>
       <c r="I140" s="52"/>
     </row>
     <row r="141" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="66"/>
-      <c r="C141" s="67"/>
-      <c r="D141" s="68"/>
-      <c r="E141" s="78"/>
-      <c r="F141" s="79"/>
-      <c r="G141" s="59"/>
-      <c r="H141" s="60"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="67"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="78"/>
+      <c r="G141" s="58"/>
+      <c r="H141" s="59"/>
       <c r="I141" s="52"/>
     </row>
     <row r="142" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="66"/>
-      <c r="C142" s="67"/>
-      <c r="D142" s="68"/>
-      <c r="E142" s="78"/>
-      <c r="F142" s="79"/>
-      <c r="G142" s="59"/>
-      <c r="H142" s="60"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="67"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="78"/>
+      <c r="G142" s="58"/>
+      <c r="H142" s="59"/>
       <c r="I142" s="52"/>
     </row>
     <row r="143" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="66"/>
-      <c r="C143" s="67"/>
-      <c r="D143" s="68"/>
-      <c r="E143" s="78"/>
-      <c r="F143" s="79"/>
-      <c r="G143" s="59"/>
-      <c r="H143" s="60"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="67"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="78"/>
+      <c r="G143" s="58"/>
+      <c r="H143" s="59"/>
       <c r="I143" s="52"/>
     </row>
     <row r="144" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="66"/>
-      <c r="C144" s="67"/>
-      <c r="D144" s="68"/>
-      <c r="E144" s="78"/>
-      <c r="F144" s="79"/>
-      <c r="G144" s="59"/>
-      <c r="H144" s="60"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="67"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="58"/>
+      <c r="H144" s="59"/>
       <c r="I144" s="52"/>
     </row>
     <row r="145" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="66"/>
-      <c r="C145" s="67"/>
-      <c r="D145" s="68"/>
-      <c r="E145" s="78"/>
-      <c r="F145" s="79"/>
-      <c r="G145" s="59"/>
-      <c r="H145" s="60"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="67"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="59"/>
       <c r="I145" s="52"/>
     </row>
     <row r="146" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="66"/>
-      <c r="C146" s="67"/>
-      <c r="D146" s="68"/>
-      <c r="E146" s="78"/>
-      <c r="F146" s="79"/>
-      <c r="G146" s="59"/>
-      <c r="H146" s="60"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="67"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="78"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="59"/>
       <c r="I146" s="52"/>
     </row>
     <row r="147" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="66"/>
-      <c r="C147" s="67"/>
-      <c r="D147" s="68"/>
-      <c r="E147" s="78"/>
-      <c r="F147" s="79"/>
-      <c r="G147" s="59"/>
-      <c r="H147" s="60"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="67"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="78"/>
+      <c r="G147" s="58"/>
+      <c r="H147" s="59"/>
       <c r="I147" s="52"/>
     </row>
     <row r="148" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="66"/>
-      <c r="C148" s="67"/>
-      <c r="D148" s="68"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="79"/>
-      <c r="G148" s="59"/>
-      <c r="H148" s="60"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="67"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="78"/>
+      <c r="G148" s="58"/>
+      <c r="H148" s="59"/>
       <c r="I148" s="52"/>
     </row>
     <row r="149" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="66"/>
-      <c r="C149" s="67"/>
-      <c r="D149" s="68"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="79"/>
-      <c r="G149" s="59"/>
-      <c r="H149" s="60"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="78"/>
+      <c r="G149" s="58"/>
+      <c r="H149" s="59"/>
       <c r="I149" s="52"/>
     </row>
     <row r="150" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="66"/>
-      <c r="C150" s="67"/>
-      <c r="D150" s="68"/>
-      <c r="E150" s="78"/>
-      <c r="F150" s="79"/>
-      <c r="G150" s="59"/>
-      <c r="H150" s="60"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="67"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="78"/>
+      <c r="G150" s="58"/>
+      <c r="H150" s="59"/>
       <c r="I150" s="52"/>
     </row>
     <row r="151" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="66"/>
-      <c r="C151" s="67"/>
-      <c r="D151" s="68"/>
-      <c r="E151" s="78"/>
-      <c r="F151" s="79"/>
-      <c r="G151" s="59"/>
-      <c r="H151" s="60"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="67"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="78"/>
+      <c r="G151" s="58"/>
+      <c r="H151" s="59"/>
       <c r="I151" s="52"/>
     </row>
     <row r="152" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="66"/>
-      <c r="C152" s="67"/>
-      <c r="D152" s="68"/>
-      <c r="E152" s="78"/>
-      <c r="F152" s="79"/>
-      <c r="G152" s="59"/>
-      <c r="H152" s="60"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="67"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="78"/>
+      <c r="G152" s="58"/>
+      <c r="H152" s="59"/>
       <c r="I152" s="52"/>
     </row>
     <row r="153" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="66"/>
-      <c r="C153" s="67"/>
-      <c r="D153" s="68"/>
-      <c r="E153" s="78"/>
-      <c r="F153" s="79"/>
-      <c r="G153" s="59"/>
-      <c r="H153" s="60"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="67"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="78"/>
+      <c r="G153" s="58"/>
+      <c r="H153" s="59"/>
       <c r="I153" s="52"/>
     </row>
     <row r="154" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="66"/>
-      <c r="C154" s="67"/>
-      <c r="D154" s="68"/>
-      <c r="E154" s="78"/>
-      <c r="F154" s="79"/>
-      <c r="G154" s="59"/>
-      <c r="H154" s="60"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="78"/>
+      <c r="G154" s="58"/>
+      <c r="H154" s="59"/>
       <c r="I154" s="52"/>
     </row>
     <row r="155" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="66"/>
-      <c r="C155" s="67"/>
-      <c r="D155" s="68"/>
-      <c r="E155" s="78"/>
-      <c r="F155" s="79"/>
-      <c r="G155" s="59"/>
-      <c r="H155" s="60"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="78"/>
+      <c r="G155" s="58"/>
+      <c r="H155" s="59"/>
       <c r="I155" s="52"/>
     </row>
     <row r="156" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="66"/>
-      <c r="C156" s="67"/>
-      <c r="D156" s="68"/>
-      <c r="E156" s="78"/>
-      <c r="F156" s="79"/>
-      <c r="G156" s="59"/>
-      <c r="H156" s="60"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="67"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="78"/>
+      <c r="G156" s="58"/>
+      <c r="H156" s="59"/>
       <c r="I156" s="52"/>
     </row>
     <row r="157" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="66"/>
-      <c r="C157" s="67"/>
-      <c r="D157" s="68"/>
-      <c r="E157" s="78"/>
-      <c r="F157" s="79"/>
-      <c r="G157" s="59"/>
-      <c r="H157" s="60"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="67"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="78"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="59"/>
       <c r="I157" s="52"/>
     </row>
     <row r="158" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="66"/>
-      <c r="C158" s="67"/>
-      <c r="D158" s="68"/>
-      <c r="E158" s="78"/>
-      <c r="F158" s="79"/>
-      <c r="G158" s="59"/>
-      <c r="H158" s="60"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="67"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="78"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="59"/>
       <c r="I158" s="52"/>
     </row>
     <row r="159" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="66"/>
-      <c r="C159" s="67"/>
-      <c r="D159" s="68"/>
-      <c r="E159" s="78"/>
-      <c r="F159" s="79"/>
-      <c r="G159" s="59"/>
-      <c r="H159" s="60"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="67"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="78"/>
+      <c r="G159" s="58"/>
+      <c r="H159" s="59"/>
       <c r="I159" s="52"/>
     </row>
     <row r="160" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="66"/>
-      <c r="C160" s="67"/>
-      <c r="D160" s="68"/>
-      <c r="E160" s="78"/>
-      <c r="F160" s="79"/>
-      <c r="G160" s="59"/>
-      <c r="H160" s="60"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="67"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="78"/>
+      <c r="G160" s="58"/>
+      <c r="H160" s="59"/>
       <c r="I160" s="52"/>
     </row>
     <row r="161" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="66"/>
-      <c r="C161" s="67"/>
-      <c r="D161" s="68"/>
-      <c r="E161" s="78"/>
-      <c r="F161" s="79"/>
-      <c r="G161" s="59"/>
-      <c r="H161" s="60"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="67"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="78"/>
+      <c r="G161" s="58"/>
+      <c r="H161" s="59"/>
       <c r="I161" s="52"/>
     </row>
     <row r="162" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="66"/>
-      <c r="C162" s="67"/>
-      <c r="D162" s="68"/>
-      <c r="E162" s="78"/>
-      <c r="F162" s="79"/>
-      <c r="G162" s="59"/>
-      <c r="H162" s="60"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="67"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="78"/>
+      <c r="G162" s="58"/>
+      <c r="H162" s="59"/>
       <c r="I162" s="52"/>
     </row>
     <row r="163" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="66"/>
-      <c r="C163" s="67"/>
-      <c r="D163" s="68"/>
-      <c r="E163" s="78"/>
-      <c r="F163" s="79"/>
-      <c r="G163" s="59"/>
-      <c r="H163" s="60"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="67"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="78"/>
+      <c r="G163" s="58"/>
+      <c r="H163" s="59"/>
       <c r="I163" s="52"/>
     </row>
     <row r="164" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="66"/>
-      <c r="C164" s="67"/>
-      <c r="D164" s="68"/>
-      <c r="E164" s="78"/>
-      <c r="F164" s="79"/>
-      <c r="G164" s="59"/>
-      <c r="H164" s="60"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="67"/>
+      <c r="E164" s="77"/>
+      <c r="F164" s="78"/>
+      <c r="G164" s="58"/>
+      <c r="H164" s="59"/>
       <c r="I164" s="52"/>
     </row>
     <row r="165" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="66"/>
-      <c r="C165" s="67"/>
-      <c r="D165" s="68"/>
-      <c r="E165" s="78"/>
-      <c r="F165" s="79"/>
-      <c r="G165" s="59"/>
-      <c r="H165" s="60"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="67"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="78"/>
+      <c r="G165" s="58"/>
+      <c r="H165" s="59"/>
       <c r="I165" s="52"/>
     </row>
     <row r="166" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="66"/>
-      <c r="C166" s="67"/>
-      <c r="D166" s="68"/>
-      <c r="E166" s="78"/>
-      <c r="F166" s="79"/>
-      <c r="G166" s="59"/>
-      <c r="H166" s="60"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="67"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="78"/>
+      <c r="G166" s="58"/>
+      <c r="H166" s="59"/>
       <c r="I166" s="52"/>
     </row>
     <row r="167" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="66"/>
-      <c r="C167" s="67"/>
-      <c r="D167" s="68"/>
-      <c r="E167" s="78"/>
-      <c r="F167" s="79"/>
-      <c r="G167" s="59"/>
-      <c r="H167" s="60"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="67"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="78"/>
+      <c r="G167" s="58"/>
+      <c r="H167" s="59"/>
       <c r="I167" s="52"/>
     </row>
     <row r="168" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="66"/>
-      <c r="C168" s="67"/>
-      <c r="D168" s="68"/>
-      <c r="E168" s="78"/>
-      <c r="F168" s="79"/>
-      <c r="G168" s="59"/>
-      <c r="H168" s="60"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="67"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="78"/>
+      <c r="G168" s="58"/>
+      <c r="H168" s="59"/>
       <c r="I168" s="52"/>
     </row>
     <row r="169" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="66"/>
-      <c r="C169" s="67"/>
-      <c r="D169" s="68"/>
-      <c r="E169" s="78"/>
-      <c r="F169" s="79"/>
-      <c r="G169" s="59"/>
-      <c r="H169" s="60"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="67"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="78"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="59"/>
       <c r="I169" s="52"/>
     </row>
     <row r="170" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="66"/>
-      <c r="C170" s="67"/>
-      <c r="D170" s="68"/>
-      <c r="E170" s="78"/>
-      <c r="F170" s="79"/>
-      <c r="G170" s="59"/>
-      <c r="H170" s="60"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="67"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="78"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="59"/>
       <c r="I170" s="52"/>
     </row>
     <row r="171" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="66"/>
-      <c r="C171" s="67"/>
-      <c r="D171" s="68"/>
-      <c r="E171" s="78"/>
-      <c r="F171" s="79"/>
-      <c r="G171" s="59"/>
-      <c r="H171" s="60"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="67"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="78"/>
+      <c r="G171" s="58"/>
+      <c r="H171" s="59"/>
       <c r="I171" s="52"/>
     </row>
     <row r="172" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="66"/>
-      <c r="C172" s="67"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="78"/>
-      <c r="F172" s="79"/>
-      <c r="G172" s="59"/>
-      <c r="H172" s="60"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="67"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="78"/>
+      <c r="G172" s="58"/>
+      <c r="H172" s="59"/>
       <c r="I172" s="52"/>
     </row>
     <row r="173" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="66"/>
-      <c r="C173" s="67"/>
-      <c r="D173" s="68"/>
-      <c r="E173" s="78"/>
-      <c r="F173" s="79"/>
-      <c r="G173" s="59"/>
-      <c r="H173" s="60"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="78"/>
+      <c r="G173" s="58"/>
+      <c r="H173" s="59"/>
       <c r="I173" s="52"/>
     </row>
     <row r="174" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="66"/>
-      <c r="C174" s="67"/>
-      <c r="D174" s="68"/>
-      <c r="E174" s="78"/>
-      <c r="F174" s="79"/>
-      <c r="G174" s="59"/>
-      <c r="H174" s="60"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="78"/>
+      <c r="G174" s="58"/>
+      <c r="H174" s="59"/>
       <c r="I174" s="52"/>
     </row>
     <row r="175" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="66"/>
-      <c r="C175" s="67"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="78"/>
-      <c r="F175" s="79"/>
-      <c r="G175" s="59"/>
-      <c r="H175" s="60"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="67"/>
+      <c r="E175" s="77"/>
+      <c r="F175" s="78"/>
+      <c r="G175" s="58"/>
+      <c r="H175" s="59"/>
       <c r="I175" s="52"/>
     </row>
     <row r="176" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="66"/>
-      <c r="C176" s="67"/>
-      <c r="D176" s="68"/>
-      <c r="E176" s="78"/>
-      <c r="F176" s="79"/>
-      <c r="G176" s="59"/>
-      <c r="H176" s="60"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="67"/>
+      <c r="E176" s="77"/>
+      <c r="F176" s="78"/>
+      <c r="G176" s="58"/>
+      <c r="H176" s="59"/>
       <c r="I176" s="52"/>
     </row>
     <row r="177" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="66"/>
-      <c r="C177" s="67"/>
-      <c r="D177" s="68"/>
-      <c r="E177" s="78"/>
-      <c r="F177" s="79"/>
-      <c r="G177" s="59"/>
-      <c r="H177" s="60"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="67"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="78"/>
+      <c r="G177" s="58"/>
+      <c r="H177" s="59"/>
       <c r="I177" s="52"/>
     </row>
     <row r="178" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="66"/>
-      <c r="C178" s="67"/>
-      <c r="D178" s="68"/>
-      <c r="E178" s="78"/>
-      <c r="F178" s="79"/>
-      <c r="G178" s="59"/>
-      <c r="H178" s="60"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="66"/>
+      <c r="D178" s="67"/>
+      <c r="E178" s="77"/>
+      <c r="F178" s="78"/>
+      <c r="G178" s="58"/>
+      <c r="H178" s="59"/>
       <c r="I178" s="52"/>
     </row>
     <row r="179" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="66"/>
-      <c r="C179" s="67"/>
-      <c r="D179" s="68"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="79"/>
-      <c r="G179" s="59"/>
-      <c r="H179" s="60"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="66"/>
+      <c r="D179" s="67"/>
+      <c r="E179" s="77"/>
+      <c r="F179" s="78"/>
+      <c r="G179" s="58"/>
+      <c r="H179" s="59"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="66"/>
-      <c r="C180" s="67"/>
-      <c r="D180" s="68"/>
-      <c r="E180" s="78"/>
-      <c r="F180" s="79"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="60"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="66"/>
+      <c r="D180" s="67"/>
+      <c r="E180" s="77"/>
+      <c r="F180" s="78"/>
+      <c r="G180" s="58"/>
+      <c r="H180" s="59"/>
       <c r="I180" s="52"/>
     </row>
     <row r="181" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="66"/>
-      <c r="C181" s="67"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="78"/>
-      <c r="F181" s="79"/>
-      <c r="G181" s="59"/>
-      <c r="H181" s="60"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="66"/>
+      <c r="D181" s="67"/>
+      <c r="E181" s="77"/>
+      <c r="F181" s="78"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="59"/>
       <c r="I181" s="52"/>
     </row>
     <row r="182" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="66"/>
-      <c r="C182" s="67"/>
-      <c r="D182" s="68"/>
-      <c r="E182" s="78"/>
-      <c r="F182" s="79"/>
-      <c r="G182" s="59"/>
-      <c r="H182" s="60"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="66"/>
+      <c r="D182" s="67"/>
+      <c r="E182" s="77"/>
+      <c r="F182" s="78"/>
+      <c r="G182" s="58"/>
+      <c r="H182" s="59"/>
       <c r="I182" s="52"/>
     </row>
     <row r="183" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="66"/>
-      <c r="C183" s="67"/>
-      <c r="D183" s="68"/>
-      <c r="E183" s="78"/>
-      <c r="F183" s="79"/>
-      <c r="G183" s="59"/>
-      <c r="H183" s="60"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="66"/>
+      <c r="D183" s="67"/>
+      <c r="E183" s="77"/>
+      <c r="F183" s="78"/>
+      <c r="G183" s="58"/>
+      <c r="H183" s="59"/>
       <c r="I183" s="52"/>
     </row>
     <row r="184" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="66"/>
-      <c r="C184" s="67"/>
-      <c r="D184" s="68"/>
-      <c r="E184" s="78"/>
-      <c r="F184" s="79"/>
-      <c r="G184" s="59"/>
-      <c r="H184" s="60"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="66"/>
+      <c r="D184" s="67"/>
+      <c r="E184" s="77"/>
+      <c r="F184" s="78"/>
+      <c r="G184" s="58"/>
+      <c r="H184" s="59"/>
       <c r="I184" s="52"/>
     </row>
     <row r="185" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="66"/>
-      <c r="C185" s="67"/>
-      <c r="D185" s="68"/>
-      <c r="E185" s="78"/>
-      <c r="F185" s="79"/>
-      <c r="G185" s="59"/>
-      <c r="H185" s="60"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="66"/>
+      <c r="D185" s="67"/>
+      <c r="E185" s="77"/>
+      <c r="F185" s="78"/>
+      <c r="G185" s="58"/>
+      <c r="H185" s="59"/>
       <c r="I185" s="52"/>
     </row>
     <row r="186" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="66"/>
-      <c r="C186" s="67"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="78"/>
-      <c r="F186" s="79"/>
-      <c r="G186" s="59"/>
-      <c r="H186" s="60"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="66"/>
+      <c r="D186" s="67"/>
+      <c r="E186" s="77"/>
+      <c r="F186" s="78"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="59"/>
       <c r="I186" s="52"/>
     </row>
     <row r="187" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="66"/>
-      <c r="C187" s="67"/>
-      <c r="D187" s="68"/>
-      <c r="E187" s="78"/>
-      <c r="F187" s="79"/>
-      <c r="G187" s="59"/>
-      <c r="H187" s="60"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="66"/>
+      <c r="D187" s="67"/>
+      <c r="E187" s="77"/>
+      <c r="F187" s="78"/>
+      <c r="G187" s="58"/>
+      <c r="H187" s="59"/>
       <c r="I187" s="52"/>
     </row>
     <row r="188" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="66"/>
-      <c r="C188" s="67"/>
-      <c r="D188" s="68"/>
-      <c r="E188" s="78"/>
-      <c r="F188" s="79"/>
-      <c r="G188" s="59"/>
-      <c r="H188" s="60"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="67"/>
+      <c r="E188" s="77"/>
+      <c r="F188" s="78"/>
+      <c r="G188" s="58"/>
+      <c r="H188" s="59"/>
       <c r="I188" s="52"/>
     </row>
     <row r="189" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="66"/>
-      <c r="C189" s="67"/>
-      <c r="D189" s="68"/>
-      <c r="E189" s="78"/>
-      <c r="F189" s="79"/>
-      <c r="G189" s="59"/>
-      <c r="H189" s="60"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="66"/>
+      <c r="D189" s="67"/>
+      <c r="E189" s="77"/>
+      <c r="F189" s="78"/>
+      <c r="G189" s="58"/>
+      <c r="H189" s="59"/>
       <c r="I189" s="52"/>
     </row>
     <row r="190" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="66"/>
-      <c r="C190" s="67"/>
-      <c r="D190" s="68"/>
-      <c r="E190" s="78"/>
-      <c r="F190" s="79"/>
-      <c r="G190" s="59"/>
-      <c r="H190" s="60"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="66"/>
+      <c r="D190" s="67"/>
+      <c r="E190" s="77"/>
+      <c r="F190" s="78"/>
+      <c r="G190" s="58"/>
+      <c r="H190" s="59"/>
       <c r="I190" s="52"/>
     </row>
     <row r="191" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="66"/>
-      <c r="C191" s="67"/>
-      <c r="D191" s="68"/>
-      <c r="E191" s="78"/>
-      <c r="F191" s="79"/>
-      <c r="G191" s="59"/>
-      <c r="H191" s="60"/>
+      <c r="B191" s="65"/>
+      <c r="C191" s="66"/>
+      <c r="D191" s="67"/>
+      <c r="E191" s="77"/>
+      <c r="F191" s="78"/>
+      <c r="G191" s="58"/>
+      <c r="H191" s="59"/>
       <c r="I191" s="52"/>
     </row>
     <row r="192" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="66"/>
-      <c r="C192" s="67"/>
-      <c r="D192" s="68"/>
-      <c r="E192" s="78"/>
-      <c r="F192" s="79"/>
-      <c r="G192" s="59"/>
-      <c r="H192" s="60"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="66"/>
+      <c r="D192" s="67"/>
+      <c r="E192" s="77"/>
+      <c r="F192" s="78"/>
+      <c r="G192" s="58"/>
+      <c r="H192" s="59"/>
       <c r="I192" s="52"/>
     </row>
     <row r="193" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="66"/>
-      <c r="C193" s="67"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="78"/>
-      <c r="F193" s="79"/>
-      <c r="G193" s="59"/>
-      <c r="H193" s="60"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="66"/>
+      <c r="D193" s="67"/>
+      <c r="E193" s="77"/>
+      <c r="F193" s="78"/>
+      <c r="G193" s="58"/>
+      <c r="H193" s="59"/>
       <c r="I193" s="52"/>
     </row>
     <row r="194" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="66"/>
-      <c r="C194" s="67"/>
-      <c r="D194" s="68"/>
-      <c r="E194" s="78"/>
-      <c r="F194" s="79"/>
-      <c r="G194" s="59"/>
-      <c r="H194" s="60"/>
+      <c r="B194" s="65"/>
+      <c r="C194" s="66"/>
+      <c r="D194" s="67"/>
+      <c r="E194" s="77"/>
+      <c r="F194" s="78"/>
+      <c r="G194" s="58"/>
+      <c r="H194" s="59"/>
       <c r="I194" s="52"/>
     </row>
     <row r="195" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="66"/>
-      <c r="C195" s="67"/>
-      <c r="D195" s="68"/>
-      <c r="E195" s="78"/>
-      <c r="F195" s="79"/>
-      <c r="G195" s="59"/>
-      <c r="H195" s="60"/>
+      <c r="B195" s="65"/>
+      <c r="C195" s="66"/>
+      <c r="D195" s="67"/>
+      <c r="E195" s="77"/>
+      <c r="F195" s="78"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="59"/>
       <c r="I195" s="52"/>
     </row>
     <row r="196" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="66"/>
-      <c r="C196" s="67"/>
-      <c r="D196" s="68"/>
-      <c r="E196" s="78"/>
-      <c r="F196" s="79"/>
-      <c r="G196" s="59"/>
-      <c r="H196" s="60"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="66"/>
+      <c r="D196" s="67"/>
+      <c r="E196" s="77"/>
+      <c r="F196" s="78"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="59"/>
       <c r="I196" s="52"/>
     </row>
     <row r="197" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="66"/>
-      <c r="C197" s="67"/>
-      <c r="D197" s="68"/>
-      <c r="E197" s="78"/>
-      <c r="F197" s="79"/>
-      <c r="G197" s="59"/>
-      <c r="H197" s="60"/>
+      <c r="B197" s="65"/>
+      <c r="C197" s="66"/>
+      <c r="D197" s="67"/>
+      <c r="E197" s="77"/>
+      <c r="F197" s="78"/>
+      <c r="G197" s="58"/>
+      <c r="H197" s="59"/>
       <c r="I197" s="52"/>
     </row>
     <row r="198" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="66"/>
-      <c r="C198" s="67"/>
-      <c r="D198" s="68"/>
-      <c r="E198" s="78"/>
-      <c r="F198" s="79"/>
-      <c r="G198" s="59"/>
-      <c r="H198" s="60"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="77"/>
+      <c r="F198" s="78"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="59"/>
       <c r="I198" s="52"/>
     </row>
     <row r="199" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="66"/>
-      <c r="C199" s="67"/>
-      <c r="D199" s="68"/>
-      <c r="E199" s="78"/>
-      <c r="F199" s="79"/>
-      <c r="G199" s="59"/>
-      <c r="H199" s="60"/>
+      <c r="B199" s="65"/>
+      <c r="C199" s="66"/>
+      <c r="D199" s="67"/>
+      <c r="E199" s="77"/>
+      <c r="F199" s="78"/>
+      <c r="G199" s="58"/>
+      <c r="H199" s="59"/>
       <c r="I199" s="52"/>
     </row>
     <row r="200" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="66"/>
-      <c r="C200" s="67"/>
-      <c r="D200" s="68"/>
-      <c r="E200" s="78"/>
-      <c r="F200" s="79"/>
-      <c r="G200" s="59"/>
-      <c r="H200" s="60"/>
+      <c r="B200" s="65"/>
+      <c r="C200" s="66"/>
+      <c r="D200" s="67"/>
+      <c r="E200" s="77"/>
+      <c r="F200" s="78"/>
+      <c r="G200" s="58"/>
+      <c r="H200" s="59"/>
       <c r="I200" s="52"/>
     </row>
     <row r="201" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="66"/>
-      <c r="C201" s="67"/>
-      <c r="D201" s="68"/>
-      <c r="E201" s="78"/>
-      <c r="F201" s="79"/>
-      <c r="G201" s="59"/>
-      <c r="H201" s="60"/>
+      <c r="B201" s="65"/>
+      <c r="C201" s="66"/>
+      <c r="D201" s="67"/>
+      <c r="E201" s="77"/>
+      <c r="F201" s="78"/>
+      <c r="G201" s="58"/>
+      <c r="H201" s="59"/>
       <c r="I201" s="52"/>
     </row>
     <row r="202" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="66"/>
-      <c r="C202" s="67"/>
-      <c r="D202" s="68"/>
-      <c r="E202" s="78"/>
-      <c r="F202" s="79"/>
-      <c r="G202" s="59"/>
-      <c r="H202" s="60"/>
+      <c r="B202" s="65"/>
+      <c r="C202" s="66"/>
+      <c r="D202" s="67"/>
+      <c r="E202" s="77"/>
+      <c r="F202" s="78"/>
+      <c r="G202" s="58"/>
+      <c r="H202" s="59"/>
       <c r="I202" s="52"/>
     </row>
     <row r="203" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="66"/>
-      <c r="C203" s="67"/>
-      <c r="D203" s="68"/>
-      <c r="E203" s="78"/>
-      <c r="F203" s="79"/>
-      <c r="G203" s="59"/>
-      <c r="H203" s="60"/>
+      <c r="B203" s="65"/>
+      <c r="C203" s="66"/>
+      <c r="D203" s="67"/>
+      <c r="E203" s="77"/>
+      <c r="F203" s="78"/>
+      <c r="G203" s="58"/>
+      <c r="H203" s="59"/>
       <c r="I203" s="52"/>
     </row>
     <row r="204" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="66"/>
-      <c r="C204" s="67"/>
-      <c r="D204" s="68"/>
-      <c r="E204" s="78"/>
-      <c r="F204" s="79"/>
-      <c r="G204" s="59"/>
-      <c r="H204" s="60"/>
+      <c r="B204" s="65"/>
+      <c r="C204" s="66"/>
+      <c r="D204" s="67"/>
+      <c r="E204" s="77"/>
+      <c r="F204" s="78"/>
+      <c r="G204" s="58"/>
+      <c r="H204" s="59"/>
       <c r="I204" s="52"/>
     </row>
     <row r="205" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="66"/>
-      <c r="C205" s="67"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="78"/>
-      <c r="F205" s="79"/>
-      <c r="G205" s="59"/>
-      <c r="H205" s="60"/>
+      <c r="B205" s="65"/>
+      <c r="C205" s="66"/>
+      <c r="D205" s="67"/>
+      <c r="E205" s="77"/>
+      <c r="F205" s="78"/>
+      <c r="G205" s="58"/>
+      <c r="H205" s="59"/>
       <c r="I205" s="52"/>
     </row>
     <row r="206" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="66"/>
-      <c r="C206" s="67"/>
-      <c r="D206" s="68"/>
-      <c r="E206" s="78"/>
-      <c r="F206" s="79"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="60"/>
+      <c r="B206" s="65"/>
+      <c r="C206" s="66"/>
+      <c r="D206" s="67"/>
+      <c r="E206" s="77"/>
+      <c r="F206" s="78"/>
+      <c r="G206" s="58"/>
+      <c r="H206" s="59"/>
       <c r="I206" s="52"/>
     </row>
     <row r="207" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="66"/>
-      <c r="C207" s="67"/>
-      <c r="D207" s="68"/>
-      <c r="E207" s="78"/>
-      <c r="F207" s="79"/>
-      <c r="G207" s="59"/>
-      <c r="H207" s="60"/>
+      <c r="B207" s="65"/>
+      <c r="C207" s="66"/>
+      <c r="D207" s="67"/>
+      <c r="E207" s="77"/>
+      <c r="F207" s="78"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="59"/>
       <c r="I207" s="52"/>
     </row>
     <row r="208" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="66"/>
-      <c r="C208" s="67"/>
-      <c r="D208" s="68"/>
-      <c r="E208" s="78"/>
-      <c r="F208" s="79"/>
-      <c r="G208" s="59"/>
-      <c r="H208" s="60"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="66"/>
+      <c r="D208" s="67"/>
+      <c r="E208" s="77"/>
+      <c r="F208" s="78"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="59"/>
       <c r="I208" s="52"/>
     </row>
     <row r="209" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="66"/>
-      <c r="C209" s="67"/>
-      <c r="D209" s="68"/>
-      <c r="E209" s="78"/>
-      <c r="F209" s="79"/>
-      <c r="G209" s="59"/>
-      <c r="H209" s="60"/>
+      <c r="B209" s="65"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="67"/>
+      <c r="E209" s="77"/>
+      <c r="F209" s="78"/>
+      <c r="G209" s="58"/>
+      <c r="H209" s="59"/>
       <c r="I209" s="52"/>
     </row>
     <row r="210" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="66"/>
-      <c r="C210" s="67"/>
-      <c r="D210" s="68"/>
-      <c r="E210" s="78"/>
-      <c r="F210" s="79"/>
-      <c r="G210" s="59"/>
-      <c r="H210" s="60"/>
+      <c r="B210" s="65"/>
+      <c r="C210" s="66"/>
+      <c r="D210" s="67"/>
+      <c r="E210" s="77"/>
+      <c r="F210" s="78"/>
+      <c r="G210" s="58"/>
+      <c r="H210" s="59"/>
       <c r="I210" s="52"/>
     </row>
     <row r="211" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="66"/>
-      <c r="C211" s="67"/>
-      <c r="D211" s="68"/>
-      <c r="E211" s="78"/>
-      <c r="F211" s="79"/>
-      <c r="G211" s="59"/>
-      <c r="H211" s="60"/>
+      <c r="B211" s="65"/>
+      <c r="C211" s="66"/>
+      <c r="D211" s="67"/>
+      <c r="E211" s="77"/>
+      <c r="F211" s="78"/>
+      <c r="G211" s="58"/>
+      <c r="H211" s="59"/>
       <c r="I211" s="52"/>
     </row>
     <row r="212" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="66"/>
-      <c r="C212" s="67"/>
-      <c r="D212" s="68"/>
-      <c r="E212" s="78"/>
-      <c r="F212" s="79"/>
-      <c r="G212" s="59"/>
-      <c r="H212" s="60"/>
+      <c r="B212" s="65"/>
+      <c r="C212" s="66"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="77"/>
+      <c r="F212" s="78"/>
+      <c r="G212" s="58"/>
+      <c r="H212" s="59"/>
       <c r="I212" s="52"/>
     </row>
     <row r="213" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="66"/>
-      <c r="C213" s="67"/>
-      <c r="D213" s="68"/>
-      <c r="E213" s="78"/>
-      <c r="F213" s="79"/>
-      <c r="G213" s="59"/>
-      <c r="H213" s="60"/>
+      <c r="B213" s="65"/>
+      <c r="C213" s="66"/>
+      <c r="D213" s="67"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="78"/>
+      <c r="G213" s="58"/>
+      <c r="H213" s="59"/>
       <c r="I213" s="52"/>
     </row>
     <row r="214" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="66"/>
-      <c r="C214" s="67"/>
-      <c r="D214" s="68"/>
-      <c r="E214" s="78"/>
-      <c r="F214" s="79"/>
-      <c r="G214" s="59"/>
-      <c r="H214" s="60"/>
+      <c r="B214" s="65"/>
+      <c r="C214" s="66"/>
+      <c r="D214" s="67"/>
+      <c r="E214" s="77"/>
+      <c r="F214" s="78"/>
+      <c r="G214" s="58"/>
+      <c r="H214" s="59"/>
       <c r="I214" s="52"/>
     </row>
     <row r="215" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="66"/>
-      <c r="C215" s="67"/>
-      <c r="D215" s="68"/>
-      <c r="E215" s="78"/>
-      <c r="F215" s="79"/>
-      <c r="G215" s="59"/>
-      <c r="H215" s="60"/>
+      <c r="B215" s="65"/>
+      <c r="C215" s="66"/>
+      <c r="D215" s="67"/>
+      <c r="E215" s="77"/>
+      <c r="F215" s="78"/>
+      <c r="G215" s="58"/>
+      <c r="H215" s="59"/>
       <c r="I215" s="52"/>
     </row>
     <row r="216" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="66"/>
-      <c r="C216" s="67"/>
-      <c r="D216" s="68"/>
-      <c r="E216" s="78"/>
-      <c r="F216" s="79"/>
-      <c r="G216" s="59"/>
-      <c r="H216" s="60"/>
+      <c r="B216" s="65"/>
+      <c r="C216" s="66"/>
+      <c r="D216" s="67"/>
+      <c r="E216" s="77"/>
+      <c r="F216" s="78"/>
+      <c r="G216" s="58"/>
+      <c r="H216" s="59"/>
       <c r="I216" s="52"/>
     </row>
     <row r="217" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="66"/>
-      <c r="C217" s="67"/>
-      <c r="D217" s="68"/>
-      <c r="E217" s="78"/>
-      <c r="F217" s="79"/>
-      <c r="G217" s="59"/>
-      <c r="H217" s="60"/>
+      <c r="B217" s="65"/>
+      <c r="C217" s="66"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="77"/>
+      <c r="F217" s="78"/>
+      <c r="G217" s="58"/>
+      <c r="H217" s="59"/>
       <c r="I217" s="52"/>
     </row>
     <row r="218" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="66"/>
-      <c r="C218" s="67"/>
-      <c r="D218" s="68"/>
-      <c r="E218" s="78"/>
-      <c r="F218" s="79"/>
-      <c r="G218" s="59"/>
-      <c r="H218" s="60"/>
+      <c r="B218" s="65"/>
+      <c r="C218" s="66"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="77"/>
+      <c r="F218" s="78"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="59"/>
       <c r="I218" s="52"/>
     </row>
     <row r="219" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="66"/>
-      <c r="C219" s="67"/>
-      <c r="D219" s="68"/>
-      <c r="E219" s="78"/>
-      <c r="F219" s="79"/>
-      <c r="G219" s="59"/>
-      <c r="H219" s="60"/>
+      <c r="B219" s="65"/>
+      <c r="C219" s="66"/>
+      <c r="D219" s="67"/>
+      <c r="E219" s="77"/>
+      <c r="F219" s="78"/>
+      <c r="G219" s="58"/>
+      <c r="H219" s="59"/>
       <c r="I219" s="52"/>
     </row>
     <row r="220" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="66"/>
-      <c r="C220" s="67"/>
-      <c r="D220" s="68"/>
-      <c r="E220" s="78"/>
-      <c r="F220" s="79"/>
-      <c r="G220" s="59"/>
-      <c r="H220" s="60"/>
+      <c r="B220" s="65"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="67"/>
+      <c r="E220" s="77"/>
+      <c r="F220" s="78"/>
+      <c r="G220" s="58"/>
+      <c r="H220" s="59"/>
       <c r="I220" s="52"/>
     </row>
     <row r="221" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="66"/>
-      <c r="C221" s="67"/>
-      <c r="D221" s="68"/>
-      <c r="E221" s="78"/>
-      <c r="F221" s="79"/>
-      <c r="G221" s="59"/>
-      <c r="H221" s="60"/>
+      <c r="B221" s="65"/>
+      <c r="C221" s="66"/>
+      <c r="D221" s="67"/>
+      <c r="E221" s="77"/>
+      <c r="F221" s="78"/>
+      <c r="G221" s="58"/>
+      <c r="H221" s="59"/>
       <c r="I221" s="52"/>
     </row>
     <row r="222" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="66"/>
-      <c r="C222" s="67"/>
-      <c r="D222" s="68"/>
-      <c r="E222" s="78"/>
-      <c r="F222" s="79"/>
-      <c r="G222" s="59"/>
-      <c r="H222" s="60"/>
+      <c r="B222" s="65"/>
+      <c r="C222" s="66"/>
+      <c r="D222" s="67"/>
+      <c r="E222" s="77"/>
+      <c r="F222" s="78"/>
+      <c r="G222" s="58"/>
+      <c r="H222" s="59"/>
       <c r="I222" s="52"/>
     </row>
     <row r="223" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="66"/>
-      <c r="C223" s="67"/>
-      <c r="D223" s="68"/>
-      <c r="E223" s="78"/>
-      <c r="F223" s="79"/>
-      <c r="G223" s="59"/>
-      <c r="H223" s="60"/>
+      <c r="B223" s="65"/>
+      <c r="C223" s="66"/>
+      <c r="D223" s="67"/>
+      <c r="E223" s="77"/>
+      <c r="F223" s="78"/>
+      <c r="G223" s="58"/>
+      <c r="H223" s="59"/>
       <c r="I223" s="52"/>
     </row>
     <row r="224" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="66"/>
-      <c r="C224" s="67"/>
-      <c r="D224" s="68"/>
-      <c r="E224" s="78"/>
-      <c r="F224" s="79"/>
-      <c r="G224" s="59"/>
-      <c r="H224" s="60"/>
+      <c r="B224" s="65"/>
+      <c r="C224" s="66"/>
+      <c r="D224" s="67"/>
+      <c r="E224" s="77"/>
+      <c r="F224" s="78"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="59"/>
       <c r="I224" s="52"/>
     </row>
     <row r="225" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="66"/>
-      <c r="C225" s="67"/>
-      <c r="D225" s="68"/>
-      <c r="E225" s="78"/>
-      <c r="F225" s="79"/>
-      <c r="G225" s="59"/>
-      <c r="H225" s="60"/>
+      <c r="B225" s="65"/>
+      <c r="C225" s="66"/>
+      <c r="D225" s="67"/>
+      <c r="E225" s="77"/>
+      <c r="F225" s="78"/>
+      <c r="G225" s="58"/>
+      <c r="H225" s="59"/>
       <c r="I225" s="52"/>
     </row>
     <row r="226" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="66"/>
-      <c r="C226" s="67"/>
-      <c r="D226" s="68"/>
-      <c r="E226" s="78"/>
-      <c r="F226" s="79"/>
-      <c r="G226" s="59"/>
-      <c r="H226" s="60"/>
+      <c r="B226" s="65"/>
+      <c r="C226" s="66"/>
+      <c r="D226" s="67"/>
+      <c r="E226" s="77"/>
+      <c r="F226" s="78"/>
+      <c r="G226" s="58"/>
+      <c r="H226" s="59"/>
       <c r="I226" s="52"/>
     </row>
     <row r="227" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="66"/>
-      <c r="C227" s="67"/>
-      <c r="D227" s="68"/>
-      <c r="E227" s="78"/>
-      <c r="F227" s="79"/>
-      <c r="G227" s="59"/>
-      <c r="H227" s="60"/>
+      <c r="B227" s="65"/>
+      <c r="C227" s="66"/>
+      <c r="D227" s="67"/>
+      <c r="E227" s="77"/>
+      <c r="F227" s="78"/>
+      <c r="G227" s="58"/>
+      <c r="H227" s="59"/>
       <c r="I227" s="52"/>
     </row>
     <row r="228" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="66"/>
-      <c r="C228" s="67"/>
-      <c r="D228" s="68"/>
-      <c r="E228" s="78"/>
-      <c r="F228" s="79"/>
-      <c r="G228" s="59"/>
-      <c r="H228" s="60"/>
+      <c r="B228" s="65"/>
+      <c r="C228" s="66"/>
+      <c r="D228" s="67"/>
+      <c r="E228" s="77"/>
+      <c r="F228" s="78"/>
+      <c r="G228" s="58"/>
+      <c r="H228" s="59"/>
       <c r="I228" s="52"/>
     </row>
     <row r="229" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="66"/>
-      <c r="C229" s="67"/>
-      <c r="D229" s="68"/>
-      <c r="E229" s="78"/>
-      <c r="F229" s="79"/>
-      <c r="G229" s="59"/>
-      <c r="H229" s="60"/>
+      <c r="B229" s="65"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="67"/>
+      <c r="E229" s="77"/>
+      <c r="F229" s="78"/>
+      <c r="G229" s="58"/>
+      <c r="H229" s="59"/>
       <c r="I229" s="52"/>
     </row>
     <row r="230" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="66"/>
-      <c r="C230" s="67"/>
-      <c r="D230" s="68"/>
-      <c r="E230" s="78"/>
-      <c r="F230" s="79"/>
-      <c r="G230" s="59"/>
-      <c r="H230" s="60"/>
+      <c r="B230" s="65"/>
+      <c r="C230" s="66"/>
+      <c r="D230" s="67"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="78"/>
+      <c r="G230" s="58"/>
+      <c r="H230" s="59"/>
       <c r="I230" s="52"/>
     </row>
     <row r="231" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="66"/>
-      <c r="C231" s="67"/>
-      <c r="D231" s="68"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="79"/>
-      <c r="G231" s="59"/>
-      <c r="H231" s="60"/>
+      <c r="B231" s="65"/>
+      <c r="C231" s="66"/>
+      <c r="D231" s="67"/>
+      <c r="E231" s="77"/>
+      <c r="F231" s="78"/>
+      <c r="G231" s="58"/>
+      <c r="H231" s="59"/>
       <c r="I231" s="52"/>
     </row>
     <row r="232" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="66"/>
-      <c r="C232" s="67"/>
-      <c r="D232" s="68"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="79"/>
-      <c r="G232" s="59"/>
-      <c r="H232" s="60"/>
+      <c r="B232" s="65"/>
+      <c r="C232" s="66"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="77"/>
+      <c r="F232" s="78"/>
+      <c r="G232" s="58"/>
+      <c r="H232" s="59"/>
       <c r="I232" s="52"/>
     </row>
     <row r="233" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="66"/>
-      <c r="C233" s="67"/>
-      <c r="D233" s="68"/>
-      <c r="E233" s="78"/>
-      <c r="F233" s="79"/>
-      <c r="G233" s="59"/>
-      <c r="H233" s="60"/>
+      <c r="B233" s="65"/>
+      <c r="C233" s="66"/>
+      <c r="D233" s="67"/>
+      <c r="E233" s="77"/>
+      <c r="F233" s="78"/>
+      <c r="G233" s="58"/>
+      <c r="H233" s="59"/>
       <c r="I233" s="52"/>
     </row>
     <row r="234" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="66"/>
-      <c r="C234" s="67"/>
-      <c r="D234" s="68"/>
-      <c r="E234" s="78"/>
-      <c r="F234" s="79"/>
-      <c r="G234" s="59"/>
-      <c r="H234" s="60"/>
+      <c r="B234" s="65"/>
+      <c r="C234" s="66"/>
+      <c r="D234" s="67"/>
+      <c r="E234" s="77"/>
+      <c r="F234" s="78"/>
+      <c r="G234" s="58"/>
+      <c r="H234" s="59"/>
       <c r="I234" s="52"/>
     </row>
     <row r="235" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="66"/>
-      <c r="C235" s="67"/>
-      <c r="D235" s="68"/>
-      <c r="E235" s="78"/>
-      <c r="F235" s="79"/>
-      <c r="G235" s="59"/>
-      <c r="H235" s="60"/>
+      <c r="B235" s="65"/>
+      <c r="C235" s="66"/>
+      <c r="D235" s="67"/>
+      <c r="E235" s="77"/>
+      <c r="F235" s="78"/>
+      <c r="G235" s="58"/>
+      <c r="H235" s="59"/>
       <c r="I235" s="52"/>
     </row>
     <row r="236" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="66"/>
-      <c r="C236" s="67"/>
-      <c r="D236" s="68"/>
-      <c r="E236" s="78"/>
-      <c r="F236" s="79"/>
-      <c r="G236" s="59"/>
-      <c r="H236" s="60"/>
+      <c r="B236" s="65"/>
+      <c r="C236" s="66"/>
+      <c r="D236" s="67"/>
+      <c r="E236" s="77"/>
+      <c r="F236" s="78"/>
+      <c r="G236" s="58"/>
+      <c r="H236" s="59"/>
       <c r="I236" s="52"/>
     </row>
     <row r="237" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="66"/>
-      <c r="C237" s="67"/>
-      <c r="D237" s="68"/>
-      <c r="E237" s="78"/>
-      <c r="F237" s="79"/>
-      <c r="G237" s="59"/>
-      <c r="H237" s="60"/>
+      <c r="B237" s="65"/>
+      <c r="C237" s="66"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="77"/>
+      <c r="F237" s="78"/>
+      <c r="G237" s="58"/>
+      <c r="H237" s="59"/>
       <c r="I237" s="52"/>
     </row>
     <row r="238" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="66"/>
-      <c r="C238" s="67"/>
-      <c r="D238" s="68"/>
-      <c r="E238" s="78"/>
-      <c r="F238" s="79"/>
-      <c r="G238" s="59"/>
-      <c r="H238" s="60"/>
+      <c r="B238" s="65"/>
+      <c r="C238" s="66"/>
+      <c r="D238" s="67"/>
+      <c r="E238" s="77"/>
+      <c r="F238" s="78"/>
+      <c r="G238" s="58"/>
+      <c r="H238" s="59"/>
       <c r="I238" s="52"/>
     </row>
     <row r="239" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="66"/>
-      <c r="C239" s="67"/>
-      <c r="D239" s="68"/>
-      <c r="E239" s="78"/>
-      <c r="F239" s="79"/>
-      <c r="G239" s="59"/>
-      <c r="H239" s="60"/>
+      <c r="B239" s="65"/>
+      <c r="C239" s="66"/>
+      <c r="D239" s="67"/>
+      <c r="E239" s="77"/>
+      <c r="F239" s="78"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="59"/>
       <c r="I239" s="52"/>
     </row>
     <row r="240" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="66"/>
-      <c r="C240" s="67"/>
-      <c r="D240" s="68"/>
-      <c r="E240" s="78"/>
-      <c r="F240" s="79"/>
-      <c r="G240" s="59"/>
-      <c r="H240" s="60"/>
+      <c r="B240" s="65"/>
+      <c r="C240" s="66"/>
+      <c r="D240" s="67"/>
+      <c r="E240" s="77"/>
+      <c r="F240" s="78"/>
+      <c r="G240" s="58"/>
+      <c r="H240" s="59"/>
       <c r="I240" s="52"/>
     </row>
     <row r="241" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="66"/>
-      <c r="C241" s="67"/>
-      <c r="D241" s="68"/>
-      <c r="E241" s="78"/>
-      <c r="F241" s="79"/>
-      <c r="G241" s="59"/>
-      <c r="H241" s="60"/>
+      <c r="B241" s="65"/>
+      <c r="C241" s="66"/>
+      <c r="D241" s="67"/>
+      <c r="E241" s="77"/>
+      <c r="F241" s="78"/>
+      <c r="G241" s="58"/>
+      <c r="H241" s="59"/>
       <c r="I241" s="52"/>
     </row>
     <row r="242" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="66"/>
-      <c r="C242" s="67"/>
-      <c r="D242" s="68"/>
-      <c r="E242" s="78"/>
-      <c r="F242" s="79"/>
-      <c r="G242" s="59"/>
-      <c r="H242" s="60"/>
+      <c r="B242" s="65"/>
+      <c r="C242" s="66"/>
+      <c r="D242" s="67"/>
+      <c r="E242" s="77"/>
+      <c r="F242" s="78"/>
+      <c r="G242" s="58"/>
+      <c r="H242" s="59"/>
       <c r="I242" s="52"/>
     </row>
     <row r="243" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="66"/>
-      <c r="C243" s="67"/>
-      <c r="D243" s="68"/>
-      <c r="E243" s="78"/>
-      <c r="F243" s="79"/>
-      <c r="G243" s="59"/>
-      <c r="H243" s="60"/>
+      <c r="B243" s="65"/>
+      <c r="C243" s="66"/>
+      <c r="D243" s="67"/>
+      <c r="E243" s="77"/>
+      <c r="F243" s="78"/>
+      <c r="G243" s="58"/>
+      <c r="H243" s="59"/>
       <c r="I243" s="52"/>
     </row>
     <row r="244" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="66"/>
-      <c r="C244" s="67"/>
-      <c r="D244" s="68"/>
-      <c r="E244" s="78"/>
-      <c r="F244" s="79"/>
-      <c r="G244" s="59"/>
-      <c r="H244" s="60"/>
+      <c r="B244" s="65"/>
+      <c r="C244" s="66"/>
+      <c r="D244" s="67"/>
+      <c r="E244" s="77"/>
+      <c r="F244" s="78"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="59"/>
       <c r="I244" s="52"/>
     </row>
     <row r="245" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="66"/>
-      <c r="C245" s="67"/>
-      <c r="D245" s="68"/>
-      <c r="E245" s="78"/>
-      <c r="F245" s="79"/>
-      <c r="G245" s="59"/>
-      <c r="H245" s="60"/>
+      <c r="B245" s="65"/>
+      <c r="C245" s="66"/>
+      <c r="D245" s="67"/>
+      <c r="E245" s="77"/>
+      <c r="F245" s="78"/>
+      <c r="G245" s="58"/>
+      <c r="H245" s="59"/>
       <c r="I245" s="52"/>
     </row>
     <row r="246" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="66"/>
-      <c r="C246" s="67"/>
-      <c r="D246" s="68"/>
-      <c r="E246" s="78"/>
-      <c r="F246" s="79"/>
-      <c r="G246" s="59"/>
-      <c r="H246" s="60"/>
+      <c r="B246" s="65"/>
+      <c r="C246" s="66"/>
+      <c r="D246" s="67"/>
+      <c r="E246" s="77"/>
+      <c r="F246" s="78"/>
+      <c r="G246" s="58"/>
+      <c r="H246" s="59"/>
       <c r="I246" s="52"/>
     </row>
     <row r="247" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="66"/>
-      <c r="C247" s="67"/>
-      <c r="D247" s="68"/>
-      <c r="E247" s="78"/>
-      <c r="F247" s="79"/>
-      <c r="G247" s="59"/>
-      <c r="H247" s="60"/>
+      <c r="B247" s="65"/>
+      <c r="C247" s="66"/>
+      <c r="D247" s="67"/>
+      <c r="E247" s="77"/>
+      <c r="F247" s="78"/>
+      <c r="G247" s="58"/>
+      <c r="H247" s="59"/>
       <c r="I247" s="52"/>
     </row>
     <row r="248" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="66"/>
-      <c r="C248" s="67"/>
-      <c r="D248" s="68"/>
-      <c r="E248" s="78"/>
-      <c r="F248" s="79"/>
-      <c r="G248" s="59"/>
-      <c r="H248" s="60"/>
+      <c r="B248" s="65"/>
+      <c r="C248" s="66"/>
+      <c r="D248" s="67"/>
+      <c r="E248" s="77"/>
+      <c r="F248" s="78"/>
+      <c r="G248" s="58"/>
+      <c r="H248" s="59"/>
       <c r="I248" s="52"/>
     </row>
     <row r="249" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="66"/>
-      <c r="C249" s="67"/>
-      <c r="D249" s="68"/>
-      <c r="E249" s="78"/>
-      <c r="F249" s="79"/>
-      <c r="G249" s="59"/>
-      <c r="H249" s="60"/>
+      <c r="B249" s="65"/>
+      <c r="C249" s="66"/>
+      <c r="D249" s="67"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="78"/>
+      <c r="G249" s="58"/>
+      <c r="H249" s="59"/>
       <c r="I249" s="52"/>
     </row>
     <row r="250" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="66"/>
-      <c r="C250" s="67"/>
-      <c r="D250" s="68"/>
-      <c r="E250" s="78"/>
-      <c r="F250" s="79"/>
-      <c r="G250" s="59"/>
-      <c r="H250" s="60"/>
+      <c r="B250" s="65"/>
+      <c r="C250" s="66"/>
+      <c r="D250" s="67"/>
+      <c r="E250" s="77"/>
+      <c r="F250" s="78"/>
+      <c r="G250" s="58"/>
+      <c r="H250" s="59"/>
       <c r="I250" s="52"/>
     </row>
     <row r="251" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="66"/>
-      <c r="C251" s="67"/>
-      <c r="D251" s="68"/>
-      <c r="E251" s="78"/>
-      <c r="F251" s="79"/>
-      <c r="G251" s="59"/>
-      <c r="H251" s="60"/>
+      <c r="B251" s="65"/>
+      <c r="C251" s="66"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="77"/>
+      <c r="F251" s="78"/>
+      <c r="G251" s="58"/>
+      <c r="H251" s="59"/>
       <c r="I251" s="52"/>
     </row>
     <row r="252" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="66"/>
-      <c r="C252" s="67"/>
-      <c r="D252" s="68"/>
-      <c r="E252" s="78"/>
-      <c r="F252" s="79"/>
-      <c r="G252" s="59"/>
-      <c r="H252" s="60"/>
+      <c r="B252" s="65"/>
+      <c r="C252" s="66"/>
+      <c r="D252" s="67"/>
+      <c r="E252" s="77"/>
+      <c r="F252" s="78"/>
+      <c r="G252" s="58"/>
+      <c r="H252" s="59"/>
       <c r="I252" s="52"/>
     </row>
     <row r="253" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="66"/>
-      <c r="C253" s="67"/>
-      <c r="D253" s="68"/>
-      <c r="E253" s="78"/>
-      <c r="F253" s="79"/>
-      <c r="G253" s="59"/>
-      <c r="H253" s="60"/>
+      <c r="B253" s="65"/>
+      <c r="C253" s="66"/>
+      <c r="D253" s="67"/>
+      <c r="E253" s="77"/>
+      <c r="F253" s="78"/>
+      <c r="G253" s="58"/>
+      <c r="H253" s="59"/>
       <c r="I253" s="52"/>
     </row>
     <row r="254" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="66"/>
-      <c r="C254" s="67"/>
-      <c r="D254" s="68"/>
-      <c r="E254" s="78"/>
-      <c r="F254" s="79"/>
-      <c r="G254" s="59"/>
-      <c r="H254" s="60"/>
+      <c r="B254" s="65"/>
+      <c r="C254" s="66"/>
+      <c r="D254" s="67"/>
+      <c r="E254" s="77"/>
+      <c r="F254" s="78"/>
+      <c r="G254" s="58"/>
+      <c r="H254" s="59"/>
       <c r="I254" s="52"/>
     </row>
     <row r="255" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="66"/>
-      <c r="C255" s="67"/>
-      <c r="D255" s="68"/>
-      <c r="E255" s="78"/>
-      <c r="F255" s="79"/>
-      <c r="G255" s="59"/>
-      <c r="H255" s="60"/>
+      <c r="B255" s="65"/>
+      <c r="C255" s="66"/>
+      <c r="D255" s="67"/>
+      <c r="E255" s="77"/>
+      <c r="F255" s="78"/>
+      <c r="G255" s="58"/>
+      <c r="H255" s="59"/>
       <c r="I255" s="52"/>
     </row>
     <row r="256" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="66"/>
-      <c r="C256" s="67"/>
-      <c r="D256" s="68"/>
-      <c r="E256" s="78"/>
-      <c r="F256" s="79"/>
-      <c r="G256" s="59"/>
-      <c r="H256" s="60"/>
+      <c r="B256" s="65"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="77"/>
+      <c r="F256" s="78"/>
+      <c r="G256" s="58"/>
+      <c r="H256" s="59"/>
       <c r="I256" s="52"/>
     </row>
     <row r="257" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="66"/>
-      <c r="C257" s="67"/>
-      <c r="D257" s="68"/>
-      <c r="E257" s="78"/>
-      <c r="F257" s="79"/>
-      <c r="G257" s="59"/>
-      <c r="H257" s="60"/>
+      <c r="B257" s="65"/>
+      <c r="C257" s="66"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="77"/>
+      <c r="F257" s="78"/>
+      <c r="G257" s="58"/>
+      <c r="H257" s="59"/>
       <c r="I257" s="52"/>
     </row>
     <row r="258" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="66"/>
-      <c r="C258" s="67"/>
-      <c r="D258" s="68"/>
-      <c r="E258" s="78"/>
-      <c r="F258" s="79"/>
-      <c r="G258" s="59"/>
-      <c r="H258" s="60"/>
+      <c r="B258" s="65"/>
+      <c r="C258" s="66"/>
+      <c r="D258" s="67"/>
+      <c r="E258" s="77"/>
+      <c r="F258" s="78"/>
+      <c r="G258" s="58"/>
+      <c r="H258" s="59"/>
       <c r="I258" s="52"/>
     </row>
     <row r="259" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="66"/>
-      <c r="C259" s="67"/>
-      <c r="D259" s="68"/>
-      <c r="E259" s="78"/>
-      <c r="F259" s="79"/>
-      <c r="G259" s="59"/>
-      <c r="H259" s="60"/>
+      <c r="B259" s="65"/>
+      <c r="C259" s="66"/>
+      <c r="D259" s="67"/>
+      <c r="E259" s="77"/>
+      <c r="F259" s="78"/>
+      <c r="G259" s="58"/>
+      <c r="H259" s="59"/>
       <c r="I259" s="52"/>
     </row>
     <row r="260" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="66"/>
-      <c r="C260" s="67"/>
-      <c r="D260" s="68"/>
-      <c r="E260" s="78"/>
-      <c r="F260" s="79"/>
-      <c r="G260" s="59"/>
-      <c r="H260" s="60"/>
+      <c r="B260" s="65"/>
+      <c r="C260" s="66"/>
+      <c r="D260" s="67"/>
+      <c r="E260" s="77"/>
+      <c r="F260" s="78"/>
+      <c r="G260" s="58"/>
+      <c r="H260" s="59"/>
       <c r="I260" s="52"/>
     </row>
     <row r="261" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="66"/>
-      <c r="C261" s="67"/>
-      <c r="D261" s="68"/>
-      <c r="E261" s="78"/>
-      <c r="F261" s="79"/>
-      <c r="G261" s="59"/>
-      <c r="H261" s="60"/>
+      <c r="B261" s="65"/>
+      <c r="C261" s="66"/>
+      <c r="D261" s="67"/>
+      <c r="E261" s="77"/>
+      <c r="F261" s="78"/>
+      <c r="G261" s="58"/>
+      <c r="H261" s="59"/>
       <c r="I261" s="52"/>
     </row>
     <row r="262" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="66"/>
-      <c r="C262" s="67"/>
-      <c r="D262" s="68"/>
-      <c r="E262" s="78"/>
-      <c r="F262" s="79"/>
-      <c r="G262" s="59"/>
-      <c r="H262" s="60"/>
+      <c r="B262" s="65"/>
+      <c r="C262" s="66"/>
+      <c r="D262" s="67"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="78"/>
+      <c r="G262" s="58"/>
+      <c r="H262" s="59"/>
       <c r="I262" s="52"/>
     </row>
     <row r="263" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="66"/>
-      <c r="C263" s="67"/>
-      <c r="D263" s="68"/>
-      <c r="E263" s="78"/>
-      <c r="F263" s="79"/>
-      <c r="G263" s="59"/>
-      <c r="H263" s="60"/>
+      <c r="B263" s="65"/>
+      <c r="C263" s="66"/>
+      <c r="D263" s="67"/>
+      <c r="E263" s="77"/>
+      <c r="F263" s="78"/>
+      <c r="G263" s="58"/>
+      <c r="H263" s="59"/>
       <c r="I263" s="52"/>
     </row>
     <row r="264" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="66"/>
-      <c r="C264" s="67"/>
-      <c r="D264" s="68"/>
-      <c r="E264" s="78"/>
-      <c r="F264" s="79"/>
-      <c r="G264" s="59"/>
-      <c r="H264" s="60"/>
+      <c r="B264" s="65"/>
+      <c r="C264" s="66"/>
+      <c r="D264" s="67"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="78"/>
+      <c r="G264" s="58"/>
+      <c r="H264" s="59"/>
       <c r="I264" s="52"/>
     </row>
     <row r="265" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="66"/>
-      <c r="C265" s="67"/>
-      <c r="D265" s="68"/>
-      <c r="E265" s="78"/>
-      <c r="F265" s="79"/>
-      <c r="G265" s="59"/>
-      <c r="H265" s="60"/>
+      <c r="B265" s="65"/>
+      <c r="C265" s="66"/>
+      <c r="D265" s="67"/>
+      <c r="E265" s="77"/>
+      <c r="F265" s="78"/>
+      <c r="G265" s="58"/>
+      <c r="H265" s="59"/>
       <c r="I265" s="52"/>
     </row>
     <row r="266" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="66"/>
-      <c r="C266" s="67"/>
-      <c r="D266" s="68"/>
-      <c r="E266" s="78"/>
-      <c r="F266" s="79"/>
-      <c r="G266" s="59"/>
-      <c r="H266" s="60"/>
+      <c r="B266" s="65"/>
+      <c r="C266" s="66"/>
+      <c r="D266" s="67"/>
+      <c r="E266" s="77"/>
+      <c r="F266" s="78"/>
+      <c r="G266" s="58"/>
+      <c r="H266" s="59"/>
       <c r="I266" s="52"/>
     </row>
     <row r="267" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="66"/>
-      <c r="C267" s="67"/>
-      <c r="D267" s="68"/>
-      <c r="E267" s="78"/>
-      <c r="F267" s="79"/>
-      <c r="G267" s="59"/>
-      <c r="H267" s="60"/>
+      <c r="B267" s="65"/>
+      <c r="C267" s="66"/>
+      <c r="D267" s="67"/>
+      <c r="E267" s="77"/>
+      <c r="F267" s="78"/>
+      <c r="G267" s="58"/>
+      <c r="H267" s="59"/>
       <c r="I267" s="52"/>
     </row>
     <row r="268" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="66"/>
-      <c r="C268" s="67"/>
-      <c r="D268" s="68"/>
-      <c r="E268" s="78"/>
-      <c r="F268" s="79"/>
-      <c r="G268" s="59"/>
-      <c r="H268" s="60"/>
+      <c r="B268" s="65"/>
+      <c r="C268" s="66"/>
+      <c r="D268" s="67"/>
+      <c r="E268" s="77"/>
+      <c r="F268" s="78"/>
+      <c r="G268" s="58"/>
+      <c r="H268" s="59"/>
       <c r="I268" s="52"/>
     </row>
     <row r="269" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="66"/>
-      <c r="C269" s="67"/>
-      <c r="D269" s="68"/>
-      <c r="E269" s="78"/>
-      <c r="F269" s="79"/>
-      <c r="G269" s="59"/>
-      <c r="H269" s="60"/>
+      <c r="B269" s="65"/>
+      <c r="C269" s="66"/>
+      <c r="D269" s="67"/>
+      <c r="E269" s="77"/>
+      <c r="F269" s="78"/>
+      <c r="G269" s="58"/>
+      <c r="H269" s="59"/>
       <c r="I269" s="52"/>
     </row>
     <row r="270" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="66"/>
-      <c r="C270" s="67"/>
-      <c r="D270" s="68"/>
-      <c r="E270" s="78"/>
-      <c r="F270" s="79"/>
-      <c r="G270" s="59"/>
-      <c r="H270" s="60"/>
+      <c r="B270" s="65"/>
+      <c r="C270" s="66"/>
+      <c r="D270" s="67"/>
+      <c r="E270" s="77"/>
+      <c r="F270" s="78"/>
+      <c r="G270" s="58"/>
+      <c r="H270" s="59"/>
       <c r="I270" s="52"/>
     </row>
     <row r="271" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="66"/>
-      <c r="C271" s="67"/>
-      <c r="D271" s="68"/>
-      <c r="E271" s="78"/>
-      <c r="F271" s="79"/>
-      <c r="G271" s="59"/>
-      <c r="H271" s="60"/>
+      <c r="B271" s="65"/>
+      <c r="C271" s="66"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="77"/>
+      <c r="F271" s="78"/>
+      <c r="G271" s="58"/>
+      <c r="H271" s="59"/>
       <c r="I271" s="52"/>
     </row>
     <row r="272" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="66"/>
-      <c r="C272" s="67"/>
-      <c r="D272" s="68"/>
-      <c r="E272" s="78"/>
-      <c r="F272" s="79"/>
-      <c r="G272" s="59"/>
-      <c r="H272" s="60"/>
+      <c r="B272" s="65"/>
+      <c r="C272" s="66"/>
+      <c r="D272" s="67"/>
+      <c r="E272" s="77"/>
+      <c r="F272" s="78"/>
+      <c r="G272" s="58"/>
+      <c r="H272" s="59"/>
       <c r="I272" s="52"/>
     </row>
     <row r="273" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="66"/>
-      <c r="C273" s="67"/>
-      <c r="D273" s="68"/>
-      <c r="E273" s="78"/>
-      <c r="F273" s="79"/>
-      <c r="G273" s="59"/>
-      <c r="H273" s="60"/>
+      <c r="B273" s="65"/>
+      <c r="C273" s="66"/>
+      <c r="D273" s="67"/>
+      <c r="E273" s="77"/>
+      <c r="F273" s="78"/>
+      <c r="G273" s="58"/>
+      <c r="H273" s="59"/>
       <c r="I273" s="52"/>
     </row>
     <row r="274" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="66"/>
-      <c r="C274" s="67"/>
-      <c r="D274" s="68"/>
-      <c r="E274" s="78"/>
-      <c r="F274" s="79"/>
-      <c r="G274" s="59"/>
-      <c r="H274" s="60"/>
+      <c r="B274" s="65"/>
+      <c r="C274" s="66"/>
+      <c r="D274" s="67"/>
+      <c r="E274" s="77"/>
+      <c r="F274" s="78"/>
+      <c r="G274" s="58"/>
+      <c r="H274" s="59"/>
       <c r="I274" s="52"/>
     </row>
     <row r="275" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="66"/>
-      <c r="C275" s="67"/>
-      <c r="D275" s="68"/>
-      <c r="E275" s="78"/>
-      <c r="F275" s="79"/>
-      <c r="G275" s="59"/>
-      <c r="H275" s="60"/>
+      <c r="B275" s="65"/>
+      <c r="C275" s="66"/>
+      <c r="D275" s="67"/>
+      <c r="E275" s="77"/>
+      <c r="F275" s="78"/>
+      <c r="G275" s="58"/>
+      <c r="H275" s="59"/>
       <c r="I275" s="52"/>
     </row>
     <row r="276" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="66"/>
-      <c r="C276" s="67"/>
-      <c r="D276" s="68"/>
-      <c r="E276" s="78"/>
-      <c r="F276" s="79"/>
-      <c r="G276" s="59"/>
-      <c r="H276" s="60"/>
+      <c r="B276" s="65"/>
+      <c r="C276" s="66"/>
+      <c r="D276" s="67"/>
+      <c r="E276" s="77"/>
+      <c r="F276" s="78"/>
+      <c r="G276" s="58"/>
+      <c r="H276" s="59"/>
       <c r="I276" s="52"/>
     </row>
     <row r="277" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="66"/>
-      <c r="C277" s="67"/>
-      <c r="D277" s="68"/>
-      <c r="E277" s="78"/>
-      <c r="F277" s="79"/>
-      <c r="G277" s="59"/>
-      <c r="H277" s="60"/>
+      <c r="B277" s="65"/>
+      <c r="C277" s="66"/>
+      <c r="D277" s="67"/>
+      <c r="E277" s="77"/>
+      <c r="F277" s="78"/>
+      <c r="G277" s="58"/>
+      <c r="H277" s="59"/>
       <c r="I277" s="52"/>
     </row>
     <row r="278" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="66"/>
-      <c r="C278" s="67"/>
-      <c r="D278" s="68"/>
-      <c r="E278" s="78"/>
-      <c r="F278" s="79"/>
-      <c r="G278" s="59"/>
-      <c r="H278" s="60"/>
+      <c r="B278" s="65"/>
+      <c r="C278" s="66"/>
+      <c r="D278" s="67"/>
+      <c r="E278" s="77"/>
+      <c r="F278" s="78"/>
+      <c r="G278" s="58"/>
+      <c r="H278" s="59"/>
       <c r="I278" s="52"/>
     </row>
     <row r="279" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="66"/>
-      <c r="C279" s="67"/>
-      <c r="D279" s="68"/>
-      <c r="E279" s="78"/>
-      <c r="F279" s="79"/>
-      <c r="G279" s="59"/>
-      <c r="H279" s="60"/>
+      <c r="B279" s="65"/>
+      <c r="C279" s="66"/>
+      <c r="D279" s="67"/>
+      <c r="E279" s="77"/>
+      <c r="F279" s="78"/>
+      <c r="G279" s="58"/>
+      <c r="H279" s="59"/>
       <c r="I279" s="52"/>
     </row>
     <row r="280" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="66"/>
-      <c r="C280" s="67"/>
-      <c r="D280" s="68"/>
-      <c r="E280" s="78"/>
-      <c r="F280" s="79"/>
-      <c r="G280" s="59"/>
-      <c r="H280" s="60"/>
+      <c r="B280" s="65"/>
+      <c r="C280" s="66"/>
+      <c r="D280" s="67"/>
+      <c r="E280" s="77"/>
+      <c r="F280" s="78"/>
+      <c r="G280" s="58"/>
+      <c r="H280" s="59"/>
       <c r="I280" s="52"/>
     </row>
     <row r="281" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="66"/>
-      <c r="C281" s="67"/>
-      <c r="D281" s="68"/>
-      <c r="E281" s="78"/>
-      <c r="F281" s="79"/>
-      <c r="G281" s="59"/>
-      <c r="H281" s="60"/>
+      <c r="B281" s="65"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="67"/>
+      <c r="E281" s="77"/>
+      <c r="F281" s="78"/>
+      <c r="G281" s="58"/>
+      <c r="H281" s="59"/>
       <c r="I281" s="52"/>
     </row>
     <row r="282" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="66"/>
-      <c r="C282" s="67"/>
-      <c r="D282" s="68"/>
-      <c r="E282" s="78"/>
-      <c r="F282" s="79"/>
-      <c r="G282" s="59"/>
-      <c r="H282" s="60"/>
+      <c r="B282" s="65"/>
+      <c r="C282" s="66"/>
+      <c r="D282" s="67"/>
+      <c r="E282" s="77"/>
+      <c r="F282" s="78"/>
+      <c r="G282" s="58"/>
+      <c r="H282" s="59"/>
       <c r="I282" s="52"/>
     </row>
     <row r="283" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="66"/>
-      <c r="C283" s="67"/>
-      <c r="D283" s="68"/>
-      <c r="E283" s="78"/>
-      <c r="F283" s="79"/>
-      <c r="G283" s="59"/>
-      <c r="H283" s="60"/>
+      <c r="B283" s="65"/>
+      <c r="C283" s="66"/>
+      <c r="D283" s="67"/>
+      <c r="E283" s="77"/>
+      <c r="F283" s="78"/>
+      <c r="G283" s="58"/>
+      <c r="H283" s="59"/>
       <c r="I283" s="52"/>
     </row>
     <row r="284" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="66"/>
-      <c r="C284" s="67"/>
-      <c r="D284" s="68"/>
-      <c r="E284" s="78"/>
-      <c r="F284" s="79"/>
-      <c r="G284" s="59"/>
-      <c r="H284" s="60"/>
+      <c r="B284" s="65"/>
+      <c r="C284" s="66"/>
+      <c r="D284" s="67"/>
+      <c r="E284" s="77"/>
+      <c r="F284" s="78"/>
+      <c r="G284" s="58"/>
+      <c r="H284" s="59"/>
       <c r="I284" s="52"/>
     </row>
     <row r="285" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="66"/>
-      <c r="C285" s="67"/>
-      <c r="D285" s="68"/>
-      <c r="E285" s="78"/>
-      <c r="F285" s="79"/>
-      <c r="G285" s="59"/>
-      <c r="H285" s="60"/>
+      <c r="B285" s="65"/>
+      <c r="C285" s="66"/>
+      <c r="D285" s="67"/>
+      <c r="E285" s="77"/>
+      <c r="F285" s="78"/>
+      <c r="G285" s="58"/>
+      <c r="H285" s="59"/>
       <c r="I285" s="52"/>
     </row>
     <row r="286" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="66"/>
-      <c r="C286" s="67"/>
-      <c r="D286" s="68"/>
-      <c r="E286" s="78"/>
-      <c r="F286" s="79"/>
-      <c r="G286" s="59"/>
-      <c r="H286" s="60"/>
+      <c r="B286" s="65"/>
+      <c r="C286" s="66"/>
+      <c r="D286" s="67"/>
+      <c r="E286" s="77"/>
+      <c r="F286" s="78"/>
+      <c r="G286" s="58"/>
+      <c r="H286" s="59"/>
       <c r="I286" s="52"/>
     </row>
     <row r="287" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="66"/>
-      <c r="C287" s="67"/>
-      <c r="D287" s="68"/>
-      <c r="E287" s="78"/>
-      <c r="F287" s="79"/>
-      <c r="G287" s="59"/>
-      <c r="H287" s="60"/>
+      <c r="B287" s="65"/>
+      <c r="C287" s="66"/>
+      <c r="D287" s="67"/>
+      <c r="E287" s="77"/>
+      <c r="F287" s="78"/>
+      <c r="G287" s="58"/>
+      <c r="H287" s="59"/>
       <c r="I287" s="52"/>
     </row>
     <row r="288" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="66"/>
-      <c r="C288" s="67"/>
-      <c r="D288" s="68"/>
-      <c r="E288" s="78"/>
-      <c r="F288" s="79"/>
-      <c r="G288" s="59"/>
-      <c r="H288" s="60"/>
+      <c r="B288" s="65"/>
+      <c r="C288" s="66"/>
+      <c r="D288" s="67"/>
+      <c r="E288" s="77"/>
+      <c r="F288" s="78"/>
+      <c r="G288" s="58"/>
+      <c r="H288" s="59"/>
       <c r="I288" s="52"/>
     </row>
     <row r="289" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="66"/>
-      <c r="C289" s="67"/>
-      <c r="D289" s="68"/>
-      <c r="E289" s="78"/>
-      <c r="F289" s="79"/>
-      <c r="G289" s="59"/>
-      <c r="H289" s="60"/>
+      <c r="B289" s="65"/>
+      <c r="C289" s="66"/>
+      <c r="D289" s="67"/>
+      <c r="E289" s="77"/>
+      <c r="F289" s="78"/>
+      <c r="G289" s="58"/>
+      <c r="H289" s="59"/>
       <c r="I289" s="52"/>
     </row>
     <row r="290" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="66"/>
-      <c r="C290" s="67"/>
-      <c r="D290" s="68"/>
-      <c r="E290" s="78"/>
-      <c r="F290" s="79"/>
-      <c r="G290" s="59"/>
-      <c r="H290" s="60"/>
+      <c r="B290" s="65"/>
+      <c r="C290" s="66"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="77"/>
+      <c r="F290" s="78"/>
+      <c r="G290" s="58"/>
+      <c r="H290" s="59"/>
       <c r="I290" s="52"/>
     </row>
     <row r="291" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="66"/>
-      <c r="C291" s="67"/>
-      <c r="D291" s="68"/>
-      <c r="E291" s="78"/>
-      <c r="F291" s="79"/>
-      <c r="G291" s="59"/>
-      <c r="H291" s="60"/>
+      <c r="B291" s="65"/>
+      <c r="C291" s="66"/>
+      <c r="D291" s="67"/>
+      <c r="E291" s="77"/>
+      <c r="F291" s="78"/>
+      <c r="G291" s="58"/>
+      <c r="H291" s="59"/>
       <c r="I291" s="52"/>
     </row>
     <row r="292" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="66"/>
-      <c r="C292" s="67"/>
-      <c r="D292" s="68"/>
-      <c r="E292" s="78"/>
-      <c r="F292" s="79"/>
-      <c r="G292" s="59"/>
-      <c r="H292" s="60"/>
+      <c r="B292" s="65"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="67"/>
+      <c r="E292" s="77"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="58"/>
+      <c r="H292" s="59"/>
       <c r="I292" s="52"/>
     </row>
     <row r="293" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="66"/>
-      <c r="C293" s="67"/>
-      <c r="D293" s="68"/>
-      <c r="E293" s="78"/>
-      <c r="F293" s="79"/>
-      <c r="G293" s="59"/>
-      <c r="H293" s="60"/>
+      <c r="B293" s="65"/>
+      <c r="C293" s="66"/>
+      <c r="D293" s="67"/>
+      <c r="E293" s="77"/>
+      <c r="F293" s="78"/>
+      <c r="G293" s="58"/>
+      <c r="H293" s="59"/>
       <c r="I293" s="52"/>
     </row>
     <row r="294" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="66"/>
-      <c r="C294" s="67"/>
-      <c r="D294" s="68"/>
-      <c r="E294" s="78"/>
-      <c r="F294" s="79"/>
-      <c r="G294" s="59"/>
-      <c r="H294" s="60"/>
+      <c r="B294" s="65"/>
+      <c r="C294" s="66"/>
+      <c r="D294" s="67"/>
+      <c r="E294" s="77"/>
+      <c r="F294" s="78"/>
+      <c r="G294" s="58"/>
+      <c r="H294" s="59"/>
       <c r="I294" s="52"/>
     </row>
     <row r="295" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="66"/>
-      <c r="C295" s="67"/>
-      <c r="D295" s="68"/>
-      <c r="E295" s="78"/>
-      <c r="F295" s="79"/>
-      <c r="G295" s="59"/>
-      <c r="H295" s="60"/>
+      <c r="B295" s="65"/>
+      <c r="C295" s="66"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="77"/>
+      <c r="F295" s="78"/>
+      <c r="G295" s="58"/>
+      <c r="H295" s="59"/>
       <c r="I295" s="52"/>
     </row>
     <row r="296" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="66"/>
-      <c r="C296" s="67"/>
-      <c r="D296" s="68"/>
-      <c r="E296" s="78"/>
-      <c r="F296" s="79"/>
-      <c r="G296" s="59"/>
-      <c r="H296" s="60"/>
+      <c r="B296" s="65"/>
+      <c r="C296" s="66"/>
+      <c r="D296" s="67"/>
+      <c r="E296" s="77"/>
+      <c r="F296" s="78"/>
+      <c r="G296" s="58"/>
+      <c r="H296" s="59"/>
       <c r="I296" s="52"/>
     </row>
     <row r="297" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="66"/>
-      <c r="C297" s="67"/>
-      <c r="D297" s="68"/>
-      <c r="E297" s="78"/>
-      <c r="F297" s="79"/>
-      <c r="G297" s="59"/>
-      <c r="H297" s="60"/>
+      <c r="B297" s="65"/>
+      <c r="C297" s="66"/>
+      <c r="D297" s="67"/>
+      <c r="E297" s="77"/>
+      <c r="F297" s="78"/>
+      <c r="G297" s="58"/>
+      <c r="H297" s="59"/>
       <c r="I297" s="52"/>
     </row>
     <row r="298" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="66"/>
-      <c r="C298" s="67"/>
-      <c r="D298" s="68"/>
-      <c r="E298" s="78"/>
-      <c r="F298" s="79"/>
-      <c r="G298" s="59"/>
-      <c r="H298" s="60"/>
+      <c r="B298" s="65"/>
+      <c r="C298" s="66"/>
+      <c r="D298" s="67"/>
+      <c r="E298" s="77"/>
+      <c r="F298" s="78"/>
+      <c r="G298" s="58"/>
+      <c r="H298" s="59"/>
       <c r="I298" s="52"/>
     </row>
     <row r="299" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="66"/>
-      <c r="C299" s="67"/>
-      <c r="D299" s="68"/>
-      <c r="E299" s="78"/>
-      <c r="F299" s="79"/>
-      <c r="G299" s="59"/>
-      <c r="H299" s="60"/>
+      <c r="B299" s="65"/>
+      <c r="C299" s="66"/>
+      <c r="D299" s="67"/>
+      <c r="E299" s="77"/>
+      <c r="F299" s="78"/>
+      <c r="G299" s="58"/>
+      <c r="H299" s="59"/>
       <c r="I299" s="52"/>
     </row>
     <row r="300" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="69"/>
-      <c r="C300" s="70"/>
-      <c r="D300" s="71"/>
-      <c r="E300" s="78"/>
-      <c r="F300" s="80"/>
-      <c r="G300" s="64"/>
-      <c r="H300" s="60"/>
-      <c r="I300" s="65"/>
+      <c r="B300" s="68"/>
+      <c r="C300" s="69"/>
+      <c r="D300" s="70"/>
+      <c r="E300" s="77"/>
+      <c r="F300" s="79"/>
+      <c r="G300" s="63"/>
+      <c r="H300" s="59"/>
+      <c r="I300" s="64"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="G11:G300">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>G11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>G11=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>G11=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51905,12 +51840,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="107">
+      <c r="C2" s="106">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="108"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -51968,7 +51903,7 @@
       <c r="D11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="94"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
@@ -52025,7 +51960,7 @@
     </row>
     <row r="27" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -52068,9 +52003,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B38"/>
+  <dimension ref="A3:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -52084,17 +52021,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -52109,165 +52046,127 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
-      <c r="B9" s="41"/>
+      <c r="B9" s="89"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="90"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
-      <c r="B11" s="86"/>
+      <c r="B11" s="41"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="91"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
-      <c r="B13" s="41"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="83"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="83"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="37"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="85"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="84"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="82"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="83"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="82"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>45</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="45" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>44</v>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -11,31 +11,39 @@
     <sheet name="Ressourcen" sheetId="3" r:id="rId2"/>
     <sheet name="Termine" sheetId="5" r:id="rId3"/>
     <sheet name="Attribute" sheetId="4" r:id="rId4"/>
-    <sheet name="Settings" sheetId="11" r:id="rId5"/>
+    <sheet name="Settings" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="AmpelFarben">Settings!$A$27:$A$31</definedName>
+    <definedName name="AmpelFarben" localSheetId="4">Settings!$A$34:$A$37</definedName>
     <definedName name="Bedarfe">Ressourcen!$D$12:$BX$100</definedName>
     <definedName name="BewertgErläuterung">Stammdaten!$C$23</definedName>
     <definedName name="Bewertung">Stammdaten!$C$21</definedName>
     <definedName name="Budget">Stammdaten!$C$12</definedName>
     <definedName name="Business_Unit">Attribute!$C$14</definedName>
+    <definedName name="EndeDatum" localSheetId="4">[1]Stammdaten!$C$6</definedName>
     <definedName name="EndeDatum">Stammdaten!$C$6</definedName>
     <definedName name="IndiviName3">Attribute!$C$26</definedName>
     <definedName name="IndivName1">Attribute!$C$22</definedName>
     <definedName name="IndivName2">Attribute!$C$24</definedName>
-    <definedName name="Kosten">Settings!$A$23:$A$25</definedName>
-    <definedName name="Phasen">Settings!$A$9:$A$14</definedName>
+    <definedName name="Kosten">Settings!$A$29:$A$31</definedName>
+    <definedName name="Phasen" localSheetId="4">Settings!$A$9:$A$22</definedName>
+    <definedName name="Phasen">Settings!$A$9:$A$22</definedName>
     <definedName name="Phasen_des_Projekts">Ressourcen!$B$11:$B$250</definedName>
+    <definedName name="Projekt_Name" localSheetId="4">[1]Stammdaten!$C$2</definedName>
     <definedName name="Projekt_Name">Stammdaten!$C$2</definedName>
     <definedName name="Projekt_Typ">Attribute!$C$11</definedName>
     <definedName name="ProjektBeschreibung">Stammdaten!$C$14</definedName>
     <definedName name="Projektleiter">Stammdaten!$C$10</definedName>
+    <definedName name="ProjektVorlagen" localSheetId="4">Settings!$A$4:$A$6</definedName>
     <definedName name="ProjektVorlagen">Settings!$A$4:$A$6</definedName>
     <definedName name="Risiko">Attribute!$E$16</definedName>
-    <definedName name="Rollen">Settings!$A$17:$A$22</definedName>
-    <definedName name="Rollen_Kostenarten">Settings!$A$17:$A$25</definedName>
+    <definedName name="Rollen" localSheetId="4">Settings!$A$25:$A$28</definedName>
+    <definedName name="Rollen_Kostenarten">Settings!$A$25:$A$31</definedName>
     <definedName name="RollenKosten_des_Projekts">Ressourcen!$C$11:$C$250</definedName>
+    <definedName name="StartDatum" localSheetId="4">[1]Stammdaten!$C$4</definedName>
     <definedName name="StartDatum">Stammdaten!$C$4</definedName>
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
@@ -47,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="66">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -224,7 +232,67 @@
     <t>.</t>
   </si>
   <si>
+    <t>Material-Kosten</t>
+  </si>
+  <si>
+    <t>Fertigungsplaner</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
     <t>Rollen/Kostenarten</t>
+  </si>
+  <si>
+    <t>Wintererprobung mit PVL</t>
+  </si>
+  <si>
+    <t>Wintererprobung mit BBG</t>
+  </si>
+  <si>
+    <t>F2 Anlaufproduktion</t>
+  </si>
+  <si>
+    <t>F2 Vorserie 2</t>
+  </si>
+  <si>
+    <t>F2 Vorserie 1</t>
+  </si>
+  <si>
+    <t>F2 Vorserie 0</t>
+  </si>
+  <si>
+    <t>BBG Montage FIZ</t>
+  </si>
+  <si>
+    <t>BBG Karosseriebau FIZ</t>
+  </si>
+  <si>
+    <t>VBBG</t>
+  </si>
+  <si>
+    <t>Simulation VBBG</t>
+  </si>
+  <si>
+    <t>PPA</t>
+  </si>
+  <si>
+    <t>SWZ</t>
+  </si>
+  <si>
+    <t>TK</t>
+  </si>
+  <si>
+    <t>DTK</t>
+  </si>
+  <si>
+    <t>Weite Ableitung</t>
+  </si>
+  <si>
+    <t>Erstanläufer</t>
+  </si>
+  <si>
+    <t>Enge Ableitung</t>
   </si>
   <si>
     <t>Name</t>
@@ -235,45 +303,6 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
-  <si>
-    <t>Innovationsprojekt</t>
-  </si>
-  <si>
-    <t>IT Einführungsprojekt</t>
-  </si>
-  <si>
-    <t>IT Entwicklungsprojekt</t>
-  </si>
-  <si>
-    <t>Business Case</t>
-  </si>
-  <si>
-    <t>Konzept</t>
-  </si>
-  <si>
-    <t>Entwicklung</t>
-  </si>
-  <si>
-    <t>Prototyp</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Rollout</t>
-  </si>
-  <si>
-    <t>GUI Spezialist</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>Architekt</t>
-  </si>
-  <si>
-    <t>Trainings-Kosten</t>
-  </si>
 </sst>
 </file>
 
@@ -283,19 +312,13 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -425,7 +448,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -482,31 +505,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4BD97"/>
+        <fgColor rgb="FF808080"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5D9F1"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8DB4E2"/>
+        <fgColor rgb="FFA6A6A6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6CBCB4"/>
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF31869B"/>
+        <fgColor rgb="FFFFD243"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC4BD97"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,15 +782,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -769,71 +798,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -854,72 +883,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -934,6 +927,14 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -946,25 +947,45 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -980,16 +1001,33 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1002,69 +1040,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1072,6 +1102,97 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CBCB4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31869B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1262,97 +1383,6 @@
         <scheme val="none"/>
       </font>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CBCB4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31869B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007E39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1372,21 +1402,60 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Stammdaten"/>
+      <sheetName val="Ressourcen"/>
+      <sheetName val="Ergebnisse "/>
+      <sheetName val="Ergebnisse"/>
+      <sheetName val="Attribute"/>
+      <sheetName val="Settings"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Einführung 3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>41456</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>42350</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="B10:I300"/>
   <sortState ref="B12:E19">
     <sortCondition ref="B11:B19"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nr." dataDxfId="7"/>
-    <tableColumn id="2" name="Name" dataDxfId="6"/>
-    <tableColumn id="3" name="Bezug" dataDxfId="5"/>
-    <tableColumn id="4" name="StartDatum" dataDxfId="4"/>
-    <tableColumn id="8" name="EndeDatum" dataDxfId="3"/>
-    <tableColumn id="5" name="Ampel" dataDxfId="2"/>
-    <tableColumn id="6" name="Erläuterung " dataDxfId="1"/>
-    <tableColumn id="7" name="Maßnahmen" dataDxfId="0"/>
+    <tableColumn id="1" name="Nr." dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Bezug" dataDxfId="18"/>
+    <tableColumn id="4" name="StartDatum" dataDxfId="17"/>
+    <tableColumn id="8" name="EndeDatum" dataDxfId="16"/>
+    <tableColumn id="5" name="Ampel" dataDxfId="15"/>
+    <tableColumn id="6" name="Erläuterung " dataDxfId="14"/>
+    <tableColumn id="7" name="Maßnahmen" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1682,8 +1751,8 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:G256"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:E28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1704,9 +1773,9 @@
       <c r="B2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="97"/>
       <c r="F2" s="11"/>
       <c r="G2" s="8"/>
     </row>
@@ -1754,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1776,39 +1845,39 @@
       <c r="B14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="100"/>
     </row>
     <row r="15" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
     </row>
     <row r="16" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="27"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
     </row>
     <row r="17" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
     </row>
     <row r="18" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="27"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
     </row>
     <row r="19" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="27"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104"/>
-      <c r="E19" s="105"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="106"/>
     </row>
     <row r="20" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="31"/>
@@ -1820,7 +1889,7 @@
       <c r="B21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="33"/>
       <c r="E21" s="25"/>
     </row>
@@ -1833,34 +1902,34 @@
       <c r="B23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="99"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
     </row>
     <row r="25" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
     </row>
     <row r="26" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
     </row>
     <row r="27" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
     </row>
     <row r="28" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-      <c r="E28" s="105"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="106"/>
     </row>
     <row r="29" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2091,23 +2160,23 @@
     <row r="255" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="256" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E19"/>
     <mergeCell ref="C23:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="22" priority="1">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$C$21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2">
+    <cfRule type="expression" dxfId="11" priority="2">
       <formula>$C21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="3">
+    <cfRule type="expression" dxfId="10" priority="3">
       <formula>$C21=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4">
+    <cfRule type="expression" dxfId="9" priority="4">
       <formula>$C21=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2142,8 +2211,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2168,12 +2237,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="107">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -2239,754 +2308,754 @@
         <v>39</v>
       </c>
       <c r="C10" s="42"/>
-      <c r="D10" s="86">
+      <c r="D10" s="92">
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="E10" s="85">
+      <c r="E10" s="91">
         <f>EDATE(D10,1)</f>
         <v>32</v>
       </c>
-      <c r="F10" s="85">
+      <c r="F10" s="91">
         <f t="shared" ref="F10:BQ10" si="0">EDATE(E10,1)</f>
         <v>61</v>
       </c>
-      <c r="G10" s="85">
+      <c r="G10" s="91">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="H10" s="85">
+      <c r="H10" s="91">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="I10" s="85">
+      <c r="I10" s="91">
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="J10" s="85">
+      <c r="J10" s="91">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="K10" s="85">
+      <c r="K10" s="91">
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="L10" s="85">
+      <c r="L10" s="91">
         <f t="shared" si="0"/>
         <v>245</v>
       </c>
-      <c r="M10" s="85">
+      <c r="M10" s="91">
         <f t="shared" si="0"/>
         <v>275</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="91">
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="91">
         <f t="shared" si="0"/>
         <v>336</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="91">
         <f t="shared" si="0"/>
         <v>367</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="91">
         <f t="shared" si="0"/>
         <v>398</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="91">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="S10" s="85">
+      <c r="S10" s="91">
         <f t="shared" si="0"/>
         <v>457</v>
       </c>
-      <c r="T10" s="85">
+      <c r="T10" s="91">
         <f t="shared" si="0"/>
         <v>487</v>
       </c>
-      <c r="U10" s="85">
+      <c r="U10" s="91">
         <f t="shared" si="0"/>
         <v>518</v>
       </c>
-      <c r="V10" s="85">
+      <c r="V10" s="91">
         <f t="shared" si="0"/>
         <v>548</v>
       </c>
-      <c r="W10" s="85">
+      <c r="W10" s="91">
         <f t="shared" si="0"/>
         <v>579</v>
       </c>
-      <c r="X10" s="85">
+      <c r="X10" s="91">
         <f t="shared" si="0"/>
         <v>610</v>
       </c>
-      <c r="Y10" s="85">
+      <c r="Y10" s="91">
         <f t="shared" si="0"/>
         <v>640</v>
       </c>
-      <c r="Z10" s="85">
+      <c r="Z10" s="91">
         <f t="shared" si="0"/>
         <v>671</v>
       </c>
-      <c r="AA10" s="85">
+      <c r="AA10" s="91">
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
-      <c r="AB10" s="85">
+      <c r="AB10" s="91">
         <f t="shared" si="0"/>
         <v>732</v>
       </c>
-      <c r="AC10" s="85">
+      <c r="AC10" s="91">
         <f t="shared" si="0"/>
         <v>763</v>
       </c>
-      <c r="AD10" s="85">
+      <c r="AD10" s="91">
         <f t="shared" si="0"/>
         <v>791</v>
       </c>
-      <c r="AE10" s="85">
+      <c r="AE10" s="91">
         <f t="shared" si="0"/>
         <v>822</v>
       </c>
-      <c r="AF10" s="85">
+      <c r="AF10" s="91">
         <f t="shared" si="0"/>
         <v>852</v>
       </c>
-      <c r="AG10" s="85">
+      <c r="AG10" s="91">
         <f t="shared" si="0"/>
         <v>883</v>
       </c>
-      <c r="AH10" s="85">
+      <c r="AH10" s="91">
         <f t="shared" si="0"/>
         <v>913</v>
       </c>
-      <c r="AI10" s="85">
+      <c r="AI10" s="91">
         <f t="shared" si="0"/>
         <v>944</v>
       </c>
-      <c r="AJ10" s="85">
+      <c r="AJ10" s="91">
         <f t="shared" si="0"/>
         <v>975</v>
       </c>
-      <c r="AK10" s="85">
+      <c r="AK10" s="91">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="AL10" s="85">
+      <c r="AL10" s="91">
         <f t="shared" si="0"/>
         <v>1036</v>
       </c>
-      <c r="AM10" s="85">
+      <c r="AM10" s="91">
         <f t="shared" si="0"/>
         <v>1066</v>
       </c>
-      <c r="AN10" s="85">
+      <c r="AN10" s="91">
         <f t="shared" si="0"/>
         <v>1097</v>
       </c>
-      <c r="AO10" s="85">
+      <c r="AO10" s="91">
         <f t="shared" si="0"/>
         <v>1128</v>
       </c>
-      <c r="AP10" s="85">
+      <c r="AP10" s="91">
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
-      <c r="AQ10" s="85">
+      <c r="AQ10" s="91">
         <f t="shared" si="0"/>
         <v>1187</v>
       </c>
-      <c r="AR10" s="85">
+      <c r="AR10" s="91">
         <f t="shared" si="0"/>
         <v>1217</v>
       </c>
-      <c r="AS10" s="85">
+      <c r="AS10" s="91">
         <f t="shared" si="0"/>
         <v>1248</v>
       </c>
-      <c r="AT10" s="85">
+      <c r="AT10" s="91">
         <f t="shared" si="0"/>
         <v>1278</v>
       </c>
-      <c r="AU10" s="85">
+      <c r="AU10" s="91">
         <f t="shared" si="0"/>
         <v>1309</v>
       </c>
-      <c r="AV10" s="85">
+      <c r="AV10" s="91">
         <f t="shared" si="0"/>
         <v>1340</v>
       </c>
-      <c r="AW10" s="85">
+      <c r="AW10" s="91">
         <f t="shared" si="0"/>
         <v>1370</v>
       </c>
-      <c r="AX10" s="85">
+      <c r="AX10" s="91">
         <f t="shared" si="0"/>
         <v>1401</v>
       </c>
-      <c r="AY10" s="85">
+      <c r="AY10" s="91">
         <f t="shared" si="0"/>
         <v>1431</v>
       </c>
-      <c r="AZ10" s="85">
+      <c r="AZ10" s="91">
         <f t="shared" si="0"/>
         <v>1462</v>
       </c>
-      <c r="BA10" s="85">
+      <c r="BA10" s="91">
         <f t="shared" si="0"/>
         <v>1493</v>
       </c>
-      <c r="BB10" s="85">
+      <c r="BB10" s="91">
         <f t="shared" si="0"/>
         <v>1522</v>
       </c>
-      <c r="BC10" s="85">
+      <c r="BC10" s="91">
         <f t="shared" si="0"/>
         <v>1553</v>
       </c>
-      <c r="BD10" s="85">
+      <c r="BD10" s="91">
         <f t="shared" si="0"/>
         <v>1583</v>
       </c>
-      <c r="BE10" s="85">
+      <c r="BE10" s="91">
         <f t="shared" si="0"/>
         <v>1614</v>
       </c>
-      <c r="BF10" s="85">
+      <c r="BF10" s="91">
         <f t="shared" si="0"/>
         <v>1644</v>
       </c>
-      <c r="BG10" s="85">
+      <c r="BG10" s="91">
         <f t="shared" si="0"/>
         <v>1675</v>
       </c>
-      <c r="BH10" s="85">
+      <c r="BH10" s="91">
         <f t="shared" si="0"/>
         <v>1706</v>
       </c>
-      <c r="BI10" s="85">
+      <c r="BI10" s="91">
         <f t="shared" si="0"/>
         <v>1736</v>
       </c>
-      <c r="BJ10" s="85">
+      <c r="BJ10" s="91">
         <f t="shared" si="0"/>
         <v>1767</v>
       </c>
-      <c r="BK10" s="85">
+      <c r="BK10" s="91">
         <f t="shared" si="0"/>
         <v>1797</v>
       </c>
-      <c r="BL10" s="85">
+      <c r="BL10" s="91">
         <f t="shared" si="0"/>
         <v>1828</v>
       </c>
-      <c r="BM10" s="85">
+      <c r="BM10" s="91">
         <f t="shared" si="0"/>
         <v>1859</v>
       </c>
-      <c r="BN10" s="85">
+      <c r="BN10" s="91">
         <f t="shared" si="0"/>
         <v>1887</v>
       </c>
-      <c r="BO10" s="85">
+      <c r="BO10" s="91">
         <f t="shared" si="0"/>
         <v>1918</v>
       </c>
-      <c r="BP10" s="85">
+      <c r="BP10" s="91">
         <f t="shared" si="0"/>
         <v>1948</v>
       </c>
-      <c r="BQ10" s="85">
+      <c r="BQ10" s="91">
         <f t="shared" si="0"/>
         <v>1979</v>
       </c>
-      <c r="BR10" s="85">
+      <c r="BR10" s="91">
         <f t="shared" ref="BR10:EC10" si="1">EDATE(BQ10,1)</f>
         <v>2009</v>
       </c>
-      <c r="BS10" s="85">
+      <c r="BS10" s="91">
         <f t="shared" si="1"/>
         <v>2040</v>
       </c>
-      <c r="BT10" s="85">
+      <c r="BT10" s="91">
         <f t="shared" si="1"/>
         <v>2071</v>
       </c>
-      <c r="BU10" s="85">
+      <c r="BU10" s="91">
         <f t="shared" si="1"/>
         <v>2101</v>
       </c>
-      <c r="BV10" s="85">
+      <c r="BV10" s="91">
         <f t="shared" si="1"/>
         <v>2132</v>
       </c>
-      <c r="BW10" s="85">
+      <c r="BW10" s="91">
         <f t="shared" si="1"/>
         <v>2162</v>
       </c>
-      <c r="BX10" s="85">
+      <c r="BX10" s="91">
         <f t="shared" si="1"/>
         <v>2193</v>
       </c>
-      <c r="BY10" s="85">
+      <c r="BY10" s="91">
         <f t="shared" si="1"/>
         <v>2224</v>
       </c>
-      <c r="BZ10" s="85">
+      <c r="BZ10" s="91">
         <f t="shared" si="1"/>
         <v>2252</v>
       </c>
-      <c r="CA10" s="85">
+      <c r="CA10" s="91">
         <f t="shared" si="1"/>
         <v>2283</v>
       </c>
-      <c r="CB10" s="85">
+      <c r="CB10" s="91">
         <f t="shared" si="1"/>
         <v>2313</v>
       </c>
-      <c r="CC10" s="85">
+      <c r="CC10" s="91">
         <f t="shared" si="1"/>
         <v>2344</v>
       </c>
-      <c r="CD10" s="85">
+      <c r="CD10" s="91">
         <f t="shared" si="1"/>
         <v>2374</v>
       </c>
-      <c r="CE10" s="85">
+      <c r="CE10" s="91">
         <f t="shared" si="1"/>
         <v>2405</v>
       </c>
-      <c r="CF10" s="85">
+      <c r="CF10" s="91">
         <f t="shared" si="1"/>
         <v>2436</v>
       </c>
-      <c r="CG10" s="85">
+      <c r="CG10" s="91">
         <f t="shared" si="1"/>
         <v>2466</v>
       </c>
-      <c r="CH10" s="85">
+      <c r="CH10" s="91">
         <f t="shared" si="1"/>
         <v>2497</v>
       </c>
-      <c r="CI10" s="85">
+      <c r="CI10" s="91">
         <f t="shared" si="1"/>
         <v>2527</v>
       </c>
-      <c r="CJ10" s="85">
+      <c r="CJ10" s="91">
         <f t="shared" si="1"/>
         <v>2558</v>
       </c>
-      <c r="CK10" s="85">
+      <c r="CK10" s="91">
         <f t="shared" si="1"/>
         <v>2589</v>
       </c>
-      <c r="CL10" s="85">
+      <c r="CL10" s="91">
         <f t="shared" si="1"/>
         <v>2617</v>
       </c>
-      <c r="CM10" s="85">
+      <c r="CM10" s="91">
         <f t="shared" si="1"/>
         <v>2648</v>
       </c>
-      <c r="CN10" s="85">
+      <c r="CN10" s="91">
         <f t="shared" si="1"/>
         <v>2678</v>
       </c>
-      <c r="CO10" s="85">
+      <c r="CO10" s="91">
         <f t="shared" si="1"/>
         <v>2709</v>
       </c>
-      <c r="CP10" s="85">
+      <c r="CP10" s="91">
         <f t="shared" si="1"/>
         <v>2739</v>
       </c>
-      <c r="CQ10" s="85">
+      <c r="CQ10" s="91">
         <f t="shared" si="1"/>
         <v>2770</v>
       </c>
-      <c r="CR10" s="85">
+      <c r="CR10" s="91">
         <f t="shared" si="1"/>
         <v>2801</v>
       </c>
-      <c r="CS10" s="85">
+      <c r="CS10" s="91">
         <f t="shared" si="1"/>
         <v>2831</v>
       </c>
-      <c r="CT10" s="85">
+      <c r="CT10" s="91">
         <f t="shared" si="1"/>
         <v>2862</v>
       </c>
-      <c r="CU10" s="85">
+      <c r="CU10" s="91">
         <f t="shared" si="1"/>
         <v>2892</v>
       </c>
-      <c r="CV10" s="85">
+      <c r="CV10" s="91">
         <f t="shared" si="1"/>
         <v>2923</v>
       </c>
-      <c r="CW10" s="85">
+      <c r="CW10" s="91">
         <f t="shared" si="1"/>
         <v>2954</v>
       </c>
-      <c r="CX10" s="85">
+      <c r="CX10" s="91">
         <f t="shared" si="1"/>
         <v>2983</v>
       </c>
-      <c r="CY10" s="85">
+      <c r="CY10" s="91">
         <f t="shared" si="1"/>
         <v>3014</v>
       </c>
-      <c r="CZ10" s="85">
+      <c r="CZ10" s="91">
         <f t="shared" si="1"/>
         <v>3044</v>
       </c>
-      <c r="DA10" s="85">
+      <c r="DA10" s="91">
         <f t="shared" si="1"/>
         <v>3075</v>
       </c>
-      <c r="DB10" s="85">
+      <c r="DB10" s="91">
         <f t="shared" si="1"/>
         <v>3105</v>
       </c>
-      <c r="DC10" s="85">
+      <c r="DC10" s="91">
         <f t="shared" si="1"/>
         <v>3136</v>
       </c>
-      <c r="DD10" s="85">
+      <c r="DD10" s="91">
         <f t="shared" si="1"/>
         <v>3167</v>
       </c>
-      <c r="DE10" s="85">
+      <c r="DE10" s="91">
         <f t="shared" si="1"/>
         <v>3197</v>
       </c>
-      <c r="DF10" s="85">
+      <c r="DF10" s="91">
         <f t="shared" si="1"/>
         <v>3228</v>
       </c>
-      <c r="DG10" s="85">
+      <c r="DG10" s="91">
         <f t="shared" si="1"/>
         <v>3258</v>
       </c>
-      <c r="DH10" s="85">
+      <c r="DH10" s="91">
         <f t="shared" si="1"/>
         <v>3289</v>
       </c>
-      <c r="DI10" s="85">
+      <c r="DI10" s="91">
         <f t="shared" si="1"/>
         <v>3320</v>
       </c>
-      <c r="DJ10" s="85">
+      <c r="DJ10" s="91">
         <f t="shared" si="1"/>
         <v>3348</v>
       </c>
-      <c r="DK10" s="85">
+      <c r="DK10" s="91">
         <f t="shared" si="1"/>
         <v>3379</v>
       </c>
-      <c r="DL10" s="85">
+      <c r="DL10" s="91">
         <f t="shared" si="1"/>
         <v>3409</v>
       </c>
-      <c r="DM10" s="85">
+      <c r="DM10" s="91">
         <f t="shared" si="1"/>
         <v>3440</v>
       </c>
-      <c r="DN10" s="85">
+      <c r="DN10" s="91">
         <f t="shared" si="1"/>
         <v>3470</v>
       </c>
-      <c r="DO10" s="85">
+      <c r="DO10" s="91">
         <f t="shared" si="1"/>
         <v>3501</v>
       </c>
-      <c r="DP10" s="85">
+      <c r="DP10" s="91">
         <f t="shared" si="1"/>
         <v>3532</v>
       </c>
-      <c r="DQ10" s="85">
+      <c r="DQ10" s="91">
         <f t="shared" si="1"/>
         <v>3562</v>
       </c>
-      <c r="DR10" s="85">
+      <c r="DR10" s="91">
         <f t="shared" si="1"/>
         <v>3593</v>
       </c>
-      <c r="DS10" s="85">
+      <c r="DS10" s="91">
         <f t="shared" si="1"/>
         <v>3623</v>
       </c>
-      <c r="DT10" s="85">
+      <c r="DT10" s="91">
         <f t="shared" si="1"/>
         <v>3654</v>
       </c>
-      <c r="DU10" s="85">
+      <c r="DU10" s="91">
         <f t="shared" si="1"/>
         <v>3685</v>
       </c>
-      <c r="DV10" s="85">
+      <c r="DV10" s="91">
         <f t="shared" si="1"/>
         <v>3713</v>
       </c>
-      <c r="DW10" s="85">
+      <c r="DW10" s="91">
         <f t="shared" si="1"/>
         <v>3744</v>
       </c>
-      <c r="DX10" s="85">
+      <c r="DX10" s="91">
         <f t="shared" si="1"/>
         <v>3774</v>
       </c>
-      <c r="DY10" s="85">
+      <c r="DY10" s="91">
         <f t="shared" si="1"/>
         <v>3805</v>
       </c>
-      <c r="DZ10" s="85">
+      <c r="DZ10" s="91">
         <f t="shared" si="1"/>
         <v>3835</v>
       </c>
-      <c r="EA10" s="85">
+      <c r="EA10" s="91">
         <f t="shared" si="1"/>
         <v>3866</v>
       </c>
-      <c r="EB10" s="85">
+      <c r="EB10" s="91">
         <f t="shared" si="1"/>
         <v>3897</v>
       </c>
-      <c r="EC10" s="85">
+      <c r="EC10" s="91">
         <f t="shared" si="1"/>
         <v>3927</v>
       </c>
-      <c r="ED10" s="85">
+      <c r="ED10" s="91">
         <f t="shared" ref="ED10:GG10" si="2">EDATE(EC10,1)</f>
         <v>3958</v>
       </c>
-      <c r="EE10" s="85">
+      <c r="EE10" s="91">
         <f t="shared" si="2"/>
         <v>3988</v>
       </c>
-      <c r="EF10" s="85">
+      <c r="EF10" s="91">
         <f t="shared" si="2"/>
         <v>4019</v>
       </c>
-      <c r="EG10" s="85">
+      <c r="EG10" s="91">
         <f t="shared" si="2"/>
         <v>4050</v>
       </c>
-      <c r="EH10" s="85">
+      <c r="EH10" s="91">
         <f t="shared" si="2"/>
         <v>4078</v>
       </c>
-      <c r="EI10" s="85">
+      <c r="EI10" s="91">
         <f t="shared" si="2"/>
         <v>4109</v>
       </c>
-      <c r="EJ10" s="85">
+      <c r="EJ10" s="91">
         <f t="shared" si="2"/>
         <v>4139</v>
       </c>
-      <c r="EK10" s="85">
+      <c r="EK10" s="91">
         <f t="shared" si="2"/>
         <v>4170</v>
       </c>
-      <c r="EL10" s="85">
+      <c r="EL10" s="91">
         <f t="shared" si="2"/>
         <v>4200</v>
       </c>
-      <c r="EM10" s="85">
+      <c r="EM10" s="91">
         <f t="shared" si="2"/>
         <v>4231</v>
       </c>
-      <c r="EN10" s="85">
+      <c r="EN10" s="91">
         <f t="shared" si="2"/>
         <v>4262</v>
       </c>
-      <c r="EO10" s="85">
+      <c r="EO10" s="91">
         <f t="shared" si="2"/>
         <v>4292</v>
       </c>
-      <c r="EP10" s="85">
+      <c r="EP10" s="91">
         <f t="shared" si="2"/>
         <v>4323</v>
       </c>
-      <c r="EQ10" s="85">
+      <c r="EQ10" s="91">
         <f t="shared" si="2"/>
         <v>4353</v>
       </c>
-      <c r="ER10" s="85">
+      <c r="ER10" s="91">
         <f t="shared" si="2"/>
         <v>4384</v>
       </c>
-      <c r="ES10" s="85">
+      <c r="ES10" s="91">
         <f t="shared" si="2"/>
         <v>4415</v>
       </c>
-      <c r="ET10" s="85">
+      <c r="ET10" s="91">
         <f t="shared" si="2"/>
         <v>4444</v>
       </c>
-      <c r="EU10" s="85">
+      <c r="EU10" s="91">
         <f t="shared" si="2"/>
         <v>4475</v>
       </c>
-      <c r="EV10" s="85">
+      <c r="EV10" s="91">
         <f t="shared" si="2"/>
         <v>4505</v>
       </c>
-      <c r="EW10" s="85">
+      <c r="EW10" s="91">
         <f t="shared" si="2"/>
         <v>4536</v>
       </c>
-      <c r="EX10" s="85">
+      <c r="EX10" s="91">
         <f t="shared" si="2"/>
         <v>4566</v>
       </c>
-      <c r="EY10" s="85">
+      <c r="EY10" s="91">
         <f t="shared" si="2"/>
         <v>4597</v>
       </c>
-      <c r="EZ10" s="85">
+      <c r="EZ10" s="91">
         <f t="shared" si="2"/>
         <v>4628</v>
       </c>
-      <c r="FA10" s="85">
+      <c r="FA10" s="91">
         <f t="shared" si="2"/>
         <v>4658</v>
       </c>
-      <c r="FB10" s="85">
+      <c r="FB10" s="91">
         <f t="shared" si="2"/>
         <v>4689</v>
       </c>
-      <c r="FC10" s="85">
+      <c r="FC10" s="91">
         <f t="shared" si="2"/>
         <v>4719</v>
       </c>
-      <c r="FD10" s="85">
+      <c r="FD10" s="91">
         <f t="shared" si="2"/>
         <v>4750</v>
       </c>
-      <c r="FE10" s="85">
+      <c r="FE10" s="91">
         <f t="shared" si="2"/>
         <v>4781</v>
       </c>
-      <c r="FF10" s="85">
+      <c r="FF10" s="91">
         <f t="shared" si="2"/>
         <v>4809</v>
       </c>
-      <c r="FG10" s="85">
+      <c r="FG10" s="91">
         <f t="shared" si="2"/>
         <v>4840</v>
       </c>
-      <c r="FH10" s="85">
+      <c r="FH10" s="91">
         <f t="shared" si="2"/>
         <v>4870</v>
       </c>
-      <c r="FI10" s="85">
+      <c r="FI10" s="91">
         <f t="shared" si="2"/>
         <v>4901</v>
       </c>
-      <c r="FJ10" s="85">
+      <c r="FJ10" s="91">
         <f t="shared" si="2"/>
         <v>4931</v>
       </c>
-      <c r="FK10" s="85">
+      <c r="FK10" s="91">
         <f t="shared" si="2"/>
         <v>4962</v>
       </c>
-      <c r="FL10" s="85">
+      <c r="FL10" s="91">
         <f t="shared" si="2"/>
         <v>4993</v>
       </c>
-      <c r="FM10" s="85">
+      <c r="FM10" s="91">
         <f t="shared" si="2"/>
         <v>5023</v>
       </c>
-      <c r="FN10" s="85">
+      <c r="FN10" s="91">
         <f t="shared" si="2"/>
         <v>5054</v>
       </c>
-      <c r="FO10" s="85">
+      <c r="FO10" s="91">
         <f t="shared" si="2"/>
         <v>5084</v>
       </c>
-      <c r="FP10" s="85">
+      <c r="FP10" s="91">
         <f t="shared" si="2"/>
         <v>5115</v>
       </c>
-      <c r="FQ10" s="85">
+      <c r="FQ10" s="91">
         <f t="shared" si="2"/>
         <v>5146</v>
       </c>
-      <c r="FR10" s="85">
+      <c r="FR10" s="91">
         <f t="shared" si="2"/>
         <v>5174</v>
       </c>
-      <c r="FS10" s="85">
+      <c r="FS10" s="91">
         <f t="shared" si="2"/>
         <v>5205</v>
       </c>
-      <c r="FT10" s="85">
+      <c r="FT10" s="91">
         <f t="shared" si="2"/>
         <v>5235</v>
       </c>
-      <c r="FU10" s="85">
+      <c r="FU10" s="91">
         <f t="shared" si="2"/>
         <v>5266</v>
       </c>
-      <c r="FV10" s="85">
+      <c r="FV10" s="91">
         <f t="shared" si="2"/>
         <v>5296</v>
       </c>
-      <c r="FW10" s="85">
+      <c r="FW10" s="91">
         <f t="shared" si="2"/>
         <v>5327</v>
       </c>
-      <c r="FX10" s="85">
+      <c r="FX10" s="91">
         <f t="shared" si="2"/>
         <v>5358</v>
       </c>
-      <c r="FY10" s="85">
+      <c r="FY10" s="91">
         <f t="shared" si="2"/>
         <v>5388</v>
       </c>
-      <c r="FZ10" s="85">
+      <c r="FZ10" s="91">
         <f t="shared" si="2"/>
         <v>5419</v>
       </c>
-      <c r="GA10" s="85">
+      <c r="GA10" s="91">
         <f t="shared" si="2"/>
         <v>5449</v>
       </c>
-      <c r="GB10" s="85">
+      <c r="GB10" s="91">
         <f t="shared" si="2"/>
         <v>5480</v>
       </c>
-      <c r="GC10" s="85">
+      <c r="GC10" s="91">
         <f t="shared" si="2"/>
         <v>5511</v>
       </c>
-      <c r="GD10" s="85">
+      <c r="GD10" s="91">
         <f t="shared" si="2"/>
         <v>5539</v>
       </c>
-      <c r="GE10" s="85">
+      <c r="GE10" s="91">
         <f t="shared" si="2"/>
         <v>5570</v>
       </c>
-      <c r="GF10" s="85">
+      <c r="GF10" s="91">
         <f t="shared" si="2"/>
         <v>5600</v>
       </c>
-      <c r="GG10" s="85">
+      <c r="GG10" s="91">
         <f t="shared" si="2"/>
         <v>5631</v>
       </c>
-      <c r="GH10" s="84"/>
+      <c r="GH10" s="90"/>
     </row>
     <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="87"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="42"/>
       <c r="D11" s="47"/>
       <c r="E11" s="47"/>
@@ -48583,27 +48652,27 @@
       <c r="GG250" s="46"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B116">
-    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48638,7 +48707,7 @@
   <dimension ref="A1:Q300"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -48678,13 +48747,13 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="107">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="80"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
       <c r="I2" s="1"/>
@@ -48845,16 +48914,16 @@
       <c r="B10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="81" t="s">
-        <v>43</v>
+      <c r="C10" s="87" t="s">
+        <v>63</v>
       </c>
-      <c r="D10" s="82" t="s">
-        <v>44</v>
+      <c r="D10" s="88" t="s">
+        <v>64</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="72" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="73" t="s">
         <v>38</v>
       </c>
       <c r="G10" s="35" t="s">
@@ -48871,8 +48940,8 @@
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="51"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
@@ -48880,24 +48949,20 @@
     <row r="12" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="53"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="51">
-        <v>1</v>
-      </c>
+      <c r="D12" s="54"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
     <row r="13" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
-      <c r="C13" s="54"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
-      <c r="G13" s="51">
-        <v>2</v>
-      </c>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="51"/>
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
@@ -48905,8 +48970,8 @@
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="51"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
@@ -48915,8 +48980,8 @@
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="51"/>
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
@@ -48925,8 +48990,8 @@
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
       <c r="G16" s="51"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
@@ -48935,8 +49000,8 @@
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="51"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
@@ -48945,2845 +49010,2845 @@
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
       <c r="G18" s="51"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
     </row>
     <row r="19" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="55"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="60"/>
       <c r="I19" s="52"/>
     </row>
     <row r="20" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="55"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="60"/>
       <c r="I20" s="52"/>
     </row>
     <row r="21" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="52"/>
     </row>
     <row r="22" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="55"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="60"/>
       <c r="I22" s="52"/>
     </row>
     <row r="23" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="55"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="60"/>
       <c r="I23" s="52"/>
     </row>
     <row r="24" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="55"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="75"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="60"/>
       <c r="I24" s="52"/>
     </row>
     <row r="25" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="60"/>
       <c r="I25" s="52"/>
     </row>
     <row r="26" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="52"/>
     </row>
     <row r="27" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="76"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="60"/>
       <c r="I27" s="52"/>
     </row>
     <row r="28" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="52"/>
     </row>
     <row r="29" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="63"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="64"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="65"/>
     </row>
     <row r="30" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="65"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="60"/>
       <c r="I30" s="52"/>
     </row>
     <row r="31" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
       <c r="I31" s="52"/>
     </row>
     <row r="32" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="65"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="59"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="52"/>
     </row>
     <row r="33" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="65"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="59"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="52"/>
     </row>
     <row r="34" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="65"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="59"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="52"/>
     </row>
     <row r="35" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="65"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="52"/>
     </row>
     <row r="36" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="65"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="78"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="59"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="52"/>
     </row>
     <row r="37" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="65"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="59"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="78"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="52"/>
     </row>
     <row r="38" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="65"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="78"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="59"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="78"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="52"/>
     </row>
     <row r="39" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="65"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="78"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="59"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="52"/>
     </row>
     <row r="40" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="65"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="59"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="78"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="60"/>
       <c r="I40" s="52"/>
     </row>
     <row r="41" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="65"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="59"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="59"/>
+      <c r="H41" s="60"/>
       <c r="I41" s="52"/>
     </row>
     <row r="42" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="67"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="59"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="59"/>
+      <c r="H42" s="60"/>
       <c r="I42" s="52"/>
     </row>
     <row r="43" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="65"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="58"/>
-      <c r="H43" s="59"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="59"/>
+      <c r="H43" s="60"/>
       <c r="I43" s="52"/>
     </row>
     <row r="44" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="65"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="59"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="78"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="59"/>
+      <c r="H44" s="60"/>
       <c r="I44" s="52"/>
     </row>
     <row r="45" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="65"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="78"/>
-      <c r="G45" s="58"/>
-      <c r="H45" s="59"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="60"/>
       <c r="I45" s="52"/>
     </row>
     <row r="46" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="65"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="78"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="59"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="78"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
       <c r="I46" s="52"/>
     </row>
     <row r="47" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="65"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="78"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="59"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="78"/>
+      <c r="F47" s="79"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
       <c r="I47" s="52"/>
     </row>
     <row r="48" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="65"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="78"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="59"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
       <c r="I48" s="52"/>
     </row>
     <row r="49" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="65"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="60"/>
       <c r="I49" s="52"/>
     </row>
     <row r="50" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="65"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="59"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="78"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="52"/>
     </row>
     <row r="51" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="65"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="78"/>
-      <c r="G51" s="58"/>
-      <c r="H51" s="59"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="78"/>
+      <c r="F51" s="79"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="60"/>
       <c r="I51" s="52"/>
     </row>
     <row r="52" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="65"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="67"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="78"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="59"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="78"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="59"/>
+      <c r="H52" s="60"/>
       <c r="I52" s="52"/>
     </row>
     <row r="53" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="65"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="78"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="78"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="60"/>
       <c r="I53" s="52"/>
     </row>
     <row r="54" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="65"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="67"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="78"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="59"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="78"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="59"/>
+      <c r="H54" s="60"/>
       <c r="I54" s="52"/>
     </row>
     <row r="55" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="65"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="78"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="59"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="78"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="60"/>
       <c r="I55" s="52"/>
     </row>
     <row r="56" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="65"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="78"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="59"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="78"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="60"/>
       <c r="I56" s="52"/>
     </row>
     <row r="57" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="65"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="59"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="60"/>
       <c r="I57" s="52"/>
     </row>
     <row r="58" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="65"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="67"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="59"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="59"/>
+      <c r="H58" s="60"/>
       <c r="I58" s="52"/>
     </row>
     <row r="59" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="65"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
-      <c r="G59" s="58"/>
-      <c r="H59" s="59"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="78"/>
+      <c r="F59" s="79"/>
+      <c r="G59" s="59"/>
+      <c r="H59" s="60"/>
       <c r="I59" s="52"/>
     </row>
     <row r="60" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="65"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="78"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="59"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="60"/>
       <c r="I60" s="52"/>
     </row>
     <row r="61" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="65"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="78"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="59"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="78"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="60"/>
       <c r="I61" s="52"/>
     </row>
     <row r="62" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="65"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="67"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="59"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="78"/>
+      <c r="F62" s="79"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="60"/>
       <c r="I62" s="52"/>
     </row>
     <row r="63" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="65"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="78"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="59"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="78"/>
+      <c r="F63" s="79"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="60"/>
       <c r="I63" s="52"/>
     </row>
     <row r="64" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="65"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="78"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="59"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="60"/>
       <c r="I64" s="52"/>
     </row>
     <row r="65" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="65"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="78"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="59"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="60"/>
       <c r="I65" s="52"/>
     </row>
     <row r="66" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="65"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="59"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="79"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="60"/>
       <c r="I66" s="52"/>
     </row>
     <row r="67" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="65"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="78"/>
-      <c r="G67" s="58"/>
-      <c r="H67" s="59"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="79"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="60"/>
       <c r="I67" s="52"/>
     </row>
     <row r="68" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="65"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="77"/>
-      <c r="F68" s="78"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="59"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="60"/>
       <c r="I68" s="52"/>
     </row>
     <row r="69" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="65"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="78"/>
-      <c r="G69" s="58"/>
-      <c r="H69" s="59"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="60"/>
       <c r="I69" s="52"/>
     </row>
     <row r="70" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="65"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="78"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="59"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="79"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="60"/>
       <c r="I70" s="52"/>
     </row>
     <row r="71" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="65"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="78"/>
-      <c r="G71" s="58"/>
-      <c r="H71" s="59"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="79"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="60"/>
       <c r="I71" s="52"/>
     </row>
     <row r="72" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="65"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="78"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="59"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="60"/>
       <c r="I72" s="52"/>
     </row>
     <row r="73" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="65"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="78"/>
-      <c r="G73" s="58"/>
-      <c r="H73" s="59"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="60"/>
       <c r="I73" s="52"/>
     </row>
     <row r="74" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="65"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="67"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="78"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="59"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="79"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="60"/>
       <c r="I74" s="52"/>
     </row>
     <row r="75" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="65"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="59"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="79"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="60"/>
       <c r="I75" s="52"/>
     </row>
     <row r="76" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="65"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="59"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="60"/>
       <c r="I76" s="52"/>
     </row>
     <row r="77" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="65"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="78"/>
-      <c r="G77" s="58"/>
-      <c r="H77" s="59"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="59"/>
+      <c r="H77" s="60"/>
       <c r="I77" s="52"/>
     </row>
     <row r="78" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="65"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="67"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="78"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="59"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="79"/>
+      <c r="G78" s="59"/>
+      <c r="H78" s="60"/>
       <c r="I78" s="52"/>
     </row>
     <row r="79" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="65"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="78"/>
-      <c r="G79" s="58"/>
-      <c r="H79" s="59"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="78"/>
+      <c r="F79" s="79"/>
+      <c r="G79" s="59"/>
+      <c r="H79" s="60"/>
       <c r="I79" s="52"/>
     </row>
     <row r="80" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="65"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="78"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="59"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="78"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="60"/>
       <c r="I80" s="52"/>
     </row>
     <row r="81" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="65"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="78"/>
-      <c r="G81" s="58"/>
-      <c r="H81" s="59"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="78"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="60"/>
       <c r="I81" s="52"/>
     </row>
     <row r="82" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="65"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="78"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="59"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="78"/>
+      <c r="F82" s="79"/>
+      <c r="G82" s="59"/>
+      <c r="H82" s="60"/>
       <c r="I82" s="52"/>
     </row>
     <row r="83" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="65"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="58"/>
-      <c r="H83" s="59"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="79"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="60"/>
       <c r="I83" s="52"/>
     </row>
     <row r="84" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="65"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="60"/>
       <c r="I84" s="52"/>
     </row>
     <row r="85" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="65"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="78"/>
-      <c r="G85" s="58"/>
-      <c r="H85" s="59"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="78"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="59"/>
+      <c r="H85" s="60"/>
       <c r="I85" s="52"/>
     </row>
     <row r="86" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="65"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="67"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="78"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="59"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="78"/>
+      <c r="F86" s="79"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="60"/>
       <c r="I86" s="52"/>
     </row>
     <row r="87" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="65"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="78"/>
-      <c r="G87" s="58"/>
-      <c r="H87" s="59"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="78"/>
+      <c r="F87" s="79"/>
+      <c r="G87" s="59"/>
+      <c r="H87" s="60"/>
       <c r="I87" s="52"/>
     </row>
     <row r="88" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="65"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="67"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="78"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="59"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="78"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="60"/>
       <c r="I88" s="52"/>
     </row>
     <row r="89" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="65"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="78"/>
-      <c r="G89" s="58"/>
-      <c r="H89" s="59"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="78"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="59"/>
+      <c r="H89" s="60"/>
       <c r="I89" s="52"/>
     </row>
     <row r="90" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="65"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="67"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="59"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="79"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="60"/>
       <c r="I90" s="52"/>
     </row>
     <row r="91" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="65"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="78"/>
-      <c r="G91" s="58"/>
-      <c r="H91" s="59"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="78"/>
+      <c r="F91" s="79"/>
+      <c r="G91" s="59"/>
+      <c r="H91" s="60"/>
       <c r="I91" s="52"/>
     </row>
     <row r="92" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="65"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="67"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="78"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="59"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="78"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="60"/>
       <c r="I92" s="52"/>
     </row>
     <row r="93" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="65"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="78"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="59"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="78"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="59"/>
+      <c r="H93" s="60"/>
       <c r="I93" s="52"/>
     </row>
     <row r="94" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="67"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="59"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="79"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="60"/>
       <c r="I94" s="52"/>
     </row>
     <row r="95" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="78"/>
-      <c r="G95" s="58"/>
-      <c r="H95" s="59"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="79"/>
+      <c r="G95" s="59"/>
+      <c r="H95" s="60"/>
       <c r="I95" s="52"/>
     </row>
     <row r="96" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="67"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="78"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="59"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="78"/>
+      <c r="F96" s="79"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="60"/>
       <c r="I96" s="52"/>
     </row>
     <row r="97" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="58"/>
-      <c r="H97" s="59"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="79"/>
+      <c r="G97" s="59"/>
+      <c r="H97" s="60"/>
       <c r="I97" s="52"/>
     </row>
     <row r="98" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="67"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="59"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="60"/>
       <c r="I98" s="52"/>
     </row>
     <row r="99" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="78"/>
-      <c r="G99" s="58"/>
-      <c r="H99" s="59"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="78"/>
+      <c r="F99" s="79"/>
+      <c r="G99" s="59"/>
+      <c r="H99" s="60"/>
       <c r="I99" s="52"/>
     </row>
     <row r="100" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="65"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="78"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="59"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="78"/>
+      <c r="F100" s="79"/>
+      <c r="G100" s="59"/>
+      <c r="H100" s="60"/>
       <c r="I100" s="52"/>
     </row>
     <row r="101" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="65"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="78"/>
-      <c r="G101" s="58"/>
-      <c r="H101" s="59"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="79"/>
+      <c r="G101" s="59"/>
+      <c r="H101" s="60"/>
       <c r="I101" s="52"/>
     </row>
     <row r="102" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="65"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="67"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="78"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="59"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="78"/>
+      <c r="F102" s="79"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="60"/>
       <c r="I102" s="52"/>
     </row>
     <row r="103" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="65"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="78"/>
-      <c r="G103" s="58"/>
-      <c r="H103" s="59"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="78"/>
+      <c r="F103" s="79"/>
+      <c r="G103" s="59"/>
+      <c r="H103" s="60"/>
       <c r="I103" s="52"/>
     </row>
     <row r="104" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="65"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="78"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="59"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="78"/>
+      <c r="F104" s="79"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="60"/>
       <c r="I104" s="52"/>
     </row>
     <row r="105" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="65"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="78"/>
-      <c r="G105" s="58"/>
-      <c r="H105" s="59"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="78"/>
+      <c r="F105" s="79"/>
+      <c r="G105" s="59"/>
+      <c r="H105" s="60"/>
       <c r="I105" s="52"/>
     </row>
     <row r="106" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="65"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="67"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="78"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="59"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="78"/>
+      <c r="F106" s="79"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="60"/>
       <c r="I106" s="52"/>
     </row>
     <row r="107" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="65"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="78"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="59"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="78"/>
+      <c r="F107" s="79"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="60"/>
       <c r="I107" s="52"/>
     </row>
     <row r="108" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="65"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="67"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="78"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="59"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="78"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="60"/>
       <c r="I108" s="52"/>
     </row>
     <row r="109" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="65"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="78"/>
-      <c r="G109" s="58"/>
-      <c r="H109" s="59"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="78"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="60"/>
       <c r="I109" s="52"/>
     </row>
     <row r="110" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="65"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="67"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="78"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="59"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="78"/>
+      <c r="F110" s="79"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="60"/>
       <c r="I110" s="52"/>
     </row>
     <row r="111" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="65"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="78"/>
-      <c r="G111" s="58"/>
-      <c r="H111" s="59"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="78"/>
+      <c r="F111" s="79"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="60"/>
       <c r="I111" s="52"/>
     </row>
     <row r="112" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="65"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="67"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="78"/>
-      <c r="G112" s="58"/>
-      <c r="H112" s="59"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="79"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="60"/>
       <c r="I112" s="52"/>
     </row>
     <row r="113" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="65"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="78"/>
-      <c r="G113" s="58"/>
-      <c r="H113" s="59"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="78"/>
+      <c r="F113" s="79"/>
+      <c r="G113" s="59"/>
+      <c r="H113" s="60"/>
       <c r="I113" s="52"/>
     </row>
     <row r="114" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="65"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="67"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="59"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="78"/>
+      <c r="F114" s="79"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="60"/>
       <c r="I114" s="52"/>
     </row>
     <row r="115" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="65"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="78"/>
-      <c r="G115" s="58"/>
-      <c r="H115" s="59"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="78"/>
+      <c r="F115" s="79"/>
+      <c r="G115" s="59"/>
+      <c r="H115" s="60"/>
       <c r="I115" s="52"/>
     </row>
     <row r="116" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="65"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="67"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="78"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="59"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="78"/>
+      <c r="F116" s="79"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="60"/>
       <c r="I116" s="52"/>
     </row>
     <row r="117" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="65"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="78"/>
-      <c r="G117" s="58"/>
-      <c r="H117" s="59"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="78"/>
+      <c r="F117" s="79"/>
+      <c r="G117" s="59"/>
+      <c r="H117" s="60"/>
       <c r="I117" s="52"/>
     </row>
     <row r="118" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="65"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="67"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="78"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="59"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="78"/>
+      <c r="F118" s="79"/>
+      <c r="G118" s="59"/>
+      <c r="H118" s="60"/>
       <c r="I118" s="52"/>
     </row>
     <row r="119" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="65"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="78"/>
-      <c r="G119" s="58"/>
-      <c r="H119" s="59"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="79"/>
+      <c r="G119" s="59"/>
+      <c r="H119" s="60"/>
       <c r="I119" s="52"/>
     </row>
     <row r="120" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="65"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="67"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="78"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="59"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="78"/>
+      <c r="F120" s="79"/>
+      <c r="G120" s="59"/>
+      <c r="H120" s="60"/>
       <c r="I120" s="52"/>
     </row>
     <row r="121" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="65"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="78"/>
-      <c r="G121" s="58"/>
-      <c r="H121" s="59"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="78"/>
+      <c r="F121" s="79"/>
+      <c r="G121" s="59"/>
+      <c r="H121" s="60"/>
       <c r="I121" s="52"/>
     </row>
     <row r="122" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="65"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="67"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="59"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="78"/>
+      <c r="F122" s="79"/>
+      <c r="G122" s="59"/>
+      <c r="H122" s="60"/>
       <c r="I122" s="52"/>
     </row>
     <row r="123" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="65"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="78"/>
-      <c r="G123" s="58"/>
-      <c r="H123" s="59"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="78"/>
+      <c r="F123" s="79"/>
+      <c r="G123" s="59"/>
+      <c r="H123" s="60"/>
       <c r="I123" s="52"/>
     </row>
     <row r="124" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="65"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="67"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="78"/>
-      <c r="G124" s="58"/>
-      <c r="H124" s="59"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="78"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="60"/>
       <c r="I124" s="52"/>
     </row>
     <row r="125" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="65"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="78"/>
-      <c r="G125" s="58"/>
-      <c r="H125" s="59"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="78"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="59"/>
+      <c r="H125" s="60"/>
       <c r="I125" s="52"/>
     </row>
     <row r="126" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="65"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="67"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="78"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="59"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="79"/>
+      <c r="G126" s="59"/>
+      <c r="H126" s="60"/>
       <c r="I126" s="52"/>
     </row>
     <row r="127" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="65"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="59"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="78"/>
+      <c r="F127" s="79"/>
+      <c r="G127" s="59"/>
+      <c r="H127" s="60"/>
       <c r="I127" s="52"/>
     </row>
     <row r="128" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="65"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="67"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="78"/>
-      <c r="G128" s="58"/>
-      <c r="H128" s="59"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="59"/>
+      <c r="H128" s="60"/>
       <c r="I128" s="52"/>
     </row>
     <row r="129" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="65"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="58"/>
-      <c r="H129" s="59"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="78"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="59"/>
+      <c r="H129" s="60"/>
       <c r="I129" s="52"/>
     </row>
     <row r="130" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="65"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="67"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="78"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="59"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="79"/>
+      <c r="G130" s="59"/>
+      <c r="H130" s="60"/>
       <c r="I130" s="52"/>
     </row>
     <row r="131" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="65"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="58"/>
-      <c r="H131" s="59"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="59"/>
+      <c r="H131" s="60"/>
       <c r="I131" s="52"/>
     </row>
     <row r="132" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="65"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="78"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="59"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="78"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="59"/>
+      <c r="H132" s="60"/>
       <c r="I132" s="52"/>
     </row>
     <row r="133" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="65"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="67"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="78"/>
-      <c r="G133" s="58"/>
-      <c r="H133" s="59"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="78"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="59"/>
+      <c r="H133" s="60"/>
       <c r="I133" s="52"/>
     </row>
     <row r="134" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="65"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="67"/>
-      <c r="E134" s="77"/>
-      <c r="F134" s="78"/>
-      <c r="G134" s="58"/>
-      <c r="H134" s="59"/>
+      <c r="B134" s="66"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="79"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="60"/>
       <c r="I134" s="52"/>
     </row>
     <row r="135" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="65"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="67"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="58"/>
-      <c r="H135" s="59"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="78"/>
+      <c r="F135" s="79"/>
+      <c r="G135" s="59"/>
+      <c r="H135" s="60"/>
       <c r="I135" s="52"/>
     </row>
     <row r="136" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="65"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="67"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="78"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="59"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="78"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="59"/>
+      <c r="H136" s="60"/>
       <c r="I136" s="52"/>
     </row>
     <row r="137" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="65"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="67"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="78"/>
-      <c r="G137" s="58"/>
-      <c r="H137" s="59"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="78"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="59"/>
+      <c r="H137" s="60"/>
       <c r="I137" s="52"/>
     </row>
     <row r="138" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="65"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="67"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="78"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="59"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="79"/>
+      <c r="G138" s="59"/>
+      <c r="H138" s="60"/>
       <c r="I138" s="52"/>
     </row>
     <row r="139" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="65"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="67"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="78"/>
-      <c r="G139" s="58"/>
-      <c r="H139" s="59"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="78"/>
+      <c r="F139" s="79"/>
+      <c r="G139" s="59"/>
+      <c r="H139" s="60"/>
       <c r="I139" s="52"/>
     </row>
     <row r="140" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="65"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="67"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="78"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="59"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="78"/>
+      <c r="F140" s="79"/>
+      <c r="G140" s="59"/>
+      <c r="H140" s="60"/>
       <c r="I140" s="52"/>
     </row>
     <row r="141" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="65"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="67"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="78"/>
-      <c r="G141" s="58"/>
-      <c r="H141" s="59"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="78"/>
+      <c r="F141" s="79"/>
+      <c r="G141" s="59"/>
+      <c r="H141" s="60"/>
       <c r="I141" s="52"/>
     </row>
     <row r="142" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="65"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="67"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="78"/>
-      <c r="G142" s="58"/>
-      <c r="H142" s="59"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="78"/>
+      <c r="F142" s="79"/>
+      <c r="G142" s="59"/>
+      <c r="H142" s="60"/>
       <c r="I142" s="52"/>
     </row>
     <row r="143" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="65"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="67"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="78"/>
-      <c r="G143" s="58"/>
-      <c r="H143" s="59"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="78"/>
+      <c r="F143" s="79"/>
+      <c r="G143" s="59"/>
+      <c r="H143" s="60"/>
       <c r="I143" s="52"/>
     </row>
     <row r="144" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="65"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="67"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="59"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="78"/>
+      <c r="F144" s="79"/>
+      <c r="G144" s="59"/>
+      <c r="H144" s="60"/>
       <c r="I144" s="52"/>
     </row>
     <row r="145" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="65"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="67"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="59"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="79"/>
+      <c r="G145" s="59"/>
+      <c r="H145" s="60"/>
       <c r="I145" s="52"/>
     </row>
     <row r="146" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="65"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="67"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="78"/>
-      <c r="G146" s="58"/>
-      <c r="H146" s="59"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="78"/>
+      <c r="F146" s="79"/>
+      <c r="G146" s="59"/>
+      <c r="H146" s="60"/>
       <c r="I146" s="52"/>
     </row>
     <row r="147" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="65"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="67"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="78"/>
-      <c r="G147" s="58"/>
-      <c r="H147" s="59"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="78"/>
+      <c r="F147" s="79"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="60"/>
       <c r="I147" s="52"/>
     </row>
     <row r="148" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="65"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="67"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="78"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="59"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="78"/>
+      <c r="F148" s="79"/>
+      <c r="G148" s="59"/>
+      <c r="H148" s="60"/>
       <c r="I148" s="52"/>
     </row>
     <row r="149" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="65"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="67"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="78"/>
-      <c r="G149" s="58"/>
-      <c r="H149" s="59"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="79"/>
+      <c r="G149" s="59"/>
+      <c r="H149" s="60"/>
       <c r="I149" s="52"/>
     </row>
     <row r="150" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="65"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="67"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="78"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="59"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="78"/>
+      <c r="F150" s="79"/>
+      <c r="G150" s="59"/>
+      <c r="H150" s="60"/>
       <c r="I150" s="52"/>
     </row>
     <row r="151" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="65"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="67"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="78"/>
-      <c r="G151" s="58"/>
-      <c r="H151" s="59"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="78"/>
+      <c r="F151" s="79"/>
+      <c r="G151" s="59"/>
+      <c r="H151" s="60"/>
       <c r="I151" s="52"/>
     </row>
     <row r="152" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="65"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="67"/>
-      <c r="E152" s="77"/>
-      <c r="F152" s="78"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="59"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="78"/>
+      <c r="F152" s="79"/>
+      <c r="G152" s="59"/>
+      <c r="H152" s="60"/>
       <c r="I152" s="52"/>
     </row>
     <row r="153" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="65"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="67"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="78"/>
-      <c r="G153" s="58"/>
-      <c r="H153" s="59"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="78"/>
+      <c r="F153" s="79"/>
+      <c r="G153" s="59"/>
+      <c r="H153" s="60"/>
       <c r="I153" s="52"/>
     </row>
     <row r="154" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="65"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="67"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="78"/>
-      <c r="G154" s="58"/>
-      <c r="H154" s="59"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="78"/>
+      <c r="F154" s="79"/>
+      <c r="G154" s="59"/>
+      <c r="H154" s="60"/>
       <c r="I154" s="52"/>
     </row>
     <row r="155" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="65"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="67"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="78"/>
-      <c r="G155" s="58"/>
-      <c r="H155" s="59"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="78"/>
+      <c r="F155" s="79"/>
+      <c r="G155" s="59"/>
+      <c r="H155" s="60"/>
       <c r="I155" s="52"/>
     </row>
     <row r="156" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="65"/>
-      <c r="C156" s="66"/>
-      <c r="D156" s="67"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="78"/>
-      <c r="G156" s="58"/>
-      <c r="H156" s="59"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="78"/>
+      <c r="F156" s="79"/>
+      <c r="G156" s="59"/>
+      <c r="H156" s="60"/>
       <c r="I156" s="52"/>
     </row>
     <row r="157" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="65"/>
-      <c r="C157" s="66"/>
-      <c r="D157" s="67"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="78"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="59"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="78"/>
+      <c r="F157" s="79"/>
+      <c r="G157" s="59"/>
+      <c r="H157" s="60"/>
       <c r="I157" s="52"/>
     </row>
     <row r="158" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="65"/>
-      <c r="C158" s="66"/>
-      <c r="D158" s="67"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="78"/>
-      <c r="G158" s="58"/>
-      <c r="H158" s="59"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="78"/>
+      <c r="F158" s="79"/>
+      <c r="G158" s="59"/>
+      <c r="H158" s="60"/>
       <c r="I158" s="52"/>
     </row>
     <row r="159" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="65"/>
-      <c r="C159" s="66"/>
-      <c r="D159" s="67"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="78"/>
-      <c r="G159" s="58"/>
-      <c r="H159" s="59"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="78"/>
+      <c r="F159" s="79"/>
+      <c r="G159" s="59"/>
+      <c r="H159" s="60"/>
       <c r="I159" s="52"/>
     </row>
     <row r="160" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="65"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="67"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="78"/>
-      <c r="G160" s="58"/>
-      <c r="H160" s="59"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="78"/>
+      <c r="F160" s="79"/>
+      <c r="G160" s="59"/>
+      <c r="H160" s="60"/>
       <c r="I160" s="52"/>
     </row>
     <row r="161" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="65"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="67"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="78"/>
-      <c r="G161" s="58"/>
-      <c r="H161" s="59"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="78"/>
+      <c r="F161" s="79"/>
+      <c r="G161" s="59"/>
+      <c r="H161" s="60"/>
       <c r="I161" s="52"/>
     </row>
     <row r="162" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="65"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="67"/>
-      <c r="E162" s="77"/>
-      <c r="F162" s="78"/>
-      <c r="G162" s="58"/>
-      <c r="H162" s="59"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="78"/>
+      <c r="F162" s="79"/>
+      <c r="G162" s="59"/>
+      <c r="H162" s="60"/>
       <c r="I162" s="52"/>
     </row>
     <row r="163" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="65"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="67"/>
-      <c r="E163" s="77"/>
-      <c r="F163" s="78"/>
-      <c r="G163" s="58"/>
-      <c r="H163" s="59"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="78"/>
+      <c r="F163" s="79"/>
+      <c r="G163" s="59"/>
+      <c r="H163" s="60"/>
       <c r="I163" s="52"/>
     </row>
     <row r="164" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="65"/>
-      <c r="C164" s="66"/>
-      <c r="D164" s="67"/>
-      <c r="E164" s="77"/>
-      <c r="F164" s="78"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="59"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="78"/>
+      <c r="F164" s="79"/>
+      <c r="G164" s="59"/>
+      <c r="H164" s="60"/>
       <c r="I164" s="52"/>
     </row>
     <row r="165" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="65"/>
-      <c r="C165" s="66"/>
-      <c r="D165" s="67"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="78"/>
-      <c r="G165" s="58"/>
-      <c r="H165" s="59"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="78"/>
+      <c r="F165" s="79"/>
+      <c r="G165" s="59"/>
+      <c r="H165" s="60"/>
       <c r="I165" s="52"/>
     </row>
     <row r="166" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="65"/>
-      <c r="C166" s="66"/>
-      <c r="D166" s="67"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="78"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="59"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="78"/>
+      <c r="F166" s="79"/>
+      <c r="G166" s="59"/>
+      <c r="H166" s="60"/>
       <c r="I166" s="52"/>
     </row>
     <row r="167" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="65"/>
-      <c r="C167" s="66"/>
-      <c r="D167" s="67"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="78"/>
-      <c r="G167" s="58"/>
-      <c r="H167" s="59"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="78"/>
+      <c r="F167" s="79"/>
+      <c r="G167" s="59"/>
+      <c r="H167" s="60"/>
       <c r="I167" s="52"/>
     </row>
     <row r="168" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="65"/>
-      <c r="C168" s="66"/>
-      <c r="D168" s="67"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="78"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="59"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="78"/>
+      <c r="F168" s="79"/>
+      <c r="G168" s="59"/>
+      <c r="H168" s="60"/>
       <c r="I168" s="52"/>
     </row>
     <row r="169" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="65"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="67"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="78"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="59"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="78"/>
+      <c r="F169" s="79"/>
+      <c r="G169" s="59"/>
+      <c r="H169" s="60"/>
       <c r="I169" s="52"/>
     </row>
     <row r="170" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="65"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="67"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="78"/>
-      <c r="G170" s="58"/>
-      <c r="H170" s="59"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="78"/>
+      <c r="F170" s="79"/>
+      <c r="G170" s="59"/>
+      <c r="H170" s="60"/>
       <c r="I170" s="52"/>
     </row>
     <row r="171" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="65"/>
-      <c r="C171" s="66"/>
-      <c r="D171" s="67"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="78"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="59"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="78"/>
+      <c r="F171" s="79"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="60"/>
       <c r="I171" s="52"/>
     </row>
     <row r="172" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="65"/>
-      <c r="C172" s="66"/>
-      <c r="D172" s="67"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="78"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="59"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="78"/>
+      <c r="F172" s="79"/>
+      <c r="G172" s="59"/>
+      <c r="H172" s="60"/>
       <c r="I172" s="52"/>
     </row>
     <row r="173" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="65"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="67"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="78"/>
-      <c r="G173" s="58"/>
-      <c r="H173" s="59"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="78"/>
+      <c r="F173" s="79"/>
+      <c r="G173" s="59"/>
+      <c r="H173" s="60"/>
       <c r="I173" s="52"/>
     </row>
     <row r="174" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="65"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="67"/>
-      <c r="E174" s="77"/>
-      <c r="F174" s="78"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="59"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="67"/>
+      <c r="D174" s="68"/>
+      <c r="E174" s="78"/>
+      <c r="F174" s="79"/>
+      <c r="G174" s="59"/>
+      <c r="H174" s="60"/>
       <c r="I174" s="52"/>
     </row>
     <row r="175" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="65"/>
-      <c r="C175" s="66"/>
-      <c r="D175" s="67"/>
-      <c r="E175" s="77"/>
-      <c r="F175" s="78"/>
-      <c r="G175" s="58"/>
-      <c r="H175" s="59"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="67"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="78"/>
+      <c r="F175" s="79"/>
+      <c r="G175" s="59"/>
+      <c r="H175" s="60"/>
       <c r="I175" s="52"/>
     </row>
     <row r="176" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="65"/>
-      <c r="C176" s="66"/>
-      <c r="D176" s="67"/>
-      <c r="E176" s="77"/>
-      <c r="F176" s="78"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="59"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="67"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="78"/>
+      <c r="F176" s="79"/>
+      <c r="G176" s="59"/>
+      <c r="H176" s="60"/>
       <c r="I176" s="52"/>
     </row>
     <row r="177" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="65"/>
-      <c r="C177" s="66"/>
-      <c r="D177" s="67"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="78"/>
-      <c r="G177" s="58"/>
-      <c r="H177" s="59"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="78"/>
+      <c r="F177" s="79"/>
+      <c r="G177" s="59"/>
+      <c r="H177" s="60"/>
       <c r="I177" s="52"/>
     </row>
     <row r="178" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="65"/>
-      <c r="C178" s="66"/>
-      <c r="D178" s="67"/>
-      <c r="E178" s="77"/>
-      <c r="F178" s="78"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="59"/>
+      <c r="B178" s="66"/>
+      <c r="C178" s="67"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="78"/>
+      <c r="F178" s="79"/>
+      <c r="G178" s="59"/>
+      <c r="H178" s="60"/>
       <c r="I178" s="52"/>
     </row>
     <row r="179" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="65"/>
-      <c r="C179" s="66"/>
-      <c r="D179" s="67"/>
-      <c r="E179" s="77"/>
-      <c r="F179" s="78"/>
-      <c r="G179" s="58"/>
-      <c r="H179" s="59"/>
+      <c r="B179" s="66"/>
+      <c r="C179" s="67"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="78"/>
+      <c r="F179" s="79"/>
+      <c r="G179" s="59"/>
+      <c r="H179" s="60"/>
       <c r="I179" s="52"/>
     </row>
     <row r="180" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="65"/>
-      <c r="C180" s="66"/>
-      <c r="D180" s="67"/>
-      <c r="E180" s="77"/>
-      <c r="F180" s="78"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="59"/>
+      <c r="B180" s="66"/>
+      <c r="C180" s="67"/>
+      <c r="D180" s="68"/>
+      <c r="E180" s="78"/>
+      <c r="F180" s="79"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="60"/>
       <c r="I180" s="52"/>
     </row>
     <row r="181" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="65"/>
-      <c r="C181" s="66"/>
-      <c r="D181" s="67"/>
-      <c r="E181" s="77"/>
-      <c r="F181" s="78"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="59"/>
+      <c r="B181" s="66"/>
+      <c r="C181" s="67"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="78"/>
+      <c r="F181" s="79"/>
+      <c r="G181" s="59"/>
+      <c r="H181" s="60"/>
       <c r="I181" s="52"/>
     </row>
     <row r="182" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="65"/>
-      <c r="C182" s="66"/>
-      <c r="D182" s="67"/>
-      <c r="E182" s="77"/>
-      <c r="F182" s="78"/>
-      <c r="G182" s="58"/>
-      <c r="H182" s="59"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="67"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="78"/>
+      <c r="F182" s="79"/>
+      <c r="G182" s="59"/>
+      <c r="H182" s="60"/>
       <c r="I182" s="52"/>
     </row>
     <row r="183" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="65"/>
-      <c r="C183" s="66"/>
-      <c r="D183" s="67"/>
-      <c r="E183" s="77"/>
-      <c r="F183" s="78"/>
-      <c r="G183" s="58"/>
-      <c r="H183" s="59"/>
+      <c r="B183" s="66"/>
+      <c r="C183" s="67"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="78"/>
+      <c r="F183" s="79"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="60"/>
       <c r="I183" s="52"/>
     </row>
     <row r="184" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="65"/>
-      <c r="C184" s="66"/>
-      <c r="D184" s="67"/>
-      <c r="E184" s="77"/>
-      <c r="F184" s="78"/>
-      <c r="G184" s="58"/>
-      <c r="H184" s="59"/>
+      <c r="B184" s="66"/>
+      <c r="C184" s="67"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="78"/>
+      <c r="F184" s="79"/>
+      <c r="G184" s="59"/>
+      <c r="H184" s="60"/>
       <c r="I184" s="52"/>
     </row>
     <row r="185" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="65"/>
-      <c r="C185" s="66"/>
-      <c r="D185" s="67"/>
-      <c r="E185" s="77"/>
-      <c r="F185" s="78"/>
-      <c r="G185" s="58"/>
-      <c r="H185" s="59"/>
+      <c r="B185" s="66"/>
+      <c r="C185" s="67"/>
+      <c r="D185" s="68"/>
+      <c r="E185" s="78"/>
+      <c r="F185" s="79"/>
+      <c r="G185" s="59"/>
+      <c r="H185" s="60"/>
       <c r="I185" s="52"/>
     </row>
     <row r="186" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="65"/>
-      <c r="C186" s="66"/>
-      <c r="D186" s="67"/>
-      <c r="E186" s="77"/>
-      <c r="F186" s="78"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="59"/>
+      <c r="B186" s="66"/>
+      <c r="C186" s="67"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="78"/>
+      <c r="F186" s="79"/>
+      <c r="G186" s="59"/>
+      <c r="H186" s="60"/>
       <c r="I186" s="52"/>
     </row>
     <row r="187" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="65"/>
-      <c r="C187" s="66"/>
-      <c r="D187" s="67"/>
-      <c r="E187" s="77"/>
-      <c r="F187" s="78"/>
-      <c r="G187" s="58"/>
-      <c r="H187" s="59"/>
+      <c r="B187" s="66"/>
+      <c r="C187" s="67"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="78"/>
+      <c r="F187" s="79"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="60"/>
       <c r="I187" s="52"/>
     </row>
     <row r="188" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="65"/>
-      <c r="C188" s="66"/>
-      <c r="D188" s="67"/>
-      <c r="E188" s="77"/>
-      <c r="F188" s="78"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="59"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="67"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="78"/>
+      <c r="F188" s="79"/>
+      <c r="G188" s="59"/>
+      <c r="H188" s="60"/>
       <c r="I188" s="52"/>
     </row>
     <row r="189" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="65"/>
-      <c r="C189" s="66"/>
-      <c r="D189" s="67"/>
-      <c r="E189" s="77"/>
-      <c r="F189" s="78"/>
-      <c r="G189" s="58"/>
-      <c r="H189" s="59"/>
+      <c r="B189" s="66"/>
+      <c r="C189" s="67"/>
+      <c r="D189" s="68"/>
+      <c r="E189" s="78"/>
+      <c r="F189" s="79"/>
+      <c r="G189" s="59"/>
+      <c r="H189" s="60"/>
       <c r="I189" s="52"/>
     </row>
     <row r="190" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="65"/>
-      <c r="C190" s="66"/>
-      <c r="D190" s="67"/>
-      <c r="E190" s="77"/>
-      <c r="F190" s="78"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="59"/>
+      <c r="B190" s="66"/>
+      <c r="C190" s="67"/>
+      <c r="D190" s="68"/>
+      <c r="E190" s="78"/>
+      <c r="F190" s="79"/>
+      <c r="G190" s="59"/>
+      <c r="H190" s="60"/>
       <c r="I190" s="52"/>
     </row>
     <row r="191" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="65"/>
-      <c r="C191" s="66"/>
-      <c r="D191" s="67"/>
-      <c r="E191" s="77"/>
-      <c r="F191" s="78"/>
-      <c r="G191" s="58"/>
-      <c r="H191" s="59"/>
+      <c r="B191" s="66"/>
+      <c r="C191" s="67"/>
+      <c r="D191" s="68"/>
+      <c r="E191" s="78"/>
+      <c r="F191" s="79"/>
+      <c r="G191" s="59"/>
+      <c r="H191" s="60"/>
       <c r="I191" s="52"/>
     </row>
     <row r="192" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="65"/>
-      <c r="C192" s="66"/>
-      <c r="D192" s="67"/>
-      <c r="E192" s="77"/>
-      <c r="F192" s="78"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="59"/>
+      <c r="B192" s="66"/>
+      <c r="C192" s="67"/>
+      <c r="D192" s="68"/>
+      <c r="E192" s="78"/>
+      <c r="F192" s="79"/>
+      <c r="G192" s="59"/>
+      <c r="H192" s="60"/>
       <c r="I192" s="52"/>
     </row>
     <row r="193" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="65"/>
-      <c r="C193" s="66"/>
-      <c r="D193" s="67"/>
-      <c r="E193" s="77"/>
-      <c r="F193" s="78"/>
-      <c r="G193" s="58"/>
-      <c r="H193" s="59"/>
+      <c r="B193" s="66"/>
+      <c r="C193" s="67"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="78"/>
+      <c r="F193" s="79"/>
+      <c r="G193" s="59"/>
+      <c r="H193" s="60"/>
       <c r="I193" s="52"/>
     </row>
     <row r="194" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="65"/>
-      <c r="C194" s="66"/>
-      <c r="D194" s="67"/>
-      <c r="E194" s="77"/>
-      <c r="F194" s="78"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="59"/>
+      <c r="B194" s="66"/>
+      <c r="C194" s="67"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="78"/>
+      <c r="F194" s="79"/>
+      <c r="G194" s="59"/>
+      <c r="H194" s="60"/>
       <c r="I194" s="52"/>
     </row>
     <row r="195" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="65"/>
-      <c r="C195" s="66"/>
-      <c r="D195" s="67"/>
-      <c r="E195" s="77"/>
-      <c r="F195" s="78"/>
-      <c r="G195" s="58"/>
-      <c r="H195" s="59"/>
+      <c r="B195" s="66"/>
+      <c r="C195" s="67"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="78"/>
+      <c r="F195" s="79"/>
+      <c r="G195" s="59"/>
+      <c r="H195" s="60"/>
       <c r="I195" s="52"/>
     </row>
     <row r="196" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="65"/>
-      <c r="C196" s="66"/>
-      <c r="D196" s="67"/>
-      <c r="E196" s="77"/>
-      <c r="F196" s="78"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="59"/>
+      <c r="B196" s="66"/>
+      <c r="C196" s="67"/>
+      <c r="D196" s="68"/>
+      <c r="E196" s="78"/>
+      <c r="F196" s="79"/>
+      <c r="G196" s="59"/>
+      <c r="H196" s="60"/>
       <c r="I196" s="52"/>
     </row>
     <row r="197" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="65"/>
-      <c r="C197" s="66"/>
-      <c r="D197" s="67"/>
-      <c r="E197" s="77"/>
-      <c r="F197" s="78"/>
-      <c r="G197" s="58"/>
-      <c r="H197" s="59"/>
+      <c r="B197" s="66"/>
+      <c r="C197" s="67"/>
+      <c r="D197" s="68"/>
+      <c r="E197" s="78"/>
+      <c r="F197" s="79"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="60"/>
       <c r="I197" s="52"/>
     </row>
     <row r="198" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="65"/>
-      <c r="C198" s="66"/>
-      <c r="D198" s="67"/>
-      <c r="E198" s="77"/>
-      <c r="F198" s="78"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="59"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="67"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="78"/>
+      <c r="F198" s="79"/>
+      <c r="G198" s="59"/>
+      <c r="H198" s="60"/>
       <c r="I198" s="52"/>
     </row>
     <row r="199" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="65"/>
-      <c r="C199" s="66"/>
-      <c r="D199" s="67"/>
-      <c r="E199" s="77"/>
-      <c r="F199" s="78"/>
-      <c r="G199" s="58"/>
-      <c r="H199" s="59"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="67"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="78"/>
+      <c r="F199" s="79"/>
+      <c r="G199" s="59"/>
+      <c r="H199" s="60"/>
       <c r="I199" s="52"/>
     </row>
     <row r="200" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="65"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="67"/>
-      <c r="E200" s="77"/>
-      <c r="F200" s="78"/>
-      <c r="G200" s="58"/>
-      <c r="H200" s="59"/>
+      <c r="B200" s="66"/>
+      <c r="C200" s="67"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="78"/>
+      <c r="F200" s="79"/>
+      <c r="G200" s="59"/>
+      <c r="H200" s="60"/>
       <c r="I200" s="52"/>
     </row>
     <row r="201" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="65"/>
-      <c r="C201" s="66"/>
-      <c r="D201" s="67"/>
-      <c r="E201" s="77"/>
-      <c r="F201" s="78"/>
-      <c r="G201" s="58"/>
-      <c r="H201" s="59"/>
+      <c r="B201" s="66"/>
+      <c r="C201" s="67"/>
+      <c r="D201" s="68"/>
+      <c r="E201" s="78"/>
+      <c r="F201" s="79"/>
+      <c r="G201" s="59"/>
+      <c r="H201" s="60"/>
       <c r="I201" s="52"/>
     </row>
     <row r="202" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="65"/>
-      <c r="C202" s="66"/>
-      <c r="D202" s="67"/>
-      <c r="E202" s="77"/>
-      <c r="F202" s="78"/>
-      <c r="G202" s="58"/>
-      <c r="H202" s="59"/>
+      <c r="B202" s="66"/>
+      <c r="C202" s="67"/>
+      <c r="D202" s="68"/>
+      <c r="E202" s="78"/>
+      <c r="F202" s="79"/>
+      <c r="G202" s="59"/>
+      <c r="H202" s="60"/>
       <c r="I202" s="52"/>
     </row>
     <row r="203" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="65"/>
-      <c r="C203" s="66"/>
-      <c r="D203" s="67"/>
-      <c r="E203" s="77"/>
-      <c r="F203" s="78"/>
-      <c r="G203" s="58"/>
-      <c r="H203" s="59"/>
+      <c r="B203" s="66"/>
+      <c r="C203" s="67"/>
+      <c r="D203" s="68"/>
+      <c r="E203" s="78"/>
+      <c r="F203" s="79"/>
+      <c r="G203" s="59"/>
+      <c r="H203" s="60"/>
       <c r="I203" s="52"/>
     </row>
     <row r="204" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="65"/>
-      <c r="C204" s="66"/>
-      <c r="D204" s="67"/>
-      <c r="E204" s="77"/>
-      <c r="F204" s="78"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="59"/>
+      <c r="B204" s="66"/>
+      <c r="C204" s="67"/>
+      <c r="D204" s="68"/>
+      <c r="E204" s="78"/>
+      <c r="F204" s="79"/>
+      <c r="G204" s="59"/>
+      <c r="H204" s="60"/>
       <c r="I204" s="52"/>
     </row>
     <row r="205" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="65"/>
-      <c r="C205" s="66"/>
-      <c r="D205" s="67"/>
-      <c r="E205" s="77"/>
-      <c r="F205" s="78"/>
-      <c r="G205" s="58"/>
-      <c r="H205" s="59"/>
+      <c r="B205" s="66"/>
+      <c r="C205" s="67"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="78"/>
+      <c r="F205" s="79"/>
+      <c r="G205" s="59"/>
+      <c r="H205" s="60"/>
       <c r="I205" s="52"/>
     </row>
     <row r="206" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="65"/>
-      <c r="C206" s="66"/>
-      <c r="D206" s="67"/>
-      <c r="E206" s="77"/>
-      <c r="F206" s="78"/>
-      <c r="G206" s="58"/>
-      <c r="H206" s="59"/>
+      <c r="B206" s="66"/>
+      <c r="C206" s="67"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="78"/>
+      <c r="F206" s="79"/>
+      <c r="G206" s="59"/>
+      <c r="H206" s="60"/>
       <c r="I206" s="52"/>
     </row>
     <row r="207" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="65"/>
-      <c r="C207" s="66"/>
-      <c r="D207" s="67"/>
-      <c r="E207" s="77"/>
-      <c r="F207" s="78"/>
-      <c r="G207" s="58"/>
-      <c r="H207" s="59"/>
+      <c r="B207" s="66"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="78"/>
+      <c r="F207" s="79"/>
+      <c r="G207" s="59"/>
+      <c r="H207" s="60"/>
       <c r="I207" s="52"/>
     </row>
     <row r="208" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="65"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="67"/>
-      <c r="E208" s="77"/>
-      <c r="F208" s="78"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="59"/>
+      <c r="B208" s="66"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="78"/>
+      <c r="F208" s="79"/>
+      <c r="G208" s="59"/>
+      <c r="H208" s="60"/>
       <c r="I208" s="52"/>
     </row>
     <row r="209" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="65"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="67"/>
-      <c r="E209" s="77"/>
-      <c r="F209" s="78"/>
-      <c r="G209" s="58"/>
-      <c r="H209" s="59"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="67"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="78"/>
+      <c r="F209" s="79"/>
+      <c r="G209" s="59"/>
+      <c r="H209" s="60"/>
       <c r="I209" s="52"/>
     </row>
     <row r="210" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="65"/>
-      <c r="C210" s="66"/>
-      <c r="D210" s="67"/>
-      <c r="E210" s="77"/>
-      <c r="F210" s="78"/>
-      <c r="G210" s="58"/>
-      <c r="H210" s="59"/>
+      <c r="B210" s="66"/>
+      <c r="C210" s="67"/>
+      <c r="D210" s="68"/>
+      <c r="E210" s="78"/>
+      <c r="F210" s="79"/>
+      <c r="G210" s="59"/>
+      <c r="H210" s="60"/>
       <c r="I210" s="52"/>
     </row>
     <row r="211" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="65"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="67"/>
-      <c r="E211" s="77"/>
-      <c r="F211" s="78"/>
-      <c r="G211" s="58"/>
-      <c r="H211" s="59"/>
+      <c r="B211" s="66"/>
+      <c r="C211" s="67"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="78"/>
+      <c r="F211" s="79"/>
+      <c r="G211" s="59"/>
+      <c r="H211" s="60"/>
       <c r="I211" s="52"/>
     </row>
     <row r="212" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="65"/>
-      <c r="C212" s="66"/>
-      <c r="D212" s="67"/>
-      <c r="E212" s="77"/>
-      <c r="F212" s="78"/>
-      <c r="G212" s="58"/>
-      <c r="H212" s="59"/>
+      <c r="B212" s="66"/>
+      <c r="C212" s="67"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="78"/>
+      <c r="F212" s="79"/>
+      <c r="G212" s="59"/>
+      <c r="H212" s="60"/>
       <c r="I212" s="52"/>
     </row>
     <row r="213" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="65"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="67"/>
-      <c r="E213" s="77"/>
-      <c r="F213" s="78"/>
-      <c r="G213" s="58"/>
-      <c r="H213" s="59"/>
+      <c r="B213" s="66"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="78"/>
+      <c r="F213" s="79"/>
+      <c r="G213" s="59"/>
+      <c r="H213" s="60"/>
       <c r="I213" s="52"/>
     </row>
     <row r="214" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="65"/>
-      <c r="C214" s="66"/>
-      <c r="D214" s="67"/>
-      <c r="E214" s="77"/>
-      <c r="F214" s="78"/>
-      <c r="G214" s="58"/>
-      <c r="H214" s="59"/>
+      <c r="B214" s="66"/>
+      <c r="C214" s="67"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="78"/>
+      <c r="F214" s="79"/>
+      <c r="G214" s="59"/>
+      <c r="H214" s="60"/>
       <c r="I214" s="52"/>
     </row>
     <row r="215" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="65"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="67"/>
-      <c r="E215" s="77"/>
-      <c r="F215" s="78"/>
-      <c r="G215" s="58"/>
-      <c r="H215" s="59"/>
+      <c r="B215" s="66"/>
+      <c r="C215" s="67"/>
+      <c r="D215" s="68"/>
+      <c r="E215" s="78"/>
+      <c r="F215" s="79"/>
+      <c r="G215" s="59"/>
+      <c r="H215" s="60"/>
       <c r="I215" s="52"/>
     </row>
     <row r="216" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="65"/>
-      <c r="C216" s="66"/>
-      <c r="D216" s="67"/>
-      <c r="E216" s="77"/>
-      <c r="F216" s="78"/>
-      <c r="G216" s="58"/>
-      <c r="H216" s="59"/>
+      <c r="B216" s="66"/>
+      <c r="C216" s="67"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="78"/>
+      <c r="F216" s="79"/>
+      <c r="G216" s="59"/>
+      <c r="H216" s="60"/>
       <c r="I216" s="52"/>
     </row>
     <row r="217" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="65"/>
-      <c r="C217" s="66"/>
-      <c r="D217" s="67"/>
-      <c r="E217" s="77"/>
-      <c r="F217" s="78"/>
-      <c r="G217" s="58"/>
-      <c r="H217" s="59"/>
+      <c r="B217" s="66"/>
+      <c r="C217" s="67"/>
+      <c r="D217" s="68"/>
+      <c r="E217" s="78"/>
+      <c r="F217" s="79"/>
+      <c r="G217" s="59"/>
+      <c r="H217" s="60"/>
       <c r="I217" s="52"/>
     </row>
     <row r="218" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="65"/>
-      <c r="C218" s="66"/>
-      <c r="D218" s="67"/>
-      <c r="E218" s="77"/>
-      <c r="F218" s="78"/>
-      <c r="G218" s="58"/>
-      <c r="H218" s="59"/>
+      <c r="B218" s="66"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="78"/>
+      <c r="F218" s="79"/>
+      <c r="G218" s="59"/>
+      <c r="H218" s="60"/>
       <c r="I218" s="52"/>
     </row>
     <row r="219" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="65"/>
-      <c r="C219" s="66"/>
-      <c r="D219" s="67"/>
-      <c r="E219" s="77"/>
-      <c r="F219" s="78"/>
-      <c r="G219" s="58"/>
-      <c r="H219" s="59"/>
+      <c r="B219" s="66"/>
+      <c r="C219" s="67"/>
+      <c r="D219" s="68"/>
+      <c r="E219" s="78"/>
+      <c r="F219" s="79"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="60"/>
       <c r="I219" s="52"/>
     </row>
     <row r="220" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="65"/>
-      <c r="C220" s="66"/>
-      <c r="D220" s="67"/>
-      <c r="E220" s="77"/>
-      <c r="F220" s="78"/>
-      <c r="G220" s="58"/>
-      <c r="H220" s="59"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="67"/>
+      <c r="D220" s="68"/>
+      <c r="E220" s="78"/>
+      <c r="F220" s="79"/>
+      <c r="G220" s="59"/>
+      <c r="H220" s="60"/>
       <c r="I220" s="52"/>
     </row>
     <row r="221" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="65"/>
-      <c r="C221" s="66"/>
-      <c r="D221" s="67"/>
-      <c r="E221" s="77"/>
-      <c r="F221" s="78"/>
-      <c r="G221" s="58"/>
-      <c r="H221" s="59"/>
+      <c r="B221" s="66"/>
+      <c r="C221" s="67"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="78"/>
+      <c r="F221" s="79"/>
+      <c r="G221" s="59"/>
+      <c r="H221" s="60"/>
       <c r="I221" s="52"/>
     </row>
     <row r="222" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="65"/>
-      <c r="C222" s="66"/>
-      <c r="D222" s="67"/>
-      <c r="E222" s="77"/>
-      <c r="F222" s="78"/>
-      <c r="G222" s="58"/>
-      <c r="H222" s="59"/>
+      <c r="B222" s="66"/>
+      <c r="C222" s="67"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="78"/>
+      <c r="F222" s="79"/>
+      <c r="G222" s="59"/>
+      <c r="H222" s="60"/>
       <c r="I222" s="52"/>
     </row>
     <row r="223" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="65"/>
-      <c r="C223" s="66"/>
-      <c r="D223" s="67"/>
-      <c r="E223" s="77"/>
-      <c r="F223" s="78"/>
-      <c r="G223" s="58"/>
-      <c r="H223" s="59"/>
+      <c r="B223" s="66"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="68"/>
+      <c r="E223" s="78"/>
+      <c r="F223" s="79"/>
+      <c r="G223" s="59"/>
+      <c r="H223" s="60"/>
       <c r="I223" s="52"/>
     </row>
     <row r="224" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="65"/>
-      <c r="C224" s="66"/>
-      <c r="D224" s="67"/>
-      <c r="E224" s="77"/>
-      <c r="F224" s="78"/>
-      <c r="G224" s="58"/>
-      <c r="H224" s="59"/>
+      <c r="B224" s="66"/>
+      <c r="C224" s="67"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="78"/>
+      <c r="F224" s="79"/>
+      <c r="G224" s="59"/>
+      <c r="H224" s="60"/>
       <c r="I224" s="52"/>
     </row>
     <row r="225" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="65"/>
-      <c r="C225" s="66"/>
-      <c r="D225" s="67"/>
-      <c r="E225" s="77"/>
-      <c r="F225" s="78"/>
-      <c r="G225" s="58"/>
-      <c r="H225" s="59"/>
+      <c r="B225" s="66"/>
+      <c r="C225" s="67"/>
+      <c r="D225" s="68"/>
+      <c r="E225" s="78"/>
+      <c r="F225" s="79"/>
+      <c r="G225" s="59"/>
+      <c r="H225" s="60"/>
       <c r="I225" s="52"/>
     </row>
     <row r="226" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="65"/>
-      <c r="C226" s="66"/>
-      <c r="D226" s="67"/>
-      <c r="E226" s="77"/>
-      <c r="F226" s="78"/>
-      <c r="G226" s="58"/>
-      <c r="H226" s="59"/>
+      <c r="B226" s="66"/>
+      <c r="C226" s="67"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="78"/>
+      <c r="F226" s="79"/>
+      <c r="G226" s="59"/>
+      <c r="H226" s="60"/>
       <c r="I226" s="52"/>
     </row>
     <row r="227" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="65"/>
-      <c r="C227" s="66"/>
-      <c r="D227" s="67"/>
-      <c r="E227" s="77"/>
-      <c r="F227" s="78"/>
-      <c r="G227" s="58"/>
-      <c r="H227" s="59"/>
+      <c r="B227" s="66"/>
+      <c r="C227" s="67"/>
+      <c r="D227" s="68"/>
+      <c r="E227" s="78"/>
+      <c r="F227" s="79"/>
+      <c r="G227" s="59"/>
+      <c r="H227" s="60"/>
       <c r="I227" s="52"/>
     </row>
     <row r="228" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="65"/>
-      <c r="C228" s="66"/>
-      <c r="D228" s="67"/>
-      <c r="E228" s="77"/>
-      <c r="F228" s="78"/>
-      <c r="G228" s="58"/>
-      <c r="H228" s="59"/>
+      <c r="B228" s="66"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="78"/>
+      <c r="F228" s="79"/>
+      <c r="G228" s="59"/>
+      <c r="H228" s="60"/>
       <c r="I228" s="52"/>
     </row>
     <row r="229" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="65"/>
-      <c r="C229" s="66"/>
-      <c r="D229" s="67"/>
-      <c r="E229" s="77"/>
-      <c r="F229" s="78"/>
-      <c r="G229" s="58"/>
-      <c r="H229" s="59"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="67"/>
+      <c r="D229" s="68"/>
+      <c r="E229" s="78"/>
+      <c r="F229" s="79"/>
+      <c r="G229" s="59"/>
+      <c r="H229" s="60"/>
       <c r="I229" s="52"/>
     </row>
     <row r="230" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="65"/>
-      <c r="C230" s="66"/>
-      <c r="D230" s="67"/>
-      <c r="E230" s="77"/>
-      <c r="F230" s="78"/>
-      <c r="G230" s="58"/>
-      <c r="H230" s="59"/>
+      <c r="B230" s="66"/>
+      <c r="C230" s="67"/>
+      <c r="D230" s="68"/>
+      <c r="E230" s="78"/>
+      <c r="F230" s="79"/>
+      <c r="G230" s="59"/>
+      <c r="H230" s="60"/>
       <c r="I230" s="52"/>
     </row>
     <row r="231" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="65"/>
-      <c r="C231" s="66"/>
-      <c r="D231" s="67"/>
-      <c r="E231" s="77"/>
-      <c r="F231" s="78"/>
-      <c r="G231" s="58"/>
-      <c r="H231" s="59"/>
+      <c r="B231" s="66"/>
+      <c r="C231" s="67"/>
+      <c r="D231" s="68"/>
+      <c r="E231" s="78"/>
+      <c r="F231" s="79"/>
+      <c r="G231" s="59"/>
+      <c r="H231" s="60"/>
       <c r="I231" s="52"/>
     </row>
     <row r="232" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="65"/>
-      <c r="C232" s="66"/>
-      <c r="D232" s="67"/>
-      <c r="E232" s="77"/>
-      <c r="F232" s="78"/>
-      <c r="G232" s="58"/>
-      <c r="H232" s="59"/>
+      <c r="B232" s="66"/>
+      <c r="C232" s="67"/>
+      <c r="D232" s="68"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="79"/>
+      <c r="G232" s="59"/>
+      <c r="H232" s="60"/>
       <c r="I232" s="52"/>
     </row>
     <row r="233" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="65"/>
-      <c r="C233" s="66"/>
-      <c r="D233" s="67"/>
-      <c r="E233" s="77"/>
-      <c r="F233" s="78"/>
-      <c r="G233" s="58"/>
-      <c r="H233" s="59"/>
+      <c r="B233" s="66"/>
+      <c r="C233" s="67"/>
+      <c r="D233" s="68"/>
+      <c r="E233" s="78"/>
+      <c r="F233" s="79"/>
+      <c r="G233" s="59"/>
+      <c r="H233" s="60"/>
       <c r="I233" s="52"/>
     </row>
     <row r="234" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="65"/>
-      <c r="C234" s="66"/>
-      <c r="D234" s="67"/>
-      <c r="E234" s="77"/>
-      <c r="F234" s="78"/>
-      <c r="G234" s="58"/>
-      <c r="H234" s="59"/>
+      <c r="B234" s="66"/>
+      <c r="C234" s="67"/>
+      <c r="D234" s="68"/>
+      <c r="E234" s="78"/>
+      <c r="F234" s="79"/>
+      <c r="G234" s="59"/>
+      <c r="H234" s="60"/>
       <c r="I234" s="52"/>
     </row>
     <row r="235" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="65"/>
-      <c r="C235" s="66"/>
-      <c r="D235" s="67"/>
-      <c r="E235" s="77"/>
-      <c r="F235" s="78"/>
-      <c r="G235" s="58"/>
-      <c r="H235" s="59"/>
+      <c r="B235" s="66"/>
+      <c r="C235" s="67"/>
+      <c r="D235" s="68"/>
+      <c r="E235" s="78"/>
+      <c r="F235" s="79"/>
+      <c r="G235" s="59"/>
+      <c r="H235" s="60"/>
       <c r="I235" s="52"/>
     </row>
     <row r="236" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="65"/>
-      <c r="C236" s="66"/>
-      <c r="D236" s="67"/>
-      <c r="E236" s="77"/>
-      <c r="F236" s="78"/>
-      <c r="G236" s="58"/>
-      <c r="H236" s="59"/>
+      <c r="B236" s="66"/>
+      <c r="C236" s="67"/>
+      <c r="D236" s="68"/>
+      <c r="E236" s="78"/>
+      <c r="F236" s="79"/>
+      <c r="G236" s="59"/>
+      <c r="H236" s="60"/>
       <c r="I236" s="52"/>
     </row>
     <row r="237" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="65"/>
-      <c r="C237" s="66"/>
-      <c r="D237" s="67"/>
-      <c r="E237" s="77"/>
-      <c r="F237" s="78"/>
-      <c r="G237" s="58"/>
-      <c r="H237" s="59"/>
+      <c r="B237" s="66"/>
+      <c r="C237" s="67"/>
+      <c r="D237" s="68"/>
+      <c r="E237" s="78"/>
+      <c r="F237" s="79"/>
+      <c r="G237" s="59"/>
+      <c r="H237" s="60"/>
       <c r="I237" s="52"/>
     </row>
     <row r="238" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="65"/>
-      <c r="C238" s="66"/>
-      <c r="D238" s="67"/>
-      <c r="E238" s="77"/>
-      <c r="F238" s="78"/>
-      <c r="G238" s="58"/>
-      <c r="H238" s="59"/>
+      <c r="B238" s="66"/>
+      <c r="C238" s="67"/>
+      <c r="D238" s="68"/>
+      <c r="E238" s="78"/>
+      <c r="F238" s="79"/>
+      <c r="G238" s="59"/>
+      <c r="H238" s="60"/>
       <c r="I238" s="52"/>
     </row>
     <row r="239" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="65"/>
-      <c r="C239" s="66"/>
-      <c r="D239" s="67"/>
-      <c r="E239" s="77"/>
-      <c r="F239" s="78"/>
-      <c r="G239" s="58"/>
-      <c r="H239" s="59"/>
+      <c r="B239" s="66"/>
+      <c r="C239" s="67"/>
+      <c r="D239" s="68"/>
+      <c r="E239" s="78"/>
+      <c r="F239" s="79"/>
+      <c r="G239" s="59"/>
+      <c r="H239" s="60"/>
       <c r="I239" s="52"/>
     </row>
     <row r="240" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="65"/>
-      <c r="C240" s="66"/>
-      <c r="D240" s="67"/>
-      <c r="E240" s="77"/>
-      <c r="F240" s="78"/>
-      <c r="G240" s="58"/>
-      <c r="H240" s="59"/>
+      <c r="B240" s="66"/>
+      <c r="C240" s="67"/>
+      <c r="D240" s="68"/>
+      <c r="E240" s="78"/>
+      <c r="F240" s="79"/>
+      <c r="G240" s="59"/>
+      <c r="H240" s="60"/>
       <c r="I240" s="52"/>
     </row>
     <row r="241" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="65"/>
-      <c r="C241" s="66"/>
-      <c r="D241" s="67"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="78"/>
-      <c r="G241" s="58"/>
-      <c r="H241" s="59"/>
+      <c r="B241" s="66"/>
+      <c r="C241" s="67"/>
+      <c r="D241" s="68"/>
+      <c r="E241" s="78"/>
+      <c r="F241" s="79"/>
+      <c r="G241" s="59"/>
+      <c r="H241" s="60"/>
       <c r="I241" s="52"/>
     </row>
     <row r="242" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="65"/>
-      <c r="C242" s="66"/>
-      <c r="D242" s="67"/>
-      <c r="E242" s="77"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="58"/>
-      <c r="H242" s="59"/>
+      <c r="B242" s="66"/>
+      <c r="C242" s="67"/>
+      <c r="D242" s="68"/>
+      <c r="E242" s="78"/>
+      <c r="F242" s="79"/>
+      <c r="G242" s="59"/>
+      <c r="H242" s="60"/>
       <c r="I242" s="52"/>
     </row>
     <row r="243" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="65"/>
-      <c r="C243" s="66"/>
-      <c r="D243" s="67"/>
-      <c r="E243" s="77"/>
-      <c r="F243" s="78"/>
-      <c r="G243" s="58"/>
-      <c r="H243" s="59"/>
+      <c r="B243" s="66"/>
+      <c r="C243" s="67"/>
+      <c r="D243" s="68"/>
+      <c r="E243" s="78"/>
+      <c r="F243" s="79"/>
+      <c r="G243" s="59"/>
+      <c r="H243" s="60"/>
       <c r="I243" s="52"/>
     </row>
     <row r="244" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="65"/>
-      <c r="C244" s="66"/>
-      <c r="D244" s="67"/>
-      <c r="E244" s="77"/>
-      <c r="F244" s="78"/>
-      <c r="G244" s="58"/>
-      <c r="H244" s="59"/>
+      <c r="B244" s="66"/>
+      <c r="C244" s="67"/>
+      <c r="D244" s="68"/>
+      <c r="E244" s="78"/>
+      <c r="F244" s="79"/>
+      <c r="G244" s="59"/>
+      <c r="H244" s="60"/>
       <c r="I244" s="52"/>
     </row>
     <row r="245" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="65"/>
-      <c r="C245" s="66"/>
-      <c r="D245" s="67"/>
-      <c r="E245" s="77"/>
-      <c r="F245" s="78"/>
-      <c r="G245" s="58"/>
-      <c r="H245" s="59"/>
+      <c r="B245" s="66"/>
+      <c r="C245" s="67"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="78"/>
+      <c r="F245" s="79"/>
+      <c r="G245" s="59"/>
+      <c r="H245" s="60"/>
       <c r="I245" s="52"/>
     </row>
     <row r="246" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="65"/>
-      <c r="C246" s="66"/>
-      <c r="D246" s="67"/>
-      <c r="E246" s="77"/>
-      <c r="F246" s="78"/>
-      <c r="G246" s="58"/>
-      <c r="H246" s="59"/>
+      <c r="B246" s="66"/>
+      <c r="C246" s="67"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="78"/>
+      <c r="F246" s="79"/>
+      <c r="G246" s="59"/>
+      <c r="H246" s="60"/>
       <c r="I246" s="52"/>
     </row>
     <row r="247" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="65"/>
-      <c r="C247" s="66"/>
-      <c r="D247" s="67"/>
-      <c r="E247" s="77"/>
-      <c r="F247" s="78"/>
-      <c r="G247" s="58"/>
-      <c r="H247" s="59"/>
+      <c r="B247" s="66"/>
+      <c r="C247" s="67"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="78"/>
+      <c r="F247" s="79"/>
+      <c r="G247" s="59"/>
+      <c r="H247" s="60"/>
       <c r="I247" s="52"/>
     </row>
     <row r="248" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="65"/>
-      <c r="C248" s="66"/>
-      <c r="D248" s="67"/>
-      <c r="E248" s="77"/>
-      <c r="F248" s="78"/>
-      <c r="G248" s="58"/>
-      <c r="H248" s="59"/>
+      <c r="B248" s="66"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="68"/>
+      <c r="E248" s="78"/>
+      <c r="F248" s="79"/>
+      <c r="G248" s="59"/>
+      <c r="H248" s="60"/>
       <c r="I248" s="52"/>
     </row>
     <row r="249" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="65"/>
-      <c r="C249" s="66"/>
-      <c r="D249" s="67"/>
-      <c r="E249" s="77"/>
-      <c r="F249" s="78"/>
-      <c r="G249" s="58"/>
-      <c r="H249" s="59"/>
+      <c r="B249" s="66"/>
+      <c r="C249" s="67"/>
+      <c r="D249" s="68"/>
+      <c r="E249" s="78"/>
+      <c r="F249" s="79"/>
+      <c r="G249" s="59"/>
+      <c r="H249" s="60"/>
       <c r="I249" s="52"/>
     </row>
     <row r="250" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="65"/>
-      <c r="C250" s="66"/>
-      <c r="D250" s="67"/>
-      <c r="E250" s="77"/>
-      <c r="F250" s="78"/>
-      <c r="G250" s="58"/>
-      <c r="H250" s="59"/>
+      <c r="B250" s="66"/>
+      <c r="C250" s="67"/>
+      <c r="D250" s="68"/>
+      <c r="E250" s="78"/>
+      <c r="F250" s="79"/>
+      <c r="G250" s="59"/>
+      <c r="H250" s="60"/>
       <c r="I250" s="52"/>
     </row>
     <row r="251" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="65"/>
-      <c r="C251" s="66"/>
-      <c r="D251" s="67"/>
-      <c r="E251" s="77"/>
-      <c r="F251" s="78"/>
-      <c r="G251" s="58"/>
-      <c r="H251" s="59"/>
+      <c r="B251" s="66"/>
+      <c r="C251" s="67"/>
+      <c r="D251" s="68"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="79"/>
+      <c r="G251" s="59"/>
+      <c r="H251" s="60"/>
       <c r="I251" s="52"/>
     </row>
     <row r="252" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="65"/>
-      <c r="C252" s="66"/>
-      <c r="D252" s="67"/>
-      <c r="E252" s="77"/>
-      <c r="F252" s="78"/>
-      <c r="G252" s="58"/>
-      <c r="H252" s="59"/>
+      <c r="B252" s="66"/>
+      <c r="C252" s="67"/>
+      <c r="D252" s="68"/>
+      <c r="E252" s="78"/>
+      <c r="F252" s="79"/>
+      <c r="G252" s="59"/>
+      <c r="H252" s="60"/>
       <c r="I252" s="52"/>
     </row>
     <row r="253" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="65"/>
-      <c r="C253" s="66"/>
-      <c r="D253" s="67"/>
-      <c r="E253" s="77"/>
-      <c r="F253" s="78"/>
-      <c r="G253" s="58"/>
-      <c r="H253" s="59"/>
+      <c r="B253" s="66"/>
+      <c r="C253" s="67"/>
+      <c r="D253" s="68"/>
+      <c r="E253" s="78"/>
+      <c r="F253" s="79"/>
+      <c r="G253" s="59"/>
+      <c r="H253" s="60"/>
       <c r="I253" s="52"/>
     </row>
     <row r="254" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="65"/>
-      <c r="C254" s="66"/>
-      <c r="D254" s="67"/>
-      <c r="E254" s="77"/>
-      <c r="F254" s="78"/>
-      <c r="G254" s="58"/>
-      <c r="H254" s="59"/>
+      <c r="B254" s="66"/>
+      <c r="C254" s="67"/>
+      <c r="D254" s="68"/>
+      <c r="E254" s="78"/>
+      <c r="F254" s="79"/>
+      <c r="G254" s="59"/>
+      <c r="H254" s="60"/>
       <c r="I254" s="52"/>
     </row>
     <row r="255" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="65"/>
-      <c r="C255" s="66"/>
-      <c r="D255" s="67"/>
-      <c r="E255" s="77"/>
-      <c r="F255" s="78"/>
-      <c r="G255" s="58"/>
-      <c r="H255" s="59"/>
+      <c r="B255" s="66"/>
+      <c r="C255" s="67"/>
+      <c r="D255" s="68"/>
+      <c r="E255" s="78"/>
+      <c r="F255" s="79"/>
+      <c r="G255" s="59"/>
+      <c r="H255" s="60"/>
       <c r="I255" s="52"/>
     </row>
     <row r="256" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="65"/>
-      <c r="C256" s="66"/>
-      <c r="D256" s="67"/>
-      <c r="E256" s="77"/>
-      <c r="F256" s="78"/>
-      <c r="G256" s="58"/>
-      <c r="H256" s="59"/>
+      <c r="B256" s="66"/>
+      <c r="C256" s="67"/>
+      <c r="D256" s="68"/>
+      <c r="E256" s="78"/>
+      <c r="F256" s="79"/>
+      <c r="G256" s="59"/>
+      <c r="H256" s="60"/>
       <c r="I256" s="52"/>
     </row>
     <row r="257" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B257" s="65"/>
-      <c r="C257" s="66"/>
-      <c r="D257" s="67"/>
-      <c r="E257" s="77"/>
-      <c r="F257" s="78"/>
-      <c r="G257" s="58"/>
-      <c r="H257" s="59"/>
+      <c r="B257" s="66"/>
+      <c r="C257" s="67"/>
+      <c r="D257" s="68"/>
+      <c r="E257" s="78"/>
+      <c r="F257" s="79"/>
+      <c r="G257" s="59"/>
+      <c r="H257" s="60"/>
       <c r="I257" s="52"/>
     </row>
     <row r="258" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="65"/>
-      <c r="C258" s="66"/>
-      <c r="D258" s="67"/>
-      <c r="E258" s="77"/>
-      <c r="F258" s="78"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="59"/>
+      <c r="B258" s="66"/>
+      <c r="C258" s="67"/>
+      <c r="D258" s="68"/>
+      <c r="E258" s="78"/>
+      <c r="F258" s="79"/>
+      <c r="G258" s="59"/>
+      <c r="H258" s="60"/>
       <c r="I258" s="52"/>
     </row>
     <row r="259" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="65"/>
-      <c r="C259" s="66"/>
-      <c r="D259" s="67"/>
-      <c r="E259" s="77"/>
-      <c r="F259" s="78"/>
-      <c r="G259" s="58"/>
-      <c r="H259" s="59"/>
+      <c r="B259" s="66"/>
+      <c r="C259" s="67"/>
+      <c r="D259" s="68"/>
+      <c r="E259" s="78"/>
+      <c r="F259" s="79"/>
+      <c r="G259" s="59"/>
+      <c r="H259" s="60"/>
       <c r="I259" s="52"/>
     </row>
     <row r="260" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="65"/>
-      <c r="C260" s="66"/>
-      <c r="D260" s="67"/>
-      <c r="E260" s="77"/>
-      <c r="F260" s="78"/>
-      <c r="G260" s="58"/>
-      <c r="H260" s="59"/>
+      <c r="B260" s="66"/>
+      <c r="C260" s="67"/>
+      <c r="D260" s="68"/>
+      <c r="E260" s="78"/>
+      <c r="F260" s="79"/>
+      <c r="G260" s="59"/>
+      <c r="H260" s="60"/>
       <c r="I260" s="52"/>
     </row>
     <row r="261" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="65"/>
-      <c r="C261" s="66"/>
-      <c r="D261" s="67"/>
-      <c r="E261" s="77"/>
-      <c r="F261" s="78"/>
-      <c r="G261" s="58"/>
-      <c r="H261" s="59"/>
+      <c r="B261" s="66"/>
+      <c r="C261" s="67"/>
+      <c r="D261" s="68"/>
+      <c r="E261" s="78"/>
+      <c r="F261" s="79"/>
+      <c r="G261" s="59"/>
+      <c r="H261" s="60"/>
       <c r="I261" s="52"/>
     </row>
     <row r="262" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="65"/>
-      <c r="C262" s="66"/>
-      <c r="D262" s="67"/>
-      <c r="E262" s="77"/>
-      <c r="F262" s="78"/>
-      <c r="G262" s="58"/>
-      <c r="H262" s="59"/>
+      <c r="B262" s="66"/>
+      <c r="C262" s="67"/>
+      <c r="D262" s="68"/>
+      <c r="E262" s="78"/>
+      <c r="F262" s="79"/>
+      <c r="G262" s="59"/>
+      <c r="H262" s="60"/>
       <c r="I262" s="52"/>
     </row>
     <row r="263" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="65"/>
-      <c r="C263" s="66"/>
-      <c r="D263" s="67"/>
-      <c r="E263" s="77"/>
-      <c r="F263" s="78"/>
-      <c r="G263" s="58"/>
-      <c r="H263" s="59"/>
+      <c r="B263" s="66"/>
+      <c r="C263" s="67"/>
+      <c r="D263" s="68"/>
+      <c r="E263" s="78"/>
+      <c r="F263" s="79"/>
+      <c r="G263" s="59"/>
+      <c r="H263" s="60"/>
       <c r="I263" s="52"/>
     </row>
     <row r="264" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="65"/>
-      <c r="C264" s="66"/>
-      <c r="D264" s="67"/>
-      <c r="E264" s="77"/>
-      <c r="F264" s="78"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="59"/>
+      <c r="B264" s="66"/>
+      <c r="C264" s="67"/>
+      <c r="D264" s="68"/>
+      <c r="E264" s="78"/>
+      <c r="F264" s="79"/>
+      <c r="G264" s="59"/>
+      <c r="H264" s="60"/>
       <c r="I264" s="52"/>
     </row>
     <row r="265" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="65"/>
-      <c r="C265" s="66"/>
-      <c r="D265" s="67"/>
-      <c r="E265" s="77"/>
-      <c r="F265" s="78"/>
-      <c r="G265" s="58"/>
-      <c r="H265" s="59"/>
+      <c r="B265" s="66"/>
+      <c r="C265" s="67"/>
+      <c r="D265" s="68"/>
+      <c r="E265" s="78"/>
+      <c r="F265" s="79"/>
+      <c r="G265" s="59"/>
+      <c r="H265" s="60"/>
       <c r="I265" s="52"/>
     </row>
     <row r="266" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="65"/>
-      <c r="C266" s="66"/>
-      <c r="D266" s="67"/>
-      <c r="E266" s="77"/>
-      <c r="F266" s="78"/>
-      <c r="G266" s="58"/>
-      <c r="H266" s="59"/>
+      <c r="B266" s="66"/>
+      <c r="C266" s="67"/>
+      <c r="D266" s="68"/>
+      <c r="E266" s="78"/>
+      <c r="F266" s="79"/>
+      <c r="G266" s="59"/>
+      <c r="H266" s="60"/>
       <c r="I266" s="52"/>
     </row>
     <row r="267" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="65"/>
-      <c r="C267" s="66"/>
-      <c r="D267" s="67"/>
-      <c r="E267" s="77"/>
-      <c r="F267" s="78"/>
-      <c r="G267" s="58"/>
-      <c r="H267" s="59"/>
+      <c r="B267" s="66"/>
+      <c r="C267" s="67"/>
+      <c r="D267" s="68"/>
+      <c r="E267" s="78"/>
+      <c r="F267" s="79"/>
+      <c r="G267" s="59"/>
+      <c r="H267" s="60"/>
       <c r="I267" s="52"/>
     </row>
     <row r="268" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="65"/>
-      <c r="C268" s="66"/>
-      <c r="D268" s="67"/>
-      <c r="E268" s="77"/>
-      <c r="F268" s="78"/>
-      <c r="G268" s="58"/>
-      <c r="H268" s="59"/>
+      <c r="B268" s="66"/>
+      <c r="C268" s="67"/>
+      <c r="D268" s="68"/>
+      <c r="E268" s="78"/>
+      <c r="F268" s="79"/>
+      <c r="G268" s="59"/>
+      <c r="H268" s="60"/>
       <c r="I268" s="52"/>
     </row>
     <row r="269" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="65"/>
-      <c r="C269" s="66"/>
-      <c r="D269" s="67"/>
-      <c r="E269" s="77"/>
-      <c r="F269" s="78"/>
-      <c r="G269" s="58"/>
-      <c r="H269" s="59"/>
+      <c r="B269" s="66"/>
+      <c r="C269" s="67"/>
+      <c r="D269" s="68"/>
+      <c r="E269" s="78"/>
+      <c r="F269" s="79"/>
+      <c r="G269" s="59"/>
+      <c r="H269" s="60"/>
       <c r="I269" s="52"/>
     </row>
     <row r="270" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="65"/>
-      <c r="C270" s="66"/>
-      <c r="D270" s="67"/>
-      <c r="E270" s="77"/>
-      <c r="F270" s="78"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="59"/>
+      <c r="B270" s="66"/>
+      <c r="C270" s="67"/>
+      <c r="D270" s="68"/>
+      <c r="E270" s="78"/>
+      <c r="F270" s="79"/>
+      <c r="G270" s="59"/>
+      <c r="H270" s="60"/>
       <c r="I270" s="52"/>
     </row>
     <row r="271" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="65"/>
-      <c r="C271" s="66"/>
-      <c r="D271" s="67"/>
-      <c r="E271" s="77"/>
-      <c r="F271" s="78"/>
-      <c r="G271" s="58"/>
-      <c r="H271" s="59"/>
+      <c r="B271" s="66"/>
+      <c r="C271" s="67"/>
+      <c r="D271" s="68"/>
+      <c r="E271" s="78"/>
+      <c r="F271" s="79"/>
+      <c r="G271" s="59"/>
+      <c r="H271" s="60"/>
       <c r="I271" s="52"/>
     </row>
     <row r="272" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B272" s="65"/>
-      <c r="C272" s="66"/>
-      <c r="D272" s="67"/>
-      <c r="E272" s="77"/>
-      <c r="F272" s="78"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="59"/>
+      <c r="B272" s="66"/>
+      <c r="C272" s="67"/>
+      <c r="D272" s="68"/>
+      <c r="E272" s="78"/>
+      <c r="F272" s="79"/>
+      <c r="G272" s="59"/>
+      <c r="H272" s="60"/>
       <c r="I272" s="52"/>
     </row>
     <row r="273" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="65"/>
-      <c r="C273" s="66"/>
-      <c r="D273" s="67"/>
-      <c r="E273" s="77"/>
-      <c r="F273" s="78"/>
-      <c r="G273" s="58"/>
-      <c r="H273" s="59"/>
+      <c r="B273" s="66"/>
+      <c r="C273" s="67"/>
+      <c r="D273" s="68"/>
+      <c r="E273" s="78"/>
+      <c r="F273" s="79"/>
+      <c r="G273" s="59"/>
+      <c r="H273" s="60"/>
       <c r="I273" s="52"/>
     </row>
     <row r="274" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="65"/>
-      <c r="C274" s="66"/>
-      <c r="D274" s="67"/>
-      <c r="E274" s="77"/>
-      <c r="F274" s="78"/>
-      <c r="G274" s="58"/>
-      <c r="H274" s="59"/>
+      <c r="B274" s="66"/>
+      <c r="C274" s="67"/>
+      <c r="D274" s="68"/>
+      <c r="E274" s="78"/>
+      <c r="F274" s="79"/>
+      <c r="G274" s="59"/>
+      <c r="H274" s="60"/>
       <c r="I274" s="52"/>
     </row>
     <row r="275" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="65"/>
-      <c r="C275" s="66"/>
-      <c r="D275" s="67"/>
-      <c r="E275" s="77"/>
-      <c r="F275" s="78"/>
-      <c r="G275" s="58"/>
-      <c r="H275" s="59"/>
+      <c r="B275" s="66"/>
+      <c r="C275" s="67"/>
+      <c r="D275" s="68"/>
+      <c r="E275" s="78"/>
+      <c r="F275" s="79"/>
+      <c r="G275" s="59"/>
+      <c r="H275" s="60"/>
       <c r="I275" s="52"/>
     </row>
     <row r="276" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="65"/>
-      <c r="C276" s="66"/>
-      <c r="D276" s="67"/>
-      <c r="E276" s="77"/>
-      <c r="F276" s="78"/>
-      <c r="G276" s="58"/>
-      <c r="H276" s="59"/>
+      <c r="B276" s="66"/>
+      <c r="C276" s="67"/>
+      <c r="D276" s="68"/>
+      <c r="E276" s="78"/>
+      <c r="F276" s="79"/>
+      <c r="G276" s="59"/>
+      <c r="H276" s="60"/>
       <c r="I276" s="52"/>
     </row>
     <row r="277" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="65"/>
-      <c r="C277" s="66"/>
-      <c r="D277" s="67"/>
-      <c r="E277" s="77"/>
-      <c r="F277" s="78"/>
-      <c r="G277" s="58"/>
-      <c r="H277" s="59"/>
+      <c r="B277" s="66"/>
+      <c r="C277" s="67"/>
+      <c r="D277" s="68"/>
+      <c r="E277" s="78"/>
+      <c r="F277" s="79"/>
+      <c r="G277" s="59"/>
+      <c r="H277" s="60"/>
       <c r="I277" s="52"/>
     </row>
     <row r="278" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="65"/>
-      <c r="C278" s="66"/>
-      <c r="D278" s="67"/>
-      <c r="E278" s="77"/>
-      <c r="F278" s="78"/>
-      <c r="G278" s="58"/>
-      <c r="H278" s="59"/>
+      <c r="B278" s="66"/>
+      <c r="C278" s="67"/>
+      <c r="D278" s="68"/>
+      <c r="E278" s="78"/>
+      <c r="F278" s="79"/>
+      <c r="G278" s="59"/>
+      <c r="H278" s="60"/>
       <c r="I278" s="52"/>
     </row>
     <row r="279" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="65"/>
-      <c r="C279" s="66"/>
-      <c r="D279" s="67"/>
-      <c r="E279" s="77"/>
-      <c r="F279" s="78"/>
-      <c r="G279" s="58"/>
-      <c r="H279" s="59"/>
+      <c r="B279" s="66"/>
+      <c r="C279" s="67"/>
+      <c r="D279" s="68"/>
+      <c r="E279" s="78"/>
+      <c r="F279" s="79"/>
+      <c r="G279" s="59"/>
+      <c r="H279" s="60"/>
       <c r="I279" s="52"/>
     </row>
     <row r="280" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="65"/>
-      <c r="C280" s="66"/>
-      <c r="D280" s="67"/>
-      <c r="E280" s="77"/>
-      <c r="F280" s="78"/>
-      <c r="G280" s="58"/>
-      <c r="H280" s="59"/>
+      <c r="B280" s="66"/>
+      <c r="C280" s="67"/>
+      <c r="D280" s="68"/>
+      <c r="E280" s="78"/>
+      <c r="F280" s="79"/>
+      <c r="G280" s="59"/>
+      <c r="H280" s="60"/>
       <c r="I280" s="52"/>
     </row>
     <row r="281" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="65"/>
-      <c r="C281" s="66"/>
-      <c r="D281" s="67"/>
-      <c r="E281" s="77"/>
-      <c r="F281" s="78"/>
-      <c r="G281" s="58"/>
-      <c r="H281" s="59"/>
+      <c r="B281" s="66"/>
+      <c r="C281" s="67"/>
+      <c r="D281" s="68"/>
+      <c r="E281" s="78"/>
+      <c r="F281" s="79"/>
+      <c r="G281" s="59"/>
+      <c r="H281" s="60"/>
       <c r="I281" s="52"/>
     </row>
     <row r="282" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="65"/>
-      <c r="C282" s="66"/>
-      <c r="D282" s="67"/>
-      <c r="E282" s="77"/>
-      <c r="F282" s="78"/>
-      <c r="G282" s="58"/>
-      <c r="H282" s="59"/>
+      <c r="B282" s="66"/>
+      <c r="C282" s="67"/>
+      <c r="D282" s="68"/>
+      <c r="E282" s="78"/>
+      <c r="F282" s="79"/>
+      <c r="G282" s="59"/>
+      <c r="H282" s="60"/>
       <c r="I282" s="52"/>
     </row>
     <row r="283" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="65"/>
-      <c r="C283" s="66"/>
-      <c r="D283" s="67"/>
-      <c r="E283" s="77"/>
-      <c r="F283" s="78"/>
-      <c r="G283" s="58"/>
-      <c r="H283" s="59"/>
+      <c r="B283" s="66"/>
+      <c r="C283" s="67"/>
+      <c r="D283" s="68"/>
+      <c r="E283" s="78"/>
+      <c r="F283" s="79"/>
+      <c r="G283" s="59"/>
+      <c r="H283" s="60"/>
       <c r="I283" s="52"/>
     </row>
     <row r="284" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="65"/>
-      <c r="C284" s="66"/>
-      <c r="D284" s="67"/>
-      <c r="E284" s="77"/>
-      <c r="F284" s="78"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="59"/>
+      <c r="B284" s="66"/>
+      <c r="C284" s="67"/>
+      <c r="D284" s="68"/>
+      <c r="E284" s="78"/>
+      <c r="F284" s="79"/>
+      <c r="G284" s="59"/>
+      <c r="H284" s="60"/>
       <c r="I284" s="52"/>
     </row>
     <row r="285" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="65"/>
-      <c r="C285" s="66"/>
-      <c r="D285" s="67"/>
-      <c r="E285" s="77"/>
-      <c r="F285" s="78"/>
-      <c r="G285" s="58"/>
-      <c r="H285" s="59"/>
+      <c r="B285" s="66"/>
+      <c r="C285" s="67"/>
+      <c r="D285" s="68"/>
+      <c r="E285" s="78"/>
+      <c r="F285" s="79"/>
+      <c r="G285" s="59"/>
+      <c r="H285" s="60"/>
       <c r="I285" s="52"/>
     </row>
     <row r="286" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B286" s="65"/>
-      <c r="C286" s="66"/>
-      <c r="D286" s="67"/>
-      <c r="E286" s="77"/>
-      <c r="F286" s="78"/>
-      <c r="G286" s="58"/>
-      <c r="H286" s="59"/>
+      <c r="B286" s="66"/>
+      <c r="C286" s="67"/>
+      <c r="D286" s="68"/>
+      <c r="E286" s="78"/>
+      <c r="F286" s="79"/>
+      <c r="G286" s="59"/>
+      <c r="H286" s="60"/>
       <c r="I286" s="52"/>
     </row>
     <row r="287" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B287" s="65"/>
-      <c r="C287" s="66"/>
-      <c r="D287" s="67"/>
-      <c r="E287" s="77"/>
-      <c r="F287" s="78"/>
-      <c r="G287" s="58"/>
-      <c r="H287" s="59"/>
+      <c r="B287" s="66"/>
+      <c r="C287" s="67"/>
+      <c r="D287" s="68"/>
+      <c r="E287" s="78"/>
+      <c r="F287" s="79"/>
+      <c r="G287" s="59"/>
+      <c r="H287" s="60"/>
       <c r="I287" s="52"/>
     </row>
     <row r="288" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B288" s="65"/>
-      <c r="C288" s="66"/>
-      <c r="D288" s="67"/>
-      <c r="E288" s="77"/>
-      <c r="F288" s="78"/>
-      <c r="G288" s="58"/>
-      <c r="H288" s="59"/>
+      <c r="B288" s="66"/>
+      <c r="C288" s="67"/>
+      <c r="D288" s="68"/>
+      <c r="E288" s="78"/>
+      <c r="F288" s="79"/>
+      <c r="G288" s="59"/>
+      <c r="H288" s="60"/>
       <c r="I288" s="52"/>
     </row>
     <row r="289" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B289" s="65"/>
-      <c r="C289" s="66"/>
-      <c r="D289" s="67"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="78"/>
-      <c r="G289" s="58"/>
-      <c r="H289" s="59"/>
+      <c r="B289" s="66"/>
+      <c r="C289" s="67"/>
+      <c r="D289" s="68"/>
+      <c r="E289" s="78"/>
+      <c r="F289" s="79"/>
+      <c r="G289" s="59"/>
+      <c r="H289" s="60"/>
       <c r="I289" s="52"/>
     </row>
     <row r="290" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B290" s="65"/>
-      <c r="C290" s="66"/>
-      <c r="D290" s="67"/>
-      <c r="E290" s="77"/>
-      <c r="F290" s="78"/>
-      <c r="G290" s="58"/>
-      <c r="H290" s="59"/>
+      <c r="B290" s="66"/>
+      <c r="C290" s="67"/>
+      <c r="D290" s="68"/>
+      <c r="E290" s="78"/>
+      <c r="F290" s="79"/>
+      <c r="G290" s="59"/>
+      <c r="H290" s="60"/>
       <c r="I290" s="52"/>
     </row>
     <row r="291" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B291" s="65"/>
-      <c r="C291" s="66"/>
-      <c r="D291" s="67"/>
-      <c r="E291" s="77"/>
-      <c r="F291" s="78"/>
-      <c r="G291" s="58"/>
-      <c r="H291" s="59"/>
+      <c r="B291" s="66"/>
+      <c r="C291" s="67"/>
+      <c r="D291" s="68"/>
+      <c r="E291" s="78"/>
+      <c r="F291" s="79"/>
+      <c r="G291" s="59"/>
+      <c r="H291" s="60"/>
       <c r="I291" s="52"/>
     </row>
     <row r="292" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B292" s="65"/>
-      <c r="C292" s="66"/>
-      <c r="D292" s="67"/>
-      <c r="E292" s="77"/>
-      <c r="F292" s="78"/>
-      <c r="G292" s="58"/>
-      <c r="H292" s="59"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="67"/>
+      <c r="D292" s="68"/>
+      <c r="E292" s="78"/>
+      <c r="F292" s="79"/>
+      <c r="G292" s="59"/>
+      <c r="H292" s="60"/>
       <c r="I292" s="52"/>
     </row>
     <row r="293" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B293" s="65"/>
-      <c r="C293" s="66"/>
-      <c r="D293" s="67"/>
-      <c r="E293" s="77"/>
-      <c r="F293" s="78"/>
-      <c r="G293" s="58"/>
-      <c r="H293" s="59"/>
+      <c r="B293" s="66"/>
+      <c r="C293" s="67"/>
+      <c r="D293" s="68"/>
+      <c r="E293" s="78"/>
+      <c r="F293" s="79"/>
+      <c r="G293" s="59"/>
+      <c r="H293" s="60"/>
       <c r="I293" s="52"/>
     </row>
     <row r="294" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B294" s="65"/>
-      <c r="C294" s="66"/>
-      <c r="D294" s="67"/>
-      <c r="E294" s="77"/>
-      <c r="F294" s="78"/>
-      <c r="G294" s="58"/>
-      <c r="H294" s="59"/>
+      <c r="B294" s="66"/>
+      <c r="C294" s="67"/>
+      <c r="D294" s="68"/>
+      <c r="E294" s="78"/>
+      <c r="F294" s="79"/>
+      <c r="G294" s="59"/>
+      <c r="H294" s="60"/>
       <c r="I294" s="52"/>
     </row>
     <row r="295" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B295" s="65"/>
-      <c r="C295" s="66"/>
-      <c r="D295" s="67"/>
-      <c r="E295" s="77"/>
-      <c r="F295" s="78"/>
-      <c r="G295" s="58"/>
-      <c r="H295" s="59"/>
+      <c r="B295" s="66"/>
+      <c r="C295" s="67"/>
+      <c r="D295" s="68"/>
+      <c r="E295" s="78"/>
+      <c r="F295" s="79"/>
+      <c r="G295" s="59"/>
+      <c r="H295" s="60"/>
       <c r="I295" s="52"/>
     </row>
     <row r="296" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B296" s="65"/>
-      <c r="C296" s="66"/>
-      <c r="D296" s="67"/>
-      <c r="E296" s="77"/>
-      <c r="F296" s="78"/>
-      <c r="G296" s="58"/>
-      <c r="H296" s="59"/>
+      <c r="B296" s="66"/>
+      <c r="C296" s="67"/>
+      <c r="D296" s="68"/>
+      <c r="E296" s="78"/>
+      <c r="F296" s="79"/>
+      <c r="G296" s="59"/>
+      <c r="H296" s="60"/>
       <c r="I296" s="52"/>
     </row>
     <row r="297" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B297" s="65"/>
-      <c r="C297" s="66"/>
-      <c r="D297" s="67"/>
-      <c r="E297" s="77"/>
-      <c r="F297" s="78"/>
-      <c r="G297" s="58"/>
-      <c r="H297" s="59"/>
+      <c r="B297" s="66"/>
+      <c r="C297" s="67"/>
+      <c r="D297" s="68"/>
+      <c r="E297" s="78"/>
+      <c r="F297" s="79"/>
+      <c r="G297" s="59"/>
+      <c r="H297" s="60"/>
       <c r="I297" s="52"/>
     </row>
     <row r="298" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B298" s="65"/>
-      <c r="C298" s="66"/>
-      <c r="D298" s="67"/>
-      <c r="E298" s="77"/>
-      <c r="F298" s="78"/>
-      <c r="G298" s="58"/>
-      <c r="H298" s="59"/>
+      <c r="B298" s="66"/>
+      <c r="C298" s="67"/>
+      <c r="D298" s="68"/>
+      <c r="E298" s="78"/>
+      <c r="F298" s="79"/>
+      <c r="G298" s="59"/>
+      <c r="H298" s="60"/>
       <c r="I298" s="52"/>
     </row>
     <row r="299" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B299" s="65"/>
-      <c r="C299" s="66"/>
-      <c r="D299" s="67"/>
-      <c r="E299" s="77"/>
-      <c r="F299" s="78"/>
-      <c r="G299" s="58"/>
-      <c r="H299" s="59"/>
+      <c r="B299" s="66"/>
+      <c r="C299" s="67"/>
+      <c r="D299" s="68"/>
+      <c r="E299" s="78"/>
+      <c r="F299" s="79"/>
+      <c r="G299" s="59"/>
+      <c r="H299" s="60"/>
       <c r="I299" s="52"/>
     </row>
     <row r="300" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B300" s="68"/>
-      <c r="C300" s="69"/>
-      <c r="D300" s="70"/>
-      <c r="E300" s="77"/>
-      <c r="F300" s="79"/>
-      <c r="G300" s="63"/>
-      <c r="H300" s="59"/>
-      <c r="I300" s="64"/>
+      <c r="B300" s="69"/>
+      <c r="C300" s="70"/>
+      <c r="D300" s="71"/>
+      <c r="E300" s="78"/>
+      <c r="F300" s="80"/>
+      <c r="G300" s="64"/>
+      <c r="H300" s="60"/>
+      <c r="I300" s="65"/>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="G11:G300">
-    <cfRule type="expression" dxfId="12" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>G11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>G11=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>G11=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51840,12 +51905,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="106">
+      <c r="C2" s="107">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="107"/>
-      <c r="E2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="109"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -51903,7 +51968,7 @@
       <c r="D11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="88"/>
+      <c r="E11" s="94"/>
       <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
@@ -51960,7 +52025,7 @@
     </row>
     <row r="27" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
@@ -52003,11 +52068,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:B32"/>
+  <dimension ref="A3:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -52021,17 +52084,17 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -52046,127 +52109,165 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
-      <c r="B9" s="89"/>
+      <c r="B9" s="41"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
-      <c r="B10" s="90"/>
+      <c r="B10" s="83"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
-      <c r="B11" s="41"/>
+      <c r="B11" s="86"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="84"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
-      <c r="B13" s="92"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="83"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="83"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="37"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="84"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="82"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="83"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="82"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="39" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>41</v>
       </c>
     </row>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="36" windowWidth="13440" windowHeight="9132" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <definedName name="StartDatum">Stammdaten!$C$4</definedName>
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
+    <definedName name="Variant_Name">Attribute!$C$22</definedName>
     <definedName name="Zeitleiste">Ressourcen!$D$10:$GG$10</definedName>
     <definedName name="Zeitmatrix">Ressourcen!$D$11:$GG$250</definedName>
   </definedNames>
@@ -91,9 +92,6 @@
   </si>
   <si>
     <t>Kundenspezifische Attribute</t>
-  </si>
-  <si>
-    <t>Individueller Name1</t>
   </si>
   <si>
     <t>Individueller Name2</t>
@@ -303,6 +301,9 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Varianten Name</t>
+  </si>
 </sst>
 </file>
 
@@ -312,13 +313,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -782,15 +789,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -798,71 +805,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="14" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="12" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -883,36 +890,76 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -927,14 +974,6 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
@@ -947,45 +986,25 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1001,19 +1020,7 @@
       <alignment horizontal="center" vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
@@ -1021,13 +1028,13 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1040,159 +1047,69 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF6CBCB4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31869B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF007E39"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF11E111"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1383,6 +1300,97 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF6CBCB4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31869B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF007E39"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF11E111"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1442,20 +1450,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="ErgebnTabelle" displayName="ErgebnTabelle" ref="B10:I300" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="B10:I300"/>
   <sortState ref="B12:E19">
     <sortCondition ref="B11:B19"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Nr." dataDxfId="20"/>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Bezug" dataDxfId="18"/>
-    <tableColumn id="4" name="StartDatum" dataDxfId="17"/>
-    <tableColumn id="8" name="EndeDatum" dataDxfId="16"/>
-    <tableColumn id="5" name="Ampel" dataDxfId="15"/>
-    <tableColumn id="6" name="Erläuterung " dataDxfId="14"/>
-    <tableColumn id="7" name="Maßnahmen" dataDxfId="13"/>
+    <tableColumn id="1" name="Nr." dataDxfId="7"/>
+    <tableColumn id="2" name="Name" dataDxfId="6"/>
+    <tableColumn id="3" name="Bezug" dataDxfId="5"/>
+    <tableColumn id="4" name="StartDatum" dataDxfId="4"/>
+    <tableColumn id="8" name="EndeDatum" dataDxfId="3"/>
+    <tableColumn id="5" name="Ampel" dataDxfId="2"/>
+    <tableColumn id="6" name="Erläuterung " dataDxfId="1"/>
+    <tableColumn id="7" name="Maßnahmen" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1751,27 +1759,27 @@
   <sheetPr codeName="Tabelle1"/>
   <dimension ref="B1:G256"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="14"/>
     </row>
-    <row r="2" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="95"/>
       <c r="D2" s="96"/>
@@ -1779,69 +1787,69 @@
       <c r="F2" s="11"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="24">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="24">
         <v>2958465</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:7" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="16"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="2:7" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="16"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="2:7" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="44"/>
       <c r="D12" s="27"/>
       <c r="E12" s="28"/>
     </row>
-    <row r="13" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
       <c r="C13" s="29"/>
       <c r="D13" s="27"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B14" s="26" t="s">
         <v>0</v>
       </c>
@@ -1849,316 +1857,316 @@
       <c r="D14" s="99"/>
       <c r="E14" s="100"/>
     </row>
-    <row r="15" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="101"/>
       <c r="D15" s="102"/>
       <c r="E15" s="103"/>
     </row>
-    <row r="16" spans="2:7" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="101"/>
       <c r="D16" s="102"/>
       <c r="E16" s="103"/>
     </row>
-    <row r="17" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="27"/>
       <c r="C17" s="101"/>
       <c r="D17" s="102"/>
       <c r="E17" s="103"/>
     </row>
-    <row r="18" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="101"/>
       <c r="D18" s="102"/>
       <c r="E18" s="103"/>
     </row>
-    <row r="19" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
       <c r="C19" s="104"/>
       <c r="D19" s="105"/>
       <c r="E19" s="106"/>
     </row>
-    <row r="20" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="31"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
     </row>
-    <row r="21" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="89"/>
       <c r="D21" s="33"/>
       <c r="E21" s="25"/>
     </row>
-    <row r="22" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
     </row>
-    <row r="23" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="98"/>
       <c r="D23" s="99"/>
       <c r="E23" s="100"/>
     </row>
-    <row r="24" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="101"/>
       <c r="D24" s="102"/>
       <c r="E24" s="103"/>
     </row>
-    <row r="25" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="101"/>
       <c r="D25" s="102"/>
       <c r="E25" s="103"/>
     </row>
-    <row r="26" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="101"/>
       <c r="D26" s="102"/>
       <c r="E26" s="103"/>
     </row>
-    <row r="27" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="101"/>
       <c r="D27" s="102"/>
       <c r="E27" s="103"/>
     </row>
-    <row r="28" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C28" s="104"/>
       <c r="D28" s="105"/>
       <c r="E28" s="106"/>
     </row>
-    <row r="29" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:5" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="15" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="2:5" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="15" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="3">
@@ -2167,16 +2175,16 @@
     <mergeCell ref="C23:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="C21">
-    <cfRule type="expression" dxfId="12" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>$C$21=0</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="21" priority="2">
       <formula>$C21=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>$C21=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="19" priority="4">
       <formula>$C21=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2211,19 +2219,19 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GH250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" customWidth="1"/>
-    <col min="4" max="189" width="4.6640625" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" customWidth="1"/>
+    <col min="4" max="189" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:190" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:190" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2233,7 +2241,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2248,7 +2256,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2258,7 +2266,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:190" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:190" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -2270,7 +2278,7 @@
       <c r="G4" s="3"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -2279,7 +2287,7 @@
       <c r="H5" s="6"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -2289,12 +2297,12 @@
         <v>2958465</v>
       </c>
     </row>
-    <row r="7" spans="1:190" s="1" customFormat="1" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:190" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -2302,10 +2310,10 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:190" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:190" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="92">
@@ -3054,7 +3062,7 @@
       </c>
       <c r="GH10" s="90"/>
     </row>
-    <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="93"/>
       <c r="C11" s="42"/>
       <c r="D11" s="47"/>
@@ -3244,7 +3252,7 @@
       <c r="GF11" s="47"/>
       <c r="GG11" s="47"/>
     </row>
-    <row r="12" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="43"/>
       <c r="C12" s="43"/>
       <c r="D12" s="46"/>
@@ -3434,7 +3442,7 @@
       <c r="GF12" s="46"/>
       <c r="GG12" s="46"/>
     </row>
-    <row r="13" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="46"/>
@@ -3624,7 +3632,7 @@
       <c r="GF13" s="46"/>
       <c r="GG13" s="46"/>
     </row>
-    <row r="14" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="43"/>
       <c r="C14" s="43"/>
       <c r="D14" s="46"/>
@@ -3814,7 +3822,7 @@
       <c r="GF14" s="46"/>
       <c r="GG14" s="46"/>
     </row>
-    <row r="15" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:190" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="46"/>
@@ -4004,7 +4012,7 @@
       <c r="GF15" s="46"/>
       <c r="GG15" s="46"/>
     </row>
-    <row r="16" spans="1:190" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="43"/>
       <c r="C16" s="43"/>
       <c r="D16" s="46"/>
@@ -4194,7 +4202,7 @@
       <c r="GF16" s="46"/>
       <c r="GG16" s="46"/>
     </row>
-    <row r="17" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="46"/>
@@ -4384,7 +4392,7 @@
       <c r="GF17" s="46"/>
       <c r="GG17" s="46"/>
     </row>
-    <row r="18" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="C18" s="43"/>
       <c r="D18" s="46"/>
@@ -4574,7 +4582,7 @@
       <c r="GF18" s="46"/>
       <c r="GG18" s="46"/>
     </row>
-    <row r="19" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="46"/>
@@ -4764,7 +4772,7 @@
       <c r="GF19" s="46"/>
       <c r="GG19" s="46"/>
     </row>
-    <row r="20" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
       <c r="D20" s="46"/>
@@ -4954,7 +4962,7 @@
       <c r="GF20" s="46"/>
       <c r="GG20" s="46"/>
     </row>
-    <row r="21" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="46"/>
@@ -5144,7 +5152,7 @@
       <c r="GF21" s="46"/>
       <c r="GG21" s="46"/>
     </row>
-    <row r="22" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="43"/>
       <c r="C22" s="43"/>
       <c r="D22" s="46"/>
@@ -5334,7 +5342,7 @@
       <c r="GF22" s="46"/>
       <c r="GG22" s="46"/>
     </row>
-    <row r="23" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="46"/>
@@ -5524,7 +5532,7 @@
       <c r="GF23" s="46"/>
       <c r="GG23" s="46"/>
     </row>
-    <row r="24" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="43"/>
       <c r="C24" s="43"/>
       <c r="D24" s="46"/>
@@ -5714,7 +5722,7 @@
       <c r="GF24" s="46"/>
       <c r="GG24" s="46"/>
     </row>
-    <row r="25" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="43"/>
       <c r="C25" s="43"/>
       <c r="D25" s="46"/>
@@ -5904,7 +5912,7 @@
       <c r="GF25" s="46"/>
       <c r="GG25" s="46"/>
     </row>
-    <row r="26" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="43"/>
       <c r="C26" s="43"/>
       <c r="D26" s="46"/>
@@ -6094,7 +6102,7 @@
       <c r="GF26" s="46"/>
       <c r="GG26" s="46"/>
     </row>
-    <row r="27" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
       <c r="D27" s="46"/>
@@ -6284,7 +6292,7 @@
       <c r="GF27" s="46"/>
       <c r="GG27" s="46"/>
     </row>
-    <row r="28" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="43"/>
       <c r="C28" s="43"/>
       <c r="D28" s="46"/>
@@ -6474,7 +6482,7 @@
       <c r="GF28" s="46"/>
       <c r="GG28" s="46"/>
     </row>
-    <row r="29" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="43"/>
       <c r="C29" s="43"/>
       <c r="D29" s="46"/>
@@ -6664,7 +6672,7 @@
       <c r="GF29" s="46"/>
       <c r="GG29" s="46"/>
     </row>
-    <row r="30" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="43"/>
       <c r="C30" s="43"/>
       <c r="D30" s="46"/>
@@ -6854,7 +6862,7 @@
       <c r="GF30" s="46"/>
       <c r="GG30" s="46"/>
     </row>
-    <row r="31" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="43"/>
       <c r="C31" s="43"/>
       <c r="D31" s="46"/>
@@ -7044,7 +7052,7 @@
       <c r="GF31" s="46"/>
       <c r="GG31" s="46"/>
     </row>
-    <row r="32" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="43"/>
       <c r="C32" s="43"/>
       <c r="D32" s="46"/>
@@ -7234,7 +7242,7 @@
       <c r="GF32" s="46"/>
       <c r="GG32" s="46"/>
     </row>
-    <row r="33" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="43"/>
       <c r="C33" s="43"/>
       <c r="D33" s="46"/>
@@ -7424,7 +7432,7 @@
       <c r="GF33" s="46"/>
       <c r="GG33" s="46"/>
     </row>
-    <row r="34" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="43"/>
       <c r="C34" s="43"/>
       <c r="D34" s="46"/>
@@ -7614,7 +7622,7 @@
       <c r="GF34" s="46"/>
       <c r="GG34" s="46"/>
     </row>
-    <row r="35" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="43"/>
       <c r="C35" s="43"/>
       <c r="D35" s="46"/>
@@ -7804,7 +7812,7 @@
       <c r="GF35" s="46"/>
       <c r="GG35" s="46"/>
     </row>
-    <row r="36" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="43"/>
       <c r="C36" s="43"/>
       <c r="D36" s="46"/>
@@ -7994,7 +8002,7 @@
       <c r="GF36" s="46"/>
       <c r="GG36" s="46"/>
     </row>
-    <row r="37" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="46"/>
@@ -8184,7 +8192,7 @@
       <c r="GF37" s="46"/>
       <c r="GG37" s="46"/>
     </row>
-    <row r="38" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
       <c r="D38" s="46"/>
@@ -8374,7 +8382,7 @@
       <c r="GF38" s="46"/>
       <c r="GG38" s="46"/>
     </row>
-    <row r="39" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="43"/>
       <c r="C39" s="43"/>
       <c r="D39" s="46"/>
@@ -8564,7 +8572,7 @@
       <c r="GF39" s="46"/>
       <c r="GG39" s="46"/>
     </row>
-    <row r="40" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="43"/>
       <c r="C40" s="43"/>
       <c r="D40" s="46"/>
@@ -8754,7 +8762,7 @@
       <c r="GF40" s="46"/>
       <c r="GG40" s="46"/>
     </row>
-    <row r="41" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="43"/>
       <c r="C41" s="43"/>
       <c r="D41" s="46"/>
@@ -8944,7 +8952,7 @@
       <c r="GF41" s="46"/>
       <c r="GG41" s="46"/>
     </row>
-    <row r="42" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="43"/>
       <c r="C42" s="43"/>
       <c r="D42" s="46"/>
@@ -9134,7 +9142,7 @@
       <c r="GF42" s="46"/>
       <c r="GG42" s="46"/>
     </row>
-    <row r="43" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
       <c r="D43" s="46"/>
@@ -9324,7 +9332,7 @@
       <c r="GF43" s="46"/>
       <c r="GG43" s="46"/>
     </row>
-    <row r="44" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
       <c r="D44" s="46"/>
@@ -9514,7 +9522,7 @@
       <c r="GF44" s="46"/>
       <c r="GG44" s="46"/>
     </row>
-    <row r="45" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="46"/>
@@ -9704,7 +9712,7 @@
       <c r="GF45" s="46"/>
       <c r="GG45" s="46"/>
     </row>
-    <row r="46" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
       <c r="D46" s="46"/>
@@ -9894,7 +9902,7 @@
       <c r="GF46" s="46"/>
       <c r="GG46" s="46"/>
     </row>
-    <row r="47" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
       <c r="D47" s="46"/>
@@ -10084,7 +10092,7 @@
       <c r="GF47" s="46"/>
       <c r="GG47" s="46"/>
     </row>
-    <row r="48" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
       <c r="D48" s="46"/>
@@ -10274,7 +10282,7 @@
       <c r="GF48" s="46"/>
       <c r="GG48" s="46"/>
     </row>
-    <row r="49" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
       <c r="D49" s="46"/>
@@ -10464,7 +10472,7 @@
       <c r="GF49" s="46"/>
       <c r="GG49" s="46"/>
     </row>
-    <row r="50" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
       <c r="D50" s="46"/>
@@ -10654,7 +10662,7 @@
       <c r="GF50" s="46"/>
       <c r="GG50" s="46"/>
     </row>
-    <row r="51" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="46"/>
@@ -10844,7 +10852,7 @@
       <c r="GF51" s="46"/>
       <c r="GG51" s="46"/>
     </row>
-    <row r="52" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="46"/>
@@ -11034,7 +11042,7 @@
       <c r="GF52" s="46"/>
       <c r="GG52" s="46"/>
     </row>
-    <row r="53" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
       <c r="D53" s="46"/>
@@ -11224,7 +11232,7 @@
       <c r="GF53" s="46"/>
       <c r="GG53" s="46"/>
     </row>
-    <row r="54" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
       <c r="D54" s="46"/>
@@ -11414,7 +11422,7 @@
       <c r="GF54" s="46"/>
       <c r="GG54" s="46"/>
     </row>
-    <row r="55" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
       <c r="D55" s="46"/>
@@ -11604,7 +11612,7 @@
       <c r="GF55" s="46"/>
       <c r="GG55" s="46"/>
     </row>
-    <row r="56" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
       <c r="D56" s="46"/>
@@ -11794,7 +11802,7 @@
       <c r="GF56" s="46"/>
       <c r="GG56" s="46"/>
     </row>
-    <row r="57" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
       <c r="D57" s="46"/>
@@ -11984,7 +11992,7 @@
       <c r="GF57" s="46"/>
       <c r="GG57" s="46"/>
     </row>
-    <row r="58" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
       <c r="D58" s="46"/>
@@ -12174,7 +12182,7 @@
       <c r="GF58" s="46"/>
       <c r="GG58" s="46"/>
     </row>
-    <row r="59" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
       <c r="D59" s="46"/>
@@ -12364,7 +12372,7 @@
       <c r="GF59" s="46"/>
       <c r="GG59" s="46"/>
     </row>
-    <row r="60" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
       <c r="D60" s="46"/>
@@ -12554,7 +12562,7 @@
       <c r="GF60" s="46"/>
       <c r="GG60" s="46"/>
     </row>
-    <row r="61" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
       <c r="D61" s="46"/>
@@ -12744,7 +12752,7 @@
       <c r="GF61" s="46"/>
       <c r="GG61" s="46"/>
     </row>
-    <row r="62" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
       <c r="D62" s="46"/>
@@ -12934,7 +12942,7 @@
       <c r="GF62" s="46"/>
       <c r="GG62" s="46"/>
     </row>
-    <row r="63" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
       <c r="D63" s="46"/>
@@ -13124,7 +13132,7 @@
       <c r="GF63" s="46"/>
       <c r="GG63" s="46"/>
     </row>
-    <row r="64" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
       <c r="D64" s="46"/>
@@ -13314,7 +13322,7 @@
       <c r="GF64" s="46"/>
       <c r="GG64" s="46"/>
     </row>
-    <row r="65" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
       <c r="D65" s="46"/>
@@ -13504,7 +13512,7 @@
       <c r="GF65" s="46"/>
       <c r="GG65" s="46"/>
     </row>
-    <row r="66" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
       <c r="D66" s="46"/>
@@ -13694,7 +13702,7 @@
       <c r="GF66" s="46"/>
       <c r="GG66" s="46"/>
     </row>
-    <row r="67" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
       <c r="D67" s="46"/>
@@ -13884,7 +13892,7 @@
       <c r="GF67" s="46"/>
       <c r="GG67" s="46"/>
     </row>
-    <row r="68" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
       <c r="D68" s="46"/>
@@ -14074,7 +14082,7 @@
       <c r="GF68" s="46"/>
       <c r="GG68" s="46"/>
     </row>
-    <row r="69" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
       <c r="D69" s="46"/>
@@ -14264,7 +14272,7 @@
       <c r="GF69" s="46"/>
       <c r="GG69" s="46"/>
     </row>
-    <row r="70" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
       <c r="D70" s="46"/>
@@ -14454,7 +14462,7 @@
       <c r="GF70" s="46"/>
       <c r="GG70" s="46"/>
     </row>
-    <row r="71" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
       <c r="D71" s="46"/>
@@ -14644,7 +14652,7 @@
       <c r="GF71" s="46"/>
       <c r="GG71" s="46"/>
     </row>
-    <row r="72" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
       <c r="D72" s="46"/>
@@ -14834,7 +14842,7 @@
       <c r="GF72" s="46"/>
       <c r="GG72" s="46"/>
     </row>
-    <row r="73" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
       <c r="D73" s="46"/>
@@ -15024,7 +15032,7 @@
       <c r="GF73" s="46"/>
       <c r="GG73" s="46"/>
     </row>
-    <row r="74" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
       <c r="D74" s="46"/>
@@ -15214,7 +15222,7 @@
       <c r="GF74" s="46"/>
       <c r="GG74" s="46"/>
     </row>
-    <row r="75" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
       <c r="D75" s="46"/>
@@ -15404,7 +15412,7 @@
       <c r="GF75" s="46"/>
       <c r="GG75" s="46"/>
     </row>
-    <row r="76" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
       <c r="D76" s="46"/>
@@ -15594,7 +15602,7 @@
       <c r="GF76" s="46"/>
       <c r="GG76" s="46"/>
     </row>
-    <row r="77" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
       <c r="D77" s="46"/>
@@ -15784,7 +15792,7 @@
       <c r="GF77" s="46"/>
       <c r="GG77" s="46"/>
     </row>
-    <row r="78" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
       <c r="D78" s="46"/>
@@ -15974,7 +15982,7 @@
       <c r="GF78" s="46"/>
       <c r="GG78" s="46"/>
     </row>
-    <row r="79" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
       <c r="D79" s="46"/>
@@ -16164,7 +16172,7 @@
       <c r="GF79" s="46"/>
       <c r="GG79" s="46"/>
     </row>
-    <row r="80" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
       <c r="D80" s="46"/>
@@ -16354,7 +16362,7 @@
       <c r="GF80" s="46"/>
       <c r="GG80" s="46"/>
     </row>
-    <row r="81" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
       <c r="D81" s="46"/>
@@ -16544,7 +16552,7 @@
       <c r="GF81" s="46"/>
       <c r="GG81" s="46"/>
     </row>
-    <row r="82" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
       <c r="D82" s="46"/>
@@ -16734,7 +16742,7 @@
       <c r="GF82" s="46"/>
       <c r="GG82" s="46"/>
     </row>
-    <row r="83" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
       <c r="D83" s="46"/>
@@ -16924,7 +16932,7 @@
       <c r="GF83" s="46"/>
       <c r="GG83" s="46"/>
     </row>
-    <row r="84" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
       <c r="D84" s="46"/>
@@ -17114,7 +17122,7 @@
       <c r="GF84" s="46"/>
       <c r="GG84" s="46"/>
     </row>
-    <row r="85" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
       <c r="D85" s="46"/>
@@ -17304,7 +17312,7 @@
       <c r="GF85" s="46"/>
       <c r="GG85" s="46"/>
     </row>
-    <row r="86" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
       <c r="D86" s="46"/>
@@ -17494,7 +17502,7 @@
       <c r="GF86" s="46"/>
       <c r="GG86" s="46"/>
     </row>
-    <row r="87" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
       <c r="D87" s="46"/>
@@ -17684,7 +17692,7 @@
       <c r="GF87" s="46"/>
       <c r="GG87" s="46"/>
     </row>
-    <row r="88" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
       <c r="D88" s="46"/>
@@ -17874,7 +17882,7 @@
       <c r="GF88" s="46"/>
       <c r="GG88" s="46"/>
     </row>
-    <row r="89" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
       <c r="D89" s="46"/>
@@ -18064,7 +18072,7 @@
       <c r="GF89" s="46"/>
       <c r="GG89" s="46"/>
     </row>
-    <row r="90" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
       <c r="D90" s="46"/>
@@ -18254,7 +18262,7 @@
       <c r="GF90" s="46"/>
       <c r="GG90" s="46"/>
     </row>
-    <row r="91" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
       <c r="D91" s="46"/>
@@ -18444,7 +18452,7 @@
       <c r="GF91" s="46"/>
       <c r="GG91" s="46"/>
     </row>
-    <row r="92" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
       <c r="D92" s="46"/>
@@ -18634,7 +18642,7 @@
       <c r="GF92" s="46"/>
       <c r="GG92" s="46"/>
     </row>
-    <row r="93" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
       <c r="D93" s="46"/>
@@ -18824,7 +18832,7 @@
       <c r="GF93" s="46"/>
       <c r="GG93" s="46"/>
     </row>
-    <row r="94" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
       <c r="D94" s="46"/>
@@ -19014,7 +19022,7 @@
       <c r="GF94" s="46"/>
       <c r="GG94" s="46"/>
     </row>
-    <row r="95" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
       <c r="D95" s="46"/>
@@ -19204,7 +19212,7 @@
       <c r="GF95" s="46"/>
       <c r="GG95" s="46"/>
     </row>
-    <row r="96" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
       <c r="D96" s="46"/>
@@ -19394,7 +19402,7 @@
       <c r="GF96" s="46"/>
       <c r="GG96" s="46"/>
     </row>
-    <row r="97" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
       <c r="D97" s="46"/>
@@ -19584,7 +19592,7 @@
       <c r="GF97" s="46"/>
       <c r="GG97" s="46"/>
     </row>
-    <row r="98" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
       <c r="D98" s="46"/>
@@ -19774,7 +19782,7 @@
       <c r="GF98" s="46"/>
       <c r="GG98" s="46"/>
     </row>
-    <row r="99" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
       <c r="D99" s="46"/>
@@ -19964,7 +19972,7 @@
       <c r="GF99" s="46"/>
       <c r="GG99" s="46"/>
     </row>
-    <row r="100" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="43"/>
       <c r="C100" s="43"/>
       <c r="D100" s="46"/>
@@ -20154,7 +20162,7 @@
       <c r="GF100" s="46"/>
       <c r="GG100" s="46"/>
     </row>
-    <row r="101" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="43"/>
       <c r="C101" s="43"/>
       <c r="D101" s="46"/>
@@ -20344,7 +20352,7 @@
       <c r="GF101" s="46"/>
       <c r="GG101" s="46"/>
     </row>
-    <row r="102" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="43"/>
       <c r="C102" s="43"/>
       <c r="D102" s="46"/>
@@ -20534,7 +20542,7 @@
       <c r="GF102" s="46"/>
       <c r="GG102" s="46"/>
     </row>
-    <row r="103" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="43"/>
       <c r="C103" s="43"/>
       <c r="D103" s="46"/>
@@ -20724,7 +20732,7 @@
       <c r="GF103" s="46"/>
       <c r="GG103" s="46"/>
     </row>
-    <row r="104" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="43"/>
       <c r="C104" s="43"/>
       <c r="D104" s="46"/>
@@ -20914,7 +20922,7 @@
       <c r="GF104" s="46"/>
       <c r="GG104" s="46"/>
     </row>
-    <row r="105" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="43"/>
       <c r="C105" s="43"/>
       <c r="D105" s="46"/>
@@ -21104,7 +21112,7 @@
       <c r="GF105" s="46"/>
       <c r="GG105" s="46"/>
     </row>
-    <row r="106" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="43"/>
       <c r="C106" s="43"/>
       <c r="D106" s="46"/>
@@ -21294,7 +21302,7 @@
       <c r="GF106" s="46"/>
       <c r="GG106" s="46"/>
     </row>
-    <row r="107" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="43"/>
       <c r="C107" s="43"/>
       <c r="D107" s="46"/>
@@ -21484,7 +21492,7 @@
       <c r="GF107" s="46"/>
       <c r="GG107" s="46"/>
     </row>
-    <row r="108" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="43"/>
       <c r="C108" s="43"/>
       <c r="D108" s="46"/>
@@ -21674,7 +21682,7 @@
       <c r="GF108" s="46"/>
       <c r="GG108" s="46"/>
     </row>
-    <row r="109" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="43"/>
       <c r="C109" s="43"/>
       <c r="D109" s="46"/>
@@ -21864,7 +21872,7 @@
       <c r="GF109" s="46"/>
       <c r="GG109" s="46"/>
     </row>
-    <row r="110" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="43"/>
       <c r="C110" s="43"/>
       <c r="D110" s="46"/>
@@ -22054,7 +22062,7 @@
       <c r="GF110" s="46"/>
       <c r="GG110" s="46"/>
     </row>
-    <row r="111" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="43"/>
       <c r="C111" s="43"/>
       <c r="D111" s="46"/>
@@ -22244,7 +22252,7 @@
       <c r="GF111" s="46"/>
       <c r="GG111" s="46"/>
     </row>
-    <row r="112" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="43"/>
       <c r="C112" s="43"/>
       <c r="D112" s="46"/>
@@ -22434,7 +22442,7 @@
       <c r="GF112" s="46"/>
       <c r="GG112" s="46"/>
     </row>
-    <row r="113" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="43"/>
       <c r="C113" s="43"/>
       <c r="D113" s="46"/>
@@ -22624,7 +22632,7 @@
       <c r="GF113" s="46"/>
       <c r="GG113" s="46"/>
     </row>
-    <row r="114" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="43"/>
       <c r="C114" s="43"/>
       <c r="D114" s="46"/>
@@ -22814,7 +22822,7 @@
       <c r="GF114" s="46"/>
       <c r="GG114" s="46"/>
     </row>
-    <row r="115" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="43"/>
       <c r="C115" s="43"/>
       <c r="D115" s="46"/>
@@ -23004,7 +23012,7 @@
       <c r="GF115" s="46"/>
       <c r="GG115" s="46"/>
     </row>
-    <row r="116" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="43"/>
       <c r="C116" s="43"/>
       <c r="D116" s="46"/>
@@ -23194,7 +23202,7 @@
       <c r="GF116" s="46"/>
       <c r="GG116" s="46"/>
     </row>
-    <row r="117" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="43"/>
       <c r="C117" s="43"/>
       <c r="D117" s="46"/>
@@ -23384,7 +23392,7 @@
       <c r="GF117" s="46"/>
       <c r="GG117" s="46"/>
     </row>
-    <row r="118" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="43"/>
       <c r="C118" s="43"/>
       <c r="D118" s="46"/>
@@ -23574,7 +23582,7 @@
       <c r="GF118" s="46"/>
       <c r="GG118" s="46"/>
     </row>
-    <row r="119" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="43"/>
       <c r="C119" s="43"/>
       <c r="D119" s="46"/>
@@ -23764,7 +23772,7 @@
       <c r="GF119" s="46"/>
       <c r="GG119" s="46"/>
     </row>
-    <row r="120" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="43"/>
       <c r="C120" s="43"/>
       <c r="D120" s="46"/>
@@ -23954,7 +23962,7 @@
       <c r="GF120" s="46"/>
       <c r="GG120" s="46"/>
     </row>
-    <row r="121" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="43"/>
       <c r="C121" s="43"/>
       <c r="D121" s="46"/>
@@ -24144,7 +24152,7 @@
       <c r="GF121" s="46"/>
       <c r="GG121" s="46"/>
     </row>
-    <row r="122" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="43"/>
       <c r="C122" s="43"/>
       <c r="D122" s="46"/>
@@ -24334,7 +24342,7 @@
       <c r="GF122" s="46"/>
       <c r="GG122" s="46"/>
     </row>
-    <row r="123" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="43"/>
       <c r="C123" s="43"/>
       <c r="D123" s="46"/>
@@ -24524,7 +24532,7 @@
       <c r="GF123" s="46"/>
       <c r="GG123" s="46"/>
     </row>
-    <row r="124" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="43"/>
       <c r="C124" s="43"/>
       <c r="D124" s="46"/>
@@ -24714,7 +24722,7 @@
       <c r="GF124" s="46"/>
       <c r="GG124" s="46"/>
     </row>
-    <row r="125" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="43"/>
       <c r="C125" s="43"/>
       <c r="D125" s="46"/>
@@ -24904,7 +24912,7 @@
       <c r="GF125" s="46"/>
       <c r="GG125" s="46"/>
     </row>
-    <row r="126" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="43"/>
       <c r="C126" s="43"/>
       <c r="D126" s="46"/>
@@ -25094,7 +25102,7 @@
       <c r="GF126" s="46"/>
       <c r="GG126" s="46"/>
     </row>
-    <row r="127" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="43"/>
       <c r="C127" s="43"/>
       <c r="D127" s="46"/>
@@ -25284,7 +25292,7 @@
       <c r="GF127" s="46"/>
       <c r="GG127" s="46"/>
     </row>
-    <row r="128" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="43"/>
       <c r="C128" s="43"/>
       <c r="D128" s="46"/>
@@ -25474,7 +25482,7 @@
       <c r="GF128" s="46"/>
       <c r="GG128" s="46"/>
     </row>
-    <row r="129" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129" s="43"/>
       <c r="C129" s="43"/>
       <c r="D129" s="46"/>
@@ -25664,7 +25672,7 @@
       <c r="GF129" s="46"/>
       <c r="GG129" s="46"/>
     </row>
-    <row r="130" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="43"/>
       <c r="C130" s="43"/>
       <c r="D130" s="46"/>
@@ -25854,7 +25862,7 @@
       <c r="GF130" s="46"/>
       <c r="GG130" s="46"/>
     </row>
-    <row r="131" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="43"/>
       <c r="C131" s="43"/>
       <c r="D131" s="46"/>
@@ -26044,7 +26052,7 @@
       <c r="GF131" s="46"/>
       <c r="GG131" s="46"/>
     </row>
-    <row r="132" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132" s="43"/>
       <c r="C132" s="43"/>
       <c r="D132" s="46"/>
@@ -26234,7 +26242,7 @@
       <c r="GF132" s="46"/>
       <c r="GG132" s="46"/>
     </row>
-    <row r="133" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133" s="43"/>
       <c r="C133" s="43"/>
       <c r="D133" s="46"/>
@@ -26424,7 +26432,7 @@
       <c r="GF133" s="46"/>
       <c r="GG133" s="46"/>
     </row>
-    <row r="134" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134" s="43"/>
       <c r="C134" s="43"/>
       <c r="D134" s="46"/>
@@ -26614,7 +26622,7 @@
       <c r="GF134" s="46"/>
       <c r="GG134" s="46"/>
     </row>
-    <row r="135" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="43"/>
       <c r="C135" s="43"/>
       <c r="D135" s="46"/>
@@ -26804,7 +26812,7 @@
       <c r="GF135" s="46"/>
       <c r="GG135" s="46"/>
     </row>
-    <row r="136" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="43"/>
       <c r="C136" s="43"/>
       <c r="D136" s="46"/>
@@ -26994,7 +27002,7 @@
       <c r="GF136" s="46"/>
       <c r="GG136" s="46"/>
     </row>
-    <row r="137" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="43"/>
       <c r="C137" s="43"/>
       <c r="D137" s="46"/>
@@ -27184,7 +27192,7 @@
       <c r="GF137" s="46"/>
       <c r="GG137" s="46"/>
     </row>
-    <row r="138" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B138" s="43"/>
       <c r="C138" s="43"/>
       <c r="D138" s="46"/>
@@ -27374,7 +27382,7 @@
       <c r="GF138" s="46"/>
       <c r="GG138" s="46"/>
     </row>
-    <row r="139" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B139" s="43"/>
       <c r="C139" s="43"/>
       <c r="D139" s="46"/>
@@ -27564,7 +27572,7 @@
       <c r="GF139" s="46"/>
       <c r="GG139" s="46"/>
     </row>
-    <row r="140" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B140" s="43"/>
       <c r="C140" s="43"/>
       <c r="D140" s="46"/>
@@ -27754,7 +27762,7 @@
       <c r="GF140" s="46"/>
       <c r="GG140" s="46"/>
     </row>
-    <row r="141" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="43"/>
       <c r="C141" s="43"/>
       <c r="D141" s="46"/>
@@ -27944,7 +27952,7 @@
       <c r="GF141" s="46"/>
       <c r="GG141" s="46"/>
     </row>
-    <row r="142" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="43"/>
       <c r="C142" s="43"/>
       <c r="D142" s="46"/>
@@ -28134,7 +28142,7 @@
       <c r="GF142" s="46"/>
       <c r="GG142" s="46"/>
     </row>
-    <row r="143" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B143" s="43"/>
       <c r="C143" s="43"/>
       <c r="D143" s="46"/>
@@ -28324,7 +28332,7 @@
       <c r="GF143" s="46"/>
       <c r="GG143" s="46"/>
     </row>
-    <row r="144" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B144" s="43"/>
       <c r="C144" s="43"/>
       <c r="D144" s="46"/>
@@ -28514,7 +28522,7 @@
       <c r="GF144" s="46"/>
       <c r="GG144" s="46"/>
     </row>
-    <row r="145" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B145" s="43"/>
       <c r="C145" s="43"/>
       <c r="D145" s="46"/>
@@ -28704,7 +28712,7 @@
       <c r="GF145" s="46"/>
       <c r="GG145" s="46"/>
     </row>
-    <row r="146" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B146" s="43"/>
       <c r="C146" s="43"/>
       <c r="D146" s="46"/>
@@ -28894,7 +28902,7 @@
       <c r="GF146" s="46"/>
       <c r="GG146" s="46"/>
     </row>
-    <row r="147" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B147" s="43"/>
       <c r="C147" s="43"/>
       <c r="D147" s="46"/>
@@ -29084,7 +29092,7 @@
       <c r="GF147" s="46"/>
       <c r="GG147" s="46"/>
     </row>
-    <row r="148" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B148" s="43"/>
       <c r="C148" s="43"/>
       <c r="D148" s="46"/>
@@ -29274,7 +29282,7 @@
       <c r="GF148" s="46"/>
       <c r="GG148" s="46"/>
     </row>
-    <row r="149" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B149" s="43"/>
       <c r="C149" s="43"/>
       <c r="D149" s="46"/>
@@ -29464,7 +29472,7 @@
       <c r="GF149" s="46"/>
       <c r="GG149" s="46"/>
     </row>
-    <row r="150" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="43"/>
       <c r="C150" s="43"/>
       <c r="D150" s="46"/>
@@ -29654,7 +29662,7 @@
       <c r="GF150" s="46"/>
       <c r="GG150" s="46"/>
     </row>
-    <row r="151" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B151" s="43"/>
       <c r="C151" s="43"/>
       <c r="D151" s="46"/>
@@ -29844,7 +29852,7 @@
       <c r="GF151" s="46"/>
       <c r="GG151" s="46"/>
     </row>
-    <row r="152" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B152" s="43"/>
       <c r="C152" s="43"/>
       <c r="D152" s="46"/>
@@ -30034,7 +30042,7 @@
       <c r="GF152" s="46"/>
       <c r="GG152" s="46"/>
     </row>
-    <row r="153" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B153" s="43"/>
       <c r="C153" s="43"/>
       <c r="D153" s="46"/>
@@ -30224,7 +30232,7 @@
       <c r="GF153" s="46"/>
       <c r="GG153" s="46"/>
     </row>
-    <row r="154" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
       <c r="D154" s="46"/>
@@ -30414,7 +30422,7 @@
       <c r="GF154" s="46"/>
       <c r="GG154" s="46"/>
     </row>
-    <row r="155" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B155" s="43"/>
       <c r="C155" s="43"/>
       <c r="D155" s="46"/>
@@ -30604,7 +30612,7 @@
       <c r="GF155" s="46"/>
       <c r="GG155" s="46"/>
     </row>
-    <row r="156" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B156" s="43"/>
       <c r="C156" s="43"/>
       <c r="D156" s="46"/>
@@ -30794,7 +30802,7 @@
       <c r="GF156" s="46"/>
       <c r="GG156" s="46"/>
     </row>
-    <row r="157" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B157" s="43"/>
       <c r="C157" s="43"/>
       <c r="D157" s="46"/>
@@ -30984,7 +30992,7 @@
       <c r="GF157" s="46"/>
       <c r="GG157" s="46"/>
     </row>
-    <row r="158" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="43"/>
       <c r="C158" s="43"/>
       <c r="D158" s="46"/>
@@ -31174,7 +31182,7 @@
       <c r="GF158" s="46"/>
       <c r="GG158" s="46"/>
     </row>
-    <row r="159" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="43"/>
       <c r="C159" s="43"/>
       <c r="D159" s="46"/>
@@ -31364,7 +31372,7 @@
       <c r="GF159" s="46"/>
       <c r="GG159" s="46"/>
     </row>
-    <row r="160" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B160" s="43"/>
       <c r="C160" s="43"/>
       <c r="D160" s="46"/>
@@ -31554,7 +31562,7 @@
       <c r="GF160" s="46"/>
       <c r="GG160" s="46"/>
     </row>
-    <row r="161" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B161" s="43"/>
       <c r="C161" s="43"/>
       <c r="D161" s="46"/>
@@ -31744,7 +31752,7 @@
       <c r="GF161" s="46"/>
       <c r="GG161" s="46"/>
     </row>
-    <row r="162" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B162" s="43"/>
       <c r="C162" s="43"/>
       <c r="D162" s="46"/>
@@ -31934,7 +31942,7 @@
       <c r="GF162" s="46"/>
       <c r="GG162" s="46"/>
     </row>
-    <row r="163" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B163" s="43"/>
       <c r="C163" s="43"/>
       <c r="D163" s="46"/>
@@ -32124,7 +32132,7 @@
       <c r="GF163" s="46"/>
       <c r="GG163" s="46"/>
     </row>
-    <row r="164" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B164" s="43"/>
       <c r="C164" s="43"/>
       <c r="D164" s="46"/>
@@ -32314,7 +32322,7 @@
       <c r="GF164" s="46"/>
       <c r="GG164" s="46"/>
     </row>
-    <row r="165" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B165" s="43"/>
       <c r="C165" s="43"/>
       <c r="D165" s="46"/>
@@ -32504,7 +32512,7 @@
       <c r="GF165" s="46"/>
       <c r="GG165" s="46"/>
     </row>
-    <row r="166" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B166" s="43"/>
       <c r="C166" s="43"/>
       <c r="D166" s="46"/>
@@ -32694,7 +32702,7 @@
       <c r="GF166" s="46"/>
       <c r="GG166" s="46"/>
     </row>
-    <row r="167" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B167" s="43"/>
       <c r="C167" s="43"/>
       <c r="D167" s="46"/>
@@ -32884,7 +32892,7 @@
       <c r="GF167" s="46"/>
       <c r="GG167" s="46"/>
     </row>
-    <row r="168" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B168" s="43"/>
       <c r="C168" s="43"/>
       <c r="D168" s="46"/>
@@ -33074,7 +33082,7 @@
       <c r="GF168" s="46"/>
       <c r="GG168" s="46"/>
     </row>
-    <row r="169" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B169" s="43"/>
       <c r="C169" s="43"/>
       <c r="D169" s="46"/>
@@ -33264,7 +33272,7 @@
       <c r="GF169" s="46"/>
       <c r="GG169" s="46"/>
     </row>
-    <row r="170" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B170" s="43"/>
       <c r="C170" s="43"/>
       <c r="D170" s="46"/>
@@ -33454,7 +33462,7 @@
       <c r="GF170" s="46"/>
       <c r="GG170" s="46"/>
     </row>
-    <row r="171" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B171" s="43"/>
       <c r="C171" s="43"/>
       <c r="D171" s="46"/>
@@ -33644,7 +33652,7 @@
       <c r="GF171" s="46"/>
       <c r="GG171" s="46"/>
     </row>
-    <row r="172" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B172" s="43"/>
       <c r="C172" s="43"/>
       <c r="D172" s="46"/>
@@ -33834,7 +33842,7 @@
       <c r="GF172" s="46"/>
       <c r="GG172" s="46"/>
     </row>
-    <row r="173" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B173" s="43"/>
       <c r="C173" s="43"/>
       <c r="D173" s="46"/>
@@ -34024,7 +34032,7 @@
       <c r="GF173" s="46"/>
       <c r="GG173" s="46"/>
     </row>
-    <row r="174" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B174" s="43"/>
       <c r="C174" s="43"/>
       <c r="D174" s="46"/>
@@ -34214,7 +34222,7 @@
       <c r="GF174" s="46"/>
       <c r="GG174" s="46"/>
     </row>
-    <row r="175" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B175" s="43"/>
       <c r="C175" s="43"/>
       <c r="D175" s="46"/>
@@ -34404,7 +34412,7 @@
       <c r="GF175" s="46"/>
       <c r="GG175" s="46"/>
     </row>
-    <row r="176" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B176" s="43"/>
       <c r="C176" s="43"/>
       <c r="D176" s="46"/>
@@ -34594,7 +34602,7 @@
       <c r="GF176" s="46"/>
       <c r="GG176" s="46"/>
     </row>
-    <row r="177" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B177" s="43"/>
       <c r="C177" s="43"/>
       <c r="D177" s="46"/>
@@ -34784,7 +34792,7 @@
       <c r="GF177" s="46"/>
       <c r="GG177" s="46"/>
     </row>
-    <row r="178" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B178" s="43"/>
       <c r="C178" s="43"/>
       <c r="D178" s="46"/>
@@ -34974,7 +34982,7 @@
       <c r="GF178" s="46"/>
       <c r="GG178" s="46"/>
     </row>
-    <row r="179" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B179" s="43"/>
       <c r="C179" s="43"/>
       <c r="D179" s="46"/>
@@ -35164,7 +35172,7 @@
       <c r="GF179" s="46"/>
       <c r="GG179" s="46"/>
     </row>
-    <row r="180" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B180" s="43"/>
       <c r="C180" s="43"/>
       <c r="D180" s="46"/>
@@ -35354,7 +35362,7 @@
       <c r="GF180" s="46"/>
       <c r="GG180" s="46"/>
     </row>
-    <row r="181" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B181" s="43"/>
       <c r="C181" s="43"/>
       <c r="D181" s="46"/>
@@ -35544,7 +35552,7 @@
       <c r="GF181" s="46"/>
       <c r="GG181" s="46"/>
     </row>
-    <row r="182" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B182" s="43"/>
       <c r="C182" s="43"/>
       <c r="D182" s="46"/>
@@ -35734,7 +35742,7 @@
       <c r="GF182" s="46"/>
       <c r="GG182" s="46"/>
     </row>
-    <row r="183" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B183" s="43"/>
       <c r="C183" s="43"/>
       <c r="D183" s="46"/>
@@ -35924,7 +35932,7 @@
       <c r="GF183" s="46"/>
       <c r="GG183" s="46"/>
     </row>
-    <row r="184" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B184" s="43"/>
       <c r="C184" s="43"/>
       <c r="D184" s="46"/>
@@ -36114,7 +36122,7 @@
       <c r="GF184" s="46"/>
       <c r="GG184" s="46"/>
     </row>
-    <row r="185" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B185" s="43"/>
       <c r="C185" s="43"/>
       <c r="D185" s="46"/>
@@ -36304,7 +36312,7 @@
       <c r="GF185" s="46"/>
       <c r="GG185" s="46"/>
     </row>
-    <row r="186" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B186" s="43"/>
       <c r="C186" s="43"/>
       <c r="D186" s="46"/>
@@ -36494,7 +36502,7 @@
       <c r="GF186" s="46"/>
       <c r="GG186" s="46"/>
     </row>
-    <row r="187" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B187" s="43"/>
       <c r="C187" s="43"/>
       <c r="D187" s="46"/>
@@ -36684,7 +36692,7 @@
       <c r="GF187" s="46"/>
       <c r="GG187" s="46"/>
     </row>
-    <row r="188" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B188" s="43"/>
       <c r="C188" s="43"/>
       <c r="D188" s="46"/>
@@ -36874,7 +36882,7 @@
       <c r="GF188" s="46"/>
       <c r="GG188" s="46"/>
     </row>
-    <row r="189" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B189" s="43"/>
       <c r="C189" s="43"/>
       <c r="D189" s="46"/>
@@ -37064,7 +37072,7 @@
       <c r="GF189" s="46"/>
       <c r="GG189" s="46"/>
     </row>
-    <row r="190" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B190" s="43"/>
       <c r="C190" s="43"/>
       <c r="D190" s="46"/>
@@ -37254,7 +37262,7 @@
       <c r="GF190" s="46"/>
       <c r="GG190" s="46"/>
     </row>
-    <row r="191" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B191" s="43"/>
       <c r="C191" s="43"/>
       <c r="D191" s="46"/>
@@ -37444,7 +37452,7 @@
       <c r="GF191" s="46"/>
       <c r="GG191" s="46"/>
     </row>
-    <row r="192" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B192" s="43"/>
       <c r="C192" s="43"/>
       <c r="D192" s="46"/>
@@ -37634,7 +37642,7 @@
       <c r="GF192" s="46"/>
       <c r="GG192" s="46"/>
     </row>
-    <row r="193" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="43"/>
       <c r="C193" s="43"/>
       <c r="D193" s="46"/>
@@ -37824,7 +37832,7 @@
       <c r="GF193" s="46"/>
       <c r="GG193" s="46"/>
     </row>
-    <row r="194" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B194" s="43"/>
       <c r="C194" s="43"/>
       <c r="D194" s="46"/>
@@ -38014,7 +38022,7 @@
       <c r="GF194" s="46"/>
       <c r="GG194" s="46"/>
     </row>
-    <row r="195" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B195" s="43"/>
       <c r="C195" s="43"/>
       <c r="D195" s="46"/>
@@ -38204,7 +38212,7 @@
       <c r="GF195" s="46"/>
       <c r="GG195" s="46"/>
     </row>
-    <row r="196" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B196" s="43"/>
       <c r="C196" s="43"/>
       <c r="D196" s="46"/>
@@ -38394,7 +38402,7 @@
       <c r="GF196" s="46"/>
       <c r="GG196" s="46"/>
     </row>
-    <row r="197" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B197" s="43"/>
       <c r="C197" s="43"/>
       <c r="D197" s="46"/>
@@ -38584,7 +38592,7 @@
       <c r="GF197" s="46"/>
       <c r="GG197" s="46"/>
     </row>
-    <row r="198" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B198" s="43"/>
       <c r="C198" s="43"/>
       <c r="D198" s="46"/>
@@ -38774,7 +38782,7 @@
       <c r="GF198" s="46"/>
       <c r="GG198" s="46"/>
     </row>
-    <row r="199" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B199" s="43"/>
       <c r="C199" s="43"/>
       <c r="D199" s="46"/>
@@ -38964,7 +38972,7 @@
       <c r="GF199" s="46"/>
       <c r="GG199" s="46"/>
     </row>
-    <row r="200" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B200" s="43"/>
       <c r="C200" s="43"/>
       <c r="D200" s="46"/>
@@ -39154,7 +39162,7 @@
       <c r="GF200" s="46"/>
       <c r="GG200" s="46"/>
     </row>
-    <row r="201" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B201" s="43"/>
       <c r="C201" s="43"/>
       <c r="D201" s="46"/>
@@ -39344,7 +39352,7 @@
       <c r="GF201" s="46"/>
       <c r="GG201" s="46"/>
     </row>
-    <row r="202" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B202" s="43"/>
       <c r="C202" s="43"/>
       <c r="D202" s="46"/>
@@ -39534,7 +39542,7 @@
       <c r="GF202" s="46"/>
       <c r="GG202" s="46"/>
     </row>
-    <row r="203" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B203" s="43"/>
       <c r="C203" s="43"/>
       <c r="D203" s="46"/>
@@ -39724,7 +39732,7 @@
       <c r="GF203" s="46"/>
       <c r="GG203" s="46"/>
     </row>
-    <row r="204" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B204" s="43"/>
       <c r="C204" s="43"/>
       <c r="D204" s="46"/>
@@ -39914,7 +39922,7 @@
       <c r="GF204" s="46"/>
       <c r="GG204" s="46"/>
     </row>
-    <row r="205" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B205" s="43"/>
       <c r="C205" s="43"/>
       <c r="D205" s="46"/>
@@ -40104,7 +40112,7 @@
       <c r="GF205" s="46"/>
       <c r="GG205" s="46"/>
     </row>
-    <row r="206" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B206" s="43"/>
       <c r="C206" s="43"/>
       <c r="D206" s="46"/>
@@ -40294,7 +40302,7 @@
       <c r="GF206" s="46"/>
       <c r="GG206" s="46"/>
     </row>
-    <row r="207" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B207" s="43"/>
       <c r="C207" s="43"/>
       <c r="D207" s="46"/>
@@ -40484,7 +40492,7 @@
       <c r="GF207" s="46"/>
       <c r="GG207" s="46"/>
     </row>
-    <row r="208" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B208" s="43"/>
       <c r="C208" s="43"/>
       <c r="D208" s="46"/>
@@ -40674,7 +40682,7 @@
       <c r="GF208" s="46"/>
       <c r="GG208" s="46"/>
     </row>
-    <row r="209" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B209" s="43"/>
       <c r="C209" s="43"/>
       <c r="D209" s="46"/>
@@ -40864,7 +40872,7 @@
       <c r="GF209" s="46"/>
       <c r="GG209" s="46"/>
     </row>
-    <row r="210" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B210" s="43"/>
       <c r="C210" s="43"/>
       <c r="D210" s="46"/>
@@ -41054,7 +41062,7 @@
       <c r="GF210" s="46"/>
       <c r="GG210" s="46"/>
     </row>
-    <row r="211" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B211" s="43"/>
       <c r="C211" s="43"/>
       <c r="D211" s="46"/>
@@ -41244,7 +41252,7 @@
       <c r="GF211" s="46"/>
       <c r="GG211" s="46"/>
     </row>
-    <row r="212" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B212" s="43"/>
       <c r="C212" s="43"/>
       <c r="D212" s="46"/>
@@ -41434,7 +41442,7 @@
       <c r="GF212" s="46"/>
       <c r="GG212" s="46"/>
     </row>
-    <row r="213" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B213" s="43"/>
       <c r="C213" s="43"/>
       <c r="D213" s="46"/>
@@ -41624,7 +41632,7 @@
       <c r="GF213" s="46"/>
       <c r="GG213" s="46"/>
     </row>
-    <row r="214" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="43"/>
       <c r="C214" s="43"/>
       <c r="D214" s="46"/>
@@ -41814,7 +41822,7 @@
       <c r="GF214" s="46"/>
       <c r="GG214" s="46"/>
     </row>
-    <row r="215" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B215" s="43"/>
       <c r="C215" s="43"/>
       <c r="D215" s="46"/>
@@ -42004,7 +42012,7 @@
       <c r="GF215" s="46"/>
       <c r="GG215" s="46"/>
     </row>
-    <row r="216" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B216" s="43"/>
       <c r="C216" s="43"/>
       <c r="D216" s="46"/>
@@ -42194,7 +42202,7 @@
       <c r="GF216" s="46"/>
       <c r="GG216" s="46"/>
     </row>
-    <row r="217" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B217" s="43"/>
       <c r="C217" s="43"/>
       <c r="D217" s="46"/>
@@ -42384,7 +42392,7 @@
       <c r="GF217" s="46"/>
       <c r="GG217" s="46"/>
     </row>
-    <row r="218" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B218" s="43"/>
       <c r="C218" s="43"/>
       <c r="D218" s="46"/>
@@ -42574,7 +42582,7 @@
       <c r="GF218" s="46"/>
       <c r="GG218" s="46"/>
     </row>
-    <row r="219" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B219" s="43"/>
       <c r="C219" s="43"/>
       <c r="D219" s="46"/>
@@ -42764,7 +42772,7 @@
       <c r="GF219" s="46"/>
       <c r="GG219" s="46"/>
     </row>
-    <row r="220" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B220" s="43"/>
       <c r="C220" s="43"/>
       <c r="D220" s="46"/>
@@ -42954,7 +42962,7 @@
       <c r="GF220" s="46"/>
       <c r="GG220" s="46"/>
     </row>
-    <row r="221" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B221" s="43"/>
       <c r="C221" s="43"/>
       <c r="D221" s="46"/>
@@ -43144,7 +43152,7 @@
       <c r="GF221" s="46"/>
       <c r="GG221" s="46"/>
     </row>
-    <row r="222" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B222" s="43"/>
       <c r="C222" s="43"/>
       <c r="D222" s="46"/>
@@ -43334,7 +43342,7 @@
       <c r="GF222" s="46"/>
       <c r="GG222" s="46"/>
     </row>
-    <row r="223" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B223" s="43"/>
       <c r="C223" s="43"/>
       <c r="D223" s="46"/>
@@ -43524,7 +43532,7 @@
       <c r="GF223" s="46"/>
       <c r="GG223" s="46"/>
     </row>
-    <row r="224" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B224" s="43"/>
       <c r="C224" s="43"/>
       <c r="D224" s="46"/>
@@ -43714,7 +43722,7 @@
       <c r="GF224" s="46"/>
       <c r="GG224" s="46"/>
     </row>
-    <row r="225" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B225" s="43"/>
       <c r="C225" s="43"/>
       <c r="D225" s="46"/>
@@ -43904,7 +43912,7 @@
       <c r="GF225" s="46"/>
       <c r="GG225" s="46"/>
     </row>
-    <row r="226" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B226" s="43"/>
       <c r="C226" s="43"/>
       <c r="D226" s="46"/>
@@ -44094,7 +44102,7 @@
       <c r="GF226" s="46"/>
       <c r="GG226" s="46"/>
     </row>
-    <row r="227" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B227" s="43"/>
       <c r="C227" s="43"/>
       <c r="D227" s="46"/>
@@ -44284,7 +44292,7 @@
       <c r="GF227" s="46"/>
       <c r="GG227" s="46"/>
     </row>
-    <row r="228" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B228" s="43"/>
       <c r="C228" s="43"/>
       <c r="D228" s="46"/>
@@ -44474,7 +44482,7 @@
       <c r="GF228" s="46"/>
       <c r="GG228" s="46"/>
     </row>
-    <row r="229" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B229" s="43"/>
       <c r="C229" s="43"/>
       <c r="D229" s="46"/>
@@ -44664,7 +44672,7 @@
       <c r="GF229" s="46"/>
       <c r="GG229" s="46"/>
     </row>
-    <row r="230" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B230" s="43"/>
       <c r="C230" s="43"/>
       <c r="D230" s="46"/>
@@ -44854,7 +44862,7 @@
       <c r="GF230" s="46"/>
       <c r="GG230" s="46"/>
     </row>
-    <row r="231" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B231" s="43"/>
       <c r="C231" s="43"/>
       <c r="D231" s="46"/>
@@ -45044,7 +45052,7 @@
       <c r="GF231" s="46"/>
       <c r="GG231" s="46"/>
     </row>
-    <row r="232" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B232" s="43"/>
       <c r="C232" s="43"/>
       <c r="D232" s="46"/>
@@ -45234,7 +45242,7 @@
       <c r="GF232" s="46"/>
       <c r="GG232" s="46"/>
     </row>
-    <row r="233" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B233" s="43"/>
       <c r="C233" s="43"/>
       <c r="D233" s="46"/>
@@ -45424,7 +45432,7 @@
       <c r="GF233" s="46"/>
       <c r="GG233" s="46"/>
     </row>
-    <row r="234" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B234" s="43"/>
       <c r="C234" s="43"/>
       <c r="D234" s="46"/>
@@ -45614,7 +45622,7 @@
       <c r="GF234" s="46"/>
       <c r="GG234" s="46"/>
     </row>
-    <row r="235" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B235" s="43"/>
       <c r="C235" s="43"/>
       <c r="D235" s="46"/>
@@ -45804,7 +45812,7 @@
       <c r="GF235" s="46"/>
       <c r="GG235" s="46"/>
     </row>
-    <row r="236" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B236" s="43"/>
       <c r="C236" s="43"/>
       <c r="D236" s="46"/>
@@ -45994,7 +46002,7 @@
       <c r="GF236" s="46"/>
       <c r="GG236" s="46"/>
     </row>
-    <row r="237" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B237" s="43"/>
       <c r="C237" s="43"/>
       <c r="D237" s="46"/>
@@ -46184,7 +46192,7 @@
       <c r="GF237" s="46"/>
       <c r="GG237" s="46"/>
     </row>
-    <row r="238" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B238" s="43"/>
       <c r="C238" s="43"/>
       <c r="D238" s="46"/>
@@ -46374,7 +46382,7 @@
       <c r="GF238" s="46"/>
       <c r="GG238" s="46"/>
     </row>
-    <row r="239" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="43"/>
       <c r="C239" s="43"/>
       <c r="D239" s="46"/>
@@ -46564,7 +46572,7 @@
       <c r="GF239" s="46"/>
       <c r="GG239" s="46"/>
     </row>
-    <row r="240" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B240" s="43"/>
       <c r="C240" s="43"/>
       <c r="D240" s="46"/>
@@ -46754,7 +46762,7 @@
       <c r="GF240" s="46"/>
       <c r="GG240" s="46"/>
     </row>
-    <row r="241" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B241" s="43"/>
       <c r="C241" s="43"/>
       <c r="D241" s="46"/>
@@ -46944,7 +46952,7 @@
       <c r="GF241" s="46"/>
       <c r="GG241" s="46"/>
     </row>
-    <row r="242" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B242" s="43"/>
       <c r="C242" s="43"/>
       <c r="D242" s="46"/>
@@ -47134,7 +47142,7 @@
       <c r="GF242" s="46"/>
       <c r="GG242" s="46"/>
     </row>
-    <row r="243" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B243" s="43"/>
       <c r="C243" s="43"/>
       <c r="D243" s="46"/>
@@ -47324,7 +47332,7 @@
       <c r="GF243" s="46"/>
       <c r="GG243" s="46"/>
     </row>
-    <row r="244" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
       <c r="D244" s="46"/>
@@ -47514,7 +47522,7 @@
       <c r="GF244" s="46"/>
       <c r="GG244" s="46"/>
     </row>
-    <row r="245" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B245" s="43"/>
       <c r="C245" s="43"/>
       <c r="D245" s="46"/>
@@ -47704,7 +47712,7 @@
       <c r="GF245" s="46"/>
       <c r="GG245" s="46"/>
     </row>
-    <row r="246" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B246" s="43"/>
       <c r="C246" s="43"/>
       <c r="D246" s="46"/>
@@ -47894,7 +47902,7 @@
       <c r="GF246" s="46"/>
       <c r="GG246" s="46"/>
     </row>
-    <row r="247" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B247" s="43"/>
       <c r="C247" s="43"/>
       <c r="D247" s="46"/>
@@ -48084,7 +48092,7 @@
       <c r="GF247" s="46"/>
       <c r="GG247" s="46"/>
     </row>
-    <row r="248" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B248" s="43"/>
       <c r="C248" s="43"/>
       <c r="D248" s="46"/>
@@ -48274,7 +48282,7 @@
       <c r="GF248" s="46"/>
       <c r="GG248" s="46"/>
     </row>
-    <row r="249" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="43"/>
       <c r="C249" s="43"/>
       <c r="D249" s="46"/>
@@ -48464,7 +48472,7 @@
       <c r="GF249" s="46"/>
       <c r="GG249" s="46"/>
     </row>
-    <row r="250" spans="2:189" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:189" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B250" s="43"/>
       <c r="C250" s="43"/>
       <c r="D250" s="46"/>
@@ -48657,22 +48665,22 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B116">
-    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="13" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="15" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48710,20 +48718,20 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="57.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
-    <col min="8" max="8" width="51.5546875" customWidth="1"/>
-    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="8" max="8" width="51.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -48742,7 +48750,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -48766,7 +48774,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -48785,7 +48793,7 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -48808,7 +48816,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
@@ -48827,7 +48835,7 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
@@ -48851,7 +48859,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
@@ -48870,7 +48878,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>2</v>
@@ -48891,7 +48899,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -48910,33 +48918,33 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="88" t="s">
-        <v>64</v>
+      <c r="E10" s="72" t="s">
+        <v>36</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="F10" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>38</v>
+      <c r="G10" s="35" t="s">
+        <v>22</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="H10" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="48"/>
       <c r="C11" s="49"/>
       <c r="D11" s="50"/>
@@ -48946,7 +48954,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="48"/>
       <c r="C12" s="53"/>
       <c r="D12" s="54"/>
@@ -48956,7 +48964,7 @@
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
     </row>
-    <row r="13" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="48"/>
       <c r="C13" s="55"/>
       <c r="D13" s="50"/>
@@ -48966,7 +48974,7 @@
       <c r="H13" s="52"/>
       <c r="I13" s="52"/>
     </row>
-    <row r="14" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="48"/>
       <c r="C14" s="49"/>
       <c r="D14" s="50"/>
@@ -48976,7 +48984,7 @@
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
     </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="48"/>
       <c r="C15" s="49"/>
       <c r="D15" s="50"/>
@@ -48986,7 +48994,7 @@
       <c r="H15" s="52"/>
       <c r="I15" s="52"/>
     </row>
-    <row r="16" spans="1:17" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="48"/>
       <c r="C16" s="49"/>
       <c r="D16" s="50"/>
@@ -48996,7 +49004,7 @@
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
     </row>
-    <row r="17" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="48"/>
       <c r="C17" s="49"/>
       <c r="D17" s="50"/>
@@ -49006,7 +49014,7 @@
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
     </row>
-    <row r="18" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="48"/>
       <c r="C18" s="49"/>
       <c r="D18" s="50"/>
@@ -49016,7 +49024,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
     </row>
-    <row r="19" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="56"/>
       <c r="C19" s="57"/>
       <c r="D19" s="58"/>
@@ -49026,7 +49034,7 @@
       <c r="H19" s="60"/>
       <c r="I19" s="52"/>
     </row>
-    <row r="20" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="56"/>
       <c r="C20" s="57"/>
       <c r="D20" s="58"/>
@@ -49036,7 +49044,7 @@
       <c r="H20" s="60"/>
       <c r="I20" s="52"/>
     </row>
-    <row r="21" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="56"/>
       <c r="C21" s="57"/>
       <c r="D21" s="58"/>
@@ -49046,7 +49054,7 @@
       <c r="H21" s="60"/>
       <c r="I21" s="52"/>
     </row>
-    <row r="22" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="56"/>
       <c r="C22" s="57"/>
       <c r="D22" s="58"/>
@@ -49056,7 +49064,7 @@
       <c r="H22" s="60"/>
       <c r="I22" s="52"/>
     </row>
-    <row r="23" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="56"/>
       <c r="C23" s="57"/>
       <c r="D23" s="58"/>
@@ -49066,7 +49074,7 @@
       <c r="H23" s="60"/>
       <c r="I23" s="52"/>
     </row>
-    <row r="24" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="56"/>
       <c r="C24" s="57"/>
       <c r="D24" s="58"/>
@@ -49076,7 +49084,7 @@
       <c r="H24" s="60"/>
       <c r="I24" s="52"/>
     </row>
-    <row r="25" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="56"/>
       <c r="C25" s="57"/>
       <c r="D25" s="58"/>
@@ -49086,7 +49094,7 @@
       <c r="H25" s="60"/>
       <c r="I25" s="52"/>
     </row>
-    <row r="26" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="56"/>
       <c r="C26" s="57"/>
       <c r="D26" s="58"/>
@@ -49096,7 +49104,7 @@
       <c r="H26" s="60"/>
       <c r="I26" s="52"/>
     </row>
-    <row r="27" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="56"/>
       <c r="C27" s="57"/>
       <c r="D27" s="58"/>
@@ -49106,7 +49114,7 @@
       <c r="H27" s="60"/>
       <c r="I27" s="52"/>
     </row>
-    <row r="28" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="56"/>
       <c r="C28" s="57"/>
       <c r="D28" s="58"/>
@@ -49116,7 +49124,7 @@
       <c r="H28" s="60"/>
       <c r="I28" s="52"/>
     </row>
-    <row r="29" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="61"/>
       <c r="C29" s="62"/>
       <c r="D29" s="63"/>
@@ -49126,7 +49134,7 @@
       <c r="H29" s="60"/>
       <c r="I29" s="65"/>
     </row>
-    <row r="30" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="66"/>
       <c r="C30" s="67"/>
       <c r="D30" s="68"/>
@@ -49136,7 +49144,7 @@
       <c r="H30" s="60"/>
       <c r="I30" s="52"/>
     </row>
-    <row r="31" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="66"/>
       <c r="C31" s="67"/>
       <c r="D31" s="68"/>
@@ -49146,7 +49154,7 @@
       <c r="H31" s="60"/>
       <c r="I31" s="52"/>
     </row>
-    <row r="32" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="66"/>
       <c r="C32" s="67"/>
       <c r="D32" s="68"/>
@@ -49156,7 +49164,7 @@
       <c r="H32" s="60"/>
       <c r="I32" s="52"/>
     </row>
-    <row r="33" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="66"/>
       <c r="C33" s="67"/>
       <c r="D33" s="68"/>
@@ -49166,7 +49174,7 @@
       <c r="H33" s="60"/>
       <c r="I33" s="52"/>
     </row>
-    <row r="34" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="66"/>
       <c r="C34" s="67"/>
       <c r="D34" s="68"/>
@@ -49176,7 +49184,7 @@
       <c r="H34" s="60"/>
       <c r="I34" s="52"/>
     </row>
-    <row r="35" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="66"/>
       <c r="C35" s="67"/>
       <c r="D35" s="68"/>
@@ -49186,7 +49194,7 @@
       <c r="H35" s="60"/>
       <c r="I35" s="52"/>
     </row>
-    <row r="36" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="66"/>
       <c r="C36" s="67"/>
       <c r="D36" s="68"/>
@@ -49196,7 +49204,7 @@
       <c r="H36" s="60"/>
       <c r="I36" s="52"/>
     </row>
-    <row r="37" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="66"/>
       <c r="C37" s="67"/>
       <c r="D37" s="68"/>
@@ -49206,7 +49214,7 @@
       <c r="H37" s="60"/>
       <c r="I37" s="52"/>
     </row>
-    <row r="38" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="66"/>
       <c r="C38" s="67"/>
       <c r="D38" s="68"/>
@@ -49216,7 +49224,7 @@
       <c r="H38" s="60"/>
       <c r="I38" s="52"/>
     </row>
-    <row r="39" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="66"/>
       <c r="C39" s="67"/>
       <c r="D39" s="68"/>
@@ -49226,7 +49234,7 @@
       <c r="H39" s="60"/>
       <c r="I39" s="52"/>
     </row>
-    <row r="40" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="66"/>
       <c r="C40" s="67"/>
       <c r="D40" s="68"/>
@@ -49236,7 +49244,7 @@
       <c r="H40" s="60"/>
       <c r="I40" s="52"/>
     </row>
-    <row r="41" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="66"/>
       <c r="C41" s="67"/>
       <c r="D41" s="68"/>
@@ -49246,7 +49254,7 @@
       <c r="H41" s="60"/>
       <c r="I41" s="52"/>
     </row>
-    <row r="42" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="66"/>
       <c r="C42" s="67"/>
       <c r="D42" s="68"/>
@@ -49256,7 +49264,7 @@
       <c r="H42" s="60"/>
       <c r="I42" s="52"/>
     </row>
-    <row r="43" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="66"/>
       <c r="C43" s="67"/>
       <c r="D43" s="68"/>
@@ -49266,7 +49274,7 @@
       <c r="H43" s="60"/>
       <c r="I43" s="52"/>
     </row>
-    <row r="44" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="66"/>
       <c r="C44" s="67"/>
       <c r="D44" s="68"/>
@@ -49276,7 +49284,7 @@
       <c r="H44" s="60"/>
       <c r="I44" s="52"/>
     </row>
-    <row r="45" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="66"/>
       <c r="C45" s="67"/>
       <c r="D45" s="68"/>
@@ -49286,7 +49294,7 @@
       <c r="H45" s="60"/>
       <c r="I45" s="52"/>
     </row>
-    <row r="46" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="66"/>
       <c r="C46" s="67"/>
       <c r="D46" s="68"/>
@@ -49296,7 +49304,7 @@
       <c r="H46" s="60"/>
       <c r="I46" s="52"/>
     </row>
-    <row r="47" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="66"/>
       <c r="C47" s="67"/>
       <c r="D47" s="68"/>
@@ -49306,7 +49314,7 @@
       <c r="H47" s="60"/>
       <c r="I47" s="52"/>
     </row>
-    <row r="48" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="66"/>
       <c r="C48" s="67"/>
       <c r="D48" s="68"/>
@@ -49316,7 +49324,7 @@
       <c r="H48" s="60"/>
       <c r="I48" s="52"/>
     </row>
-    <row r="49" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="66"/>
       <c r="C49" s="67"/>
       <c r="D49" s="68"/>
@@ -49326,7 +49334,7 @@
       <c r="H49" s="60"/>
       <c r="I49" s="52"/>
     </row>
-    <row r="50" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="66"/>
       <c r="C50" s="67"/>
       <c r="D50" s="68"/>
@@ -49336,7 +49344,7 @@
       <c r="H50" s="60"/>
       <c r="I50" s="52"/>
     </row>
-    <row r="51" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="66"/>
       <c r="C51" s="67"/>
       <c r="D51" s="68"/>
@@ -49346,7 +49354,7 @@
       <c r="H51" s="60"/>
       <c r="I51" s="52"/>
     </row>
-    <row r="52" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="66"/>
       <c r="C52" s="67"/>
       <c r="D52" s="68"/>
@@ -49356,7 +49364,7 @@
       <c r="H52" s="60"/>
       <c r="I52" s="52"/>
     </row>
-    <row r="53" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="66"/>
       <c r="C53" s="67"/>
       <c r="D53" s="68"/>
@@ -49366,7 +49374,7 @@
       <c r="H53" s="60"/>
       <c r="I53" s="52"/>
     </row>
-    <row r="54" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="66"/>
       <c r="C54" s="67"/>
       <c r="D54" s="68"/>
@@ -49376,7 +49384,7 @@
       <c r="H54" s="60"/>
       <c r="I54" s="52"/>
     </row>
-    <row r="55" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="66"/>
       <c r="C55" s="67"/>
       <c r="D55" s="68"/>
@@ -49386,7 +49394,7 @@
       <c r="H55" s="60"/>
       <c r="I55" s="52"/>
     </row>
-    <row r="56" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="66"/>
       <c r="C56" s="67"/>
       <c r="D56" s="68"/>
@@ -49396,7 +49404,7 @@
       <c r="H56" s="60"/>
       <c r="I56" s="52"/>
     </row>
-    <row r="57" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="66"/>
       <c r="C57" s="67"/>
       <c r="D57" s="68"/>
@@ -49406,7 +49414,7 @@
       <c r="H57" s="60"/>
       <c r="I57" s="52"/>
     </row>
-    <row r="58" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="66"/>
       <c r="C58" s="67"/>
       <c r="D58" s="68"/>
@@ -49416,7 +49424,7 @@
       <c r="H58" s="60"/>
       <c r="I58" s="52"/>
     </row>
-    <row r="59" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="66"/>
       <c r="C59" s="67"/>
       <c r="D59" s="68"/>
@@ -49426,7 +49434,7 @@
       <c r="H59" s="60"/>
       <c r="I59" s="52"/>
     </row>
-    <row r="60" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="66"/>
       <c r="C60" s="67"/>
       <c r="D60" s="68"/>
@@ -49436,7 +49444,7 @@
       <c r="H60" s="60"/>
       <c r="I60" s="52"/>
     </row>
-    <row r="61" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="66"/>
       <c r="C61" s="67"/>
       <c r="D61" s="68"/>
@@ -49446,7 +49454,7 @@
       <c r="H61" s="60"/>
       <c r="I61" s="52"/>
     </row>
-    <row r="62" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="66"/>
       <c r="C62" s="67"/>
       <c r="D62" s="68"/>
@@ -49456,7 +49464,7 @@
       <c r="H62" s="60"/>
       <c r="I62" s="52"/>
     </row>
-    <row r="63" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="66"/>
       <c r="C63" s="67"/>
       <c r="D63" s="68"/>
@@ -49466,7 +49474,7 @@
       <c r="H63" s="60"/>
       <c r="I63" s="52"/>
     </row>
-    <row r="64" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="66"/>
       <c r="C64" s="67"/>
       <c r="D64" s="68"/>
@@ -49476,7 +49484,7 @@
       <c r="H64" s="60"/>
       <c r="I64" s="52"/>
     </row>
-    <row r="65" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="66"/>
       <c r="C65" s="67"/>
       <c r="D65" s="68"/>
@@ -49486,7 +49494,7 @@
       <c r="H65" s="60"/>
       <c r="I65" s="52"/>
     </row>
-    <row r="66" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="66"/>
       <c r="C66" s="67"/>
       <c r="D66" s="68"/>
@@ -49496,7 +49504,7 @@
       <c r="H66" s="60"/>
       <c r="I66" s="52"/>
     </row>
-    <row r="67" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="66"/>
       <c r="C67" s="67"/>
       <c r="D67" s="68"/>
@@ -49506,7 +49514,7 @@
       <c r="H67" s="60"/>
       <c r="I67" s="52"/>
     </row>
-    <row r="68" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="66"/>
       <c r="C68" s="67"/>
       <c r="D68" s="68"/>
@@ -49516,7 +49524,7 @@
       <c r="H68" s="60"/>
       <c r="I68" s="52"/>
     </row>
-    <row r="69" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="66"/>
       <c r="C69" s="67"/>
       <c r="D69" s="68"/>
@@ -49526,7 +49534,7 @@
       <c r="H69" s="60"/>
       <c r="I69" s="52"/>
     </row>
-    <row r="70" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="66"/>
       <c r="C70" s="67"/>
       <c r="D70" s="68"/>
@@ -49536,7 +49544,7 @@
       <c r="H70" s="60"/>
       <c r="I70" s="52"/>
     </row>
-    <row r="71" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="66"/>
       <c r="C71" s="67"/>
       <c r="D71" s="68"/>
@@ -49546,7 +49554,7 @@
       <c r="H71" s="60"/>
       <c r="I71" s="52"/>
     </row>
-    <row r="72" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="66"/>
       <c r="C72" s="67"/>
       <c r="D72" s="68"/>
@@ -49556,7 +49564,7 @@
       <c r="H72" s="60"/>
       <c r="I72" s="52"/>
     </row>
-    <row r="73" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="66"/>
       <c r="C73" s="67"/>
       <c r="D73" s="68"/>
@@ -49566,7 +49574,7 @@
       <c r="H73" s="60"/>
       <c r="I73" s="52"/>
     </row>
-    <row r="74" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="66"/>
       <c r="C74" s="67"/>
       <c r="D74" s="68"/>
@@ -49576,7 +49584,7 @@
       <c r="H74" s="60"/>
       <c r="I74" s="52"/>
     </row>
-    <row r="75" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="66"/>
       <c r="C75" s="67"/>
       <c r="D75" s="68"/>
@@ -49586,7 +49594,7 @@
       <c r="H75" s="60"/>
       <c r="I75" s="52"/>
     </row>
-    <row r="76" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="66"/>
       <c r="C76" s="67"/>
       <c r="D76" s="68"/>
@@ -49596,7 +49604,7 @@
       <c r="H76" s="60"/>
       <c r="I76" s="52"/>
     </row>
-    <row r="77" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="66"/>
       <c r="C77" s="67"/>
       <c r="D77" s="68"/>
@@ -49606,7 +49614,7 @@
       <c r="H77" s="60"/>
       <c r="I77" s="52"/>
     </row>
-    <row r="78" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="66"/>
       <c r="C78" s="67"/>
       <c r="D78" s="68"/>
@@ -49616,7 +49624,7 @@
       <c r="H78" s="60"/>
       <c r="I78" s="52"/>
     </row>
-    <row r="79" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="66"/>
       <c r="C79" s="67"/>
       <c r="D79" s="68"/>
@@ -49626,7 +49634,7 @@
       <c r="H79" s="60"/>
       <c r="I79" s="52"/>
     </row>
-    <row r="80" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="66"/>
       <c r="C80" s="67"/>
       <c r="D80" s="68"/>
@@ -49636,7 +49644,7 @@
       <c r="H80" s="60"/>
       <c r="I80" s="52"/>
     </row>
-    <row r="81" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="66"/>
       <c r="C81" s="67"/>
       <c r="D81" s="68"/>
@@ -49646,7 +49654,7 @@
       <c r="H81" s="60"/>
       <c r="I81" s="52"/>
     </row>
-    <row r="82" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="66"/>
       <c r="C82" s="67"/>
       <c r="D82" s="68"/>
@@ -49656,7 +49664,7 @@
       <c r="H82" s="60"/>
       <c r="I82" s="52"/>
     </row>
-    <row r="83" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="66"/>
       <c r="C83" s="67"/>
       <c r="D83" s="68"/>
@@ -49666,7 +49674,7 @@
       <c r="H83" s="60"/>
       <c r="I83" s="52"/>
     </row>
-    <row r="84" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="66"/>
       <c r="C84" s="67"/>
       <c r="D84" s="68"/>
@@ -49676,7 +49684,7 @@
       <c r="H84" s="60"/>
       <c r="I84" s="52"/>
     </row>
-    <row r="85" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="66"/>
       <c r="C85" s="67"/>
       <c r="D85" s="68"/>
@@ -49686,7 +49694,7 @@
       <c r="H85" s="60"/>
       <c r="I85" s="52"/>
     </row>
-    <row r="86" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="66"/>
       <c r="C86" s="67"/>
       <c r="D86" s="68"/>
@@ -49696,7 +49704,7 @@
       <c r="H86" s="60"/>
       <c r="I86" s="52"/>
     </row>
-    <row r="87" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="66"/>
       <c r="C87" s="67"/>
       <c r="D87" s="68"/>
@@ -49706,7 +49714,7 @@
       <c r="H87" s="60"/>
       <c r="I87" s="52"/>
     </row>
-    <row r="88" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="66"/>
       <c r="C88" s="67"/>
       <c r="D88" s="68"/>
@@ -49716,7 +49724,7 @@
       <c r="H88" s="60"/>
       <c r="I88" s="52"/>
     </row>
-    <row r="89" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="66"/>
       <c r="C89" s="67"/>
       <c r="D89" s="68"/>
@@ -49726,7 +49734,7 @@
       <c r="H89" s="60"/>
       <c r="I89" s="52"/>
     </row>
-    <row r="90" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="66"/>
       <c r="C90" s="67"/>
       <c r="D90" s="68"/>
@@ -49736,7 +49744,7 @@
       <c r="H90" s="60"/>
       <c r="I90" s="52"/>
     </row>
-    <row r="91" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="66"/>
       <c r="C91" s="67"/>
       <c r="D91" s="68"/>
@@ -49746,7 +49754,7 @@
       <c r="H91" s="60"/>
       <c r="I91" s="52"/>
     </row>
-    <row r="92" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="66"/>
       <c r="C92" s="67"/>
       <c r="D92" s="68"/>
@@ -49756,7 +49764,7 @@
       <c r="H92" s="60"/>
       <c r="I92" s="52"/>
     </row>
-    <row r="93" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B93" s="66"/>
       <c r="C93" s="67"/>
       <c r="D93" s="68"/>
@@ -49766,7 +49774,7 @@
       <c r="H93" s="60"/>
       <c r="I93" s="52"/>
     </row>
-    <row r="94" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="66"/>
       <c r="C94" s="67"/>
       <c r="D94" s="68"/>
@@ -49776,7 +49784,7 @@
       <c r="H94" s="60"/>
       <c r="I94" s="52"/>
     </row>
-    <row r="95" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B95" s="66"/>
       <c r="C95" s="67"/>
       <c r="D95" s="68"/>
@@ -49786,7 +49794,7 @@
       <c r="H95" s="60"/>
       <c r="I95" s="52"/>
     </row>
-    <row r="96" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B96" s="66"/>
       <c r="C96" s="67"/>
       <c r="D96" s="68"/>
@@ -49796,7 +49804,7 @@
       <c r="H96" s="60"/>
       <c r="I96" s="52"/>
     </row>
-    <row r="97" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B97" s="66"/>
       <c r="C97" s="67"/>
       <c r="D97" s="68"/>
@@ -49806,7 +49814,7 @@
       <c r="H97" s="60"/>
       <c r="I97" s="52"/>
     </row>
-    <row r="98" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B98" s="66"/>
       <c r="C98" s="67"/>
       <c r="D98" s="68"/>
@@ -49816,7 +49824,7 @@
       <c r="H98" s="60"/>
       <c r="I98" s="52"/>
     </row>
-    <row r="99" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="66"/>
       <c r="C99" s="67"/>
       <c r="D99" s="68"/>
@@ -49826,7 +49834,7 @@
       <c r="H99" s="60"/>
       <c r="I99" s="52"/>
     </row>
-    <row r="100" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B100" s="66"/>
       <c r="C100" s="67"/>
       <c r="D100" s="68"/>
@@ -49836,7 +49844,7 @@
       <c r="H100" s="60"/>
       <c r="I100" s="52"/>
     </row>
-    <row r="101" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
       <c r="D101" s="68"/>
@@ -49846,7 +49854,7 @@
       <c r="H101" s="60"/>
       <c r="I101" s="52"/>
     </row>
-    <row r="102" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
       <c r="D102" s="68"/>
@@ -49856,7 +49864,7 @@
       <c r="H102" s="60"/>
       <c r="I102" s="52"/>
     </row>
-    <row r="103" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
       <c r="D103" s="68"/>
@@ -49866,7 +49874,7 @@
       <c r="H103" s="60"/>
       <c r="I103" s="52"/>
     </row>
-    <row r="104" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
       <c r="D104" s="68"/>
@@ -49876,7 +49884,7 @@
       <c r="H104" s="60"/>
       <c r="I104" s="52"/>
     </row>
-    <row r="105" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
       <c r="D105" s="68"/>
@@ -49886,7 +49894,7 @@
       <c r="H105" s="60"/>
       <c r="I105" s="52"/>
     </row>
-    <row r="106" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B106" s="66"/>
       <c r="C106" s="67"/>
       <c r="D106" s="68"/>
@@ -49896,7 +49904,7 @@
       <c r="H106" s="60"/>
       <c r="I106" s="52"/>
     </row>
-    <row r="107" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="66"/>
       <c r="C107" s="67"/>
       <c r="D107" s="68"/>
@@ -49906,7 +49914,7 @@
       <c r="H107" s="60"/>
       <c r="I107" s="52"/>
     </row>
-    <row r="108" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="66"/>
       <c r="C108" s="67"/>
       <c r="D108" s="68"/>
@@ -49916,7 +49924,7 @@
       <c r="H108" s="60"/>
       <c r="I108" s="52"/>
     </row>
-    <row r="109" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="66"/>
       <c r="C109" s="67"/>
       <c r="D109" s="68"/>
@@ -49926,7 +49934,7 @@
       <c r="H109" s="60"/>
       <c r="I109" s="52"/>
     </row>
-    <row r="110" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="66"/>
       <c r="C110" s="67"/>
       <c r="D110" s="68"/>
@@ -49936,7 +49944,7 @@
       <c r="H110" s="60"/>
       <c r="I110" s="52"/>
     </row>
-    <row r="111" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="66"/>
       <c r="C111" s="67"/>
       <c r="D111" s="68"/>
@@ -49946,7 +49954,7 @@
       <c r="H111" s="60"/>
       <c r="I111" s="52"/>
     </row>
-    <row r="112" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="66"/>
       <c r="C112" s="67"/>
       <c r="D112" s="68"/>
@@ -49956,7 +49964,7 @@
       <c r="H112" s="60"/>
       <c r="I112" s="52"/>
     </row>
-    <row r="113" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="66"/>
       <c r="C113" s="67"/>
       <c r="D113" s="68"/>
@@ -49966,7 +49974,7 @@
       <c r="H113" s="60"/>
       <c r="I113" s="52"/>
     </row>
-    <row r="114" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="66"/>
       <c r="C114" s="67"/>
       <c r="D114" s="68"/>
@@ -49976,7 +49984,7 @@
       <c r="H114" s="60"/>
       <c r="I114" s="52"/>
     </row>
-    <row r="115" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="66"/>
       <c r="C115" s="67"/>
       <c r="D115" s="68"/>
@@ -49986,7 +49994,7 @@
       <c r="H115" s="60"/>
       <c r="I115" s="52"/>
     </row>
-    <row r="116" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="66"/>
       <c r="C116" s="67"/>
       <c r="D116" s="68"/>
@@ -49996,7 +50004,7 @@
       <c r="H116" s="60"/>
       <c r="I116" s="52"/>
     </row>
-    <row r="117" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="66"/>
       <c r="C117" s="67"/>
       <c r="D117" s="68"/>
@@ -50006,7 +50014,7 @@
       <c r="H117" s="60"/>
       <c r="I117" s="52"/>
     </row>
-    <row r="118" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="66"/>
       <c r="C118" s="67"/>
       <c r="D118" s="68"/>
@@ -50016,7 +50024,7 @@
       <c r="H118" s="60"/>
       <c r="I118" s="52"/>
     </row>
-    <row r="119" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="66"/>
       <c r="C119" s="67"/>
       <c r="D119" s="68"/>
@@ -50026,7 +50034,7 @@
       <c r="H119" s="60"/>
       <c r="I119" s="52"/>
     </row>
-    <row r="120" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="66"/>
       <c r="C120" s="67"/>
       <c r="D120" s="68"/>
@@ -50036,7 +50044,7 @@
       <c r="H120" s="60"/>
       <c r="I120" s="52"/>
     </row>
-    <row r="121" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="66"/>
       <c r="C121" s="67"/>
       <c r="D121" s="68"/>
@@ -50046,7 +50054,7 @@
       <c r="H121" s="60"/>
       <c r="I121" s="52"/>
     </row>
-    <row r="122" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="66"/>
       <c r="C122" s="67"/>
       <c r="D122" s="68"/>
@@ -50056,7 +50064,7 @@
       <c r="H122" s="60"/>
       <c r="I122" s="52"/>
     </row>
-    <row r="123" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="66"/>
       <c r="C123" s="67"/>
       <c r="D123" s="68"/>
@@ -50066,7 +50074,7 @@
       <c r="H123" s="60"/>
       <c r="I123" s="52"/>
     </row>
-    <row r="124" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="66"/>
       <c r="C124" s="67"/>
       <c r="D124" s="68"/>
@@ -50076,7 +50084,7 @@
       <c r="H124" s="60"/>
       <c r="I124" s="52"/>
     </row>
-    <row r="125" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="66"/>
       <c r="C125" s="67"/>
       <c r="D125" s="68"/>
@@ -50086,7 +50094,7 @@
       <c r="H125" s="60"/>
       <c r="I125" s="52"/>
     </row>
-    <row r="126" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="66"/>
       <c r="C126" s="67"/>
       <c r="D126" s="68"/>
@@ -50096,7 +50104,7 @@
       <c r="H126" s="60"/>
       <c r="I126" s="52"/>
     </row>
-    <row r="127" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="66"/>
       <c r="C127" s="67"/>
       <c r="D127" s="68"/>
@@ -50106,7 +50114,7 @@
       <c r="H127" s="60"/>
       <c r="I127" s="52"/>
     </row>
-    <row r="128" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="66"/>
       <c r="C128" s="67"/>
       <c r="D128" s="68"/>
@@ -50116,7 +50124,7 @@
       <c r="H128" s="60"/>
       <c r="I128" s="52"/>
     </row>
-    <row r="129" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="66"/>
       <c r="C129" s="67"/>
       <c r="D129" s="68"/>
@@ -50126,7 +50134,7 @@
       <c r="H129" s="60"/>
       <c r="I129" s="52"/>
     </row>
-    <row r="130" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="66"/>
       <c r="C130" s="67"/>
       <c r="D130" s="68"/>
@@ -50136,7 +50144,7 @@
       <c r="H130" s="60"/>
       <c r="I130" s="52"/>
     </row>
-    <row r="131" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="66"/>
       <c r="C131" s="67"/>
       <c r="D131" s="68"/>
@@ -50146,7 +50154,7 @@
       <c r="H131" s="60"/>
       <c r="I131" s="52"/>
     </row>
-    <row r="132" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="66"/>
       <c r="C132" s="67"/>
       <c r="D132" s="68"/>
@@ -50156,7 +50164,7 @@
       <c r="H132" s="60"/>
       <c r="I132" s="52"/>
     </row>
-    <row r="133" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="66"/>
       <c r="C133" s="67"/>
       <c r="D133" s="68"/>
@@ -50166,7 +50174,7 @@
       <c r="H133" s="60"/>
       <c r="I133" s="52"/>
     </row>
-    <row r="134" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="66"/>
       <c r="C134" s="67"/>
       <c r="D134" s="68"/>
@@ -50176,7 +50184,7 @@
       <c r="H134" s="60"/>
       <c r="I134" s="52"/>
     </row>
-    <row r="135" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="66"/>
       <c r="C135" s="67"/>
       <c r="D135" s="68"/>
@@ -50186,7 +50194,7 @@
       <c r="H135" s="60"/>
       <c r="I135" s="52"/>
     </row>
-    <row r="136" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="66"/>
       <c r="C136" s="67"/>
       <c r="D136" s="68"/>
@@ -50196,7 +50204,7 @@
       <c r="H136" s="60"/>
       <c r="I136" s="52"/>
     </row>
-    <row r="137" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="66"/>
       <c r="C137" s="67"/>
       <c r="D137" s="68"/>
@@ -50206,7 +50214,7 @@
       <c r="H137" s="60"/>
       <c r="I137" s="52"/>
     </row>
-    <row r="138" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="66"/>
       <c r="C138" s="67"/>
       <c r="D138" s="68"/>
@@ -50216,7 +50224,7 @@
       <c r="H138" s="60"/>
       <c r="I138" s="52"/>
     </row>
-    <row r="139" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="66"/>
       <c r="C139" s="67"/>
       <c r="D139" s="68"/>
@@ -50226,7 +50234,7 @@
       <c r="H139" s="60"/>
       <c r="I139" s="52"/>
     </row>
-    <row r="140" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="66"/>
       <c r="C140" s="67"/>
       <c r="D140" s="68"/>
@@ -50236,7 +50244,7 @@
       <c r="H140" s="60"/>
       <c r="I140" s="52"/>
     </row>
-    <row r="141" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="66"/>
       <c r="C141" s="67"/>
       <c r="D141" s="68"/>
@@ -50246,7 +50254,7 @@
       <c r="H141" s="60"/>
       <c r="I141" s="52"/>
     </row>
-    <row r="142" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="66"/>
       <c r="C142" s="67"/>
       <c r="D142" s="68"/>
@@ -50256,7 +50264,7 @@
       <c r="H142" s="60"/>
       <c r="I142" s="52"/>
     </row>
-    <row r="143" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="66"/>
       <c r="C143" s="67"/>
       <c r="D143" s="68"/>
@@ -50266,7 +50274,7 @@
       <c r="H143" s="60"/>
       <c r="I143" s="52"/>
     </row>
-    <row r="144" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="66"/>
       <c r="C144" s="67"/>
       <c r="D144" s="68"/>
@@ -50276,7 +50284,7 @@
       <c r="H144" s="60"/>
       <c r="I144" s="52"/>
     </row>
-    <row r="145" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="66"/>
       <c r="C145" s="67"/>
       <c r="D145" s="68"/>
@@ -50286,7 +50294,7 @@
       <c r="H145" s="60"/>
       <c r="I145" s="52"/>
     </row>
-    <row r="146" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="66"/>
       <c r="C146" s="67"/>
       <c r="D146" s="68"/>
@@ -50296,7 +50304,7 @@
       <c r="H146" s="60"/>
       <c r="I146" s="52"/>
     </row>
-    <row r="147" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="66"/>
       <c r="C147" s="67"/>
       <c r="D147" s="68"/>
@@ -50306,7 +50314,7 @@
       <c r="H147" s="60"/>
       <c r="I147" s="52"/>
     </row>
-    <row r="148" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="66"/>
       <c r="C148" s="67"/>
       <c r="D148" s="68"/>
@@ -50316,7 +50324,7 @@
       <c r="H148" s="60"/>
       <c r="I148" s="52"/>
     </row>
-    <row r="149" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="66"/>
       <c r="C149" s="67"/>
       <c r="D149" s="68"/>
@@ -50326,7 +50334,7 @@
       <c r="H149" s="60"/>
       <c r="I149" s="52"/>
     </row>
-    <row r="150" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="66"/>
       <c r="C150" s="67"/>
       <c r="D150" s="68"/>
@@ -50336,7 +50344,7 @@
       <c r="H150" s="60"/>
       <c r="I150" s="52"/>
     </row>
-    <row r="151" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="66"/>
       <c r="C151" s="67"/>
       <c r="D151" s="68"/>
@@ -50346,7 +50354,7 @@
       <c r="H151" s="60"/>
       <c r="I151" s="52"/>
     </row>
-    <row r="152" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="66"/>
       <c r="C152" s="67"/>
       <c r="D152" s="68"/>
@@ -50356,7 +50364,7 @@
       <c r="H152" s="60"/>
       <c r="I152" s="52"/>
     </row>
-    <row r="153" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="66"/>
       <c r="C153" s="67"/>
       <c r="D153" s="68"/>
@@ -50366,7 +50374,7 @@
       <c r="H153" s="60"/>
       <c r="I153" s="52"/>
     </row>
-    <row r="154" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="66"/>
       <c r="C154" s="67"/>
       <c r="D154" s="68"/>
@@ -50376,7 +50384,7 @@
       <c r="H154" s="60"/>
       <c r="I154" s="52"/>
     </row>
-    <row r="155" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="66"/>
       <c r="C155" s="67"/>
       <c r="D155" s="68"/>
@@ -50386,7 +50394,7 @@
       <c r="H155" s="60"/>
       <c r="I155" s="52"/>
     </row>
-    <row r="156" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="66"/>
       <c r="C156" s="67"/>
       <c r="D156" s="68"/>
@@ -50396,7 +50404,7 @@
       <c r="H156" s="60"/>
       <c r="I156" s="52"/>
     </row>
-    <row r="157" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="66"/>
       <c r="C157" s="67"/>
       <c r="D157" s="68"/>
@@ -50406,7 +50414,7 @@
       <c r="H157" s="60"/>
       <c r="I157" s="52"/>
     </row>
-    <row r="158" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="66"/>
       <c r="C158" s="67"/>
       <c r="D158" s="68"/>
@@ -50416,7 +50424,7 @@
       <c r="H158" s="60"/>
       <c r="I158" s="52"/>
     </row>
-    <row r="159" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="66"/>
       <c r="C159" s="67"/>
       <c r="D159" s="68"/>
@@ -50426,7 +50434,7 @@
       <c r="H159" s="60"/>
       <c r="I159" s="52"/>
     </row>
-    <row r="160" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="66"/>
       <c r="C160" s="67"/>
       <c r="D160" s="68"/>
@@ -50436,7 +50444,7 @@
       <c r="H160" s="60"/>
       <c r="I160" s="52"/>
     </row>
-    <row r="161" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="66"/>
       <c r="C161" s="67"/>
       <c r="D161" s="68"/>
@@ -50446,7 +50454,7 @@
       <c r="H161" s="60"/>
       <c r="I161" s="52"/>
     </row>
-    <row r="162" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="66"/>
       <c r="C162" s="67"/>
       <c r="D162" s="68"/>
@@ -50456,7 +50464,7 @@
       <c r="H162" s="60"/>
       <c r="I162" s="52"/>
     </row>
-    <row r="163" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="66"/>
       <c r="C163" s="67"/>
       <c r="D163" s="68"/>
@@ -50466,7 +50474,7 @@
       <c r="H163" s="60"/>
       <c r="I163" s="52"/>
     </row>
-    <row r="164" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="66"/>
       <c r="C164" s="67"/>
       <c r="D164" s="68"/>
@@ -50476,7 +50484,7 @@
       <c r="H164" s="60"/>
       <c r="I164" s="52"/>
     </row>
-    <row r="165" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="66"/>
       <c r="C165" s="67"/>
       <c r="D165" s="68"/>
@@ -50486,7 +50494,7 @@
       <c r="H165" s="60"/>
       <c r="I165" s="52"/>
     </row>
-    <row r="166" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="66"/>
       <c r="C166" s="67"/>
       <c r="D166" s="68"/>
@@ -50496,7 +50504,7 @@
       <c r="H166" s="60"/>
       <c r="I166" s="52"/>
     </row>
-    <row r="167" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="66"/>
       <c r="C167" s="67"/>
       <c r="D167" s="68"/>
@@ -50506,7 +50514,7 @@
       <c r="H167" s="60"/>
       <c r="I167" s="52"/>
     </row>
-    <row r="168" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="66"/>
       <c r="C168" s="67"/>
       <c r="D168" s="68"/>
@@ -50516,7 +50524,7 @@
       <c r="H168" s="60"/>
       <c r="I168" s="52"/>
     </row>
-    <row r="169" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="66"/>
       <c r="C169" s="67"/>
       <c r="D169" s="68"/>
@@ -50526,7 +50534,7 @@
       <c r="H169" s="60"/>
       <c r="I169" s="52"/>
     </row>
-    <row r="170" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="66"/>
       <c r="C170" s="67"/>
       <c r="D170" s="68"/>
@@ -50536,7 +50544,7 @@
       <c r="H170" s="60"/>
       <c r="I170" s="52"/>
     </row>
-    <row r="171" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="66"/>
       <c r="C171" s="67"/>
       <c r="D171" s="68"/>
@@ -50546,7 +50554,7 @@
       <c r="H171" s="60"/>
       <c r="I171" s="52"/>
     </row>
-    <row r="172" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="66"/>
       <c r="C172" s="67"/>
       <c r="D172" s="68"/>
@@ -50556,7 +50564,7 @@
       <c r="H172" s="60"/>
       <c r="I172" s="52"/>
     </row>
-    <row r="173" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="66"/>
       <c r="C173" s="67"/>
       <c r="D173" s="68"/>
@@ -50566,7 +50574,7 @@
       <c r="H173" s="60"/>
       <c r="I173" s="52"/>
     </row>
-    <row r="174" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="66"/>
       <c r="C174" s="67"/>
       <c r="D174" s="68"/>
@@ -50576,7 +50584,7 @@
       <c r="H174" s="60"/>
       <c r="I174" s="52"/>
     </row>
-    <row r="175" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="66"/>
       <c r="C175" s="67"/>
       <c r="D175" s="68"/>
@@ -50586,7 +50594,7 @@
       <c r="H175" s="60"/>
       <c r="I175" s="52"/>
     </row>
-    <row r="176" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="66"/>
       <c r="C176" s="67"/>
       <c r="D176" s="68"/>
@@ -50596,7 +50604,7 @@
       <c r="H176" s="60"/>
       <c r="I176" s="52"/>
     </row>
-    <row r="177" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="66"/>
       <c r="C177" s="67"/>
       <c r="D177" s="68"/>
@@ -50606,7 +50614,7 @@
       <c r="H177" s="60"/>
       <c r="I177" s="52"/>
     </row>
-    <row r="178" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="66"/>
       <c r="C178" s="67"/>
       <c r="D178" s="68"/>
@@ -50616,7 +50624,7 @@
       <c r="H178" s="60"/>
       <c r="I178" s="52"/>
     </row>
-    <row r="179" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="66"/>
       <c r="C179" s="67"/>
       <c r="D179" s="68"/>
@@ -50626,7 +50634,7 @@
       <c r="H179" s="60"/>
       <c r="I179" s="52"/>
     </row>
-    <row r="180" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="66"/>
       <c r="C180" s="67"/>
       <c r="D180" s="68"/>
@@ -50636,7 +50644,7 @@
       <c r="H180" s="60"/>
       <c r="I180" s="52"/>
     </row>
-    <row r="181" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="66"/>
       <c r="C181" s="67"/>
       <c r="D181" s="68"/>
@@ -50646,7 +50654,7 @@
       <c r="H181" s="60"/>
       <c r="I181" s="52"/>
     </row>
-    <row r="182" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="66"/>
       <c r="C182" s="67"/>
       <c r="D182" s="68"/>
@@ -50656,7 +50664,7 @@
       <c r="H182" s="60"/>
       <c r="I182" s="52"/>
     </row>
-    <row r="183" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="66"/>
       <c r="C183" s="67"/>
       <c r="D183" s="68"/>
@@ -50666,7 +50674,7 @@
       <c r="H183" s="60"/>
       <c r="I183" s="52"/>
     </row>
-    <row r="184" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="66"/>
       <c r="C184" s="67"/>
       <c r="D184" s="68"/>
@@ -50676,7 +50684,7 @@
       <c r="H184" s="60"/>
       <c r="I184" s="52"/>
     </row>
-    <row r="185" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="66"/>
       <c r="C185" s="67"/>
       <c r="D185" s="68"/>
@@ -50686,7 +50694,7 @@
       <c r="H185" s="60"/>
       <c r="I185" s="52"/>
     </row>
-    <row r="186" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="66"/>
       <c r="C186" s="67"/>
       <c r="D186" s="68"/>
@@ -50696,7 +50704,7 @@
       <c r="H186" s="60"/>
       <c r="I186" s="52"/>
     </row>
-    <row r="187" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="66"/>
       <c r="C187" s="67"/>
       <c r="D187" s="68"/>
@@ -50706,7 +50714,7 @@
       <c r="H187" s="60"/>
       <c r="I187" s="52"/>
     </row>
-    <row r="188" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="66"/>
       <c r="C188" s="67"/>
       <c r="D188" s="68"/>
@@ -50716,7 +50724,7 @@
       <c r="H188" s="60"/>
       <c r="I188" s="52"/>
     </row>
-    <row r="189" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="66"/>
       <c r="C189" s="67"/>
       <c r="D189" s="68"/>
@@ -50726,7 +50734,7 @@
       <c r="H189" s="60"/>
       <c r="I189" s="52"/>
     </row>
-    <row r="190" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="66"/>
       <c r="C190" s="67"/>
       <c r="D190" s="68"/>
@@ -50736,7 +50744,7 @@
       <c r="H190" s="60"/>
       <c r="I190" s="52"/>
     </row>
-    <row r="191" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="66"/>
       <c r="C191" s="67"/>
       <c r="D191" s="68"/>
@@ -50746,7 +50754,7 @@
       <c r="H191" s="60"/>
       <c r="I191" s="52"/>
     </row>
-    <row r="192" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="66"/>
       <c r="C192" s="67"/>
       <c r="D192" s="68"/>
@@ -50756,7 +50764,7 @@
       <c r="H192" s="60"/>
       <c r="I192" s="52"/>
     </row>
-    <row r="193" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="66"/>
       <c r="C193" s="67"/>
       <c r="D193" s="68"/>
@@ -50766,7 +50774,7 @@
       <c r="H193" s="60"/>
       <c r="I193" s="52"/>
     </row>
-    <row r="194" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="66"/>
       <c r="C194" s="67"/>
       <c r="D194" s="68"/>
@@ -50776,7 +50784,7 @@
       <c r="H194" s="60"/>
       <c r="I194" s="52"/>
     </row>
-    <row r="195" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="66"/>
       <c r="C195" s="67"/>
       <c r="D195" s="68"/>
@@ -50786,7 +50794,7 @@
       <c r="H195" s="60"/>
       <c r="I195" s="52"/>
     </row>
-    <row r="196" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="66"/>
       <c r="C196" s="67"/>
       <c r="D196" s="68"/>
@@ -50796,7 +50804,7 @@
       <c r="H196" s="60"/>
       <c r="I196" s="52"/>
     </row>
-    <row r="197" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="66"/>
       <c r="C197" s="67"/>
       <c r="D197" s="68"/>
@@ -50806,7 +50814,7 @@
       <c r="H197" s="60"/>
       <c r="I197" s="52"/>
     </row>
-    <row r="198" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="66"/>
       <c r="C198" s="67"/>
       <c r="D198" s="68"/>
@@ -50816,7 +50824,7 @@
       <c r="H198" s="60"/>
       <c r="I198" s="52"/>
     </row>
-    <row r="199" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="66"/>
       <c r="C199" s="67"/>
       <c r="D199" s="68"/>
@@ -50826,7 +50834,7 @@
       <c r="H199" s="60"/>
       <c r="I199" s="52"/>
     </row>
-    <row r="200" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="66"/>
       <c r="C200" s="67"/>
       <c r="D200" s="68"/>
@@ -50836,7 +50844,7 @@
       <c r="H200" s="60"/>
       <c r="I200" s="52"/>
     </row>
-    <row r="201" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="66"/>
       <c r="C201" s="67"/>
       <c r="D201" s="68"/>
@@ -50846,7 +50854,7 @@
       <c r="H201" s="60"/>
       <c r="I201" s="52"/>
     </row>
-    <row r="202" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="66"/>
       <c r="C202" s="67"/>
       <c r="D202" s="68"/>
@@ -50856,7 +50864,7 @@
       <c r="H202" s="60"/>
       <c r="I202" s="52"/>
     </row>
-    <row r="203" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="66"/>
       <c r="C203" s="67"/>
       <c r="D203" s="68"/>
@@ -50866,7 +50874,7 @@
       <c r="H203" s="60"/>
       <c r="I203" s="52"/>
     </row>
-    <row r="204" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="66"/>
       <c r="C204" s="67"/>
       <c r="D204" s="68"/>
@@ -50876,7 +50884,7 @@
       <c r="H204" s="60"/>
       <c r="I204" s="52"/>
     </row>
-    <row r="205" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="66"/>
       <c r="C205" s="67"/>
       <c r="D205" s="68"/>
@@ -50886,7 +50894,7 @@
       <c r="H205" s="60"/>
       <c r="I205" s="52"/>
     </row>
-    <row r="206" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="66"/>
       <c r="C206" s="67"/>
       <c r="D206" s="68"/>
@@ -50896,7 +50904,7 @@
       <c r="H206" s="60"/>
       <c r="I206" s="52"/>
     </row>
-    <row r="207" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="66"/>
       <c r="C207" s="67"/>
       <c r="D207" s="68"/>
@@ -50906,7 +50914,7 @@
       <c r="H207" s="60"/>
       <c r="I207" s="52"/>
     </row>
-    <row r="208" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="66"/>
       <c r="C208" s="67"/>
       <c r="D208" s="68"/>
@@ -50916,7 +50924,7 @@
       <c r="H208" s="60"/>
       <c r="I208" s="52"/>
     </row>
-    <row r="209" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="66"/>
       <c r="C209" s="67"/>
       <c r="D209" s="68"/>
@@ -50926,7 +50934,7 @@
       <c r="H209" s="60"/>
       <c r="I209" s="52"/>
     </row>
-    <row r="210" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="66"/>
       <c r="C210" s="67"/>
       <c r="D210" s="68"/>
@@ -50936,7 +50944,7 @@
       <c r="H210" s="60"/>
       <c r="I210" s="52"/>
     </row>
-    <row r="211" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="66"/>
       <c r="C211" s="67"/>
       <c r="D211" s="68"/>
@@ -50946,7 +50954,7 @@
       <c r="H211" s="60"/>
       <c r="I211" s="52"/>
     </row>
-    <row r="212" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="66"/>
       <c r="C212" s="67"/>
       <c r="D212" s="68"/>
@@ -50956,7 +50964,7 @@
       <c r="H212" s="60"/>
       <c r="I212" s="52"/>
     </row>
-    <row r="213" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="66"/>
       <c r="C213" s="67"/>
       <c r="D213" s="68"/>
@@ -50966,7 +50974,7 @@
       <c r="H213" s="60"/>
       <c r="I213" s="52"/>
     </row>
-    <row r="214" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="66"/>
       <c r="C214" s="67"/>
       <c r="D214" s="68"/>
@@ -50976,7 +50984,7 @@
       <c r="H214" s="60"/>
       <c r="I214" s="52"/>
     </row>
-    <row r="215" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="66"/>
       <c r="C215" s="67"/>
       <c r="D215" s="68"/>
@@ -50986,7 +50994,7 @@
       <c r="H215" s="60"/>
       <c r="I215" s="52"/>
     </row>
-    <row r="216" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="66"/>
       <c r="C216" s="67"/>
       <c r="D216" s="68"/>
@@ -50996,7 +51004,7 @@
       <c r="H216" s="60"/>
       <c r="I216" s="52"/>
     </row>
-    <row r="217" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="66"/>
       <c r="C217" s="67"/>
       <c r="D217" s="68"/>
@@ -51006,7 +51014,7 @@
       <c r="H217" s="60"/>
       <c r="I217" s="52"/>
     </row>
-    <row r="218" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="66"/>
       <c r="C218" s="67"/>
       <c r="D218" s="68"/>
@@ -51016,7 +51024,7 @@
       <c r="H218" s="60"/>
       <c r="I218" s="52"/>
     </row>
-    <row r="219" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="66"/>
       <c r="C219" s="67"/>
       <c r="D219" s="68"/>
@@ -51026,7 +51034,7 @@
       <c r="H219" s="60"/>
       <c r="I219" s="52"/>
     </row>
-    <row r="220" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="66"/>
       <c r="C220" s="67"/>
       <c r="D220" s="68"/>
@@ -51036,7 +51044,7 @@
       <c r="H220" s="60"/>
       <c r="I220" s="52"/>
     </row>
-    <row r="221" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="66"/>
       <c r="C221" s="67"/>
       <c r="D221" s="68"/>
@@ -51046,7 +51054,7 @@
       <c r="H221" s="60"/>
       <c r="I221" s="52"/>
     </row>
-    <row r="222" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="66"/>
       <c r="C222" s="67"/>
       <c r="D222" s="68"/>
@@ -51056,7 +51064,7 @@
       <c r="H222" s="60"/>
       <c r="I222" s="52"/>
     </row>
-    <row r="223" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="66"/>
       <c r="C223" s="67"/>
       <c r="D223" s="68"/>
@@ -51066,7 +51074,7 @@
       <c r="H223" s="60"/>
       <c r="I223" s="52"/>
     </row>
-    <row r="224" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="66"/>
       <c r="C224" s="67"/>
       <c r="D224" s="68"/>
@@ -51076,7 +51084,7 @@
       <c r="H224" s="60"/>
       <c r="I224" s="52"/>
     </row>
-    <row r="225" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="66"/>
       <c r="C225" s="67"/>
       <c r="D225" s="68"/>
@@ -51086,7 +51094,7 @@
       <c r="H225" s="60"/>
       <c r="I225" s="52"/>
     </row>
-    <row r="226" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="66"/>
       <c r="C226" s="67"/>
       <c r="D226" s="68"/>
@@ -51096,7 +51104,7 @@
       <c r="H226" s="60"/>
       <c r="I226" s="52"/>
     </row>
-    <row r="227" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="66"/>
       <c r="C227" s="67"/>
       <c r="D227" s="68"/>
@@ -51106,7 +51114,7 @@
       <c r="H227" s="60"/>
       <c r="I227" s="52"/>
     </row>
-    <row r="228" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="66"/>
       <c r="C228" s="67"/>
       <c r="D228" s="68"/>
@@ -51116,7 +51124,7 @@
       <c r="H228" s="60"/>
       <c r="I228" s="52"/>
     </row>
-    <row r="229" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="66"/>
       <c r="C229" s="67"/>
       <c r="D229" s="68"/>
@@ -51126,7 +51134,7 @@
       <c r="H229" s="60"/>
       <c r="I229" s="52"/>
     </row>
-    <row r="230" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="66"/>
       <c r="C230" s="67"/>
       <c r="D230" s="68"/>
@@ -51136,7 +51144,7 @@
       <c r="H230" s="60"/>
       <c r="I230" s="52"/>
     </row>
-    <row r="231" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="66"/>
       <c r="C231" s="67"/>
       <c r="D231" s="68"/>
@@ -51146,7 +51154,7 @@
       <c r="H231" s="60"/>
       <c r="I231" s="52"/>
     </row>
-    <row r="232" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="66"/>
       <c r="C232" s="67"/>
       <c r="D232" s="68"/>
@@ -51156,7 +51164,7 @@
       <c r="H232" s="60"/>
       <c r="I232" s="52"/>
     </row>
-    <row r="233" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="66"/>
       <c r="C233" s="67"/>
       <c r="D233" s="68"/>
@@ -51166,7 +51174,7 @@
       <c r="H233" s="60"/>
       <c r="I233" s="52"/>
     </row>
-    <row r="234" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="66"/>
       <c r="C234" s="67"/>
       <c r="D234" s="68"/>
@@ -51176,7 +51184,7 @@
       <c r="H234" s="60"/>
       <c r="I234" s="52"/>
     </row>
-    <row r="235" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="66"/>
       <c r="C235" s="67"/>
       <c r="D235" s="68"/>
@@ -51186,7 +51194,7 @@
       <c r="H235" s="60"/>
       <c r="I235" s="52"/>
     </row>
-    <row r="236" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="66"/>
       <c r="C236" s="67"/>
       <c r="D236" s="68"/>
@@ -51196,7 +51204,7 @@
       <c r="H236" s="60"/>
       <c r="I236" s="52"/>
     </row>
-    <row r="237" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="66"/>
       <c r="C237" s="67"/>
       <c r="D237" s="68"/>
@@ -51206,7 +51214,7 @@
       <c r="H237" s="60"/>
       <c r="I237" s="52"/>
     </row>
-    <row r="238" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="66"/>
       <c r="C238" s="67"/>
       <c r="D238" s="68"/>
@@ -51216,7 +51224,7 @@
       <c r="H238" s="60"/>
       <c r="I238" s="52"/>
     </row>
-    <row r="239" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="66"/>
       <c r="C239" s="67"/>
       <c r="D239" s="68"/>
@@ -51226,7 +51234,7 @@
       <c r="H239" s="60"/>
       <c r="I239" s="52"/>
     </row>
-    <row r="240" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="66"/>
       <c r="C240" s="67"/>
       <c r="D240" s="68"/>
@@ -51236,7 +51244,7 @@
       <c r="H240" s="60"/>
       <c r="I240" s="52"/>
     </row>
-    <row r="241" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="66"/>
       <c r="C241" s="67"/>
       <c r="D241" s="68"/>
@@ -51246,7 +51254,7 @@
       <c r="H241" s="60"/>
       <c r="I241" s="52"/>
     </row>
-    <row r="242" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B242" s="66"/>
       <c r="C242" s="67"/>
       <c r="D242" s="68"/>
@@ -51256,7 +51264,7 @@
       <c r="H242" s="60"/>
       <c r="I242" s="52"/>
     </row>
-    <row r="243" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B243" s="66"/>
       <c r="C243" s="67"/>
       <c r="D243" s="68"/>
@@ -51266,7 +51274,7 @@
       <c r="H243" s="60"/>
       <c r="I243" s="52"/>
     </row>
-    <row r="244" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B244" s="66"/>
       <c r="C244" s="67"/>
       <c r="D244" s="68"/>
@@ -51276,7 +51284,7 @@
       <c r="H244" s="60"/>
       <c r="I244" s="52"/>
     </row>
-    <row r="245" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B245" s="66"/>
       <c r="C245" s="67"/>
       <c r="D245" s="68"/>
@@ -51286,7 +51294,7 @@
       <c r="H245" s="60"/>
       <c r="I245" s="52"/>
     </row>
-    <row r="246" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B246" s="66"/>
       <c r="C246" s="67"/>
       <c r="D246" s="68"/>
@@ -51296,7 +51304,7 @@
       <c r="H246" s="60"/>
       <c r="I246" s="52"/>
     </row>
-    <row r="247" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B247" s="66"/>
       <c r="C247" s="67"/>
       <c r="D247" s="68"/>
@@ -51306,7 +51314,7 @@
       <c r="H247" s="60"/>
       <c r="I247" s="52"/>
     </row>
-    <row r="248" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B248" s="66"/>
       <c r="C248" s="67"/>
       <c r="D248" s="68"/>
@@ -51316,7 +51324,7 @@
       <c r="H248" s="60"/>
       <c r="I248" s="52"/>
     </row>
-    <row r="249" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B249" s="66"/>
       <c r="C249" s="67"/>
       <c r="D249" s="68"/>
@@ -51326,7 +51334,7 @@
       <c r="H249" s="60"/>
       <c r="I249" s="52"/>
     </row>
-    <row r="250" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B250" s="66"/>
       <c r="C250" s="67"/>
       <c r="D250" s="68"/>
@@ -51336,7 +51344,7 @@
       <c r="H250" s="60"/>
       <c r="I250" s="52"/>
     </row>
-    <row r="251" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B251" s="66"/>
       <c r="C251" s="67"/>
       <c r="D251" s="68"/>
@@ -51346,7 +51354,7 @@
       <c r="H251" s="60"/>
       <c r="I251" s="52"/>
     </row>
-    <row r="252" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B252" s="66"/>
       <c r="C252" s="67"/>
       <c r="D252" s="68"/>
@@ -51356,7 +51364,7 @@
       <c r="H252" s="60"/>
       <c r="I252" s="52"/>
     </row>
-    <row r="253" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B253" s="66"/>
       <c r="C253" s="67"/>
       <c r="D253" s="68"/>
@@ -51366,7 +51374,7 @@
       <c r="H253" s="60"/>
       <c r="I253" s="52"/>
     </row>
-    <row r="254" spans="2:9" s="9" customFormat="1" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:9" s="9" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B254" s="66"/>
       <c r="C254" s="67"/>
       <c r="D254" s="68"/>
@@ -51376,7 +51384,7 @@
       <c r="H254" s="60"/>
       <c r="I254" s="52"/>
     </row>
-    <row r="255" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B255" s="66"/>
       <c r="C255" s="67"/>
       <c r="D255" s="68"/>
@@ -51386,7 +51394,7 @@
       <c r="H255" s="60"/>
       <c r="I255" s="52"/>
     </row>
-    <row r="256" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B256" s="66"/>
       <c r="C256" s="67"/>
       <c r="D256" s="68"/>
@@ -51396,7 +51404,7 @@
       <c r="H256" s="60"/>
       <c r="I256" s="52"/>
     </row>
-    <row r="257" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B257" s="66"/>
       <c r="C257" s="67"/>
       <c r="D257" s="68"/>
@@ -51406,7 +51414,7 @@
       <c r="H257" s="60"/>
       <c r="I257" s="52"/>
     </row>
-    <row r="258" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="66"/>
       <c r="C258" s="67"/>
       <c r="D258" s="68"/>
@@ -51416,7 +51424,7 @@
       <c r="H258" s="60"/>
       <c r="I258" s="52"/>
     </row>
-    <row r="259" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B259" s="66"/>
       <c r="C259" s="67"/>
       <c r="D259" s="68"/>
@@ -51426,7 +51434,7 @@
       <c r="H259" s="60"/>
       <c r="I259" s="52"/>
     </row>
-    <row r="260" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B260" s="66"/>
       <c r="C260" s="67"/>
       <c r="D260" s="68"/>
@@ -51436,7 +51444,7 @@
       <c r="H260" s="60"/>
       <c r="I260" s="52"/>
     </row>
-    <row r="261" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B261" s="66"/>
       <c r="C261" s="67"/>
       <c r="D261" s="68"/>
@@ -51446,7 +51454,7 @@
       <c r="H261" s="60"/>
       <c r="I261" s="52"/>
     </row>
-    <row r="262" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B262" s="66"/>
       <c r="C262" s="67"/>
       <c r="D262" s="68"/>
@@ -51456,7 +51464,7 @@
       <c r="H262" s="60"/>
       <c r="I262" s="52"/>
     </row>
-    <row r="263" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B263" s="66"/>
       <c r="C263" s="67"/>
       <c r="D263" s="68"/>
@@ -51466,7 +51474,7 @@
       <c r="H263" s="60"/>
       <c r="I263" s="52"/>
     </row>
-    <row r="264" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B264" s="66"/>
       <c r="C264" s="67"/>
       <c r="D264" s="68"/>
@@ -51476,7 +51484,7 @@
       <c r="H264" s="60"/>
       <c r="I264" s="52"/>
     </row>
-    <row r="265" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="66"/>
       <c r="C265" s="67"/>
       <c r="D265" s="68"/>
@@ -51486,7 +51494,7 @@
       <c r="H265" s="60"/>
       <c r="I265" s="52"/>
     </row>
-    <row r="266" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B266" s="66"/>
       <c r="C266" s="67"/>
       <c r="D266" s="68"/>
@@ -51496,7 +51504,7 @@
       <c r="H266" s="60"/>
       <c r="I266" s="52"/>
     </row>
-    <row r="267" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B267" s="66"/>
       <c r="C267" s="67"/>
       <c r="D267" s="68"/>
@@ -51506,7 +51514,7 @@
       <c r="H267" s="60"/>
       <c r="I267" s="52"/>
     </row>
-    <row r="268" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B268" s="66"/>
       <c r="C268" s="67"/>
       <c r="D268" s="68"/>
@@ -51516,7 +51524,7 @@
       <c r="H268" s="60"/>
       <c r="I268" s="52"/>
     </row>
-    <row r="269" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B269" s="66"/>
       <c r="C269" s="67"/>
       <c r="D269" s="68"/>
@@ -51526,7 +51534,7 @@
       <c r="H269" s="60"/>
       <c r="I269" s="52"/>
     </row>
-    <row r="270" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B270" s="66"/>
       <c r="C270" s="67"/>
       <c r="D270" s="68"/>
@@ -51536,7 +51544,7 @@
       <c r="H270" s="60"/>
       <c r="I270" s="52"/>
     </row>
-    <row r="271" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B271" s="66"/>
       <c r="C271" s="67"/>
       <c r="D271" s="68"/>
@@ -51546,7 +51554,7 @@
       <c r="H271" s="60"/>
       <c r="I271" s="52"/>
     </row>
-    <row r="272" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B272" s="66"/>
       <c r="C272" s="67"/>
       <c r="D272" s="68"/>
@@ -51556,7 +51564,7 @@
       <c r="H272" s="60"/>
       <c r="I272" s="52"/>
     </row>
-    <row r="273" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B273" s="66"/>
       <c r="C273" s="67"/>
       <c r="D273" s="68"/>
@@ -51566,7 +51574,7 @@
       <c r="H273" s="60"/>
       <c r="I273" s="52"/>
     </row>
-    <row r="274" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B274" s="66"/>
       <c r="C274" s="67"/>
       <c r="D274" s="68"/>
@@ -51576,7 +51584,7 @@
       <c r="H274" s="60"/>
       <c r="I274" s="52"/>
     </row>
-    <row r="275" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B275" s="66"/>
       <c r="C275" s="67"/>
       <c r="D275" s="68"/>
@@ -51586,7 +51594,7 @@
       <c r="H275" s="60"/>
       <c r="I275" s="52"/>
     </row>
-    <row r="276" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="66"/>
       <c r="C276" s="67"/>
       <c r="D276" s="68"/>
@@ -51596,7 +51604,7 @@
       <c r="H276" s="60"/>
       <c r="I276" s="52"/>
     </row>
-    <row r="277" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B277" s="66"/>
       <c r="C277" s="67"/>
       <c r="D277" s="68"/>
@@ -51606,7 +51614,7 @@
       <c r="H277" s="60"/>
       <c r="I277" s="52"/>
     </row>
-    <row r="278" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B278" s="66"/>
       <c r="C278" s="67"/>
       <c r="D278" s="68"/>
@@ -51616,7 +51624,7 @@
       <c r="H278" s="60"/>
       <c r="I278" s="52"/>
     </row>
-    <row r="279" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B279" s="66"/>
       <c r="C279" s="67"/>
       <c r="D279" s="68"/>
@@ -51626,7 +51634,7 @@
       <c r="H279" s="60"/>
       <c r="I279" s="52"/>
     </row>
-    <row r="280" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B280" s="66"/>
       <c r="C280" s="67"/>
       <c r="D280" s="68"/>
@@ -51636,7 +51644,7 @@
       <c r="H280" s="60"/>
       <c r="I280" s="52"/>
     </row>
-    <row r="281" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B281" s="66"/>
       <c r="C281" s="67"/>
       <c r="D281" s="68"/>
@@ -51646,7 +51654,7 @@
       <c r="H281" s="60"/>
       <c r="I281" s="52"/>
     </row>
-    <row r="282" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B282" s="66"/>
       <c r="C282" s="67"/>
       <c r="D282" s="68"/>
@@ -51656,7 +51664,7 @@
       <c r="H282" s="60"/>
       <c r="I282" s="52"/>
     </row>
-    <row r="283" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="66"/>
       <c r="C283" s="67"/>
       <c r="D283" s="68"/>
@@ -51666,7 +51674,7 @@
       <c r="H283" s="60"/>
       <c r="I283" s="52"/>
     </row>
-    <row r="284" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B284" s="66"/>
       <c r="C284" s="67"/>
       <c r="D284" s="68"/>
@@ -51676,7 +51684,7 @@
       <c r="H284" s="60"/>
       <c r="I284" s="52"/>
     </row>
-    <row r="285" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="66"/>
       <c r="C285" s="67"/>
       <c r="D285" s="68"/>
@@ -51686,7 +51694,7 @@
       <c r="H285" s="60"/>
       <c r="I285" s="52"/>
     </row>
-    <row r="286" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="66"/>
       <c r="C286" s="67"/>
       <c r="D286" s="68"/>
@@ -51696,7 +51704,7 @@
       <c r="H286" s="60"/>
       <c r="I286" s="52"/>
     </row>
-    <row r="287" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="66"/>
       <c r="C287" s="67"/>
       <c r="D287" s="68"/>
@@ -51706,7 +51714,7 @@
       <c r="H287" s="60"/>
       <c r="I287" s="52"/>
     </row>
-    <row r="288" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="66"/>
       <c r="C288" s="67"/>
       <c r="D288" s="68"/>
@@ -51716,7 +51724,7 @@
       <c r="H288" s="60"/>
       <c r="I288" s="52"/>
     </row>
-    <row r="289" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="66"/>
       <c r="C289" s="67"/>
       <c r="D289" s="68"/>
@@ -51726,7 +51734,7 @@
       <c r="H289" s="60"/>
       <c r="I289" s="52"/>
     </row>
-    <row r="290" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="66"/>
       <c r="C290" s="67"/>
       <c r="D290" s="68"/>
@@ -51736,7 +51744,7 @@
       <c r="H290" s="60"/>
       <c r="I290" s="52"/>
     </row>
-    <row r="291" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="66"/>
       <c r="C291" s="67"/>
       <c r="D291" s="68"/>
@@ -51746,7 +51754,7 @@
       <c r="H291" s="60"/>
       <c r="I291" s="52"/>
     </row>
-    <row r="292" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B292" s="66"/>
       <c r="C292" s="67"/>
       <c r="D292" s="68"/>
@@ -51756,7 +51764,7 @@
       <c r="H292" s="60"/>
       <c r="I292" s="52"/>
     </row>
-    <row r="293" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B293" s="66"/>
       <c r="C293" s="67"/>
       <c r="D293" s="68"/>
@@ -51766,7 +51774,7 @@
       <c r="H293" s="60"/>
       <c r="I293" s="52"/>
     </row>
-    <row r="294" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B294" s="66"/>
       <c r="C294" s="67"/>
       <c r="D294" s="68"/>
@@ -51776,7 +51784,7 @@
       <c r="H294" s="60"/>
       <c r="I294" s="52"/>
     </row>
-    <row r="295" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B295" s="66"/>
       <c r="C295" s="67"/>
       <c r="D295" s="68"/>
@@ -51786,7 +51794,7 @@
       <c r="H295" s="60"/>
       <c r="I295" s="52"/>
     </row>
-    <row r="296" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B296" s="66"/>
       <c r="C296" s="67"/>
       <c r="D296" s="68"/>
@@ -51796,7 +51804,7 @@
       <c r="H296" s="60"/>
       <c r="I296" s="52"/>
     </row>
-    <row r="297" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="66"/>
       <c r="C297" s="67"/>
       <c r="D297" s="68"/>
@@ -51806,7 +51814,7 @@
       <c r="H297" s="60"/>
       <c r="I297" s="52"/>
     </row>
-    <row r="298" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B298" s="66"/>
       <c r="C298" s="67"/>
       <c r="D298" s="68"/>
@@ -51816,7 +51824,7 @@
       <c r="H298" s="60"/>
       <c r="I298" s="52"/>
     </row>
-    <row r="299" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B299" s="66"/>
       <c r="C299" s="67"/>
       <c r="D299" s="68"/>
@@ -51826,7 +51834,7 @@
       <c r="H299" s="60"/>
       <c r="I299" s="52"/>
     </row>
-    <row r="300" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B300" s="69"/>
       <c r="C300" s="70"/>
       <c r="D300" s="71"/>
@@ -51842,13 +51850,13 @@
     <mergeCell ref="C2:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="G11:G300">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>G11=1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="11" priority="3">
       <formula>G11=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="10" priority="4">
       <formula>G11=3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51887,21 +51895,21 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.6640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="20.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.44140625" style="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.44140625" style="1"/>
+    <col min="1" max="1" width="5.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7109375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -51916,8 +51924,8 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -51927,14 +51935,14 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="2"/>
       <c r="G5" s="3"/>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -51946,7 +51954,7 @@
       <c r="G6" s="3"/>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="6"/>
       <c r="D7" s="2"/>
@@ -51954,76 +51962,76 @@
       <c r="H7" s="6"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="94"/>
       <c r="F11" s="19"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:9" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:9" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="15" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E16" s="21"/>
       <c r="G16" s="23"/>
     </row>
-    <row r="17" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:4" ht="18.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="15" t="s">
-        <v>12</v>
+    <row r="21" spans="2:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="110" t="s">
+        <v>65</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="2:4" ht="18.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
@@ -52072,203 +52080,203 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.109375" customWidth="1"/>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>62</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>60</v>
+      <c r="B9" s="41"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>57</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B10" s="83"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="86"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="84"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="41"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="41"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="83"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="83"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="37"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="85"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="84"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="82"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="83"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="82"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" s="41"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="83"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="86"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="84"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="41"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="41"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="83"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="83"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B17" s="37"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="85"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="84"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="82"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="83"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B22" s="82"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="39" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="ProjektVorlagen">Settings!$A$4:$A$6</definedName>
     <definedName name="Risiko">Attribute!$E$16</definedName>
     <definedName name="Rollen_Kostenarten">Settings!$A$25:$A$31</definedName>
-    <definedName name="RollenKosten_des_Projekts">Ressourcen!$C$11:$C$250</definedName>
+    <definedName name="RollenKosten_des_Projekts">Ressourcen!$D$11:$D$250</definedName>
     <definedName name="StartDatum">Stammdaten!$C$4</definedName>
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
@@ -993,6 +993,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1005,22 +1011,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,8 +1897,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GI250"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1924,11 +1924,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="81">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
+      <c r="B10" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="84"/>
       <c r="D10" s="37"/>
       <c r="E10" s="51">
         <f>StartDatum</f>
@@ -2750,8 +2750,8 @@
       <c r="GI10" s="49"/>
     </row>
     <row r="11" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="86"/>
       <c r="D11" s="37"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
@@ -48590,8 +48590,226 @@
       <c r="GH250" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="242">
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
     <mergeCell ref="B247:C247"/>
     <mergeCell ref="B248:C248"/>
     <mergeCell ref="B249:C249"/>
@@ -48616,224 +48834,6 @@
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B250">
     <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
@@ -48915,11 +48915,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="81">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="86"/>
+      <c r="D2" s="82"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -49069,8 +49069,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="60"/>
@@ -49078,8 +49078,8 @@
       <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
       <c r="F12" s="53"/>
@@ -49087,8 +49087,8 @@
       <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="60"/>
@@ -49096,8 +49096,8 @@
       <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="53"/>
@@ -49105,8 +49105,8 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="60"/>
@@ -49114,8 +49114,8 @@
       <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="53"/>
@@ -49123,8 +49123,8 @@
       <c r="H16" s="58"/>
     </row>
     <row r="17" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="60"/>
@@ -49132,8 +49132,8 @@
       <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
@@ -49141,8 +49141,8 @@
       <c r="H18" s="58"/>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="60"/>
@@ -49150,8 +49150,8 @@
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="87"/>
-      <c r="C20" s="88"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="53"/>
@@ -49159,8 +49159,8 @@
       <c r="H20" s="58"/>
     </row>
     <row r="21" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="60"/>
@@ -49168,8 +49168,8 @@
       <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
       <c r="F22" s="53"/>
@@ -49177,8 +49177,8 @@
       <c r="H22" s="58"/>
     </row>
     <row r="23" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="60"/>
@@ -49186,8 +49186,8 @@
       <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="53"/>
@@ -49195,8 +49195,8 @@
       <c r="H24" s="58"/>
     </row>
     <row r="25" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="60"/>
@@ -49204,8 +49204,8 @@
       <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="53"/>
@@ -49213,8 +49213,8 @@
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="60"/>
@@ -49222,8 +49222,8 @@
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="53"/>
@@ -49231,8 +49231,8 @@
       <c r="H28" s="58"/>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="60"/>
@@ -49240,8 +49240,8 @@
       <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="53"/>
@@ -49249,8 +49249,8 @@
       <c r="H30" s="58"/>
     </row>
     <row r="31" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="60"/>
@@ -49258,8 +49258,8 @@
       <c r="H31" s="59"/>
     </row>
     <row r="32" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
       <c r="F32" s="53"/>
@@ -49267,8 +49267,8 @@
       <c r="H32" s="58"/>
     </row>
     <row r="33" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="60"/>
@@ -49276,8 +49276,8 @@
       <c r="H33" s="59"/>
     </row>
     <row r="34" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
       <c r="F34" s="53"/>
@@ -49285,8 +49285,8 @@
       <c r="H34" s="58"/>
     </row>
     <row r="35" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="60"/>
@@ -49294,8 +49294,8 @@
       <c r="H35" s="59"/>
     </row>
     <row r="36" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="87"/>
-      <c r="C36" s="88"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="53"/>
@@ -49303,8 +49303,8 @@
       <c r="H36" s="58"/>
     </row>
     <row r="37" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="60"/>
@@ -49312,8 +49312,8 @@
       <c r="H37" s="59"/>
     </row>
     <row r="38" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="53"/>
@@ -49321,8 +49321,8 @@
       <c r="H38" s="58"/>
     </row>
     <row r="39" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="60"/>
@@ -49330,8 +49330,8 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="87"/>
-      <c r="C40" s="88"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="90"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
       <c r="F40" s="53"/>
@@ -49339,8 +49339,8 @@
       <c r="H40" s="58"/>
     </row>
     <row r="41" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="60"/>
@@ -49348,8 +49348,8 @@
       <c r="H41" s="59"/>
     </row>
     <row r="42" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="87"/>
-      <c r="C42" s="88"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
       <c r="F42" s="53"/>
@@ -49357,8 +49357,8 @@
       <c r="H42" s="58"/>
     </row>
     <row r="43" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="60"/>
@@ -49366,8 +49366,8 @@
       <c r="H43" s="59"/>
     </row>
     <row r="44" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
       <c r="F44" s="53"/>
@@ -49375,8 +49375,8 @@
       <c r="H44" s="58"/>
     </row>
     <row r="45" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="60"/>
@@ -49384,8 +49384,8 @@
       <c r="H45" s="59"/>
     </row>
     <row r="46" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="90"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
       <c r="F46" s="53"/>
@@ -49393,8 +49393,8 @@
       <c r="H46" s="58"/>
     </row>
     <row r="47" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="60"/>
@@ -49402,8 +49402,8 @@
       <c r="H47" s="59"/>
     </row>
     <row r="48" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
       <c r="F48" s="53"/>
@@ -49411,8 +49411,8 @@
       <c r="H48" s="58"/>
     </row>
     <row r="49" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
       <c r="F49" s="60"/>
@@ -49420,8 +49420,8 @@
       <c r="H49" s="59"/>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
       <c r="F50" s="53"/>
@@ -49429,8 +49429,8 @@
       <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="60"/>
@@ -49438,8 +49438,8 @@
       <c r="H51" s="59"/>
     </row>
     <row r="52" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="87"/>
-      <c r="C52" s="88"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="90"/>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
       <c r="F52" s="53"/>
@@ -49447,8 +49447,8 @@
       <c r="H52" s="58"/>
     </row>
     <row r="53" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="60"/>
@@ -49456,8 +49456,8 @@
       <c r="H53" s="59"/>
     </row>
     <row r="54" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="87"/>
-      <c r="C54" s="88"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="90"/>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
       <c r="F54" s="53"/>
@@ -49465,8 +49465,8 @@
       <c r="H54" s="58"/>
     </row>
     <row r="55" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="60"/>
@@ -49474,8 +49474,8 @@
       <c r="H55" s="59"/>
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="87"/>
-      <c r="C56" s="88"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
       <c r="F56" s="53"/>
@@ -49483,8 +49483,8 @@
       <c r="H56" s="58"/>
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="60"/>
@@ -49492,8 +49492,8 @@
       <c r="H57" s="59"/>
     </row>
     <row r="58" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="87"/>
-      <c r="C58" s="88"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
       <c r="D58" s="56"/>
       <c r="E58" s="56"/>
       <c r="F58" s="53"/>
@@ -49501,8 +49501,8 @@
       <c r="H58" s="58"/>
     </row>
     <row r="59" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="60"/>
@@ -49510,8 +49510,8 @@
       <c r="H59" s="59"/>
     </row>
     <row r="60" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
       <c r="F60" s="53"/>
@@ -49519,8 +49519,8 @@
       <c r="H60" s="58"/>
     </row>
     <row r="61" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="60"/>
@@ -49528,8 +49528,8 @@
       <c r="H61" s="59"/>
     </row>
     <row r="62" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
       <c r="F62" s="53"/>
@@ -49537,8 +49537,8 @@
       <c r="H62" s="58"/>
     </row>
     <row r="63" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="60"/>
@@ -49546,8 +49546,8 @@
       <c r="H63" s="59"/>
     </row>
     <row r="64" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
       <c r="F64" s="53"/>
@@ -49555,8 +49555,8 @@
       <c r="H64" s="58"/>
     </row>
     <row r="65" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="60"/>
@@ -49564,8 +49564,8 @@
       <c r="H65" s="59"/>
     </row>
     <row r="66" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
       <c r="F66" s="53"/>
@@ -49573,8 +49573,8 @@
       <c r="H66" s="58"/>
     </row>
     <row r="67" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="60"/>
@@ -49582,8 +49582,8 @@
       <c r="H67" s="59"/>
     </row>
     <row r="68" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="53"/>
@@ -49591,8 +49591,8 @@
       <c r="H68" s="58"/>
     </row>
     <row r="69" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="89"/>
-      <c r="C69" s="90"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="60"/>
@@ -49600,8 +49600,8 @@
       <c r="H69" s="59"/>
     </row>
     <row r="70" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="87"/>
-      <c r="C70" s="88"/>
+      <c r="B70" s="89"/>
+      <c r="C70" s="90"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
       <c r="F70" s="53"/>
@@ -49609,8 +49609,8 @@
       <c r="H70" s="58"/>
     </row>
     <row r="71" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="89"/>
-      <c r="C71" s="90"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="60"/>
@@ -49618,8 +49618,8 @@
       <c r="H71" s="59"/>
     </row>
     <row r="72" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="87"/>
-      <c r="C72" s="88"/>
+      <c r="B72" s="89"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
       <c r="F72" s="53"/>
@@ -49627,8 +49627,8 @@
       <c r="H72" s="58"/>
     </row>
     <row r="73" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="89"/>
-      <c r="C73" s="90"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="88"/>
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="F73" s="60"/>
@@ -49636,8 +49636,8 @@
       <c r="H73" s="59"/>
     </row>
     <row r="74" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="87"/>
-      <c r="C74" s="88"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="56"/>
       <c r="E74" s="56"/>
       <c r="F74" s="53"/>
@@ -49645,8 +49645,8 @@
       <c r="H74" s="58"/>
     </row>
     <row r="75" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="89"/>
-      <c r="C75" s="90"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="88"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="60"/>
@@ -49654,8 +49654,8 @@
       <c r="H75" s="59"/>
     </row>
     <row r="76" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="87"/>
-      <c r="C76" s="88"/>
+      <c r="B76" s="89"/>
+      <c r="C76" s="90"/>
       <c r="D76" s="56"/>
       <c r="E76" s="56"/>
       <c r="F76" s="53"/>
@@ -49663,8 +49663,8 @@
       <c r="H76" s="58"/>
     </row>
     <row r="77" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="89"/>
-      <c r="C77" s="90"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="88"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="60"/>
@@ -49672,8 +49672,8 @@
       <c r="H77" s="59"/>
     </row>
     <row r="78" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="87"/>
-      <c r="C78" s="88"/>
+      <c r="B78" s="89"/>
+      <c r="C78" s="90"/>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
       <c r="F78" s="53"/>
@@ -49681,8 +49681,8 @@
       <c r="H78" s="58"/>
     </row>
     <row r="79" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="89"/>
-      <c r="C79" s="90"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="88"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
       <c r="F79" s="60"/>
@@ -49690,8 +49690,8 @@
       <c r="H79" s="59"/>
     </row>
     <row r="80" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="87"/>
-      <c r="C80" s="88"/>
+      <c r="B80" s="89"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="56"/>
       <c r="E80" s="56"/>
       <c r="F80" s="53"/>
@@ -49699,8 +49699,8 @@
       <c r="H80" s="58"/>
     </row>
     <row r="81" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="89"/>
-      <c r="C81" s="90"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="88"/>
       <c r="D81" s="55"/>
       <c r="E81" s="55"/>
       <c r="F81" s="60"/>
@@ -49708,8 +49708,8 @@
       <c r="H81" s="59"/>
     </row>
     <row r="82" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="87"/>
-      <c r="C82" s="88"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="90"/>
       <c r="D82" s="56"/>
       <c r="E82" s="56"/>
       <c r="F82" s="53"/>
@@ -49717,8 +49717,8 @@
       <c r="H82" s="58"/>
     </row>
     <row r="83" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="89"/>
-      <c r="C83" s="90"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="88"/>
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
       <c r="F83" s="60"/>
@@ -49726,8 +49726,8 @@
       <c r="H83" s="59"/>
     </row>
     <row r="84" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="87"/>
-      <c r="C84" s="88"/>
+      <c r="B84" s="89"/>
+      <c r="C84" s="90"/>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
       <c r="F84" s="53"/>
@@ -49735,8 +49735,8 @@
       <c r="H84" s="58"/>
     </row>
     <row r="85" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="89"/>
-      <c r="C85" s="90"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="88"/>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
       <c r="F85" s="60"/>
@@ -49744,8 +49744,8 @@
       <c r="H85" s="59"/>
     </row>
     <row r="86" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="87"/>
-      <c r="C86" s="88"/>
+      <c r="B86" s="89"/>
+      <c r="C86" s="90"/>
       <c r="D86" s="56"/>
       <c r="E86" s="56"/>
       <c r="F86" s="53"/>
@@ -49753,8 +49753,8 @@
       <c r="H86" s="58"/>
     </row>
     <row r="87" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="89"/>
-      <c r="C87" s="90"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="88"/>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
       <c r="F87" s="60"/>
@@ -49762,8 +49762,8 @@
       <c r="H87" s="59"/>
     </row>
     <row r="88" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="87"/>
-      <c r="C88" s="88"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="90"/>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
       <c r="F88" s="53"/>
@@ -49771,8 +49771,8 @@
       <c r="H88" s="58"/>
     </row>
     <row r="89" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="89"/>
-      <c r="C89" s="90"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="88"/>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
       <c r="F89" s="60"/>
@@ -49780,8 +49780,8 @@
       <c r="H89" s="59"/>
     </row>
     <row r="90" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="87"/>
-      <c r="C90" s="88"/>
+      <c r="B90" s="89"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="56"/>
       <c r="E90" s="56"/>
       <c r="F90" s="53"/>
@@ -49789,8 +49789,8 @@
       <c r="H90" s="58"/>
     </row>
     <row r="91" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="89"/>
-      <c r="C91" s="90"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="88"/>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="F91" s="60"/>
@@ -49798,8 +49798,8 @@
       <c r="H91" s="59"/>
     </row>
     <row r="92" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="87"/>
-      <c r="C92" s="88"/>
+      <c r="B92" s="89"/>
+      <c r="C92" s="90"/>
       <c r="D92" s="56"/>
       <c r="E92" s="56"/>
       <c r="F92" s="53"/>
@@ -49807,8 +49807,8 @@
       <c r="H92" s="58"/>
     </row>
     <row r="93" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="89"/>
-      <c r="C93" s="90"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="88"/>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
       <c r="F93" s="60"/>
@@ -49816,8 +49816,8 @@
       <c r="H93" s="59"/>
     </row>
     <row r="94" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="87"/>
-      <c r="C94" s="88"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="90"/>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
       <c r="F94" s="53"/>
@@ -49825,8 +49825,8 @@
       <c r="H94" s="58"/>
     </row>
     <row r="95" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="89"/>
-      <c r="C95" s="90"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="88"/>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
       <c r="F95" s="60"/>
@@ -49834,8 +49834,8 @@
       <c r="H95" s="59"/>
     </row>
     <row r="96" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="87"/>
-      <c r="C96" s="88"/>
+      <c r="B96" s="89"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="56"/>
       <c r="E96" s="56"/>
       <c r="F96" s="53"/>
@@ -49843,8 +49843,8 @@
       <c r="H96" s="58"/>
     </row>
     <row r="97" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="89"/>
-      <c r="C97" s="90"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="88"/>
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
       <c r="F97" s="60"/>
@@ -49852,8 +49852,8 @@
       <c r="H97" s="59"/>
     </row>
     <row r="98" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="87"/>
-      <c r="C98" s="88"/>
+      <c r="B98" s="89"/>
+      <c r="C98" s="90"/>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="53"/>
@@ -49861,8 +49861,8 @@
       <c r="H98" s="58"/>
     </row>
     <row r="99" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="89"/>
-      <c r="C99" s="90"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="88"/>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="60"/>
@@ -49870,8 +49870,8 @@
       <c r="H99" s="59"/>
     </row>
     <row r="100" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="87"/>
-      <c r="C100" s="88"/>
+      <c r="B100" s="89"/>
+      <c r="C100" s="90"/>
       <c r="D100" s="56"/>
       <c r="E100" s="56"/>
       <c r="F100" s="53"/>
@@ -49879,8 +49879,8 @@
       <c r="H100" s="58"/>
     </row>
     <row r="101" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="89"/>
-      <c r="C101" s="90"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="88"/>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
       <c r="F101" s="60"/>
@@ -49888,8 +49888,8 @@
       <c r="H101" s="59"/>
     </row>
     <row r="102" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="87"/>
-      <c r="C102" s="88"/>
+      <c r="B102" s="89"/>
+      <c r="C102" s="90"/>
       <c r="D102" s="56"/>
       <c r="E102" s="56"/>
       <c r="F102" s="53"/>
@@ -49897,8 +49897,8 @@
       <c r="H102" s="58"/>
     </row>
     <row r="103" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="89"/>
-      <c r="C103" s="90"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="88"/>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
       <c r="F103" s="60"/>
@@ -49906,8 +49906,8 @@
       <c r="H103" s="59"/>
     </row>
     <row r="104" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="87"/>
-      <c r="C104" s="88"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="90"/>
       <c r="D104" s="56"/>
       <c r="E104" s="56"/>
       <c r="F104" s="53"/>
@@ -49915,8 +49915,8 @@
       <c r="H104" s="58"/>
     </row>
     <row r="105" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="89"/>
-      <c r="C105" s="90"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="88"/>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
       <c r="F105" s="60"/>
@@ -49924,8 +49924,8 @@
       <c r="H105" s="59"/>
     </row>
     <row r="106" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="87"/>
-      <c r="C106" s="88"/>
+      <c r="B106" s="89"/>
+      <c r="C106" s="90"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
       <c r="F106" s="53"/>
@@ -49933,8 +49933,8 @@
       <c r="H106" s="58"/>
     </row>
     <row r="107" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="89"/>
-      <c r="C107" s="90"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="88"/>
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
       <c r="F107" s="60"/>
@@ -49942,8 +49942,8 @@
       <c r="H107" s="59"/>
     </row>
     <row r="108" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="87"/>
-      <c r="C108" s="88"/>
+      <c r="B108" s="89"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="53"/>
@@ -49951,8 +49951,8 @@
       <c r="H108" s="58"/>
     </row>
     <row r="109" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="89"/>
-      <c r="C109" s="90"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="88"/>
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
       <c r="F109" s="60"/>
@@ -49960,8 +49960,8 @@
       <c r="H109" s="59"/>
     </row>
     <row r="110" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="87"/>
-      <c r="C110" s="88"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="90"/>
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="53"/>
@@ -49969,8 +49969,8 @@
       <c r="H110" s="58"/>
     </row>
     <row r="111" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="89"/>
-      <c r="C111" s="90"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="88"/>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
       <c r="F111" s="60"/>
@@ -49978,8 +49978,8 @@
       <c r="H111" s="59"/>
     </row>
     <row r="112" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="87"/>
-      <c r="C112" s="88"/>
+      <c r="B112" s="89"/>
+      <c r="C112" s="90"/>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
       <c r="F112" s="53"/>
@@ -49987,8 +49987,8 @@
       <c r="H112" s="58"/>
     </row>
     <row r="113" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="89"/>
-      <c r="C113" s="90"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="88"/>
       <c r="D113" s="55"/>
       <c r="E113" s="55"/>
       <c r="F113" s="60"/>
@@ -49996,8 +49996,8 @@
       <c r="H113" s="59"/>
     </row>
     <row r="114" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="87"/>
-      <c r="C114" s="88"/>
+      <c r="B114" s="89"/>
+      <c r="C114" s="90"/>
       <c r="D114" s="56"/>
       <c r="E114" s="56"/>
       <c r="F114" s="53"/>
@@ -50005,8 +50005,8 @@
       <c r="H114" s="58"/>
     </row>
     <row r="115" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="89"/>
-      <c r="C115" s="90"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="88"/>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
       <c r="F115" s="60"/>
@@ -50014,8 +50014,8 @@
       <c r="H115" s="59"/>
     </row>
     <row r="116" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="87"/>
-      <c r="C116" s="88"/>
+      <c r="B116" s="89"/>
+      <c r="C116" s="90"/>
       <c r="D116" s="56"/>
       <c r="E116" s="56"/>
       <c r="F116" s="53"/>
@@ -50023,8 +50023,8 @@
       <c r="H116" s="58"/>
     </row>
     <row r="117" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="89"/>
-      <c r="C117" s="90"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="88"/>
       <c r="D117" s="55"/>
       <c r="E117" s="55"/>
       <c r="F117" s="60"/>
@@ -50032,8 +50032,8 @@
       <c r="H117" s="59"/>
     </row>
     <row r="118" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="87"/>
-      <c r="C118" s="88"/>
+      <c r="B118" s="89"/>
+      <c r="C118" s="90"/>
       <c r="D118" s="56"/>
       <c r="E118" s="56"/>
       <c r="F118" s="53"/>
@@ -50041,8 +50041,8 @@
       <c r="H118" s="58"/>
     </row>
     <row r="119" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="89"/>
-      <c r="C119" s="90"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="88"/>
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
       <c r="F119" s="60"/>
@@ -50050,8 +50050,8 @@
       <c r="H119" s="59"/>
     </row>
     <row r="120" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="87"/>
-      <c r="C120" s="88"/>
+      <c r="B120" s="89"/>
+      <c r="C120" s="90"/>
       <c r="D120" s="56"/>
       <c r="E120" s="56"/>
       <c r="F120" s="53"/>
@@ -50059,8 +50059,8 @@
       <c r="H120" s="58"/>
     </row>
     <row r="121" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="89"/>
-      <c r="C121" s="90"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="88"/>
       <c r="D121" s="55"/>
       <c r="E121" s="55"/>
       <c r="F121" s="60"/>
@@ -50068,8 +50068,8 @@
       <c r="H121" s="59"/>
     </row>
     <row r="122" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="87"/>
-      <c r="C122" s="88"/>
+      <c r="B122" s="89"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="56"/>
       <c r="E122" s="56"/>
       <c r="F122" s="53"/>
@@ -50077,8 +50077,8 @@
       <c r="H122" s="58"/>
     </row>
     <row r="123" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="89"/>
-      <c r="C123" s="90"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="88"/>
       <c r="D123" s="55"/>
       <c r="E123" s="55"/>
       <c r="F123" s="60"/>
@@ -50086,8 +50086,8 @@
       <c r="H123" s="59"/>
     </row>
     <row r="124" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="87"/>
-      <c r="C124" s="88"/>
+      <c r="B124" s="89"/>
+      <c r="C124" s="90"/>
       <c r="D124" s="56"/>
       <c r="E124" s="56"/>
       <c r="F124" s="53"/>
@@ -50095,8 +50095,8 @@
       <c r="H124" s="58"/>
     </row>
     <row r="125" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="89"/>
-      <c r="C125" s="90"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="88"/>
       <c r="D125" s="55"/>
       <c r="E125" s="55"/>
       <c r="F125" s="60"/>
@@ -50104,8 +50104,8 @@
       <c r="H125" s="59"/>
     </row>
     <row r="126" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="87"/>
-      <c r="C126" s="88"/>
+      <c r="B126" s="89"/>
+      <c r="C126" s="90"/>
       <c r="D126" s="56"/>
       <c r="E126" s="56"/>
       <c r="F126" s="53"/>
@@ -50113,8 +50113,8 @@
       <c r="H126" s="58"/>
     </row>
     <row r="127" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="89"/>
-      <c r="C127" s="90"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="88"/>
       <c r="D127" s="55"/>
       <c r="E127" s="55"/>
       <c r="F127" s="60"/>
@@ -50122,8 +50122,8 @@
       <c r="H127" s="59"/>
     </row>
     <row r="128" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="87"/>
-      <c r="C128" s="88"/>
+      <c r="B128" s="89"/>
+      <c r="C128" s="90"/>
       <c r="D128" s="56"/>
       <c r="E128" s="56"/>
       <c r="F128" s="53"/>
@@ -50131,8 +50131,8 @@
       <c r="H128" s="58"/>
     </row>
     <row r="129" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="89"/>
-      <c r="C129" s="90"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="88"/>
       <c r="D129" s="55"/>
       <c r="E129" s="55"/>
       <c r="F129" s="60"/>
@@ -50140,8 +50140,8 @@
       <c r="H129" s="59"/>
     </row>
     <row r="130" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="87"/>
-      <c r="C130" s="88"/>
+      <c r="B130" s="89"/>
+      <c r="C130" s="90"/>
       <c r="D130" s="56"/>
       <c r="E130" s="56"/>
       <c r="F130" s="53"/>
@@ -50149,8 +50149,8 @@
       <c r="H130" s="58"/>
     </row>
     <row r="131" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="89"/>
-      <c r="C131" s="90"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="88"/>
       <c r="D131" s="55"/>
       <c r="E131" s="55"/>
       <c r="F131" s="60"/>
@@ -50158,8 +50158,8 @@
       <c r="H131" s="59"/>
     </row>
     <row r="132" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="87"/>
-      <c r="C132" s="88"/>
+      <c r="B132" s="89"/>
+      <c r="C132" s="90"/>
       <c r="D132" s="56"/>
       <c r="E132" s="56"/>
       <c r="F132" s="53"/>
@@ -50167,8 +50167,8 @@
       <c r="H132" s="58"/>
     </row>
     <row r="133" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="89"/>
-      <c r="C133" s="90"/>
+      <c r="B133" s="87"/>
+      <c r="C133" s="88"/>
       <c r="D133" s="55"/>
       <c r="E133" s="55"/>
       <c r="F133" s="60"/>
@@ -50176,8 +50176,8 @@
       <c r="H133" s="59"/>
     </row>
     <row r="134" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="87"/>
-      <c r="C134" s="88"/>
+      <c r="B134" s="89"/>
+      <c r="C134" s="90"/>
       <c r="D134" s="56"/>
       <c r="E134" s="56"/>
       <c r="F134" s="53"/>
@@ -50185,8 +50185,8 @@
       <c r="H134" s="58"/>
     </row>
     <row r="135" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="89"/>
-      <c r="C135" s="90"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="88"/>
       <c r="D135" s="55"/>
       <c r="E135" s="55"/>
       <c r="F135" s="60"/>
@@ -50194,8 +50194,8 @@
       <c r="H135" s="59"/>
     </row>
     <row r="136" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="87"/>
-      <c r="C136" s="88"/>
+      <c r="B136" s="89"/>
+      <c r="C136" s="90"/>
       <c r="D136" s="56"/>
       <c r="E136" s="56"/>
       <c r="F136" s="53"/>
@@ -50203,8 +50203,8 @@
       <c r="H136" s="58"/>
     </row>
     <row r="137" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="89"/>
-      <c r="C137" s="90"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="88"/>
       <c r="D137" s="55"/>
       <c r="E137" s="55"/>
       <c r="F137" s="60"/>
@@ -50212,8 +50212,8 @@
       <c r="H137" s="59"/>
     </row>
     <row r="138" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="87"/>
-      <c r="C138" s="88"/>
+      <c r="B138" s="89"/>
+      <c r="C138" s="90"/>
       <c r="D138" s="56"/>
       <c r="E138" s="56"/>
       <c r="F138" s="53"/>
@@ -50221,8 +50221,8 @@
       <c r="H138" s="58"/>
     </row>
     <row r="139" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="89"/>
-      <c r="C139" s="90"/>
+      <c r="B139" s="87"/>
+      <c r="C139" s="88"/>
       <c r="D139" s="55"/>
       <c r="E139" s="55"/>
       <c r="F139" s="60"/>
@@ -50230,8 +50230,8 @@
       <c r="H139" s="59"/>
     </row>
     <row r="140" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="87"/>
-      <c r="C140" s="88"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="90"/>
       <c r="D140" s="56"/>
       <c r="E140" s="56"/>
       <c r="F140" s="53"/>
@@ -50239,8 +50239,8 @@
       <c r="H140" s="58"/>
     </row>
     <row r="141" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="89"/>
-      <c r="C141" s="90"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="88"/>
       <c r="D141" s="55"/>
       <c r="E141" s="55"/>
       <c r="F141" s="60"/>
@@ -50248,8 +50248,8 @@
       <c r="H141" s="59"/>
     </row>
     <row r="142" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="87"/>
-      <c r="C142" s="88"/>
+      <c r="B142" s="89"/>
+      <c r="C142" s="90"/>
       <c r="D142" s="56"/>
       <c r="E142" s="56"/>
       <c r="F142" s="53"/>
@@ -50257,8 +50257,8 @@
       <c r="H142" s="58"/>
     </row>
     <row r="143" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="89"/>
-      <c r="C143" s="90"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="88"/>
       <c r="D143" s="55"/>
       <c r="E143" s="55"/>
       <c r="F143" s="60"/>
@@ -50266,8 +50266,8 @@
       <c r="H143" s="59"/>
     </row>
     <row r="144" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="87"/>
-      <c r="C144" s="88"/>
+      <c r="B144" s="89"/>
+      <c r="C144" s="90"/>
       <c r="D144" s="56"/>
       <c r="E144" s="56"/>
       <c r="F144" s="53"/>
@@ -50275,8 +50275,8 @@
       <c r="H144" s="58"/>
     </row>
     <row r="145" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="89"/>
-      <c r="C145" s="90"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="88"/>
       <c r="D145" s="55"/>
       <c r="E145" s="55"/>
       <c r="F145" s="60"/>
@@ -50284,8 +50284,8 @@
       <c r="H145" s="59"/>
     </row>
     <row r="146" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="87"/>
-      <c r="C146" s="88"/>
+      <c r="B146" s="89"/>
+      <c r="C146" s="90"/>
       <c r="D146" s="56"/>
       <c r="E146" s="56"/>
       <c r="F146" s="53"/>
@@ -50293,8 +50293,8 @@
       <c r="H146" s="58"/>
     </row>
     <row r="147" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="89"/>
-      <c r="C147" s="90"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="88"/>
       <c r="D147" s="55"/>
       <c r="E147" s="55"/>
       <c r="F147" s="60"/>
@@ -50302,8 +50302,8 @@
       <c r="H147" s="59"/>
     </row>
     <row r="148" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="87"/>
-      <c r="C148" s="88"/>
+      <c r="B148" s="89"/>
+      <c r="C148" s="90"/>
       <c r="D148" s="56"/>
       <c r="E148" s="56"/>
       <c r="F148" s="53"/>
@@ -50311,8 +50311,8 @@
       <c r="H148" s="58"/>
     </row>
     <row r="149" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="89"/>
-      <c r="C149" s="90"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="88"/>
       <c r="D149" s="55"/>
       <c r="E149" s="55"/>
       <c r="F149" s="60"/>
@@ -50320,8 +50320,8 @@
       <c r="H149" s="59"/>
     </row>
     <row r="150" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="87"/>
-      <c r="C150" s="88"/>
+      <c r="B150" s="89"/>
+      <c r="C150" s="90"/>
       <c r="D150" s="56"/>
       <c r="E150" s="56"/>
       <c r="F150" s="53"/>
@@ -50329,8 +50329,8 @@
       <c r="H150" s="58"/>
     </row>
     <row r="151" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="89"/>
-      <c r="C151" s="90"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="88"/>
       <c r="D151" s="55"/>
       <c r="E151" s="55"/>
       <c r="F151" s="60"/>
@@ -50338,8 +50338,8 @@
       <c r="H151" s="59"/>
     </row>
     <row r="152" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="87"/>
-      <c r="C152" s="88"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="90"/>
       <c r="D152" s="56"/>
       <c r="E152" s="56"/>
       <c r="F152" s="53"/>
@@ -50347,8 +50347,8 @@
       <c r="H152" s="58"/>
     </row>
     <row r="153" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="89"/>
-      <c r="C153" s="90"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="88"/>
       <c r="D153" s="55"/>
       <c r="E153" s="55"/>
       <c r="F153" s="60"/>
@@ -50356,8 +50356,8 @@
       <c r="H153" s="59"/>
     </row>
     <row r="154" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="87"/>
-      <c r="C154" s="88"/>
+      <c r="B154" s="89"/>
+      <c r="C154" s="90"/>
       <c r="D154" s="56"/>
       <c r="E154" s="56"/>
       <c r="F154" s="53"/>
@@ -50365,8 +50365,8 @@
       <c r="H154" s="58"/>
     </row>
     <row r="155" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="89"/>
-      <c r="C155" s="90"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="88"/>
       <c r="D155" s="55"/>
       <c r="E155" s="55"/>
       <c r="F155" s="60"/>
@@ -50374,8 +50374,8 @@
       <c r="H155" s="59"/>
     </row>
     <row r="156" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="87"/>
-      <c r="C156" s="88"/>
+      <c r="B156" s="89"/>
+      <c r="C156" s="90"/>
       <c r="D156" s="56"/>
       <c r="E156" s="56"/>
       <c r="F156" s="53"/>
@@ -50383,8 +50383,8 @@
       <c r="H156" s="58"/>
     </row>
     <row r="157" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="89"/>
-      <c r="C157" s="90"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="88"/>
       <c r="D157" s="55"/>
       <c r="E157" s="55"/>
       <c r="F157" s="60"/>
@@ -50392,8 +50392,8 @@
       <c r="H157" s="59"/>
     </row>
     <row r="158" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="87"/>
-      <c r="C158" s="88"/>
+      <c r="B158" s="89"/>
+      <c r="C158" s="90"/>
       <c r="D158" s="56"/>
       <c r="E158" s="56"/>
       <c r="F158" s="53"/>
@@ -50401,8 +50401,8 @@
       <c r="H158" s="58"/>
     </row>
     <row r="159" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="89"/>
-      <c r="C159" s="90"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="88"/>
       <c r="D159" s="55"/>
       <c r="E159" s="55"/>
       <c r="F159" s="60"/>
@@ -50410,8 +50410,8 @@
       <c r="H159" s="59"/>
     </row>
     <row r="160" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="87"/>
-      <c r="C160" s="88"/>
+      <c r="B160" s="89"/>
+      <c r="C160" s="90"/>
       <c r="D160" s="56"/>
       <c r="E160" s="56"/>
       <c r="F160" s="53"/>
@@ -50419,8 +50419,8 @@
       <c r="H160" s="58"/>
     </row>
     <row r="161" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="89"/>
-      <c r="C161" s="90"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="88"/>
       <c r="D161" s="55"/>
       <c r="E161" s="55"/>
       <c r="F161" s="60"/>
@@ -50428,8 +50428,8 @@
       <c r="H161" s="59"/>
     </row>
     <row r="162" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="87"/>
-      <c r="C162" s="88"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="90"/>
       <c r="D162" s="56"/>
       <c r="E162" s="56"/>
       <c r="F162" s="53"/>
@@ -50437,8 +50437,8 @@
       <c r="H162" s="58"/>
     </row>
     <row r="163" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="89"/>
-      <c r="C163" s="90"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="88"/>
       <c r="D163" s="55"/>
       <c r="E163" s="55"/>
       <c r="F163" s="60"/>
@@ -50446,8 +50446,8 @@
       <c r="H163" s="59"/>
     </row>
     <row r="164" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="87"/>
-      <c r="C164" s="88"/>
+      <c r="B164" s="89"/>
+      <c r="C164" s="90"/>
       <c r="D164" s="56"/>
       <c r="E164" s="56"/>
       <c r="F164" s="53"/>
@@ -50455,8 +50455,8 @@
       <c r="H164" s="58"/>
     </row>
     <row r="165" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="89"/>
-      <c r="C165" s="90"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="88"/>
       <c r="D165" s="55"/>
       <c r="E165" s="55"/>
       <c r="F165" s="60"/>
@@ -50464,8 +50464,8 @@
       <c r="H165" s="59"/>
     </row>
     <row r="166" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="87"/>
-      <c r="C166" s="88"/>
+      <c r="B166" s="89"/>
+      <c r="C166" s="90"/>
       <c r="D166" s="56"/>
       <c r="E166" s="56"/>
       <c r="F166" s="53"/>
@@ -50473,8 +50473,8 @@
       <c r="H166" s="58"/>
     </row>
     <row r="167" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="89"/>
-      <c r="C167" s="90"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="88"/>
       <c r="D167" s="55"/>
       <c r="E167" s="55"/>
       <c r="F167" s="60"/>
@@ -50482,8 +50482,8 @@
       <c r="H167" s="59"/>
     </row>
     <row r="168" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="87"/>
-      <c r="C168" s="88"/>
+      <c r="B168" s="89"/>
+      <c r="C168" s="90"/>
       <c r="D168" s="56"/>
       <c r="E168" s="56"/>
       <c r="F168" s="53"/>
@@ -50491,8 +50491,8 @@
       <c r="H168" s="58"/>
     </row>
     <row r="169" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="89"/>
-      <c r="C169" s="90"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="88"/>
       <c r="D169" s="55"/>
       <c r="E169" s="55"/>
       <c r="F169" s="60"/>
@@ -50500,8 +50500,8 @@
       <c r="H169" s="59"/>
     </row>
     <row r="170" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="87"/>
-      <c r="C170" s="88"/>
+      <c r="B170" s="89"/>
+      <c r="C170" s="90"/>
       <c r="D170" s="56"/>
       <c r="E170" s="56"/>
       <c r="F170" s="53"/>
@@ -50509,8 +50509,8 @@
       <c r="H170" s="58"/>
     </row>
     <row r="171" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="89"/>
-      <c r="C171" s="90"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="88"/>
       <c r="D171" s="55"/>
       <c r="E171" s="55"/>
       <c r="F171" s="60"/>
@@ -50518,8 +50518,8 @@
       <c r="H171" s="59"/>
     </row>
     <row r="172" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="87"/>
-      <c r="C172" s="88"/>
+      <c r="B172" s="89"/>
+      <c r="C172" s="90"/>
       <c r="D172" s="56"/>
       <c r="E172" s="56"/>
       <c r="F172" s="53"/>
@@ -50527,8 +50527,8 @@
       <c r="H172" s="58"/>
     </row>
     <row r="173" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="89"/>
-      <c r="C173" s="90"/>
+      <c r="B173" s="87"/>
+      <c r="C173" s="88"/>
       <c r="D173" s="55"/>
       <c r="E173" s="55"/>
       <c r="F173" s="60"/>
@@ -50536,8 +50536,8 @@
       <c r="H173" s="59"/>
     </row>
     <row r="174" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="87"/>
-      <c r="C174" s="88"/>
+      <c r="B174" s="89"/>
+      <c r="C174" s="90"/>
       <c r="D174" s="56"/>
       <c r="E174" s="56"/>
       <c r="F174" s="53"/>
@@ -50545,8 +50545,8 @@
       <c r="H174" s="58"/>
     </row>
     <row r="175" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="89"/>
-      <c r="C175" s="90"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="88"/>
       <c r="D175" s="55"/>
       <c r="E175" s="55"/>
       <c r="F175" s="60"/>
@@ -50554,8 +50554,8 @@
       <c r="H175" s="59"/>
     </row>
     <row r="176" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="87"/>
-      <c r="C176" s="88"/>
+      <c r="B176" s="89"/>
+      <c r="C176" s="90"/>
       <c r="D176" s="56"/>
       <c r="E176" s="56"/>
       <c r="F176" s="53"/>
@@ -50563,8 +50563,8 @@
       <c r="H176" s="58"/>
     </row>
     <row r="177" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="89"/>
-      <c r="C177" s="90"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="88"/>
       <c r="D177" s="55"/>
       <c r="E177" s="55"/>
       <c r="F177" s="60"/>
@@ -50572,8 +50572,8 @@
       <c r="H177" s="59"/>
     </row>
     <row r="178" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="87"/>
-      <c r="C178" s="88"/>
+      <c r="B178" s="89"/>
+      <c r="C178" s="90"/>
       <c r="D178" s="56"/>
       <c r="E178" s="56"/>
       <c r="F178" s="53"/>
@@ -50581,8 +50581,8 @@
       <c r="H178" s="58"/>
     </row>
     <row r="179" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="89"/>
-      <c r="C179" s="90"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="88"/>
       <c r="D179" s="55"/>
       <c r="E179" s="55"/>
       <c r="F179" s="60"/>
@@ -50590,8 +50590,8 @@
       <c r="H179" s="59"/>
     </row>
     <row r="180" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="87"/>
-      <c r="C180" s="88"/>
+      <c r="B180" s="89"/>
+      <c r="C180" s="90"/>
       <c r="D180" s="56"/>
       <c r="E180" s="56"/>
       <c r="F180" s="53"/>
@@ -50599,8 +50599,8 @@
       <c r="H180" s="58"/>
     </row>
     <row r="181" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="89"/>
-      <c r="C181" s="90"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="88"/>
       <c r="D181" s="55"/>
       <c r="E181" s="55"/>
       <c r="F181" s="60"/>
@@ -50608,8 +50608,8 @@
       <c r="H181" s="59"/>
     </row>
     <row r="182" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="87"/>
-      <c r="C182" s="88"/>
+      <c r="B182" s="89"/>
+      <c r="C182" s="90"/>
       <c r="D182" s="56"/>
       <c r="E182" s="56"/>
       <c r="F182" s="53"/>
@@ -50617,8 +50617,8 @@
       <c r="H182" s="58"/>
     </row>
     <row r="183" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="89"/>
-      <c r="C183" s="90"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="88"/>
       <c r="D183" s="55"/>
       <c r="E183" s="55"/>
       <c r="F183" s="60"/>
@@ -50626,8 +50626,8 @@
       <c r="H183" s="59"/>
     </row>
     <row r="184" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="87"/>
-      <c r="C184" s="88"/>
+      <c r="B184" s="89"/>
+      <c r="C184" s="90"/>
       <c r="D184" s="56"/>
       <c r="E184" s="56"/>
       <c r="F184" s="53"/>
@@ -50635,8 +50635,8 @@
       <c r="H184" s="58"/>
     </row>
     <row r="185" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="89"/>
-      <c r="C185" s="90"/>
+      <c r="B185" s="87"/>
+      <c r="C185" s="88"/>
       <c r="D185" s="55"/>
       <c r="E185" s="55"/>
       <c r="F185" s="60"/>
@@ -50644,8 +50644,8 @@
       <c r="H185" s="59"/>
     </row>
     <row r="186" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="87"/>
-      <c r="C186" s="88"/>
+      <c r="B186" s="89"/>
+      <c r="C186" s="90"/>
       <c r="D186" s="56"/>
       <c r="E186" s="56"/>
       <c r="F186" s="53"/>
@@ -50653,8 +50653,8 @@
       <c r="H186" s="58"/>
     </row>
     <row r="187" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="89"/>
-      <c r="C187" s="90"/>
+      <c r="B187" s="87"/>
+      <c r="C187" s="88"/>
       <c r="D187" s="55"/>
       <c r="E187" s="55"/>
       <c r="F187" s="60"/>
@@ -50662,8 +50662,8 @@
       <c r="H187" s="59"/>
     </row>
     <row r="188" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="87"/>
-      <c r="C188" s="88"/>
+      <c r="B188" s="89"/>
+      <c r="C188" s="90"/>
       <c r="D188" s="56"/>
       <c r="E188" s="56"/>
       <c r="F188" s="53"/>
@@ -50671,8 +50671,8 @@
       <c r="H188" s="58"/>
     </row>
     <row r="189" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="89"/>
-      <c r="C189" s="90"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="88"/>
       <c r="D189" s="55"/>
       <c r="E189" s="55"/>
       <c r="F189" s="60"/>
@@ -50680,8 +50680,8 @@
       <c r="H189" s="59"/>
     </row>
     <row r="190" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="87"/>
-      <c r="C190" s="88"/>
+      <c r="B190" s="89"/>
+      <c r="C190" s="90"/>
       <c r="D190" s="56"/>
       <c r="E190" s="56"/>
       <c r="F190" s="53"/>
@@ -50689,8 +50689,8 @@
       <c r="H190" s="58"/>
     </row>
     <row r="191" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="89"/>
-      <c r="C191" s="90"/>
+      <c r="B191" s="87"/>
+      <c r="C191" s="88"/>
       <c r="D191" s="55"/>
       <c r="E191" s="55"/>
       <c r="F191" s="60"/>
@@ -50698,8 +50698,8 @@
       <c r="H191" s="59"/>
     </row>
     <row r="192" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="87"/>
-      <c r="C192" s="88"/>
+      <c r="B192" s="89"/>
+      <c r="C192" s="90"/>
       <c r="D192" s="56"/>
       <c r="E192" s="56"/>
       <c r="F192" s="53"/>
@@ -50707,8 +50707,8 @@
       <c r="H192" s="58"/>
     </row>
     <row r="193" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="89"/>
-      <c r="C193" s="90"/>
+      <c r="B193" s="87"/>
+      <c r="C193" s="88"/>
       <c r="D193" s="55"/>
       <c r="E193" s="55"/>
       <c r="F193" s="60"/>
@@ -50716,8 +50716,8 @@
       <c r="H193" s="59"/>
     </row>
     <row r="194" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="87"/>
-      <c r="C194" s="88"/>
+      <c r="B194" s="89"/>
+      <c r="C194" s="90"/>
       <c r="D194" s="56"/>
       <c r="E194" s="56"/>
       <c r="F194" s="53"/>
@@ -50725,8 +50725,8 @@
       <c r="H194" s="58"/>
     </row>
     <row r="195" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="89"/>
-      <c r="C195" s="90"/>
+      <c r="B195" s="87"/>
+      <c r="C195" s="88"/>
       <c r="D195" s="55"/>
       <c r="E195" s="55"/>
       <c r="F195" s="60"/>
@@ -50734,8 +50734,8 @@
       <c r="H195" s="59"/>
     </row>
     <row r="196" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="87"/>
-      <c r="C196" s="88"/>
+      <c r="B196" s="89"/>
+      <c r="C196" s="90"/>
       <c r="D196" s="56"/>
       <c r="E196" s="56"/>
       <c r="F196" s="53"/>
@@ -50743,8 +50743,8 @@
       <c r="H196" s="58"/>
     </row>
     <row r="197" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="89"/>
-      <c r="C197" s="90"/>
+      <c r="B197" s="87"/>
+      <c r="C197" s="88"/>
       <c r="D197" s="55"/>
       <c r="E197" s="55"/>
       <c r="F197" s="60"/>
@@ -50752,8 +50752,8 @@
       <c r="H197" s="59"/>
     </row>
     <row r="198" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="87"/>
-      <c r="C198" s="88"/>
+      <c r="B198" s="89"/>
+      <c r="C198" s="90"/>
       <c r="D198" s="56"/>
       <c r="E198" s="56"/>
       <c r="F198" s="53"/>
@@ -50761,8 +50761,8 @@
       <c r="H198" s="58"/>
     </row>
     <row r="199" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="89"/>
-      <c r="C199" s="90"/>
+      <c r="B199" s="87"/>
+      <c r="C199" s="88"/>
       <c r="D199" s="55"/>
       <c r="E199" s="55"/>
       <c r="F199" s="60"/>
@@ -50770,8 +50770,8 @@
       <c r="H199" s="59"/>
     </row>
     <row r="200" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="87"/>
-      <c r="C200" s="88"/>
+      <c r="B200" s="89"/>
+      <c r="C200" s="90"/>
       <c r="D200" s="56"/>
       <c r="E200" s="56"/>
       <c r="F200" s="53"/>
@@ -50779,8 +50779,8 @@
       <c r="H200" s="58"/>
     </row>
     <row r="201" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="89"/>
-      <c r="C201" s="90"/>
+      <c r="B201" s="87"/>
+      <c r="C201" s="88"/>
       <c r="D201" s="55"/>
       <c r="E201" s="55"/>
       <c r="F201" s="60"/>
@@ -50788,8 +50788,8 @@
       <c r="H201" s="59"/>
     </row>
     <row r="202" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="87"/>
-      <c r="C202" s="88"/>
+      <c r="B202" s="89"/>
+      <c r="C202" s="90"/>
       <c r="D202" s="56"/>
       <c r="E202" s="56"/>
       <c r="F202" s="53"/>
@@ -50797,8 +50797,8 @@
       <c r="H202" s="58"/>
     </row>
     <row r="203" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="89"/>
-      <c r="C203" s="90"/>
+      <c r="B203" s="87"/>
+      <c r="C203" s="88"/>
       <c r="D203" s="55"/>
       <c r="E203" s="55"/>
       <c r="F203" s="60"/>
@@ -50806,8 +50806,8 @@
       <c r="H203" s="59"/>
     </row>
     <row r="204" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="87"/>
-      <c r="C204" s="88"/>
+      <c r="B204" s="89"/>
+      <c r="C204" s="90"/>
       <c r="D204" s="56"/>
       <c r="E204" s="56"/>
       <c r="F204" s="53"/>
@@ -50815,8 +50815,8 @@
       <c r="H204" s="58"/>
     </row>
     <row r="205" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="89"/>
-      <c r="C205" s="90"/>
+      <c r="B205" s="87"/>
+      <c r="C205" s="88"/>
       <c r="D205" s="55"/>
       <c r="E205" s="55"/>
       <c r="F205" s="60"/>
@@ -50824,8 +50824,8 @@
       <c r="H205" s="59"/>
     </row>
     <row r="206" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="87"/>
-      <c r="C206" s="88"/>
+      <c r="B206" s="89"/>
+      <c r="C206" s="90"/>
       <c r="D206" s="56"/>
       <c r="E206" s="56"/>
       <c r="F206" s="53"/>
@@ -50833,8 +50833,8 @@
       <c r="H206" s="58"/>
     </row>
     <row r="207" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="89"/>
-      <c r="C207" s="90"/>
+      <c r="B207" s="87"/>
+      <c r="C207" s="88"/>
       <c r="D207" s="55"/>
       <c r="E207" s="55"/>
       <c r="F207" s="60"/>
@@ -50842,8 +50842,8 @@
       <c r="H207" s="59"/>
     </row>
     <row r="208" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="87"/>
-      <c r="C208" s="88"/>
+      <c r="B208" s="89"/>
+      <c r="C208" s="90"/>
       <c r="D208" s="56"/>
       <c r="E208" s="56"/>
       <c r="F208" s="53"/>
@@ -50851,8 +50851,8 @@
       <c r="H208" s="58"/>
     </row>
     <row r="209" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="89"/>
-      <c r="C209" s="90"/>
+      <c r="B209" s="87"/>
+      <c r="C209" s="88"/>
       <c r="D209" s="55"/>
       <c r="E209" s="55"/>
       <c r="F209" s="60"/>
@@ -50860,8 +50860,8 @@
       <c r="H209" s="59"/>
     </row>
     <row r="210" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="87"/>
-      <c r="C210" s="88"/>
+      <c r="B210" s="89"/>
+      <c r="C210" s="90"/>
       <c r="D210" s="56"/>
       <c r="E210" s="56"/>
       <c r="F210" s="53"/>
@@ -50869,8 +50869,8 @@
       <c r="H210" s="58"/>
     </row>
     <row r="211" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="89"/>
-      <c r="C211" s="90"/>
+      <c r="B211" s="87"/>
+      <c r="C211" s="88"/>
       <c r="D211" s="55"/>
       <c r="E211" s="55"/>
       <c r="F211" s="60"/>
@@ -50878,8 +50878,8 @@
       <c r="H211" s="59"/>
     </row>
     <row r="212" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="87"/>
-      <c r="C212" s="88"/>
+      <c r="B212" s="89"/>
+      <c r="C212" s="90"/>
       <c r="D212" s="56"/>
       <c r="E212" s="56"/>
       <c r="F212" s="53"/>
@@ -50887,8 +50887,8 @@
       <c r="H212" s="58"/>
     </row>
     <row r="213" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="89"/>
-      <c r="C213" s="90"/>
+      <c r="B213" s="87"/>
+      <c r="C213" s="88"/>
       <c r="D213" s="55"/>
       <c r="E213" s="55"/>
       <c r="F213" s="60"/>
@@ -50896,8 +50896,8 @@
       <c r="H213" s="59"/>
     </row>
     <row r="214" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="87"/>
-      <c r="C214" s="88"/>
+      <c r="B214" s="89"/>
+      <c r="C214" s="90"/>
       <c r="D214" s="56"/>
       <c r="E214" s="56"/>
       <c r="F214" s="53"/>
@@ -50905,8 +50905,8 @@
       <c r="H214" s="58"/>
     </row>
     <row r="215" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="89"/>
-      <c r="C215" s="90"/>
+      <c r="B215" s="87"/>
+      <c r="C215" s="88"/>
       <c r="D215" s="55"/>
       <c r="E215" s="55"/>
       <c r="F215" s="60"/>
@@ -50914,8 +50914,8 @@
       <c r="H215" s="59"/>
     </row>
     <row r="216" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="87"/>
-      <c r="C216" s="88"/>
+      <c r="B216" s="89"/>
+      <c r="C216" s="90"/>
       <c r="D216" s="56"/>
       <c r="E216" s="56"/>
       <c r="F216" s="53"/>
@@ -50923,8 +50923,8 @@
       <c r="H216" s="58"/>
     </row>
     <row r="217" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="89"/>
-      <c r="C217" s="90"/>
+      <c r="B217" s="87"/>
+      <c r="C217" s="88"/>
       <c r="D217" s="55"/>
       <c r="E217" s="55"/>
       <c r="F217" s="60"/>
@@ -50932,8 +50932,8 @@
       <c r="H217" s="59"/>
     </row>
     <row r="218" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="87"/>
-      <c r="C218" s="88"/>
+      <c r="B218" s="89"/>
+      <c r="C218" s="90"/>
       <c r="D218" s="56"/>
       <c r="E218" s="56"/>
       <c r="F218" s="53"/>
@@ -50941,8 +50941,8 @@
       <c r="H218" s="58"/>
     </row>
     <row r="219" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="89"/>
-      <c r="C219" s="90"/>
+      <c r="B219" s="87"/>
+      <c r="C219" s="88"/>
       <c r="D219" s="55"/>
       <c r="E219" s="55"/>
       <c r="F219" s="60"/>
@@ -50950,8 +50950,8 @@
       <c r="H219" s="59"/>
     </row>
     <row r="220" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="87"/>
-      <c r="C220" s="88"/>
+      <c r="B220" s="89"/>
+      <c r="C220" s="90"/>
       <c r="D220" s="56"/>
       <c r="E220" s="56"/>
       <c r="F220" s="53"/>
@@ -50959,8 +50959,8 @@
       <c r="H220" s="58"/>
     </row>
     <row r="221" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="89"/>
-      <c r="C221" s="90"/>
+      <c r="B221" s="87"/>
+      <c r="C221" s="88"/>
       <c r="D221" s="55"/>
       <c r="E221" s="55"/>
       <c r="F221" s="60"/>
@@ -50968,8 +50968,8 @@
       <c r="H221" s="59"/>
     </row>
     <row r="222" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="87"/>
-      <c r="C222" s="88"/>
+      <c r="B222" s="89"/>
+      <c r="C222" s="90"/>
       <c r="D222" s="56"/>
       <c r="E222" s="56"/>
       <c r="F222" s="53"/>
@@ -50977,8 +50977,8 @@
       <c r="H222" s="58"/>
     </row>
     <row r="223" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="89"/>
-      <c r="C223" s="90"/>
+      <c r="B223" s="87"/>
+      <c r="C223" s="88"/>
       <c r="D223" s="55"/>
       <c r="E223" s="55"/>
       <c r="F223" s="60"/>
@@ -50986,8 +50986,8 @@
       <c r="H223" s="59"/>
     </row>
     <row r="224" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="87"/>
-      <c r="C224" s="88"/>
+      <c r="B224" s="89"/>
+      <c r="C224" s="90"/>
       <c r="D224" s="56"/>
       <c r="E224" s="56"/>
       <c r="F224" s="53"/>
@@ -50995,8 +50995,8 @@
       <c r="H224" s="58"/>
     </row>
     <row r="225" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="89"/>
-      <c r="C225" s="90"/>
+      <c r="B225" s="87"/>
+      <c r="C225" s="88"/>
       <c r="D225" s="55"/>
       <c r="E225" s="55"/>
       <c r="F225" s="60"/>
@@ -51004,8 +51004,8 @@
       <c r="H225" s="59"/>
     </row>
     <row r="226" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="87"/>
-      <c r="C226" s="88"/>
+      <c r="B226" s="89"/>
+      <c r="C226" s="90"/>
       <c r="D226" s="56"/>
       <c r="E226" s="56"/>
       <c r="F226" s="53"/>
@@ -51013,8 +51013,8 @@
       <c r="H226" s="58"/>
     </row>
     <row r="227" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="89"/>
-      <c r="C227" s="90"/>
+      <c r="B227" s="87"/>
+      <c r="C227" s="88"/>
       <c r="D227" s="55"/>
       <c r="E227" s="55"/>
       <c r="F227" s="60"/>
@@ -51022,8 +51022,8 @@
       <c r="H227" s="59"/>
     </row>
     <row r="228" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="87"/>
-      <c r="C228" s="88"/>
+      <c r="B228" s="89"/>
+      <c r="C228" s="90"/>
       <c r="D228" s="56"/>
       <c r="E228" s="56"/>
       <c r="F228" s="53"/>
@@ -51031,8 +51031,8 @@
       <c r="H228" s="58"/>
     </row>
     <row r="229" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="89"/>
-      <c r="C229" s="90"/>
+      <c r="B229" s="87"/>
+      <c r="C229" s="88"/>
       <c r="D229" s="55"/>
       <c r="E229" s="55"/>
       <c r="F229" s="60"/>
@@ -51040,8 +51040,8 @@
       <c r="H229" s="59"/>
     </row>
     <row r="230" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="87"/>
-      <c r="C230" s="88"/>
+      <c r="B230" s="89"/>
+      <c r="C230" s="90"/>
       <c r="D230" s="56"/>
       <c r="E230" s="56"/>
       <c r="F230" s="53"/>
@@ -51049,8 +51049,8 @@
       <c r="H230" s="58"/>
     </row>
     <row r="231" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="89"/>
-      <c r="C231" s="90"/>
+      <c r="B231" s="87"/>
+      <c r="C231" s="88"/>
       <c r="D231" s="55"/>
       <c r="E231" s="55"/>
       <c r="F231" s="60"/>
@@ -51058,8 +51058,8 @@
       <c r="H231" s="59"/>
     </row>
     <row r="232" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="87"/>
-      <c r="C232" s="88"/>
+      <c r="B232" s="89"/>
+      <c r="C232" s="90"/>
       <c r="D232" s="56"/>
       <c r="E232" s="56"/>
       <c r="F232" s="53"/>
@@ -51067,8 +51067,8 @@
       <c r="H232" s="58"/>
     </row>
     <row r="233" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="89"/>
-      <c r="C233" s="90"/>
+      <c r="B233" s="87"/>
+      <c r="C233" s="88"/>
       <c r="D233" s="55"/>
       <c r="E233" s="55"/>
       <c r="F233" s="60"/>
@@ -51076,8 +51076,8 @@
       <c r="H233" s="59"/>
     </row>
     <row r="234" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="87"/>
-      <c r="C234" s="88"/>
+      <c r="B234" s="89"/>
+      <c r="C234" s="90"/>
       <c r="D234" s="56"/>
       <c r="E234" s="56"/>
       <c r="F234" s="53"/>
@@ -51085,8 +51085,8 @@
       <c r="H234" s="58"/>
     </row>
     <row r="235" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="89"/>
-      <c r="C235" s="90"/>
+      <c r="B235" s="87"/>
+      <c r="C235" s="88"/>
       <c r="D235" s="55"/>
       <c r="E235" s="55"/>
       <c r="F235" s="60"/>
@@ -51094,8 +51094,8 @@
       <c r="H235" s="59"/>
     </row>
     <row r="236" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="87"/>
-      <c r="C236" s="88"/>
+      <c r="B236" s="89"/>
+      <c r="C236" s="90"/>
       <c r="D236" s="56"/>
       <c r="E236" s="56"/>
       <c r="F236" s="53"/>
@@ -51103,8 +51103,8 @@
       <c r="H236" s="58"/>
     </row>
     <row r="237" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="89"/>
-      <c r="C237" s="90"/>
+      <c r="B237" s="87"/>
+      <c r="C237" s="88"/>
       <c r="D237" s="55"/>
       <c r="E237" s="55"/>
       <c r="F237" s="60"/>
@@ -51112,8 +51112,8 @@
       <c r="H237" s="59"/>
     </row>
     <row r="238" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="87"/>
-      <c r="C238" s="88"/>
+      <c r="B238" s="89"/>
+      <c r="C238" s="90"/>
       <c r="D238" s="56"/>
       <c r="E238" s="56"/>
       <c r="F238" s="53"/>
@@ -51121,8 +51121,8 @@
       <c r="H238" s="58"/>
     </row>
     <row r="239" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="89"/>
-      <c r="C239" s="90"/>
+      <c r="B239" s="87"/>
+      <c r="C239" s="88"/>
       <c r="D239" s="55"/>
       <c r="E239" s="55"/>
       <c r="F239" s="60"/>
@@ -51130,8 +51130,8 @@
       <c r="H239" s="59"/>
     </row>
     <row r="240" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="87"/>
-      <c r="C240" s="88"/>
+      <c r="B240" s="89"/>
+      <c r="C240" s="90"/>
       <c r="D240" s="56"/>
       <c r="E240" s="56"/>
       <c r="F240" s="53"/>
@@ -51139,8 +51139,8 @@
       <c r="H240" s="58"/>
     </row>
     <row r="241" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="89"/>
-      <c r="C241" s="90"/>
+      <c r="B241" s="87"/>
+      <c r="C241" s="88"/>
       <c r="D241" s="55"/>
       <c r="E241" s="55"/>
       <c r="F241" s="60"/>
@@ -51148,8 +51148,8 @@
       <c r="H241" s="59"/>
     </row>
     <row r="242" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="87"/>
-      <c r="C242" s="88"/>
+      <c r="B242" s="89"/>
+      <c r="C242" s="90"/>
       <c r="D242" s="56"/>
       <c r="E242" s="56"/>
       <c r="F242" s="53"/>
@@ -51157,8 +51157,8 @@
       <c r="H242" s="58"/>
     </row>
     <row r="243" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="89"/>
-      <c r="C243" s="90"/>
+      <c r="B243" s="87"/>
+      <c r="C243" s="88"/>
       <c r="D243" s="55"/>
       <c r="E243" s="55"/>
       <c r="F243" s="60"/>
@@ -51166,8 +51166,8 @@
       <c r="H243" s="59"/>
     </row>
     <row r="244" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="87"/>
-      <c r="C244" s="88"/>
+      <c r="B244" s="89"/>
+      <c r="C244" s="90"/>
       <c r="D244" s="56"/>
       <c r="E244" s="56"/>
       <c r="F244" s="53"/>
@@ -51175,8 +51175,8 @@
       <c r="H244" s="58"/>
     </row>
     <row r="245" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="89"/>
-      <c r="C245" s="90"/>
+      <c r="B245" s="87"/>
+      <c r="C245" s="88"/>
       <c r="D245" s="55"/>
       <c r="E245" s="55"/>
       <c r="F245" s="60"/>
@@ -51184,8 +51184,8 @@
       <c r="H245" s="59"/>
     </row>
     <row r="246" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="87"/>
-      <c r="C246" s="88"/>
+      <c r="B246" s="89"/>
+      <c r="C246" s="90"/>
       <c r="D246" s="56"/>
       <c r="E246" s="56"/>
       <c r="F246" s="53"/>
@@ -51193,8 +51193,8 @@
       <c r="H246" s="58"/>
     </row>
     <row r="247" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="89"/>
-      <c r="C247" s="90"/>
+      <c r="B247" s="87"/>
+      <c r="C247" s="88"/>
       <c r="D247" s="55"/>
       <c r="E247" s="55"/>
       <c r="F247" s="60"/>
@@ -51202,8 +51202,8 @@
       <c r="H247" s="59"/>
     </row>
     <row r="248" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="87"/>
-      <c r="C248" s="88"/>
+      <c r="B248" s="89"/>
+      <c r="C248" s="90"/>
       <c r="D248" s="56"/>
       <c r="E248" s="56"/>
       <c r="F248" s="53"/>
@@ -51211,8 +51211,8 @@
       <c r="H248" s="58"/>
     </row>
     <row r="249" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="89"/>
-      <c r="C249" s="90"/>
+      <c r="B249" s="87"/>
+      <c r="C249" s="88"/>
       <c r="D249" s="55"/>
       <c r="E249" s="55"/>
       <c r="F249" s="60"/>
@@ -51220,8 +51220,8 @@
       <c r="H249" s="59"/>
     </row>
     <row r="250" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="87"/>
-      <c r="C250" s="88"/>
+      <c r="B250" s="89"/>
+      <c r="C250" s="90"/>
       <c r="D250" s="56"/>
       <c r="E250" s="56"/>
       <c r="F250" s="53"/>
@@ -51229,8 +51229,8 @@
       <c r="H250" s="58"/>
     </row>
     <row r="251" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="89"/>
-      <c r="C251" s="90"/>
+      <c r="B251" s="87"/>
+      <c r="C251" s="88"/>
       <c r="D251" s="55"/>
       <c r="E251" s="55"/>
       <c r="F251" s="60"/>
@@ -51238,8 +51238,8 @@
       <c r="H251" s="59"/>
     </row>
     <row r="252" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="87"/>
-      <c r="C252" s="88"/>
+      <c r="B252" s="89"/>
+      <c r="C252" s="90"/>
       <c r="D252" s="56"/>
       <c r="E252" s="56"/>
       <c r="F252" s="53"/>
@@ -51247,8 +51247,8 @@
       <c r="H252" s="58"/>
     </row>
     <row r="253" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="89"/>
-      <c r="C253" s="90"/>
+      <c r="B253" s="87"/>
+      <c r="C253" s="88"/>
       <c r="D253" s="55"/>
       <c r="E253" s="55"/>
       <c r="F253" s="60"/>
@@ -51256,8 +51256,8 @@
       <c r="H253" s="59"/>
     </row>
     <row r="254" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="87"/>
-      <c r="C254" s="88"/>
+      <c r="B254" s="89"/>
+      <c r="C254" s="90"/>
       <c r="D254" s="56"/>
       <c r="E254" s="56"/>
       <c r="F254" s="53"/>
@@ -51265,8 +51265,8 @@
       <c r="H254" s="58"/>
     </row>
     <row r="255" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="89"/>
-      <c r="C255" s="90"/>
+      <c r="B255" s="87"/>
+      <c r="C255" s="88"/>
       <c r="D255" s="55"/>
       <c r="E255" s="55"/>
       <c r="F255" s="60"/>
@@ -51274,8 +51274,8 @@
       <c r="H255" s="59"/>
     </row>
     <row r="256" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="87"/>
-      <c r="C256" s="88"/>
+      <c r="B256" s="89"/>
+      <c r="C256" s="90"/>
       <c r="D256" s="56"/>
       <c r="E256" s="56"/>
       <c r="F256" s="53"/>
@@ -51283,8 +51283,8 @@
       <c r="H256" s="58"/>
     </row>
     <row r="257" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="89"/>
-      <c r="C257" s="90"/>
+      <c r="B257" s="87"/>
+      <c r="C257" s="88"/>
       <c r="D257" s="55"/>
       <c r="E257" s="55"/>
       <c r="F257" s="60"/>
@@ -51292,8 +51292,8 @@
       <c r="H257" s="59"/>
     </row>
     <row r="258" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="87"/>
-      <c r="C258" s="88"/>
+      <c r="B258" s="89"/>
+      <c r="C258" s="90"/>
       <c r="D258" s="56"/>
       <c r="E258" s="56"/>
       <c r="F258" s="53"/>
@@ -51301,8 +51301,8 @@
       <c r="H258" s="58"/>
     </row>
     <row r="259" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="89"/>
-      <c r="C259" s="90"/>
+      <c r="B259" s="87"/>
+      <c r="C259" s="88"/>
       <c r="D259" s="55"/>
       <c r="E259" s="55"/>
       <c r="F259" s="60"/>
@@ -51310,8 +51310,8 @@
       <c r="H259" s="59"/>
     </row>
     <row r="260" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="87"/>
-      <c r="C260" s="88"/>
+      <c r="B260" s="89"/>
+      <c r="C260" s="90"/>
       <c r="D260" s="56"/>
       <c r="E260" s="56"/>
       <c r="F260" s="53"/>
@@ -51319,8 +51319,8 @@
       <c r="H260" s="58"/>
     </row>
     <row r="261" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="89"/>
-      <c r="C261" s="90"/>
+      <c r="B261" s="87"/>
+      <c r="C261" s="88"/>
       <c r="D261" s="55"/>
       <c r="E261" s="55"/>
       <c r="F261" s="60"/>
@@ -51328,8 +51328,8 @@
       <c r="H261" s="59"/>
     </row>
     <row r="262" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="87"/>
-      <c r="C262" s="88"/>
+      <c r="B262" s="89"/>
+      <c r="C262" s="90"/>
       <c r="D262" s="56"/>
       <c r="E262" s="56"/>
       <c r="F262" s="53"/>
@@ -51337,8 +51337,8 @@
       <c r="H262" s="58"/>
     </row>
     <row r="263" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="89"/>
-      <c r="C263" s="90"/>
+      <c r="B263" s="87"/>
+      <c r="C263" s="88"/>
       <c r="D263" s="55"/>
       <c r="E263" s="55"/>
       <c r="F263" s="60"/>
@@ -51346,8 +51346,8 @@
       <c r="H263" s="59"/>
     </row>
     <row r="264" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="87"/>
-      <c r="C264" s="88"/>
+      <c r="B264" s="89"/>
+      <c r="C264" s="90"/>
       <c r="D264" s="56"/>
       <c r="E264" s="56"/>
       <c r="F264" s="53"/>
@@ -51355,8 +51355,8 @@
       <c r="H264" s="58"/>
     </row>
     <row r="265" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="89"/>
-      <c r="C265" s="90"/>
+      <c r="B265" s="87"/>
+      <c r="C265" s="88"/>
       <c r="D265" s="55"/>
       <c r="E265" s="55"/>
       <c r="F265" s="60"/>
@@ -51364,8 +51364,8 @@
       <c r="H265" s="59"/>
     </row>
     <row r="266" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="87"/>
-      <c r="C266" s="88"/>
+      <c r="B266" s="89"/>
+      <c r="C266" s="90"/>
       <c r="D266" s="56"/>
       <c r="E266" s="56"/>
       <c r="F266" s="53"/>
@@ -51373,8 +51373,8 @@
       <c r="H266" s="58"/>
     </row>
     <row r="267" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="89"/>
-      <c r="C267" s="90"/>
+      <c r="B267" s="87"/>
+      <c r="C267" s="88"/>
       <c r="D267" s="55"/>
       <c r="E267" s="55"/>
       <c r="F267" s="60"/>
@@ -51382,8 +51382,8 @@
       <c r="H267" s="59"/>
     </row>
     <row r="268" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="87"/>
-      <c r="C268" s="88"/>
+      <c r="B268" s="89"/>
+      <c r="C268" s="90"/>
       <c r="D268" s="56"/>
       <c r="E268" s="56"/>
       <c r="F268" s="53"/>
@@ -51391,8 +51391,8 @@
       <c r="H268" s="58"/>
     </row>
     <row r="269" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="89"/>
-      <c r="C269" s="90"/>
+      <c r="B269" s="87"/>
+      <c r="C269" s="88"/>
       <c r="D269" s="55"/>
       <c r="E269" s="55"/>
       <c r="F269" s="60"/>
@@ -51400,8 +51400,8 @@
       <c r="H269" s="59"/>
     </row>
     <row r="270" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="87"/>
-      <c r="C270" s="88"/>
+      <c r="B270" s="89"/>
+      <c r="C270" s="90"/>
       <c r="D270" s="56"/>
       <c r="E270" s="56"/>
       <c r="F270" s="53"/>
@@ -51409,8 +51409,8 @@
       <c r="H270" s="58"/>
     </row>
     <row r="271" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="89"/>
-      <c r="C271" s="90"/>
+      <c r="B271" s="87"/>
+      <c r="C271" s="88"/>
       <c r="D271" s="55"/>
       <c r="E271" s="55"/>
       <c r="F271" s="60"/>
@@ -51418,8 +51418,8 @@
       <c r="H271" s="59"/>
     </row>
     <row r="272" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="87"/>
-      <c r="C272" s="88"/>
+      <c r="B272" s="89"/>
+      <c r="C272" s="90"/>
       <c r="D272" s="56"/>
       <c r="E272" s="56"/>
       <c r="F272" s="53"/>
@@ -51427,8 +51427,8 @@
       <c r="H272" s="58"/>
     </row>
     <row r="273" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="89"/>
-      <c r="C273" s="90"/>
+      <c r="B273" s="87"/>
+      <c r="C273" s="88"/>
       <c r="D273" s="55"/>
       <c r="E273" s="55"/>
       <c r="F273" s="60"/>
@@ -51436,8 +51436,8 @@
       <c r="H273" s="59"/>
     </row>
     <row r="274" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="87"/>
-      <c r="C274" s="88"/>
+      <c r="B274" s="89"/>
+      <c r="C274" s="90"/>
       <c r="D274" s="56"/>
       <c r="E274" s="56"/>
       <c r="F274" s="53"/>
@@ -51445,8 +51445,8 @@
       <c r="H274" s="58"/>
     </row>
     <row r="275" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="89"/>
-      <c r="C275" s="90"/>
+      <c r="B275" s="87"/>
+      <c r="C275" s="88"/>
       <c r="D275" s="55"/>
       <c r="E275" s="55"/>
       <c r="F275" s="60"/>
@@ -51454,8 +51454,8 @@
       <c r="H275" s="59"/>
     </row>
     <row r="276" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="87"/>
-      <c r="C276" s="88"/>
+      <c r="B276" s="89"/>
+      <c r="C276" s="90"/>
       <c r="D276" s="56"/>
       <c r="E276" s="56"/>
       <c r="F276" s="53"/>
@@ -51463,8 +51463,8 @@
       <c r="H276" s="58"/>
     </row>
     <row r="277" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="89"/>
-      <c r="C277" s="90"/>
+      <c r="B277" s="87"/>
+      <c r="C277" s="88"/>
       <c r="D277" s="55"/>
       <c r="E277" s="55"/>
       <c r="F277" s="60"/>
@@ -51472,8 +51472,8 @@
       <c r="H277" s="59"/>
     </row>
     <row r="278" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="87"/>
-      <c r="C278" s="88"/>
+      <c r="B278" s="89"/>
+      <c r="C278" s="90"/>
       <c r="D278" s="56"/>
       <c r="E278" s="56"/>
       <c r="F278" s="53"/>
@@ -51481,8 +51481,8 @@
       <c r="H278" s="58"/>
     </row>
     <row r="279" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="89"/>
-      <c r="C279" s="90"/>
+      <c r="B279" s="87"/>
+      <c r="C279" s="88"/>
       <c r="D279" s="55"/>
       <c r="E279" s="55"/>
       <c r="F279" s="60"/>
@@ -51490,8 +51490,8 @@
       <c r="H279" s="59"/>
     </row>
     <row r="280" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="87"/>
-      <c r="C280" s="88"/>
+      <c r="B280" s="89"/>
+      <c r="C280" s="90"/>
       <c r="D280" s="56"/>
       <c r="E280" s="56"/>
       <c r="F280" s="53"/>
@@ -51499,8 +51499,8 @@
       <c r="H280" s="58"/>
     </row>
     <row r="281" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="89"/>
-      <c r="C281" s="90"/>
+      <c r="B281" s="87"/>
+      <c r="C281" s="88"/>
       <c r="D281" s="55"/>
       <c r="E281" s="55"/>
       <c r="F281" s="60"/>
@@ -51508,8 +51508,8 @@
       <c r="H281" s="59"/>
     </row>
     <row r="282" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="87"/>
-      <c r="C282" s="88"/>
+      <c r="B282" s="89"/>
+      <c r="C282" s="90"/>
       <c r="D282" s="56"/>
       <c r="E282" s="56"/>
       <c r="F282" s="53"/>
@@ -51517,8 +51517,8 @@
       <c r="H282" s="58"/>
     </row>
     <row r="283" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="89"/>
-      <c r="C283" s="90"/>
+      <c r="B283" s="87"/>
+      <c r="C283" s="88"/>
       <c r="D283" s="55"/>
       <c r="E283" s="55"/>
       <c r="F283" s="60"/>
@@ -51526,8 +51526,8 @@
       <c r="H283" s="59"/>
     </row>
     <row r="284" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="87"/>
-      <c r="C284" s="88"/>
+      <c r="B284" s="89"/>
+      <c r="C284" s="90"/>
       <c r="D284" s="56"/>
       <c r="E284" s="56"/>
       <c r="F284" s="53"/>
@@ -51535,8 +51535,8 @@
       <c r="H284" s="58"/>
     </row>
     <row r="285" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="89"/>
-      <c r="C285" s="90"/>
+      <c r="B285" s="87"/>
+      <c r="C285" s="88"/>
       <c r="D285" s="55"/>
       <c r="E285" s="55"/>
       <c r="F285" s="60"/>
@@ -51544,8 +51544,8 @@
       <c r="H285" s="59"/>
     </row>
     <row r="286" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="87"/>
-      <c r="C286" s="88"/>
+      <c r="B286" s="89"/>
+      <c r="C286" s="90"/>
       <c r="D286" s="56"/>
       <c r="E286" s="56"/>
       <c r="F286" s="53"/>
@@ -51553,8 +51553,8 @@
       <c r="H286" s="58"/>
     </row>
     <row r="287" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="89"/>
-      <c r="C287" s="90"/>
+      <c r="B287" s="87"/>
+      <c r="C287" s="88"/>
       <c r="D287" s="55"/>
       <c r="E287" s="55"/>
       <c r="F287" s="60"/>
@@ -51562,8 +51562,8 @@
       <c r="H287" s="59"/>
     </row>
     <row r="288" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="87"/>
-      <c r="C288" s="88"/>
+      <c r="B288" s="89"/>
+      <c r="C288" s="90"/>
       <c r="D288" s="56"/>
       <c r="E288" s="56"/>
       <c r="F288" s="53"/>
@@ -51571,8 +51571,8 @@
       <c r="H288" s="58"/>
     </row>
     <row r="289" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="89"/>
-      <c r="C289" s="90"/>
+      <c r="B289" s="87"/>
+      <c r="C289" s="88"/>
       <c r="D289" s="55"/>
       <c r="E289" s="55"/>
       <c r="F289" s="60"/>
@@ -51580,8 +51580,8 @@
       <c r="H289" s="59"/>
     </row>
     <row r="290" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="87"/>
-      <c r="C290" s="88"/>
+      <c r="B290" s="89"/>
+      <c r="C290" s="90"/>
       <c r="D290" s="56"/>
       <c r="E290" s="56"/>
       <c r="F290" s="53"/>
@@ -51589,8 +51589,8 @@
       <c r="H290" s="58"/>
     </row>
     <row r="291" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="89"/>
-      <c r="C291" s="90"/>
+      <c r="B291" s="87"/>
+      <c r="C291" s="88"/>
       <c r="D291" s="55"/>
       <c r="E291" s="55"/>
       <c r="F291" s="60"/>
@@ -51598,8 +51598,8 @@
       <c r="H291" s="59"/>
     </row>
     <row r="292" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="87"/>
-      <c r="C292" s="88"/>
+      <c r="B292" s="89"/>
+      <c r="C292" s="90"/>
       <c r="D292" s="56"/>
       <c r="E292" s="56"/>
       <c r="F292" s="53"/>
@@ -51607,8 +51607,8 @@
       <c r="H292" s="58"/>
     </row>
     <row r="293" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="89"/>
-      <c r="C293" s="90"/>
+      <c r="B293" s="87"/>
+      <c r="C293" s="88"/>
       <c r="D293" s="55"/>
       <c r="E293" s="55"/>
       <c r="F293" s="60"/>
@@ -51616,8 +51616,8 @@
       <c r="H293" s="59"/>
     </row>
     <row r="294" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="87"/>
-      <c r="C294" s="88"/>
+      <c r="B294" s="89"/>
+      <c r="C294" s="90"/>
       <c r="D294" s="56"/>
       <c r="E294" s="56"/>
       <c r="F294" s="53"/>
@@ -51625,8 +51625,8 @@
       <c r="H294" s="58"/>
     </row>
     <row r="295" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="89"/>
-      <c r="C295" s="90"/>
+      <c r="B295" s="87"/>
+      <c r="C295" s="88"/>
       <c r="D295" s="55"/>
       <c r="E295" s="55"/>
       <c r="F295" s="60"/>
@@ -51634,8 +51634,8 @@
       <c r="H295" s="59"/>
     </row>
     <row r="296" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="87"/>
-      <c r="C296" s="88"/>
+      <c r="B296" s="89"/>
+      <c r="C296" s="90"/>
       <c r="D296" s="56"/>
       <c r="E296" s="56"/>
       <c r="F296" s="53"/>
@@ -51643,8 +51643,8 @@
       <c r="H296" s="58"/>
     </row>
     <row r="297" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="89"/>
-      <c r="C297" s="90"/>
+      <c r="B297" s="87"/>
+      <c r="C297" s="88"/>
       <c r="D297" s="55"/>
       <c r="E297" s="55"/>
       <c r="F297" s="60"/>
@@ -51652,8 +51652,8 @@
       <c r="H297" s="59"/>
     </row>
     <row r="298" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="87"/>
-      <c r="C298" s="88"/>
+      <c r="B298" s="89"/>
+      <c r="C298" s="90"/>
       <c r="D298" s="56"/>
       <c r="E298" s="56"/>
       <c r="F298" s="53"/>
@@ -51661,8 +51661,8 @@
       <c r="H298" s="58"/>
     </row>
     <row r="299" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="89"/>
-      <c r="C299" s="90"/>
+      <c r="B299" s="87"/>
+      <c r="C299" s="88"/>
       <c r="D299" s="55"/>
       <c r="E299" s="55"/>
       <c r="F299" s="60"/>
@@ -51670,8 +51670,8 @@
       <c r="H299" s="59"/>
     </row>
     <row r="300" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="87"/>
-      <c r="C300" s="88"/>
+      <c r="B300" s="89"/>
+      <c r="C300" s="90"/>
       <c r="D300" s="56"/>
       <c r="E300" s="56"/>
       <c r="F300" s="53"/>
@@ -51681,6 +51681,286 @@
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="292">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
     <mergeCell ref="B299:C299"/>
     <mergeCell ref="B300:C300"/>
     <mergeCell ref="B294:C294"/>
@@ -51693,286 +51973,6 @@
     <mergeCell ref="B291:C291"/>
     <mergeCell ref="B292:C292"/>
     <mergeCell ref="B293:C293"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F300">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -52010,7 +52010,7 @@
   <sheetPr codeName="Tabelle4"/>
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" defaultGridColor="0" colorId="22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" defaultGridColor="0" colorId="22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -52032,12 +52032,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="81">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
       <c r="D2" s="93"/>
-      <c r="E2" s="86"/>
+      <c r="E2" s="82"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="AmpelFarben" localSheetId="4">Settings!$A$34:$A$37</definedName>
-    <definedName name="Bedarfe">Ressourcen!$E$12:$BY$100</definedName>
+    <definedName name="Bedarfe">Ressourcen!$F$12:$BY$100</definedName>
     <definedName name="BewertgErläuterung">Stammdaten!$C$23</definedName>
     <definedName name="Bewertung">Stammdaten!$C$21</definedName>
     <definedName name="Budget">Stammdaten!$C$12</definedName>
@@ -41,15 +41,15 @@
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
     <definedName name="Variant_name">Attribute!$C$22</definedName>
-    <definedName name="Zeitleiste">Ressourcen!$E$10:$GH$10</definedName>
-    <definedName name="Zeitmatrix">Ressourcen!$E$11:$GH$250</definedName>
+    <definedName name="Zeitleiste">Ressourcen!$F$10:$GH$10</definedName>
+    <definedName name="Zeitmatrix">Ressourcen!$F$11:$GH$250</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -284,6 +284,9 @@
   </si>
   <si>
     <t xml:space="preserve">  Zeitleiste</t>
+  </si>
+  <si>
+    <t>Summe</t>
   </si>
 </sst>
 </file>
@@ -794,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -897,9 +900,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -937,6 +937,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1440,7 +1444,7 @@
   <dimension ref="B1:G256"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1461,9 +1465,9 @@
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="10"/>
       <c r="G2" s="7"/>
     </row>
@@ -1531,39 +1535,39 @@
       <c r="B14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -1588,34 +1592,34 @@
       <c r="B23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
     </row>
     <row r="26" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
     </row>
     <row r="27" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="28" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1846,7 +1850,7 @@
     <row r="255" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="256" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E19"/>
@@ -1897,8 +1901,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GI250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1906,14 +1910,13 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="190" width="4.7109375" customWidth="1"/>
+    <col min="6" max="190" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:191" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1924,23 +1927,21 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="82">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="D2" s="83"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1955,8 +1956,7 @@
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="63"/>
       <c r="H4" s="3"/>
       <c r="J4" s="6"/>
     </row>
@@ -1965,7 +1965,6 @@
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
       <c r="G5" s="3"/>
       <c r="I5" s="6"/>
       <c r="J5" s="2"/>
@@ -1979,7 +1978,7 @@
         <f>EndeDatum</f>
         <v>2958465</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:191" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
@@ -1993,767 +1992,765 @@
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="51">
+      <c r="E10" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="50">
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="F10" s="50">
-        <f>EDATE(E10,1)</f>
-        <v>32</v>
-      </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:BR10" si="0">EDATE(F10,1)</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H10" s="50">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I10" s="50">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J10" s="50">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K10" s="50">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="L10" s="50">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="N10" s="50">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="O10" s="50">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="P10" s="50">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="50">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="R10" s="50">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="S10" s="50">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="T10" s="50">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="U10" s="50">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="V10" s="50">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="W10" s="50">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="X10" s="50">
         <f t="shared" si="0"/>
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="Y10" s="50">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="Z10" s="50">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="AA10" s="50">
         <f t="shared" si="0"/>
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="AB10" s="50">
         <f t="shared" si="0"/>
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="AC10" s="50">
         <f t="shared" si="0"/>
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="AD10" s="50">
         <f t="shared" si="0"/>
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="AE10" s="50">
         <f t="shared" si="0"/>
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="AF10" s="50">
         <f t="shared" si="0"/>
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="AG10" s="50">
         <f t="shared" si="0"/>
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="AH10" s="50">
         <f t="shared" si="0"/>
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="AI10" s="50">
         <f t="shared" si="0"/>
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="AJ10" s="50">
         <f t="shared" si="0"/>
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="AK10" s="50">
         <f t="shared" si="0"/>
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="AL10" s="50">
         <f t="shared" si="0"/>
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="AM10" s="50">
         <f t="shared" si="0"/>
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="AN10" s="50">
         <f t="shared" si="0"/>
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="AO10" s="50">
         <f t="shared" si="0"/>
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="AP10" s="50">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="AQ10" s="50">
         <f t="shared" si="0"/>
-        <v>1156</v>
+        <v>1128</v>
       </c>
       <c r="AR10" s="50">
         <f t="shared" si="0"/>
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="AS10" s="50">
         <f t="shared" si="0"/>
-        <v>1217</v>
+        <v>1187</v>
       </c>
       <c r="AT10" s="50">
         <f t="shared" si="0"/>
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="AU10" s="50">
         <f t="shared" si="0"/>
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="AV10" s="50">
         <f t="shared" si="0"/>
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="AW10" s="50">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="AX10" s="50">
         <f t="shared" si="0"/>
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="AY10" s="50">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>1370</v>
       </c>
       <c r="AZ10" s="50">
         <f t="shared" si="0"/>
-        <v>1431</v>
+        <v>1401</v>
       </c>
       <c r="BA10" s="50">
         <f t="shared" si="0"/>
-        <v>1462</v>
+        <v>1431</v>
       </c>
       <c r="BB10" s="50">
         <f t="shared" si="0"/>
-        <v>1493</v>
+        <v>1462</v>
       </c>
       <c r="BC10" s="50">
         <f t="shared" si="0"/>
-        <v>1522</v>
+        <v>1493</v>
       </c>
       <c r="BD10" s="50">
         <f t="shared" si="0"/>
-        <v>1553</v>
+        <v>1522</v>
       </c>
       <c r="BE10" s="50">
         <f t="shared" si="0"/>
-        <v>1583</v>
+        <v>1553</v>
       </c>
       <c r="BF10" s="50">
         <f t="shared" si="0"/>
-        <v>1614</v>
+        <v>1583</v>
       </c>
       <c r="BG10" s="50">
         <f t="shared" si="0"/>
-        <v>1644</v>
+        <v>1614</v>
       </c>
       <c r="BH10" s="50">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>1644</v>
       </c>
       <c r="BI10" s="50">
         <f t="shared" si="0"/>
-        <v>1706</v>
+        <v>1675</v>
       </c>
       <c r="BJ10" s="50">
         <f t="shared" si="0"/>
-        <v>1736</v>
+        <v>1706</v>
       </c>
       <c r="BK10" s="50">
         <f t="shared" si="0"/>
-        <v>1767</v>
+        <v>1736</v>
       </c>
       <c r="BL10" s="50">
         <f t="shared" si="0"/>
-        <v>1797</v>
+        <v>1767</v>
       </c>
       <c r="BM10" s="50">
         <f t="shared" si="0"/>
-        <v>1828</v>
+        <v>1797</v>
       </c>
       <c r="BN10" s="50">
         <f t="shared" si="0"/>
-        <v>1859</v>
+        <v>1828</v>
       </c>
       <c r="BO10" s="50">
         <f t="shared" si="0"/>
-        <v>1887</v>
+        <v>1859</v>
       </c>
       <c r="BP10" s="50">
         <f t="shared" si="0"/>
-        <v>1918</v>
+        <v>1887</v>
       </c>
       <c r="BQ10" s="50">
         <f t="shared" si="0"/>
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="BR10" s="50">
         <f t="shared" si="0"/>
-        <v>1979</v>
+        <v>1948</v>
       </c>
       <c r="BS10" s="50">
         <f t="shared" ref="BS10:ED10" si="1">EDATE(BR10,1)</f>
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="BT10" s="50">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2009</v>
       </c>
       <c r="BU10" s="50">
         <f t="shared" si="1"/>
-        <v>2071</v>
+        <v>2040</v>
       </c>
       <c r="BV10" s="50">
         <f t="shared" si="1"/>
-        <v>2101</v>
+        <v>2071</v>
       </c>
       <c r="BW10" s="50">
         <f t="shared" si="1"/>
-        <v>2132</v>
+        <v>2101</v>
       </c>
       <c r="BX10" s="50">
         <f t="shared" si="1"/>
-        <v>2162</v>
+        <v>2132</v>
       </c>
       <c r="BY10" s="50">
         <f t="shared" si="1"/>
-        <v>2193</v>
+        <v>2162</v>
       </c>
       <c r="BZ10" s="50">
         <f t="shared" si="1"/>
-        <v>2224</v>
+        <v>2193</v>
       </c>
       <c r="CA10" s="50">
         <f t="shared" si="1"/>
-        <v>2252</v>
+        <v>2224</v>
       </c>
       <c r="CB10" s="50">
         <f t="shared" si="1"/>
-        <v>2283</v>
+        <v>2252</v>
       </c>
       <c r="CC10" s="50">
         <f t="shared" si="1"/>
-        <v>2313</v>
+        <v>2283</v>
       </c>
       <c r="CD10" s="50">
         <f t="shared" si="1"/>
-        <v>2344</v>
+        <v>2313</v>
       </c>
       <c r="CE10" s="50">
         <f t="shared" si="1"/>
-        <v>2374</v>
+        <v>2344</v>
       </c>
       <c r="CF10" s="50">
         <f t="shared" si="1"/>
-        <v>2405</v>
+        <v>2374</v>
       </c>
       <c r="CG10" s="50">
         <f t="shared" si="1"/>
-        <v>2436</v>
+        <v>2405</v>
       </c>
       <c r="CH10" s="50">
         <f t="shared" si="1"/>
-        <v>2466</v>
+        <v>2436</v>
       </c>
       <c r="CI10" s="50">
         <f t="shared" si="1"/>
-        <v>2497</v>
+        <v>2466</v>
       </c>
       <c r="CJ10" s="50">
         <f t="shared" si="1"/>
-        <v>2527</v>
+        <v>2497</v>
       </c>
       <c r="CK10" s="50">
         <f t="shared" si="1"/>
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="CL10" s="50">
         <f t="shared" si="1"/>
-        <v>2589</v>
+        <v>2558</v>
       </c>
       <c r="CM10" s="50">
         <f t="shared" si="1"/>
-        <v>2617</v>
+        <v>2589</v>
       </c>
       <c r="CN10" s="50">
         <f t="shared" si="1"/>
-        <v>2648</v>
+        <v>2617</v>
       </c>
       <c r="CO10" s="50">
         <f t="shared" si="1"/>
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="CP10" s="50">
         <f t="shared" si="1"/>
-        <v>2709</v>
+        <v>2678</v>
       </c>
       <c r="CQ10" s="50">
         <f t="shared" si="1"/>
-        <v>2739</v>
+        <v>2709</v>
       </c>
       <c r="CR10" s="50">
         <f t="shared" si="1"/>
-        <v>2770</v>
+        <v>2739</v>
       </c>
       <c r="CS10" s="50">
         <f t="shared" si="1"/>
-        <v>2801</v>
+        <v>2770</v>
       </c>
       <c r="CT10" s="50">
         <f t="shared" si="1"/>
-        <v>2831</v>
+        <v>2801</v>
       </c>
       <c r="CU10" s="50">
         <f t="shared" si="1"/>
-        <v>2862</v>
+        <v>2831</v>
       </c>
       <c r="CV10" s="50">
         <f t="shared" si="1"/>
-        <v>2892</v>
+        <v>2862</v>
       </c>
       <c r="CW10" s="50">
         <f t="shared" si="1"/>
-        <v>2923</v>
+        <v>2892</v>
       </c>
       <c r="CX10" s="50">
         <f t="shared" si="1"/>
-        <v>2954</v>
+        <v>2923</v>
       </c>
       <c r="CY10" s="50">
         <f t="shared" si="1"/>
-        <v>2983</v>
+        <v>2954</v>
       </c>
       <c r="CZ10" s="50">
         <f t="shared" si="1"/>
-        <v>3014</v>
+        <v>2983</v>
       </c>
       <c r="DA10" s="50">
         <f t="shared" si="1"/>
-        <v>3044</v>
+        <v>3014</v>
       </c>
       <c r="DB10" s="50">
         <f t="shared" si="1"/>
-        <v>3075</v>
+        <v>3044</v>
       </c>
       <c r="DC10" s="50">
         <f t="shared" si="1"/>
-        <v>3105</v>
+        <v>3075</v>
       </c>
       <c r="DD10" s="50">
         <f t="shared" si="1"/>
-        <v>3136</v>
+        <v>3105</v>
       </c>
       <c r="DE10" s="50">
         <f t="shared" si="1"/>
-        <v>3167</v>
+        <v>3136</v>
       </c>
       <c r="DF10" s="50">
         <f t="shared" si="1"/>
-        <v>3197</v>
+        <v>3167</v>
       </c>
       <c r="DG10" s="50">
         <f t="shared" si="1"/>
-        <v>3228</v>
+        <v>3197</v>
       </c>
       <c r="DH10" s="50">
         <f t="shared" si="1"/>
-        <v>3258</v>
+        <v>3228</v>
       </c>
       <c r="DI10" s="50">
         <f t="shared" si="1"/>
-        <v>3289</v>
+        <v>3258</v>
       </c>
       <c r="DJ10" s="50">
         <f t="shared" si="1"/>
-        <v>3320</v>
+        <v>3289</v>
       </c>
       <c r="DK10" s="50">
         <f t="shared" si="1"/>
-        <v>3348</v>
+        <v>3320</v>
       </c>
       <c r="DL10" s="50">
         <f t="shared" si="1"/>
-        <v>3379</v>
+        <v>3348</v>
       </c>
       <c r="DM10" s="50">
         <f t="shared" si="1"/>
-        <v>3409</v>
+        <v>3379</v>
       </c>
       <c r="DN10" s="50">
         <f t="shared" si="1"/>
-        <v>3440</v>
+        <v>3409</v>
       </c>
       <c r="DO10" s="50">
         <f t="shared" si="1"/>
-        <v>3470</v>
+        <v>3440</v>
       </c>
       <c r="DP10" s="50">
         <f t="shared" si="1"/>
-        <v>3501</v>
+        <v>3470</v>
       </c>
       <c r="DQ10" s="50">
         <f t="shared" si="1"/>
-        <v>3532</v>
+        <v>3501</v>
       </c>
       <c r="DR10" s="50">
         <f t="shared" si="1"/>
-        <v>3562</v>
+        <v>3532</v>
       </c>
       <c r="DS10" s="50">
         <f t="shared" si="1"/>
-        <v>3593</v>
+        <v>3562</v>
       </c>
       <c r="DT10" s="50">
         <f t="shared" si="1"/>
-        <v>3623</v>
+        <v>3593</v>
       </c>
       <c r="DU10" s="50">
         <f t="shared" si="1"/>
-        <v>3654</v>
+        <v>3623</v>
       </c>
       <c r="DV10" s="50">
         <f t="shared" si="1"/>
-        <v>3685</v>
+        <v>3654</v>
       </c>
       <c r="DW10" s="50">
         <f t="shared" si="1"/>
-        <v>3713</v>
+        <v>3685</v>
       </c>
       <c r="DX10" s="50">
         <f t="shared" si="1"/>
-        <v>3744</v>
+        <v>3713</v>
       </c>
       <c r="DY10" s="50">
         <f t="shared" si="1"/>
-        <v>3774</v>
+        <v>3744</v>
       </c>
       <c r="DZ10" s="50">
         <f t="shared" si="1"/>
-        <v>3805</v>
+        <v>3774</v>
       </c>
       <c r="EA10" s="50">
         <f t="shared" si="1"/>
-        <v>3835</v>
+        <v>3805</v>
       </c>
       <c r="EB10" s="50">
         <f t="shared" si="1"/>
-        <v>3866</v>
+        <v>3835</v>
       </c>
       <c r="EC10" s="50">
         <f t="shared" si="1"/>
-        <v>3897</v>
+        <v>3866</v>
       </c>
       <c r="ED10" s="50">
         <f t="shared" si="1"/>
-        <v>3927</v>
+        <v>3897</v>
       </c>
       <c r="EE10" s="50">
         <f t="shared" ref="EE10:GH10" si="2">EDATE(ED10,1)</f>
-        <v>3958</v>
+        <v>3927</v>
       </c>
       <c r="EF10" s="50">
         <f t="shared" si="2"/>
-        <v>3988</v>
+        <v>3958</v>
       </c>
       <c r="EG10" s="50">
         <f t="shared" si="2"/>
-        <v>4019</v>
+        <v>3988</v>
       </c>
       <c r="EH10" s="50">
         <f t="shared" si="2"/>
-        <v>4050</v>
+        <v>4019</v>
       </c>
       <c r="EI10" s="50">
         <f t="shared" si="2"/>
-        <v>4078</v>
+        <v>4050</v>
       </c>
       <c r="EJ10" s="50">
         <f t="shared" si="2"/>
-        <v>4109</v>
+        <v>4078</v>
       </c>
       <c r="EK10" s="50">
         <f t="shared" si="2"/>
-        <v>4139</v>
+        <v>4109</v>
       </c>
       <c r="EL10" s="50">
         <f t="shared" si="2"/>
-        <v>4170</v>
+        <v>4139</v>
       </c>
       <c r="EM10" s="50">
         <f t="shared" si="2"/>
-        <v>4200</v>
+        <v>4170</v>
       </c>
       <c r="EN10" s="50">
         <f t="shared" si="2"/>
-        <v>4231</v>
+        <v>4200</v>
       </c>
       <c r="EO10" s="50">
         <f t="shared" si="2"/>
-        <v>4262</v>
+        <v>4231</v>
       </c>
       <c r="EP10" s="50">
         <f t="shared" si="2"/>
-        <v>4292</v>
+        <v>4262</v>
       </c>
       <c r="EQ10" s="50">
         <f t="shared" si="2"/>
-        <v>4323</v>
+        <v>4292</v>
       </c>
       <c r="ER10" s="50">
         <f t="shared" si="2"/>
-        <v>4353</v>
+        <v>4323</v>
       </c>
       <c r="ES10" s="50">
         <f t="shared" si="2"/>
-        <v>4384</v>
+        <v>4353</v>
       </c>
       <c r="ET10" s="50">
         <f t="shared" si="2"/>
-        <v>4415</v>
+        <v>4384</v>
       </c>
       <c r="EU10" s="50">
         <f t="shared" si="2"/>
-        <v>4444</v>
+        <v>4415</v>
       </c>
       <c r="EV10" s="50">
         <f t="shared" si="2"/>
-        <v>4475</v>
+        <v>4444</v>
       </c>
       <c r="EW10" s="50">
         <f t="shared" si="2"/>
-        <v>4505</v>
+        <v>4475</v>
       </c>
       <c r="EX10" s="50">
         <f t="shared" si="2"/>
-        <v>4536</v>
+        <v>4505</v>
       </c>
       <c r="EY10" s="50">
         <f t="shared" si="2"/>
-        <v>4566</v>
+        <v>4536</v>
       </c>
       <c r="EZ10" s="50">
         <f t="shared" si="2"/>
-        <v>4597</v>
+        <v>4566</v>
       </c>
       <c r="FA10" s="50">
         <f t="shared" si="2"/>
-        <v>4628</v>
+        <v>4597</v>
       </c>
       <c r="FB10" s="50">
         <f t="shared" si="2"/>
-        <v>4658</v>
+        <v>4628</v>
       </c>
       <c r="FC10" s="50">
         <f t="shared" si="2"/>
-        <v>4689</v>
+        <v>4658</v>
       </c>
       <c r="FD10" s="50">
         <f t="shared" si="2"/>
-        <v>4719</v>
+        <v>4689</v>
       </c>
       <c r="FE10" s="50">
         <f t="shared" si="2"/>
-        <v>4750</v>
+        <v>4719</v>
       </c>
       <c r="FF10" s="50">
         <f t="shared" si="2"/>
-        <v>4781</v>
+        <v>4750</v>
       </c>
       <c r="FG10" s="50">
         <f t="shared" si="2"/>
-        <v>4809</v>
+        <v>4781</v>
       </c>
       <c r="FH10" s="50">
         <f t="shared" si="2"/>
-        <v>4840</v>
+        <v>4809</v>
       </c>
       <c r="FI10" s="50">
         <f t="shared" si="2"/>
-        <v>4870</v>
+        <v>4840</v>
       </c>
       <c r="FJ10" s="50">
         <f t="shared" si="2"/>
-        <v>4901</v>
+        <v>4870</v>
       </c>
       <c r="FK10" s="50">
         <f t="shared" si="2"/>
-        <v>4931</v>
+        <v>4901</v>
       </c>
       <c r="FL10" s="50">
         <f t="shared" si="2"/>
-        <v>4962</v>
+        <v>4931</v>
       </c>
       <c r="FM10" s="50">
         <f t="shared" si="2"/>
-        <v>4993</v>
+        <v>4962</v>
       </c>
       <c r="FN10" s="50">
         <f t="shared" si="2"/>
-        <v>5023</v>
+        <v>4993</v>
       </c>
       <c r="FO10" s="50">
         <f t="shared" si="2"/>
-        <v>5054</v>
+        <v>5023</v>
       </c>
       <c r="FP10" s="50">
         <f t="shared" si="2"/>
-        <v>5084</v>
+        <v>5054</v>
       </c>
       <c r="FQ10" s="50">
         <f t="shared" si="2"/>
-        <v>5115</v>
+        <v>5084</v>
       </c>
       <c r="FR10" s="50">
         <f t="shared" si="2"/>
-        <v>5146</v>
+        <v>5115</v>
       </c>
       <c r="FS10" s="50">
         <f t="shared" si="2"/>
-        <v>5174</v>
+        <v>5146</v>
       </c>
       <c r="FT10" s="50">
         <f t="shared" si="2"/>
-        <v>5205</v>
+        <v>5174</v>
       </c>
       <c r="FU10" s="50">
         <f t="shared" si="2"/>
-        <v>5235</v>
+        <v>5205</v>
       </c>
       <c r="FV10" s="50">
         <f t="shared" si="2"/>
-        <v>5266</v>
+        <v>5235</v>
       </c>
       <c r="FW10" s="50">
         <f t="shared" si="2"/>
-        <v>5296</v>
+        <v>5266</v>
       </c>
       <c r="FX10" s="50">
         <f t="shared" si="2"/>
-        <v>5327</v>
+        <v>5296</v>
       </c>
       <c r="FY10" s="50">
         <f t="shared" si="2"/>
-        <v>5358</v>
+        <v>5327</v>
       </c>
       <c r="FZ10" s="50">
         <f t="shared" si="2"/>
-        <v>5388</v>
+        <v>5358</v>
       </c>
       <c r="GA10" s="50">
         <f t="shared" si="2"/>
-        <v>5419</v>
+        <v>5388</v>
       </c>
       <c r="GB10" s="50">
         <f t="shared" si="2"/>
-        <v>5449</v>
+        <v>5419</v>
       </c>
       <c r="GC10" s="50">
         <f t="shared" si="2"/>
-        <v>5480</v>
+        <v>5449</v>
       </c>
       <c r="GD10" s="50">
         <f t="shared" si="2"/>
-        <v>5511</v>
+        <v>5480</v>
       </c>
       <c r="GE10" s="50">
         <f t="shared" si="2"/>
-        <v>5539</v>
+        <v>5511</v>
       </c>
       <c r="GF10" s="50">
         <f t="shared" si="2"/>
-        <v>5570</v>
+        <v>5539</v>
       </c>
       <c r="GG10" s="50">
         <f t="shared" si="2"/>
-        <v>5600</v>
+        <v>5570</v>
       </c>
       <c r="GH10" s="50">
         <f t="shared" si="2"/>
-        <v>5631</v>
+        <v>5600</v>
       </c>
       <c r="GI10" s="49"/>
     </row>
     <row r="11" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="87"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -2941,10 +2938,10 @@
       <c r="GH11" s="42"/>
     </row>
     <row r="12" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3132,10 +3129,10 @@
       <c r="GH12" s="41"/>
     </row>
     <row r="13" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
@@ -3323,10 +3320,10 @@
       <c r="GH13" s="41"/>
     </row>
     <row r="14" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -3514,10 +3511,10 @@
       <c r="GH14" s="41"/>
     </row>
     <row r="15" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -3705,10 +3702,10 @@
       <c r="GH15" s="41"/>
     </row>
     <row r="16" spans="1:191" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="41"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
@@ -3896,10 +3893,10 @@
       <c r="GH16" s="41"/>
     </row>
     <row r="17" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
@@ -4087,10 +4084,10 @@
       <c r="GH17" s="41"/>
     </row>
     <row r="18" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
@@ -4278,10 +4275,10 @@
       <c r="GH18" s="41"/>
     </row>
     <row r="19" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
@@ -4469,10 +4466,10 @@
       <c r="GH19" s="41"/>
     </row>
     <row r="20" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -4660,10 +4657,10 @@
       <c r="GH20" s="41"/>
     </row>
     <row r="21" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -4851,10 +4848,10 @@
       <c r="GH21" s="41"/>
     </row>
     <row r="22" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -5042,10 +5039,10 @@
       <c r="GH22" s="41"/>
     </row>
     <row r="23" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -5233,10 +5230,10 @@
       <c r="GH23" s="41"/>
     </row>
     <row r="24" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
@@ -5424,10 +5421,10 @@
       <c r="GH24" s="41"/>
     </row>
     <row r="25" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -5615,10 +5612,10 @@
       <c r="GH25" s="41"/>
     </row>
     <row r="26" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
@@ -5806,10 +5803,10 @@
       <c r="GH26" s="41"/>
     </row>
     <row r="27" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
@@ -5997,10 +5994,10 @@
       <c r="GH27" s="41"/>
     </row>
     <row r="28" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -6188,10 +6185,10 @@
       <c r="GH28" s="41"/>
     </row>
     <row r="29" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="38"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -6379,10 +6376,10 @@
       <c r="GH29" s="41"/>
     </row>
     <row r="30" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
@@ -6570,10 +6567,10 @@
       <c r="GH30" s="41"/>
     </row>
     <row r="31" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -6761,10 +6758,10 @@
       <c r="GH31" s="41"/>
     </row>
     <row r="32" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
@@ -6952,10 +6949,10 @@
       <c r="GH32" s="41"/>
     </row>
     <row r="33" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
@@ -7143,10 +7140,10 @@
       <c r="GH33" s="41"/>
     </row>
     <row r="34" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
@@ -7334,10 +7331,10 @@
       <c r="GH34" s="41"/>
     </row>
     <row r="35" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="66"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
@@ -7525,10 +7522,10 @@
       <c r="GH35" s="41"/>
     </row>
     <row r="36" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
@@ -7716,10 +7713,10 @@
       <c r="GH36" s="41"/>
     </row>
     <row r="37" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
@@ -7907,10 +7904,10 @@
       <c r="GH37" s="41"/>
     </row>
     <row r="38" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
@@ -8098,10 +8095,10 @@
       <c r="GH38" s="41"/>
     </row>
     <row r="39" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -8289,10 +8286,10 @@
       <c r="GH39" s="41"/>
     </row>
     <row r="40" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
@@ -8480,10 +8477,10 @@
       <c r="GH40" s="41"/>
     </row>
     <row r="41" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
@@ -8671,10 +8668,10 @@
       <c r="GH41" s="41"/>
     </row>
     <row r="42" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="66"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -8862,10 +8859,10 @@
       <c r="GH42" s="41"/>
     </row>
     <row r="43" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="38"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
@@ -9053,10 +9050,10 @@
       <c r="GH43" s="41"/>
     </row>
     <row r="44" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="38"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
@@ -9244,10 +9241,10 @@
       <c r="GH44" s="41"/>
     </row>
     <row r="45" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
@@ -9435,10 +9432,10 @@
       <c r="GH45" s="41"/>
     </row>
     <row r="46" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -9626,10 +9623,10 @@
       <c r="GH46" s="41"/>
     </row>
     <row r="47" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -9817,10 +9814,10 @@
       <c r="GH47" s="41"/>
     </row>
     <row r="48" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="38"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -10008,10 +10005,10 @@
       <c r="GH48" s="41"/>
     </row>
     <row r="49" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -10199,10 +10196,10 @@
       <c r="GH49" s="41"/>
     </row>
     <row r="50" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="38"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -10390,10 +10387,10 @@
       <c r="GH50" s="41"/>
     </row>
     <row r="51" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="38"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="66"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
@@ -10581,10 +10578,10 @@
       <c r="GH51" s="41"/>
     </row>
     <row r="52" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="66"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
@@ -10772,10 +10769,10 @@
       <c r="GH52" s="41"/>
     </row>
     <row r="53" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="81"/>
       <c r="D53" s="38"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
@@ -10963,10 +10960,10 @@
       <c r="GH53" s="41"/>
     </row>
     <row r="54" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="81"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
@@ -11154,10 +11151,10 @@
       <c r="GH54" s="41"/>
     </row>
     <row r="55" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -11345,10 +11342,10 @@
       <c r="GH55" s="41"/>
     </row>
     <row r="56" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
       <c r="D56" s="38"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -11536,10 +11533,10 @@
       <c r="GH56" s="41"/>
     </row>
     <row r="57" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="38"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
@@ -11727,10 +11724,10 @@
       <c r="GH57" s="41"/>
     </row>
     <row r="58" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
@@ -11918,10 +11915,10 @@
       <c r="GH58" s="41"/>
     </row>
     <row r="59" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="38"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
@@ -12109,10 +12106,10 @@
       <c r="GH59" s="41"/>
     </row>
     <row r="60" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
@@ -12300,10 +12297,10 @@
       <c r="GH60" s="41"/>
     </row>
     <row r="61" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
       <c r="D61" s="38"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -12491,10 +12488,10 @@
       <c r="GH61" s="41"/>
     </row>
     <row r="62" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="79"/>
-      <c r="C62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -12682,10 +12679,10 @@
       <c r="GH62" s="41"/>
     </row>
     <row r="63" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="38"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -12873,10 +12870,10 @@
       <c r="GH63" s="41"/>
     </row>
     <row r="64" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="79"/>
-      <c r="C64" s="80"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
       <c r="D64" s="38"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -13064,10 +13061,10 @@
       <c r="GH64" s="41"/>
     </row>
     <row r="65" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
       <c r="D65" s="38"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -13255,10 +13252,10 @@
       <c r="GH65" s="41"/>
     </row>
     <row r="66" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
       <c r="D66" s="38"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
@@ -13446,10 +13443,10 @@
       <c r="GH66" s="41"/>
     </row>
     <row r="67" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -13637,10 +13634,10 @@
       <c r="GH67" s="41"/>
     </row>
     <row r="68" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79"/>
-      <c r="C68" s="80"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
       <c r="D68" s="38"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
@@ -13828,10 +13825,10 @@
       <c r="GH68" s="41"/>
     </row>
     <row r="69" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="79"/>
-      <c r="C69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -14019,10 +14016,10 @@
       <c r="GH69" s="41"/>
     </row>
     <row r="70" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="79"/>
-      <c r="C70" s="80"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
@@ -14210,10 +14207,10 @@
       <c r="GH70" s="41"/>
     </row>
     <row r="71" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
@@ -14401,10 +14398,10 @@
       <c r="GH71" s="41"/>
     </row>
     <row r="72" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="38"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
@@ -14592,10 +14589,10 @@
       <c r="GH72" s="41"/>
     </row>
     <row r="73" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
@@ -14783,10 +14780,10 @@
       <c r="GH73" s="41"/>
     </row>
     <row r="74" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="38"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
@@ -14974,10 +14971,10 @@
       <c r="GH74" s="41"/>
     </row>
     <row r="75" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="79"/>
-      <c r="C75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
@@ -15165,10 +15162,10 @@
       <c r="GH75" s="41"/>
     </row>
     <row r="76" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="38"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
@@ -15356,10 +15353,10 @@
       <c r="GH76" s="41"/>
     </row>
     <row r="77" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="79"/>
-      <c r="C77" s="80"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="38"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
@@ -15547,10 +15544,10 @@
       <c r="GH77" s="41"/>
     </row>
     <row r="78" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="79"/>
-      <c r="C78" s="80"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
@@ -15738,10 +15735,10 @@
       <c r="GH78" s="41"/>
     </row>
     <row r="79" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="79"/>
-      <c r="C79" s="80"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="38"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
@@ -15929,10 +15926,10 @@
       <c r="GH79" s="41"/>
     </row>
     <row r="80" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="79"/>
-      <c r="C80" s="80"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
       <c r="D80" s="38"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
@@ -16120,10 +16117,10 @@
       <c r="GH80" s="41"/>
     </row>
     <row r="81" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="79"/>
-      <c r="C81" s="80"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="38"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
@@ -16311,10 +16308,10 @@
       <c r="GH81" s="41"/>
     </row>
     <row r="82" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="79"/>
-      <c r="C82" s="80"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="38"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
@@ -16502,10 +16499,10 @@
       <c r="GH82" s="41"/>
     </row>
     <row r="83" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="79"/>
-      <c r="C83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="38"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
@@ -16693,10 +16690,10 @@
       <c r="GH83" s="41"/>
     </row>
     <row r="84" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="79"/>
-      <c r="C84" s="80"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="81"/>
       <c r="D84" s="38"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
@@ -16884,10 +16881,10 @@
       <c r="GH84" s="41"/>
     </row>
     <row r="85" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="79"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="81"/>
       <c r="D85" s="38"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
@@ -17075,10 +17072,10 @@
       <c r="GH85" s="41"/>
     </row>
     <row r="86" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="79"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="81"/>
       <c r="D86" s="38"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -17266,10 +17263,10 @@
       <c r="GH86" s="41"/>
     </row>
     <row r="87" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="79"/>
-      <c r="C87" s="80"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="81"/>
       <c r="D87" s="38"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
@@ -17457,10 +17454,10 @@
       <c r="GH87" s="41"/>
     </row>
     <row r="88" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="79"/>
-      <c r="C88" s="80"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="81"/>
       <c r="D88" s="38"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="41"/>
@@ -17648,10 +17645,10 @@
       <c r="GH88" s="41"/>
     </row>
     <row r="89" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="79"/>
-      <c r="C89" s="80"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="81"/>
       <c r="D89" s="38"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
@@ -17839,10 +17836,10 @@
       <c r="GH89" s="41"/>
     </row>
     <row r="90" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="79"/>
-      <c r="C90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="81"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -18030,10 +18027,10 @@
       <c r="GH90" s="41"/>
     </row>
     <row r="91" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="79"/>
-      <c r="C91" s="80"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="81"/>
       <c r="D91" s="38"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
@@ -18221,10 +18218,10 @@
       <c r="GH91" s="41"/>
     </row>
     <row r="92" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="79"/>
-      <c r="C92" s="80"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="81"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
@@ -18412,10 +18409,10 @@
       <c r="GH92" s="41"/>
     </row>
     <row r="93" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="79"/>
-      <c r="C93" s="80"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="38"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
@@ -18603,10 +18600,10 @@
       <c r="GH93" s="41"/>
     </row>
     <row r="94" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="79"/>
-      <c r="C94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="81"/>
       <c r="D94" s="38"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
@@ -18794,10 +18791,10 @@
       <c r="GH94" s="41"/>
     </row>
     <row r="95" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="79"/>
-      <c r="C95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="81"/>
       <c r="D95" s="38"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
@@ -18985,10 +18982,10 @@
       <c r="GH95" s="41"/>
     </row>
     <row r="96" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="79"/>
-      <c r="C96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="81"/>
       <c r="D96" s="38"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
@@ -19176,10 +19173,10 @@
       <c r="GH96" s="41"/>
     </row>
     <row r="97" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="79"/>
-      <c r="C97" s="80"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="81"/>
       <c r="D97" s="38"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
@@ -19367,10 +19364,10 @@
       <c r="GH97" s="41"/>
     </row>
     <row r="98" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="79"/>
-      <c r="C98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="81"/>
       <c r="D98" s="38"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="66"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="41"/>
@@ -19558,10 +19555,10 @@
       <c r="GH98" s="41"/>
     </row>
     <row r="99" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="79"/>
-      <c r="C99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="81"/>
       <c r="D99" s="38"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="66"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="41"/>
@@ -19749,10 +19746,10 @@
       <c r="GH99" s="41"/>
     </row>
     <row r="100" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="79"/>
-      <c r="C100" s="80"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="81"/>
       <c r="D100" s="38"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="66"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="41"/>
@@ -19940,10 +19937,10 @@
       <c r="GH100" s="41"/>
     </row>
     <row r="101" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="79"/>
-      <c r="C101" s="80"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="81"/>
       <c r="D101" s="38"/>
-      <c r="E101" s="41"/>
+      <c r="E101" s="66"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="41"/>
@@ -20131,10 +20128,10 @@
       <c r="GH101" s="41"/>
     </row>
     <row r="102" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="79"/>
-      <c r="C102" s="80"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="81"/>
       <c r="D102" s="38"/>
-      <c r="E102" s="41"/>
+      <c r="E102" s="66"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="41"/>
@@ -20322,10 +20319,10 @@
       <c r="GH102" s="41"/>
     </row>
     <row r="103" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="79"/>
-      <c r="C103" s="80"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="81"/>
       <c r="D103" s="38"/>
-      <c r="E103" s="41"/>
+      <c r="E103" s="66"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
@@ -20513,10 +20510,10 @@
       <c r="GH103" s="41"/>
     </row>
     <row r="104" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="79"/>
-      <c r="C104" s="80"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="81"/>
       <c r="D104" s="38"/>
-      <c r="E104" s="41"/>
+      <c r="E104" s="66"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
@@ -20704,10 +20701,10 @@
       <c r="GH104" s="41"/>
     </row>
     <row r="105" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="79"/>
-      <c r="C105" s="80"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="81"/>
       <c r="D105" s="38"/>
-      <c r="E105" s="41"/>
+      <c r="E105" s="66"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="41"/>
@@ -20895,10 +20892,10 @@
       <c r="GH105" s="41"/>
     </row>
     <row r="106" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="79"/>
-      <c r="C106" s="80"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="81"/>
       <c r="D106" s="38"/>
-      <c r="E106" s="41"/>
+      <c r="E106" s="66"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="41"/>
@@ -21086,10 +21083,10 @@
       <c r="GH106" s="41"/>
     </row>
     <row r="107" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="79"/>
-      <c r="C107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="81"/>
       <c r="D107" s="38"/>
-      <c r="E107" s="41"/>
+      <c r="E107" s="66"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
@@ -21277,10 +21274,10 @@
       <c r="GH107" s="41"/>
     </row>
     <row r="108" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="79"/>
-      <c r="C108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="81"/>
       <c r="D108" s="38"/>
-      <c r="E108" s="41"/>
+      <c r="E108" s="66"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
       <c r="H108" s="41"/>
@@ -21468,10 +21465,10 @@
       <c r="GH108" s="41"/>
     </row>
     <row r="109" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="79"/>
-      <c r="C109" s="80"/>
+      <c r="B109" s="80"/>
+      <c r="C109" s="81"/>
       <c r="D109" s="38"/>
-      <c r="E109" s="41"/>
+      <c r="E109" s="66"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
       <c r="H109" s="41"/>
@@ -21659,10 +21656,10 @@
       <c r="GH109" s="41"/>
     </row>
     <row r="110" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="79"/>
-      <c r="C110" s="80"/>
+      <c r="B110" s="80"/>
+      <c r="C110" s="81"/>
       <c r="D110" s="38"/>
-      <c r="E110" s="41"/>
+      <c r="E110" s="66"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
       <c r="H110" s="41"/>
@@ -21850,10 +21847,10 @@
       <c r="GH110" s="41"/>
     </row>
     <row r="111" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="79"/>
-      <c r="C111" s="80"/>
+      <c r="B111" s="80"/>
+      <c r="C111" s="81"/>
       <c r="D111" s="38"/>
-      <c r="E111" s="41"/>
+      <c r="E111" s="66"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
@@ -22041,10 +22038,10 @@
       <c r="GH111" s="41"/>
     </row>
     <row r="112" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="79"/>
-      <c r="C112" s="80"/>
+      <c r="B112" s="80"/>
+      <c r="C112" s="81"/>
       <c r="D112" s="38"/>
-      <c r="E112" s="41"/>
+      <c r="E112" s="66"/>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
       <c r="H112" s="41"/>
@@ -22232,10 +22229,10 @@
       <c r="GH112" s="41"/>
     </row>
     <row r="113" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="79"/>
-      <c r="C113" s="80"/>
+      <c r="B113" s="80"/>
+      <c r="C113" s="81"/>
       <c r="D113" s="38"/>
-      <c r="E113" s="41"/>
+      <c r="E113" s="66"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
       <c r="H113" s="41"/>
@@ -22423,10 +22420,10 @@
       <c r="GH113" s="41"/>
     </row>
     <row r="114" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="79"/>
-      <c r="C114" s="80"/>
+      <c r="B114" s="80"/>
+      <c r="C114" s="81"/>
       <c r="D114" s="38"/>
-      <c r="E114" s="41"/>
+      <c r="E114" s="66"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="41"/>
@@ -22614,10 +22611,10 @@
       <c r="GH114" s="41"/>
     </row>
     <row r="115" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="79"/>
-      <c r="C115" s="80"/>
+      <c r="B115" s="80"/>
+      <c r="C115" s="81"/>
       <c r="D115" s="38"/>
-      <c r="E115" s="41"/>
+      <c r="E115" s="66"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="41"/>
@@ -22805,10 +22802,10 @@
       <c r="GH115" s="41"/>
     </row>
     <row r="116" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="79"/>
-      <c r="C116" s="80"/>
+      <c r="B116" s="80"/>
+      <c r="C116" s="81"/>
       <c r="D116" s="38"/>
-      <c r="E116" s="41"/>
+      <c r="E116" s="66"/>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
       <c r="H116" s="41"/>
@@ -22996,10 +22993,10 @@
       <c r="GH116" s="41"/>
     </row>
     <row r="117" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="79"/>
-      <c r="C117" s="80"/>
+      <c r="B117" s="80"/>
+      <c r="C117" s="81"/>
       <c r="D117" s="38"/>
-      <c r="E117" s="41"/>
+      <c r="E117" s="66"/>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
       <c r="H117" s="41"/>
@@ -23187,10 +23184,10 @@
       <c r="GH117" s="41"/>
     </row>
     <row r="118" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="79"/>
-      <c r="C118" s="80"/>
+      <c r="B118" s="80"/>
+      <c r="C118" s="81"/>
       <c r="D118" s="38"/>
-      <c r="E118" s="41"/>
+      <c r="E118" s="66"/>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="41"/>
@@ -23378,10 +23375,10 @@
       <c r="GH118" s="41"/>
     </row>
     <row r="119" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="79"/>
-      <c r="C119" s="80"/>
+      <c r="B119" s="80"/>
+      <c r="C119" s="81"/>
       <c r="D119" s="38"/>
-      <c r="E119" s="41"/>
+      <c r="E119" s="66"/>
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
       <c r="H119" s="41"/>
@@ -23569,10 +23566,10 @@
       <c r="GH119" s="41"/>
     </row>
     <row r="120" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="79"/>
-      <c r="C120" s="80"/>
+      <c r="B120" s="80"/>
+      <c r="C120" s="81"/>
       <c r="D120" s="38"/>
-      <c r="E120" s="41"/>
+      <c r="E120" s="66"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="41"/>
@@ -23760,10 +23757,10 @@
       <c r="GH120" s="41"/>
     </row>
     <row r="121" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="79"/>
-      <c r="C121" s="80"/>
+      <c r="B121" s="80"/>
+      <c r="C121" s="81"/>
       <c r="D121" s="38"/>
-      <c r="E121" s="41"/>
+      <c r="E121" s="66"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="41"/>
@@ -23951,10 +23948,10 @@
       <c r="GH121" s="41"/>
     </row>
     <row r="122" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="79"/>
-      <c r="C122" s="80"/>
+      <c r="B122" s="80"/>
+      <c r="C122" s="81"/>
       <c r="D122" s="38"/>
-      <c r="E122" s="41"/>
+      <c r="E122" s="66"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="41"/>
@@ -24142,10 +24139,10 @@
       <c r="GH122" s="41"/>
     </row>
     <row r="123" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="79"/>
-      <c r="C123" s="80"/>
+      <c r="B123" s="80"/>
+      <c r="C123" s="81"/>
       <c r="D123" s="38"/>
-      <c r="E123" s="41"/>
+      <c r="E123" s="66"/>
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="41"/>
@@ -24333,10 +24330,10 @@
       <c r="GH123" s="41"/>
     </row>
     <row r="124" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="79"/>
-      <c r="C124" s="80"/>
+      <c r="B124" s="80"/>
+      <c r="C124" s="81"/>
       <c r="D124" s="38"/>
-      <c r="E124" s="41"/>
+      <c r="E124" s="66"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
@@ -24524,10 +24521,10 @@
       <c r="GH124" s="41"/>
     </row>
     <row r="125" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="79"/>
-      <c r="C125" s="80"/>
+      <c r="B125" s="80"/>
+      <c r="C125" s="81"/>
       <c r="D125" s="38"/>
-      <c r="E125" s="41"/>
+      <c r="E125" s="66"/>
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="41"/>
@@ -24715,10 +24712,10 @@
       <c r="GH125" s="41"/>
     </row>
     <row r="126" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="79"/>
-      <c r="C126" s="80"/>
+      <c r="B126" s="80"/>
+      <c r="C126" s="81"/>
       <c r="D126" s="38"/>
-      <c r="E126" s="41"/>
+      <c r="E126" s="66"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
       <c r="H126" s="41"/>
@@ -24906,10 +24903,10 @@
       <c r="GH126" s="41"/>
     </row>
     <row r="127" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="79"/>
-      <c r="C127" s="80"/>
+      <c r="B127" s="80"/>
+      <c r="C127" s="81"/>
       <c r="D127" s="38"/>
-      <c r="E127" s="41"/>
+      <c r="E127" s="66"/>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
       <c r="H127" s="41"/>
@@ -25097,10 +25094,10 @@
       <c r="GH127" s="41"/>
     </row>
     <row r="128" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="79"/>
-      <c r="C128" s="80"/>
+      <c r="B128" s="80"/>
+      <c r="C128" s="81"/>
       <c r="D128" s="38"/>
-      <c r="E128" s="41"/>
+      <c r="E128" s="66"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
       <c r="H128" s="41"/>
@@ -25288,10 +25285,10 @@
       <c r="GH128" s="41"/>
     </row>
     <row r="129" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="79"/>
-      <c r="C129" s="80"/>
+      <c r="B129" s="80"/>
+      <c r="C129" s="81"/>
       <c r="D129" s="38"/>
-      <c r="E129" s="41"/>
+      <c r="E129" s="66"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
       <c r="H129" s="41"/>
@@ -25479,10 +25476,10 @@
       <c r="GH129" s="41"/>
     </row>
     <row r="130" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="79"/>
-      <c r="C130" s="80"/>
+      <c r="B130" s="80"/>
+      <c r="C130" s="81"/>
       <c r="D130" s="38"/>
-      <c r="E130" s="41"/>
+      <c r="E130" s="66"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
       <c r="H130" s="41"/>
@@ -25670,10 +25667,10 @@
       <c r="GH130" s="41"/>
     </row>
     <row r="131" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="79"/>
-      <c r="C131" s="80"/>
+      <c r="B131" s="80"/>
+      <c r="C131" s="81"/>
       <c r="D131" s="38"/>
-      <c r="E131" s="41"/>
+      <c r="E131" s="66"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
       <c r="H131" s="41"/>
@@ -25861,10 +25858,10 @@
       <c r="GH131" s="41"/>
     </row>
     <row r="132" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="79"/>
-      <c r="C132" s="80"/>
+      <c r="B132" s="80"/>
+      <c r="C132" s="81"/>
       <c r="D132" s="38"/>
-      <c r="E132" s="41"/>
+      <c r="E132" s="66"/>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="41"/>
@@ -26052,10 +26049,10 @@
       <c r="GH132" s="41"/>
     </row>
     <row r="133" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="79"/>
-      <c r="C133" s="80"/>
+      <c r="B133" s="80"/>
+      <c r="C133" s="81"/>
       <c r="D133" s="38"/>
-      <c r="E133" s="41"/>
+      <c r="E133" s="66"/>
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
       <c r="H133" s="41"/>
@@ -26243,10 +26240,10 @@
       <c r="GH133" s="41"/>
     </row>
     <row r="134" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="79"/>
-      <c r="C134" s="80"/>
+      <c r="B134" s="80"/>
+      <c r="C134" s="81"/>
       <c r="D134" s="38"/>
-      <c r="E134" s="41"/>
+      <c r="E134" s="66"/>
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
       <c r="H134" s="41"/>
@@ -26434,10 +26431,10 @@
       <c r="GH134" s="41"/>
     </row>
     <row r="135" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="79"/>
-      <c r="C135" s="80"/>
+      <c r="B135" s="80"/>
+      <c r="C135" s="81"/>
       <c r="D135" s="38"/>
-      <c r="E135" s="41"/>
+      <c r="E135" s="66"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="41"/>
@@ -26625,10 +26622,10 @@
       <c r="GH135" s="41"/>
     </row>
     <row r="136" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="79"/>
-      <c r="C136" s="80"/>
+      <c r="B136" s="80"/>
+      <c r="C136" s="81"/>
       <c r="D136" s="38"/>
-      <c r="E136" s="41"/>
+      <c r="E136" s="66"/>
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
@@ -26816,10 +26813,10 @@
       <c r="GH136" s="41"/>
     </row>
     <row r="137" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="79"/>
-      <c r="C137" s="80"/>
+      <c r="B137" s="80"/>
+      <c r="C137" s="81"/>
       <c r="D137" s="38"/>
-      <c r="E137" s="41"/>
+      <c r="E137" s="66"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="41"/>
@@ -27007,10 +27004,10 @@
       <c r="GH137" s="41"/>
     </row>
     <row r="138" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="79"/>
-      <c r="C138" s="80"/>
+      <c r="B138" s="80"/>
+      <c r="C138" s="81"/>
       <c r="D138" s="38"/>
-      <c r="E138" s="41"/>
+      <c r="E138" s="66"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
       <c r="H138" s="41"/>
@@ -27198,10 +27195,10 @@
       <c r="GH138" s="41"/>
     </row>
     <row r="139" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="79"/>
-      <c r="C139" s="80"/>
+      <c r="B139" s="80"/>
+      <c r="C139" s="81"/>
       <c r="D139" s="38"/>
-      <c r="E139" s="41"/>
+      <c r="E139" s="66"/>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
       <c r="H139" s="41"/>
@@ -27389,10 +27386,10 @@
       <c r="GH139" s="41"/>
     </row>
     <row r="140" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="79"/>
-      <c r="C140" s="80"/>
+      <c r="B140" s="80"/>
+      <c r="C140" s="81"/>
       <c r="D140" s="38"/>
-      <c r="E140" s="41"/>
+      <c r="E140" s="66"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="41"/>
@@ -27580,10 +27577,10 @@
       <c r="GH140" s="41"/>
     </row>
     <row r="141" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="79"/>
-      <c r="C141" s="80"/>
+      <c r="B141" s="80"/>
+      <c r="C141" s="81"/>
       <c r="D141" s="38"/>
-      <c r="E141" s="41"/>
+      <c r="E141" s="66"/>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="41"/>
@@ -27771,10 +27768,10 @@
       <c r="GH141" s="41"/>
     </row>
     <row r="142" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="79"/>
-      <c r="C142" s="80"/>
+      <c r="B142" s="80"/>
+      <c r="C142" s="81"/>
       <c r="D142" s="38"/>
-      <c r="E142" s="41"/>
+      <c r="E142" s="66"/>
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
       <c r="H142" s="41"/>
@@ -27962,10 +27959,10 @@
       <c r="GH142" s="41"/>
     </row>
     <row r="143" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="79"/>
-      <c r="C143" s="80"/>
+      <c r="B143" s="80"/>
+      <c r="C143" s="81"/>
       <c r="D143" s="38"/>
-      <c r="E143" s="41"/>
+      <c r="E143" s="66"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
       <c r="H143" s="41"/>
@@ -28153,10 +28150,10 @@
       <c r="GH143" s="41"/>
     </row>
     <row r="144" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="79"/>
-      <c r="C144" s="80"/>
+      <c r="B144" s="80"/>
+      <c r="C144" s="81"/>
       <c r="D144" s="38"/>
-      <c r="E144" s="41"/>
+      <c r="E144" s="66"/>
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
       <c r="H144" s="41"/>
@@ -28344,10 +28341,10 @@
       <c r="GH144" s="41"/>
     </row>
     <row r="145" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="79"/>
-      <c r="C145" s="80"/>
+      <c r="B145" s="80"/>
+      <c r="C145" s="81"/>
       <c r="D145" s="38"/>
-      <c r="E145" s="41"/>
+      <c r="E145" s="66"/>
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
       <c r="H145" s="41"/>
@@ -28535,10 +28532,10 @@
       <c r="GH145" s="41"/>
     </row>
     <row r="146" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="79"/>
-      <c r="C146" s="80"/>
+      <c r="B146" s="80"/>
+      <c r="C146" s="81"/>
       <c r="D146" s="38"/>
-      <c r="E146" s="41"/>
+      <c r="E146" s="66"/>
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
       <c r="H146" s="41"/>
@@ -28726,10 +28723,10 @@
       <c r="GH146" s="41"/>
     </row>
     <row r="147" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="79"/>
-      <c r="C147" s="80"/>
+      <c r="B147" s="80"/>
+      <c r="C147" s="81"/>
       <c r="D147" s="38"/>
-      <c r="E147" s="41"/>
+      <c r="E147" s="66"/>
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
       <c r="H147" s="41"/>
@@ -28917,10 +28914,10 @@
       <c r="GH147" s="41"/>
     </row>
     <row r="148" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="79"/>
-      <c r="C148" s="80"/>
+      <c r="B148" s="80"/>
+      <c r="C148" s="81"/>
       <c r="D148" s="38"/>
-      <c r="E148" s="41"/>
+      <c r="E148" s="66"/>
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
       <c r="H148" s="41"/>
@@ -29108,10 +29105,10 @@
       <c r="GH148" s="41"/>
     </row>
     <row r="149" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="79"/>
-      <c r="C149" s="80"/>
+      <c r="B149" s="80"/>
+      <c r="C149" s="81"/>
       <c r="D149" s="38"/>
-      <c r="E149" s="41"/>
+      <c r="E149" s="66"/>
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
       <c r="H149" s="41"/>
@@ -29299,10 +29296,10 @@
       <c r="GH149" s="41"/>
     </row>
     <row r="150" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="79"/>
-      <c r="C150" s="80"/>
+      <c r="B150" s="80"/>
+      <c r="C150" s="81"/>
       <c r="D150" s="38"/>
-      <c r="E150" s="41"/>
+      <c r="E150" s="66"/>
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
       <c r="H150" s="41"/>
@@ -29490,10 +29487,10 @@
       <c r="GH150" s="41"/>
     </row>
     <row r="151" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="79"/>
-      <c r="C151" s="80"/>
+      <c r="B151" s="80"/>
+      <c r="C151" s="81"/>
       <c r="D151" s="38"/>
-      <c r="E151" s="41"/>
+      <c r="E151" s="66"/>
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
@@ -29681,10 +29678,10 @@
       <c r="GH151" s="41"/>
     </row>
     <row r="152" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="79"/>
-      <c r="C152" s="80"/>
+      <c r="B152" s="80"/>
+      <c r="C152" s="81"/>
       <c r="D152" s="38"/>
-      <c r="E152" s="41"/>
+      <c r="E152" s="66"/>
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
       <c r="H152" s="41"/>
@@ -29872,10 +29869,10 @@
       <c r="GH152" s="41"/>
     </row>
     <row r="153" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="79"/>
-      <c r="C153" s="80"/>
+      <c r="B153" s="80"/>
+      <c r="C153" s="81"/>
       <c r="D153" s="38"/>
-      <c r="E153" s="41"/>
+      <c r="E153" s="66"/>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="41"/>
@@ -30063,10 +30060,10 @@
       <c r="GH153" s="41"/>
     </row>
     <row r="154" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="79"/>
-      <c r="C154" s="80"/>
+      <c r="B154" s="80"/>
+      <c r="C154" s="81"/>
       <c r="D154" s="38"/>
-      <c r="E154" s="41"/>
+      <c r="E154" s="66"/>
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
       <c r="H154" s="41"/>
@@ -30254,10 +30251,10 @@
       <c r="GH154" s="41"/>
     </row>
     <row r="155" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="79"/>
-      <c r="C155" s="80"/>
+      <c r="B155" s="80"/>
+      <c r="C155" s="81"/>
       <c r="D155" s="38"/>
-      <c r="E155" s="41"/>
+      <c r="E155" s="66"/>
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
       <c r="H155" s="41"/>
@@ -30445,10 +30442,10 @@
       <c r="GH155" s="41"/>
     </row>
     <row r="156" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="79"/>
-      <c r="C156" s="80"/>
+      <c r="B156" s="80"/>
+      <c r="C156" s="81"/>
       <c r="D156" s="38"/>
-      <c r="E156" s="41"/>
+      <c r="E156" s="66"/>
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
       <c r="H156" s="41"/>
@@ -30636,10 +30633,10 @@
       <c r="GH156" s="41"/>
     </row>
     <row r="157" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="79"/>
-      <c r="C157" s="80"/>
+      <c r="B157" s="80"/>
+      <c r="C157" s="81"/>
       <c r="D157" s="38"/>
-      <c r="E157" s="41"/>
+      <c r="E157" s="66"/>
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
       <c r="H157" s="41"/>
@@ -30827,10 +30824,10 @@
       <c r="GH157" s="41"/>
     </row>
     <row r="158" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="79"/>
-      <c r="C158" s="80"/>
+      <c r="B158" s="80"/>
+      <c r="C158" s="81"/>
       <c r="D158" s="38"/>
-      <c r="E158" s="41"/>
+      <c r="E158" s="66"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
       <c r="H158" s="41"/>
@@ -31018,10 +31015,10 @@
       <c r="GH158" s="41"/>
     </row>
     <row r="159" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="79"/>
-      <c r="C159" s="80"/>
+      <c r="B159" s="80"/>
+      <c r="C159" s="81"/>
       <c r="D159" s="38"/>
-      <c r="E159" s="41"/>
+      <c r="E159" s="66"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="41"/>
@@ -31209,10 +31206,10 @@
       <c r="GH159" s="41"/>
     </row>
     <row r="160" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="79"/>
-      <c r="C160" s="80"/>
+      <c r="B160" s="80"/>
+      <c r="C160" s="81"/>
       <c r="D160" s="38"/>
-      <c r="E160" s="41"/>
+      <c r="E160" s="66"/>
       <c r="F160" s="41"/>
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
@@ -31400,10 +31397,10 @@
       <c r="GH160" s="41"/>
     </row>
     <row r="161" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="79"/>
-      <c r="C161" s="80"/>
+      <c r="B161" s="80"/>
+      <c r="C161" s="81"/>
       <c r="D161" s="38"/>
-      <c r="E161" s="41"/>
+      <c r="E161" s="66"/>
       <c r="F161" s="41"/>
       <c r="G161" s="41"/>
       <c r="H161" s="41"/>
@@ -31591,10 +31588,10 @@
       <c r="GH161" s="41"/>
     </row>
     <row r="162" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="79"/>
-      <c r="C162" s="80"/>
+      <c r="B162" s="80"/>
+      <c r="C162" s="81"/>
       <c r="D162" s="38"/>
-      <c r="E162" s="41"/>
+      <c r="E162" s="66"/>
       <c r="F162" s="41"/>
       <c r="G162" s="41"/>
       <c r="H162" s="41"/>
@@ -31782,10 +31779,10 @@
       <c r="GH162" s="41"/>
     </row>
     <row r="163" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="79"/>
-      <c r="C163" s="80"/>
+      <c r="B163" s="80"/>
+      <c r="C163" s="81"/>
       <c r="D163" s="38"/>
-      <c r="E163" s="41"/>
+      <c r="E163" s="66"/>
       <c r="F163" s="41"/>
       <c r="G163" s="41"/>
       <c r="H163" s="41"/>
@@ -31973,10 +31970,10 @@
       <c r="GH163" s="41"/>
     </row>
     <row r="164" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="79"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="80"/>
+      <c r="C164" s="81"/>
       <c r="D164" s="38"/>
-      <c r="E164" s="41"/>
+      <c r="E164" s="66"/>
       <c r="F164" s="41"/>
       <c r="G164" s="41"/>
       <c r="H164" s="41"/>
@@ -32164,10 +32161,10 @@
       <c r="GH164" s="41"/>
     </row>
     <row r="165" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="79"/>
-      <c r="C165" s="80"/>
+      <c r="B165" s="80"/>
+      <c r="C165" s="81"/>
       <c r="D165" s="38"/>
-      <c r="E165" s="41"/>
+      <c r="E165" s="66"/>
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
       <c r="H165" s="41"/>
@@ -32355,10 +32352,10 @@
       <c r="GH165" s="41"/>
     </row>
     <row r="166" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="79"/>
-      <c r="C166" s="80"/>
+      <c r="B166" s="80"/>
+      <c r="C166" s="81"/>
       <c r="D166" s="38"/>
-      <c r="E166" s="41"/>
+      <c r="E166" s="66"/>
       <c r="F166" s="41"/>
       <c r="G166" s="41"/>
       <c r="H166" s="41"/>
@@ -32546,10 +32543,10 @@
       <c r="GH166" s="41"/>
     </row>
     <row r="167" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="79"/>
-      <c r="C167" s="80"/>
+      <c r="B167" s="80"/>
+      <c r="C167" s="81"/>
       <c r="D167" s="38"/>
-      <c r="E167" s="41"/>
+      <c r="E167" s="66"/>
       <c r="F167" s="41"/>
       <c r="G167" s="41"/>
       <c r="H167" s="41"/>
@@ -32737,10 +32734,10 @@
       <c r="GH167" s="41"/>
     </row>
     <row r="168" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="79"/>
-      <c r="C168" s="80"/>
+      <c r="B168" s="80"/>
+      <c r="C168" s="81"/>
       <c r="D168" s="38"/>
-      <c r="E168" s="41"/>
+      <c r="E168" s="66"/>
       <c r="F168" s="41"/>
       <c r="G168" s="41"/>
       <c r="H168" s="41"/>
@@ -32928,10 +32925,10 @@
       <c r="GH168" s="41"/>
     </row>
     <row r="169" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="79"/>
-      <c r="C169" s="80"/>
+      <c r="B169" s="80"/>
+      <c r="C169" s="81"/>
       <c r="D169" s="38"/>
-      <c r="E169" s="41"/>
+      <c r="E169" s="66"/>
       <c r="F169" s="41"/>
       <c r="G169" s="41"/>
       <c r="H169" s="41"/>
@@ -33119,10 +33116,10 @@
       <c r="GH169" s="41"/>
     </row>
     <row r="170" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="79"/>
-      <c r="C170" s="80"/>
+      <c r="B170" s="80"/>
+      <c r="C170" s="81"/>
       <c r="D170" s="38"/>
-      <c r="E170" s="41"/>
+      <c r="E170" s="66"/>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
       <c r="H170" s="41"/>
@@ -33310,10 +33307,10 @@
       <c r="GH170" s="41"/>
     </row>
     <row r="171" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="79"/>
-      <c r="C171" s="80"/>
+      <c r="B171" s="80"/>
+      <c r="C171" s="81"/>
       <c r="D171" s="38"/>
-      <c r="E171" s="41"/>
+      <c r="E171" s="66"/>
       <c r="F171" s="41"/>
       <c r="G171" s="41"/>
       <c r="H171" s="41"/>
@@ -33501,10 +33498,10 @@
       <c r="GH171" s="41"/>
     </row>
     <row r="172" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="79"/>
-      <c r="C172" s="80"/>
+      <c r="B172" s="80"/>
+      <c r="C172" s="81"/>
       <c r="D172" s="38"/>
-      <c r="E172" s="41"/>
+      <c r="E172" s="66"/>
       <c r="F172" s="41"/>
       <c r="G172" s="41"/>
       <c r="H172" s="41"/>
@@ -33692,10 +33689,10 @@
       <c r="GH172" s="41"/>
     </row>
     <row r="173" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="79"/>
-      <c r="C173" s="80"/>
+      <c r="B173" s="80"/>
+      <c r="C173" s="81"/>
       <c r="D173" s="38"/>
-      <c r="E173" s="41"/>
+      <c r="E173" s="66"/>
       <c r="F173" s="41"/>
       <c r="G173" s="41"/>
       <c r="H173" s="41"/>
@@ -33883,10 +33880,10 @@
       <c r="GH173" s="41"/>
     </row>
     <row r="174" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="79"/>
-      <c r="C174" s="80"/>
+      <c r="B174" s="80"/>
+      <c r="C174" s="81"/>
       <c r="D174" s="38"/>
-      <c r="E174" s="41"/>
+      <c r="E174" s="66"/>
       <c r="F174" s="41"/>
       <c r="G174" s="41"/>
       <c r="H174" s="41"/>
@@ -34074,10 +34071,10 @@
       <c r="GH174" s="41"/>
     </row>
     <row r="175" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="79"/>
-      <c r="C175" s="80"/>
+      <c r="B175" s="80"/>
+      <c r="C175" s="81"/>
       <c r="D175" s="38"/>
-      <c r="E175" s="41"/>
+      <c r="E175" s="66"/>
       <c r="F175" s="41"/>
       <c r="G175" s="41"/>
       <c r="H175" s="41"/>
@@ -34265,10 +34262,10 @@
       <c r="GH175" s="41"/>
     </row>
     <row r="176" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="79"/>
-      <c r="C176" s="80"/>
+      <c r="B176" s="80"/>
+      <c r="C176" s="81"/>
       <c r="D176" s="38"/>
-      <c r="E176" s="41"/>
+      <c r="E176" s="66"/>
       <c r="F176" s="41"/>
       <c r="G176" s="41"/>
       <c r="H176" s="41"/>
@@ -34456,10 +34453,10 @@
       <c r="GH176" s="41"/>
     </row>
     <row r="177" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="79"/>
-      <c r="C177" s="80"/>
+      <c r="B177" s="80"/>
+      <c r="C177" s="81"/>
       <c r="D177" s="38"/>
-      <c r="E177" s="41"/>
+      <c r="E177" s="66"/>
       <c r="F177" s="41"/>
       <c r="G177" s="41"/>
       <c r="H177" s="41"/>
@@ -34647,10 +34644,10 @@
       <c r="GH177" s="41"/>
     </row>
     <row r="178" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="79"/>
-      <c r="C178" s="80"/>
+      <c r="B178" s="80"/>
+      <c r="C178" s="81"/>
       <c r="D178" s="38"/>
-      <c r="E178" s="41"/>
+      <c r="E178" s="66"/>
       <c r="F178" s="41"/>
       <c r="G178" s="41"/>
       <c r="H178" s="41"/>
@@ -34838,10 +34835,10 @@
       <c r="GH178" s="41"/>
     </row>
     <row r="179" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="79"/>
-      <c r="C179" s="80"/>
+      <c r="B179" s="80"/>
+      <c r="C179" s="81"/>
       <c r="D179" s="38"/>
-      <c r="E179" s="41"/>
+      <c r="E179" s="66"/>
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
       <c r="H179" s="41"/>
@@ -35029,10 +35026,10 @@
       <c r="GH179" s="41"/>
     </row>
     <row r="180" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="79"/>
-      <c r="C180" s="80"/>
+      <c r="B180" s="80"/>
+      <c r="C180" s="81"/>
       <c r="D180" s="38"/>
-      <c r="E180" s="41"/>
+      <c r="E180" s="66"/>
       <c r="F180" s="41"/>
       <c r="G180" s="41"/>
       <c r="H180" s="41"/>
@@ -35220,10 +35217,10 @@
       <c r="GH180" s="41"/>
     </row>
     <row r="181" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="79"/>
-      <c r="C181" s="80"/>
+      <c r="B181" s="80"/>
+      <c r="C181" s="81"/>
       <c r="D181" s="38"/>
-      <c r="E181" s="41"/>
+      <c r="E181" s="66"/>
       <c r="F181" s="41"/>
       <c r="G181" s="41"/>
       <c r="H181" s="41"/>
@@ -35411,10 +35408,10 @@
       <c r="GH181" s="41"/>
     </row>
     <row r="182" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="79"/>
-      <c r="C182" s="80"/>
+      <c r="B182" s="80"/>
+      <c r="C182" s="81"/>
       <c r="D182" s="38"/>
-      <c r="E182" s="41"/>
+      <c r="E182" s="66"/>
       <c r="F182" s="41"/>
       <c r="G182" s="41"/>
       <c r="H182" s="41"/>
@@ -35602,10 +35599,10 @@
       <c r="GH182" s="41"/>
     </row>
     <row r="183" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="79"/>
-      <c r="C183" s="80"/>
+      <c r="B183" s="80"/>
+      <c r="C183" s="81"/>
       <c r="D183" s="38"/>
-      <c r="E183" s="41"/>
+      <c r="E183" s="66"/>
       <c r="F183" s="41"/>
       <c r="G183" s="41"/>
       <c r="H183" s="41"/>
@@ -35793,10 +35790,10 @@
       <c r="GH183" s="41"/>
     </row>
     <row r="184" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="79"/>
-      <c r="C184" s="80"/>
+      <c r="B184" s="80"/>
+      <c r="C184" s="81"/>
       <c r="D184" s="38"/>
-      <c r="E184" s="41"/>
+      <c r="E184" s="66"/>
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
       <c r="H184" s="41"/>
@@ -35984,10 +35981,10 @@
       <c r="GH184" s="41"/>
     </row>
     <row r="185" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="79"/>
-      <c r="C185" s="80"/>
+      <c r="B185" s="80"/>
+      <c r="C185" s="81"/>
       <c r="D185" s="38"/>
-      <c r="E185" s="41"/>
+      <c r="E185" s="66"/>
       <c r="F185" s="41"/>
       <c r="G185" s="41"/>
       <c r="H185" s="41"/>
@@ -36175,10 +36172,10 @@
       <c r="GH185" s="41"/>
     </row>
     <row r="186" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="79"/>
-      <c r="C186" s="80"/>
+      <c r="B186" s="80"/>
+      <c r="C186" s="81"/>
       <c r="D186" s="38"/>
-      <c r="E186" s="41"/>
+      <c r="E186" s="66"/>
       <c r="F186" s="41"/>
       <c r="G186" s="41"/>
       <c r="H186" s="41"/>
@@ -36366,10 +36363,10 @@
       <c r="GH186" s="41"/>
     </row>
     <row r="187" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="79"/>
-      <c r="C187" s="80"/>
+      <c r="B187" s="80"/>
+      <c r="C187" s="81"/>
       <c r="D187" s="38"/>
-      <c r="E187" s="41"/>
+      <c r="E187" s="66"/>
       <c r="F187" s="41"/>
       <c r="G187" s="41"/>
       <c r="H187" s="41"/>
@@ -36557,10 +36554,10 @@
       <c r="GH187" s="41"/>
     </row>
     <row r="188" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="79"/>
-      <c r="C188" s="80"/>
+      <c r="B188" s="80"/>
+      <c r="C188" s="81"/>
       <c r="D188" s="38"/>
-      <c r="E188" s="41"/>
+      <c r="E188" s="66"/>
       <c r="F188" s="41"/>
       <c r="G188" s="41"/>
       <c r="H188" s="41"/>
@@ -36748,10 +36745,10 @@
       <c r="GH188" s="41"/>
     </row>
     <row r="189" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="79"/>
-      <c r="C189" s="80"/>
+      <c r="B189" s="80"/>
+      <c r="C189" s="81"/>
       <c r="D189" s="38"/>
-      <c r="E189" s="41"/>
+      <c r="E189" s="66"/>
       <c r="F189" s="41"/>
       <c r="G189" s="41"/>
       <c r="H189" s="41"/>
@@ -36939,10 +36936,10 @@
       <c r="GH189" s="41"/>
     </row>
     <row r="190" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="79"/>
-      <c r="C190" s="80"/>
+      <c r="B190" s="80"/>
+      <c r="C190" s="81"/>
       <c r="D190" s="38"/>
-      <c r="E190" s="41"/>
+      <c r="E190" s="66"/>
       <c r="F190" s="41"/>
       <c r="G190" s="41"/>
       <c r="H190" s="41"/>
@@ -37130,10 +37127,10 @@
       <c r="GH190" s="41"/>
     </row>
     <row r="191" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="79"/>
-      <c r="C191" s="80"/>
+      <c r="B191" s="80"/>
+      <c r="C191" s="81"/>
       <c r="D191" s="38"/>
-      <c r="E191" s="41"/>
+      <c r="E191" s="66"/>
       <c r="F191" s="41"/>
       <c r="G191" s="41"/>
       <c r="H191" s="41"/>
@@ -37321,10 +37318,10 @@
       <c r="GH191" s="41"/>
     </row>
     <row r="192" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="79"/>
-      <c r="C192" s="80"/>
+      <c r="B192" s="80"/>
+      <c r="C192" s="81"/>
       <c r="D192" s="38"/>
-      <c r="E192" s="41"/>
+      <c r="E192" s="66"/>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
       <c r="H192" s="41"/>
@@ -37512,10 +37509,10 @@
       <c r="GH192" s="41"/>
     </row>
     <row r="193" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="79"/>
-      <c r="C193" s="80"/>
+      <c r="B193" s="80"/>
+      <c r="C193" s="81"/>
       <c r="D193" s="38"/>
-      <c r="E193" s="41"/>
+      <c r="E193" s="66"/>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
       <c r="H193" s="41"/>
@@ -37703,10 +37700,10 @@
       <c r="GH193" s="41"/>
     </row>
     <row r="194" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="79"/>
-      <c r="C194" s="80"/>
+      <c r="B194" s="80"/>
+      <c r="C194" s="81"/>
       <c r="D194" s="38"/>
-      <c r="E194" s="41"/>
+      <c r="E194" s="66"/>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
       <c r="H194" s="41"/>
@@ -37894,10 +37891,10 @@
       <c r="GH194" s="41"/>
     </row>
     <row r="195" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="79"/>
-      <c r="C195" s="80"/>
+      <c r="B195" s="80"/>
+      <c r="C195" s="81"/>
       <c r="D195" s="38"/>
-      <c r="E195" s="41"/>
+      <c r="E195" s="66"/>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
       <c r="H195" s="41"/>
@@ -38085,10 +38082,10 @@
       <c r="GH195" s="41"/>
     </row>
     <row r="196" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="79"/>
-      <c r="C196" s="80"/>
+      <c r="B196" s="80"/>
+      <c r="C196" s="81"/>
       <c r="D196" s="38"/>
-      <c r="E196" s="41"/>
+      <c r="E196" s="66"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
       <c r="H196" s="41"/>
@@ -38276,10 +38273,10 @@
       <c r="GH196" s="41"/>
     </row>
     <row r="197" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="79"/>
-      <c r="C197" s="80"/>
+      <c r="B197" s="80"/>
+      <c r="C197" s="81"/>
       <c r="D197" s="38"/>
-      <c r="E197" s="41"/>
+      <c r="E197" s="66"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
       <c r="H197" s="41"/>
@@ -38467,10 +38464,10 @@
       <c r="GH197" s="41"/>
     </row>
     <row r="198" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="79"/>
-      <c r="C198" s="80"/>
+      <c r="B198" s="80"/>
+      <c r="C198" s="81"/>
       <c r="D198" s="38"/>
-      <c r="E198" s="41"/>
+      <c r="E198" s="66"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
       <c r="H198" s="41"/>
@@ -38658,10 +38655,10 @@
       <c r="GH198" s="41"/>
     </row>
     <row r="199" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="79"/>
-      <c r="C199" s="80"/>
+      <c r="B199" s="80"/>
+      <c r="C199" s="81"/>
       <c r="D199" s="38"/>
-      <c r="E199" s="41"/>
+      <c r="E199" s="66"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
       <c r="H199" s="41"/>
@@ -38849,10 +38846,10 @@
       <c r="GH199" s="41"/>
     </row>
     <row r="200" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="79"/>
-      <c r="C200" s="80"/>
+      <c r="B200" s="80"/>
+      <c r="C200" s="81"/>
       <c r="D200" s="38"/>
-      <c r="E200" s="41"/>
+      <c r="E200" s="66"/>
       <c r="F200" s="41"/>
       <c r="G200" s="41"/>
       <c r="H200" s="41"/>
@@ -39040,10 +39037,10 @@
       <c r="GH200" s="41"/>
     </row>
     <row r="201" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="79"/>
-      <c r="C201" s="80"/>
+      <c r="B201" s="80"/>
+      <c r="C201" s="81"/>
       <c r="D201" s="38"/>
-      <c r="E201" s="41"/>
+      <c r="E201" s="66"/>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
       <c r="H201" s="41"/>
@@ -39231,10 +39228,10 @@
       <c r="GH201" s="41"/>
     </row>
     <row r="202" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="79"/>
-      <c r="C202" s="80"/>
+      <c r="B202" s="80"/>
+      <c r="C202" s="81"/>
       <c r="D202" s="38"/>
-      <c r="E202" s="41"/>
+      <c r="E202" s="66"/>
       <c r="F202" s="41"/>
       <c r="G202" s="41"/>
       <c r="H202" s="41"/>
@@ -39422,10 +39419,10 @@
       <c r="GH202" s="41"/>
     </row>
     <row r="203" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="79"/>
-      <c r="C203" s="80"/>
+      <c r="B203" s="80"/>
+      <c r="C203" s="81"/>
       <c r="D203" s="38"/>
-      <c r="E203" s="41"/>
+      <c r="E203" s="66"/>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
       <c r="H203" s="41"/>
@@ -39613,10 +39610,10 @@
       <c r="GH203" s="41"/>
     </row>
     <row r="204" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="79"/>
-      <c r="C204" s="80"/>
+      <c r="B204" s="80"/>
+      <c r="C204" s="81"/>
       <c r="D204" s="38"/>
-      <c r="E204" s="41"/>
+      <c r="E204" s="66"/>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
       <c r="H204" s="41"/>
@@ -39804,10 +39801,10 @@
       <c r="GH204" s="41"/>
     </row>
     <row r="205" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="79"/>
-      <c r="C205" s="80"/>
+      <c r="B205" s="80"/>
+      <c r="C205" s="81"/>
       <c r="D205" s="38"/>
-      <c r="E205" s="41"/>
+      <c r="E205" s="66"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="41"/>
@@ -39995,10 +39992,10 @@
       <c r="GH205" s="41"/>
     </row>
     <row r="206" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="79"/>
-      <c r="C206" s="80"/>
+      <c r="B206" s="80"/>
+      <c r="C206" s="81"/>
       <c r="D206" s="38"/>
-      <c r="E206" s="41"/>
+      <c r="E206" s="66"/>
       <c r="F206" s="41"/>
       <c r="G206" s="41"/>
       <c r="H206" s="41"/>
@@ -40186,10 +40183,10 @@
       <c r="GH206" s="41"/>
     </row>
     <row r="207" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="79"/>
-      <c r="C207" s="80"/>
+      <c r="B207" s="80"/>
+      <c r="C207" s="81"/>
       <c r="D207" s="38"/>
-      <c r="E207" s="41"/>
+      <c r="E207" s="66"/>
       <c r="F207" s="41"/>
       <c r="G207" s="41"/>
       <c r="H207" s="41"/>
@@ -40377,10 +40374,10 @@
       <c r="GH207" s="41"/>
     </row>
     <row r="208" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="79"/>
-      <c r="C208" s="80"/>
+      <c r="B208" s="80"/>
+      <c r="C208" s="81"/>
       <c r="D208" s="38"/>
-      <c r="E208" s="41"/>
+      <c r="E208" s="66"/>
       <c r="F208" s="41"/>
       <c r="G208" s="41"/>
       <c r="H208" s="41"/>
@@ -40568,10 +40565,10 @@
       <c r="GH208" s="41"/>
     </row>
     <row r="209" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="79"/>
-      <c r="C209" s="80"/>
+      <c r="B209" s="80"/>
+      <c r="C209" s="81"/>
       <c r="D209" s="38"/>
-      <c r="E209" s="41"/>
+      <c r="E209" s="66"/>
       <c r="F209" s="41"/>
       <c r="G209" s="41"/>
       <c r="H209" s="41"/>
@@ -40759,10 +40756,10 @@
       <c r="GH209" s="41"/>
     </row>
     <row r="210" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="79"/>
-      <c r="C210" s="80"/>
+      <c r="B210" s="80"/>
+      <c r="C210" s="81"/>
       <c r="D210" s="38"/>
-      <c r="E210" s="41"/>
+      <c r="E210" s="66"/>
       <c r="F210" s="41"/>
       <c r="G210" s="41"/>
       <c r="H210" s="41"/>
@@ -40950,10 +40947,10 @@
       <c r="GH210" s="41"/>
     </row>
     <row r="211" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="79"/>
-      <c r="C211" s="80"/>
+      <c r="B211" s="80"/>
+      <c r="C211" s="81"/>
       <c r="D211" s="38"/>
-      <c r="E211" s="41"/>
+      <c r="E211" s="66"/>
       <c r="F211" s="41"/>
       <c r="G211" s="41"/>
       <c r="H211" s="41"/>
@@ -41141,10 +41138,10 @@
       <c r="GH211" s="41"/>
     </row>
     <row r="212" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="79"/>
-      <c r="C212" s="80"/>
+      <c r="B212" s="80"/>
+      <c r="C212" s="81"/>
       <c r="D212" s="38"/>
-      <c r="E212" s="41"/>
+      <c r="E212" s="66"/>
       <c r="F212" s="41"/>
       <c r="G212" s="41"/>
       <c r="H212" s="41"/>
@@ -41332,10 +41329,10 @@
       <c r="GH212" s="41"/>
     </row>
     <row r="213" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="79"/>
-      <c r="C213" s="80"/>
+      <c r="B213" s="80"/>
+      <c r="C213" s="81"/>
       <c r="D213" s="38"/>
-      <c r="E213" s="41"/>
+      <c r="E213" s="66"/>
       <c r="F213" s="41"/>
       <c r="G213" s="41"/>
       <c r="H213" s="41"/>
@@ -41523,10 +41520,10 @@
       <c r="GH213" s="41"/>
     </row>
     <row r="214" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="79"/>
-      <c r="C214" s="80"/>
+      <c r="B214" s="80"/>
+      <c r="C214" s="81"/>
       <c r="D214" s="38"/>
-      <c r="E214" s="41"/>
+      <c r="E214" s="66"/>
       <c r="F214" s="41"/>
       <c r="G214" s="41"/>
       <c r="H214" s="41"/>
@@ -41714,10 +41711,10 @@
       <c r="GH214" s="41"/>
     </row>
     <row r="215" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="79"/>
-      <c r="C215" s="80"/>
+      <c r="B215" s="80"/>
+      <c r="C215" s="81"/>
       <c r="D215" s="38"/>
-      <c r="E215" s="41"/>
+      <c r="E215" s="66"/>
       <c r="F215" s="41"/>
       <c r="G215" s="41"/>
       <c r="H215" s="41"/>
@@ -41905,10 +41902,10 @@
       <c r="GH215" s="41"/>
     </row>
     <row r="216" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="79"/>
-      <c r="C216" s="80"/>
+      <c r="B216" s="80"/>
+      <c r="C216" s="81"/>
       <c r="D216" s="38"/>
-      <c r="E216" s="41"/>
+      <c r="E216" s="66"/>
       <c r="F216" s="41"/>
       <c r="G216" s="41"/>
       <c r="H216" s="41"/>
@@ -42096,10 +42093,10 @@
       <c r="GH216" s="41"/>
     </row>
     <row r="217" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="79"/>
-      <c r="C217" s="80"/>
+      <c r="B217" s="80"/>
+      <c r="C217" s="81"/>
       <c r="D217" s="38"/>
-      <c r="E217" s="41"/>
+      <c r="E217" s="66"/>
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
       <c r="H217" s="41"/>
@@ -42287,10 +42284,10 @@
       <c r="GH217" s="41"/>
     </row>
     <row r="218" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="79"/>
-      <c r="C218" s="80"/>
+      <c r="B218" s="80"/>
+      <c r="C218" s="81"/>
       <c r="D218" s="38"/>
-      <c r="E218" s="41"/>
+      <c r="E218" s="66"/>
       <c r="F218" s="41"/>
       <c r="G218" s="41"/>
       <c r="H218" s="41"/>
@@ -42478,10 +42475,10 @@
       <c r="GH218" s="41"/>
     </row>
     <row r="219" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="79"/>
-      <c r="C219" s="80"/>
+      <c r="B219" s="80"/>
+      <c r="C219" s="81"/>
       <c r="D219" s="38"/>
-      <c r="E219" s="41"/>
+      <c r="E219" s="66"/>
       <c r="F219" s="41"/>
       <c r="G219" s="41"/>
       <c r="H219" s="41"/>
@@ -42669,10 +42666,10 @@
       <c r="GH219" s="41"/>
     </row>
     <row r="220" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="79"/>
-      <c r="C220" s="80"/>
+      <c r="B220" s="80"/>
+      <c r="C220" s="81"/>
       <c r="D220" s="38"/>
-      <c r="E220" s="41"/>
+      <c r="E220" s="66"/>
       <c r="F220" s="41"/>
       <c r="G220" s="41"/>
       <c r="H220" s="41"/>
@@ -42860,10 +42857,10 @@
       <c r="GH220" s="41"/>
     </row>
     <row r="221" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="79"/>
-      <c r="C221" s="80"/>
+      <c r="B221" s="80"/>
+      <c r="C221" s="81"/>
       <c r="D221" s="38"/>
-      <c r="E221" s="41"/>
+      <c r="E221" s="66"/>
       <c r="F221" s="41"/>
       <c r="G221" s="41"/>
       <c r="H221" s="41"/>
@@ -43051,10 +43048,10 @@
       <c r="GH221" s="41"/>
     </row>
     <row r="222" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="79"/>
-      <c r="C222" s="80"/>
+      <c r="B222" s="80"/>
+      <c r="C222" s="81"/>
       <c r="D222" s="38"/>
-      <c r="E222" s="41"/>
+      <c r="E222" s="66"/>
       <c r="F222" s="41"/>
       <c r="G222" s="41"/>
       <c r="H222" s="41"/>
@@ -43242,10 +43239,10 @@
       <c r="GH222" s="41"/>
     </row>
     <row r="223" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="79"/>
-      <c r="C223" s="80"/>
+      <c r="B223" s="80"/>
+      <c r="C223" s="81"/>
       <c r="D223" s="38"/>
-      <c r="E223" s="41"/>
+      <c r="E223" s="66"/>
       <c r="F223" s="41"/>
       <c r="G223" s="41"/>
       <c r="H223" s="41"/>
@@ -43433,10 +43430,10 @@
       <c r="GH223" s="41"/>
     </row>
     <row r="224" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="79"/>
-      <c r="C224" s="80"/>
+      <c r="B224" s="80"/>
+      <c r="C224" s="81"/>
       <c r="D224" s="38"/>
-      <c r="E224" s="41"/>
+      <c r="E224" s="66"/>
       <c r="F224" s="41"/>
       <c r="G224" s="41"/>
       <c r="H224" s="41"/>
@@ -43624,10 +43621,10 @@
       <c r="GH224" s="41"/>
     </row>
     <row r="225" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="79"/>
-      <c r="C225" s="80"/>
+      <c r="B225" s="80"/>
+      <c r="C225" s="81"/>
       <c r="D225" s="38"/>
-      <c r="E225" s="41"/>
+      <c r="E225" s="66"/>
       <c r="F225" s="41"/>
       <c r="G225" s="41"/>
       <c r="H225" s="41"/>
@@ -43815,10 +43812,10 @@
       <c r="GH225" s="41"/>
     </row>
     <row r="226" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="79"/>
-      <c r="C226" s="80"/>
+      <c r="B226" s="80"/>
+      <c r="C226" s="81"/>
       <c r="D226" s="38"/>
-      <c r="E226" s="41"/>
+      <c r="E226" s="66"/>
       <c r="F226" s="41"/>
       <c r="G226" s="41"/>
       <c r="H226" s="41"/>
@@ -44006,10 +44003,10 @@
       <c r="GH226" s="41"/>
     </row>
     <row r="227" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="79"/>
-      <c r="C227" s="80"/>
+      <c r="B227" s="80"/>
+      <c r="C227" s="81"/>
       <c r="D227" s="38"/>
-      <c r="E227" s="41"/>
+      <c r="E227" s="66"/>
       <c r="F227" s="41"/>
       <c r="G227" s="41"/>
       <c r="H227" s="41"/>
@@ -44197,10 +44194,10 @@
       <c r="GH227" s="41"/>
     </row>
     <row r="228" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="79"/>
-      <c r="C228" s="80"/>
+      <c r="B228" s="80"/>
+      <c r="C228" s="81"/>
       <c r="D228" s="38"/>
-      <c r="E228" s="41"/>
+      <c r="E228" s="66"/>
       <c r="F228" s="41"/>
       <c r="G228" s="41"/>
       <c r="H228" s="41"/>
@@ -44388,10 +44385,10 @@
       <c r="GH228" s="41"/>
     </row>
     <row r="229" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="79"/>
-      <c r="C229" s="80"/>
+      <c r="B229" s="80"/>
+      <c r="C229" s="81"/>
       <c r="D229" s="38"/>
-      <c r="E229" s="41"/>
+      <c r="E229" s="66"/>
       <c r="F229" s="41"/>
       <c r="G229" s="41"/>
       <c r="H229" s="41"/>
@@ -44579,10 +44576,10 @@
       <c r="GH229" s="41"/>
     </row>
     <row r="230" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="79"/>
-      <c r="C230" s="80"/>
+      <c r="B230" s="80"/>
+      <c r="C230" s="81"/>
       <c r="D230" s="38"/>
-      <c r="E230" s="41"/>
+      <c r="E230" s="66"/>
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
       <c r="H230" s="41"/>
@@ -44770,10 +44767,10 @@
       <c r="GH230" s="41"/>
     </row>
     <row r="231" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="79"/>
-      <c r="C231" s="80"/>
+      <c r="B231" s="80"/>
+      <c r="C231" s="81"/>
       <c r="D231" s="38"/>
-      <c r="E231" s="41"/>
+      <c r="E231" s="66"/>
       <c r="F231" s="41"/>
       <c r="G231" s="41"/>
       <c r="H231" s="41"/>
@@ -44961,10 +44958,10 @@
       <c r="GH231" s="41"/>
     </row>
     <row r="232" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="79"/>
-      <c r="C232" s="80"/>
+      <c r="B232" s="80"/>
+      <c r="C232" s="81"/>
       <c r="D232" s="38"/>
-      <c r="E232" s="41"/>
+      <c r="E232" s="66"/>
       <c r="F232" s="41"/>
       <c r="G232" s="41"/>
       <c r="H232" s="41"/>
@@ -45152,10 +45149,10 @@
       <c r="GH232" s="41"/>
     </row>
     <row r="233" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="79"/>
-      <c r="C233" s="80"/>
+      <c r="B233" s="80"/>
+      <c r="C233" s="81"/>
       <c r="D233" s="38"/>
-      <c r="E233" s="41"/>
+      <c r="E233" s="66"/>
       <c r="F233" s="41"/>
       <c r="G233" s="41"/>
       <c r="H233" s="41"/>
@@ -45343,10 +45340,10 @@
       <c r="GH233" s="41"/>
     </row>
     <row r="234" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="79"/>
-      <c r="C234" s="80"/>
+      <c r="B234" s="80"/>
+      <c r="C234" s="81"/>
       <c r="D234" s="38"/>
-      <c r="E234" s="41"/>
+      <c r="E234" s="66"/>
       <c r="F234" s="41"/>
       <c r="G234" s="41"/>
       <c r="H234" s="41"/>
@@ -45534,10 +45531,10 @@
       <c r="GH234" s="41"/>
     </row>
     <row r="235" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="79"/>
-      <c r="C235" s="80"/>
+      <c r="B235" s="80"/>
+      <c r="C235" s="81"/>
       <c r="D235" s="38"/>
-      <c r="E235" s="41"/>
+      <c r="E235" s="66"/>
       <c r="F235" s="41"/>
       <c r="G235" s="41"/>
       <c r="H235" s="41"/>
@@ -45725,10 +45722,10 @@
       <c r="GH235" s="41"/>
     </row>
     <row r="236" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="79"/>
-      <c r="C236" s="80"/>
+      <c r="B236" s="80"/>
+      <c r="C236" s="81"/>
       <c r="D236" s="38"/>
-      <c r="E236" s="41"/>
+      <c r="E236" s="66"/>
       <c r="F236" s="41"/>
       <c r="G236" s="41"/>
       <c r="H236" s="41"/>
@@ -45916,10 +45913,10 @@
       <c r="GH236" s="41"/>
     </row>
     <row r="237" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="79"/>
-      <c r="C237" s="80"/>
+      <c r="B237" s="80"/>
+      <c r="C237" s="81"/>
       <c r="D237" s="38"/>
-      <c r="E237" s="41"/>
+      <c r="E237" s="66"/>
       <c r="F237" s="41"/>
       <c r="G237" s="41"/>
       <c r="H237" s="41"/>
@@ -46107,10 +46104,10 @@
       <c r="GH237" s="41"/>
     </row>
     <row r="238" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="79"/>
-      <c r="C238" s="80"/>
+      <c r="B238" s="80"/>
+      <c r="C238" s="81"/>
       <c r="D238" s="38"/>
-      <c r="E238" s="41"/>
+      <c r="E238" s="66"/>
       <c r="F238" s="41"/>
       <c r="G238" s="41"/>
       <c r="H238" s="41"/>
@@ -46298,10 +46295,10 @@
       <c r="GH238" s="41"/>
     </row>
     <row r="239" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="79"/>
-      <c r="C239" s="80"/>
+      <c r="B239" s="80"/>
+      <c r="C239" s="81"/>
       <c r="D239" s="38"/>
-      <c r="E239" s="41"/>
+      <c r="E239" s="66"/>
       <c r="F239" s="41"/>
       <c r="G239" s="41"/>
       <c r="H239" s="41"/>
@@ -46489,10 +46486,10 @@
       <c r="GH239" s="41"/>
     </row>
     <row r="240" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="79"/>
-      <c r="C240" s="80"/>
+      <c r="B240" s="80"/>
+      <c r="C240" s="81"/>
       <c r="D240" s="38"/>
-      <c r="E240" s="41"/>
+      <c r="E240" s="66"/>
       <c r="F240" s="41"/>
       <c r="G240" s="41"/>
       <c r="H240" s="41"/>
@@ -46680,10 +46677,10 @@
       <c r="GH240" s="41"/>
     </row>
     <row r="241" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="79"/>
-      <c r="C241" s="80"/>
+      <c r="B241" s="80"/>
+      <c r="C241" s="81"/>
       <c r="D241" s="38"/>
-      <c r="E241" s="41"/>
+      <c r="E241" s="66"/>
       <c r="F241" s="41"/>
       <c r="G241" s="41"/>
       <c r="H241" s="41"/>
@@ -46871,10 +46868,10 @@
       <c r="GH241" s="41"/>
     </row>
     <row r="242" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="79"/>
-      <c r="C242" s="80"/>
+      <c r="B242" s="80"/>
+      <c r="C242" s="81"/>
       <c r="D242" s="38"/>
-      <c r="E242" s="41"/>
+      <c r="E242" s="66"/>
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
       <c r="H242" s="41"/>
@@ -47062,10 +47059,10 @@
       <c r="GH242" s="41"/>
     </row>
     <row r="243" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="79"/>
-      <c r="C243" s="80"/>
+      <c r="B243" s="80"/>
+      <c r="C243" s="81"/>
       <c r="D243" s="38"/>
-      <c r="E243" s="41"/>
+      <c r="E243" s="66"/>
       <c r="F243" s="41"/>
       <c r="G243" s="41"/>
       <c r="H243" s="41"/>
@@ -47253,10 +47250,10 @@
       <c r="GH243" s="41"/>
     </row>
     <row r="244" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="79"/>
-      <c r="C244" s="80"/>
+      <c r="B244" s="80"/>
+      <c r="C244" s="81"/>
       <c r="D244" s="38"/>
-      <c r="E244" s="41"/>
+      <c r="E244" s="66"/>
       <c r="F244" s="41"/>
       <c r="G244" s="41"/>
       <c r="H244" s="41"/>
@@ -47444,10 +47441,10 @@
       <c r="GH244" s="41"/>
     </row>
     <row r="245" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="79"/>
-      <c r="C245" s="80"/>
+      <c r="B245" s="80"/>
+      <c r="C245" s="81"/>
       <c r="D245" s="38"/>
-      <c r="E245" s="41"/>
+      <c r="E245" s="66"/>
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
       <c r="H245" s="41"/>
@@ -47635,10 +47632,10 @@
       <c r="GH245" s="41"/>
     </row>
     <row r="246" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="79"/>
-      <c r="C246" s="80"/>
+      <c r="B246" s="80"/>
+      <c r="C246" s="81"/>
       <c r="D246" s="38"/>
-      <c r="E246" s="41"/>
+      <c r="E246" s="66"/>
       <c r="F246" s="41"/>
       <c r="G246" s="41"/>
       <c r="H246" s="41"/>
@@ -47826,10 +47823,10 @@
       <c r="GH246" s="41"/>
     </row>
     <row r="247" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="79"/>
-      <c r="C247" s="80"/>
+      <c r="B247" s="80"/>
+      <c r="C247" s="81"/>
       <c r="D247" s="38"/>
-      <c r="E247" s="41"/>
+      <c r="E247" s="66"/>
       <c r="F247" s="41"/>
       <c r="G247" s="41"/>
       <c r="H247" s="41"/>
@@ -48017,10 +48014,10 @@
       <c r="GH247" s="41"/>
     </row>
     <row r="248" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="79"/>
-      <c r="C248" s="80"/>
+      <c r="B248" s="80"/>
+      <c r="C248" s="81"/>
       <c r="D248" s="38"/>
-      <c r="E248" s="41"/>
+      <c r="E248" s="66"/>
       <c r="F248" s="41"/>
       <c r="G248" s="41"/>
       <c r="H248" s="41"/>
@@ -48208,10 +48205,10 @@
       <c r="GH248" s="41"/>
     </row>
     <row r="249" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="79"/>
-      <c r="C249" s="80"/>
+      <c r="B249" s="80"/>
+      <c r="C249" s="81"/>
       <c r="D249" s="38"/>
-      <c r="E249" s="41"/>
+      <c r="E249" s="66"/>
       <c r="F249" s="41"/>
       <c r="G249" s="41"/>
       <c r="H249" s="41"/>
@@ -48399,10 +48396,10 @@
       <c r="GH249" s="41"/>
     </row>
     <row r="250" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="79"/>
-      <c r="C250" s="80"/>
+      <c r="B250" s="80"/>
+      <c r="C250" s="81"/>
       <c r="D250" s="38"/>
-      <c r="E250" s="41"/>
+      <c r="E250" s="66"/>
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
       <c r="H250" s="41"/>
@@ -48590,7 +48587,7 @@
       <c r="GH250" s="41"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="242">
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -48915,11 +48912,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="82">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="83"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -49048,2635 +49045,2635 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="92" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="54" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="54" t="s">
+      <c r="H10" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="59"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="91"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="59"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="91"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="59"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
     </row>
     <row r="17" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="59"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="59"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
     </row>
     <row r="21" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="59"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
     </row>
     <row r="23" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="59"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
     </row>
     <row r="25" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="59"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="59"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="59"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="59"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="B32" s="90"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="33" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="59"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
     </row>
     <row r="35" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="59"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="58"/>
     </row>
     <row r="36" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
     </row>
     <row r="37" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="59"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="58"/>
     </row>
     <row r="38" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
+      <c r="B38" s="90"/>
+      <c r="C38" s="91"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
     </row>
     <row r="39" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="87"/>
-      <c r="C39" s="88"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="59"/>
+      <c r="B39" s="88"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="58"/>
     </row>
     <row r="40" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="53"/>
-      <c r="G40" s="58"/>
-      <c r="H40" s="58"/>
+      <c r="B40" s="90"/>
+      <c r="C40" s="91"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
     </row>
     <row r="41" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="59"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="58"/>
     </row>
     <row r="42" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="53"/>
-      <c r="G42" s="58"/>
-      <c r="H42" s="58"/>
+      <c r="B42" s="90"/>
+      <c r="C42" s="91"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
     </row>
     <row r="43" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="59"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="58"/>
     </row>
     <row r="44" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="56"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="58"/>
-      <c r="H44" s="58"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="91"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
     </row>
     <row r="45" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="59"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="58"/>
     </row>
     <row r="46" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="56"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="91"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
     </row>
     <row r="47" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="59"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="58"/>
     </row>
     <row r="48" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="56"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
+      <c r="B48" s="90"/>
+      <c r="C48" s="91"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
     </row>
     <row r="49" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="59"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="58"/>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="58"/>
-      <c r="H50" s="58"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="91"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="55"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="59"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="58"/>
     </row>
     <row r="52" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="58"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="91"/>
+      <c r="D52" s="55"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
     </row>
     <row r="53" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="57"/>
-      <c r="H53" s="59"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="58"/>
     </row>
     <row r="54" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="58"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="57"/>
+      <c r="H54" s="57"/>
     </row>
     <row r="55" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
-      <c r="F55" s="60"/>
-      <c r="G55" s="57"/>
-      <c r="H55" s="59"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="58"/>
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="56"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="58"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="91"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="60"/>
-      <c r="G57" s="57"/>
-      <c r="H57" s="59"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="58"/>
     </row>
     <row r="58" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="58"/>
-      <c r="H58" s="58"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="91"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
     </row>
     <row r="59" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="60"/>
-      <c r="G59" s="57"/>
-      <c r="H59" s="59"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="58"/>
     </row>
     <row r="60" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
+      <c r="B60" s="90"/>
+      <c r="C60" s="91"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
     </row>
     <row r="61" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="60"/>
-      <c r="G61" s="57"/>
-      <c r="H61" s="59"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="58"/>
     </row>
     <row r="62" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="58"/>
-      <c r="H62" s="58"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="91"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
     </row>
     <row r="63" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="59"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="58"/>
     </row>
     <row r="64" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="58"/>
-      <c r="H64" s="58"/>
+      <c r="B64" s="90"/>
+      <c r="C64" s="91"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
     </row>
     <row r="65" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="60"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="59"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="58"/>
     </row>
     <row r="66" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="58"/>
-      <c r="H66" s="58"/>
+      <c r="B66" s="90"/>
+      <c r="C66" s="91"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="57"/>
     </row>
     <row r="67" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
-      <c r="F67" s="60"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="59"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="58"/>
     </row>
     <row r="68" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="91"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="57"/>
     </row>
     <row r="69" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="87"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="59"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="56"/>
+      <c r="H69" s="58"/>
     </row>
     <row r="70" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="58"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="91"/>
+      <c r="D70" s="55"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
     </row>
     <row r="71" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="87"/>
-      <c r="C71" s="88"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="57"/>
-      <c r="H71" s="59"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="56"/>
+      <c r="H71" s="58"/>
     </row>
     <row r="72" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="89"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="58"/>
+      <c r="B72" s="90"/>
+      <c r="C72" s="91"/>
+      <c r="D72" s="55"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="57"/>
+      <c r="H72" s="57"/>
     </row>
     <row r="73" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="87"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="60"/>
-      <c r="G73" s="57"/>
-      <c r="H73" s="59"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="89"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="56"/>
+      <c r="H73" s="58"/>
     </row>
     <row r="74" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="89"/>
-      <c r="C74" s="90"/>
-      <c r="D74" s="56"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="53"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
+      <c r="B74" s="90"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
     </row>
     <row r="75" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="87"/>
-      <c r="C75" s="88"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="60"/>
-      <c r="G75" s="57"/>
-      <c r="H75" s="59"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="56"/>
+      <c r="H75" s="58"/>
     </row>
     <row r="76" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="89"/>
-      <c r="C76" s="90"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="58"/>
+      <c r="B76" s="90"/>
+      <c r="C76" s="91"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
     </row>
     <row r="77" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="55"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="57"/>
-      <c r="H77" s="59"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="54"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="56"/>
+      <c r="H77" s="58"/>
     </row>
     <row r="78" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="89"/>
-      <c r="C78" s="90"/>
-      <c r="D78" s="56"/>
-      <c r="E78" s="56"/>
-      <c r="F78" s="53"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="58"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="91"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="57"/>
+      <c r="H78" s="57"/>
     </row>
     <row r="79" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="87"/>
-      <c r="C79" s="88"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="57"/>
-      <c r="H79" s="59"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="89"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="54"/>
+      <c r="F79" s="59"/>
+      <c r="G79" s="56"/>
+      <c r="H79" s="58"/>
     </row>
     <row r="80" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="89"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="53"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="58"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="91"/>
+      <c r="D80" s="55"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="57"/>
     </row>
     <row r="81" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="87"/>
-      <c r="C81" s="88"/>
-      <c r="D81" s="55"/>
-      <c r="E81" s="55"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="57"/>
-      <c r="H81" s="59"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="89"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="56"/>
+      <c r="H81" s="58"/>
     </row>
     <row r="82" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="89"/>
-      <c r="C82" s="90"/>
-      <c r="D82" s="56"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="53"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="58"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="91"/>
+      <c r="D82" s="55"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
     </row>
     <row r="83" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
-      <c r="D83" s="55"/>
-      <c r="E83" s="55"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="57"/>
-      <c r="H83" s="59"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="89"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="54"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="58"/>
     </row>
     <row r="84" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="89"/>
-      <c r="C84" s="90"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="53"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="58"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="91"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="57"/>
     </row>
     <row r="85" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
-      <c r="D85" s="55"/>
-      <c r="E85" s="55"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="57"/>
-      <c r="H85" s="59"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="89"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="54"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="56"/>
+      <c r="H85" s="58"/>
     </row>
     <row r="86" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="89"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="56"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="53"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="58"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="91"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="57"/>
     </row>
     <row r="87" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="87"/>
-      <c r="C87" s="88"/>
-      <c r="D87" s="55"/>
-      <c r="E87" s="55"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="57"/>
-      <c r="H87" s="59"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="59"/>
+      <c r="G87" s="56"/>
+      <c r="H87" s="58"/>
     </row>
     <row r="88" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="89"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="53"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="58"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="91"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="57"/>
     </row>
     <row r="89" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="87"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="55"/>
-      <c r="E89" s="55"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="59"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="59"/>
+      <c r="G89" s="56"/>
+      <c r="H89" s="58"/>
     </row>
     <row r="90" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="89"/>
-      <c r="C90" s="90"/>
-      <c r="D90" s="56"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="53"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="91"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="57"/>
     </row>
     <row r="91" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="87"/>
-      <c r="C91" s="88"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="59"/>
+      <c r="B91" s="88"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="56"/>
+      <c r="H91" s="58"/>
     </row>
     <row r="92" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="89"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="56"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="53"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="58"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="91"/>
+      <c r="D92" s="55"/>
+      <c r="E92" s="55"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="57"/>
     </row>
     <row r="93" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="87"/>
-      <c r="C93" s="88"/>
-      <c r="D93" s="55"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="57"/>
-      <c r="H93" s="59"/>
+      <c r="B93" s="88"/>
+      <c r="C93" s="89"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="59"/>
+      <c r="G93" s="56"/>
+      <c r="H93" s="58"/>
     </row>
     <row r="94" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="89"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="56"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="91"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="57"/>
     </row>
     <row r="95" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
-      <c r="D95" s="55"/>
-      <c r="E95" s="55"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="57"/>
-      <c r="H95" s="59"/>
+      <c r="B95" s="88"/>
+      <c r="C95" s="89"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="54"/>
+      <c r="F95" s="59"/>
+      <c r="G95" s="56"/>
+      <c r="H95" s="58"/>
     </row>
     <row r="96" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="89"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="58"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="91"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
     </row>
     <row r="97" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
-      <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="57"/>
-      <c r="H97" s="59"/>
+      <c r="B97" s="88"/>
+      <c r="C97" s="89"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="54"/>
+      <c r="F97" s="59"/>
+      <c r="G97" s="56"/>
+      <c r="H97" s="58"/>
     </row>
     <row r="98" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="89"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="56"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="58"/>
-      <c r="H98" s="58"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="91"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
     </row>
     <row r="99" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="87"/>
-      <c r="C99" s="88"/>
-      <c r="D99" s="55"/>
-      <c r="E99" s="55"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="57"/>
-      <c r="H99" s="59"/>
+      <c r="B99" s="88"/>
+      <c r="C99" s="89"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="56"/>
+      <c r="H99" s="58"/>
     </row>
     <row r="100" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="89"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="58"/>
-      <c r="H100" s="58"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="91"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
     </row>
     <row r="101" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
-      <c r="D101" s="55"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="60"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="59"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="59"/>
+      <c r="G101" s="56"/>
+      <c r="H101" s="58"/>
     </row>
     <row r="102" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="89"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="53"/>
-      <c r="G102" s="58"/>
-      <c r="H102" s="58"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="91"/>
+      <c r="D102" s="55"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
     </row>
     <row r="103" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="87"/>
-      <c r="C103" s="88"/>
-      <c r="D103" s="55"/>
-      <c r="E103" s="55"/>
-      <c r="F103" s="60"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="59"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="59"/>
+      <c r="G103" s="56"/>
+      <c r="H103" s="58"/>
     </row>
     <row r="104" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="89"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="53"/>
-      <c r="G104" s="58"/>
-      <c r="H104" s="58"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="91"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
     </row>
     <row r="105" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="87"/>
-      <c r="C105" s="88"/>
-      <c r="D105" s="55"/>
-      <c r="E105" s="55"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="59"/>
+      <c r="B105" s="88"/>
+      <c r="C105" s="89"/>
+      <c r="D105" s="54"/>
+      <c r="E105" s="54"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="56"/>
+      <c r="H105" s="58"/>
     </row>
     <row r="106" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="89"/>
-      <c r="C106" s="90"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="53"/>
-      <c r="G106" s="58"/>
-      <c r="H106" s="58"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="91"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
     </row>
     <row r="107" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="87"/>
-      <c r="C107" s="88"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="60"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="59"/>
+      <c r="B107" s="88"/>
+      <c r="C107" s="89"/>
+      <c r="D107" s="54"/>
+      <c r="E107" s="54"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="56"/>
+      <c r="H107" s="58"/>
     </row>
     <row r="108" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="89"/>
-      <c r="C108" s="90"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="58"/>
-      <c r="H108" s="58"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="91"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
     </row>
     <row r="109" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
-      <c r="D109" s="55"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="59"/>
+      <c r="B109" s="88"/>
+      <c r="C109" s="89"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="54"/>
+      <c r="F109" s="59"/>
+      <c r="G109" s="56"/>
+      <c r="H109" s="58"/>
     </row>
     <row r="110" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="89"/>
-      <c r="C110" s="90"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="53"/>
-      <c r="G110" s="58"/>
-      <c r="H110" s="58"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="91"/>
+      <c r="D110" s="55"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
     </row>
     <row r="111" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
-      <c r="D111" s="55"/>
-      <c r="E111" s="55"/>
-      <c r="F111" s="60"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="59"/>
+      <c r="B111" s="88"/>
+      <c r="C111" s="89"/>
+      <c r="D111" s="54"/>
+      <c r="E111" s="54"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="56"/>
+      <c r="H111" s="58"/>
     </row>
     <row r="112" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="89"/>
-      <c r="C112" s="90"/>
-      <c r="D112" s="56"/>
-      <c r="E112" s="56"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="58"/>
-      <c r="H112" s="58"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="91"/>
+      <c r="D112" s="55"/>
+      <c r="E112" s="55"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
     </row>
     <row r="113" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
-      <c r="D113" s="55"/>
-      <c r="E113" s="55"/>
-      <c r="F113" s="60"/>
-      <c r="G113" s="57"/>
-      <c r="H113" s="59"/>
+      <c r="B113" s="88"/>
+      <c r="C113" s="89"/>
+      <c r="D113" s="54"/>
+      <c r="E113" s="54"/>
+      <c r="F113" s="59"/>
+      <c r="G113" s="56"/>
+      <c r="H113" s="58"/>
     </row>
     <row r="114" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="89"/>
-      <c r="C114" s="90"/>
-      <c r="D114" s="56"/>
-      <c r="E114" s="56"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="58"/>
-      <c r="H114" s="58"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="91"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
     </row>
     <row r="115" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="87"/>
-      <c r="C115" s="88"/>
-      <c r="D115" s="55"/>
-      <c r="E115" s="55"/>
-      <c r="F115" s="60"/>
-      <c r="G115" s="57"/>
-      <c r="H115" s="59"/>
+      <c r="B115" s="88"/>
+      <c r="C115" s="89"/>
+      <c r="D115" s="54"/>
+      <c r="E115" s="54"/>
+      <c r="F115" s="59"/>
+      <c r="G115" s="56"/>
+      <c r="H115" s="58"/>
     </row>
     <row r="116" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="89"/>
-      <c r="C116" s="90"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="53"/>
-      <c r="G116" s="58"/>
-      <c r="H116" s="58"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="91"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
     </row>
     <row r="117" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="87"/>
-      <c r="C117" s="88"/>
-      <c r="D117" s="55"/>
-      <c r="E117" s="55"/>
-      <c r="F117" s="60"/>
-      <c r="G117" s="57"/>
-      <c r="H117" s="59"/>
+      <c r="B117" s="88"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="54"/>
+      <c r="E117" s="54"/>
+      <c r="F117" s="59"/>
+      <c r="G117" s="56"/>
+      <c r="H117" s="58"/>
     </row>
     <row r="118" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="89"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="56"/>
-      <c r="E118" s="56"/>
-      <c r="F118" s="53"/>
-      <c r="G118" s="58"/>
-      <c r="H118" s="58"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="91"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
     </row>
     <row r="119" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
-      <c r="D119" s="55"/>
-      <c r="E119" s="55"/>
-      <c r="F119" s="60"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="59"/>
+      <c r="B119" s="88"/>
+      <c r="C119" s="89"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="59"/>
+      <c r="G119" s="56"/>
+      <c r="H119" s="58"/>
     </row>
     <row r="120" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="89"/>
-      <c r="C120" s="90"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="53"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="58"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="91"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57"/>
     </row>
     <row r="121" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="60"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="59"/>
+      <c r="B121" s="88"/>
+      <c r="C121" s="89"/>
+      <c r="D121" s="54"/>
+      <c r="E121" s="54"/>
+      <c r="F121" s="59"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="58"/>
     </row>
     <row r="122" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="89"/>
-      <c r="C122" s="90"/>
-      <c r="D122" s="56"/>
-      <c r="E122" s="56"/>
-      <c r="F122" s="53"/>
-      <c r="G122" s="58"/>
-      <c r="H122" s="58"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="91"/>
+      <c r="D122" s="55"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
     </row>
     <row r="123" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="87"/>
-      <c r="C123" s="88"/>
-      <c r="D123" s="55"/>
-      <c r="E123" s="55"/>
-      <c r="F123" s="60"/>
-      <c r="G123" s="57"/>
-      <c r="H123" s="59"/>
+      <c r="B123" s="88"/>
+      <c r="C123" s="89"/>
+      <c r="D123" s="54"/>
+      <c r="E123" s="54"/>
+      <c r="F123" s="59"/>
+      <c r="G123" s="56"/>
+      <c r="H123" s="58"/>
     </row>
     <row r="124" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="89"/>
-      <c r="C124" s="90"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="53"/>
-      <c r="G124" s="58"/>
-      <c r="H124" s="58"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="91"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
     </row>
     <row r="125" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="87"/>
-      <c r="C125" s="88"/>
-      <c r="D125" s="55"/>
-      <c r="E125" s="55"/>
-      <c r="F125" s="60"/>
-      <c r="G125" s="57"/>
-      <c r="H125" s="59"/>
+      <c r="B125" s="88"/>
+      <c r="C125" s="89"/>
+      <c r="D125" s="54"/>
+      <c r="E125" s="54"/>
+      <c r="F125" s="59"/>
+      <c r="G125" s="56"/>
+      <c r="H125" s="58"/>
     </row>
     <row r="126" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="89"/>
-      <c r="C126" s="90"/>
-      <c r="D126" s="56"/>
-      <c r="E126" s="56"/>
-      <c r="F126" s="53"/>
-      <c r="G126" s="58"/>
-      <c r="H126" s="58"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="91"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
     </row>
     <row r="127" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="87"/>
-      <c r="C127" s="88"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="60"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="59"/>
+      <c r="B127" s="88"/>
+      <c r="C127" s="89"/>
+      <c r="D127" s="54"/>
+      <c r="E127" s="54"/>
+      <c r="F127" s="59"/>
+      <c r="G127" s="56"/>
+      <c r="H127" s="58"/>
     </row>
     <row r="128" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="89"/>
-      <c r="C128" s="90"/>
-      <c r="D128" s="56"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="58"/>
-      <c r="H128" s="58"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="91"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
     </row>
     <row r="129" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="87"/>
-      <c r="C129" s="88"/>
-      <c r="D129" s="55"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="60"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="59"/>
+      <c r="B129" s="88"/>
+      <c r="C129" s="89"/>
+      <c r="D129" s="54"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="59"/>
+      <c r="G129" s="56"/>
+      <c r="H129" s="58"/>
     </row>
     <row r="130" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="89"/>
-      <c r="C130" s="90"/>
-      <c r="D130" s="56"/>
-      <c r="E130" s="56"/>
-      <c r="F130" s="53"/>
-      <c r="G130" s="58"/>
-      <c r="H130" s="58"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="91"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
     </row>
     <row r="131" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="87"/>
-      <c r="C131" s="88"/>
-      <c r="D131" s="55"/>
-      <c r="E131" s="55"/>
-      <c r="F131" s="60"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="59"/>
+      <c r="B131" s="88"/>
+      <c r="C131" s="89"/>
+      <c r="D131" s="54"/>
+      <c r="E131" s="54"/>
+      <c r="F131" s="59"/>
+      <c r="G131" s="56"/>
+      <c r="H131" s="58"/>
     </row>
     <row r="132" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="89"/>
-      <c r="C132" s="90"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="58"/>
-      <c r="H132" s="58"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="91"/>
+      <c r="D132" s="55"/>
+      <c r="E132" s="55"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
     </row>
     <row r="133" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="87"/>
-      <c r="C133" s="88"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="60"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="59"/>
+      <c r="B133" s="88"/>
+      <c r="C133" s="89"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="59"/>
+      <c r="G133" s="56"/>
+      <c r="H133" s="58"/>
     </row>
     <row r="134" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="89"/>
-      <c r="C134" s="90"/>
-      <c r="D134" s="56"/>
-      <c r="E134" s="56"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="58"/>
-      <c r="H134" s="58"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="91"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
     </row>
     <row r="135" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="87"/>
-      <c r="C135" s="88"/>
-      <c r="D135" s="55"/>
-      <c r="E135" s="55"/>
-      <c r="F135" s="60"/>
-      <c r="G135" s="57"/>
-      <c r="H135" s="59"/>
+      <c r="B135" s="88"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="59"/>
+      <c r="G135" s="56"/>
+      <c r="H135" s="58"/>
     </row>
     <row r="136" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="89"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="56"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="53"/>
-      <c r="G136" s="58"/>
-      <c r="H136" s="58"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="91"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
     </row>
     <row r="137" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="87"/>
-      <c r="C137" s="88"/>
-      <c r="D137" s="55"/>
-      <c r="E137" s="55"/>
-      <c r="F137" s="60"/>
-      <c r="G137" s="57"/>
-      <c r="H137" s="59"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="89"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="59"/>
+      <c r="G137" s="56"/>
+      <c r="H137" s="58"/>
     </row>
     <row r="138" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="89"/>
-      <c r="C138" s="90"/>
-      <c r="D138" s="56"/>
-      <c r="E138" s="56"/>
-      <c r="F138" s="53"/>
-      <c r="G138" s="58"/>
-      <c r="H138" s="58"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="91"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
     </row>
     <row r="139" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="87"/>
-      <c r="C139" s="88"/>
-      <c r="D139" s="55"/>
-      <c r="E139" s="55"/>
-      <c r="F139" s="60"/>
-      <c r="G139" s="57"/>
-      <c r="H139" s="59"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="89"/>
+      <c r="D139" s="54"/>
+      <c r="E139" s="54"/>
+      <c r="F139" s="59"/>
+      <c r="G139" s="56"/>
+      <c r="H139" s="58"/>
     </row>
     <row r="140" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="89"/>
-      <c r="C140" s="90"/>
-      <c r="D140" s="56"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="58"/>
-      <c r="H140" s="58"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="91"/>
+      <c r="D140" s="55"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="57"/>
+      <c r="H140" s="57"/>
     </row>
     <row r="141" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="87"/>
-      <c r="C141" s="88"/>
-      <c r="D141" s="55"/>
-      <c r="E141" s="55"/>
-      <c r="F141" s="60"/>
-      <c r="G141" s="57"/>
-      <c r="H141" s="59"/>
+      <c r="B141" s="88"/>
+      <c r="C141" s="89"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="59"/>
+      <c r="G141" s="56"/>
+      <c r="H141" s="58"/>
     </row>
     <row r="142" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="89"/>
-      <c r="C142" s="90"/>
-      <c r="D142" s="56"/>
-      <c r="E142" s="56"/>
-      <c r="F142" s="53"/>
-      <c r="G142" s="58"/>
-      <c r="H142" s="58"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="91"/>
+      <c r="D142" s="55"/>
+      <c r="E142" s="55"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
     </row>
     <row r="143" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="87"/>
-      <c r="C143" s="88"/>
-      <c r="D143" s="55"/>
-      <c r="E143" s="55"/>
-      <c r="F143" s="60"/>
-      <c r="G143" s="57"/>
-      <c r="H143" s="59"/>
+      <c r="B143" s="88"/>
+      <c r="C143" s="89"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="59"/>
+      <c r="G143" s="56"/>
+      <c r="H143" s="58"/>
     </row>
     <row r="144" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="89"/>
-      <c r="C144" s="90"/>
-      <c r="D144" s="56"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="58"/>
-      <c r="H144" s="58"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="91"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
     </row>
     <row r="145" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="87"/>
-      <c r="C145" s="88"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="60"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="59"/>
+      <c r="B145" s="88"/>
+      <c r="C145" s="89"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="59"/>
+      <c r="G145" s="56"/>
+      <c r="H145" s="58"/>
     </row>
     <row r="146" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
-      <c r="D146" s="56"/>
-      <c r="E146" s="56"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="58"/>
-      <c r="H146" s="58"/>
+      <c r="B146" s="90"/>
+      <c r="C146" s="91"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
     </row>
     <row r="147" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="87"/>
-      <c r="C147" s="88"/>
-      <c r="D147" s="55"/>
-      <c r="E147" s="55"/>
-      <c r="F147" s="60"/>
-      <c r="G147" s="57"/>
-      <c r="H147" s="59"/>
+      <c r="B147" s="88"/>
+      <c r="C147" s="89"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="56"/>
+      <c r="H147" s="58"/>
     </row>
     <row r="148" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="89"/>
-      <c r="C148" s="90"/>
-      <c r="D148" s="56"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="53"/>
-      <c r="G148" s="58"/>
-      <c r="H148" s="58"/>
+      <c r="B148" s="90"/>
+      <c r="C148" s="91"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="57"/>
+      <c r="H148" s="57"/>
     </row>
     <row r="149" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="87"/>
-      <c r="C149" s="88"/>
-      <c r="D149" s="55"/>
-      <c r="E149" s="55"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="57"/>
-      <c r="H149" s="59"/>
+      <c r="B149" s="88"/>
+      <c r="C149" s="89"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="59"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="58"/>
     </row>
     <row r="150" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="89"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="56"/>
-      <c r="E150" s="56"/>
-      <c r="F150" s="53"/>
-      <c r="G150" s="58"/>
-      <c r="H150" s="58"/>
+      <c r="B150" s="90"/>
+      <c r="C150" s="91"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
     </row>
     <row r="151" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="87"/>
-      <c r="C151" s="88"/>
-      <c r="D151" s="55"/>
-      <c r="E151" s="55"/>
-      <c r="F151" s="60"/>
-      <c r="G151" s="57"/>
-      <c r="H151" s="59"/>
+      <c r="B151" s="88"/>
+      <c r="C151" s="89"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="59"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="58"/>
     </row>
     <row r="152" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="89"/>
-      <c r="C152" s="90"/>
-      <c r="D152" s="56"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="53"/>
-      <c r="G152" s="58"/>
-      <c r="H152" s="58"/>
+      <c r="B152" s="90"/>
+      <c r="C152" s="91"/>
+      <c r="D152" s="55"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="57"/>
+      <c r="H152" s="57"/>
     </row>
     <row r="153" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="87"/>
-      <c r="C153" s="88"/>
-      <c r="D153" s="55"/>
-      <c r="E153" s="55"/>
-      <c r="F153" s="60"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="59"/>
+      <c r="B153" s="88"/>
+      <c r="C153" s="89"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="59"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="58"/>
     </row>
     <row r="154" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="89"/>
-      <c r="C154" s="90"/>
-      <c r="D154" s="56"/>
-      <c r="E154" s="56"/>
-      <c r="F154" s="53"/>
-      <c r="G154" s="58"/>
-      <c r="H154" s="58"/>
+      <c r="B154" s="90"/>
+      <c r="C154" s="91"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="57"/>
+      <c r="H154" s="57"/>
     </row>
     <row r="155" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="87"/>
-      <c r="C155" s="88"/>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55"/>
-      <c r="F155" s="60"/>
-      <c r="G155" s="57"/>
-      <c r="H155" s="59"/>
+      <c r="B155" s="88"/>
+      <c r="C155" s="89"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="59"/>
+      <c r="G155" s="56"/>
+      <c r="H155" s="58"/>
     </row>
     <row r="156" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="89"/>
-      <c r="C156" s="90"/>
-      <c r="D156" s="56"/>
-      <c r="E156" s="56"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="58"/>
-      <c r="H156" s="58"/>
+      <c r="B156" s="90"/>
+      <c r="C156" s="91"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
     </row>
     <row r="157" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="87"/>
-      <c r="C157" s="88"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="55"/>
-      <c r="F157" s="60"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="59"/>
+      <c r="B157" s="88"/>
+      <c r="C157" s="89"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="59"/>
+      <c r="G157" s="56"/>
+      <c r="H157" s="58"/>
     </row>
     <row r="158" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="89"/>
-      <c r="C158" s="90"/>
-      <c r="D158" s="56"/>
-      <c r="E158" s="56"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="58"/>
-      <c r="H158" s="58"/>
+      <c r="B158" s="90"/>
+      <c r="C158" s="91"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
     </row>
     <row r="159" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="87"/>
-      <c r="C159" s="88"/>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55"/>
-      <c r="F159" s="60"/>
-      <c r="G159" s="57"/>
-      <c r="H159" s="59"/>
+      <c r="B159" s="88"/>
+      <c r="C159" s="89"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="56"/>
+      <c r="H159" s="58"/>
     </row>
     <row r="160" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="89"/>
-      <c r="C160" s="90"/>
-      <c r="D160" s="56"/>
-      <c r="E160" s="56"/>
-      <c r="F160" s="53"/>
-      <c r="G160" s="58"/>
-      <c r="H160" s="58"/>
+      <c r="B160" s="90"/>
+      <c r="C160" s="91"/>
+      <c r="D160" s="55"/>
+      <c r="E160" s="55"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="57"/>
+      <c r="H160" s="57"/>
     </row>
     <row r="161" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="87"/>
-      <c r="C161" s="88"/>
-      <c r="D161" s="55"/>
-      <c r="E161" s="55"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="59"/>
+      <c r="B161" s="88"/>
+      <c r="C161" s="89"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="59"/>
+      <c r="G161" s="56"/>
+      <c r="H161" s="58"/>
     </row>
     <row r="162" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="89"/>
-      <c r="C162" s="90"/>
-      <c r="D162" s="56"/>
-      <c r="E162" s="56"/>
-      <c r="F162" s="53"/>
-      <c r="G162" s="58"/>
-      <c r="H162" s="58"/>
+      <c r="B162" s="90"/>
+      <c r="C162" s="91"/>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
     </row>
     <row r="163" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="87"/>
-      <c r="C163" s="88"/>
-      <c r="D163" s="55"/>
-      <c r="E163" s="55"/>
-      <c r="F163" s="60"/>
-      <c r="G163" s="57"/>
-      <c r="H163" s="59"/>
+      <c r="B163" s="88"/>
+      <c r="C163" s="89"/>
+      <c r="D163" s="54"/>
+      <c r="E163" s="54"/>
+      <c r="F163" s="59"/>
+      <c r="G163" s="56"/>
+      <c r="H163" s="58"/>
     </row>
     <row r="164" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="89"/>
-      <c r="C164" s="90"/>
-      <c r="D164" s="56"/>
-      <c r="E164" s="56"/>
-      <c r="F164" s="53"/>
-      <c r="G164" s="58"/>
-      <c r="H164" s="58"/>
+      <c r="B164" s="90"/>
+      <c r="C164" s="91"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="57"/>
+      <c r="H164" s="57"/>
     </row>
     <row r="165" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="87"/>
-      <c r="C165" s="88"/>
-      <c r="D165" s="55"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="60"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="59"/>
+      <c r="B165" s="88"/>
+      <c r="C165" s="89"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="59"/>
+      <c r="G165" s="56"/>
+      <c r="H165" s="58"/>
     </row>
     <row r="166" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="89"/>
-      <c r="C166" s="90"/>
-      <c r="D166" s="56"/>
-      <c r="E166" s="56"/>
-      <c r="F166" s="53"/>
-      <c r="G166" s="58"/>
-      <c r="H166" s="58"/>
+      <c r="B166" s="90"/>
+      <c r="C166" s="91"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
     </row>
     <row r="167" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="87"/>
-      <c r="C167" s="88"/>
-      <c r="D167" s="55"/>
-      <c r="E167" s="55"/>
-      <c r="F167" s="60"/>
-      <c r="G167" s="57"/>
-      <c r="H167" s="59"/>
+      <c r="B167" s="88"/>
+      <c r="C167" s="89"/>
+      <c r="D167" s="54"/>
+      <c r="E167" s="54"/>
+      <c r="F167" s="59"/>
+      <c r="G167" s="56"/>
+      <c r="H167" s="58"/>
     </row>
     <row r="168" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="89"/>
-      <c r="C168" s="90"/>
-      <c r="D168" s="56"/>
-      <c r="E168" s="56"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="58"/>
-      <c r="H168" s="58"/>
+      <c r="B168" s="90"/>
+      <c r="C168" s="91"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
     </row>
     <row r="169" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="87"/>
-      <c r="C169" s="88"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="60"/>
-      <c r="G169" s="57"/>
-      <c r="H169" s="59"/>
+      <c r="B169" s="88"/>
+      <c r="C169" s="89"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="59"/>
+      <c r="G169" s="56"/>
+      <c r="H169" s="58"/>
     </row>
     <row r="170" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="89"/>
-      <c r="C170" s="90"/>
-      <c r="D170" s="56"/>
-      <c r="E170" s="56"/>
-      <c r="F170" s="53"/>
-      <c r="G170" s="58"/>
-      <c r="H170" s="58"/>
+      <c r="B170" s="90"/>
+      <c r="C170" s="91"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
     </row>
     <row r="171" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="87"/>
-      <c r="C171" s="88"/>
-      <c r="D171" s="55"/>
-      <c r="E171" s="55"/>
-      <c r="F171" s="60"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="59"/>
+      <c r="B171" s="88"/>
+      <c r="C171" s="89"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="56"/>
+      <c r="H171" s="58"/>
     </row>
     <row r="172" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="89"/>
-      <c r="C172" s="90"/>
-      <c r="D172" s="56"/>
-      <c r="E172" s="56"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="58"/>
-      <c r="H172" s="58"/>
+      <c r="B172" s="90"/>
+      <c r="C172" s="91"/>
+      <c r="D172" s="55"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
     </row>
     <row r="173" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="87"/>
-      <c r="C173" s="88"/>
-      <c r="D173" s="55"/>
-      <c r="E173" s="55"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="57"/>
-      <c r="H173" s="59"/>
+      <c r="B173" s="88"/>
+      <c r="C173" s="89"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="59"/>
+      <c r="G173" s="56"/>
+      <c r="H173" s="58"/>
     </row>
     <row r="174" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="89"/>
-      <c r="C174" s="90"/>
-      <c r="D174" s="56"/>
-      <c r="E174" s="56"/>
-      <c r="F174" s="53"/>
-      <c r="G174" s="58"/>
-      <c r="H174" s="58"/>
+      <c r="B174" s="90"/>
+      <c r="C174" s="91"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
     </row>
     <row r="175" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="87"/>
-      <c r="C175" s="88"/>
-      <c r="D175" s="55"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="60"/>
-      <c r="G175" s="57"/>
-      <c r="H175" s="59"/>
+      <c r="B175" s="88"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="54"/>
+      <c r="E175" s="54"/>
+      <c r="F175" s="59"/>
+      <c r="G175" s="56"/>
+      <c r="H175" s="58"/>
     </row>
     <row r="176" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="89"/>
-      <c r="C176" s="90"/>
-      <c r="D176" s="56"/>
-      <c r="E176" s="56"/>
-      <c r="F176" s="53"/>
-      <c r="G176" s="58"/>
-      <c r="H176" s="58"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="91"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="57"/>
+      <c r="H176" s="57"/>
     </row>
     <row r="177" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="87"/>
-      <c r="C177" s="88"/>
-      <c r="D177" s="55"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="60"/>
-      <c r="G177" s="57"/>
-      <c r="H177" s="59"/>
+      <c r="B177" s="88"/>
+      <c r="C177" s="89"/>
+      <c r="D177" s="54"/>
+      <c r="E177" s="54"/>
+      <c r="F177" s="59"/>
+      <c r="G177" s="56"/>
+      <c r="H177" s="58"/>
     </row>
     <row r="178" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="89"/>
-      <c r="C178" s="90"/>
-      <c r="D178" s="56"/>
-      <c r="E178" s="56"/>
-      <c r="F178" s="53"/>
-      <c r="G178" s="58"/>
-      <c r="H178" s="58"/>
+      <c r="B178" s="90"/>
+      <c r="C178" s="91"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="57"/>
+      <c r="H178" s="57"/>
     </row>
     <row r="179" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="87"/>
-      <c r="C179" s="88"/>
-      <c r="D179" s="55"/>
-      <c r="E179" s="55"/>
-      <c r="F179" s="60"/>
-      <c r="G179" s="57"/>
-      <c r="H179" s="59"/>
+      <c r="B179" s="88"/>
+      <c r="C179" s="89"/>
+      <c r="D179" s="54"/>
+      <c r="E179" s="54"/>
+      <c r="F179" s="59"/>
+      <c r="G179" s="56"/>
+      <c r="H179" s="58"/>
     </row>
     <row r="180" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="89"/>
-      <c r="C180" s="90"/>
-      <c r="D180" s="56"/>
-      <c r="E180" s="56"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="58"/>
-      <c r="H180" s="58"/>
+      <c r="B180" s="90"/>
+      <c r="C180" s="91"/>
+      <c r="D180" s="55"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
     </row>
     <row r="181" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="87"/>
-      <c r="C181" s="88"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="60"/>
-      <c r="G181" s="57"/>
-      <c r="H181" s="59"/>
+      <c r="B181" s="88"/>
+      <c r="C181" s="89"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="59"/>
+      <c r="G181" s="56"/>
+      <c r="H181" s="58"/>
     </row>
     <row r="182" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="89"/>
-      <c r="C182" s="90"/>
-      <c r="D182" s="56"/>
-      <c r="E182" s="56"/>
-      <c r="F182" s="53"/>
-      <c r="G182" s="58"/>
-      <c r="H182" s="58"/>
+      <c r="B182" s="90"/>
+      <c r="C182" s="91"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
     </row>
     <row r="183" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="87"/>
-      <c r="C183" s="88"/>
-      <c r="D183" s="55"/>
-      <c r="E183" s="55"/>
-      <c r="F183" s="60"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="59"/>
+      <c r="B183" s="88"/>
+      <c r="C183" s="89"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="56"/>
+      <c r="H183" s="58"/>
     </row>
     <row r="184" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="89"/>
-      <c r="C184" s="90"/>
-      <c r="D184" s="56"/>
-      <c r="E184" s="56"/>
-      <c r="F184" s="53"/>
-      <c r="G184" s="58"/>
-      <c r="H184" s="58"/>
+      <c r="B184" s="90"/>
+      <c r="C184" s="91"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
     </row>
     <row r="185" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="87"/>
-      <c r="C185" s="88"/>
-      <c r="D185" s="55"/>
-      <c r="E185" s="55"/>
-      <c r="F185" s="60"/>
-      <c r="G185" s="57"/>
-      <c r="H185" s="59"/>
+      <c r="B185" s="88"/>
+      <c r="C185" s="89"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="59"/>
+      <c r="G185" s="56"/>
+      <c r="H185" s="58"/>
     </row>
     <row r="186" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="89"/>
-      <c r="C186" s="90"/>
-      <c r="D186" s="56"/>
-      <c r="E186" s="56"/>
-      <c r="F186" s="53"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
+      <c r="B186" s="90"/>
+      <c r="C186" s="91"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="57"/>
+      <c r="H186" s="57"/>
     </row>
     <row r="187" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="87"/>
-      <c r="C187" s="88"/>
-      <c r="D187" s="55"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="60"/>
-      <c r="G187" s="57"/>
-      <c r="H187" s="59"/>
+      <c r="B187" s="88"/>
+      <c r="C187" s="89"/>
+      <c r="D187" s="54"/>
+      <c r="E187" s="54"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="56"/>
+      <c r="H187" s="58"/>
     </row>
     <row r="188" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="89"/>
-      <c r="C188" s="90"/>
-      <c r="D188" s="56"/>
-      <c r="E188" s="56"/>
-      <c r="F188" s="53"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
+      <c r="B188" s="90"/>
+      <c r="C188" s="91"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
     </row>
     <row r="189" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="87"/>
-      <c r="C189" s="88"/>
-      <c r="D189" s="55"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="57"/>
-      <c r="H189" s="59"/>
+      <c r="B189" s="88"/>
+      <c r="C189" s="89"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="54"/>
+      <c r="F189" s="59"/>
+      <c r="G189" s="56"/>
+      <c r="H189" s="58"/>
     </row>
     <row r="190" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="89"/>
-      <c r="C190" s="90"/>
-      <c r="D190" s="56"/>
-      <c r="E190" s="56"/>
-      <c r="F190" s="53"/>
-      <c r="G190" s="58"/>
-      <c r="H190" s="58"/>
+      <c r="B190" s="90"/>
+      <c r="C190" s="91"/>
+      <c r="D190" s="55"/>
+      <c r="E190" s="55"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="57"/>
+      <c r="H190" s="57"/>
     </row>
     <row r="191" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="87"/>
-      <c r="C191" s="88"/>
-      <c r="D191" s="55"/>
-      <c r="E191" s="55"/>
-      <c r="F191" s="60"/>
-      <c r="G191" s="57"/>
-      <c r="H191" s="59"/>
+      <c r="B191" s="88"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="54"/>
+      <c r="E191" s="54"/>
+      <c r="F191" s="59"/>
+      <c r="G191" s="56"/>
+      <c r="H191" s="58"/>
     </row>
     <row r="192" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="89"/>
-      <c r="C192" s="90"/>
-      <c r="D192" s="56"/>
-      <c r="E192" s="56"/>
-      <c r="F192" s="53"/>
-      <c r="G192" s="58"/>
-      <c r="H192" s="58"/>
+      <c r="B192" s="90"/>
+      <c r="C192" s="91"/>
+      <c r="D192" s="55"/>
+      <c r="E192" s="55"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="57"/>
+      <c r="H192" s="57"/>
     </row>
     <row r="193" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="87"/>
-      <c r="C193" s="88"/>
-      <c r="D193" s="55"/>
-      <c r="E193" s="55"/>
-      <c r="F193" s="60"/>
-      <c r="G193" s="57"/>
-      <c r="H193" s="59"/>
+      <c r="B193" s="88"/>
+      <c r="C193" s="89"/>
+      <c r="D193" s="54"/>
+      <c r="E193" s="54"/>
+      <c r="F193" s="59"/>
+      <c r="G193" s="56"/>
+      <c r="H193" s="58"/>
     </row>
     <row r="194" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="89"/>
-      <c r="C194" s="90"/>
-      <c r="D194" s="56"/>
-      <c r="E194" s="56"/>
-      <c r="F194" s="53"/>
-      <c r="G194" s="58"/>
-      <c r="H194" s="58"/>
+      <c r="B194" s="90"/>
+      <c r="C194" s="91"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="57"/>
+      <c r="H194" s="57"/>
     </row>
     <row r="195" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="87"/>
-      <c r="C195" s="88"/>
-      <c r="D195" s="55"/>
-      <c r="E195" s="55"/>
-      <c r="F195" s="60"/>
-      <c r="G195" s="57"/>
-      <c r="H195" s="59"/>
+      <c r="B195" s="88"/>
+      <c r="C195" s="89"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="59"/>
+      <c r="G195" s="56"/>
+      <c r="H195" s="58"/>
     </row>
     <row r="196" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="89"/>
-      <c r="C196" s="90"/>
-      <c r="D196" s="56"/>
-      <c r="E196" s="56"/>
-      <c r="F196" s="53"/>
-      <c r="G196" s="58"/>
-      <c r="H196" s="58"/>
+      <c r="B196" s="90"/>
+      <c r="C196" s="91"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
     </row>
     <row r="197" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="87"/>
-      <c r="C197" s="88"/>
-      <c r="D197" s="55"/>
-      <c r="E197" s="55"/>
-      <c r="F197" s="60"/>
-      <c r="G197" s="57"/>
-      <c r="H197" s="59"/>
+      <c r="B197" s="88"/>
+      <c r="C197" s="89"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="56"/>
+      <c r="H197" s="58"/>
     </row>
     <row r="198" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="89"/>
-      <c r="C198" s="90"/>
-      <c r="D198" s="56"/>
-      <c r="E198" s="56"/>
-      <c r="F198" s="53"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="58"/>
+      <c r="B198" s="90"/>
+      <c r="C198" s="91"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="57"/>
+      <c r="H198" s="57"/>
     </row>
     <row r="199" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="87"/>
-      <c r="C199" s="88"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="57"/>
-      <c r="H199" s="59"/>
+      <c r="B199" s="88"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="54"/>
+      <c r="E199" s="54"/>
+      <c r="F199" s="59"/>
+      <c r="G199" s="56"/>
+      <c r="H199" s="58"/>
     </row>
     <row r="200" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="89"/>
-      <c r="C200" s="90"/>
-      <c r="D200" s="56"/>
-      <c r="E200" s="56"/>
-      <c r="F200" s="53"/>
-      <c r="G200" s="58"/>
-      <c r="H200" s="58"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="91"/>
+      <c r="D200" s="55"/>
+      <c r="E200" s="55"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="57"/>
+      <c r="H200" s="57"/>
     </row>
     <row r="201" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="87"/>
-      <c r="C201" s="88"/>
-      <c r="D201" s="55"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="60"/>
-      <c r="G201" s="57"/>
-      <c r="H201" s="59"/>
+      <c r="B201" s="88"/>
+      <c r="C201" s="89"/>
+      <c r="D201" s="54"/>
+      <c r="E201" s="54"/>
+      <c r="F201" s="59"/>
+      <c r="G201" s="56"/>
+      <c r="H201" s="58"/>
     </row>
     <row r="202" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="89"/>
-      <c r="C202" s="90"/>
-      <c r="D202" s="56"/>
-      <c r="E202" s="56"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="58"/>
-      <c r="H202" s="58"/>
+      <c r="B202" s="90"/>
+      <c r="C202" s="91"/>
+      <c r="D202" s="55"/>
+      <c r="E202" s="55"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="57"/>
+      <c r="H202" s="57"/>
     </row>
     <row r="203" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="87"/>
-      <c r="C203" s="88"/>
-      <c r="D203" s="55"/>
-      <c r="E203" s="55"/>
-      <c r="F203" s="60"/>
-      <c r="G203" s="57"/>
-      <c r="H203" s="59"/>
+      <c r="B203" s="88"/>
+      <c r="C203" s="89"/>
+      <c r="D203" s="54"/>
+      <c r="E203" s="54"/>
+      <c r="F203" s="59"/>
+      <c r="G203" s="56"/>
+      <c r="H203" s="58"/>
     </row>
     <row r="204" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="89"/>
-      <c r="C204" s="90"/>
-      <c r="D204" s="56"/>
-      <c r="E204" s="56"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="58"/>
+      <c r="B204" s="90"/>
+      <c r="C204" s="91"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="57"/>
+      <c r="H204" s="57"/>
     </row>
     <row r="205" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="87"/>
-      <c r="C205" s="88"/>
-      <c r="D205" s="55"/>
-      <c r="E205" s="55"/>
-      <c r="F205" s="60"/>
-      <c r="G205" s="57"/>
-      <c r="H205" s="59"/>
+      <c r="B205" s="88"/>
+      <c r="C205" s="89"/>
+      <c r="D205" s="54"/>
+      <c r="E205" s="54"/>
+      <c r="F205" s="59"/>
+      <c r="G205" s="56"/>
+      <c r="H205" s="58"/>
     </row>
     <row r="206" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="89"/>
-      <c r="C206" s="90"/>
-      <c r="D206" s="56"/>
-      <c r="E206" s="56"/>
-      <c r="F206" s="53"/>
-      <c r="G206" s="58"/>
-      <c r="H206" s="58"/>
+      <c r="B206" s="90"/>
+      <c r="C206" s="91"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="57"/>
+      <c r="H206" s="57"/>
     </row>
     <row r="207" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="87"/>
-      <c r="C207" s="88"/>
-      <c r="D207" s="55"/>
-      <c r="E207" s="55"/>
-      <c r="F207" s="60"/>
-      <c r="G207" s="57"/>
-      <c r="H207" s="59"/>
+      <c r="B207" s="88"/>
+      <c r="C207" s="89"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="59"/>
+      <c r="G207" s="56"/>
+      <c r="H207" s="58"/>
     </row>
     <row r="208" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="89"/>
-      <c r="C208" s="90"/>
-      <c r="D208" s="56"/>
-      <c r="E208" s="56"/>
-      <c r="F208" s="53"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
+      <c r="B208" s="90"/>
+      <c r="C208" s="91"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="57"/>
+      <c r="H208" s="57"/>
     </row>
     <row r="209" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="87"/>
-      <c r="C209" s="88"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="60"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="59"/>
+      <c r="B209" s="88"/>
+      <c r="C209" s="89"/>
+      <c r="D209" s="54"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="59"/>
+      <c r="G209" s="56"/>
+      <c r="H209" s="58"/>
     </row>
     <row r="210" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="89"/>
-      <c r="C210" s="90"/>
-      <c r="D210" s="56"/>
-      <c r="E210" s="56"/>
-      <c r="F210" s="53"/>
-      <c r="G210" s="58"/>
-      <c r="H210" s="58"/>
+      <c r="B210" s="90"/>
+      <c r="C210" s="91"/>
+      <c r="D210" s="55"/>
+      <c r="E210" s="55"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="57"/>
+      <c r="H210" s="57"/>
     </row>
     <row r="211" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="87"/>
-      <c r="C211" s="88"/>
-      <c r="D211" s="55"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="60"/>
-      <c r="G211" s="57"/>
-      <c r="H211" s="59"/>
+      <c r="B211" s="88"/>
+      <c r="C211" s="89"/>
+      <c r="D211" s="54"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="59"/>
+      <c r="G211" s="56"/>
+      <c r="H211" s="58"/>
     </row>
     <row r="212" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="89"/>
-      <c r="C212" s="90"/>
-      <c r="D212" s="56"/>
-      <c r="E212" s="56"/>
-      <c r="F212" s="53"/>
-      <c r="G212" s="58"/>
-      <c r="H212" s="58"/>
+      <c r="B212" s="90"/>
+      <c r="C212" s="91"/>
+      <c r="D212" s="55"/>
+      <c r="E212" s="55"/>
+      <c r="F212" s="52"/>
+      <c r="G212" s="57"/>
+      <c r="H212" s="57"/>
     </row>
     <row r="213" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="87"/>
-      <c r="C213" s="88"/>
-      <c r="D213" s="55"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="60"/>
-      <c r="G213" s="57"/>
-      <c r="H213" s="59"/>
+      <c r="B213" s="88"/>
+      <c r="C213" s="89"/>
+      <c r="D213" s="54"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="59"/>
+      <c r="G213" s="56"/>
+      <c r="H213" s="58"/>
     </row>
     <row r="214" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="89"/>
-      <c r="C214" s="90"/>
-      <c r="D214" s="56"/>
-      <c r="E214" s="56"/>
-      <c r="F214" s="53"/>
-      <c r="G214" s="58"/>
-      <c r="H214" s="58"/>
+      <c r="B214" s="90"/>
+      <c r="C214" s="91"/>
+      <c r="D214" s="55"/>
+      <c r="E214" s="55"/>
+      <c r="F214" s="52"/>
+      <c r="G214" s="57"/>
+      <c r="H214" s="57"/>
     </row>
     <row r="215" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="87"/>
-      <c r="C215" s="88"/>
-      <c r="D215" s="55"/>
-      <c r="E215" s="55"/>
-      <c r="F215" s="60"/>
-      <c r="G215" s="57"/>
-      <c r="H215" s="59"/>
+      <c r="B215" s="88"/>
+      <c r="C215" s="89"/>
+      <c r="D215" s="54"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="59"/>
+      <c r="G215" s="56"/>
+      <c r="H215" s="58"/>
     </row>
     <row r="216" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="89"/>
-      <c r="C216" s="90"/>
-      <c r="D216" s="56"/>
-      <c r="E216" s="56"/>
-      <c r="F216" s="53"/>
-      <c r="G216" s="58"/>
-      <c r="H216" s="58"/>
+      <c r="B216" s="90"/>
+      <c r="C216" s="91"/>
+      <c r="D216" s="55"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="52"/>
+      <c r="G216" s="57"/>
+      <c r="H216" s="57"/>
     </row>
     <row r="217" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="87"/>
-      <c r="C217" s="88"/>
-      <c r="D217" s="55"/>
-      <c r="E217" s="55"/>
-      <c r="F217" s="60"/>
-      <c r="G217" s="57"/>
-      <c r="H217" s="59"/>
+      <c r="B217" s="88"/>
+      <c r="C217" s="89"/>
+      <c r="D217" s="54"/>
+      <c r="E217" s="54"/>
+      <c r="F217" s="59"/>
+      <c r="G217" s="56"/>
+      <c r="H217" s="58"/>
     </row>
     <row r="218" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="89"/>
-      <c r="C218" s="90"/>
-      <c r="D218" s="56"/>
-      <c r="E218" s="56"/>
-      <c r="F218" s="53"/>
-      <c r="G218" s="58"/>
-      <c r="H218" s="58"/>
+      <c r="B218" s="90"/>
+      <c r="C218" s="91"/>
+      <c r="D218" s="55"/>
+      <c r="E218" s="55"/>
+      <c r="F218" s="52"/>
+      <c r="G218" s="57"/>
+      <c r="H218" s="57"/>
     </row>
     <row r="219" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="87"/>
-      <c r="C219" s="88"/>
-      <c r="D219" s="55"/>
-      <c r="E219" s="55"/>
-      <c r="F219" s="60"/>
-      <c r="G219" s="57"/>
-      <c r="H219" s="59"/>
+      <c r="B219" s="88"/>
+      <c r="C219" s="89"/>
+      <c r="D219" s="54"/>
+      <c r="E219" s="54"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="56"/>
+      <c r="H219" s="58"/>
     </row>
     <row r="220" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="89"/>
-      <c r="C220" s="90"/>
-      <c r="D220" s="56"/>
-      <c r="E220" s="56"/>
-      <c r="F220" s="53"/>
-      <c r="G220" s="58"/>
-      <c r="H220" s="58"/>
+      <c r="B220" s="90"/>
+      <c r="C220" s="91"/>
+      <c r="D220" s="55"/>
+      <c r="E220" s="55"/>
+      <c r="F220" s="52"/>
+      <c r="G220" s="57"/>
+      <c r="H220" s="57"/>
     </row>
     <row r="221" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="87"/>
-      <c r="C221" s="88"/>
-      <c r="D221" s="55"/>
-      <c r="E221" s="55"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="57"/>
-      <c r="H221" s="59"/>
+      <c r="B221" s="88"/>
+      <c r="C221" s="89"/>
+      <c r="D221" s="54"/>
+      <c r="E221" s="54"/>
+      <c r="F221" s="59"/>
+      <c r="G221" s="56"/>
+      <c r="H221" s="58"/>
     </row>
     <row r="222" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="89"/>
-      <c r="C222" s="90"/>
-      <c r="D222" s="56"/>
-      <c r="E222" s="56"/>
-      <c r="F222" s="53"/>
-      <c r="G222" s="58"/>
-      <c r="H222" s="58"/>
+      <c r="B222" s="90"/>
+      <c r="C222" s="91"/>
+      <c r="D222" s="55"/>
+      <c r="E222" s="55"/>
+      <c r="F222" s="52"/>
+      <c r="G222" s="57"/>
+      <c r="H222" s="57"/>
     </row>
     <row r="223" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="87"/>
-      <c r="C223" s="88"/>
-      <c r="D223" s="55"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="60"/>
-      <c r="G223" s="57"/>
-      <c r="H223" s="59"/>
+      <c r="B223" s="88"/>
+      <c r="C223" s="89"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="59"/>
+      <c r="G223" s="56"/>
+      <c r="H223" s="58"/>
     </row>
     <row r="224" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="89"/>
-      <c r="C224" s="90"/>
-      <c r="D224" s="56"/>
-      <c r="E224" s="56"/>
-      <c r="F224" s="53"/>
-      <c r="G224" s="58"/>
-      <c r="H224" s="58"/>
+      <c r="B224" s="90"/>
+      <c r="C224" s="91"/>
+      <c r="D224" s="55"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="52"/>
+      <c r="G224" s="57"/>
+      <c r="H224" s="57"/>
     </row>
     <row r="225" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="87"/>
-      <c r="C225" s="88"/>
-      <c r="D225" s="55"/>
-      <c r="E225" s="55"/>
-      <c r="F225" s="60"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="59"/>
+      <c r="B225" s="88"/>
+      <c r="C225" s="89"/>
+      <c r="D225" s="54"/>
+      <c r="E225" s="54"/>
+      <c r="F225" s="59"/>
+      <c r="G225" s="56"/>
+      <c r="H225" s="58"/>
     </row>
     <row r="226" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="89"/>
-      <c r="C226" s="90"/>
-      <c r="D226" s="56"/>
-      <c r="E226" s="56"/>
-      <c r="F226" s="53"/>
-      <c r="G226" s="58"/>
-      <c r="H226" s="58"/>
+      <c r="B226" s="90"/>
+      <c r="C226" s="91"/>
+      <c r="D226" s="55"/>
+      <c r="E226" s="55"/>
+      <c r="F226" s="52"/>
+      <c r="G226" s="57"/>
+      <c r="H226" s="57"/>
     </row>
     <row r="227" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="87"/>
-      <c r="C227" s="88"/>
-      <c r="D227" s="55"/>
-      <c r="E227" s="55"/>
-      <c r="F227" s="60"/>
-      <c r="G227" s="57"/>
-      <c r="H227" s="59"/>
+      <c r="B227" s="88"/>
+      <c r="C227" s="89"/>
+      <c r="D227" s="54"/>
+      <c r="E227" s="54"/>
+      <c r="F227" s="59"/>
+      <c r="G227" s="56"/>
+      <c r="H227" s="58"/>
     </row>
     <row r="228" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="89"/>
-      <c r="C228" s="90"/>
-      <c r="D228" s="56"/>
-      <c r="E228" s="56"/>
-      <c r="F228" s="53"/>
-      <c r="G228" s="58"/>
-      <c r="H228" s="58"/>
+      <c r="B228" s="90"/>
+      <c r="C228" s="91"/>
+      <c r="D228" s="55"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="52"/>
+      <c r="G228" s="57"/>
+      <c r="H228" s="57"/>
     </row>
     <row r="229" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="87"/>
-      <c r="C229" s="88"/>
-      <c r="D229" s="55"/>
-      <c r="E229" s="55"/>
-      <c r="F229" s="60"/>
-      <c r="G229" s="57"/>
-      <c r="H229" s="59"/>
+      <c r="B229" s="88"/>
+      <c r="C229" s="89"/>
+      <c r="D229" s="54"/>
+      <c r="E229" s="54"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="56"/>
+      <c r="H229" s="58"/>
     </row>
     <row r="230" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="89"/>
-      <c r="C230" s="90"/>
-      <c r="D230" s="56"/>
-      <c r="E230" s="56"/>
-      <c r="F230" s="53"/>
-      <c r="G230" s="58"/>
-      <c r="H230" s="58"/>
+      <c r="B230" s="90"/>
+      <c r="C230" s="91"/>
+      <c r="D230" s="55"/>
+      <c r="E230" s="55"/>
+      <c r="F230" s="52"/>
+      <c r="G230" s="57"/>
+      <c r="H230" s="57"/>
     </row>
     <row r="231" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="87"/>
-      <c r="C231" s="88"/>
-      <c r="D231" s="55"/>
-      <c r="E231" s="55"/>
-      <c r="F231" s="60"/>
-      <c r="G231" s="57"/>
-      <c r="H231" s="59"/>
+      <c r="B231" s="88"/>
+      <c r="C231" s="89"/>
+      <c r="D231" s="54"/>
+      <c r="E231" s="54"/>
+      <c r="F231" s="59"/>
+      <c r="G231" s="56"/>
+      <c r="H231" s="58"/>
     </row>
     <row r="232" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="89"/>
-      <c r="C232" s="90"/>
-      <c r="D232" s="56"/>
-      <c r="E232" s="56"/>
-      <c r="F232" s="53"/>
-      <c r="G232" s="58"/>
-      <c r="H232" s="58"/>
+      <c r="B232" s="90"/>
+      <c r="C232" s="91"/>
+      <c r="D232" s="55"/>
+      <c r="E232" s="55"/>
+      <c r="F232" s="52"/>
+      <c r="G232" s="57"/>
+      <c r="H232" s="57"/>
     </row>
     <row r="233" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="87"/>
-      <c r="C233" s="88"/>
-      <c r="D233" s="55"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="60"/>
-      <c r="G233" s="57"/>
-      <c r="H233" s="59"/>
+      <c r="B233" s="88"/>
+      <c r="C233" s="89"/>
+      <c r="D233" s="54"/>
+      <c r="E233" s="54"/>
+      <c r="F233" s="59"/>
+      <c r="G233" s="56"/>
+      <c r="H233" s="58"/>
     </row>
     <row r="234" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="89"/>
-      <c r="C234" s="90"/>
-      <c r="D234" s="56"/>
-      <c r="E234" s="56"/>
-      <c r="F234" s="53"/>
-      <c r="G234" s="58"/>
-      <c r="H234" s="58"/>
+      <c r="B234" s="90"/>
+      <c r="C234" s="91"/>
+      <c r="D234" s="55"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="52"/>
+      <c r="G234" s="57"/>
+      <c r="H234" s="57"/>
     </row>
     <row r="235" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="87"/>
-      <c r="C235" s="88"/>
-      <c r="D235" s="55"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="60"/>
-      <c r="G235" s="57"/>
-      <c r="H235" s="59"/>
+      <c r="B235" s="88"/>
+      <c r="C235" s="89"/>
+      <c r="D235" s="54"/>
+      <c r="E235" s="54"/>
+      <c r="F235" s="59"/>
+      <c r="G235" s="56"/>
+      <c r="H235" s="58"/>
     </row>
     <row r="236" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="89"/>
-      <c r="C236" s="90"/>
-      <c r="D236" s="56"/>
-      <c r="E236" s="56"/>
-      <c r="F236" s="53"/>
-      <c r="G236" s="58"/>
-      <c r="H236" s="58"/>
+      <c r="B236" s="90"/>
+      <c r="C236" s="91"/>
+      <c r="D236" s="55"/>
+      <c r="E236" s="55"/>
+      <c r="F236" s="52"/>
+      <c r="G236" s="57"/>
+      <c r="H236" s="57"/>
     </row>
     <row r="237" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="87"/>
-      <c r="C237" s="88"/>
-      <c r="D237" s="55"/>
-      <c r="E237" s="55"/>
-      <c r="F237" s="60"/>
-      <c r="G237" s="57"/>
-      <c r="H237" s="59"/>
+      <c r="B237" s="88"/>
+      <c r="C237" s="89"/>
+      <c r="D237" s="54"/>
+      <c r="E237" s="54"/>
+      <c r="F237" s="59"/>
+      <c r="G237" s="56"/>
+      <c r="H237" s="58"/>
     </row>
     <row r="238" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="89"/>
-      <c r="C238" s="90"/>
-      <c r="D238" s="56"/>
-      <c r="E238" s="56"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="58"/>
-      <c r="H238" s="58"/>
+      <c r="B238" s="90"/>
+      <c r="C238" s="91"/>
+      <c r="D238" s="55"/>
+      <c r="E238" s="55"/>
+      <c r="F238" s="52"/>
+      <c r="G238" s="57"/>
+      <c r="H238" s="57"/>
     </row>
     <row r="239" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="87"/>
-      <c r="C239" s="88"/>
-      <c r="D239" s="55"/>
-      <c r="E239" s="55"/>
-      <c r="F239" s="60"/>
-      <c r="G239" s="57"/>
-      <c r="H239" s="59"/>
+      <c r="B239" s="88"/>
+      <c r="C239" s="89"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="59"/>
+      <c r="G239" s="56"/>
+      <c r="H239" s="58"/>
     </row>
     <row r="240" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="89"/>
-      <c r="C240" s="90"/>
-      <c r="D240" s="56"/>
-      <c r="E240" s="56"/>
-      <c r="F240" s="53"/>
-      <c r="G240" s="58"/>
-      <c r="H240" s="58"/>
+      <c r="B240" s="90"/>
+      <c r="C240" s="91"/>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="52"/>
+      <c r="G240" s="57"/>
+      <c r="H240" s="57"/>
     </row>
     <row r="241" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="87"/>
-      <c r="C241" s="88"/>
-      <c r="D241" s="55"/>
-      <c r="E241" s="55"/>
-      <c r="F241" s="60"/>
-      <c r="G241" s="57"/>
-      <c r="H241" s="59"/>
+      <c r="B241" s="88"/>
+      <c r="C241" s="89"/>
+      <c r="D241" s="54"/>
+      <c r="E241" s="54"/>
+      <c r="F241" s="59"/>
+      <c r="G241" s="56"/>
+      <c r="H241" s="58"/>
     </row>
     <row r="242" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="89"/>
-      <c r="C242" s="90"/>
-      <c r="D242" s="56"/>
-      <c r="E242" s="56"/>
-      <c r="F242" s="53"/>
-      <c r="G242" s="58"/>
-      <c r="H242" s="58"/>
+      <c r="B242" s="90"/>
+      <c r="C242" s="91"/>
+      <c r="D242" s="55"/>
+      <c r="E242" s="55"/>
+      <c r="F242" s="52"/>
+      <c r="G242" s="57"/>
+      <c r="H242" s="57"/>
     </row>
     <row r="243" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="87"/>
-      <c r="C243" s="88"/>
-      <c r="D243" s="55"/>
-      <c r="E243" s="55"/>
-      <c r="F243" s="60"/>
-      <c r="G243" s="57"/>
-      <c r="H243" s="59"/>
+      <c r="B243" s="88"/>
+      <c r="C243" s="89"/>
+      <c r="D243" s="54"/>
+      <c r="E243" s="54"/>
+      <c r="F243" s="59"/>
+      <c r="G243" s="56"/>
+      <c r="H243" s="58"/>
     </row>
     <row r="244" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="89"/>
-      <c r="C244" s="90"/>
-      <c r="D244" s="56"/>
-      <c r="E244" s="56"/>
-      <c r="F244" s="53"/>
-      <c r="G244" s="58"/>
-      <c r="H244" s="58"/>
+      <c r="B244" s="90"/>
+      <c r="C244" s="91"/>
+      <c r="D244" s="55"/>
+      <c r="E244" s="55"/>
+      <c r="F244" s="52"/>
+      <c r="G244" s="57"/>
+      <c r="H244" s="57"/>
     </row>
     <row r="245" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="87"/>
-      <c r="C245" s="88"/>
-      <c r="D245" s="55"/>
-      <c r="E245" s="55"/>
-      <c r="F245" s="60"/>
-      <c r="G245" s="57"/>
-      <c r="H245" s="59"/>
+      <c r="B245" s="88"/>
+      <c r="C245" s="89"/>
+      <c r="D245" s="54"/>
+      <c r="E245" s="54"/>
+      <c r="F245" s="59"/>
+      <c r="G245" s="56"/>
+      <c r="H245" s="58"/>
     </row>
     <row r="246" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="89"/>
-      <c r="C246" s="90"/>
-      <c r="D246" s="56"/>
-      <c r="E246" s="56"/>
-      <c r="F246" s="53"/>
-      <c r="G246" s="58"/>
-      <c r="H246" s="58"/>
+      <c r="B246" s="90"/>
+      <c r="C246" s="91"/>
+      <c r="D246" s="55"/>
+      <c r="E246" s="55"/>
+      <c r="F246" s="52"/>
+      <c r="G246" s="57"/>
+      <c r="H246" s="57"/>
     </row>
     <row r="247" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="87"/>
-      <c r="C247" s="88"/>
-      <c r="D247" s="55"/>
-      <c r="E247" s="55"/>
-      <c r="F247" s="60"/>
-      <c r="G247" s="57"/>
-      <c r="H247" s="59"/>
+      <c r="B247" s="88"/>
+      <c r="C247" s="89"/>
+      <c r="D247" s="54"/>
+      <c r="E247" s="54"/>
+      <c r="F247" s="59"/>
+      <c r="G247" s="56"/>
+      <c r="H247" s="58"/>
     </row>
     <row r="248" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="89"/>
-      <c r="C248" s="90"/>
-      <c r="D248" s="56"/>
-      <c r="E248" s="56"/>
-      <c r="F248" s="53"/>
-      <c r="G248" s="58"/>
-      <c r="H248" s="58"/>
+      <c r="B248" s="90"/>
+      <c r="C248" s="91"/>
+      <c r="D248" s="55"/>
+      <c r="E248" s="55"/>
+      <c r="F248" s="52"/>
+      <c r="G248" s="57"/>
+      <c r="H248" s="57"/>
     </row>
     <row r="249" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="87"/>
-      <c r="C249" s="88"/>
-      <c r="D249" s="55"/>
-      <c r="E249" s="55"/>
-      <c r="F249" s="60"/>
-      <c r="G249" s="57"/>
-      <c r="H249" s="59"/>
+      <c r="B249" s="88"/>
+      <c r="C249" s="89"/>
+      <c r="D249" s="54"/>
+      <c r="E249" s="54"/>
+      <c r="F249" s="59"/>
+      <c r="G249" s="56"/>
+      <c r="H249" s="58"/>
     </row>
     <row r="250" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="89"/>
-      <c r="C250" s="90"/>
-      <c r="D250" s="56"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="53"/>
-      <c r="G250" s="58"/>
-      <c r="H250" s="58"/>
+      <c r="B250" s="90"/>
+      <c r="C250" s="91"/>
+      <c r="D250" s="55"/>
+      <c r="E250" s="55"/>
+      <c r="F250" s="52"/>
+      <c r="G250" s="57"/>
+      <c r="H250" s="57"/>
     </row>
     <row r="251" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="87"/>
-      <c r="C251" s="88"/>
-      <c r="D251" s="55"/>
-      <c r="E251" s="55"/>
-      <c r="F251" s="60"/>
-      <c r="G251" s="57"/>
-      <c r="H251" s="59"/>
+      <c r="B251" s="88"/>
+      <c r="C251" s="89"/>
+      <c r="D251" s="54"/>
+      <c r="E251" s="54"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="56"/>
+      <c r="H251" s="58"/>
     </row>
     <row r="252" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="89"/>
-      <c r="C252" s="90"/>
-      <c r="D252" s="56"/>
-      <c r="E252" s="56"/>
-      <c r="F252" s="53"/>
-      <c r="G252" s="58"/>
-      <c r="H252" s="58"/>
+      <c r="B252" s="90"/>
+      <c r="C252" s="91"/>
+      <c r="D252" s="55"/>
+      <c r="E252" s="55"/>
+      <c r="F252" s="52"/>
+      <c r="G252" s="57"/>
+      <c r="H252" s="57"/>
     </row>
     <row r="253" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="87"/>
-      <c r="C253" s="88"/>
-      <c r="D253" s="55"/>
-      <c r="E253" s="55"/>
-      <c r="F253" s="60"/>
-      <c r="G253" s="57"/>
-      <c r="H253" s="59"/>
+      <c r="B253" s="88"/>
+      <c r="C253" s="89"/>
+      <c r="D253" s="54"/>
+      <c r="E253" s="54"/>
+      <c r="F253" s="59"/>
+      <c r="G253" s="56"/>
+      <c r="H253" s="58"/>
     </row>
     <row r="254" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="89"/>
-      <c r="C254" s="90"/>
-      <c r="D254" s="56"/>
-      <c r="E254" s="56"/>
-      <c r="F254" s="53"/>
-      <c r="G254" s="58"/>
-      <c r="H254" s="58"/>
+      <c r="B254" s="90"/>
+      <c r="C254" s="91"/>
+      <c r="D254" s="55"/>
+      <c r="E254" s="55"/>
+      <c r="F254" s="52"/>
+      <c r="G254" s="57"/>
+      <c r="H254" s="57"/>
     </row>
     <row r="255" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="87"/>
-      <c r="C255" s="88"/>
-      <c r="D255" s="55"/>
-      <c r="E255" s="55"/>
-      <c r="F255" s="60"/>
-      <c r="G255" s="57"/>
-      <c r="H255" s="59"/>
+      <c r="B255" s="88"/>
+      <c r="C255" s="89"/>
+      <c r="D255" s="54"/>
+      <c r="E255" s="54"/>
+      <c r="F255" s="59"/>
+      <c r="G255" s="56"/>
+      <c r="H255" s="58"/>
     </row>
     <row r="256" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="89"/>
-      <c r="C256" s="90"/>
-      <c r="D256" s="56"/>
-      <c r="E256" s="56"/>
-      <c r="F256" s="53"/>
-      <c r="G256" s="58"/>
-      <c r="H256" s="58"/>
+      <c r="B256" s="90"/>
+      <c r="C256" s="91"/>
+      <c r="D256" s="55"/>
+      <c r="E256" s="55"/>
+      <c r="F256" s="52"/>
+      <c r="G256" s="57"/>
+      <c r="H256" s="57"/>
     </row>
     <row r="257" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="87"/>
-      <c r="C257" s="88"/>
-      <c r="D257" s="55"/>
-      <c r="E257" s="55"/>
-      <c r="F257" s="60"/>
-      <c r="G257" s="57"/>
-      <c r="H257" s="59"/>
+      <c r="B257" s="88"/>
+      <c r="C257" s="89"/>
+      <c r="D257" s="54"/>
+      <c r="E257" s="54"/>
+      <c r="F257" s="59"/>
+      <c r="G257" s="56"/>
+      <c r="H257" s="58"/>
     </row>
     <row r="258" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="89"/>
-      <c r="C258" s="90"/>
-      <c r="D258" s="56"/>
-      <c r="E258" s="56"/>
-      <c r="F258" s="53"/>
-      <c r="G258" s="58"/>
-      <c r="H258" s="58"/>
+      <c r="B258" s="90"/>
+      <c r="C258" s="91"/>
+      <c r="D258" s="55"/>
+      <c r="E258" s="55"/>
+      <c r="F258" s="52"/>
+      <c r="G258" s="57"/>
+      <c r="H258" s="57"/>
     </row>
     <row r="259" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="87"/>
-      <c r="C259" s="88"/>
-      <c r="D259" s="55"/>
-      <c r="E259" s="55"/>
-      <c r="F259" s="60"/>
-      <c r="G259" s="57"/>
-      <c r="H259" s="59"/>
+      <c r="B259" s="88"/>
+      <c r="C259" s="89"/>
+      <c r="D259" s="54"/>
+      <c r="E259" s="54"/>
+      <c r="F259" s="59"/>
+      <c r="G259" s="56"/>
+      <c r="H259" s="58"/>
     </row>
     <row r="260" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="89"/>
-      <c r="C260" s="90"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="56"/>
-      <c r="F260" s="53"/>
-      <c r="G260" s="58"/>
-      <c r="H260" s="58"/>
+      <c r="B260" s="90"/>
+      <c r="C260" s="91"/>
+      <c r="D260" s="55"/>
+      <c r="E260" s="55"/>
+      <c r="F260" s="52"/>
+      <c r="G260" s="57"/>
+      <c r="H260" s="57"/>
     </row>
     <row r="261" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="87"/>
-      <c r="C261" s="88"/>
-      <c r="D261" s="55"/>
-      <c r="E261" s="55"/>
-      <c r="F261" s="60"/>
-      <c r="G261" s="57"/>
-      <c r="H261" s="59"/>
+      <c r="B261" s="88"/>
+      <c r="C261" s="89"/>
+      <c r="D261" s="54"/>
+      <c r="E261" s="54"/>
+      <c r="F261" s="59"/>
+      <c r="G261" s="56"/>
+      <c r="H261" s="58"/>
     </row>
     <row r="262" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="89"/>
-      <c r="C262" s="90"/>
-      <c r="D262" s="56"/>
-      <c r="E262" s="56"/>
-      <c r="F262" s="53"/>
-      <c r="G262" s="58"/>
-      <c r="H262" s="58"/>
+      <c r="B262" s="90"/>
+      <c r="C262" s="91"/>
+      <c r="D262" s="55"/>
+      <c r="E262" s="55"/>
+      <c r="F262" s="52"/>
+      <c r="G262" s="57"/>
+      <c r="H262" s="57"/>
     </row>
     <row r="263" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="87"/>
-      <c r="C263" s="88"/>
-      <c r="D263" s="55"/>
-      <c r="E263" s="55"/>
-      <c r="F263" s="60"/>
-      <c r="G263" s="57"/>
-      <c r="H263" s="59"/>
+      <c r="B263" s="88"/>
+      <c r="C263" s="89"/>
+      <c r="D263" s="54"/>
+      <c r="E263" s="54"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="56"/>
+      <c r="H263" s="58"/>
     </row>
     <row r="264" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="89"/>
-      <c r="C264" s="90"/>
-      <c r="D264" s="56"/>
-      <c r="E264" s="56"/>
-      <c r="F264" s="53"/>
-      <c r="G264" s="58"/>
-      <c r="H264" s="58"/>
+      <c r="B264" s="90"/>
+      <c r="C264" s="91"/>
+      <c r="D264" s="55"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="52"/>
+      <c r="G264" s="57"/>
+      <c r="H264" s="57"/>
     </row>
     <row r="265" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="87"/>
-      <c r="C265" s="88"/>
-      <c r="D265" s="55"/>
-      <c r="E265" s="55"/>
-      <c r="F265" s="60"/>
-      <c r="G265" s="57"/>
-      <c r="H265" s="59"/>
+      <c r="B265" s="88"/>
+      <c r="C265" s="89"/>
+      <c r="D265" s="54"/>
+      <c r="E265" s="54"/>
+      <c r="F265" s="59"/>
+      <c r="G265" s="56"/>
+      <c r="H265" s="58"/>
     </row>
     <row r="266" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="89"/>
-      <c r="C266" s="90"/>
-      <c r="D266" s="56"/>
-      <c r="E266" s="56"/>
-      <c r="F266" s="53"/>
-      <c r="G266" s="58"/>
-      <c r="H266" s="58"/>
+      <c r="B266" s="90"/>
+      <c r="C266" s="91"/>
+      <c r="D266" s="55"/>
+      <c r="E266" s="55"/>
+      <c r="F266" s="52"/>
+      <c r="G266" s="57"/>
+      <c r="H266" s="57"/>
     </row>
     <row r="267" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="87"/>
-      <c r="C267" s="88"/>
-      <c r="D267" s="55"/>
-      <c r="E267" s="55"/>
-      <c r="F267" s="60"/>
-      <c r="G267" s="57"/>
-      <c r="H267" s="59"/>
+      <c r="B267" s="88"/>
+      <c r="C267" s="89"/>
+      <c r="D267" s="54"/>
+      <c r="E267" s="54"/>
+      <c r="F267" s="59"/>
+      <c r="G267" s="56"/>
+      <c r="H267" s="58"/>
     </row>
     <row r="268" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="89"/>
-      <c r="C268" s="90"/>
-      <c r="D268" s="56"/>
-      <c r="E268" s="56"/>
-      <c r="F268" s="53"/>
-      <c r="G268" s="58"/>
-      <c r="H268" s="58"/>
+      <c r="B268" s="90"/>
+      <c r="C268" s="91"/>
+      <c r="D268" s="55"/>
+      <c r="E268" s="55"/>
+      <c r="F268" s="52"/>
+      <c r="G268" s="57"/>
+      <c r="H268" s="57"/>
     </row>
     <row r="269" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="87"/>
-      <c r="C269" s="88"/>
-      <c r="D269" s="55"/>
-      <c r="E269" s="55"/>
-      <c r="F269" s="60"/>
-      <c r="G269" s="57"/>
-      <c r="H269" s="59"/>
+      <c r="B269" s="88"/>
+      <c r="C269" s="89"/>
+      <c r="D269" s="54"/>
+      <c r="E269" s="54"/>
+      <c r="F269" s="59"/>
+      <c r="G269" s="56"/>
+      <c r="H269" s="58"/>
     </row>
     <row r="270" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="89"/>
-      <c r="C270" s="90"/>
-      <c r="D270" s="56"/>
-      <c r="E270" s="56"/>
-      <c r="F270" s="53"/>
-      <c r="G270" s="58"/>
-      <c r="H270" s="58"/>
+      <c r="B270" s="90"/>
+      <c r="C270" s="91"/>
+      <c r="D270" s="55"/>
+      <c r="E270" s="55"/>
+      <c r="F270" s="52"/>
+      <c r="G270" s="57"/>
+      <c r="H270" s="57"/>
     </row>
     <row r="271" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="87"/>
-      <c r="C271" s="88"/>
-      <c r="D271" s="55"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="60"/>
-      <c r="G271" s="57"/>
-      <c r="H271" s="59"/>
+      <c r="B271" s="88"/>
+      <c r="C271" s="89"/>
+      <c r="D271" s="54"/>
+      <c r="E271" s="54"/>
+      <c r="F271" s="59"/>
+      <c r="G271" s="56"/>
+      <c r="H271" s="58"/>
     </row>
     <row r="272" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="89"/>
-      <c r="C272" s="90"/>
-      <c r="D272" s="56"/>
-      <c r="E272" s="56"/>
-      <c r="F272" s="53"/>
-      <c r="G272" s="58"/>
-      <c r="H272" s="58"/>
+      <c r="B272" s="90"/>
+      <c r="C272" s="91"/>
+      <c r="D272" s="55"/>
+      <c r="E272" s="55"/>
+      <c r="F272" s="52"/>
+      <c r="G272" s="57"/>
+      <c r="H272" s="57"/>
     </row>
     <row r="273" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="87"/>
-      <c r="C273" s="88"/>
-      <c r="D273" s="55"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="60"/>
-      <c r="G273" s="57"/>
-      <c r="H273" s="59"/>
+      <c r="B273" s="88"/>
+      <c r="C273" s="89"/>
+      <c r="D273" s="54"/>
+      <c r="E273" s="54"/>
+      <c r="F273" s="59"/>
+      <c r="G273" s="56"/>
+      <c r="H273" s="58"/>
     </row>
     <row r="274" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="89"/>
-      <c r="C274" s="90"/>
-      <c r="D274" s="56"/>
-      <c r="E274" s="56"/>
-      <c r="F274" s="53"/>
-      <c r="G274" s="58"/>
-      <c r="H274" s="58"/>
+      <c r="B274" s="90"/>
+      <c r="C274" s="91"/>
+      <c r="D274" s="55"/>
+      <c r="E274" s="55"/>
+      <c r="F274" s="52"/>
+      <c r="G274" s="57"/>
+      <c r="H274" s="57"/>
     </row>
     <row r="275" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="87"/>
-      <c r="C275" s="88"/>
-      <c r="D275" s="55"/>
-      <c r="E275" s="55"/>
-      <c r="F275" s="60"/>
-      <c r="G275" s="57"/>
-      <c r="H275" s="59"/>
+      <c r="B275" s="88"/>
+      <c r="C275" s="89"/>
+      <c r="D275" s="54"/>
+      <c r="E275" s="54"/>
+      <c r="F275" s="59"/>
+      <c r="G275" s="56"/>
+      <c r="H275" s="58"/>
     </row>
     <row r="276" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="89"/>
-      <c r="C276" s="90"/>
-      <c r="D276" s="56"/>
-      <c r="E276" s="56"/>
-      <c r="F276" s="53"/>
-      <c r="G276" s="58"/>
-      <c r="H276" s="58"/>
+      <c r="B276" s="90"/>
+      <c r="C276" s="91"/>
+      <c r="D276" s="55"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="52"/>
+      <c r="G276" s="57"/>
+      <c r="H276" s="57"/>
     </row>
     <row r="277" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="87"/>
-      <c r="C277" s="88"/>
-      <c r="D277" s="55"/>
-      <c r="E277" s="55"/>
-      <c r="F277" s="60"/>
-      <c r="G277" s="57"/>
-      <c r="H277" s="59"/>
+      <c r="B277" s="88"/>
+      <c r="C277" s="89"/>
+      <c r="D277" s="54"/>
+      <c r="E277" s="54"/>
+      <c r="F277" s="59"/>
+      <c r="G277" s="56"/>
+      <c r="H277" s="58"/>
     </row>
     <row r="278" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="89"/>
-      <c r="C278" s="90"/>
-      <c r="D278" s="56"/>
-      <c r="E278" s="56"/>
-      <c r="F278" s="53"/>
-      <c r="G278" s="58"/>
-      <c r="H278" s="58"/>
+      <c r="B278" s="90"/>
+      <c r="C278" s="91"/>
+      <c r="D278" s="55"/>
+      <c r="E278" s="55"/>
+      <c r="F278" s="52"/>
+      <c r="G278" s="57"/>
+      <c r="H278" s="57"/>
     </row>
     <row r="279" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="87"/>
-      <c r="C279" s="88"/>
-      <c r="D279" s="55"/>
-      <c r="E279" s="55"/>
-      <c r="F279" s="60"/>
-      <c r="G279" s="57"/>
-      <c r="H279" s="59"/>
+      <c r="B279" s="88"/>
+      <c r="C279" s="89"/>
+      <c r="D279" s="54"/>
+      <c r="E279" s="54"/>
+      <c r="F279" s="59"/>
+      <c r="G279" s="56"/>
+      <c r="H279" s="58"/>
     </row>
     <row r="280" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="89"/>
-      <c r="C280" s="90"/>
-      <c r="D280" s="56"/>
-      <c r="E280" s="56"/>
-      <c r="F280" s="53"/>
-      <c r="G280" s="58"/>
-      <c r="H280" s="58"/>
+      <c r="B280" s="90"/>
+      <c r="C280" s="91"/>
+      <c r="D280" s="55"/>
+      <c r="E280" s="55"/>
+      <c r="F280" s="52"/>
+      <c r="G280" s="57"/>
+      <c r="H280" s="57"/>
     </row>
     <row r="281" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="87"/>
-      <c r="C281" s="88"/>
-      <c r="D281" s="55"/>
-      <c r="E281" s="55"/>
-      <c r="F281" s="60"/>
-      <c r="G281" s="57"/>
-      <c r="H281" s="59"/>
+      <c r="B281" s="88"/>
+      <c r="C281" s="89"/>
+      <c r="D281" s="54"/>
+      <c r="E281" s="54"/>
+      <c r="F281" s="59"/>
+      <c r="G281" s="56"/>
+      <c r="H281" s="58"/>
     </row>
     <row r="282" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="89"/>
-      <c r="C282" s="90"/>
-      <c r="D282" s="56"/>
-      <c r="E282" s="56"/>
-      <c r="F282" s="53"/>
-      <c r="G282" s="58"/>
-      <c r="H282" s="58"/>
+      <c r="B282" s="90"/>
+      <c r="C282" s="91"/>
+      <c r="D282" s="55"/>
+      <c r="E282" s="55"/>
+      <c r="F282" s="52"/>
+      <c r="G282" s="57"/>
+      <c r="H282" s="57"/>
     </row>
     <row r="283" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="87"/>
-      <c r="C283" s="88"/>
-      <c r="D283" s="55"/>
-      <c r="E283" s="55"/>
-      <c r="F283" s="60"/>
-      <c r="G283" s="57"/>
-      <c r="H283" s="59"/>
+      <c r="B283" s="88"/>
+      <c r="C283" s="89"/>
+      <c r="D283" s="54"/>
+      <c r="E283" s="54"/>
+      <c r="F283" s="59"/>
+      <c r="G283" s="56"/>
+      <c r="H283" s="58"/>
     </row>
     <row r="284" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="89"/>
-      <c r="C284" s="90"/>
-      <c r="D284" s="56"/>
-      <c r="E284" s="56"/>
-      <c r="F284" s="53"/>
-      <c r="G284" s="58"/>
-      <c r="H284" s="58"/>
+      <c r="B284" s="90"/>
+      <c r="C284" s="91"/>
+      <c r="D284" s="55"/>
+      <c r="E284" s="55"/>
+      <c r="F284" s="52"/>
+      <c r="G284" s="57"/>
+      <c r="H284" s="57"/>
     </row>
     <row r="285" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="87"/>
-      <c r="C285" s="88"/>
-      <c r="D285" s="55"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="60"/>
-      <c r="G285" s="57"/>
-      <c r="H285" s="59"/>
+      <c r="B285" s="88"/>
+      <c r="C285" s="89"/>
+      <c r="D285" s="54"/>
+      <c r="E285" s="54"/>
+      <c r="F285" s="59"/>
+      <c r="G285" s="56"/>
+      <c r="H285" s="58"/>
     </row>
     <row r="286" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="89"/>
-      <c r="C286" s="90"/>
-      <c r="D286" s="56"/>
-      <c r="E286" s="56"/>
-      <c r="F286" s="53"/>
-      <c r="G286" s="58"/>
-      <c r="H286" s="58"/>
+      <c r="B286" s="90"/>
+      <c r="C286" s="91"/>
+      <c r="D286" s="55"/>
+      <c r="E286" s="55"/>
+      <c r="F286" s="52"/>
+      <c r="G286" s="57"/>
+      <c r="H286" s="57"/>
     </row>
     <row r="287" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="87"/>
-      <c r="C287" s="88"/>
-      <c r="D287" s="55"/>
-      <c r="E287" s="55"/>
-      <c r="F287" s="60"/>
-      <c r="G287" s="57"/>
-      <c r="H287" s="59"/>
+      <c r="B287" s="88"/>
+      <c r="C287" s="89"/>
+      <c r="D287" s="54"/>
+      <c r="E287" s="54"/>
+      <c r="F287" s="59"/>
+      <c r="G287" s="56"/>
+      <c r="H287" s="58"/>
     </row>
     <row r="288" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="89"/>
-      <c r="C288" s="90"/>
-      <c r="D288" s="56"/>
-      <c r="E288" s="56"/>
-      <c r="F288" s="53"/>
-      <c r="G288" s="58"/>
-      <c r="H288" s="58"/>
+      <c r="B288" s="90"/>
+      <c r="C288" s="91"/>
+      <c r="D288" s="55"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="52"/>
+      <c r="G288" s="57"/>
+      <c r="H288" s="57"/>
     </row>
     <row r="289" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="87"/>
-      <c r="C289" s="88"/>
-      <c r="D289" s="55"/>
-      <c r="E289" s="55"/>
-      <c r="F289" s="60"/>
-      <c r="G289" s="57"/>
-      <c r="H289" s="59"/>
+      <c r="B289" s="88"/>
+      <c r="C289" s="89"/>
+      <c r="D289" s="54"/>
+      <c r="E289" s="54"/>
+      <c r="F289" s="59"/>
+      <c r="G289" s="56"/>
+      <c r="H289" s="58"/>
     </row>
     <row r="290" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="89"/>
-      <c r="C290" s="90"/>
-      <c r="D290" s="56"/>
-      <c r="E290" s="56"/>
-      <c r="F290" s="53"/>
-      <c r="G290" s="58"/>
-      <c r="H290" s="58"/>
+      <c r="B290" s="90"/>
+      <c r="C290" s="91"/>
+      <c r="D290" s="55"/>
+      <c r="E290" s="55"/>
+      <c r="F290" s="52"/>
+      <c r="G290" s="57"/>
+      <c r="H290" s="57"/>
     </row>
     <row r="291" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="87"/>
-      <c r="C291" s="88"/>
-      <c r="D291" s="55"/>
-      <c r="E291" s="55"/>
-      <c r="F291" s="60"/>
-      <c r="G291" s="57"/>
-      <c r="H291" s="59"/>
+      <c r="B291" s="88"/>
+      <c r="C291" s="89"/>
+      <c r="D291" s="54"/>
+      <c r="E291" s="54"/>
+      <c r="F291" s="59"/>
+      <c r="G291" s="56"/>
+      <c r="H291" s="58"/>
     </row>
     <row r="292" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="89"/>
-      <c r="C292" s="90"/>
-      <c r="D292" s="56"/>
-      <c r="E292" s="56"/>
-      <c r="F292" s="53"/>
-      <c r="G292" s="58"/>
-      <c r="H292" s="58"/>
+      <c r="B292" s="90"/>
+      <c r="C292" s="91"/>
+      <c r="D292" s="55"/>
+      <c r="E292" s="55"/>
+      <c r="F292" s="52"/>
+      <c r="G292" s="57"/>
+      <c r="H292" s="57"/>
     </row>
     <row r="293" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="87"/>
-      <c r="C293" s="88"/>
-      <c r="D293" s="55"/>
-      <c r="E293" s="55"/>
-      <c r="F293" s="60"/>
-      <c r="G293" s="57"/>
-      <c r="H293" s="59"/>
+      <c r="B293" s="88"/>
+      <c r="C293" s="89"/>
+      <c r="D293" s="54"/>
+      <c r="E293" s="54"/>
+      <c r="F293" s="59"/>
+      <c r="G293" s="56"/>
+      <c r="H293" s="58"/>
     </row>
     <row r="294" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="89"/>
-      <c r="C294" s="90"/>
-      <c r="D294" s="56"/>
-      <c r="E294" s="56"/>
-      <c r="F294" s="53"/>
-      <c r="G294" s="58"/>
-      <c r="H294" s="58"/>
+      <c r="B294" s="90"/>
+      <c r="C294" s="91"/>
+      <c r="D294" s="55"/>
+      <c r="E294" s="55"/>
+      <c r="F294" s="52"/>
+      <c r="G294" s="57"/>
+      <c r="H294" s="57"/>
     </row>
     <row r="295" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="87"/>
-      <c r="C295" s="88"/>
-      <c r="D295" s="55"/>
-      <c r="E295" s="55"/>
-      <c r="F295" s="60"/>
-      <c r="G295" s="57"/>
-      <c r="H295" s="59"/>
+      <c r="B295" s="88"/>
+      <c r="C295" s="89"/>
+      <c r="D295" s="54"/>
+      <c r="E295" s="54"/>
+      <c r="F295" s="59"/>
+      <c r="G295" s="56"/>
+      <c r="H295" s="58"/>
     </row>
     <row r="296" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="89"/>
-      <c r="C296" s="90"/>
-      <c r="D296" s="56"/>
-      <c r="E296" s="56"/>
-      <c r="F296" s="53"/>
-      <c r="G296" s="58"/>
-      <c r="H296" s="58"/>
+      <c r="B296" s="90"/>
+      <c r="C296" s="91"/>
+      <c r="D296" s="55"/>
+      <c r="E296" s="55"/>
+      <c r="F296" s="52"/>
+      <c r="G296" s="57"/>
+      <c r="H296" s="57"/>
     </row>
     <row r="297" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="87"/>
-      <c r="C297" s="88"/>
-      <c r="D297" s="55"/>
-      <c r="E297" s="55"/>
-      <c r="F297" s="60"/>
-      <c r="G297" s="57"/>
-      <c r="H297" s="59"/>
+      <c r="B297" s="88"/>
+      <c r="C297" s="89"/>
+      <c r="D297" s="54"/>
+      <c r="E297" s="54"/>
+      <c r="F297" s="59"/>
+      <c r="G297" s="56"/>
+      <c r="H297" s="58"/>
     </row>
     <row r="298" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="89"/>
-      <c r="C298" s="90"/>
-      <c r="D298" s="56"/>
-      <c r="E298" s="56"/>
-      <c r="F298" s="53"/>
-      <c r="G298" s="58"/>
-      <c r="H298" s="58"/>
+      <c r="B298" s="90"/>
+      <c r="C298" s="91"/>
+      <c r="D298" s="55"/>
+      <c r="E298" s="55"/>
+      <c r="F298" s="52"/>
+      <c r="G298" s="57"/>
+      <c r="H298" s="57"/>
     </row>
     <row r="299" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="87"/>
-      <c r="C299" s="88"/>
-      <c r="D299" s="55"/>
-      <c r="E299" s="55"/>
-      <c r="F299" s="60"/>
-      <c r="G299" s="57"/>
-      <c r="H299" s="59"/>
+      <c r="B299" s="88"/>
+      <c r="C299" s="89"/>
+      <c r="D299" s="54"/>
+      <c r="E299" s="54"/>
+      <c r="F299" s="59"/>
+      <c r="G299" s="56"/>
+      <c r="H299" s="58"/>
     </row>
     <row r="300" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="89"/>
-      <c r="C300" s="90"/>
-      <c r="D300" s="56"/>
-      <c r="E300" s="56"/>
-      <c r="F300" s="53"/>
-      <c r="G300" s="58"/>
-      <c r="H300" s="58"/>
+      <c r="B300" s="90"/>
+      <c r="C300" s="91"/>
+      <c r="D300" s="55"/>
+      <c r="E300" s="55"/>
+      <c r="F300" s="52"/>
+      <c r="G300" s="57"/>
+      <c r="H300" s="57"/>
     </row>
   </sheetData>
   <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
@@ -52032,12 +52029,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="82">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="83"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
@@ -52091,11 +52088,11 @@
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="52"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="17"/>
       <c r="G11" s="3"/>
     </row>
@@ -52105,7 +52102,7 @@
       <c r="B14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -52113,11 +52110,11 @@
       <c r="B16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="61"/>
       <c r="D16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="62"/>
       <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
@@ -52128,10 +52125,10 @@
     </row>
     <row r="21" spans="2:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="62"/>
+      <c r="C22" s="61"/>
       <c r="D22" s="17"/>
     </row>
     <row r="23" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -52139,7 +52136,7 @@
       <c r="B24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="62"/>
+      <c r="C24" s="61"/>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -52147,7 +52144,7 @@
       <c r="B26" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="62"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>Projektleiter</t>
-  </si>
-  <si>
-    <t>Ergebnisse</t>
   </si>
   <si>
     <t xml:space="preserve">Projekt Name </t>
@@ -166,9 +163,6 @@
     <t>Ampel</t>
   </si>
   <si>
-    <t>Maßnahmen</t>
-  </si>
-  <si>
     <t>Budget in T€</t>
   </si>
   <si>
@@ -200,12 +194,6 @@
   </si>
   <si>
     <t>Tester</t>
-  </si>
-  <si>
-    <t>StartDatum</t>
-  </si>
-  <si>
-    <t>EndeDatum</t>
   </si>
   <si>
     <t>Project-Vorlagen</t>
@@ -284,6 +272,18 @@
   </si>
   <si>
     <t xml:space="preserve">  Zeitleiste</t>
+  </si>
+  <si>
+    <t>Lieferumfänge</t>
+  </si>
+  <si>
+    <t>Ende-Datum</t>
+  </si>
+  <si>
+    <t>Start-Datum</t>
+  </si>
+  <si>
+    <t>Termine</t>
   </si>
 </sst>
 </file>
@@ -1459,7 +1459,7 @@
     </row>
     <row r="2" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="67"/>
       <c r="D2" s="68"/>
@@ -1470,7 +1470,7 @@
     <row r="3" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -1485,7 +1485,7 @@
     </row>
     <row r="6" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="21">
         <v>2958465</v>
@@ -1515,7 +1515,7 @@
     <row r="11" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="24"/>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="21" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="30"/>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="23" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="70"/>
       <c r="D23" s="71"/>
@@ -1897,7 +1897,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GI250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="2" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="81">
         <f>Projekt_Name</f>
@@ -1949,7 +1949,7 @@
     </row>
     <row r="4" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11">
         <f>StartDatum</f>
@@ -1973,7 +1973,7 @@
     <row r="6" spans="1:191" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11">
         <f>EndeDatum</f>
@@ -1989,7 +1989,7 @@
     </row>
     <row r="8" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -1999,7 +1999,7 @@
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="83" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C10" s="84"/>
       <c r="D10" s="37"/>
@@ -48882,8 +48882,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:M300"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48892,7 +48892,8 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="10" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="94.85546875" customWidth="1"/>
+    <col min="8" max="10" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -48913,7 +48914,7 @@
     <row r="2" spans="1:13" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="81">
         <f>Projekt_Name</f>
@@ -48948,7 +48949,7 @@
     <row r="4" spans="1:13" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11">
         <f>StartDatum</f>
@@ -48983,7 +48984,7 @@
     <row r="6" spans="1:13" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11">
         <f>EndeDatum</f>
@@ -49018,7 +49019,7 @@
     <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -49049,23 +49050,23 @@
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="91" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="54" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -52030,7 +52031,7 @@
     <row r="1" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="81">
         <f>Projekt_Name</f>
@@ -52046,7 +52047,7 @@
     <row r="3" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="18">
         <f>StartDatum</f>
@@ -52063,7 +52064,7 @@
     </row>
     <row r="6" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="18">
         <f>EndeDatum</f>
@@ -52083,17 +52084,17 @@
     </row>
     <row r="9" spans="2:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="52"/>
       <c r="F11" s="17"/>
@@ -52103,7 +52104,7 @@
     <row r="13" spans="2:9" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="17"/>
@@ -52111,11 +52112,11 @@
     <row r="15" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:9" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="63"/>
       <c r="G16" s="20"/>
@@ -52123,13 +52124,13 @@
     <row r="17" spans="2:4" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C22" s="62"/>
       <c r="D22" s="17"/>
@@ -52137,7 +52138,7 @@
     <row r="23" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="62"/>
       <c r="D24" s="17"/>
@@ -52145,7 +52146,7 @@
     <row r="25" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="2:4" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="62"/>
       <c r="D26" s="17"/>
@@ -52208,196 +52209,196 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="36"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="44"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="47"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="45"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="36"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="36"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="44"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="44"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="32"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="46"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="45"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="43"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="44"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="43"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>57</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>56</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>55</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>26</v>
       </c>
-      <c r="B9" s="36"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>54</v>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
       </c>
-      <c r="B10" s="44"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="47"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="36"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="36"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="44"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="44"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="32"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="46"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="43"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="44"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="43"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>26</v>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="34" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>31</v>
-      </c>
-    </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -797,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -937,9 +937,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1465,9 +1471,9 @@
       <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71"/>
       <c r="F2" s="10"/>
       <c r="G2" s="7"/>
     </row>
@@ -1535,39 +1541,39 @@
       <c r="B14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
     </row>
     <row r="15" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="76"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
     </row>
     <row r="16" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="76"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
     </row>
     <row r="17" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="76"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
     </row>
     <row r="18" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="76"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
     </row>
     <row r="19" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="79"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
     </row>
     <row r="20" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -1592,34 +1598,34 @@
       <c r="B23" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="74"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
     </row>
     <row r="25" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
     </row>
     <row r="26" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="74"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
     </row>
     <row r="27" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
     </row>
     <row r="28" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="77"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="79"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
     </row>
     <row r="29" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1902,7 +1908,7 @@
   <dimension ref="A1:GI250"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:C12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1927,11 +1933,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="83">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="84"/>
       <c r="F2" s="64"/>
       <c r="G2" s="64"/>
       <c r="H2" s="64"/>
@@ -1996,12 +2002,12 @@
     </row>
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C10" s="85"/>
+      <c r="C10" s="86"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="66" t="s">
         <v>62</v>
       </c>
       <c r="F10" s="50">
@@ -2747,10 +2753,10 @@
       <c r="GI10" s="49"/>
     </row>
     <row r="11" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86"/>
-      <c r="C11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="66"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -2938,10 +2944,10 @@
       <c r="GH11" s="42"/>
     </row>
     <row r="12" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="66"/>
+      <c r="E12" s="68"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3129,10 +3135,10 @@
       <c r="GH12" s="41"/>
     </row>
     <row r="13" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="66"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
@@ -3320,10 +3326,10 @@
       <c r="GH13" s="41"/>
     </row>
     <row r="14" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="66"/>
+      <c r="E14" s="68"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -3511,10 +3517,10 @@
       <c r="GH14" s="41"/>
     </row>
     <row r="15" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="82"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="66"/>
+      <c r="E15" s="68"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -3702,10 +3708,10 @@
       <c r="GH15" s="41"/>
     </row>
     <row r="16" spans="1:191" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="66"/>
+      <c r="E16" s="68"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
@@ -3893,11 +3899,11 @@
       <c r="GH16" s="41"/>
     </row>
     <row r="17" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="82"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
       <c r="I17" s="41"/>
@@ -4084,10 +4090,10 @@
       <c r="GH17" s="41"/>
     </row>
     <row r="18" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="82"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="66"/>
+      <c r="E18" s="68"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
@@ -4275,10 +4281,10 @@
       <c r="GH18" s="41"/>
     </row>
     <row r="19" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="66"/>
+      <c r="E19" s="68"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
@@ -4466,10 +4472,10 @@
       <c r="GH19" s="41"/>
     </row>
     <row r="20" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="82"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="66"/>
+      <c r="E20" s="68"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -4657,10 +4663,10 @@
       <c r="GH20" s="41"/>
     </row>
     <row r="21" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="82"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="66"/>
+      <c r="E21" s="68"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -4848,10 +4854,10 @@
       <c r="GH21" s="41"/>
     </row>
     <row r="22" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="82"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="66"/>
+      <c r="E22" s="68"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -5039,10 +5045,10 @@
       <c r="GH22" s="41"/>
     </row>
     <row r="23" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="82"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="66"/>
+      <c r="E23" s="68"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -5230,10 +5236,10 @@
       <c r="GH23" s="41"/>
     </row>
     <row r="24" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="66"/>
+      <c r="E24" s="68"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
@@ -5421,10 +5427,10 @@
       <c r="GH24" s="41"/>
     </row>
     <row r="25" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
+      <c r="B25" s="81"/>
+      <c r="C25" s="82"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="66"/>
+      <c r="E25" s="68"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -5612,10 +5618,10 @@
       <c r="GH25" s="41"/>
     </row>
     <row r="26" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="66"/>
+      <c r="E26" s="68"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
@@ -5803,10 +5809,10 @@
       <c r="GH26" s="41"/>
     </row>
     <row r="27" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="66"/>
+      <c r="E27" s="68"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
@@ -5994,10 +6000,10 @@
       <c r="GH27" s="41"/>
     </row>
     <row r="28" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="82"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="66"/>
+      <c r="E28" s="68"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -6185,10 +6191,10 @@
       <c r="GH28" s="41"/>
     </row>
     <row r="29" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="38"/>
-      <c r="E29" s="66"/>
+      <c r="E29" s="68"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -6376,10 +6382,10 @@
       <c r="GH29" s="41"/>
     </row>
     <row r="30" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="66"/>
+      <c r="E30" s="68"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
@@ -6567,10 +6573,10 @@
       <c r="GH30" s="41"/>
     </row>
     <row r="31" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="66"/>
+      <c r="E31" s="68"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -6758,10 +6764,10 @@
       <c r="GH31" s="41"/>
     </row>
     <row r="32" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="66"/>
+      <c r="E32" s="68"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
@@ -6949,10 +6955,10 @@
       <c r="GH32" s="41"/>
     </row>
     <row r="33" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="66"/>
+      <c r="E33" s="68"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
@@ -7140,10 +7146,10 @@
       <c r="GH33" s="41"/>
     </row>
     <row r="34" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="66"/>
+      <c r="E34" s="68"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
@@ -7331,10 +7337,10 @@
       <c r="GH34" s="41"/>
     </row>
     <row r="35" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="66"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
@@ -7522,10 +7528,10 @@
       <c r="GH35" s="41"/>
     </row>
     <row r="36" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="66"/>
+      <c r="E36" s="68"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
@@ -7713,10 +7719,10 @@
       <c r="GH36" s="41"/>
     </row>
     <row r="37" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="66"/>
+      <c r="E37" s="68"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
@@ -7904,10 +7910,10 @@
       <c r="GH37" s="41"/>
     </row>
     <row r="38" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="66"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
@@ -8095,10 +8101,10 @@
       <c r="GH38" s="41"/>
     </row>
     <row r="39" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="82"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="66"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -8286,10 +8292,10 @@
       <c r="GH39" s="41"/>
     </row>
     <row r="40" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="82"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="66"/>
+      <c r="E40" s="68"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
@@ -8477,10 +8483,10 @@
       <c r="GH40" s="41"/>
     </row>
     <row r="41" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="80"/>
-      <c r="C41" s="81"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="82"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="66"/>
+      <c r="E41" s="68"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
@@ -8668,10 +8674,10 @@
       <c r="GH41" s="41"/>
     </row>
     <row r="42" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="80"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="82"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="66"/>
+      <c r="E42" s="68"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -8859,10 +8865,10 @@
       <c r="GH42" s="41"/>
     </row>
     <row r="43" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="80"/>
-      <c r="C43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
       <c r="D43" s="38"/>
-      <c r="E43" s="66"/>
+      <c r="E43" s="68"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
@@ -9050,10 +9056,10 @@
       <c r="GH43" s="41"/>
     </row>
     <row r="44" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="80"/>
-      <c r="C44" s="81"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
       <c r="D44" s="38"/>
-      <c r="E44" s="66"/>
+      <c r="E44" s="68"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
@@ -9241,10 +9247,10 @@
       <c r="GH44" s="41"/>
     </row>
     <row r="45" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="80"/>
-      <c r="C45" s="81"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="66"/>
+      <c r="E45" s="68"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
@@ -9432,10 +9438,10 @@
       <c r="GH45" s="41"/>
     </row>
     <row r="46" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="80"/>
-      <c r="C46" s="81"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="66"/>
+      <c r="E46" s="68"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -9623,10 +9629,10 @@
       <c r="GH46" s="41"/>
     </row>
     <row r="47" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="80"/>
-      <c r="C47" s="81"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="66"/>
+      <c r="E47" s="68"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -9814,10 +9820,10 @@
       <c r="GH47" s="41"/>
     </row>
     <row r="48" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="80"/>
-      <c r="C48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="82"/>
       <c r="D48" s="38"/>
-      <c r="E48" s="66"/>
+      <c r="E48" s="68"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -10005,10 +10011,10 @@
       <c r="GH48" s="41"/>
     </row>
     <row r="49" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="80"/>
-      <c r="C49" s="81"/>
+      <c r="B49" s="81"/>
+      <c r="C49" s="82"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="66"/>
+      <c r="E49" s="68"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -10196,10 +10202,10 @@
       <c r="GH49" s="41"/>
     </row>
     <row r="50" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="80"/>
-      <c r="C50" s="81"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="82"/>
       <c r="D50" s="38"/>
-      <c r="E50" s="66"/>
+      <c r="E50" s="68"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -10387,10 +10393,10 @@
       <c r="GH50" s="41"/>
     </row>
     <row r="51" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="80"/>
-      <c r="C51" s="81"/>
+      <c r="B51" s="81"/>
+      <c r="C51" s="82"/>
       <c r="D51" s="38"/>
-      <c r="E51" s="66"/>
+      <c r="E51" s="68"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
@@ -10578,10 +10584,10 @@
       <c r="GH51" s="41"/>
     </row>
     <row r="52" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="80"/>
-      <c r="C52" s="81"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="66"/>
+      <c r="E52" s="68"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
@@ -10769,10 +10775,10 @@
       <c r="GH52" s="41"/>
     </row>
     <row r="53" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="80"/>
-      <c r="C53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
       <c r="D53" s="38"/>
-      <c r="E53" s="66"/>
+      <c r="E53" s="68"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
@@ -10960,10 +10966,10 @@
       <c r="GH53" s="41"/>
     </row>
     <row r="54" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="80"/>
-      <c r="C54" s="81"/>
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="66"/>
+      <c r="E54" s="68"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
@@ -11151,10 +11157,10 @@
       <c r="GH54" s="41"/>
     </row>
     <row r="55" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="80"/>
-      <c r="C55" s="81"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="66"/>
+      <c r="E55" s="68"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -11342,10 +11348,10 @@
       <c r="GH55" s="41"/>
     </row>
     <row r="56" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="80"/>
-      <c r="C56" s="81"/>
+      <c r="B56" s="81"/>
+      <c r="C56" s="82"/>
       <c r="D56" s="38"/>
-      <c r="E56" s="66"/>
+      <c r="E56" s="68"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -11533,10 +11539,10 @@
       <c r="GH56" s="41"/>
     </row>
     <row r="57" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="80"/>
-      <c r="C57" s="81"/>
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
       <c r="D57" s="38"/>
-      <c r="E57" s="66"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
@@ -11724,10 +11730,10 @@
       <c r="GH57" s="41"/>
     </row>
     <row r="58" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="80"/>
-      <c r="C58" s="81"/>
+      <c r="B58" s="81"/>
+      <c r="C58" s="82"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="66"/>
+      <c r="E58" s="68"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
@@ -11915,10 +11921,10 @@
       <c r="GH58" s="41"/>
     </row>
     <row r="59" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="80"/>
-      <c r="C59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="82"/>
       <c r="D59" s="38"/>
-      <c r="E59" s="66"/>
+      <c r="E59" s="68"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
@@ -12106,10 +12112,10 @@
       <c r="GH59" s="41"/>
     </row>
     <row r="60" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="80"/>
-      <c r="C60" s="81"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="38"/>
-      <c r="E60" s="66"/>
+      <c r="E60" s="68"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
@@ -12297,10 +12303,10 @@
       <c r="GH60" s="41"/>
     </row>
     <row r="61" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="80"/>
-      <c r="C61" s="81"/>
+      <c r="B61" s="81"/>
+      <c r="C61" s="82"/>
       <c r="D61" s="38"/>
-      <c r="E61" s="66"/>
+      <c r="E61" s="68"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -12488,10 +12494,10 @@
       <c r="GH61" s="41"/>
     </row>
     <row r="62" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="80"/>
-      <c r="C62" s="81"/>
+      <c r="B62" s="81"/>
+      <c r="C62" s="82"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="66"/>
+      <c r="E62" s="68"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -12679,10 +12685,10 @@
       <c r="GH62" s="41"/>
     </row>
     <row r="63" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="80"/>
-      <c r="C63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="82"/>
       <c r="D63" s="38"/>
-      <c r="E63" s="66"/>
+      <c r="E63" s="68"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -12870,10 +12876,10 @@
       <c r="GH63" s="41"/>
     </row>
     <row r="64" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="80"/>
-      <c r="C64" s="81"/>
+      <c r="B64" s="81"/>
+      <c r="C64" s="82"/>
       <c r="D64" s="38"/>
-      <c r="E64" s="66"/>
+      <c r="E64" s="68"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -13061,10 +13067,10 @@
       <c r="GH64" s="41"/>
     </row>
     <row r="65" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="80"/>
-      <c r="C65" s="81"/>
+      <c r="B65" s="81"/>
+      <c r="C65" s="82"/>
       <c r="D65" s="38"/>
-      <c r="E65" s="66"/>
+      <c r="E65" s="68"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -13252,10 +13258,10 @@
       <c r="GH65" s="41"/>
     </row>
     <row r="66" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="80"/>
-      <c r="C66" s="81"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="82"/>
       <c r="D66" s="38"/>
-      <c r="E66" s="66"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
@@ -13443,10 +13449,10 @@
       <c r="GH66" s="41"/>
     </row>
     <row r="67" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="80"/>
-      <c r="C67" s="81"/>
+      <c r="B67" s="81"/>
+      <c r="C67" s="82"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="66"/>
+      <c r="E67" s="68"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -13634,10 +13640,10 @@
       <c r="GH67" s="41"/>
     </row>
     <row r="68" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="80"/>
-      <c r="C68" s="81"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="82"/>
       <c r="D68" s="38"/>
-      <c r="E68" s="66"/>
+      <c r="E68" s="68"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
@@ -13825,10 +13831,10 @@
       <c r="GH68" s="41"/>
     </row>
     <row r="69" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="80"/>
-      <c r="C69" s="81"/>
+      <c r="B69" s="81"/>
+      <c r="C69" s="82"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="66"/>
+      <c r="E69" s="68"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -14016,10 +14022,10 @@
       <c r="GH69" s="41"/>
     </row>
     <row r="70" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="80"/>
-      <c r="C70" s="81"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="82"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="66"/>
+      <c r="E70" s="68"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
@@ -14207,10 +14213,10 @@
       <c r="GH70" s="41"/>
     </row>
     <row r="71" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="80"/>
-      <c r="C71" s="81"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="82"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="66"/>
+      <c r="E71" s="68"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
@@ -14398,10 +14404,10 @@
       <c r="GH71" s="41"/>
     </row>
     <row r="72" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="80"/>
-      <c r="C72" s="81"/>
+      <c r="B72" s="81"/>
+      <c r="C72" s="82"/>
       <c r="D72" s="38"/>
-      <c r="E72" s="66"/>
+      <c r="E72" s="68"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
@@ -14589,10 +14595,10 @@
       <c r="GH72" s="41"/>
     </row>
     <row r="73" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="80"/>
-      <c r="C73" s="81"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="82"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="66"/>
+      <c r="E73" s="68"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
@@ -14780,10 +14786,10 @@
       <c r="GH73" s="41"/>
     </row>
     <row r="74" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="80"/>
-      <c r="C74" s="81"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="82"/>
       <c r="D74" s="38"/>
-      <c r="E74" s="66"/>
+      <c r="E74" s="68"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
@@ -14971,10 +14977,10 @@
       <c r="GH74" s="41"/>
     </row>
     <row r="75" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="80"/>
-      <c r="C75" s="81"/>
+      <c r="B75" s="81"/>
+      <c r="C75" s="82"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="66"/>
+      <c r="E75" s="68"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
@@ -15162,10 +15168,10 @@
       <c r="GH75" s="41"/>
     </row>
     <row r="76" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="80"/>
-      <c r="C76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="82"/>
       <c r="D76" s="38"/>
-      <c r="E76" s="66"/>
+      <c r="E76" s="68"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
@@ -15353,10 +15359,10 @@
       <c r="GH76" s="41"/>
     </row>
     <row r="77" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="80"/>
-      <c r="C77" s="81"/>
+      <c r="B77" s="81"/>
+      <c r="C77" s="82"/>
       <c r="D77" s="38"/>
-      <c r="E77" s="66"/>
+      <c r="E77" s="68"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
@@ -15544,10 +15550,10 @@
       <c r="GH77" s="41"/>
     </row>
     <row r="78" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="80"/>
-      <c r="C78" s="81"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="82"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="66"/>
+      <c r="E78" s="68"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
@@ -15735,10 +15741,10 @@
       <c r="GH78" s="41"/>
     </row>
     <row r="79" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="80"/>
-      <c r="C79" s="81"/>
+      <c r="B79" s="81"/>
+      <c r="C79" s="82"/>
       <c r="D79" s="38"/>
-      <c r="E79" s="66"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
@@ -15926,10 +15932,10 @@
       <c r="GH79" s="41"/>
     </row>
     <row r="80" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="80"/>
-      <c r="C80" s="81"/>
+      <c r="B80" s="81"/>
+      <c r="C80" s="82"/>
       <c r="D80" s="38"/>
-      <c r="E80" s="66"/>
+      <c r="E80" s="68"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
@@ -16117,10 +16123,10 @@
       <c r="GH80" s="41"/>
     </row>
     <row r="81" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="80"/>
-      <c r="C81" s="81"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="82"/>
       <c r="D81" s="38"/>
-      <c r="E81" s="66"/>
+      <c r="E81" s="68"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
@@ -16308,10 +16314,10 @@
       <c r="GH81" s="41"/>
     </row>
     <row r="82" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="80"/>
-      <c r="C82" s="81"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="82"/>
       <c r="D82" s="38"/>
-      <c r="E82" s="66"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
@@ -16499,10 +16505,10 @@
       <c r="GH82" s="41"/>
     </row>
     <row r="83" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="80"/>
-      <c r="C83" s="81"/>
+      <c r="B83" s="81"/>
+      <c r="C83" s="82"/>
       <c r="D83" s="38"/>
-      <c r="E83" s="66"/>
+      <c r="E83" s="68"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
@@ -16690,10 +16696,10 @@
       <c r="GH83" s="41"/>
     </row>
     <row r="84" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="80"/>
-      <c r="C84" s="81"/>
+      <c r="B84" s="81"/>
+      <c r="C84" s="82"/>
       <c r="D84" s="38"/>
-      <c r="E84" s="66"/>
+      <c r="E84" s="68"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
@@ -16881,10 +16887,10 @@
       <c r="GH84" s="41"/>
     </row>
     <row r="85" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="80"/>
-      <c r="C85" s="81"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="82"/>
       <c r="D85" s="38"/>
-      <c r="E85" s="66"/>
+      <c r="E85" s="68"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
@@ -17072,10 +17078,10 @@
       <c r="GH85" s="41"/>
     </row>
     <row r="86" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="80"/>
-      <c r="C86" s="81"/>
+      <c r="B86" s="81"/>
+      <c r="C86" s="82"/>
       <c r="D86" s="38"/>
-      <c r="E86" s="66"/>
+      <c r="E86" s="68"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -17263,10 +17269,10 @@
       <c r="GH86" s="41"/>
     </row>
     <row r="87" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="80"/>
-      <c r="C87" s="81"/>
+      <c r="B87" s="81"/>
+      <c r="C87" s="82"/>
       <c r="D87" s="38"/>
-      <c r="E87" s="66"/>
+      <c r="E87" s="68"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
@@ -17454,10 +17460,10 @@
       <c r="GH87" s="41"/>
     </row>
     <row r="88" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="80"/>
-      <c r="C88" s="81"/>
+      <c r="B88" s="81"/>
+      <c r="C88" s="82"/>
       <c r="D88" s="38"/>
-      <c r="E88" s="66"/>
+      <c r="E88" s="68"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="41"/>
@@ -17645,10 +17651,10 @@
       <c r="GH88" s="41"/>
     </row>
     <row r="89" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="80"/>
-      <c r="C89" s="81"/>
+      <c r="B89" s="81"/>
+      <c r="C89" s="82"/>
       <c r="D89" s="38"/>
-      <c r="E89" s="66"/>
+      <c r="E89" s="68"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
@@ -17836,10 +17842,10 @@
       <c r="GH89" s="41"/>
     </row>
     <row r="90" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="80"/>
-      <c r="C90" s="81"/>
+      <c r="B90" s="81"/>
+      <c r="C90" s="82"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="66"/>
+      <c r="E90" s="68"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -18027,10 +18033,10 @@
       <c r="GH90" s="41"/>
     </row>
     <row r="91" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="80"/>
-      <c r="C91" s="81"/>
+      <c r="B91" s="81"/>
+      <c r="C91" s="82"/>
       <c r="D91" s="38"/>
-      <c r="E91" s="66"/>
+      <c r="E91" s="68"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
@@ -18218,10 +18224,10 @@
       <c r="GH91" s="41"/>
     </row>
     <row r="92" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="80"/>
-      <c r="C92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="82"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="66"/>
+      <c r="E92" s="68"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
@@ -18409,10 +18415,10 @@
       <c r="GH92" s="41"/>
     </row>
     <row r="93" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="80"/>
-      <c r="C93" s="81"/>
+      <c r="B93" s="81"/>
+      <c r="C93" s="82"/>
       <c r="D93" s="38"/>
-      <c r="E93" s="66"/>
+      <c r="E93" s="68"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
@@ -18600,10 +18606,10 @@
       <c r="GH93" s="41"/>
     </row>
     <row r="94" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="80"/>
-      <c r="C94" s="81"/>
+      <c r="B94" s="81"/>
+      <c r="C94" s="82"/>
       <c r="D94" s="38"/>
-      <c r="E94" s="66"/>
+      <c r="E94" s="68"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
@@ -18791,10 +18797,10 @@
       <c r="GH94" s="41"/>
     </row>
     <row r="95" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="80"/>
-      <c r="C95" s="81"/>
+      <c r="B95" s="81"/>
+      <c r="C95" s="82"/>
       <c r="D95" s="38"/>
-      <c r="E95" s="66"/>
+      <c r="E95" s="68"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
@@ -18982,10 +18988,10 @@
       <c r="GH95" s="41"/>
     </row>
     <row r="96" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="80"/>
-      <c r="C96" s="81"/>
+      <c r="B96" s="81"/>
+      <c r="C96" s="82"/>
       <c r="D96" s="38"/>
-      <c r="E96" s="66"/>
+      <c r="E96" s="68"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
@@ -19173,10 +19179,10 @@
       <c r="GH96" s="41"/>
     </row>
     <row r="97" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="80"/>
-      <c r="C97" s="81"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="82"/>
       <c r="D97" s="38"/>
-      <c r="E97" s="66"/>
+      <c r="E97" s="68"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
@@ -19364,10 +19370,10 @@
       <c r="GH97" s="41"/>
     </row>
     <row r="98" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="80"/>
-      <c r="C98" s="81"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="82"/>
       <c r="D98" s="38"/>
-      <c r="E98" s="66"/>
+      <c r="E98" s="68"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="41"/>
@@ -19555,10 +19561,10 @@
       <c r="GH98" s="41"/>
     </row>
     <row r="99" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="80"/>
-      <c r="C99" s="81"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="82"/>
       <c r="D99" s="38"/>
-      <c r="E99" s="66"/>
+      <c r="E99" s="68"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="41"/>
@@ -19746,10 +19752,10 @@
       <c r="GH99" s="41"/>
     </row>
     <row r="100" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="80"/>
-      <c r="C100" s="81"/>
+      <c r="B100" s="81"/>
+      <c r="C100" s="82"/>
       <c r="D100" s="38"/>
-      <c r="E100" s="66"/>
+      <c r="E100" s="68"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="41"/>
@@ -19937,10 +19943,10 @@
       <c r="GH100" s="41"/>
     </row>
     <row r="101" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="80"/>
-      <c r="C101" s="81"/>
+      <c r="B101" s="81"/>
+      <c r="C101" s="82"/>
       <c r="D101" s="38"/>
-      <c r="E101" s="66"/>
+      <c r="E101" s="68"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="41"/>
@@ -20128,10 +20134,10 @@
       <c r="GH101" s="41"/>
     </row>
     <row r="102" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="80"/>
-      <c r="C102" s="81"/>
+      <c r="B102" s="81"/>
+      <c r="C102" s="82"/>
       <c r="D102" s="38"/>
-      <c r="E102" s="66"/>
+      <c r="E102" s="68"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="41"/>
@@ -20319,10 +20325,10 @@
       <c r="GH102" s="41"/>
     </row>
     <row r="103" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="80"/>
-      <c r="C103" s="81"/>
+      <c r="B103" s="81"/>
+      <c r="C103" s="82"/>
       <c r="D103" s="38"/>
-      <c r="E103" s="66"/>
+      <c r="E103" s="68"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
@@ -20510,10 +20516,10 @@
       <c r="GH103" s="41"/>
     </row>
     <row r="104" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="80"/>
-      <c r="C104" s="81"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="82"/>
       <c r="D104" s="38"/>
-      <c r="E104" s="66"/>
+      <c r="E104" s="68"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
@@ -20701,10 +20707,10 @@
       <c r="GH104" s="41"/>
     </row>
     <row r="105" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="80"/>
-      <c r="C105" s="81"/>
+      <c r="B105" s="81"/>
+      <c r="C105" s="82"/>
       <c r="D105" s="38"/>
-      <c r="E105" s="66"/>
+      <c r="E105" s="68"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="41"/>
@@ -20892,10 +20898,10 @@
       <c r="GH105" s="41"/>
     </row>
     <row r="106" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="80"/>
-      <c r="C106" s="81"/>
+      <c r="B106" s="81"/>
+      <c r="C106" s="82"/>
       <c r="D106" s="38"/>
-      <c r="E106" s="66"/>
+      <c r="E106" s="68"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="41"/>
@@ -21083,10 +21089,10 @@
       <c r="GH106" s="41"/>
     </row>
     <row r="107" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="80"/>
-      <c r="C107" s="81"/>
+      <c r="B107" s="81"/>
+      <c r="C107" s="82"/>
       <c r="D107" s="38"/>
-      <c r="E107" s="66"/>
+      <c r="E107" s="68"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
@@ -21274,10 +21280,10 @@
       <c r="GH107" s="41"/>
     </row>
     <row r="108" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="80"/>
-      <c r="C108" s="81"/>
+      <c r="B108" s="81"/>
+      <c r="C108" s="82"/>
       <c r="D108" s="38"/>
-      <c r="E108" s="66"/>
+      <c r="E108" s="68"/>
       <c r="F108" s="41"/>
       <c r="G108" s="41"/>
       <c r="H108" s="41"/>
@@ -21465,10 +21471,10 @@
       <c r="GH108" s="41"/>
     </row>
     <row r="109" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="80"/>
-      <c r="C109" s="81"/>
+      <c r="B109" s="81"/>
+      <c r="C109" s="82"/>
       <c r="D109" s="38"/>
-      <c r="E109" s="66"/>
+      <c r="E109" s="68"/>
       <c r="F109" s="41"/>
       <c r="G109" s="41"/>
       <c r="H109" s="41"/>
@@ -21656,10 +21662,10 @@
       <c r="GH109" s="41"/>
     </row>
     <row r="110" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="80"/>
-      <c r="C110" s="81"/>
+      <c r="B110" s="81"/>
+      <c r="C110" s="82"/>
       <c r="D110" s="38"/>
-      <c r="E110" s="66"/>
+      <c r="E110" s="68"/>
       <c r="F110" s="41"/>
       <c r="G110" s="41"/>
       <c r="H110" s="41"/>
@@ -21847,10 +21853,10 @@
       <c r="GH110" s="41"/>
     </row>
     <row r="111" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="80"/>
-      <c r="C111" s="81"/>
+      <c r="B111" s="81"/>
+      <c r="C111" s="82"/>
       <c r="D111" s="38"/>
-      <c r="E111" s="66"/>
+      <c r="E111" s="68"/>
       <c r="F111" s="41"/>
       <c r="G111" s="41"/>
       <c r="H111" s="41"/>
@@ -22038,10 +22044,10 @@
       <c r="GH111" s="41"/>
     </row>
     <row r="112" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="80"/>
-      <c r="C112" s="81"/>
+      <c r="B112" s="81"/>
+      <c r="C112" s="82"/>
       <c r="D112" s="38"/>
-      <c r="E112" s="66"/>
+      <c r="E112" s="68"/>
       <c r="F112" s="41"/>
       <c r="G112" s="41"/>
       <c r="H112" s="41"/>
@@ -22229,10 +22235,10 @@
       <c r="GH112" s="41"/>
     </row>
     <row r="113" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="80"/>
-      <c r="C113" s="81"/>
+      <c r="B113" s="81"/>
+      <c r="C113" s="82"/>
       <c r="D113" s="38"/>
-      <c r="E113" s="66"/>
+      <c r="E113" s="68"/>
       <c r="F113" s="41"/>
       <c r="G113" s="41"/>
       <c r="H113" s="41"/>
@@ -22420,10 +22426,10 @@
       <c r="GH113" s="41"/>
     </row>
     <row r="114" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="80"/>
-      <c r="C114" s="81"/>
+      <c r="B114" s="81"/>
+      <c r="C114" s="82"/>
       <c r="D114" s="38"/>
-      <c r="E114" s="66"/>
+      <c r="E114" s="68"/>
       <c r="F114" s="41"/>
       <c r="G114" s="41"/>
       <c r="H114" s="41"/>
@@ -22611,10 +22617,10 @@
       <c r="GH114" s="41"/>
     </row>
     <row r="115" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="80"/>
-      <c r="C115" s="81"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="82"/>
       <c r="D115" s="38"/>
-      <c r="E115" s="66"/>
+      <c r="E115" s="68"/>
       <c r="F115" s="41"/>
       <c r="G115" s="41"/>
       <c r="H115" s="41"/>
@@ -22802,10 +22808,10 @@
       <c r="GH115" s="41"/>
     </row>
     <row r="116" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="80"/>
-      <c r="C116" s="81"/>
+      <c r="B116" s="81"/>
+      <c r="C116" s="82"/>
       <c r="D116" s="38"/>
-      <c r="E116" s="66"/>
+      <c r="E116" s="68"/>
       <c r="F116" s="41"/>
       <c r="G116" s="41"/>
       <c r="H116" s="41"/>
@@ -22993,10 +22999,10 @@
       <c r="GH116" s="41"/>
     </row>
     <row r="117" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B117" s="80"/>
-      <c r="C117" s="81"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="82"/>
       <c r="D117" s="38"/>
-      <c r="E117" s="66"/>
+      <c r="E117" s="68"/>
       <c r="F117" s="41"/>
       <c r="G117" s="41"/>
       <c r="H117" s="41"/>
@@ -23184,10 +23190,10 @@
       <c r="GH117" s="41"/>
     </row>
     <row r="118" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="80"/>
-      <c r="C118" s="81"/>
+      <c r="B118" s="81"/>
+      <c r="C118" s="82"/>
       <c r="D118" s="38"/>
-      <c r="E118" s="66"/>
+      <c r="E118" s="68"/>
       <c r="F118" s="41"/>
       <c r="G118" s="41"/>
       <c r="H118" s="41"/>
@@ -23375,10 +23381,10 @@
       <c r="GH118" s="41"/>
     </row>
     <row r="119" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="80"/>
-      <c r="C119" s="81"/>
+      <c r="B119" s="81"/>
+      <c r="C119" s="82"/>
       <c r="D119" s="38"/>
-      <c r="E119" s="66"/>
+      <c r="E119" s="68"/>
       <c r="F119" s="41"/>
       <c r="G119" s="41"/>
       <c r="H119" s="41"/>
@@ -23566,10 +23572,10 @@
       <c r="GH119" s="41"/>
     </row>
     <row r="120" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="80"/>
-      <c r="C120" s="81"/>
+      <c r="B120" s="81"/>
+      <c r="C120" s="82"/>
       <c r="D120" s="38"/>
-      <c r="E120" s="66"/>
+      <c r="E120" s="68"/>
       <c r="F120" s="41"/>
       <c r="G120" s="41"/>
       <c r="H120" s="41"/>
@@ -23757,10 +23763,10 @@
       <c r="GH120" s="41"/>
     </row>
     <row r="121" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="80"/>
-      <c r="C121" s="81"/>
+      <c r="B121" s="81"/>
+      <c r="C121" s="82"/>
       <c r="D121" s="38"/>
-      <c r="E121" s="66"/>
+      <c r="E121" s="68"/>
       <c r="F121" s="41"/>
       <c r="G121" s="41"/>
       <c r="H121" s="41"/>
@@ -23948,10 +23954,10 @@
       <c r="GH121" s="41"/>
     </row>
     <row r="122" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="80"/>
-      <c r="C122" s="81"/>
+      <c r="B122" s="81"/>
+      <c r="C122" s="82"/>
       <c r="D122" s="38"/>
-      <c r="E122" s="66"/>
+      <c r="E122" s="68"/>
       <c r="F122" s="41"/>
       <c r="G122" s="41"/>
       <c r="H122" s="41"/>
@@ -24139,10 +24145,10 @@
       <c r="GH122" s="41"/>
     </row>
     <row r="123" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="80"/>
-      <c r="C123" s="81"/>
+      <c r="B123" s="81"/>
+      <c r="C123" s="82"/>
       <c r="D123" s="38"/>
-      <c r="E123" s="66"/>
+      <c r="E123" s="68"/>
       <c r="F123" s="41"/>
       <c r="G123" s="41"/>
       <c r="H123" s="41"/>
@@ -24330,10 +24336,10 @@
       <c r="GH123" s="41"/>
     </row>
     <row r="124" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="80"/>
-      <c r="C124" s="81"/>
+      <c r="B124" s="81"/>
+      <c r="C124" s="82"/>
       <c r="D124" s="38"/>
-      <c r="E124" s="66"/>
+      <c r="E124" s="68"/>
       <c r="F124" s="41"/>
       <c r="G124" s="41"/>
       <c r="H124" s="41"/>
@@ -24521,10 +24527,10 @@
       <c r="GH124" s="41"/>
     </row>
     <row r="125" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="80"/>
-      <c r="C125" s="81"/>
+      <c r="B125" s="81"/>
+      <c r="C125" s="82"/>
       <c r="D125" s="38"/>
-      <c r="E125" s="66"/>
+      <c r="E125" s="68"/>
       <c r="F125" s="41"/>
       <c r="G125" s="41"/>
       <c r="H125" s="41"/>
@@ -24712,10 +24718,10 @@
       <c r="GH125" s="41"/>
     </row>
     <row r="126" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="80"/>
-      <c r="C126" s="81"/>
+      <c r="B126" s="81"/>
+      <c r="C126" s="82"/>
       <c r="D126" s="38"/>
-      <c r="E126" s="66"/>
+      <c r="E126" s="68"/>
       <c r="F126" s="41"/>
       <c r="G126" s="41"/>
       <c r="H126" s="41"/>
@@ -24903,10 +24909,10 @@
       <c r="GH126" s="41"/>
     </row>
     <row r="127" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="80"/>
-      <c r="C127" s="81"/>
+      <c r="B127" s="81"/>
+      <c r="C127" s="82"/>
       <c r="D127" s="38"/>
-      <c r="E127" s="66"/>
+      <c r="E127" s="68"/>
       <c r="F127" s="41"/>
       <c r="G127" s="41"/>
       <c r="H127" s="41"/>
@@ -25094,10 +25100,10 @@
       <c r="GH127" s="41"/>
     </row>
     <row r="128" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="80"/>
-      <c r="C128" s="81"/>
+      <c r="B128" s="81"/>
+      <c r="C128" s="82"/>
       <c r="D128" s="38"/>
-      <c r="E128" s="66"/>
+      <c r="E128" s="68"/>
       <c r="F128" s="41"/>
       <c r="G128" s="41"/>
       <c r="H128" s="41"/>
@@ -25285,10 +25291,10 @@
       <c r="GH128" s="41"/>
     </row>
     <row r="129" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="80"/>
-      <c r="C129" s="81"/>
+      <c r="B129" s="81"/>
+      <c r="C129" s="82"/>
       <c r="D129" s="38"/>
-      <c r="E129" s="66"/>
+      <c r="E129" s="68"/>
       <c r="F129" s="41"/>
       <c r="G129" s="41"/>
       <c r="H129" s="41"/>
@@ -25476,10 +25482,10 @@
       <c r="GH129" s="41"/>
     </row>
     <row r="130" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="80"/>
-      <c r="C130" s="81"/>
+      <c r="B130" s="81"/>
+      <c r="C130" s="82"/>
       <c r="D130" s="38"/>
-      <c r="E130" s="66"/>
+      <c r="E130" s="68"/>
       <c r="F130" s="41"/>
       <c r="G130" s="41"/>
       <c r="H130" s="41"/>
@@ -25667,10 +25673,10 @@
       <c r="GH130" s="41"/>
     </row>
     <row r="131" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="80"/>
-      <c r="C131" s="81"/>
+      <c r="B131" s="81"/>
+      <c r="C131" s="82"/>
       <c r="D131" s="38"/>
-      <c r="E131" s="66"/>
+      <c r="E131" s="68"/>
       <c r="F131" s="41"/>
       <c r="G131" s="41"/>
       <c r="H131" s="41"/>
@@ -25858,10 +25864,10 @@
       <c r="GH131" s="41"/>
     </row>
     <row r="132" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="80"/>
-      <c r="C132" s="81"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="82"/>
       <c r="D132" s="38"/>
-      <c r="E132" s="66"/>
+      <c r="E132" s="68"/>
       <c r="F132" s="41"/>
       <c r="G132" s="41"/>
       <c r="H132" s="41"/>
@@ -26049,10 +26055,10 @@
       <c r="GH132" s="41"/>
     </row>
     <row r="133" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="80"/>
-      <c r="C133" s="81"/>
+      <c r="B133" s="81"/>
+      <c r="C133" s="82"/>
       <c r="D133" s="38"/>
-      <c r="E133" s="66"/>
+      <c r="E133" s="68"/>
       <c r="F133" s="41"/>
       <c r="G133" s="41"/>
       <c r="H133" s="41"/>
@@ -26240,10 +26246,10 @@
       <c r="GH133" s="41"/>
     </row>
     <row r="134" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="80"/>
-      <c r="C134" s="81"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="82"/>
       <c r="D134" s="38"/>
-      <c r="E134" s="66"/>
+      <c r="E134" s="68"/>
       <c r="F134" s="41"/>
       <c r="G134" s="41"/>
       <c r="H134" s="41"/>
@@ -26431,10 +26437,10 @@
       <c r="GH134" s="41"/>
     </row>
     <row r="135" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="80"/>
-      <c r="C135" s="81"/>
+      <c r="B135" s="81"/>
+      <c r="C135" s="82"/>
       <c r="D135" s="38"/>
-      <c r="E135" s="66"/>
+      <c r="E135" s="68"/>
       <c r="F135" s="41"/>
       <c r="G135" s="41"/>
       <c r="H135" s="41"/>
@@ -26622,10 +26628,10 @@
       <c r="GH135" s="41"/>
     </row>
     <row r="136" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="80"/>
-      <c r="C136" s="81"/>
+      <c r="B136" s="81"/>
+      <c r="C136" s="82"/>
       <c r="D136" s="38"/>
-      <c r="E136" s="66"/>
+      <c r="E136" s="68"/>
       <c r="F136" s="41"/>
       <c r="G136" s="41"/>
       <c r="H136" s="41"/>
@@ -26813,10 +26819,10 @@
       <c r="GH136" s="41"/>
     </row>
     <row r="137" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="80"/>
-      <c r="C137" s="81"/>
+      <c r="B137" s="81"/>
+      <c r="C137" s="82"/>
       <c r="D137" s="38"/>
-      <c r="E137" s="66"/>
+      <c r="E137" s="68"/>
       <c r="F137" s="41"/>
       <c r="G137" s="41"/>
       <c r="H137" s="41"/>
@@ -27004,10 +27010,10 @@
       <c r="GH137" s="41"/>
     </row>
     <row r="138" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="80"/>
-      <c r="C138" s="81"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="82"/>
       <c r="D138" s="38"/>
-      <c r="E138" s="66"/>
+      <c r="E138" s="68"/>
       <c r="F138" s="41"/>
       <c r="G138" s="41"/>
       <c r="H138" s="41"/>
@@ -27195,10 +27201,10 @@
       <c r="GH138" s="41"/>
     </row>
     <row r="139" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="80"/>
-      <c r="C139" s="81"/>
+      <c r="B139" s="81"/>
+      <c r="C139" s="82"/>
       <c r="D139" s="38"/>
-      <c r="E139" s="66"/>
+      <c r="E139" s="68"/>
       <c r="F139" s="41"/>
       <c r="G139" s="41"/>
       <c r="H139" s="41"/>
@@ -27386,10 +27392,10 @@
       <c r="GH139" s="41"/>
     </row>
     <row r="140" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="80"/>
-      <c r="C140" s="81"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="82"/>
       <c r="D140" s="38"/>
-      <c r="E140" s="66"/>
+      <c r="E140" s="68"/>
       <c r="F140" s="41"/>
       <c r="G140" s="41"/>
       <c r="H140" s="41"/>
@@ -27577,10 +27583,10 @@
       <c r="GH140" s="41"/>
     </row>
     <row r="141" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="80"/>
-      <c r="C141" s="81"/>
+      <c r="B141" s="81"/>
+      <c r="C141" s="82"/>
       <c r="D141" s="38"/>
-      <c r="E141" s="66"/>
+      <c r="E141" s="68"/>
       <c r="F141" s="41"/>
       <c r="G141" s="41"/>
       <c r="H141" s="41"/>
@@ -27768,10 +27774,10 @@
       <c r="GH141" s="41"/>
     </row>
     <row r="142" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="80"/>
-      <c r="C142" s="81"/>
+      <c r="B142" s="81"/>
+      <c r="C142" s="82"/>
       <c r="D142" s="38"/>
-      <c r="E142" s="66"/>
+      <c r="E142" s="68"/>
       <c r="F142" s="41"/>
       <c r="G142" s="41"/>
       <c r="H142" s="41"/>
@@ -27959,10 +27965,10 @@
       <c r="GH142" s="41"/>
     </row>
     <row r="143" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="80"/>
-      <c r="C143" s="81"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="82"/>
       <c r="D143" s="38"/>
-      <c r="E143" s="66"/>
+      <c r="E143" s="68"/>
       <c r="F143" s="41"/>
       <c r="G143" s="41"/>
       <c r="H143" s="41"/>
@@ -28150,10 +28156,10 @@
       <c r="GH143" s="41"/>
     </row>
     <row r="144" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="80"/>
-      <c r="C144" s="81"/>
+      <c r="B144" s="81"/>
+      <c r="C144" s="82"/>
       <c r="D144" s="38"/>
-      <c r="E144" s="66"/>
+      <c r="E144" s="68"/>
       <c r="F144" s="41"/>
       <c r="G144" s="41"/>
       <c r="H144" s="41"/>
@@ -28341,10 +28347,10 @@
       <c r="GH144" s="41"/>
     </row>
     <row r="145" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="80"/>
-      <c r="C145" s="81"/>
+      <c r="B145" s="81"/>
+      <c r="C145" s="82"/>
       <c r="D145" s="38"/>
-      <c r="E145" s="66"/>
+      <c r="E145" s="68"/>
       <c r="F145" s="41"/>
       <c r="G145" s="41"/>
       <c r="H145" s="41"/>
@@ -28532,10 +28538,10 @@
       <c r="GH145" s="41"/>
     </row>
     <row r="146" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="80"/>
-      <c r="C146" s="81"/>
+      <c r="B146" s="81"/>
+      <c r="C146" s="82"/>
       <c r="D146" s="38"/>
-      <c r="E146" s="66"/>
+      <c r="E146" s="68"/>
       <c r="F146" s="41"/>
       <c r="G146" s="41"/>
       <c r="H146" s="41"/>
@@ -28723,10 +28729,10 @@
       <c r="GH146" s="41"/>
     </row>
     <row r="147" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="80"/>
-      <c r="C147" s="81"/>
+      <c r="B147" s="81"/>
+      <c r="C147" s="82"/>
       <c r="D147" s="38"/>
-      <c r="E147" s="66"/>
+      <c r="E147" s="68"/>
       <c r="F147" s="41"/>
       <c r="G147" s="41"/>
       <c r="H147" s="41"/>
@@ -28914,10 +28920,10 @@
       <c r="GH147" s="41"/>
     </row>
     <row r="148" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="80"/>
-      <c r="C148" s="81"/>
+      <c r="B148" s="81"/>
+      <c r="C148" s="82"/>
       <c r="D148" s="38"/>
-      <c r="E148" s="66"/>
+      <c r="E148" s="68"/>
       <c r="F148" s="41"/>
       <c r="G148" s="41"/>
       <c r="H148" s="41"/>
@@ -29105,10 +29111,10 @@
       <c r="GH148" s="41"/>
     </row>
     <row r="149" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="80"/>
-      <c r="C149" s="81"/>
+      <c r="B149" s="81"/>
+      <c r="C149" s="82"/>
       <c r="D149" s="38"/>
-      <c r="E149" s="66"/>
+      <c r="E149" s="68"/>
       <c r="F149" s="41"/>
       <c r="G149" s="41"/>
       <c r="H149" s="41"/>
@@ -29296,10 +29302,10 @@
       <c r="GH149" s="41"/>
     </row>
     <row r="150" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B150" s="80"/>
-      <c r="C150" s="81"/>
+      <c r="B150" s="81"/>
+      <c r="C150" s="82"/>
       <c r="D150" s="38"/>
-      <c r="E150" s="66"/>
+      <c r="E150" s="68"/>
       <c r="F150" s="41"/>
       <c r="G150" s="41"/>
       <c r="H150" s="41"/>
@@ -29487,10 +29493,10 @@
       <c r="GH150" s="41"/>
     </row>
     <row r="151" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="80"/>
-      <c r="C151" s="81"/>
+      <c r="B151" s="81"/>
+      <c r="C151" s="82"/>
       <c r="D151" s="38"/>
-      <c r="E151" s="66"/>
+      <c r="E151" s="68"/>
       <c r="F151" s="41"/>
       <c r="G151" s="41"/>
       <c r="H151" s="41"/>
@@ -29678,10 +29684,10 @@
       <c r="GH151" s="41"/>
     </row>
     <row r="152" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="80"/>
-      <c r="C152" s="81"/>
+      <c r="B152" s="81"/>
+      <c r="C152" s="82"/>
       <c r="D152" s="38"/>
-      <c r="E152" s="66"/>
+      <c r="E152" s="68"/>
       <c r="F152" s="41"/>
       <c r="G152" s="41"/>
       <c r="H152" s="41"/>
@@ -29869,10 +29875,10 @@
       <c r="GH152" s="41"/>
     </row>
     <row r="153" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="80"/>
-      <c r="C153" s="81"/>
+      <c r="B153" s="81"/>
+      <c r="C153" s="82"/>
       <c r="D153" s="38"/>
-      <c r="E153" s="66"/>
+      <c r="E153" s="68"/>
       <c r="F153" s="41"/>
       <c r="G153" s="41"/>
       <c r="H153" s="41"/>
@@ -30060,10 +30066,10 @@
       <c r="GH153" s="41"/>
     </row>
     <row r="154" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="80"/>
-      <c r="C154" s="81"/>
+      <c r="B154" s="81"/>
+      <c r="C154" s="82"/>
       <c r="D154" s="38"/>
-      <c r="E154" s="66"/>
+      <c r="E154" s="68"/>
       <c r="F154" s="41"/>
       <c r="G154" s="41"/>
       <c r="H154" s="41"/>
@@ -30251,10 +30257,10 @@
       <c r="GH154" s="41"/>
     </row>
     <row r="155" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B155" s="80"/>
-      <c r="C155" s="81"/>
+      <c r="B155" s="81"/>
+      <c r="C155" s="82"/>
       <c r="D155" s="38"/>
-      <c r="E155" s="66"/>
+      <c r="E155" s="68"/>
       <c r="F155" s="41"/>
       <c r="G155" s="41"/>
       <c r="H155" s="41"/>
@@ -30442,10 +30448,10 @@
       <c r="GH155" s="41"/>
     </row>
     <row r="156" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="80"/>
-      <c r="C156" s="81"/>
+      <c r="B156" s="81"/>
+      <c r="C156" s="82"/>
       <c r="D156" s="38"/>
-      <c r="E156" s="66"/>
+      <c r="E156" s="68"/>
       <c r="F156" s="41"/>
       <c r="G156" s="41"/>
       <c r="H156" s="41"/>
@@ -30633,10 +30639,10 @@
       <c r="GH156" s="41"/>
     </row>
     <row r="157" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="80"/>
-      <c r="C157" s="81"/>
+      <c r="B157" s="81"/>
+      <c r="C157" s="82"/>
       <c r="D157" s="38"/>
-      <c r="E157" s="66"/>
+      <c r="E157" s="68"/>
       <c r="F157" s="41"/>
       <c r="G157" s="41"/>
       <c r="H157" s="41"/>
@@ -30824,10 +30830,10 @@
       <c r="GH157" s="41"/>
     </row>
     <row r="158" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B158" s="80"/>
-      <c r="C158" s="81"/>
+      <c r="B158" s="81"/>
+      <c r="C158" s="82"/>
       <c r="D158" s="38"/>
-      <c r="E158" s="66"/>
+      <c r="E158" s="68"/>
       <c r="F158" s="41"/>
       <c r="G158" s="41"/>
       <c r="H158" s="41"/>
@@ -31015,10 +31021,10 @@
       <c r="GH158" s="41"/>
     </row>
     <row r="159" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B159" s="80"/>
-      <c r="C159" s="81"/>
+      <c r="B159" s="81"/>
+      <c r="C159" s="82"/>
       <c r="D159" s="38"/>
-      <c r="E159" s="66"/>
+      <c r="E159" s="68"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="41"/>
@@ -31206,10 +31212,10 @@
       <c r="GH159" s="41"/>
     </row>
     <row r="160" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B160" s="80"/>
-      <c r="C160" s="81"/>
+      <c r="B160" s="81"/>
+      <c r="C160" s="82"/>
       <c r="D160" s="38"/>
-      <c r="E160" s="66"/>
+      <c r="E160" s="68"/>
       <c r="F160" s="41"/>
       <c r="G160" s="41"/>
       <c r="H160" s="41"/>
@@ -31397,10 +31403,10 @@
       <c r="GH160" s="41"/>
     </row>
     <row r="161" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="80"/>
-      <c r="C161" s="81"/>
+      <c r="B161" s="81"/>
+      <c r="C161" s="82"/>
       <c r="D161" s="38"/>
-      <c r="E161" s="66"/>
+      <c r="E161" s="68"/>
       <c r="F161" s="41"/>
       <c r="G161" s="41"/>
       <c r="H161" s="41"/>
@@ -31588,10 +31594,10 @@
       <c r="GH161" s="41"/>
     </row>
     <row r="162" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B162" s="80"/>
-      <c r="C162" s="81"/>
+      <c r="B162" s="81"/>
+      <c r="C162" s="82"/>
       <c r="D162" s="38"/>
-      <c r="E162" s="66"/>
+      <c r="E162" s="68"/>
       <c r="F162" s="41"/>
       <c r="G162" s="41"/>
       <c r="H162" s="41"/>
@@ -31779,10 +31785,10 @@
       <c r="GH162" s="41"/>
     </row>
     <row r="163" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="80"/>
-      <c r="C163" s="81"/>
+      <c r="B163" s="81"/>
+      <c r="C163" s="82"/>
       <c r="D163" s="38"/>
-      <c r="E163" s="66"/>
+      <c r="E163" s="68"/>
       <c r="F163" s="41"/>
       <c r="G163" s="41"/>
       <c r="H163" s="41"/>
@@ -31970,10 +31976,10 @@
       <c r="GH163" s="41"/>
     </row>
     <row r="164" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="80"/>
-      <c r="C164" s="81"/>
+      <c r="B164" s="81"/>
+      <c r="C164" s="82"/>
       <c r="D164" s="38"/>
-      <c r="E164" s="66"/>
+      <c r="E164" s="68"/>
       <c r="F164" s="41"/>
       <c r="G164" s="41"/>
       <c r="H164" s="41"/>
@@ -32161,10 +32167,10 @@
       <c r="GH164" s="41"/>
     </row>
     <row r="165" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="80"/>
-      <c r="C165" s="81"/>
+      <c r="B165" s="81"/>
+      <c r="C165" s="82"/>
       <c r="D165" s="38"/>
-      <c r="E165" s="66"/>
+      <c r="E165" s="68"/>
       <c r="F165" s="41"/>
       <c r="G165" s="41"/>
       <c r="H165" s="41"/>
@@ -32352,10 +32358,10 @@
       <c r="GH165" s="41"/>
     </row>
     <row r="166" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="80"/>
-      <c r="C166" s="81"/>
+      <c r="B166" s="81"/>
+      <c r="C166" s="82"/>
       <c r="D166" s="38"/>
-      <c r="E166" s="66"/>
+      <c r="E166" s="68"/>
       <c r="F166" s="41"/>
       <c r="G166" s="41"/>
       <c r="H166" s="41"/>
@@ -32543,10 +32549,10 @@
       <c r="GH166" s="41"/>
     </row>
     <row r="167" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="80"/>
-      <c r="C167" s="81"/>
+      <c r="B167" s="81"/>
+      <c r="C167" s="82"/>
       <c r="D167" s="38"/>
-      <c r="E167" s="66"/>
+      <c r="E167" s="68"/>
       <c r="F167" s="41"/>
       <c r="G167" s="41"/>
       <c r="H167" s="41"/>
@@ -32734,10 +32740,10 @@
       <c r="GH167" s="41"/>
     </row>
     <row r="168" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="80"/>
-      <c r="C168" s="81"/>
+      <c r="B168" s="81"/>
+      <c r="C168" s="82"/>
       <c r="D168" s="38"/>
-      <c r="E168" s="66"/>
+      <c r="E168" s="68"/>
       <c r="F168" s="41"/>
       <c r="G168" s="41"/>
       <c r="H168" s="41"/>
@@ -32925,10 +32931,10 @@
       <c r="GH168" s="41"/>
     </row>
     <row r="169" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="80"/>
-      <c r="C169" s="81"/>
+      <c r="B169" s="81"/>
+      <c r="C169" s="82"/>
       <c r="D169" s="38"/>
-      <c r="E169" s="66"/>
+      <c r="E169" s="68"/>
       <c r="F169" s="41"/>
       <c r="G169" s="41"/>
       <c r="H169" s="41"/>
@@ -33116,10 +33122,10 @@
       <c r="GH169" s="41"/>
     </row>
     <row r="170" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="80"/>
-      <c r="C170" s="81"/>
+      <c r="B170" s="81"/>
+      <c r="C170" s="82"/>
       <c r="D170" s="38"/>
-      <c r="E170" s="66"/>
+      <c r="E170" s="68"/>
       <c r="F170" s="41"/>
       <c r="G170" s="41"/>
       <c r="H170" s="41"/>
@@ -33307,10 +33313,10 @@
       <c r="GH170" s="41"/>
     </row>
     <row r="171" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="80"/>
-      <c r="C171" s="81"/>
+      <c r="B171" s="81"/>
+      <c r="C171" s="82"/>
       <c r="D171" s="38"/>
-      <c r="E171" s="66"/>
+      <c r="E171" s="68"/>
       <c r="F171" s="41"/>
       <c r="G171" s="41"/>
       <c r="H171" s="41"/>
@@ -33498,10 +33504,10 @@
       <c r="GH171" s="41"/>
     </row>
     <row r="172" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="80"/>
-      <c r="C172" s="81"/>
+      <c r="B172" s="81"/>
+      <c r="C172" s="82"/>
       <c r="D172" s="38"/>
-      <c r="E172" s="66"/>
+      <c r="E172" s="68"/>
       <c r="F172" s="41"/>
       <c r="G172" s="41"/>
       <c r="H172" s="41"/>
@@ -33689,10 +33695,10 @@
       <c r="GH172" s="41"/>
     </row>
     <row r="173" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="80"/>
-      <c r="C173" s="81"/>
+      <c r="B173" s="81"/>
+      <c r="C173" s="82"/>
       <c r="D173" s="38"/>
-      <c r="E173" s="66"/>
+      <c r="E173" s="68"/>
       <c r="F173" s="41"/>
       <c r="G173" s="41"/>
       <c r="H173" s="41"/>
@@ -33880,10 +33886,10 @@
       <c r="GH173" s="41"/>
     </row>
     <row r="174" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="80"/>
-      <c r="C174" s="81"/>
+      <c r="B174" s="81"/>
+      <c r="C174" s="82"/>
       <c r="D174" s="38"/>
-      <c r="E174" s="66"/>
+      <c r="E174" s="68"/>
       <c r="F174" s="41"/>
       <c r="G174" s="41"/>
       <c r="H174" s="41"/>
@@ -34071,10 +34077,10 @@
       <c r="GH174" s="41"/>
     </row>
     <row r="175" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="80"/>
-      <c r="C175" s="81"/>
+      <c r="B175" s="81"/>
+      <c r="C175" s="82"/>
       <c r="D175" s="38"/>
-      <c r="E175" s="66"/>
+      <c r="E175" s="68"/>
       <c r="F175" s="41"/>
       <c r="G175" s="41"/>
       <c r="H175" s="41"/>
@@ -34262,10 +34268,10 @@
       <c r="GH175" s="41"/>
     </row>
     <row r="176" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="80"/>
-      <c r="C176" s="81"/>
+      <c r="B176" s="81"/>
+      <c r="C176" s="82"/>
       <c r="D176" s="38"/>
-      <c r="E176" s="66"/>
+      <c r="E176" s="68"/>
       <c r="F176" s="41"/>
       <c r="G176" s="41"/>
       <c r="H176" s="41"/>
@@ -34453,10 +34459,10 @@
       <c r="GH176" s="41"/>
     </row>
     <row r="177" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="80"/>
-      <c r="C177" s="81"/>
+      <c r="B177" s="81"/>
+      <c r="C177" s="82"/>
       <c r="D177" s="38"/>
-      <c r="E177" s="66"/>
+      <c r="E177" s="68"/>
       <c r="F177" s="41"/>
       <c r="G177" s="41"/>
       <c r="H177" s="41"/>
@@ -34644,10 +34650,10 @@
       <c r="GH177" s="41"/>
     </row>
     <row r="178" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="80"/>
-      <c r="C178" s="81"/>
+      <c r="B178" s="81"/>
+      <c r="C178" s="82"/>
       <c r="D178" s="38"/>
-      <c r="E178" s="66"/>
+      <c r="E178" s="68"/>
       <c r="F178" s="41"/>
       <c r="G178" s="41"/>
       <c r="H178" s="41"/>
@@ -34835,10 +34841,10 @@
       <c r="GH178" s="41"/>
     </row>
     <row r="179" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="80"/>
-      <c r="C179" s="81"/>
+      <c r="B179" s="81"/>
+      <c r="C179" s="82"/>
       <c r="D179" s="38"/>
-      <c r="E179" s="66"/>
+      <c r="E179" s="68"/>
       <c r="F179" s="41"/>
       <c r="G179" s="41"/>
       <c r="H179" s="41"/>
@@ -35026,10 +35032,10 @@
       <c r="GH179" s="41"/>
     </row>
     <row r="180" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="80"/>
-      <c r="C180" s="81"/>
+      <c r="B180" s="81"/>
+      <c r="C180" s="82"/>
       <c r="D180" s="38"/>
-      <c r="E180" s="66"/>
+      <c r="E180" s="68"/>
       <c r="F180" s="41"/>
       <c r="G180" s="41"/>
       <c r="H180" s="41"/>
@@ -35217,10 +35223,10 @@
       <c r="GH180" s="41"/>
     </row>
     <row r="181" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="80"/>
-      <c r="C181" s="81"/>
+      <c r="B181" s="81"/>
+      <c r="C181" s="82"/>
       <c r="D181" s="38"/>
-      <c r="E181" s="66"/>
+      <c r="E181" s="68"/>
       <c r="F181" s="41"/>
       <c r="G181" s="41"/>
       <c r="H181" s="41"/>
@@ -35408,10 +35414,10 @@
       <c r="GH181" s="41"/>
     </row>
     <row r="182" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="80"/>
-      <c r="C182" s="81"/>
+      <c r="B182" s="81"/>
+      <c r="C182" s="82"/>
       <c r="D182" s="38"/>
-      <c r="E182" s="66"/>
+      <c r="E182" s="68"/>
       <c r="F182" s="41"/>
       <c r="G182" s="41"/>
       <c r="H182" s="41"/>
@@ -35599,10 +35605,10 @@
       <c r="GH182" s="41"/>
     </row>
     <row r="183" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B183" s="80"/>
-      <c r="C183" s="81"/>
+      <c r="B183" s="81"/>
+      <c r="C183" s="82"/>
       <c r="D183" s="38"/>
-      <c r="E183" s="66"/>
+      <c r="E183" s="68"/>
       <c r="F183" s="41"/>
       <c r="G183" s="41"/>
       <c r="H183" s="41"/>
@@ -35790,10 +35796,10 @@
       <c r="GH183" s="41"/>
     </row>
     <row r="184" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B184" s="80"/>
-      <c r="C184" s="81"/>
+      <c r="B184" s="81"/>
+      <c r="C184" s="82"/>
       <c r="D184" s="38"/>
-      <c r="E184" s="66"/>
+      <c r="E184" s="68"/>
       <c r="F184" s="41"/>
       <c r="G184" s="41"/>
       <c r="H184" s="41"/>
@@ -35981,10 +35987,10 @@
       <c r="GH184" s="41"/>
     </row>
     <row r="185" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B185" s="80"/>
-      <c r="C185" s="81"/>
+      <c r="B185" s="81"/>
+      <c r="C185" s="82"/>
       <c r="D185" s="38"/>
-      <c r="E185" s="66"/>
+      <c r="E185" s="68"/>
       <c r="F185" s="41"/>
       <c r="G185" s="41"/>
       <c r="H185" s="41"/>
@@ -36172,10 +36178,10 @@
       <c r="GH185" s="41"/>
     </row>
     <row r="186" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="80"/>
-      <c r="C186" s="81"/>
+      <c r="B186" s="81"/>
+      <c r="C186" s="82"/>
       <c r="D186" s="38"/>
-      <c r="E186" s="66"/>
+      <c r="E186" s="68"/>
       <c r="F186" s="41"/>
       <c r="G186" s="41"/>
       <c r="H186" s="41"/>
@@ -36363,10 +36369,10 @@
       <c r="GH186" s="41"/>
     </row>
     <row r="187" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="80"/>
-      <c r="C187" s="81"/>
+      <c r="B187" s="81"/>
+      <c r="C187" s="82"/>
       <c r="D187" s="38"/>
-      <c r="E187" s="66"/>
+      <c r="E187" s="68"/>
       <c r="F187" s="41"/>
       <c r="G187" s="41"/>
       <c r="H187" s="41"/>
@@ -36554,10 +36560,10 @@
       <c r="GH187" s="41"/>
     </row>
     <row r="188" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="80"/>
-      <c r="C188" s="81"/>
+      <c r="B188" s="81"/>
+      <c r="C188" s="82"/>
       <c r="D188" s="38"/>
-      <c r="E188" s="66"/>
+      <c r="E188" s="68"/>
       <c r="F188" s="41"/>
       <c r="G188" s="41"/>
       <c r="H188" s="41"/>
@@ -36745,10 +36751,10 @@
       <c r="GH188" s="41"/>
     </row>
     <row r="189" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="80"/>
-      <c r="C189" s="81"/>
+      <c r="B189" s="81"/>
+      <c r="C189" s="82"/>
       <c r="D189" s="38"/>
-      <c r="E189" s="66"/>
+      <c r="E189" s="68"/>
       <c r="F189" s="41"/>
       <c r="G189" s="41"/>
       <c r="H189" s="41"/>
@@ -36936,10 +36942,10 @@
       <c r="GH189" s="41"/>
     </row>
     <row r="190" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="80"/>
-      <c r="C190" s="81"/>
+      <c r="B190" s="81"/>
+      <c r="C190" s="82"/>
       <c r="D190" s="38"/>
-      <c r="E190" s="66"/>
+      <c r="E190" s="68"/>
       <c r="F190" s="41"/>
       <c r="G190" s="41"/>
       <c r="H190" s="41"/>
@@ -37127,10 +37133,10 @@
       <c r="GH190" s="41"/>
     </row>
     <row r="191" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="80"/>
-      <c r="C191" s="81"/>
+      <c r="B191" s="81"/>
+      <c r="C191" s="82"/>
       <c r="D191" s="38"/>
-      <c r="E191" s="66"/>
+      <c r="E191" s="68"/>
       <c r="F191" s="41"/>
       <c r="G191" s="41"/>
       <c r="H191" s="41"/>
@@ -37318,10 +37324,10 @@
       <c r="GH191" s="41"/>
     </row>
     <row r="192" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="80"/>
-      <c r="C192" s="81"/>
+      <c r="B192" s="81"/>
+      <c r="C192" s="82"/>
       <c r="D192" s="38"/>
-      <c r="E192" s="66"/>
+      <c r="E192" s="68"/>
       <c r="F192" s="41"/>
       <c r="G192" s="41"/>
       <c r="H192" s="41"/>
@@ -37509,10 +37515,10 @@
       <c r="GH192" s="41"/>
     </row>
     <row r="193" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="80"/>
-      <c r="C193" s="81"/>
+      <c r="B193" s="81"/>
+      <c r="C193" s="82"/>
       <c r="D193" s="38"/>
-      <c r="E193" s="66"/>
+      <c r="E193" s="68"/>
       <c r="F193" s="41"/>
       <c r="G193" s="41"/>
       <c r="H193" s="41"/>
@@ -37700,10 +37706,10 @@
       <c r="GH193" s="41"/>
     </row>
     <row r="194" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B194" s="80"/>
-      <c r="C194" s="81"/>
+      <c r="B194" s="81"/>
+      <c r="C194" s="82"/>
       <c r="D194" s="38"/>
-      <c r="E194" s="66"/>
+      <c r="E194" s="68"/>
       <c r="F194" s="41"/>
       <c r="G194" s="41"/>
       <c r="H194" s="41"/>
@@ -37891,10 +37897,10 @@
       <c r="GH194" s="41"/>
     </row>
     <row r="195" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B195" s="80"/>
-      <c r="C195" s="81"/>
+      <c r="B195" s="81"/>
+      <c r="C195" s="82"/>
       <c r="D195" s="38"/>
-      <c r="E195" s="66"/>
+      <c r="E195" s="68"/>
       <c r="F195" s="41"/>
       <c r="G195" s="41"/>
       <c r="H195" s="41"/>
@@ -38082,10 +38088,10 @@
       <c r="GH195" s="41"/>
     </row>
     <row r="196" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B196" s="80"/>
-      <c r="C196" s="81"/>
+      <c r="B196" s="81"/>
+      <c r="C196" s="82"/>
       <c r="D196" s="38"/>
-      <c r="E196" s="66"/>
+      <c r="E196" s="68"/>
       <c r="F196" s="41"/>
       <c r="G196" s="41"/>
       <c r="H196" s="41"/>
@@ -38273,10 +38279,10 @@
       <c r="GH196" s="41"/>
     </row>
     <row r="197" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="80"/>
-      <c r="C197" s="81"/>
+      <c r="B197" s="81"/>
+      <c r="C197" s="82"/>
       <c r="D197" s="38"/>
-      <c r="E197" s="66"/>
+      <c r="E197" s="68"/>
       <c r="F197" s="41"/>
       <c r="G197" s="41"/>
       <c r="H197" s="41"/>
@@ -38464,10 +38470,10 @@
       <c r="GH197" s="41"/>
     </row>
     <row r="198" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B198" s="80"/>
-      <c r="C198" s="81"/>
+      <c r="B198" s="81"/>
+      <c r="C198" s="82"/>
       <c r="D198" s="38"/>
-      <c r="E198" s="66"/>
+      <c r="E198" s="68"/>
       <c r="F198" s="41"/>
       <c r="G198" s="41"/>
       <c r="H198" s="41"/>
@@ -38655,10 +38661,10 @@
       <c r="GH198" s="41"/>
     </row>
     <row r="199" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="80"/>
-      <c r="C199" s="81"/>
+      <c r="B199" s="81"/>
+      <c r="C199" s="82"/>
       <c r="D199" s="38"/>
-      <c r="E199" s="66"/>
+      <c r="E199" s="68"/>
       <c r="F199" s="41"/>
       <c r="G199" s="41"/>
       <c r="H199" s="41"/>
@@ -38846,10 +38852,10 @@
       <c r="GH199" s="41"/>
     </row>
     <row r="200" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B200" s="80"/>
-      <c r="C200" s="81"/>
+      <c r="B200" s="81"/>
+      <c r="C200" s="82"/>
       <c r="D200" s="38"/>
-      <c r="E200" s="66"/>
+      <c r="E200" s="68"/>
       <c r="F200" s="41"/>
       <c r="G200" s="41"/>
       <c r="H200" s="41"/>
@@ -39037,10 +39043,10 @@
       <c r="GH200" s="41"/>
     </row>
     <row r="201" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="80"/>
-      <c r="C201" s="81"/>
+      <c r="B201" s="81"/>
+      <c r="C201" s="82"/>
       <c r="D201" s="38"/>
-      <c r="E201" s="66"/>
+      <c r="E201" s="68"/>
       <c r="F201" s="41"/>
       <c r="G201" s="41"/>
       <c r="H201" s="41"/>
@@ -39228,10 +39234,10 @@
       <c r="GH201" s="41"/>
     </row>
     <row r="202" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B202" s="80"/>
-      <c r="C202" s="81"/>
+      <c r="B202" s="81"/>
+      <c r="C202" s="82"/>
       <c r="D202" s="38"/>
-      <c r="E202" s="66"/>
+      <c r="E202" s="68"/>
       <c r="F202" s="41"/>
       <c r="G202" s="41"/>
       <c r="H202" s="41"/>
@@ -39419,10 +39425,10 @@
       <c r="GH202" s="41"/>
     </row>
     <row r="203" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B203" s="80"/>
-      <c r="C203" s="81"/>
+      <c r="B203" s="81"/>
+      <c r="C203" s="82"/>
       <c r="D203" s="38"/>
-      <c r="E203" s="66"/>
+      <c r="E203" s="68"/>
       <c r="F203" s="41"/>
       <c r="G203" s="41"/>
       <c r="H203" s="41"/>
@@ -39610,10 +39616,10 @@
       <c r="GH203" s="41"/>
     </row>
     <row r="204" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B204" s="80"/>
-      <c r="C204" s="81"/>
+      <c r="B204" s="81"/>
+      <c r="C204" s="82"/>
       <c r="D204" s="38"/>
-      <c r="E204" s="66"/>
+      <c r="E204" s="68"/>
       <c r="F204" s="41"/>
       <c r="G204" s="41"/>
       <c r="H204" s="41"/>
@@ -39801,10 +39807,10 @@
       <c r="GH204" s="41"/>
     </row>
     <row r="205" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="80"/>
-      <c r="C205" s="81"/>
+      <c r="B205" s="81"/>
+      <c r="C205" s="82"/>
       <c r="D205" s="38"/>
-      <c r="E205" s="66"/>
+      <c r="E205" s="68"/>
       <c r="F205" s="41"/>
       <c r="G205" s="41"/>
       <c r="H205" s="41"/>
@@ -39992,10 +39998,10 @@
       <c r="GH205" s="41"/>
     </row>
     <row r="206" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B206" s="80"/>
-      <c r="C206" s="81"/>
+      <c r="B206" s="81"/>
+      <c r="C206" s="82"/>
       <c r="D206" s="38"/>
-      <c r="E206" s="66"/>
+      <c r="E206" s="68"/>
       <c r="F206" s="41"/>
       <c r="G206" s="41"/>
       <c r="H206" s="41"/>
@@ -40183,10 +40189,10 @@
       <c r="GH206" s="41"/>
     </row>
     <row r="207" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B207" s="80"/>
-      <c r="C207" s="81"/>
+      <c r="B207" s="81"/>
+      <c r="C207" s="82"/>
       <c r="D207" s="38"/>
-      <c r="E207" s="66"/>
+      <c r="E207" s="68"/>
       <c r="F207" s="41"/>
       <c r="G207" s="41"/>
       <c r="H207" s="41"/>
@@ -40374,10 +40380,10 @@
       <c r="GH207" s="41"/>
     </row>
     <row r="208" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B208" s="80"/>
-      <c r="C208" s="81"/>
+      <c r="B208" s="81"/>
+      <c r="C208" s="82"/>
       <c r="D208" s="38"/>
-      <c r="E208" s="66"/>
+      <c r="E208" s="68"/>
       <c r="F208" s="41"/>
       <c r="G208" s="41"/>
       <c r="H208" s="41"/>
@@ -40565,10 +40571,10 @@
       <c r="GH208" s="41"/>
     </row>
     <row r="209" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B209" s="80"/>
-      <c r="C209" s="81"/>
+      <c r="B209" s="81"/>
+      <c r="C209" s="82"/>
       <c r="D209" s="38"/>
-      <c r="E209" s="66"/>
+      <c r="E209" s="68"/>
       <c r="F209" s="41"/>
       <c r="G209" s="41"/>
       <c r="H209" s="41"/>
@@ -40756,10 +40762,10 @@
       <c r="GH209" s="41"/>
     </row>
     <row r="210" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="80"/>
-      <c r="C210" s="81"/>
+      <c r="B210" s="81"/>
+      <c r="C210" s="82"/>
       <c r="D210" s="38"/>
-      <c r="E210" s="66"/>
+      <c r="E210" s="68"/>
       <c r="F210" s="41"/>
       <c r="G210" s="41"/>
       <c r="H210" s="41"/>
@@ -40947,10 +40953,10 @@
       <c r="GH210" s="41"/>
     </row>
     <row r="211" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="80"/>
-      <c r="C211" s="81"/>
+      <c r="B211" s="81"/>
+      <c r="C211" s="82"/>
       <c r="D211" s="38"/>
-      <c r="E211" s="66"/>
+      <c r="E211" s="68"/>
       <c r="F211" s="41"/>
       <c r="G211" s="41"/>
       <c r="H211" s="41"/>
@@ -41138,10 +41144,10 @@
       <c r="GH211" s="41"/>
     </row>
     <row r="212" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="80"/>
-      <c r="C212" s="81"/>
+      <c r="B212" s="81"/>
+      <c r="C212" s="82"/>
       <c r="D212" s="38"/>
-      <c r="E212" s="66"/>
+      <c r="E212" s="68"/>
       <c r="F212" s="41"/>
       <c r="G212" s="41"/>
       <c r="H212" s="41"/>
@@ -41329,10 +41335,10 @@
       <c r="GH212" s="41"/>
     </row>
     <row r="213" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="80"/>
-      <c r="C213" s="81"/>
+      <c r="B213" s="81"/>
+      <c r="C213" s="82"/>
       <c r="D213" s="38"/>
-      <c r="E213" s="66"/>
+      <c r="E213" s="68"/>
       <c r="F213" s="41"/>
       <c r="G213" s="41"/>
       <c r="H213" s="41"/>
@@ -41520,10 +41526,10 @@
       <c r="GH213" s="41"/>
     </row>
     <row r="214" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="80"/>
-      <c r="C214" s="81"/>
+      <c r="B214" s="81"/>
+      <c r="C214" s="82"/>
       <c r="D214" s="38"/>
-      <c r="E214" s="66"/>
+      <c r="E214" s="68"/>
       <c r="F214" s="41"/>
       <c r="G214" s="41"/>
       <c r="H214" s="41"/>
@@ -41711,10 +41717,10 @@
       <c r="GH214" s="41"/>
     </row>
     <row r="215" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B215" s="80"/>
-      <c r="C215" s="81"/>
+      <c r="B215" s="81"/>
+      <c r="C215" s="82"/>
       <c r="D215" s="38"/>
-      <c r="E215" s="66"/>
+      <c r="E215" s="68"/>
       <c r="F215" s="41"/>
       <c r="G215" s="41"/>
       <c r="H215" s="41"/>
@@ -41902,10 +41908,10 @@
       <c r="GH215" s="41"/>
     </row>
     <row r="216" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="80"/>
-      <c r="C216" s="81"/>
+      <c r="B216" s="81"/>
+      <c r="C216" s="82"/>
       <c r="D216" s="38"/>
-      <c r="E216" s="66"/>
+      <c r="E216" s="68"/>
       <c r="F216" s="41"/>
       <c r="G216" s="41"/>
       <c r="H216" s="41"/>
@@ -42093,10 +42099,10 @@
       <c r="GH216" s="41"/>
     </row>
     <row r="217" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="80"/>
-      <c r="C217" s="81"/>
+      <c r="B217" s="81"/>
+      <c r="C217" s="82"/>
       <c r="D217" s="38"/>
-      <c r="E217" s="66"/>
+      <c r="E217" s="68"/>
       <c r="F217" s="41"/>
       <c r="G217" s="41"/>
       <c r="H217" s="41"/>
@@ -42284,10 +42290,10 @@
       <c r="GH217" s="41"/>
     </row>
     <row r="218" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="80"/>
-      <c r="C218" s="81"/>
+      <c r="B218" s="81"/>
+      <c r="C218" s="82"/>
       <c r="D218" s="38"/>
-      <c r="E218" s="66"/>
+      <c r="E218" s="68"/>
       <c r="F218" s="41"/>
       <c r="G218" s="41"/>
       <c r="H218" s="41"/>
@@ -42475,10 +42481,10 @@
       <c r="GH218" s="41"/>
     </row>
     <row r="219" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="80"/>
-      <c r="C219" s="81"/>
+      <c r="B219" s="81"/>
+      <c r="C219" s="82"/>
       <c r="D219" s="38"/>
-      <c r="E219" s="66"/>
+      <c r="E219" s="68"/>
       <c r="F219" s="41"/>
       <c r="G219" s="41"/>
       <c r="H219" s="41"/>
@@ -42666,10 +42672,10 @@
       <c r="GH219" s="41"/>
     </row>
     <row r="220" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="80"/>
-      <c r="C220" s="81"/>
+      <c r="B220" s="81"/>
+      <c r="C220" s="82"/>
       <c r="D220" s="38"/>
-      <c r="E220" s="66"/>
+      <c r="E220" s="68"/>
       <c r="F220" s="41"/>
       <c r="G220" s="41"/>
       <c r="H220" s="41"/>
@@ -42857,10 +42863,10 @@
       <c r="GH220" s="41"/>
     </row>
     <row r="221" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="80"/>
-      <c r="C221" s="81"/>
+      <c r="B221" s="81"/>
+      <c r="C221" s="82"/>
       <c r="D221" s="38"/>
-      <c r="E221" s="66"/>
+      <c r="E221" s="68"/>
       <c r="F221" s="41"/>
       <c r="G221" s="41"/>
       <c r="H221" s="41"/>
@@ -43048,10 +43054,10 @@
       <c r="GH221" s="41"/>
     </row>
     <row r="222" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="80"/>
-      <c r="C222" s="81"/>
+      <c r="B222" s="81"/>
+      <c r="C222" s="82"/>
       <c r="D222" s="38"/>
-      <c r="E222" s="66"/>
+      <c r="E222" s="68"/>
       <c r="F222" s="41"/>
       <c r="G222" s="41"/>
       <c r="H222" s="41"/>
@@ -43239,10 +43245,10 @@
       <c r="GH222" s="41"/>
     </row>
     <row r="223" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="80"/>
-      <c r="C223" s="81"/>
+      <c r="B223" s="81"/>
+      <c r="C223" s="82"/>
       <c r="D223" s="38"/>
-      <c r="E223" s="66"/>
+      <c r="E223" s="68"/>
       <c r="F223" s="41"/>
       <c r="G223" s="41"/>
       <c r="H223" s="41"/>
@@ -43430,10 +43436,10 @@
       <c r="GH223" s="41"/>
     </row>
     <row r="224" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="80"/>
-      <c r="C224" s="81"/>
+      <c r="B224" s="81"/>
+      <c r="C224" s="82"/>
       <c r="D224" s="38"/>
-      <c r="E224" s="66"/>
+      <c r="E224" s="68"/>
       <c r="F224" s="41"/>
       <c r="G224" s="41"/>
       <c r="H224" s="41"/>
@@ -43621,10 +43627,10 @@
       <c r="GH224" s="41"/>
     </row>
     <row r="225" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="80"/>
-      <c r="C225" s="81"/>
+      <c r="B225" s="81"/>
+      <c r="C225" s="82"/>
       <c r="D225" s="38"/>
-      <c r="E225" s="66"/>
+      <c r="E225" s="68"/>
       <c r="F225" s="41"/>
       <c r="G225" s="41"/>
       <c r="H225" s="41"/>
@@ -43812,10 +43818,10 @@
       <c r="GH225" s="41"/>
     </row>
     <row r="226" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="80"/>
-      <c r="C226" s="81"/>
+      <c r="B226" s="81"/>
+      <c r="C226" s="82"/>
       <c r="D226" s="38"/>
-      <c r="E226" s="66"/>
+      <c r="E226" s="68"/>
       <c r="F226" s="41"/>
       <c r="G226" s="41"/>
       <c r="H226" s="41"/>
@@ -44003,10 +44009,10 @@
       <c r="GH226" s="41"/>
     </row>
     <row r="227" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="80"/>
-      <c r="C227" s="81"/>
+      <c r="B227" s="81"/>
+      <c r="C227" s="82"/>
       <c r="D227" s="38"/>
-      <c r="E227" s="66"/>
+      <c r="E227" s="68"/>
       <c r="F227" s="41"/>
       <c r="G227" s="41"/>
       <c r="H227" s="41"/>
@@ -44194,10 +44200,10 @@
       <c r="GH227" s="41"/>
     </row>
     <row r="228" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="80"/>
-      <c r="C228" s="81"/>
+      <c r="B228" s="81"/>
+      <c r="C228" s="82"/>
       <c r="D228" s="38"/>
-      <c r="E228" s="66"/>
+      <c r="E228" s="68"/>
       <c r="F228" s="41"/>
       <c r="G228" s="41"/>
       <c r="H228" s="41"/>
@@ -44385,10 +44391,10 @@
       <c r="GH228" s="41"/>
     </row>
     <row r="229" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="80"/>
-      <c r="C229" s="81"/>
+      <c r="B229" s="81"/>
+      <c r="C229" s="82"/>
       <c r="D229" s="38"/>
-      <c r="E229" s="66"/>
+      <c r="E229" s="68"/>
       <c r="F229" s="41"/>
       <c r="G229" s="41"/>
       <c r="H229" s="41"/>
@@ -44576,10 +44582,10 @@
       <c r="GH229" s="41"/>
     </row>
     <row r="230" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="80"/>
-      <c r="C230" s="81"/>
+      <c r="B230" s="81"/>
+      <c r="C230" s="82"/>
       <c r="D230" s="38"/>
-      <c r="E230" s="66"/>
+      <c r="E230" s="68"/>
       <c r="F230" s="41"/>
       <c r="G230" s="41"/>
       <c r="H230" s="41"/>
@@ -44767,10 +44773,10 @@
       <c r="GH230" s="41"/>
     </row>
     <row r="231" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="80"/>
-      <c r="C231" s="81"/>
+      <c r="B231" s="81"/>
+      <c r="C231" s="82"/>
       <c r="D231" s="38"/>
-      <c r="E231" s="66"/>
+      <c r="E231" s="68"/>
       <c r="F231" s="41"/>
       <c r="G231" s="41"/>
       <c r="H231" s="41"/>
@@ -44958,10 +44964,10 @@
       <c r="GH231" s="41"/>
     </row>
     <row r="232" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="80"/>
-      <c r="C232" s="81"/>
+      <c r="B232" s="81"/>
+      <c r="C232" s="82"/>
       <c r="D232" s="38"/>
-      <c r="E232" s="66"/>
+      <c r="E232" s="68"/>
       <c r="F232" s="41"/>
       <c r="G232" s="41"/>
       <c r="H232" s="41"/>
@@ -45149,10 +45155,10 @@
       <c r="GH232" s="41"/>
     </row>
     <row r="233" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="80"/>
-      <c r="C233" s="81"/>
+      <c r="B233" s="81"/>
+      <c r="C233" s="82"/>
       <c r="D233" s="38"/>
-      <c r="E233" s="66"/>
+      <c r="E233" s="68"/>
       <c r="F233" s="41"/>
       <c r="G233" s="41"/>
       <c r="H233" s="41"/>
@@ -45340,10 +45346,10 @@
       <c r="GH233" s="41"/>
     </row>
     <row r="234" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="80"/>
-      <c r="C234" s="81"/>
+      <c r="B234" s="81"/>
+      <c r="C234" s="82"/>
       <c r="D234" s="38"/>
-      <c r="E234" s="66"/>
+      <c r="E234" s="68"/>
       <c r="F234" s="41"/>
       <c r="G234" s="41"/>
       <c r="H234" s="41"/>
@@ -45531,10 +45537,10 @@
       <c r="GH234" s="41"/>
     </row>
     <row r="235" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="80"/>
-      <c r="C235" s="81"/>
+      <c r="B235" s="81"/>
+      <c r="C235" s="82"/>
       <c r="D235" s="38"/>
-      <c r="E235" s="66"/>
+      <c r="E235" s="68"/>
       <c r="F235" s="41"/>
       <c r="G235" s="41"/>
       <c r="H235" s="41"/>
@@ -45722,10 +45728,10 @@
       <c r="GH235" s="41"/>
     </row>
     <row r="236" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="80"/>
-      <c r="C236" s="81"/>
+      <c r="B236" s="81"/>
+      <c r="C236" s="82"/>
       <c r="D236" s="38"/>
-      <c r="E236" s="66"/>
+      <c r="E236" s="68"/>
       <c r="F236" s="41"/>
       <c r="G236" s="41"/>
       <c r="H236" s="41"/>
@@ -45913,10 +45919,10 @@
       <c r="GH236" s="41"/>
     </row>
     <row r="237" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="80"/>
-      <c r="C237" s="81"/>
+      <c r="B237" s="81"/>
+      <c r="C237" s="82"/>
       <c r="D237" s="38"/>
-      <c r="E237" s="66"/>
+      <c r="E237" s="68"/>
       <c r="F237" s="41"/>
       <c r="G237" s="41"/>
       <c r="H237" s="41"/>
@@ -46104,10 +46110,10 @@
       <c r="GH237" s="41"/>
     </row>
     <row r="238" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="80"/>
-      <c r="C238" s="81"/>
+      <c r="B238" s="81"/>
+      <c r="C238" s="82"/>
       <c r="D238" s="38"/>
-      <c r="E238" s="66"/>
+      <c r="E238" s="68"/>
       <c r="F238" s="41"/>
       <c r="G238" s="41"/>
       <c r="H238" s="41"/>
@@ -46295,10 +46301,10 @@
       <c r="GH238" s="41"/>
     </row>
     <row r="239" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="80"/>
-      <c r="C239" s="81"/>
+      <c r="B239" s="81"/>
+      <c r="C239" s="82"/>
       <c r="D239" s="38"/>
-      <c r="E239" s="66"/>
+      <c r="E239" s="68"/>
       <c r="F239" s="41"/>
       <c r="G239" s="41"/>
       <c r="H239" s="41"/>
@@ -46486,10 +46492,10 @@
       <c r="GH239" s="41"/>
     </row>
     <row r="240" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="80"/>
-      <c r="C240" s="81"/>
+      <c r="B240" s="81"/>
+      <c r="C240" s="82"/>
       <c r="D240" s="38"/>
-      <c r="E240" s="66"/>
+      <c r="E240" s="68"/>
       <c r="F240" s="41"/>
       <c r="G240" s="41"/>
       <c r="H240" s="41"/>
@@ -46677,10 +46683,10 @@
       <c r="GH240" s="41"/>
     </row>
     <row r="241" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="80"/>
-      <c r="C241" s="81"/>
+      <c r="B241" s="81"/>
+      <c r="C241" s="82"/>
       <c r="D241" s="38"/>
-      <c r="E241" s="66"/>
+      <c r="E241" s="68"/>
       <c r="F241" s="41"/>
       <c r="G241" s="41"/>
       <c r="H241" s="41"/>
@@ -46868,10 +46874,10 @@
       <c r="GH241" s="41"/>
     </row>
     <row r="242" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="80"/>
-      <c r="C242" s="81"/>
+      <c r="B242" s="81"/>
+      <c r="C242" s="82"/>
       <c r="D242" s="38"/>
-      <c r="E242" s="66"/>
+      <c r="E242" s="68"/>
       <c r="F242" s="41"/>
       <c r="G242" s="41"/>
       <c r="H242" s="41"/>
@@ -47059,10 +47065,10 @@
       <c r="GH242" s="41"/>
     </row>
     <row r="243" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="80"/>
-      <c r="C243" s="81"/>
+      <c r="B243" s="81"/>
+      <c r="C243" s="82"/>
       <c r="D243" s="38"/>
-      <c r="E243" s="66"/>
+      <c r="E243" s="68"/>
       <c r="F243" s="41"/>
       <c r="G243" s="41"/>
       <c r="H243" s="41"/>
@@ -47250,10 +47256,10 @@
       <c r="GH243" s="41"/>
     </row>
     <row r="244" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="80"/>
-      <c r="C244" s="81"/>
+      <c r="B244" s="81"/>
+      <c r="C244" s="82"/>
       <c r="D244" s="38"/>
-      <c r="E244" s="66"/>
+      <c r="E244" s="68"/>
       <c r="F244" s="41"/>
       <c r="G244" s="41"/>
       <c r="H244" s="41"/>
@@ -47441,10 +47447,10 @@
       <c r="GH244" s="41"/>
     </row>
     <row r="245" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="80"/>
-      <c r="C245" s="81"/>
+      <c r="B245" s="81"/>
+      <c r="C245" s="82"/>
       <c r="D245" s="38"/>
-      <c r="E245" s="66"/>
+      <c r="E245" s="68"/>
       <c r="F245" s="41"/>
       <c r="G245" s="41"/>
       <c r="H245" s="41"/>
@@ -47632,10 +47638,10 @@
       <c r="GH245" s="41"/>
     </row>
     <row r="246" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="80"/>
-      <c r="C246" s="81"/>
+      <c r="B246" s="81"/>
+      <c r="C246" s="82"/>
       <c r="D246" s="38"/>
-      <c r="E246" s="66"/>
+      <c r="E246" s="68"/>
       <c r="F246" s="41"/>
       <c r="G246" s="41"/>
       <c r="H246" s="41"/>
@@ -47823,10 +47829,10 @@
       <c r="GH246" s="41"/>
     </row>
     <row r="247" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="80"/>
-      <c r="C247" s="81"/>
+      <c r="B247" s="81"/>
+      <c r="C247" s="82"/>
       <c r="D247" s="38"/>
-      <c r="E247" s="66"/>
+      <c r="E247" s="68"/>
       <c r="F247" s="41"/>
       <c r="G247" s="41"/>
       <c r="H247" s="41"/>
@@ -48014,10 +48020,10 @@
       <c r="GH247" s="41"/>
     </row>
     <row r="248" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="80"/>
-      <c r="C248" s="81"/>
+      <c r="B248" s="81"/>
+      <c r="C248" s="82"/>
       <c r="D248" s="38"/>
-      <c r="E248" s="66"/>
+      <c r="E248" s="68"/>
       <c r="F248" s="41"/>
       <c r="G248" s="41"/>
       <c r="H248" s="41"/>
@@ -48205,10 +48211,10 @@
       <c r="GH248" s="41"/>
     </row>
     <row r="249" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="80"/>
-      <c r="C249" s="81"/>
+      <c r="B249" s="81"/>
+      <c r="C249" s="82"/>
       <c r="D249" s="38"/>
-      <c r="E249" s="66"/>
+      <c r="E249" s="68"/>
       <c r="F249" s="41"/>
       <c r="G249" s="41"/>
       <c r="H249" s="41"/>
@@ -48396,10 +48402,10 @@
       <c r="GH249" s="41"/>
     </row>
     <row r="250" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="80"/>
-      <c r="C250" s="81"/>
+      <c r="B250" s="81"/>
+      <c r="C250" s="82"/>
       <c r="D250" s="38"/>
-      <c r="E250" s="66"/>
+      <c r="E250" s="68"/>
       <c r="F250" s="41"/>
       <c r="G250" s="41"/>
       <c r="H250" s="41"/>
@@ -48912,11 +48918,11 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="83">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="83"/>
+      <c r="D2" s="84"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -49045,10 +49051,10 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" s="8" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="93"/>
+      <c r="C10" s="94"/>
       <c r="D10" s="53" t="s">
         <v>34</v>
       </c>
@@ -49066,8 +49072,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="54"/>
       <c r="E11" s="54"/>
       <c r="F11" s="59"/>
@@ -49075,8 +49081,8 @@
       <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
       <c r="D12" s="55"/>
       <c r="E12" s="55"/>
       <c r="F12" s="52"/>
@@ -49084,8 +49090,8 @@
       <c r="H12" s="57"/>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="54"/>
       <c r="E13" s="54"/>
       <c r="F13" s="59"/>
@@ -49093,8 +49099,8 @@
       <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
       <c r="D14" s="55"/>
       <c r="E14" s="55"/>
       <c r="F14" s="52"/>
@@ -49102,8 +49108,8 @@
       <c r="H14" s="57"/>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="59"/>
@@ -49111,8 +49117,8 @@
       <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
       <c r="D16" s="55"/>
       <c r="E16" s="55"/>
       <c r="F16" s="52"/>
@@ -49120,8 +49126,8 @@
       <c r="H16" s="57"/>
     </row>
     <row r="17" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="54"/>
       <c r="E17" s="54"/>
       <c r="F17" s="59"/>
@@ -49129,8 +49135,8 @@
       <c r="H17" s="58"/>
     </row>
     <row r="18" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="55"/>
       <c r="E18" s="55"/>
       <c r="F18" s="52"/>
@@ -49138,8 +49144,8 @@
       <c r="H18" s="57"/>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="88"/>
-      <c r="C19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="54"/>
       <c r="E19" s="54"/>
       <c r="F19" s="59"/>
@@ -49147,8 +49153,8 @@
       <c r="H19" s="58"/>
     </row>
     <row r="20" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
       <c r="F20" s="52"/>
@@ -49156,8 +49162,8 @@
       <c r="H20" s="57"/>
     </row>
     <row r="21" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
       <c r="F21" s="59"/>
@@ -49165,8 +49171,8 @@
       <c r="H21" s="58"/>
     </row>
     <row r="22" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
       <c r="D22" s="55"/>
       <c r="E22" s="55"/>
       <c r="F22" s="52"/>
@@ -49174,8 +49180,8 @@
       <c r="H22" s="57"/>
     </row>
     <row r="23" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
       <c r="F23" s="59"/>
@@ -49183,8 +49189,8 @@
       <c r="H23" s="58"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
       <c r="F24" s="52"/>
@@ -49192,8 +49198,8 @@
       <c r="H24" s="57"/>
     </row>
     <row r="25" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
       <c r="F25" s="59"/>
@@ -49201,8 +49207,8 @@
       <c r="H25" s="58"/>
     </row>
     <row r="26" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
       <c r="F26" s="52"/>
@@ -49210,8 +49216,8 @@
       <c r="H26" s="57"/>
     </row>
     <row r="27" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
       <c r="F27" s="59"/>
@@ -49219,8 +49225,8 @@
       <c r="H27" s="58"/>
     </row>
     <row r="28" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
       <c r="F28" s="52"/>
@@ -49228,8 +49234,8 @@
       <c r="H28" s="57"/>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
       <c r="F29" s="59"/>
@@ -49237,8 +49243,8 @@
       <c r="H29" s="58"/>
     </row>
     <row r="30" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="92"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
       <c r="F30" s="52"/>
@@ -49246,8 +49252,8 @@
       <c r="H30" s="57"/>
     </row>
     <row r="31" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="59"/>
@@ -49255,8 +49261,8 @@
       <c r="H31" s="58"/>
     </row>
     <row r="32" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="92"/>
       <c r="D32" s="55"/>
       <c r="E32" s="55"/>
       <c r="F32" s="52"/>
@@ -49264,8 +49270,8 @@
       <c r="H32" s="57"/>
     </row>
     <row r="33" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="59"/>
@@ -49273,8 +49279,8 @@
       <c r="H33" s="58"/>
     </row>
     <row r="34" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="55"/>
       <c r="E34" s="55"/>
       <c r="F34" s="52"/>
@@ -49282,8 +49288,8 @@
       <c r="H34" s="57"/>
     </row>
     <row r="35" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="88"/>
-      <c r="C35" s="89"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="59"/>
@@ -49291,8 +49297,8 @@
       <c r="H35" s="58"/>
     </row>
     <row r="36" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="55"/>
       <c r="E36" s="55"/>
       <c r="F36" s="52"/>
@@ -49300,8 +49306,8 @@
       <c r="H36" s="57"/>
     </row>
     <row r="37" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="59"/>
@@ -49309,8 +49315,8 @@
       <c r="H37" s="58"/>
     </row>
     <row r="38" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
+      <c r="B38" s="91"/>
+      <c r="C38" s="92"/>
       <c r="D38" s="55"/>
       <c r="E38" s="55"/>
       <c r="F38" s="52"/>
@@ -49318,8 +49324,8 @@
       <c r="H38" s="57"/>
     </row>
     <row r="39" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="88"/>
-      <c r="C39" s="89"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="59"/>
@@ -49327,8 +49333,8 @@
       <c r="H39" s="58"/>
     </row>
     <row r="40" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
+      <c r="B40" s="91"/>
+      <c r="C40" s="92"/>
       <c r="D40" s="55"/>
       <c r="E40" s="55"/>
       <c r="F40" s="52"/>
@@ -49336,8 +49342,8 @@
       <c r="H40" s="57"/>
     </row>
     <row r="41" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
       <c r="F41" s="59"/>
@@ -49345,8 +49351,8 @@
       <c r="H41" s="58"/>
     </row>
     <row r="42" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="92"/>
       <c r="D42" s="55"/>
       <c r="E42" s="55"/>
       <c r="F42" s="52"/>
@@ -49354,8 +49360,8 @@
       <c r="H42" s="57"/>
     </row>
     <row r="43" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="59"/>
@@ -49363,8 +49369,8 @@
       <c r="H43" s="58"/>
     </row>
     <row r="44" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="90"/>
-      <c r="C44" s="91"/>
+      <c r="B44" s="91"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="55"/>
       <c r="E44" s="55"/>
       <c r="F44" s="52"/>
@@ -49372,8 +49378,8 @@
       <c r="H44" s="57"/>
     </row>
     <row r="45" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="88"/>
-      <c r="C45" s="89"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="54"/>
       <c r="E45" s="54"/>
       <c r="F45" s="59"/>
@@ -49381,8 +49387,8 @@
       <c r="H45" s="58"/>
     </row>
     <row r="46" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="90"/>
-      <c r="C46" s="91"/>
+      <c r="B46" s="91"/>
+      <c r="C46" s="92"/>
       <c r="D46" s="55"/>
       <c r="E46" s="55"/>
       <c r="F46" s="52"/>
@@ -49390,8 +49396,8 @@
       <c r="H46" s="57"/>
     </row>
     <row r="47" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="54"/>
       <c r="E47" s="54"/>
       <c r="F47" s="59"/>
@@ -49399,8 +49405,8 @@
       <c r="H47" s="58"/>
     </row>
     <row r="48" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="90"/>
-      <c r="C48" s="91"/>
+      <c r="B48" s="91"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="55"/>
       <c r="E48" s="55"/>
       <c r="F48" s="52"/>
@@ -49408,8 +49414,8 @@
       <c r="H48" s="57"/>
     </row>
     <row r="49" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="54"/>
       <c r="E49" s="54"/>
       <c r="F49" s="59"/>
@@ -49417,8 +49423,8 @@
       <c r="H49" s="58"/>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="90"/>
-      <c r="C50" s="91"/>
+      <c r="B50" s="91"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="55"/>
       <c r="E50" s="55"/>
       <c r="F50" s="52"/>
@@ -49426,8 +49432,8 @@
       <c r="H50" s="57"/>
     </row>
     <row r="51" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="88"/>
-      <c r="C51" s="89"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="54"/>
       <c r="E51" s="54"/>
       <c r="F51" s="59"/>
@@ -49435,8 +49441,8 @@
       <c r="H51" s="58"/>
     </row>
     <row r="52" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="90"/>
-      <c r="C52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="92"/>
       <c r="D52" s="55"/>
       <c r="E52" s="55"/>
       <c r="F52" s="52"/>
@@ -49444,8 +49450,8 @@
       <c r="H52" s="57"/>
     </row>
     <row r="53" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="88"/>
-      <c r="C53" s="89"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="54"/>
       <c r="E53" s="54"/>
       <c r="F53" s="59"/>
@@ -49453,8 +49459,8 @@
       <c r="H53" s="58"/>
     </row>
     <row r="54" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="90"/>
-      <c r="C54" s="91"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="92"/>
       <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="52"/>
@@ -49462,8 +49468,8 @@
       <c r="H54" s="57"/>
     </row>
     <row r="55" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="54"/>
       <c r="E55" s="54"/>
       <c r="F55" s="59"/>
@@ -49471,8 +49477,8 @@
       <c r="H55" s="58"/>
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="90"/>
-      <c r="C56" s="91"/>
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="55"/>
       <c r="E56" s="55"/>
       <c r="F56" s="52"/>
@@ -49480,8 +49486,8 @@
       <c r="H56" s="57"/>
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="54"/>
       <c r="E57" s="54"/>
       <c r="F57" s="59"/>
@@ -49489,8 +49495,8 @@
       <c r="H57" s="58"/>
     </row>
     <row r="58" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="90"/>
-      <c r="C58" s="91"/>
+      <c r="B58" s="91"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="55"/>
       <c r="E58" s="55"/>
       <c r="F58" s="52"/>
@@ -49498,8 +49504,8 @@
       <c r="H58" s="57"/>
     </row>
     <row r="59" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="54"/>
       <c r="E59" s="54"/>
       <c r="F59" s="59"/>
@@ -49507,8 +49513,8 @@
       <c r="H59" s="58"/>
     </row>
     <row r="60" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="90"/>
-      <c r="C60" s="91"/>
+      <c r="B60" s="91"/>
+      <c r="C60" s="92"/>
       <c r="D60" s="55"/>
       <c r="E60" s="55"/>
       <c r="F60" s="52"/>
@@ -49516,8 +49522,8 @@
       <c r="H60" s="57"/>
     </row>
     <row r="61" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="54"/>
       <c r="E61" s="54"/>
       <c r="F61" s="59"/>
@@ -49525,8 +49531,8 @@
       <c r="H61" s="58"/>
     </row>
     <row r="62" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="90"/>
-      <c r="C62" s="91"/>
+      <c r="B62" s="91"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="55"/>
       <c r="E62" s="55"/>
       <c r="F62" s="52"/>
@@ -49534,8 +49540,8 @@
       <c r="H62" s="57"/>
     </row>
     <row r="63" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="88"/>
-      <c r="C63" s="89"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="54"/>
       <c r="E63" s="54"/>
       <c r="F63" s="59"/>
@@ -49543,8 +49549,8 @@
       <c r="H63" s="58"/>
     </row>
     <row r="64" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="90"/>
-      <c r="C64" s="91"/>
+      <c r="B64" s="91"/>
+      <c r="C64" s="92"/>
       <c r="D64" s="55"/>
       <c r="E64" s="55"/>
       <c r="F64" s="52"/>
@@ -49552,8 +49558,8 @@
       <c r="H64" s="57"/>
     </row>
     <row r="65" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="88"/>
-      <c r="C65" s="89"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="54"/>
       <c r="E65" s="54"/>
       <c r="F65" s="59"/>
@@ -49561,8 +49567,8 @@
       <c r="H65" s="58"/>
     </row>
     <row r="66" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="90"/>
-      <c r="C66" s="91"/>
+      <c r="B66" s="91"/>
+      <c r="C66" s="92"/>
       <c r="D66" s="55"/>
       <c r="E66" s="55"/>
       <c r="F66" s="52"/>
@@ -49570,8 +49576,8 @@
       <c r="H66" s="57"/>
     </row>
     <row r="67" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="54"/>
       <c r="E67" s="54"/>
       <c r="F67" s="59"/>
@@ -49579,8 +49585,8 @@
       <c r="H67" s="58"/>
     </row>
     <row r="68" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="90"/>
-      <c r="C68" s="91"/>
+      <c r="B68" s="91"/>
+      <c r="C68" s="92"/>
       <c r="D68" s="55"/>
       <c r="E68" s="55"/>
       <c r="F68" s="52"/>
@@ -49588,8 +49594,8 @@
       <c r="H68" s="57"/>
     </row>
     <row r="69" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="88"/>
-      <c r="C69" s="89"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="54"/>
       <c r="E69" s="54"/>
       <c r="F69" s="59"/>
@@ -49597,8 +49603,8 @@
       <c r="H69" s="58"/>
     </row>
     <row r="70" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="90"/>
-      <c r="C70" s="91"/>
+      <c r="B70" s="91"/>
+      <c r="C70" s="92"/>
       <c r="D70" s="55"/>
       <c r="E70" s="55"/>
       <c r="F70" s="52"/>
@@ -49606,8 +49612,8 @@
       <c r="H70" s="57"/>
     </row>
     <row r="71" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="88"/>
-      <c r="C71" s="89"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="54"/>
       <c r="E71" s="54"/>
       <c r="F71" s="59"/>
@@ -49615,8 +49621,8 @@
       <c r="H71" s="58"/>
     </row>
     <row r="72" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="90"/>
-      <c r="C72" s="91"/>
+      <c r="B72" s="91"/>
+      <c r="C72" s="92"/>
       <c r="D72" s="55"/>
       <c r="E72" s="55"/>
       <c r="F72" s="52"/>
@@ -49624,8 +49630,8 @@
       <c r="H72" s="57"/>
     </row>
     <row r="73" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="88"/>
-      <c r="C73" s="89"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="54"/>
       <c r="E73" s="54"/>
       <c r="F73" s="59"/>
@@ -49633,8 +49639,8 @@
       <c r="H73" s="58"/>
     </row>
     <row r="74" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="90"/>
-      <c r="C74" s="91"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="92"/>
       <c r="D74" s="55"/>
       <c r="E74" s="55"/>
       <c r="F74" s="52"/>
@@ -49642,8 +49648,8 @@
       <c r="H74" s="57"/>
     </row>
     <row r="75" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="88"/>
-      <c r="C75" s="89"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="54"/>
       <c r="E75" s="54"/>
       <c r="F75" s="59"/>
@@ -49651,8 +49657,8 @@
       <c r="H75" s="58"/>
     </row>
     <row r="76" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="90"/>
-      <c r="C76" s="91"/>
+      <c r="B76" s="91"/>
+      <c r="C76" s="92"/>
       <c r="D76" s="55"/>
       <c r="E76" s="55"/>
       <c r="F76" s="52"/>
@@ -49660,8 +49666,8 @@
       <c r="H76" s="57"/>
     </row>
     <row r="77" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="88"/>
-      <c r="C77" s="89"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="54"/>
       <c r="E77" s="54"/>
       <c r="F77" s="59"/>
@@ -49669,8 +49675,8 @@
       <c r="H77" s="58"/>
     </row>
     <row r="78" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="90"/>
-      <c r="C78" s="91"/>
+      <c r="B78" s="91"/>
+      <c r="C78" s="92"/>
       <c r="D78" s="55"/>
       <c r="E78" s="55"/>
       <c r="F78" s="52"/>
@@ -49678,8 +49684,8 @@
       <c r="H78" s="57"/>
     </row>
     <row r="79" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="88"/>
-      <c r="C79" s="89"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="54"/>
       <c r="E79" s="54"/>
       <c r="F79" s="59"/>
@@ -49687,8 +49693,8 @@
       <c r="H79" s="58"/>
     </row>
     <row r="80" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="90"/>
-      <c r="C80" s="91"/>
+      <c r="B80" s="91"/>
+      <c r="C80" s="92"/>
       <c r="D80" s="55"/>
       <c r="E80" s="55"/>
       <c r="F80" s="52"/>
@@ -49696,8 +49702,8 @@
       <c r="H80" s="57"/>
     </row>
     <row r="81" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="88"/>
-      <c r="C81" s="89"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="54"/>
       <c r="E81" s="54"/>
       <c r="F81" s="59"/>
@@ -49705,8 +49711,8 @@
       <c r="H81" s="58"/>
     </row>
     <row r="82" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="90"/>
-      <c r="C82" s="91"/>
+      <c r="B82" s="91"/>
+      <c r="C82" s="92"/>
       <c r="D82" s="55"/>
       <c r="E82" s="55"/>
       <c r="F82" s="52"/>
@@ -49714,8 +49720,8 @@
       <c r="H82" s="57"/>
     </row>
     <row r="83" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="88"/>
-      <c r="C83" s="89"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="54"/>
       <c r="E83" s="54"/>
       <c r="F83" s="59"/>
@@ -49723,8 +49729,8 @@
       <c r="H83" s="58"/>
     </row>
     <row r="84" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="90"/>
-      <c r="C84" s="91"/>
+      <c r="B84" s="91"/>
+      <c r="C84" s="92"/>
       <c r="D84" s="55"/>
       <c r="E84" s="55"/>
       <c r="F84" s="52"/>
@@ -49732,8 +49738,8 @@
       <c r="H84" s="57"/>
     </row>
     <row r="85" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="88"/>
-      <c r="C85" s="89"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="54"/>
       <c r="E85" s="54"/>
       <c r="F85" s="59"/>
@@ -49741,8 +49747,8 @@
       <c r="H85" s="58"/>
     </row>
     <row r="86" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="90"/>
-      <c r="C86" s="91"/>
+      <c r="B86" s="91"/>
+      <c r="C86" s="92"/>
       <c r="D86" s="55"/>
       <c r="E86" s="55"/>
       <c r="F86" s="52"/>
@@ -49750,8 +49756,8 @@
       <c r="H86" s="57"/>
     </row>
     <row r="87" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="88"/>
-      <c r="C87" s="89"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="54"/>
       <c r="E87" s="54"/>
       <c r="F87" s="59"/>
@@ -49759,8 +49765,8 @@
       <c r="H87" s="58"/>
     </row>
     <row r="88" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="90"/>
-      <c r="C88" s="91"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="92"/>
       <c r="D88" s="55"/>
       <c r="E88" s="55"/>
       <c r="F88" s="52"/>
@@ -49768,8 +49774,8 @@
       <c r="H88" s="57"/>
     </row>
     <row r="89" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="88"/>
-      <c r="C89" s="89"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="54"/>
       <c r="E89" s="54"/>
       <c r="F89" s="59"/>
@@ -49777,8 +49783,8 @@
       <c r="H89" s="58"/>
     </row>
     <row r="90" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="90"/>
-      <c r="C90" s="91"/>
+      <c r="B90" s="91"/>
+      <c r="C90" s="92"/>
       <c r="D90" s="55"/>
       <c r="E90" s="55"/>
       <c r="F90" s="52"/>
@@ -49786,8 +49792,8 @@
       <c r="H90" s="57"/>
     </row>
     <row r="91" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="88"/>
-      <c r="C91" s="89"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="54"/>
       <c r="E91" s="54"/>
       <c r="F91" s="59"/>
@@ -49795,8 +49801,8 @@
       <c r="H91" s="58"/>
     </row>
     <row r="92" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="90"/>
-      <c r="C92" s="91"/>
+      <c r="B92" s="91"/>
+      <c r="C92" s="92"/>
       <c r="D92" s="55"/>
       <c r="E92" s="55"/>
       <c r="F92" s="52"/>
@@ -49804,8 +49810,8 @@
       <c r="H92" s="57"/>
     </row>
     <row r="93" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="88"/>
-      <c r="C93" s="89"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="54"/>
       <c r="E93" s="54"/>
       <c r="F93" s="59"/>
@@ -49813,8 +49819,8 @@
       <c r="H93" s="58"/>
     </row>
     <row r="94" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="90"/>
-      <c r="C94" s="91"/>
+      <c r="B94" s="91"/>
+      <c r="C94" s="92"/>
       <c r="D94" s="55"/>
       <c r="E94" s="55"/>
       <c r="F94" s="52"/>
@@ -49822,8 +49828,8 @@
       <c r="H94" s="57"/>
     </row>
     <row r="95" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="88"/>
-      <c r="C95" s="89"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="54"/>
       <c r="E95" s="54"/>
       <c r="F95" s="59"/>
@@ -49831,8 +49837,8 @@
       <c r="H95" s="58"/>
     </row>
     <row r="96" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="90"/>
-      <c r="C96" s="91"/>
+      <c r="B96" s="91"/>
+      <c r="C96" s="92"/>
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="52"/>
@@ -49840,8 +49846,8 @@
       <c r="H96" s="57"/>
     </row>
     <row r="97" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="88"/>
-      <c r="C97" s="89"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="54"/>
       <c r="E97" s="54"/>
       <c r="F97" s="59"/>
@@ -49849,8 +49855,8 @@
       <c r="H97" s="58"/>
     </row>
     <row r="98" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="90"/>
-      <c r="C98" s="91"/>
+      <c r="B98" s="91"/>
+      <c r="C98" s="92"/>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="52"/>
@@ -49858,8 +49864,8 @@
       <c r="H98" s="57"/>
     </row>
     <row r="99" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="88"/>
-      <c r="C99" s="89"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="54"/>
       <c r="E99" s="54"/>
       <c r="F99" s="59"/>
@@ -49867,8 +49873,8 @@
       <c r="H99" s="58"/>
     </row>
     <row r="100" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="90"/>
-      <c r="C100" s="91"/>
+      <c r="B100" s="91"/>
+      <c r="C100" s="92"/>
       <c r="D100" s="55"/>
       <c r="E100" s="55"/>
       <c r="F100" s="52"/>
@@ -49876,8 +49882,8 @@
       <c r="H100" s="57"/>
     </row>
     <row r="101" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="88"/>
-      <c r="C101" s="89"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="54"/>
       <c r="E101" s="54"/>
       <c r="F101" s="59"/>
@@ -49885,8 +49891,8 @@
       <c r="H101" s="58"/>
     </row>
     <row r="102" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="90"/>
-      <c r="C102" s="91"/>
+      <c r="B102" s="91"/>
+      <c r="C102" s="92"/>
       <c r="D102" s="55"/>
       <c r="E102" s="55"/>
       <c r="F102" s="52"/>
@@ -49894,8 +49900,8 @@
       <c r="H102" s="57"/>
     </row>
     <row r="103" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="88"/>
-      <c r="C103" s="89"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="54"/>
       <c r="E103" s="54"/>
       <c r="F103" s="59"/>
@@ -49903,8 +49909,8 @@
       <c r="H103" s="58"/>
     </row>
     <row r="104" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="90"/>
-      <c r="C104" s="91"/>
+      <c r="B104" s="91"/>
+      <c r="C104" s="92"/>
       <c r="D104" s="55"/>
       <c r="E104" s="55"/>
       <c r="F104" s="52"/>
@@ -49912,8 +49918,8 @@
       <c r="H104" s="57"/>
     </row>
     <row r="105" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="88"/>
-      <c r="C105" s="89"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="54"/>
       <c r="E105" s="54"/>
       <c r="F105" s="59"/>
@@ -49921,8 +49927,8 @@
       <c r="H105" s="58"/>
     </row>
     <row r="106" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="90"/>
-      <c r="C106" s="91"/>
+      <c r="B106" s="91"/>
+      <c r="C106" s="92"/>
       <c r="D106" s="55"/>
       <c r="E106" s="55"/>
       <c r="F106" s="52"/>
@@ -49930,8 +49936,8 @@
       <c r="H106" s="57"/>
     </row>
     <row r="107" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="88"/>
-      <c r="C107" s="89"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="54"/>
       <c r="E107" s="54"/>
       <c r="F107" s="59"/>
@@ -49939,8 +49945,8 @@
       <c r="H107" s="58"/>
     </row>
     <row r="108" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="90"/>
-      <c r="C108" s="91"/>
+      <c r="B108" s="91"/>
+      <c r="C108" s="92"/>
       <c r="D108" s="55"/>
       <c r="E108" s="55"/>
       <c r="F108" s="52"/>
@@ -49948,8 +49954,8 @@
       <c r="H108" s="57"/>
     </row>
     <row r="109" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="88"/>
-      <c r="C109" s="89"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="54"/>
       <c r="E109" s="54"/>
       <c r="F109" s="59"/>
@@ -49957,8 +49963,8 @@
       <c r="H109" s="58"/>
     </row>
     <row r="110" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="90"/>
-      <c r="C110" s="91"/>
+      <c r="B110" s="91"/>
+      <c r="C110" s="92"/>
       <c r="D110" s="55"/>
       <c r="E110" s="55"/>
       <c r="F110" s="52"/>
@@ -49966,8 +49972,8 @@
       <c r="H110" s="57"/>
     </row>
     <row r="111" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="88"/>
-      <c r="C111" s="89"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="54"/>
       <c r="E111" s="54"/>
       <c r="F111" s="59"/>
@@ -49975,8 +49981,8 @@
       <c r="H111" s="58"/>
     </row>
     <row r="112" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="90"/>
-      <c r="C112" s="91"/>
+      <c r="B112" s="91"/>
+      <c r="C112" s="92"/>
       <c r="D112" s="55"/>
       <c r="E112" s="55"/>
       <c r="F112" s="52"/>
@@ -49984,8 +49990,8 @@
       <c r="H112" s="57"/>
     </row>
     <row r="113" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="88"/>
-      <c r="C113" s="89"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="54"/>
       <c r="E113" s="54"/>
       <c r="F113" s="59"/>
@@ -49993,8 +49999,8 @@
       <c r="H113" s="58"/>
     </row>
     <row r="114" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="90"/>
-      <c r="C114" s="91"/>
+      <c r="B114" s="91"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="55"/>
       <c r="E114" s="55"/>
       <c r="F114" s="52"/>
@@ -50002,8 +50008,8 @@
       <c r="H114" s="57"/>
     </row>
     <row r="115" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="88"/>
-      <c r="C115" s="89"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="54"/>
       <c r="E115" s="54"/>
       <c r="F115" s="59"/>
@@ -50011,8 +50017,8 @@
       <c r="H115" s="58"/>
     </row>
     <row r="116" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="90"/>
-      <c r="C116" s="91"/>
+      <c r="B116" s="91"/>
+      <c r="C116" s="92"/>
       <c r="D116" s="55"/>
       <c r="E116" s="55"/>
       <c r="F116" s="52"/>
@@ -50020,8 +50026,8 @@
       <c r="H116" s="57"/>
     </row>
     <row r="117" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="88"/>
-      <c r="C117" s="89"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="54"/>
       <c r="E117" s="54"/>
       <c r="F117" s="59"/>
@@ -50029,8 +50035,8 @@
       <c r="H117" s="58"/>
     </row>
     <row r="118" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="90"/>
-      <c r="C118" s="91"/>
+      <c r="B118" s="91"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="55"/>
       <c r="E118" s="55"/>
       <c r="F118" s="52"/>
@@ -50038,8 +50044,8 @@
       <c r="H118" s="57"/>
     </row>
     <row r="119" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="88"/>
-      <c r="C119" s="89"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="54"/>
       <c r="E119" s="54"/>
       <c r="F119" s="59"/>
@@ -50047,8 +50053,8 @@
       <c r="H119" s="58"/>
     </row>
     <row r="120" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="90"/>
-      <c r="C120" s="91"/>
+      <c r="B120" s="91"/>
+      <c r="C120" s="92"/>
       <c r="D120" s="55"/>
       <c r="E120" s="55"/>
       <c r="F120" s="52"/>
@@ -50056,8 +50062,8 @@
       <c r="H120" s="57"/>
     </row>
     <row r="121" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="88"/>
-      <c r="C121" s="89"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="54"/>
       <c r="E121" s="54"/>
       <c r="F121" s="59"/>
@@ -50065,8 +50071,8 @@
       <c r="H121" s="58"/>
     </row>
     <row r="122" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="90"/>
-      <c r="C122" s="91"/>
+      <c r="B122" s="91"/>
+      <c r="C122" s="92"/>
       <c r="D122" s="55"/>
       <c r="E122" s="55"/>
       <c r="F122" s="52"/>
@@ -50074,8 +50080,8 @@
       <c r="H122" s="57"/>
     </row>
     <row r="123" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="88"/>
-      <c r="C123" s="89"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="54"/>
       <c r="E123" s="54"/>
       <c r="F123" s="59"/>
@@ -50083,8 +50089,8 @@
       <c r="H123" s="58"/>
     </row>
     <row r="124" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="90"/>
-      <c r="C124" s="91"/>
+      <c r="B124" s="91"/>
+      <c r="C124" s="92"/>
       <c r="D124" s="55"/>
       <c r="E124" s="55"/>
       <c r="F124" s="52"/>
@@ -50092,8 +50098,8 @@
       <c r="H124" s="57"/>
     </row>
     <row r="125" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="88"/>
-      <c r="C125" s="89"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="54"/>
       <c r="E125" s="54"/>
       <c r="F125" s="59"/>
@@ -50101,8 +50107,8 @@
       <c r="H125" s="58"/>
     </row>
     <row r="126" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="90"/>
-      <c r="C126" s="91"/>
+      <c r="B126" s="91"/>
+      <c r="C126" s="92"/>
       <c r="D126" s="55"/>
       <c r="E126" s="55"/>
       <c r="F126" s="52"/>
@@ -50110,8 +50116,8 @@
       <c r="H126" s="57"/>
     </row>
     <row r="127" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="88"/>
-      <c r="C127" s="89"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="54"/>
       <c r="E127" s="54"/>
       <c r="F127" s="59"/>
@@ -50119,8 +50125,8 @@
       <c r="H127" s="58"/>
     </row>
     <row r="128" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="90"/>
-      <c r="C128" s="91"/>
+      <c r="B128" s="91"/>
+      <c r="C128" s="92"/>
       <c r="D128" s="55"/>
       <c r="E128" s="55"/>
       <c r="F128" s="52"/>
@@ -50128,8 +50134,8 @@
       <c r="H128" s="57"/>
     </row>
     <row r="129" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="88"/>
-      <c r="C129" s="89"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="54"/>
       <c r="E129" s="54"/>
       <c r="F129" s="59"/>
@@ -50137,8 +50143,8 @@
       <c r="H129" s="58"/>
     </row>
     <row r="130" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="90"/>
-      <c r="C130" s="91"/>
+      <c r="B130" s="91"/>
+      <c r="C130" s="92"/>
       <c r="D130" s="55"/>
       <c r="E130" s="55"/>
       <c r="F130" s="52"/>
@@ -50146,8 +50152,8 @@
       <c r="H130" s="57"/>
     </row>
     <row r="131" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="88"/>
-      <c r="C131" s="89"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="54"/>
       <c r="E131" s="54"/>
       <c r="F131" s="59"/>
@@ -50155,8 +50161,8 @@
       <c r="H131" s="58"/>
     </row>
     <row r="132" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="90"/>
-      <c r="C132" s="91"/>
+      <c r="B132" s="91"/>
+      <c r="C132" s="92"/>
       <c r="D132" s="55"/>
       <c r="E132" s="55"/>
       <c r="F132" s="52"/>
@@ -50164,8 +50170,8 @@
       <c r="H132" s="57"/>
     </row>
     <row r="133" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="88"/>
-      <c r="C133" s="89"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90"/>
       <c r="D133" s="54"/>
       <c r="E133" s="54"/>
       <c r="F133" s="59"/>
@@ -50173,8 +50179,8 @@
       <c r="H133" s="58"/>
     </row>
     <row r="134" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="90"/>
-      <c r="C134" s="91"/>
+      <c r="B134" s="91"/>
+      <c r="C134" s="92"/>
       <c r="D134" s="55"/>
       <c r="E134" s="55"/>
       <c r="F134" s="52"/>
@@ -50182,8 +50188,8 @@
       <c r="H134" s="57"/>
     </row>
     <row r="135" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="88"/>
-      <c r="C135" s="89"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
       <c r="D135" s="54"/>
       <c r="E135" s="54"/>
       <c r="F135" s="59"/>
@@ -50191,8 +50197,8 @@
       <c r="H135" s="58"/>
     </row>
     <row r="136" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="90"/>
-      <c r="C136" s="91"/>
+      <c r="B136" s="91"/>
+      <c r="C136" s="92"/>
       <c r="D136" s="55"/>
       <c r="E136" s="55"/>
       <c r="F136" s="52"/>
@@ -50200,8 +50206,8 @@
       <c r="H136" s="57"/>
     </row>
     <row r="137" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="88"/>
-      <c r="C137" s="89"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="90"/>
       <c r="D137" s="54"/>
       <c r="E137" s="54"/>
       <c r="F137" s="59"/>
@@ -50209,8 +50215,8 @@
       <c r="H137" s="58"/>
     </row>
     <row r="138" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="90"/>
-      <c r="C138" s="91"/>
+      <c r="B138" s="91"/>
+      <c r="C138" s="92"/>
       <c r="D138" s="55"/>
       <c r="E138" s="55"/>
       <c r="F138" s="52"/>
@@ -50218,8 +50224,8 @@
       <c r="H138" s="57"/>
     </row>
     <row r="139" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="88"/>
-      <c r="C139" s="89"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="90"/>
       <c r="D139" s="54"/>
       <c r="E139" s="54"/>
       <c r="F139" s="59"/>
@@ -50227,8 +50233,8 @@
       <c r="H139" s="58"/>
     </row>
     <row r="140" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="90"/>
-      <c r="C140" s="91"/>
+      <c r="B140" s="91"/>
+      <c r="C140" s="92"/>
       <c r="D140" s="55"/>
       <c r="E140" s="55"/>
       <c r="F140" s="52"/>
@@ -50236,8 +50242,8 @@
       <c r="H140" s="57"/>
     </row>
     <row r="141" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="88"/>
-      <c r="C141" s="89"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="90"/>
       <c r="D141" s="54"/>
       <c r="E141" s="54"/>
       <c r="F141" s="59"/>
@@ -50245,8 +50251,8 @@
       <c r="H141" s="58"/>
     </row>
     <row r="142" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="90"/>
-      <c r="C142" s="91"/>
+      <c r="B142" s="91"/>
+      <c r="C142" s="92"/>
       <c r="D142" s="55"/>
       <c r="E142" s="55"/>
       <c r="F142" s="52"/>
@@ -50254,8 +50260,8 @@
       <c r="H142" s="57"/>
     </row>
     <row r="143" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="88"/>
-      <c r="C143" s="89"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="90"/>
       <c r="D143" s="54"/>
       <c r="E143" s="54"/>
       <c r="F143" s="59"/>
@@ -50263,8 +50269,8 @@
       <c r="H143" s="58"/>
     </row>
     <row r="144" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="90"/>
-      <c r="C144" s="91"/>
+      <c r="B144" s="91"/>
+      <c r="C144" s="92"/>
       <c r="D144" s="55"/>
       <c r="E144" s="55"/>
       <c r="F144" s="52"/>
@@ -50272,8 +50278,8 @@
       <c r="H144" s="57"/>
     </row>
     <row r="145" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="88"/>
-      <c r="C145" s="89"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="90"/>
       <c r="D145" s="54"/>
       <c r="E145" s="54"/>
       <c r="F145" s="59"/>
@@ -50281,8 +50287,8 @@
       <c r="H145" s="58"/>
     </row>
     <row r="146" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="90"/>
-      <c r="C146" s="91"/>
+      <c r="B146" s="91"/>
+      <c r="C146" s="92"/>
       <c r="D146" s="55"/>
       <c r="E146" s="55"/>
       <c r="F146" s="52"/>
@@ -50290,8 +50296,8 @@
       <c r="H146" s="57"/>
     </row>
     <row r="147" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="88"/>
-      <c r="C147" s="89"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="90"/>
       <c r="D147" s="54"/>
       <c r="E147" s="54"/>
       <c r="F147" s="59"/>
@@ -50299,8 +50305,8 @@
       <c r="H147" s="58"/>
     </row>
     <row r="148" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="90"/>
-      <c r="C148" s="91"/>
+      <c r="B148" s="91"/>
+      <c r="C148" s="92"/>
       <c r="D148" s="55"/>
       <c r="E148" s="55"/>
       <c r="F148" s="52"/>
@@ -50308,8 +50314,8 @@
       <c r="H148" s="57"/>
     </row>
     <row r="149" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="88"/>
-      <c r="C149" s="89"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="90"/>
       <c r="D149" s="54"/>
       <c r="E149" s="54"/>
       <c r="F149" s="59"/>
@@ -50317,8 +50323,8 @@
       <c r="H149" s="58"/>
     </row>
     <row r="150" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="90"/>
-      <c r="C150" s="91"/>
+      <c r="B150" s="91"/>
+      <c r="C150" s="92"/>
       <c r="D150" s="55"/>
       <c r="E150" s="55"/>
       <c r="F150" s="52"/>
@@ -50326,8 +50332,8 @@
       <c r="H150" s="57"/>
     </row>
     <row r="151" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="88"/>
-      <c r="C151" s="89"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="90"/>
       <c r="D151" s="54"/>
       <c r="E151" s="54"/>
       <c r="F151" s="59"/>
@@ -50335,8 +50341,8 @@
       <c r="H151" s="58"/>
     </row>
     <row r="152" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="90"/>
-      <c r="C152" s="91"/>
+      <c r="B152" s="91"/>
+      <c r="C152" s="92"/>
       <c r="D152" s="55"/>
       <c r="E152" s="55"/>
       <c r="F152" s="52"/>
@@ -50344,8 +50350,8 @@
       <c r="H152" s="57"/>
     </row>
     <row r="153" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="88"/>
-      <c r="C153" s="89"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="90"/>
       <c r="D153" s="54"/>
       <c r="E153" s="54"/>
       <c r="F153" s="59"/>
@@ -50353,8 +50359,8 @@
       <c r="H153" s="58"/>
     </row>
     <row r="154" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="90"/>
-      <c r="C154" s="91"/>
+      <c r="B154" s="91"/>
+      <c r="C154" s="92"/>
       <c r="D154" s="55"/>
       <c r="E154" s="55"/>
       <c r="F154" s="52"/>
@@ -50362,8 +50368,8 @@
       <c r="H154" s="57"/>
     </row>
     <row r="155" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="88"/>
-      <c r="C155" s="89"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="90"/>
       <c r="D155" s="54"/>
       <c r="E155" s="54"/>
       <c r="F155" s="59"/>
@@ -50371,8 +50377,8 @@
       <c r="H155" s="58"/>
     </row>
     <row r="156" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="90"/>
-      <c r="C156" s="91"/>
+      <c r="B156" s="91"/>
+      <c r="C156" s="92"/>
       <c r="D156" s="55"/>
       <c r="E156" s="55"/>
       <c r="F156" s="52"/>
@@ -50380,8 +50386,8 @@
       <c r="H156" s="57"/>
     </row>
     <row r="157" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="88"/>
-      <c r="C157" s="89"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="90"/>
       <c r="D157" s="54"/>
       <c r="E157" s="54"/>
       <c r="F157" s="59"/>
@@ -50389,8 +50395,8 @@
       <c r="H157" s="58"/>
     </row>
     <row r="158" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="90"/>
-      <c r="C158" s="91"/>
+      <c r="B158" s="91"/>
+      <c r="C158" s="92"/>
       <c r="D158" s="55"/>
       <c r="E158" s="55"/>
       <c r="F158" s="52"/>
@@ -50398,8 +50404,8 @@
       <c r="H158" s="57"/>
     </row>
     <row r="159" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="88"/>
-      <c r="C159" s="89"/>
+      <c r="B159" s="89"/>
+      <c r="C159" s="90"/>
       <c r="D159" s="54"/>
       <c r="E159" s="54"/>
       <c r="F159" s="59"/>
@@ -50407,8 +50413,8 @@
       <c r="H159" s="58"/>
     </row>
     <row r="160" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="90"/>
-      <c r="C160" s="91"/>
+      <c r="B160" s="91"/>
+      <c r="C160" s="92"/>
       <c r="D160" s="55"/>
       <c r="E160" s="55"/>
       <c r="F160" s="52"/>
@@ -50416,8 +50422,8 @@
       <c r="H160" s="57"/>
     </row>
     <row r="161" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="88"/>
-      <c r="C161" s="89"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="90"/>
       <c r="D161" s="54"/>
       <c r="E161" s="54"/>
       <c r="F161" s="59"/>
@@ -50425,8 +50431,8 @@
       <c r="H161" s="58"/>
     </row>
     <row r="162" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="90"/>
-      <c r="C162" s="91"/>
+      <c r="B162" s="91"/>
+      <c r="C162" s="92"/>
       <c r="D162" s="55"/>
       <c r="E162" s="55"/>
       <c r="F162" s="52"/>
@@ -50434,8 +50440,8 @@
       <c r="H162" s="57"/>
     </row>
     <row r="163" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="88"/>
-      <c r="C163" s="89"/>
+      <c r="B163" s="89"/>
+      <c r="C163" s="90"/>
       <c r="D163" s="54"/>
       <c r="E163" s="54"/>
       <c r="F163" s="59"/>
@@ -50443,8 +50449,8 @@
       <c r="H163" s="58"/>
     </row>
     <row r="164" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="90"/>
-      <c r="C164" s="91"/>
+      <c r="B164" s="91"/>
+      <c r="C164" s="92"/>
       <c r="D164" s="55"/>
       <c r="E164" s="55"/>
       <c r="F164" s="52"/>
@@ -50452,8 +50458,8 @@
       <c r="H164" s="57"/>
     </row>
     <row r="165" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="88"/>
-      <c r="C165" s="89"/>
+      <c r="B165" s="89"/>
+      <c r="C165" s="90"/>
       <c r="D165" s="54"/>
       <c r="E165" s="54"/>
       <c r="F165" s="59"/>
@@ -50461,8 +50467,8 @@
       <c r="H165" s="58"/>
     </row>
     <row r="166" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="90"/>
-      <c r="C166" s="91"/>
+      <c r="B166" s="91"/>
+      <c r="C166" s="92"/>
       <c r="D166" s="55"/>
       <c r="E166" s="55"/>
       <c r="F166" s="52"/>
@@ -50470,8 +50476,8 @@
       <c r="H166" s="57"/>
     </row>
     <row r="167" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="88"/>
-      <c r="C167" s="89"/>
+      <c r="B167" s="89"/>
+      <c r="C167" s="90"/>
       <c r="D167" s="54"/>
       <c r="E167" s="54"/>
       <c r="F167" s="59"/>
@@ -50479,8 +50485,8 @@
       <c r="H167" s="58"/>
     </row>
     <row r="168" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="90"/>
-      <c r="C168" s="91"/>
+      <c r="B168" s="91"/>
+      <c r="C168" s="92"/>
       <c r="D168" s="55"/>
       <c r="E168" s="55"/>
       <c r="F168" s="52"/>
@@ -50488,8 +50494,8 @@
       <c r="H168" s="57"/>
     </row>
     <row r="169" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="88"/>
-      <c r="C169" s="89"/>
+      <c r="B169" s="89"/>
+      <c r="C169" s="90"/>
       <c r="D169" s="54"/>
       <c r="E169" s="54"/>
       <c r="F169" s="59"/>
@@ -50497,8 +50503,8 @@
       <c r="H169" s="58"/>
     </row>
     <row r="170" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="90"/>
-      <c r="C170" s="91"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="92"/>
       <c r="D170" s="55"/>
       <c r="E170" s="55"/>
       <c r="F170" s="52"/>
@@ -50506,8 +50512,8 @@
       <c r="H170" s="57"/>
     </row>
     <row r="171" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="88"/>
-      <c r="C171" s="89"/>
+      <c r="B171" s="89"/>
+      <c r="C171" s="90"/>
       <c r="D171" s="54"/>
       <c r="E171" s="54"/>
       <c r="F171" s="59"/>
@@ -50515,8 +50521,8 @@
       <c r="H171" s="58"/>
     </row>
     <row r="172" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="90"/>
-      <c r="C172" s="91"/>
+      <c r="B172" s="91"/>
+      <c r="C172" s="92"/>
       <c r="D172" s="55"/>
       <c r="E172" s="55"/>
       <c r="F172" s="52"/>
@@ -50524,8 +50530,8 @@
       <c r="H172" s="57"/>
     </row>
     <row r="173" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="88"/>
-      <c r="C173" s="89"/>
+      <c r="B173" s="89"/>
+      <c r="C173" s="90"/>
       <c r="D173" s="54"/>
       <c r="E173" s="54"/>
       <c r="F173" s="59"/>
@@ -50533,8 +50539,8 @@
       <c r="H173" s="58"/>
     </row>
     <row r="174" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="90"/>
-      <c r="C174" s="91"/>
+      <c r="B174" s="91"/>
+      <c r="C174" s="92"/>
       <c r="D174" s="55"/>
       <c r="E174" s="55"/>
       <c r="F174" s="52"/>
@@ -50542,8 +50548,8 @@
       <c r="H174" s="57"/>
     </row>
     <row r="175" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="88"/>
-      <c r="C175" s="89"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="90"/>
       <c r="D175" s="54"/>
       <c r="E175" s="54"/>
       <c r="F175" s="59"/>
@@ -50551,8 +50557,8 @@
       <c r="H175" s="58"/>
     </row>
     <row r="176" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="90"/>
-      <c r="C176" s="91"/>
+      <c r="B176" s="91"/>
+      <c r="C176" s="92"/>
       <c r="D176" s="55"/>
       <c r="E176" s="55"/>
       <c r="F176" s="52"/>
@@ -50560,8 +50566,8 @@
       <c r="H176" s="57"/>
     </row>
     <row r="177" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="88"/>
-      <c r="C177" s="89"/>
+      <c r="B177" s="89"/>
+      <c r="C177" s="90"/>
       <c r="D177" s="54"/>
       <c r="E177" s="54"/>
       <c r="F177" s="59"/>
@@ -50569,8 +50575,8 @@
       <c r="H177" s="58"/>
     </row>
     <row r="178" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="90"/>
-      <c r="C178" s="91"/>
+      <c r="B178" s="91"/>
+      <c r="C178" s="92"/>
       <c r="D178" s="55"/>
       <c r="E178" s="55"/>
       <c r="F178" s="52"/>
@@ -50578,8 +50584,8 @@
       <c r="H178" s="57"/>
     </row>
     <row r="179" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="88"/>
-      <c r="C179" s="89"/>
+      <c r="B179" s="89"/>
+      <c r="C179" s="90"/>
       <c r="D179" s="54"/>
       <c r="E179" s="54"/>
       <c r="F179" s="59"/>
@@ -50587,8 +50593,8 @@
       <c r="H179" s="58"/>
     </row>
     <row r="180" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="90"/>
-      <c r="C180" s="91"/>
+      <c r="B180" s="91"/>
+      <c r="C180" s="92"/>
       <c r="D180" s="55"/>
       <c r="E180" s="55"/>
       <c r="F180" s="52"/>
@@ -50596,8 +50602,8 @@
       <c r="H180" s="57"/>
     </row>
     <row r="181" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="88"/>
-      <c r="C181" s="89"/>
+      <c r="B181" s="89"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="54"/>
       <c r="E181" s="54"/>
       <c r="F181" s="59"/>
@@ -50605,8 +50611,8 @@
       <c r="H181" s="58"/>
     </row>
     <row r="182" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="90"/>
-      <c r="C182" s="91"/>
+      <c r="B182" s="91"/>
+      <c r="C182" s="92"/>
       <c r="D182" s="55"/>
       <c r="E182" s="55"/>
       <c r="F182" s="52"/>
@@ -50614,8 +50620,8 @@
       <c r="H182" s="57"/>
     </row>
     <row r="183" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="88"/>
-      <c r="C183" s="89"/>
+      <c r="B183" s="89"/>
+      <c r="C183" s="90"/>
       <c r="D183" s="54"/>
       <c r="E183" s="54"/>
       <c r="F183" s="59"/>
@@ -50623,8 +50629,8 @@
       <c r="H183" s="58"/>
     </row>
     <row r="184" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="90"/>
-      <c r="C184" s="91"/>
+      <c r="B184" s="91"/>
+      <c r="C184" s="92"/>
       <c r="D184" s="55"/>
       <c r="E184" s="55"/>
       <c r="F184" s="52"/>
@@ -50632,8 +50638,8 @@
       <c r="H184" s="57"/>
     </row>
     <row r="185" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="88"/>
-      <c r="C185" s="89"/>
+      <c r="B185" s="89"/>
+      <c r="C185" s="90"/>
       <c r="D185" s="54"/>
       <c r="E185" s="54"/>
       <c r="F185" s="59"/>
@@ -50641,8 +50647,8 @@
       <c r="H185" s="58"/>
     </row>
     <row r="186" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="90"/>
-      <c r="C186" s="91"/>
+      <c r="B186" s="91"/>
+      <c r="C186" s="92"/>
       <c r="D186" s="55"/>
       <c r="E186" s="55"/>
       <c r="F186" s="52"/>
@@ -50650,8 +50656,8 @@
       <c r="H186" s="57"/>
     </row>
     <row r="187" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="88"/>
-      <c r="C187" s="89"/>
+      <c r="B187" s="89"/>
+      <c r="C187" s="90"/>
       <c r="D187" s="54"/>
       <c r="E187" s="54"/>
       <c r="F187" s="59"/>
@@ -50659,8 +50665,8 @@
       <c r="H187" s="58"/>
     </row>
     <row r="188" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="90"/>
-      <c r="C188" s="91"/>
+      <c r="B188" s="91"/>
+      <c r="C188" s="92"/>
       <c r="D188" s="55"/>
       <c r="E188" s="55"/>
       <c r="F188" s="52"/>
@@ -50668,8 +50674,8 @@
       <c r="H188" s="57"/>
     </row>
     <row r="189" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="88"/>
-      <c r="C189" s="89"/>
+      <c r="B189" s="89"/>
+      <c r="C189" s="90"/>
       <c r="D189" s="54"/>
       <c r="E189" s="54"/>
       <c r="F189" s="59"/>
@@ -50677,8 +50683,8 @@
       <c r="H189" s="58"/>
     </row>
     <row r="190" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="90"/>
-      <c r="C190" s="91"/>
+      <c r="B190" s="91"/>
+      <c r="C190" s="92"/>
       <c r="D190" s="55"/>
       <c r="E190" s="55"/>
       <c r="F190" s="52"/>
@@ -50686,8 +50692,8 @@
       <c r="H190" s="57"/>
     </row>
     <row r="191" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="88"/>
-      <c r="C191" s="89"/>
+      <c r="B191" s="89"/>
+      <c r="C191" s="90"/>
       <c r="D191" s="54"/>
       <c r="E191" s="54"/>
       <c r="F191" s="59"/>
@@ -50695,8 +50701,8 @@
       <c r="H191" s="58"/>
     </row>
     <row r="192" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="90"/>
-      <c r="C192" s="91"/>
+      <c r="B192" s="91"/>
+      <c r="C192" s="92"/>
       <c r="D192" s="55"/>
       <c r="E192" s="55"/>
       <c r="F192" s="52"/>
@@ -50704,8 +50710,8 @@
       <c r="H192" s="57"/>
     </row>
     <row r="193" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="88"/>
-      <c r="C193" s="89"/>
+      <c r="B193" s="89"/>
+      <c r="C193" s="90"/>
       <c r="D193" s="54"/>
       <c r="E193" s="54"/>
       <c r="F193" s="59"/>
@@ -50713,8 +50719,8 @@
       <c r="H193" s="58"/>
     </row>
     <row r="194" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="90"/>
-      <c r="C194" s="91"/>
+      <c r="B194" s="91"/>
+      <c r="C194" s="92"/>
       <c r="D194" s="55"/>
       <c r="E194" s="55"/>
       <c r="F194" s="52"/>
@@ -50722,8 +50728,8 @@
       <c r="H194" s="57"/>
     </row>
     <row r="195" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="88"/>
-      <c r="C195" s="89"/>
+      <c r="B195" s="89"/>
+      <c r="C195" s="90"/>
       <c r="D195" s="54"/>
       <c r="E195" s="54"/>
       <c r="F195" s="59"/>
@@ -50731,8 +50737,8 @@
       <c r="H195" s="58"/>
     </row>
     <row r="196" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="90"/>
-      <c r="C196" s="91"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="92"/>
       <c r="D196" s="55"/>
       <c r="E196" s="55"/>
       <c r="F196" s="52"/>
@@ -50740,8 +50746,8 @@
       <c r="H196" s="57"/>
     </row>
     <row r="197" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="88"/>
-      <c r="C197" s="89"/>
+      <c r="B197" s="89"/>
+      <c r="C197" s="90"/>
       <c r="D197" s="54"/>
       <c r="E197" s="54"/>
       <c r="F197" s="59"/>
@@ -50749,8 +50755,8 @@
       <c r="H197" s="58"/>
     </row>
     <row r="198" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="90"/>
-      <c r="C198" s="91"/>
+      <c r="B198" s="91"/>
+      <c r="C198" s="92"/>
       <c r="D198" s="55"/>
       <c r="E198" s="55"/>
       <c r="F198" s="52"/>
@@ -50758,8 +50764,8 @@
       <c r="H198" s="57"/>
     </row>
     <row r="199" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="88"/>
-      <c r="C199" s="89"/>
+      <c r="B199" s="89"/>
+      <c r="C199" s="90"/>
       <c r="D199" s="54"/>
       <c r="E199" s="54"/>
       <c r="F199" s="59"/>
@@ -50767,8 +50773,8 @@
       <c r="H199" s="58"/>
     </row>
     <row r="200" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="90"/>
-      <c r="C200" s="91"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="92"/>
       <c r="D200" s="55"/>
       <c r="E200" s="55"/>
       <c r="F200" s="52"/>
@@ -50776,8 +50782,8 @@
       <c r="H200" s="57"/>
     </row>
     <row r="201" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="88"/>
-      <c r="C201" s="89"/>
+      <c r="B201" s="89"/>
+      <c r="C201" s="90"/>
       <c r="D201" s="54"/>
       <c r="E201" s="54"/>
       <c r="F201" s="59"/>
@@ -50785,8 +50791,8 @@
       <c r="H201" s="58"/>
     </row>
     <row r="202" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="90"/>
-      <c r="C202" s="91"/>
+      <c r="B202" s="91"/>
+      <c r="C202" s="92"/>
       <c r="D202" s="55"/>
       <c r="E202" s="55"/>
       <c r="F202" s="52"/>
@@ -50794,8 +50800,8 @@
       <c r="H202" s="57"/>
     </row>
     <row r="203" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="88"/>
-      <c r="C203" s="89"/>
+      <c r="B203" s="89"/>
+      <c r="C203" s="90"/>
       <c r="D203" s="54"/>
       <c r="E203" s="54"/>
       <c r="F203" s="59"/>
@@ -50803,8 +50809,8 @@
       <c r="H203" s="58"/>
     </row>
     <row r="204" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="90"/>
-      <c r="C204" s="91"/>
+      <c r="B204" s="91"/>
+      <c r="C204" s="92"/>
       <c r="D204" s="55"/>
       <c r="E204" s="55"/>
       <c r="F204" s="52"/>
@@ -50812,8 +50818,8 @@
       <c r="H204" s="57"/>
     </row>
     <row r="205" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="88"/>
-      <c r="C205" s="89"/>
+      <c r="B205" s="89"/>
+      <c r="C205" s="90"/>
       <c r="D205" s="54"/>
       <c r="E205" s="54"/>
       <c r="F205" s="59"/>
@@ -50821,8 +50827,8 @@
       <c r="H205" s="58"/>
     </row>
     <row r="206" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="90"/>
-      <c r="C206" s="91"/>
+      <c r="B206" s="91"/>
+      <c r="C206" s="92"/>
       <c r="D206" s="55"/>
       <c r="E206" s="55"/>
       <c r="F206" s="52"/>
@@ -50830,8 +50836,8 @@
       <c r="H206" s="57"/>
     </row>
     <row r="207" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="88"/>
-      <c r="C207" s="89"/>
+      <c r="B207" s="89"/>
+      <c r="C207" s="90"/>
       <c r="D207" s="54"/>
       <c r="E207" s="54"/>
       <c r="F207" s="59"/>
@@ -50839,8 +50845,8 @@
       <c r="H207" s="58"/>
     </row>
     <row r="208" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="90"/>
-      <c r="C208" s="91"/>
+      <c r="B208" s="91"/>
+      <c r="C208" s="92"/>
       <c r="D208" s="55"/>
       <c r="E208" s="55"/>
       <c r="F208" s="52"/>
@@ -50848,8 +50854,8 @@
       <c r="H208" s="57"/>
     </row>
     <row r="209" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="88"/>
-      <c r="C209" s="89"/>
+      <c r="B209" s="89"/>
+      <c r="C209" s="90"/>
       <c r="D209" s="54"/>
       <c r="E209" s="54"/>
       <c r="F209" s="59"/>
@@ -50857,8 +50863,8 @@
       <c r="H209" s="58"/>
     </row>
     <row r="210" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="90"/>
-      <c r="C210" s="91"/>
+      <c r="B210" s="91"/>
+      <c r="C210" s="92"/>
       <c r="D210" s="55"/>
       <c r="E210" s="55"/>
       <c r="F210" s="52"/>
@@ -50866,8 +50872,8 @@
       <c r="H210" s="57"/>
     </row>
     <row r="211" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="88"/>
-      <c r="C211" s="89"/>
+      <c r="B211" s="89"/>
+      <c r="C211" s="90"/>
       <c r="D211" s="54"/>
       <c r="E211" s="54"/>
       <c r="F211" s="59"/>
@@ -50875,8 +50881,8 @@
       <c r="H211" s="58"/>
     </row>
     <row r="212" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="90"/>
-      <c r="C212" s="91"/>
+      <c r="B212" s="91"/>
+      <c r="C212" s="92"/>
       <c r="D212" s="55"/>
       <c r="E212" s="55"/>
       <c r="F212" s="52"/>
@@ -50884,8 +50890,8 @@
       <c r="H212" s="57"/>
     </row>
     <row r="213" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="88"/>
-      <c r="C213" s="89"/>
+      <c r="B213" s="89"/>
+      <c r="C213" s="90"/>
       <c r="D213" s="54"/>
       <c r="E213" s="54"/>
       <c r="F213" s="59"/>
@@ -50893,8 +50899,8 @@
       <c r="H213" s="58"/>
     </row>
     <row r="214" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="90"/>
-      <c r="C214" s="91"/>
+      <c r="B214" s="91"/>
+      <c r="C214" s="92"/>
       <c r="D214" s="55"/>
       <c r="E214" s="55"/>
       <c r="F214" s="52"/>
@@ -50902,8 +50908,8 @@
       <c r="H214" s="57"/>
     </row>
     <row r="215" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="88"/>
-      <c r="C215" s="89"/>
+      <c r="B215" s="89"/>
+      <c r="C215" s="90"/>
       <c r="D215" s="54"/>
       <c r="E215" s="54"/>
       <c r="F215" s="59"/>
@@ -50911,8 +50917,8 @@
       <c r="H215" s="58"/>
     </row>
     <row r="216" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="90"/>
-      <c r="C216" s="91"/>
+      <c r="B216" s="91"/>
+      <c r="C216" s="92"/>
       <c r="D216" s="55"/>
       <c r="E216" s="55"/>
       <c r="F216" s="52"/>
@@ -50920,8 +50926,8 @@
       <c r="H216" s="57"/>
     </row>
     <row r="217" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="88"/>
-      <c r="C217" s="89"/>
+      <c r="B217" s="89"/>
+      <c r="C217" s="90"/>
       <c r="D217" s="54"/>
       <c r="E217" s="54"/>
       <c r="F217" s="59"/>
@@ -50929,8 +50935,8 @@
       <c r="H217" s="58"/>
     </row>
     <row r="218" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="90"/>
-      <c r="C218" s="91"/>
+      <c r="B218" s="91"/>
+      <c r="C218" s="92"/>
       <c r="D218" s="55"/>
       <c r="E218" s="55"/>
       <c r="F218" s="52"/>
@@ -50938,8 +50944,8 @@
       <c r="H218" s="57"/>
     </row>
     <row r="219" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="88"/>
-      <c r="C219" s="89"/>
+      <c r="B219" s="89"/>
+      <c r="C219" s="90"/>
       <c r="D219" s="54"/>
       <c r="E219" s="54"/>
       <c r="F219" s="59"/>
@@ -50947,8 +50953,8 @@
       <c r="H219" s="58"/>
     </row>
     <row r="220" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="90"/>
-      <c r="C220" s="91"/>
+      <c r="B220" s="91"/>
+      <c r="C220" s="92"/>
       <c r="D220" s="55"/>
       <c r="E220" s="55"/>
       <c r="F220" s="52"/>
@@ -50956,8 +50962,8 @@
       <c r="H220" s="57"/>
     </row>
     <row r="221" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="88"/>
-      <c r="C221" s="89"/>
+      <c r="B221" s="89"/>
+      <c r="C221" s="90"/>
       <c r="D221" s="54"/>
       <c r="E221" s="54"/>
       <c r="F221" s="59"/>
@@ -50965,8 +50971,8 @@
       <c r="H221" s="58"/>
     </row>
     <row r="222" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="90"/>
-      <c r="C222" s="91"/>
+      <c r="B222" s="91"/>
+      <c r="C222" s="92"/>
       <c r="D222" s="55"/>
       <c r="E222" s="55"/>
       <c r="F222" s="52"/>
@@ -50974,8 +50980,8 @@
       <c r="H222" s="57"/>
     </row>
     <row r="223" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="88"/>
-      <c r="C223" s="89"/>
+      <c r="B223" s="89"/>
+      <c r="C223" s="90"/>
       <c r="D223" s="54"/>
       <c r="E223" s="54"/>
       <c r="F223" s="59"/>
@@ -50983,8 +50989,8 @@
       <c r="H223" s="58"/>
     </row>
     <row r="224" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="90"/>
-      <c r="C224" s="91"/>
+      <c r="B224" s="91"/>
+      <c r="C224" s="92"/>
       <c r="D224" s="55"/>
       <c r="E224" s="55"/>
       <c r="F224" s="52"/>
@@ -50992,8 +50998,8 @@
       <c r="H224" s="57"/>
     </row>
     <row r="225" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="88"/>
-      <c r="C225" s="89"/>
+      <c r="B225" s="89"/>
+      <c r="C225" s="90"/>
       <c r="D225" s="54"/>
       <c r="E225" s="54"/>
       <c r="F225" s="59"/>
@@ -51001,8 +51007,8 @@
       <c r="H225" s="58"/>
     </row>
     <row r="226" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="90"/>
-      <c r="C226" s="91"/>
+      <c r="B226" s="91"/>
+      <c r="C226" s="92"/>
       <c r="D226" s="55"/>
       <c r="E226" s="55"/>
       <c r="F226" s="52"/>
@@ -51010,8 +51016,8 @@
       <c r="H226" s="57"/>
     </row>
     <row r="227" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="88"/>
-      <c r="C227" s="89"/>
+      <c r="B227" s="89"/>
+      <c r="C227" s="90"/>
       <c r="D227" s="54"/>
       <c r="E227" s="54"/>
       <c r="F227" s="59"/>
@@ -51019,8 +51025,8 @@
       <c r="H227" s="58"/>
     </row>
     <row r="228" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="90"/>
-      <c r="C228" s="91"/>
+      <c r="B228" s="91"/>
+      <c r="C228" s="92"/>
       <c r="D228" s="55"/>
       <c r="E228" s="55"/>
       <c r="F228" s="52"/>
@@ -51028,8 +51034,8 @@
       <c r="H228" s="57"/>
     </row>
     <row r="229" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="88"/>
-      <c r="C229" s="89"/>
+      <c r="B229" s="89"/>
+      <c r="C229" s="90"/>
       <c r="D229" s="54"/>
       <c r="E229" s="54"/>
       <c r="F229" s="59"/>
@@ -51037,8 +51043,8 @@
       <c r="H229" s="58"/>
     </row>
     <row r="230" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="90"/>
-      <c r="C230" s="91"/>
+      <c r="B230" s="91"/>
+      <c r="C230" s="92"/>
       <c r="D230" s="55"/>
       <c r="E230" s="55"/>
       <c r="F230" s="52"/>
@@ -51046,8 +51052,8 @@
       <c r="H230" s="57"/>
     </row>
     <row r="231" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="88"/>
-      <c r="C231" s="89"/>
+      <c r="B231" s="89"/>
+      <c r="C231" s="90"/>
       <c r="D231" s="54"/>
       <c r="E231" s="54"/>
       <c r="F231" s="59"/>
@@ -51055,8 +51061,8 @@
       <c r="H231" s="58"/>
     </row>
     <row r="232" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="90"/>
-      <c r="C232" s="91"/>
+      <c r="B232" s="91"/>
+      <c r="C232" s="92"/>
       <c r="D232" s="55"/>
       <c r="E232" s="55"/>
       <c r="F232" s="52"/>
@@ -51064,8 +51070,8 @@
       <c r="H232" s="57"/>
     </row>
     <row r="233" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="88"/>
-      <c r="C233" s="89"/>
+      <c r="B233" s="89"/>
+      <c r="C233" s="90"/>
       <c r="D233" s="54"/>
       <c r="E233" s="54"/>
       <c r="F233" s="59"/>
@@ -51073,8 +51079,8 @@
       <c r="H233" s="58"/>
     </row>
     <row r="234" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="90"/>
-      <c r="C234" s="91"/>
+      <c r="B234" s="91"/>
+      <c r="C234" s="92"/>
       <c r="D234" s="55"/>
       <c r="E234" s="55"/>
       <c r="F234" s="52"/>
@@ -51082,8 +51088,8 @@
       <c r="H234" s="57"/>
     </row>
     <row r="235" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="88"/>
-      <c r="C235" s="89"/>
+      <c r="B235" s="89"/>
+      <c r="C235" s="90"/>
       <c r="D235" s="54"/>
       <c r="E235" s="54"/>
       <c r="F235" s="59"/>
@@ -51091,8 +51097,8 @@
       <c r="H235" s="58"/>
     </row>
     <row r="236" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="90"/>
-      <c r="C236" s="91"/>
+      <c r="B236" s="91"/>
+      <c r="C236" s="92"/>
       <c r="D236" s="55"/>
       <c r="E236" s="55"/>
       <c r="F236" s="52"/>
@@ -51100,8 +51106,8 @@
       <c r="H236" s="57"/>
     </row>
     <row r="237" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="88"/>
-      <c r="C237" s="89"/>
+      <c r="B237" s="89"/>
+      <c r="C237" s="90"/>
       <c r="D237" s="54"/>
       <c r="E237" s="54"/>
       <c r="F237" s="59"/>
@@ -51109,8 +51115,8 @@
       <c r="H237" s="58"/>
     </row>
     <row r="238" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="90"/>
-      <c r="C238" s="91"/>
+      <c r="B238" s="91"/>
+      <c r="C238" s="92"/>
       <c r="D238" s="55"/>
       <c r="E238" s="55"/>
       <c r="F238" s="52"/>
@@ -51118,8 +51124,8 @@
       <c r="H238" s="57"/>
     </row>
     <row r="239" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="88"/>
-      <c r="C239" s="89"/>
+      <c r="B239" s="89"/>
+      <c r="C239" s="90"/>
       <c r="D239" s="54"/>
       <c r="E239" s="54"/>
       <c r="F239" s="59"/>
@@ -51127,8 +51133,8 @@
       <c r="H239" s="58"/>
     </row>
     <row r="240" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="90"/>
-      <c r="C240" s="91"/>
+      <c r="B240" s="91"/>
+      <c r="C240" s="92"/>
       <c r="D240" s="55"/>
       <c r="E240" s="55"/>
       <c r="F240" s="52"/>
@@ -51136,8 +51142,8 @@
       <c r="H240" s="57"/>
     </row>
     <row r="241" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="88"/>
-      <c r="C241" s="89"/>
+      <c r="B241" s="89"/>
+      <c r="C241" s="90"/>
       <c r="D241" s="54"/>
       <c r="E241" s="54"/>
       <c r="F241" s="59"/>
@@ -51145,8 +51151,8 @@
       <c r="H241" s="58"/>
     </row>
     <row r="242" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="90"/>
-      <c r="C242" s="91"/>
+      <c r="B242" s="91"/>
+      <c r="C242" s="92"/>
       <c r="D242" s="55"/>
       <c r="E242" s="55"/>
       <c r="F242" s="52"/>
@@ -51154,8 +51160,8 @@
       <c r="H242" s="57"/>
     </row>
     <row r="243" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="88"/>
-      <c r="C243" s="89"/>
+      <c r="B243" s="89"/>
+      <c r="C243" s="90"/>
       <c r="D243" s="54"/>
       <c r="E243" s="54"/>
       <c r="F243" s="59"/>
@@ -51163,8 +51169,8 @@
       <c r="H243" s="58"/>
     </row>
     <row r="244" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="90"/>
-      <c r="C244" s="91"/>
+      <c r="B244" s="91"/>
+      <c r="C244" s="92"/>
       <c r="D244" s="55"/>
       <c r="E244" s="55"/>
       <c r="F244" s="52"/>
@@ -51172,8 +51178,8 @@
       <c r="H244" s="57"/>
     </row>
     <row r="245" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="88"/>
-      <c r="C245" s="89"/>
+      <c r="B245" s="89"/>
+      <c r="C245" s="90"/>
       <c r="D245" s="54"/>
       <c r="E245" s="54"/>
       <c r="F245" s="59"/>
@@ -51181,8 +51187,8 @@
       <c r="H245" s="58"/>
     </row>
     <row r="246" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="90"/>
-      <c r="C246" s="91"/>
+      <c r="B246" s="91"/>
+      <c r="C246" s="92"/>
       <c r="D246" s="55"/>
       <c r="E246" s="55"/>
       <c r="F246" s="52"/>
@@ -51190,8 +51196,8 @@
       <c r="H246" s="57"/>
     </row>
     <row r="247" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="88"/>
-      <c r="C247" s="89"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="90"/>
       <c r="D247" s="54"/>
       <c r="E247" s="54"/>
       <c r="F247" s="59"/>
@@ -51199,8 +51205,8 @@
       <c r="H247" s="58"/>
     </row>
     <row r="248" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="90"/>
-      <c r="C248" s="91"/>
+      <c r="B248" s="91"/>
+      <c r="C248" s="92"/>
       <c r="D248" s="55"/>
       <c r="E248" s="55"/>
       <c r="F248" s="52"/>
@@ -51208,8 +51214,8 @@
       <c r="H248" s="57"/>
     </row>
     <row r="249" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="88"/>
-      <c r="C249" s="89"/>
+      <c r="B249" s="89"/>
+      <c r="C249" s="90"/>
       <c r="D249" s="54"/>
       <c r="E249" s="54"/>
       <c r="F249" s="59"/>
@@ -51217,8 +51223,8 @@
       <c r="H249" s="58"/>
     </row>
     <row r="250" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="90"/>
-      <c r="C250" s="91"/>
+      <c r="B250" s="91"/>
+      <c r="C250" s="92"/>
       <c r="D250" s="55"/>
       <c r="E250" s="55"/>
       <c r="F250" s="52"/>
@@ -51226,8 +51232,8 @@
       <c r="H250" s="57"/>
     </row>
     <row r="251" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="88"/>
-      <c r="C251" s="89"/>
+      <c r="B251" s="89"/>
+      <c r="C251" s="90"/>
       <c r="D251" s="54"/>
       <c r="E251" s="54"/>
       <c r="F251" s="59"/>
@@ -51235,8 +51241,8 @@
       <c r="H251" s="58"/>
     </row>
     <row r="252" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="90"/>
-      <c r="C252" s="91"/>
+      <c r="B252" s="91"/>
+      <c r="C252" s="92"/>
       <c r="D252" s="55"/>
       <c r="E252" s="55"/>
       <c r="F252" s="52"/>
@@ -51244,8 +51250,8 @@
       <c r="H252" s="57"/>
     </row>
     <row r="253" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="88"/>
-      <c r="C253" s="89"/>
+      <c r="B253" s="89"/>
+      <c r="C253" s="90"/>
       <c r="D253" s="54"/>
       <c r="E253" s="54"/>
       <c r="F253" s="59"/>
@@ -51253,8 +51259,8 @@
       <c r="H253" s="58"/>
     </row>
     <row r="254" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="90"/>
-      <c r="C254" s="91"/>
+      <c r="B254" s="91"/>
+      <c r="C254" s="92"/>
       <c r="D254" s="55"/>
       <c r="E254" s="55"/>
       <c r="F254" s="52"/>
@@ -51262,8 +51268,8 @@
       <c r="H254" s="57"/>
     </row>
     <row r="255" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="88"/>
-      <c r="C255" s="89"/>
+      <c r="B255" s="89"/>
+      <c r="C255" s="90"/>
       <c r="D255" s="54"/>
       <c r="E255" s="54"/>
       <c r="F255" s="59"/>
@@ -51271,8 +51277,8 @@
       <c r="H255" s="58"/>
     </row>
     <row r="256" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="90"/>
-      <c r="C256" s="91"/>
+      <c r="B256" s="91"/>
+      <c r="C256" s="92"/>
       <c r="D256" s="55"/>
       <c r="E256" s="55"/>
       <c r="F256" s="52"/>
@@ -51280,8 +51286,8 @@
       <c r="H256" s="57"/>
     </row>
     <row r="257" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="88"/>
-      <c r="C257" s="89"/>
+      <c r="B257" s="89"/>
+      <c r="C257" s="90"/>
       <c r="D257" s="54"/>
       <c r="E257" s="54"/>
       <c r="F257" s="59"/>
@@ -51289,8 +51295,8 @@
       <c r="H257" s="58"/>
     </row>
     <row r="258" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="90"/>
-      <c r="C258" s="91"/>
+      <c r="B258" s="91"/>
+      <c r="C258" s="92"/>
       <c r="D258" s="55"/>
       <c r="E258" s="55"/>
       <c r="F258" s="52"/>
@@ -51298,8 +51304,8 @@
       <c r="H258" s="57"/>
     </row>
     <row r="259" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="88"/>
-      <c r="C259" s="89"/>
+      <c r="B259" s="89"/>
+      <c r="C259" s="90"/>
       <c r="D259" s="54"/>
       <c r="E259" s="54"/>
       <c r="F259" s="59"/>
@@ -51307,8 +51313,8 @@
       <c r="H259" s="58"/>
     </row>
     <row r="260" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="90"/>
-      <c r="C260" s="91"/>
+      <c r="B260" s="91"/>
+      <c r="C260" s="92"/>
       <c r="D260" s="55"/>
       <c r="E260" s="55"/>
       <c r="F260" s="52"/>
@@ -51316,8 +51322,8 @@
       <c r="H260" s="57"/>
     </row>
     <row r="261" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="88"/>
-      <c r="C261" s="89"/>
+      <c r="B261" s="89"/>
+      <c r="C261" s="90"/>
       <c r="D261" s="54"/>
       <c r="E261" s="54"/>
       <c r="F261" s="59"/>
@@ -51325,8 +51331,8 @@
       <c r="H261" s="58"/>
     </row>
     <row r="262" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="90"/>
-      <c r="C262" s="91"/>
+      <c r="B262" s="91"/>
+      <c r="C262" s="92"/>
       <c r="D262" s="55"/>
       <c r="E262" s="55"/>
       <c r="F262" s="52"/>
@@ -51334,8 +51340,8 @@
       <c r="H262" s="57"/>
     </row>
     <row r="263" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="88"/>
-      <c r="C263" s="89"/>
+      <c r="B263" s="89"/>
+      <c r="C263" s="90"/>
       <c r="D263" s="54"/>
       <c r="E263" s="54"/>
       <c r="F263" s="59"/>
@@ -51343,8 +51349,8 @@
       <c r="H263" s="58"/>
     </row>
     <row r="264" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="90"/>
-      <c r="C264" s="91"/>
+      <c r="B264" s="91"/>
+      <c r="C264" s="92"/>
       <c r="D264" s="55"/>
       <c r="E264" s="55"/>
       <c r="F264" s="52"/>
@@ -51352,8 +51358,8 @@
       <c r="H264" s="57"/>
     </row>
     <row r="265" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="88"/>
-      <c r="C265" s="89"/>
+      <c r="B265" s="89"/>
+      <c r="C265" s="90"/>
       <c r="D265" s="54"/>
       <c r="E265" s="54"/>
       <c r="F265" s="59"/>
@@ -51361,8 +51367,8 @@
       <c r="H265" s="58"/>
     </row>
     <row r="266" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="90"/>
-      <c r="C266" s="91"/>
+      <c r="B266" s="91"/>
+      <c r="C266" s="92"/>
       <c r="D266" s="55"/>
       <c r="E266" s="55"/>
       <c r="F266" s="52"/>
@@ -51370,8 +51376,8 @@
       <c r="H266" s="57"/>
     </row>
     <row r="267" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="88"/>
-      <c r="C267" s="89"/>
+      <c r="B267" s="89"/>
+      <c r="C267" s="90"/>
       <c r="D267" s="54"/>
       <c r="E267" s="54"/>
       <c r="F267" s="59"/>
@@ -51379,8 +51385,8 @@
       <c r="H267" s="58"/>
     </row>
     <row r="268" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="90"/>
-      <c r="C268" s="91"/>
+      <c r="B268" s="91"/>
+      <c r="C268" s="92"/>
       <c r="D268" s="55"/>
       <c r="E268" s="55"/>
       <c r="F268" s="52"/>
@@ -51388,8 +51394,8 @@
       <c r="H268" s="57"/>
     </row>
     <row r="269" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="88"/>
-      <c r="C269" s="89"/>
+      <c r="B269" s="89"/>
+      <c r="C269" s="90"/>
       <c r="D269" s="54"/>
       <c r="E269" s="54"/>
       <c r="F269" s="59"/>
@@ -51397,8 +51403,8 @@
       <c r="H269" s="58"/>
     </row>
     <row r="270" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="90"/>
-      <c r="C270" s="91"/>
+      <c r="B270" s="91"/>
+      <c r="C270" s="92"/>
       <c r="D270" s="55"/>
       <c r="E270" s="55"/>
       <c r="F270" s="52"/>
@@ -51406,8 +51412,8 @@
       <c r="H270" s="57"/>
     </row>
     <row r="271" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="88"/>
-      <c r="C271" s="89"/>
+      <c r="B271" s="89"/>
+      <c r="C271" s="90"/>
       <c r="D271" s="54"/>
       <c r="E271" s="54"/>
       <c r="F271" s="59"/>
@@ -51415,8 +51421,8 @@
       <c r="H271" s="58"/>
     </row>
     <row r="272" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="90"/>
-      <c r="C272" s="91"/>
+      <c r="B272" s="91"/>
+      <c r="C272" s="92"/>
       <c r="D272" s="55"/>
       <c r="E272" s="55"/>
       <c r="F272" s="52"/>
@@ -51424,8 +51430,8 @@
       <c r="H272" s="57"/>
     </row>
     <row r="273" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="88"/>
-      <c r="C273" s="89"/>
+      <c r="B273" s="89"/>
+      <c r="C273" s="90"/>
       <c r="D273" s="54"/>
       <c r="E273" s="54"/>
       <c r="F273" s="59"/>
@@ -51433,8 +51439,8 @@
       <c r="H273" s="58"/>
     </row>
     <row r="274" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="90"/>
-      <c r="C274" s="91"/>
+      <c r="B274" s="91"/>
+      <c r="C274" s="92"/>
       <c r="D274" s="55"/>
       <c r="E274" s="55"/>
       <c r="F274" s="52"/>
@@ -51442,8 +51448,8 @@
       <c r="H274" s="57"/>
     </row>
     <row r="275" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="88"/>
-      <c r="C275" s="89"/>
+      <c r="B275" s="89"/>
+      <c r="C275" s="90"/>
       <c r="D275" s="54"/>
       <c r="E275" s="54"/>
       <c r="F275" s="59"/>
@@ -51451,8 +51457,8 @@
       <c r="H275" s="58"/>
     </row>
     <row r="276" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="90"/>
-      <c r="C276" s="91"/>
+      <c r="B276" s="91"/>
+      <c r="C276" s="92"/>
       <c r="D276" s="55"/>
       <c r="E276" s="55"/>
       <c r="F276" s="52"/>
@@ -51460,8 +51466,8 @@
       <c r="H276" s="57"/>
     </row>
     <row r="277" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="88"/>
-      <c r="C277" s="89"/>
+      <c r="B277" s="89"/>
+      <c r="C277" s="90"/>
       <c r="D277" s="54"/>
       <c r="E277" s="54"/>
       <c r="F277" s="59"/>
@@ -51469,8 +51475,8 @@
       <c r="H277" s="58"/>
     </row>
     <row r="278" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="90"/>
-      <c r="C278" s="91"/>
+      <c r="B278" s="91"/>
+      <c r="C278" s="92"/>
       <c r="D278" s="55"/>
       <c r="E278" s="55"/>
       <c r="F278" s="52"/>
@@ -51478,8 +51484,8 @@
       <c r="H278" s="57"/>
     </row>
     <row r="279" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="88"/>
-      <c r="C279" s="89"/>
+      <c r="B279" s="89"/>
+      <c r="C279" s="90"/>
       <c r="D279" s="54"/>
       <c r="E279" s="54"/>
       <c r="F279" s="59"/>
@@ -51487,8 +51493,8 @@
       <c r="H279" s="58"/>
     </row>
     <row r="280" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="90"/>
-      <c r="C280" s="91"/>
+      <c r="B280" s="91"/>
+      <c r="C280" s="92"/>
       <c r="D280" s="55"/>
       <c r="E280" s="55"/>
       <c r="F280" s="52"/>
@@ -51496,8 +51502,8 @@
       <c r="H280" s="57"/>
     </row>
     <row r="281" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="88"/>
-      <c r="C281" s="89"/>
+      <c r="B281" s="89"/>
+      <c r="C281" s="90"/>
       <c r="D281" s="54"/>
       <c r="E281" s="54"/>
       <c r="F281" s="59"/>
@@ -51505,8 +51511,8 @@
       <c r="H281" s="58"/>
     </row>
     <row r="282" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="90"/>
-      <c r="C282" s="91"/>
+      <c r="B282" s="91"/>
+      <c r="C282" s="92"/>
       <c r="D282" s="55"/>
       <c r="E282" s="55"/>
       <c r="F282" s="52"/>
@@ -51514,8 +51520,8 @@
       <c r="H282" s="57"/>
     </row>
     <row r="283" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="88"/>
-      <c r="C283" s="89"/>
+      <c r="B283" s="89"/>
+      <c r="C283" s="90"/>
       <c r="D283" s="54"/>
       <c r="E283" s="54"/>
       <c r="F283" s="59"/>
@@ -51523,8 +51529,8 @@
       <c r="H283" s="58"/>
     </row>
     <row r="284" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="90"/>
-      <c r="C284" s="91"/>
+      <c r="B284" s="91"/>
+      <c r="C284" s="92"/>
       <c r="D284" s="55"/>
       <c r="E284" s="55"/>
       <c r="F284" s="52"/>
@@ -51532,8 +51538,8 @@
       <c r="H284" s="57"/>
     </row>
     <row r="285" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="88"/>
-      <c r="C285" s="89"/>
+      <c r="B285" s="89"/>
+      <c r="C285" s="90"/>
       <c r="D285" s="54"/>
       <c r="E285" s="54"/>
       <c r="F285" s="59"/>
@@ -51541,8 +51547,8 @@
       <c r="H285" s="58"/>
     </row>
     <row r="286" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="90"/>
-      <c r="C286" s="91"/>
+      <c r="B286" s="91"/>
+      <c r="C286" s="92"/>
       <c r="D286" s="55"/>
       <c r="E286" s="55"/>
       <c r="F286" s="52"/>
@@ -51550,8 +51556,8 @@
       <c r="H286" s="57"/>
     </row>
     <row r="287" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="88"/>
-      <c r="C287" s="89"/>
+      <c r="B287" s="89"/>
+      <c r="C287" s="90"/>
       <c r="D287" s="54"/>
       <c r="E287" s="54"/>
       <c r="F287" s="59"/>
@@ -51559,8 +51565,8 @@
       <c r="H287" s="58"/>
     </row>
     <row r="288" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="90"/>
-      <c r="C288" s="91"/>
+      <c r="B288" s="91"/>
+      <c r="C288" s="92"/>
       <c r="D288" s="55"/>
       <c r="E288" s="55"/>
       <c r="F288" s="52"/>
@@ -51568,8 +51574,8 @@
       <c r="H288" s="57"/>
     </row>
     <row r="289" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="88"/>
-      <c r="C289" s="89"/>
+      <c r="B289" s="89"/>
+      <c r="C289" s="90"/>
       <c r="D289" s="54"/>
       <c r="E289" s="54"/>
       <c r="F289" s="59"/>
@@ -51577,8 +51583,8 @@
       <c r="H289" s="58"/>
     </row>
     <row r="290" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="90"/>
-      <c r="C290" s="91"/>
+      <c r="B290" s="91"/>
+      <c r="C290" s="92"/>
       <c r="D290" s="55"/>
       <c r="E290" s="55"/>
       <c r="F290" s="52"/>
@@ -51586,8 +51592,8 @@
       <c r="H290" s="57"/>
     </row>
     <row r="291" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="88"/>
-      <c r="C291" s="89"/>
+      <c r="B291" s="89"/>
+      <c r="C291" s="90"/>
       <c r="D291" s="54"/>
       <c r="E291" s="54"/>
       <c r="F291" s="59"/>
@@ -51595,8 +51601,8 @@
       <c r="H291" s="58"/>
     </row>
     <row r="292" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="90"/>
-      <c r="C292" s="91"/>
+      <c r="B292" s="91"/>
+      <c r="C292" s="92"/>
       <c r="D292" s="55"/>
       <c r="E292" s="55"/>
       <c r="F292" s="52"/>
@@ -51604,8 +51610,8 @@
       <c r="H292" s="57"/>
     </row>
     <row r="293" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="88"/>
-      <c r="C293" s="89"/>
+      <c r="B293" s="89"/>
+      <c r="C293" s="90"/>
       <c r="D293" s="54"/>
       <c r="E293" s="54"/>
       <c r="F293" s="59"/>
@@ -51613,8 +51619,8 @@
       <c r="H293" s="58"/>
     </row>
     <row r="294" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="90"/>
-      <c r="C294" s="91"/>
+      <c r="B294" s="91"/>
+      <c r="C294" s="92"/>
       <c r="D294" s="55"/>
       <c r="E294" s="55"/>
       <c r="F294" s="52"/>
@@ -51622,8 +51628,8 @@
       <c r="H294" s="57"/>
     </row>
     <row r="295" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="88"/>
-      <c r="C295" s="89"/>
+      <c r="B295" s="89"/>
+      <c r="C295" s="90"/>
       <c r="D295" s="54"/>
       <c r="E295" s="54"/>
       <c r="F295" s="59"/>
@@ -51631,8 +51637,8 @@
       <c r="H295" s="58"/>
     </row>
     <row r="296" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="90"/>
-      <c r="C296" s="91"/>
+      <c r="B296" s="91"/>
+      <c r="C296" s="92"/>
       <c r="D296" s="55"/>
       <c r="E296" s="55"/>
       <c r="F296" s="52"/>
@@ -51640,8 +51646,8 @@
       <c r="H296" s="57"/>
     </row>
     <row r="297" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="88"/>
-      <c r="C297" s="89"/>
+      <c r="B297" s="89"/>
+      <c r="C297" s="90"/>
       <c r="D297" s="54"/>
       <c r="E297" s="54"/>
       <c r="F297" s="59"/>
@@ -51649,8 +51655,8 @@
       <c r="H297" s="58"/>
     </row>
     <row r="298" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="90"/>
-      <c r="C298" s="91"/>
+      <c r="B298" s="91"/>
+      <c r="C298" s="92"/>
       <c r="D298" s="55"/>
       <c r="E298" s="55"/>
       <c r="F298" s="52"/>
@@ -51658,8 +51664,8 @@
       <c r="H298" s="57"/>
     </row>
     <row r="299" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="88"/>
-      <c r="C299" s="89"/>
+      <c r="B299" s="89"/>
+      <c r="C299" s="90"/>
       <c r="D299" s="54"/>
       <c r="E299" s="54"/>
       <c r="F299" s="59"/>
@@ -51667,8 +51673,8 @@
       <c r="H299" s="58"/>
     </row>
     <row r="300" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="90"/>
-      <c r="C300" s="91"/>
+      <c r="B300" s="91"/>
+      <c r="C300" s="92"/>
       <c r="D300" s="55"/>
       <c r="E300" s="55"/>
       <c r="F300" s="52"/>
@@ -52029,12 +52035,12 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="82">
+      <c r="C2" s="83">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="94"/>
-      <c r="E2" s="83"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="84"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
@@ -274,9 +274,6 @@
     <t xml:space="preserve">  Zeitleiste</t>
   </si>
   <si>
-    <t>Lieferumfänge</t>
-  </si>
-  <si>
     <t>Ende-Datum</t>
   </si>
   <si>
@@ -284,6 +281,12 @@
   </si>
   <si>
     <t>Termine</t>
+  </si>
+  <si>
+    <t>Ampel-Erläuterung</t>
+  </si>
+  <si>
+    <t>Ergebnisse</t>
   </si>
 </sst>
 </file>
@@ -993,12 +996,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1011,16 +1008,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1897,7 +1900,7 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GI250"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1924,11 +1927,11 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="85">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="65"/>
       <c r="F2" s="65"/>
       <c r="G2" s="65"/>
@@ -1998,10 +2001,10 @@
     </row>
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="84"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="37"/>
       <c r="E10" s="51">
         <f>StartDatum</f>
@@ -2750,8 +2753,8 @@
       <c r="GI10" s="49"/>
     </row>
     <row r="11" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="85"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="84"/>
       <c r="D11" s="37"/>
       <c r="E11" s="42"/>
       <c r="F11" s="42"/>
@@ -48592,224 +48595,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="242">
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
     <mergeCell ref="B247:C247"/>
     <mergeCell ref="B248:C248"/>
     <mergeCell ref="B249:C249"/>
@@ -48834,6 +48619,224 @@
     <mergeCell ref="B228:C228"/>
     <mergeCell ref="B229:C229"/>
     <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B250">
     <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
@@ -48882,8 +48885,8 @@
   <sheetPr codeName="Tabelle2"/>
   <dimension ref="A1:M300"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48892,8 +48895,9 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="5" width="30.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="94.85546875" customWidth="1"/>
-    <col min="8" max="10" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="70.7109375" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" customWidth="1"/>
+    <col min="9" max="10" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -48916,11 +48920,11 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="85">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="82"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -49019,7 +49023,7 @@
     <row r="8" spans="1:13" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -49054,24 +49058,24 @@
       </c>
       <c r="C10" s="92"/>
       <c r="D10" s="54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
       <c r="D11" s="55"/>
       <c r="E11" s="55"/>
       <c r="F11" s="60"/>
@@ -49079,8 +49083,8 @@
       <c r="H11" s="59"/>
     </row>
     <row r="12" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="56"/>
       <c r="E12" s="56"/>
       <c r="F12" s="53"/>
@@ -49088,8 +49092,8 @@
       <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="55"/>
       <c r="E13" s="55"/>
       <c r="F13" s="60"/>
@@ -49097,8 +49101,8 @@
       <c r="H13" s="59"/>
     </row>
     <row r="14" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="56"/>
       <c r="E14" s="56"/>
       <c r="F14" s="53"/>
@@ -49106,8 +49110,8 @@
       <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
       <c r="D15" s="55"/>
       <c r="E15" s="55"/>
       <c r="F15" s="60"/>
@@ -49115,8 +49119,8 @@
       <c r="H15" s="59"/>
     </row>
     <row r="16" spans="1:13" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
       <c r="F16" s="53"/>
@@ -49124,8 +49128,8 @@
       <c r="H16" s="58"/>
     </row>
     <row r="17" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="55"/>
       <c r="E17" s="55"/>
       <c r="F17" s="60"/>
@@ -49133,8 +49137,8 @@
       <c r="H17" s="59"/>
     </row>
     <row r="18" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
       <c r="F18" s="53"/>
@@ -49142,8 +49146,8 @@
       <c r="H18" s="58"/>
     </row>
     <row r="19" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="87"/>
-      <c r="C19" s="88"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
       <c r="F19" s="60"/>
@@ -49151,8 +49155,8 @@
       <c r="H19" s="59"/>
     </row>
     <row r="20" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="89"/>
-      <c r="C20" s="90"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="56"/>
       <c r="E20" s="56"/>
       <c r="F20" s="53"/>
@@ -49160,8 +49164,8 @@
       <c r="H20" s="58"/>
     </row>
     <row r="21" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
       <c r="F21" s="60"/>
@@ -49169,8 +49173,8 @@
       <c r="H21" s="59"/>
     </row>
     <row r="22" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="56"/>
       <c r="E22" s="56"/>
       <c r="F22" s="53"/>
@@ -49178,8 +49182,8 @@
       <c r="H22" s="58"/>
     </row>
     <row r="23" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
       <c r="F23" s="60"/>
@@ -49187,8 +49191,8 @@
       <c r="H23" s="59"/>
     </row>
     <row r="24" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="56"/>
       <c r="E24" s="56"/>
       <c r="F24" s="53"/>
@@ -49196,8 +49200,8 @@
       <c r="H24" s="58"/>
     </row>
     <row r="25" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
       <c r="F25" s="60"/>
@@ -49205,8 +49209,8 @@
       <c r="H25" s="59"/>
     </row>
     <row r="26" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="56"/>
       <c r="E26" s="56"/>
       <c r="F26" s="53"/>
@@ -49214,8 +49218,8 @@
       <c r="H26" s="58"/>
     </row>
     <row r="27" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
       <c r="F27" s="60"/>
@@ -49223,8 +49227,8 @@
       <c r="H27" s="59"/>
     </row>
     <row r="28" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="56"/>
       <c r="E28" s="56"/>
       <c r="F28" s="53"/>
@@ -49232,8 +49236,8 @@
       <c r="H28" s="58"/>
     </row>
     <row r="29" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
       <c r="D29" s="55"/>
       <c r="E29" s="55"/>
       <c r="F29" s="60"/>
@@ -49241,8 +49245,8 @@
       <c r="H29" s="59"/>
     </row>
     <row r="30" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="56"/>
       <c r="E30" s="56"/>
       <c r="F30" s="53"/>
@@ -49250,8 +49254,8 @@
       <c r="H30" s="58"/>
     </row>
     <row r="31" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="55"/>
       <c r="E31" s="55"/>
       <c r="F31" s="60"/>
@@ -49259,8 +49263,8 @@
       <c r="H31" s="59"/>
     </row>
     <row r="32" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="56"/>
       <c r="E32" s="56"/>
       <c r="F32" s="53"/>
@@ -49268,8 +49272,8 @@
       <c r="H32" s="58"/>
     </row>
     <row r="33" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
       <c r="D33" s="55"/>
       <c r="E33" s="55"/>
       <c r="F33" s="60"/>
@@ -49277,8 +49281,8 @@
       <c r="H33" s="59"/>
     </row>
     <row r="34" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="56"/>
       <c r="E34" s="56"/>
       <c r="F34" s="53"/>
@@ -49286,8 +49290,8 @@
       <c r="H34" s="58"/>
     </row>
     <row r="35" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="87"/>
-      <c r="C35" s="88"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
       <c r="D35" s="55"/>
       <c r="E35" s="55"/>
       <c r="F35" s="60"/>
@@ -49295,8 +49299,8 @@
       <c r="H35" s="59"/>
     </row>
     <row r="36" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="89"/>
-      <c r="C36" s="90"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
       <c r="F36" s="53"/>
@@ -49304,8 +49308,8 @@
       <c r="H36" s="58"/>
     </row>
     <row r="37" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
       <c r="D37" s="55"/>
       <c r="E37" s="55"/>
       <c r="F37" s="60"/>
@@ -49313,8 +49317,8 @@
       <c r="H37" s="59"/>
     </row>
     <row r="38" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="56"/>
       <c r="E38" s="56"/>
       <c r="F38" s="53"/>
@@ -49322,8 +49326,8 @@
       <c r="H38" s="58"/>
     </row>
     <row r="39" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="87"/>
-      <c r="C39" s="88"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
       <c r="D39" s="55"/>
       <c r="E39" s="55"/>
       <c r="F39" s="60"/>
@@ -49331,8 +49335,8 @@
       <c r="H39" s="59"/>
     </row>
     <row r="40" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="89"/>
-      <c r="C40" s="90"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
       <c r="F40" s="53"/>
@@ -49340,8 +49344,8 @@
       <c r="H40" s="58"/>
     </row>
     <row r="41" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="55"/>
       <c r="E41" s="55"/>
       <c r="F41" s="60"/>
@@ -49349,8 +49353,8 @@
       <c r="H41" s="59"/>
     </row>
     <row r="42" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="56"/>
       <c r="E42" s="56"/>
       <c r="F42" s="53"/>
@@ -49358,8 +49362,8 @@
       <c r="H42" s="58"/>
     </row>
     <row r="43" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
       <c r="D43" s="55"/>
       <c r="E43" s="55"/>
       <c r="F43" s="60"/>
@@ -49367,8 +49371,8 @@
       <c r="H43" s="59"/>
     </row>
     <row r="44" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="56"/>
       <c r="E44" s="56"/>
       <c r="F44" s="53"/>
@@ -49376,8 +49380,8 @@
       <c r="H44" s="58"/>
     </row>
     <row r="45" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
       <c r="D45" s="55"/>
       <c r="E45" s="55"/>
       <c r="F45" s="60"/>
@@ -49385,8 +49389,8 @@
       <c r="H45" s="59"/>
     </row>
     <row r="46" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="89"/>
-      <c r="C46" s="90"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="56"/>
       <c r="E46" s="56"/>
       <c r="F46" s="53"/>
@@ -49394,8 +49398,8 @@
       <c r="H46" s="58"/>
     </row>
     <row r="47" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
       <c r="D47" s="55"/>
       <c r="E47" s="55"/>
       <c r="F47" s="60"/>
@@ -49403,8 +49407,8 @@
       <c r="H47" s="59"/>
     </row>
     <row r="48" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
       <c r="D48" s="56"/>
       <c r="E48" s="56"/>
       <c r="F48" s="53"/>
@@ -49412,8 +49416,8 @@
       <c r="H48" s="58"/>
     </row>
     <row r="49" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
       <c r="D49" s="55"/>
       <c r="E49" s="55"/>
       <c r="F49" s="60"/>
@@ -49421,8 +49425,8 @@
       <c r="H49" s="59"/>
     </row>
     <row r="50" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="56"/>
       <c r="E50" s="56"/>
       <c r="F50" s="53"/>
@@ -49430,8 +49434,8 @@
       <c r="H50" s="58"/>
     </row>
     <row r="51" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
       <c r="F51" s="60"/>
@@ -49439,8 +49443,8 @@
       <c r="H51" s="59"/>
     </row>
     <row r="52" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="89"/>
-      <c r="C52" s="90"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="56"/>
       <c r="E52" s="56"/>
       <c r="F52" s="53"/>
@@ -49448,8 +49452,8 @@
       <c r="H52" s="58"/>
     </row>
     <row r="53" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="55"/>
       <c r="E53" s="55"/>
       <c r="F53" s="60"/>
@@ -49457,8 +49461,8 @@
       <c r="H53" s="59"/>
     </row>
     <row r="54" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="89"/>
-      <c r="C54" s="90"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="56"/>
       <c r="E54" s="56"/>
       <c r="F54" s="53"/>
@@ -49466,8 +49470,8 @@
       <c r="H54" s="58"/>
     </row>
     <row r="55" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
       <c r="D55" s="55"/>
       <c r="E55" s="55"/>
       <c r="F55" s="60"/>
@@ -49475,8 +49479,8 @@
       <c r="H55" s="59"/>
     </row>
     <row r="56" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="56"/>
       <c r="E56" s="56"/>
       <c r="F56" s="53"/>
@@ -49484,8 +49488,8 @@
       <c r="H56" s="58"/>
     </row>
     <row r="57" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
       <c r="D57" s="55"/>
       <c r="E57" s="55"/>
       <c r="F57" s="60"/>
@@ -49493,8 +49497,8 @@
       <c r="H57" s="59"/>
     </row>
     <row r="58" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="56"/>
       <c r="E58" s="56"/>
       <c r="F58" s="53"/>
@@ -49502,8 +49506,8 @@
       <c r="H58" s="58"/>
     </row>
     <row r="59" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="55"/>
       <c r="E59" s="55"/>
       <c r="F59" s="60"/>
@@ -49511,8 +49515,8 @@
       <c r="H59" s="59"/>
     </row>
     <row r="60" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="56"/>
       <c r="E60" s="56"/>
       <c r="F60" s="53"/>
@@ -49520,8 +49524,8 @@
       <c r="H60" s="58"/>
     </row>
     <row r="61" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
       <c r="D61" s="55"/>
       <c r="E61" s="55"/>
       <c r="F61" s="60"/>
@@ -49529,8 +49533,8 @@
       <c r="H61" s="59"/>
     </row>
     <row r="62" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="56"/>
       <c r="E62" s="56"/>
       <c r="F62" s="53"/>
@@ -49538,8 +49542,8 @@
       <c r="H62" s="58"/>
     </row>
     <row r="63" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="55"/>
       <c r="E63" s="55"/>
       <c r="F63" s="60"/>
@@ -49547,8 +49551,8 @@
       <c r="H63" s="59"/>
     </row>
     <row r="64" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="56"/>
       <c r="E64" s="56"/>
       <c r="F64" s="53"/>
@@ -49556,8 +49560,8 @@
       <c r="H64" s="58"/>
     </row>
     <row r="65" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
       <c r="D65" s="55"/>
       <c r="E65" s="55"/>
       <c r="F65" s="60"/>
@@ -49565,8 +49569,8 @@
       <c r="H65" s="59"/>
     </row>
     <row r="66" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="56"/>
       <c r="E66" s="56"/>
       <c r="F66" s="53"/>
@@ -49574,8 +49578,8 @@
       <c r="H66" s="58"/>
     </row>
     <row r="67" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
       <c r="D67" s="55"/>
       <c r="E67" s="55"/>
       <c r="F67" s="60"/>
@@ -49583,8 +49587,8 @@
       <c r="H67" s="59"/>
     </row>
     <row r="68" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="56"/>
       <c r="E68" s="56"/>
       <c r="F68" s="53"/>
@@ -49592,8 +49596,8 @@
       <c r="H68" s="58"/>
     </row>
     <row r="69" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="87"/>
-      <c r="C69" s="88"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="90"/>
       <c r="D69" s="55"/>
       <c r="E69" s="55"/>
       <c r="F69" s="60"/>
@@ -49601,8 +49605,8 @@
       <c r="H69" s="59"/>
     </row>
     <row r="70" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="89"/>
-      <c r="C70" s="90"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="56"/>
       <c r="E70" s="56"/>
       <c r="F70" s="53"/>
@@ -49610,8 +49614,8 @@
       <c r="H70" s="58"/>
     </row>
     <row r="71" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="87"/>
-      <c r="C71" s="88"/>
+      <c r="B71" s="89"/>
+      <c r="C71" s="90"/>
       <c r="D71" s="55"/>
       <c r="E71" s="55"/>
       <c r="F71" s="60"/>
@@ -49619,8 +49623,8 @@
       <c r="H71" s="59"/>
     </row>
     <row r="72" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="89"/>
-      <c r="C72" s="90"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="88"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
       <c r="F72" s="53"/>
@@ -49628,8 +49632,8 @@
       <c r="H72" s="58"/>
     </row>
     <row r="73" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="87"/>
-      <c r="C73" s="88"/>
+      <c r="B73" s="89"/>
+      <c r="C73" s="90"/>
       <c r="D73" s="55"/>
       <c r="E73" s="55"/>
       <c r="F73" s="60"/>
@@ -49637,8 +49641,8 @@
       <c r="H73" s="59"/>
     </row>
     <row r="74" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="89"/>
-      <c r="C74" s="90"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="56"/>
       <c r="E74" s="56"/>
       <c r="F74" s="53"/>
@@ -49646,8 +49650,8 @@
       <c r="H74" s="58"/>
     </row>
     <row r="75" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="87"/>
-      <c r="C75" s="88"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="90"/>
       <c r="D75" s="55"/>
       <c r="E75" s="55"/>
       <c r="F75" s="60"/>
@@ -49655,8 +49659,8 @@
       <c r="H75" s="59"/>
     </row>
     <row r="76" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="89"/>
-      <c r="C76" s="90"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="88"/>
       <c r="D76" s="56"/>
       <c r="E76" s="56"/>
       <c r="F76" s="53"/>
@@ -49664,8 +49668,8 @@
       <c r="H76" s="58"/>
     </row>
     <row r="77" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="87"/>
-      <c r="C77" s="88"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="90"/>
       <c r="D77" s="55"/>
       <c r="E77" s="55"/>
       <c r="F77" s="60"/>
@@ -49673,8 +49677,8 @@
       <c r="H77" s="59"/>
     </row>
     <row r="78" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="89"/>
-      <c r="C78" s="90"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="88"/>
       <c r="D78" s="56"/>
       <c r="E78" s="56"/>
       <c r="F78" s="53"/>
@@ -49682,8 +49686,8 @@
       <c r="H78" s="58"/>
     </row>
     <row r="79" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="87"/>
-      <c r="C79" s="88"/>
+      <c r="B79" s="89"/>
+      <c r="C79" s="90"/>
       <c r="D79" s="55"/>
       <c r="E79" s="55"/>
       <c r="F79" s="60"/>
@@ -49691,8 +49695,8 @@
       <c r="H79" s="59"/>
     </row>
     <row r="80" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="89"/>
-      <c r="C80" s="90"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="88"/>
       <c r="D80" s="56"/>
       <c r="E80" s="56"/>
       <c r="F80" s="53"/>
@@ -49700,8 +49704,8 @@
       <c r="H80" s="58"/>
     </row>
     <row r="81" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="87"/>
-      <c r="C81" s="88"/>
+      <c r="B81" s="89"/>
+      <c r="C81" s="90"/>
       <c r="D81" s="55"/>
       <c r="E81" s="55"/>
       <c r="F81" s="60"/>
@@ -49709,8 +49713,8 @@
       <c r="H81" s="59"/>
     </row>
     <row r="82" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="89"/>
-      <c r="C82" s="90"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="88"/>
       <c r="D82" s="56"/>
       <c r="E82" s="56"/>
       <c r="F82" s="53"/>
@@ -49718,8 +49722,8 @@
       <c r="H82" s="58"/>
     </row>
     <row r="83" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="87"/>
-      <c r="C83" s="88"/>
+      <c r="B83" s="89"/>
+      <c r="C83" s="90"/>
       <c r="D83" s="55"/>
       <c r="E83" s="55"/>
       <c r="F83" s="60"/>
@@ -49727,8 +49731,8 @@
       <c r="H83" s="59"/>
     </row>
     <row r="84" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="89"/>
-      <c r="C84" s="90"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="88"/>
       <c r="D84" s="56"/>
       <c r="E84" s="56"/>
       <c r="F84" s="53"/>
@@ -49736,8 +49740,8 @@
       <c r="H84" s="58"/>
     </row>
     <row r="85" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="87"/>
-      <c r="C85" s="88"/>
+      <c r="B85" s="89"/>
+      <c r="C85" s="90"/>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
       <c r="F85" s="60"/>
@@ -49745,8 +49749,8 @@
       <c r="H85" s="59"/>
     </row>
     <row r="86" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="89"/>
-      <c r="C86" s="90"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="88"/>
       <c r="D86" s="56"/>
       <c r="E86" s="56"/>
       <c r="F86" s="53"/>
@@ -49754,8 +49758,8 @@
       <c r="H86" s="58"/>
     </row>
     <row r="87" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="87"/>
-      <c r="C87" s="88"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="90"/>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
       <c r="F87" s="60"/>
@@ -49763,8 +49767,8 @@
       <c r="H87" s="59"/>
     </row>
     <row r="88" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="89"/>
-      <c r="C88" s="90"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="88"/>
       <c r="D88" s="56"/>
       <c r="E88" s="56"/>
       <c r="F88" s="53"/>
@@ -49772,8 +49776,8 @@
       <c r="H88" s="58"/>
     </row>
     <row r="89" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="87"/>
-      <c r="C89" s="88"/>
+      <c r="B89" s="89"/>
+      <c r="C89" s="90"/>
       <c r="D89" s="55"/>
       <c r="E89" s="55"/>
       <c r="F89" s="60"/>
@@ -49781,8 +49785,8 @@
       <c r="H89" s="59"/>
     </row>
     <row r="90" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="89"/>
-      <c r="C90" s="90"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="88"/>
       <c r="D90" s="56"/>
       <c r="E90" s="56"/>
       <c r="F90" s="53"/>
@@ -49790,8 +49794,8 @@
       <c r="H90" s="58"/>
     </row>
     <row r="91" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="87"/>
-      <c r="C91" s="88"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="90"/>
       <c r="D91" s="55"/>
       <c r="E91" s="55"/>
       <c r="F91" s="60"/>
@@ -49799,8 +49803,8 @@
       <c r="H91" s="59"/>
     </row>
     <row r="92" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="89"/>
-      <c r="C92" s="90"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="88"/>
       <c r="D92" s="56"/>
       <c r="E92" s="56"/>
       <c r="F92" s="53"/>
@@ -49808,8 +49812,8 @@
       <c r="H92" s="58"/>
     </row>
     <row r="93" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="87"/>
-      <c r="C93" s="88"/>
+      <c r="B93" s="89"/>
+      <c r="C93" s="90"/>
       <c r="D93" s="55"/>
       <c r="E93" s="55"/>
       <c r="F93" s="60"/>
@@ -49817,8 +49821,8 @@
       <c r="H93" s="59"/>
     </row>
     <row r="94" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="89"/>
-      <c r="C94" s="90"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="88"/>
       <c r="D94" s="56"/>
       <c r="E94" s="56"/>
       <c r="F94" s="53"/>
@@ -49826,8 +49830,8 @@
       <c r="H94" s="58"/>
     </row>
     <row r="95" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="87"/>
-      <c r="C95" s="88"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="90"/>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
       <c r="F95" s="60"/>
@@ -49835,8 +49839,8 @@
       <c r="H95" s="59"/>
     </row>
     <row r="96" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="89"/>
-      <c r="C96" s="90"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="88"/>
       <c r="D96" s="56"/>
       <c r="E96" s="56"/>
       <c r="F96" s="53"/>
@@ -49844,8 +49848,8 @@
       <c r="H96" s="58"/>
     </row>
     <row r="97" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="87"/>
-      <c r="C97" s="88"/>
+      <c r="B97" s="89"/>
+      <c r="C97" s="90"/>
       <c r="D97" s="55"/>
       <c r="E97" s="55"/>
       <c r="F97" s="60"/>
@@ -49853,8 +49857,8 @@
       <c r="H97" s="59"/>
     </row>
     <row r="98" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="89"/>
-      <c r="C98" s="90"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="88"/>
       <c r="D98" s="56"/>
       <c r="E98" s="56"/>
       <c r="F98" s="53"/>
@@ -49862,8 +49866,8 @@
       <c r="H98" s="58"/>
     </row>
     <row r="99" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="87"/>
-      <c r="C99" s="88"/>
+      <c r="B99" s="89"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="55"/>
       <c r="E99" s="55"/>
       <c r="F99" s="60"/>
@@ -49871,8 +49875,8 @@
       <c r="H99" s="59"/>
     </row>
     <row r="100" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="89"/>
-      <c r="C100" s="90"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="88"/>
       <c r="D100" s="56"/>
       <c r="E100" s="56"/>
       <c r="F100" s="53"/>
@@ -49880,8 +49884,8 @@
       <c r="H100" s="58"/>
     </row>
     <row r="101" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="87"/>
-      <c r="C101" s="88"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="90"/>
       <c r="D101" s="55"/>
       <c r="E101" s="55"/>
       <c r="F101" s="60"/>
@@ -49889,8 +49893,8 @@
       <c r="H101" s="59"/>
     </row>
     <row r="102" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="89"/>
-      <c r="C102" s="90"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="88"/>
       <c r="D102" s="56"/>
       <c r="E102" s="56"/>
       <c r="F102" s="53"/>
@@ -49898,8 +49902,8 @@
       <c r="H102" s="58"/>
     </row>
     <row r="103" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B103" s="87"/>
-      <c r="C103" s="88"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="90"/>
       <c r="D103" s="55"/>
       <c r="E103" s="55"/>
       <c r="F103" s="60"/>
@@ -49907,8 +49911,8 @@
       <c r="H103" s="59"/>
     </row>
     <row r="104" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B104" s="89"/>
-      <c r="C104" s="90"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="88"/>
       <c r="D104" s="56"/>
       <c r="E104" s="56"/>
       <c r="F104" s="53"/>
@@ -49916,8 +49920,8 @@
       <c r="H104" s="58"/>
     </row>
     <row r="105" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B105" s="87"/>
-      <c r="C105" s="88"/>
+      <c r="B105" s="89"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="55"/>
       <c r="E105" s="55"/>
       <c r="F105" s="60"/>
@@ -49925,8 +49929,8 @@
       <c r="H105" s="59"/>
     </row>
     <row r="106" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B106" s="89"/>
-      <c r="C106" s="90"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="88"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
       <c r="F106" s="53"/>
@@ -49934,8 +49938,8 @@
       <c r="H106" s="58"/>
     </row>
     <row r="107" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="87"/>
-      <c r="C107" s="88"/>
+      <c r="B107" s="89"/>
+      <c r="C107" s="90"/>
       <c r="D107" s="55"/>
       <c r="E107" s="55"/>
       <c r="F107" s="60"/>
@@ -49943,8 +49947,8 @@
       <c r="H107" s="59"/>
     </row>
     <row r="108" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="89"/>
-      <c r="C108" s="90"/>
+      <c r="B108" s="87"/>
+      <c r="C108" s="88"/>
       <c r="D108" s="56"/>
       <c r="E108" s="56"/>
       <c r="F108" s="53"/>
@@ -49952,8 +49956,8 @@
       <c r="H108" s="58"/>
     </row>
     <row r="109" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B109" s="87"/>
-      <c r="C109" s="88"/>
+      <c r="B109" s="89"/>
+      <c r="C109" s="90"/>
       <c r="D109" s="55"/>
       <c r="E109" s="55"/>
       <c r="F109" s="60"/>
@@ -49961,8 +49965,8 @@
       <c r="H109" s="59"/>
     </row>
     <row r="110" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="89"/>
-      <c r="C110" s="90"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="88"/>
       <c r="D110" s="56"/>
       <c r="E110" s="56"/>
       <c r="F110" s="53"/>
@@ -49970,8 +49974,8 @@
       <c r="H110" s="58"/>
     </row>
     <row r="111" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B111" s="87"/>
-      <c r="C111" s="88"/>
+      <c r="B111" s="89"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="55"/>
       <c r="E111" s="55"/>
       <c r="F111" s="60"/>
@@ -49979,8 +49983,8 @@
       <c r="H111" s="59"/>
     </row>
     <row r="112" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B112" s="89"/>
-      <c r="C112" s="90"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="88"/>
       <c r="D112" s="56"/>
       <c r="E112" s="56"/>
       <c r="F112" s="53"/>
@@ -49988,8 +49992,8 @@
       <c r="H112" s="58"/>
     </row>
     <row r="113" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B113" s="87"/>
-      <c r="C113" s="88"/>
+      <c r="B113" s="89"/>
+      <c r="C113" s="90"/>
       <c r="D113" s="55"/>
       <c r="E113" s="55"/>
       <c r="F113" s="60"/>
@@ -49997,8 +50001,8 @@
       <c r="H113" s="59"/>
     </row>
     <row r="114" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="89"/>
-      <c r="C114" s="90"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="88"/>
       <c r="D114" s="56"/>
       <c r="E114" s="56"/>
       <c r="F114" s="53"/>
@@ -50006,8 +50010,8 @@
       <c r="H114" s="58"/>
     </row>
     <row r="115" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="87"/>
-      <c r="C115" s="88"/>
+      <c r="B115" s="89"/>
+      <c r="C115" s="90"/>
       <c r="D115" s="55"/>
       <c r="E115" s="55"/>
       <c r="F115" s="60"/>
@@ -50015,8 +50019,8 @@
       <c r="H115" s="59"/>
     </row>
     <row r="116" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B116" s="89"/>
-      <c r="C116" s="90"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="88"/>
       <c r="D116" s="56"/>
       <c r="E116" s="56"/>
       <c r="F116" s="53"/>
@@ -50024,8 +50028,8 @@
       <c r="H116" s="58"/>
     </row>
     <row r="117" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B117" s="87"/>
-      <c r="C117" s="88"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="90"/>
       <c r="D117" s="55"/>
       <c r="E117" s="55"/>
       <c r="F117" s="60"/>
@@ -50033,8 +50037,8 @@
       <c r="H117" s="59"/>
     </row>
     <row r="118" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B118" s="89"/>
-      <c r="C118" s="90"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="88"/>
       <c r="D118" s="56"/>
       <c r="E118" s="56"/>
       <c r="F118" s="53"/>
@@ -50042,8 +50046,8 @@
       <c r="H118" s="58"/>
     </row>
     <row r="119" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B119" s="87"/>
-      <c r="C119" s="88"/>
+      <c r="B119" s="89"/>
+      <c r="C119" s="90"/>
       <c r="D119" s="55"/>
       <c r="E119" s="55"/>
       <c r="F119" s="60"/>
@@ -50051,8 +50055,8 @@
       <c r="H119" s="59"/>
     </row>
     <row r="120" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B120" s="89"/>
-      <c r="C120" s="90"/>
+      <c r="B120" s="87"/>
+      <c r="C120" s="88"/>
       <c r="D120" s="56"/>
       <c r="E120" s="56"/>
       <c r="F120" s="53"/>
@@ -50060,8 +50064,8 @@
       <c r="H120" s="58"/>
     </row>
     <row r="121" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="87"/>
-      <c r="C121" s="88"/>
+      <c r="B121" s="89"/>
+      <c r="C121" s="90"/>
       <c r="D121" s="55"/>
       <c r="E121" s="55"/>
       <c r="F121" s="60"/>
@@ -50069,8 +50073,8 @@
       <c r="H121" s="59"/>
     </row>
     <row r="122" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B122" s="89"/>
-      <c r="C122" s="90"/>
+      <c r="B122" s="87"/>
+      <c r="C122" s="88"/>
       <c r="D122" s="56"/>
       <c r="E122" s="56"/>
       <c r="F122" s="53"/>
@@ -50078,8 +50082,8 @@
       <c r="H122" s="58"/>
     </row>
     <row r="123" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="87"/>
-      <c r="C123" s="88"/>
+      <c r="B123" s="89"/>
+      <c r="C123" s="90"/>
       <c r="D123" s="55"/>
       <c r="E123" s="55"/>
       <c r="F123" s="60"/>
@@ -50087,8 +50091,8 @@
       <c r="H123" s="59"/>
     </row>
     <row r="124" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="89"/>
-      <c r="C124" s="90"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="88"/>
       <c r="D124" s="56"/>
       <c r="E124" s="56"/>
       <c r="F124" s="53"/>
@@ -50096,8 +50100,8 @@
       <c r="H124" s="58"/>
     </row>
     <row r="125" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="87"/>
-      <c r="C125" s="88"/>
+      <c r="B125" s="89"/>
+      <c r="C125" s="90"/>
       <c r="D125" s="55"/>
       <c r="E125" s="55"/>
       <c r="F125" s="60"/>
@@ -50105,8 +50109,8 @@
       <c r="H125" s="59"/>
     </row>
     <row r="126" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="89"/>
-      <c r="C126" s="90"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="88"/>
       <c r="D126" s="56"/>
       <c r="E126" s="56"/>
       <c r="F126" s="53"/>
@@ -50114,8 +50118,8 @@
       <c r="H126" s="58"/>
     </row>
     <row r="127" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="87"/>
-      <c r="C127" s="88"/>
+      <c r="B127" s="89"/>
+      <c r="C127" s="90"/>
       <c r="D127" s="55"/>
       <c r="E127" s="55"/>
       <c r="F127" s="60"/>
@@ -50123,8 +50127,8 @@
       <c r="H127" s="59"/>
     </row>
     <row r="128" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="89"/>
-      <c r="C128" s="90"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="88"/>
       <c r="D128" s="56"/>
       <c r="E128" s="56"/>
       <c r="F128" s="53"/>
@@ -50132,8 +50136,8 @@
       <c r="H128" s="58"/>
     </row>
     <row r="129" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="87"/>
-      <c r="C129" s="88"/>
+      <c r="B129" s="89"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="55"/>
       <c r="E129" s="55"/>
       <c r="F129" s="60"/>
@@ -50141,8 +50145,8 @@
       <c r="H129" s="59"/>
     </row>
     <row r="130" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="89"/>
-      <c r="C130" s="90"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="88"/>
       <c r="D130" s="56"/>
       <c r="E130" s="56"/>
       <c r="F130" s="53"/>
@@ -50150,8 +50154,8 @@
       <c r="H130" s="58"/>
     </row>
     <row r="131" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="87"/>
-      <c r="C131" s="88"/>
+      <c r="B131" s="89"/>
+      <c r="C131" s="90"/>
       <c r="D131" s="55"/>
       <c r="E131" s="55"/>
       <c r="F131" s="60"/>
@@ -50159,8 +50163,8 @@
       <c r="H131" s="59"/>
     </row>
     <row r="132" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="89"/>
-      <c r="C132" s="90"/>
+      <c r="B132" s="87"/>
+      <c r="C132" s="88"/>
       <c r="D132" s="56"/>
       <c r="E132" s="56"/>
       <c r="F132" s="53"/>
@@ -50168,8 +50172,8 @@
       <c r="H132" s="58"/>
     </row>
     <row r="133" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="87"/>
-      <c r="C133" s="88"/>
+      <c r="B133" s="89"/>
+      <c r="C133" s="90"/>
       <c r="D133" s="55"/>
       <c r="E133" s="55"/>
       <c r="F133" s="60"/>
@@ -50177,8 +50181,8 @@
       <c r="H133" s="59"/>
     </row>
     <row r="134" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="89"/>
-      <c r="C134" s="90"/>
+      <c r="B134" s="87"/>
+      <c r="C134" s="88"/>
       <c r="D134" s="56"/>
       <c r="E134" s="56"/>
       <c r="F134" s="53"/>
@@ -50186,8 +50190,8 @@
       <c r="H134" s="58"/>
     </row>
     <row r="135" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="87"/>
-      <c r="C135" s="88"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="90"/>
       <c r="D135" s="55"/>
       <c r="E135" s="55"/>
       <c r="F135" s="60"/>
@@ -50195,8 +50199,8 @@
       <c r="H135" s="59"/>
     </row>
     <row r="136" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="89"/>
-      <c r="C136" s="90"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="88"/>
       <c r="D136" s="56"/>
       <c r="E136" s="56"/>
       <c r="F136" s="53"/>
@@ -50204,8 +50208,8 @@
       <c r="H136" s="58"/>
     </row>
     <row r="137" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="87"/>
-      <c r="C137" s="88"/>
+      <c r="B137" s="89"/>
+      <c r="C137" s="90"/>
       <c r="D137" s="55"/>
       <c r="E137" s="55"/>
       <c r="F137" s="60"/>
@@ -50213,8 +50217,8 @@
       <c r="H137" s="59"/>
     </row>
     <row r="138" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B138" s="89"/>
-      <c r="C138" s="90"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="88"/>
       <c r="D138" s="56"/>
       <c r="E138" s="56"/>
       <c r="F138" s="53"/>
@@ -50222,8 +50226,8 @@
       <c r="H138" s="58"/>
     </row>
     <row r="139" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B139" s="87"/>
-      <c r="C139" s="88"/>
+      <c r="B139" s="89"/>
+      <c r="C139" s="90"/>
       <c r="D139" s="55"/>
       <c r="E139" s="55"/>
       <c r="F139" s="60"/>
@@ -50231,8 +50235,8 @@
       <c r="H139" s="59"/>
     </row>
     <row r="140" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="89"/>
-      <c r="C140" s="90"/>
+      <c r="B140" s="87"/>
+      <c r="C140" s="88"/>
       <c r="D140" s="56"/>
       <c r="E140" s="56"/>
       <c r="F140" s="53"/>
@@ -50240,8 +50244,8 @@
       <c r="H140" s="58"/>
     </row>
     <row r="141" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B141" s="87"/>
-      <c r="C141" s="88"/>
+      <c r="B141" s="89"/>
+      <c r="C141" s="90"/>
       <c r="D141" s="55"/>
       <c r="E141" s="55"/>
       <c r="F141" s="60"/>
@@ -50249,8 +50253,8 @@
       <c r="H141" s="59"/>
     </row>
     <row r="142" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B142" s="89"/>
-      <c r="C142" s="90"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="88"/>
       <c r="D142" s="56"/>
       <c r="E142" s="56"/>
       <c r="F142" s="53"/>
@@ -50258,8 +50262,8 @@
       <c r="H142" s="58"/>
     </row>
     <row r="143" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B143" s="87"/>
-      <c r="C143" s="88"/>
+      <c r="B143" s="89"/>
+      <c r="C143" s="90"/>
       <c r="D143" s="55"/>
       <c r="E143" s="55"/>
       <c r="F143" s="60"/>
@@ -50267,8 +50271,8 @@
       <c r="H143" s="59"/>
     </row>
     <row r="144" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B144" s="89"/>
-      <c r="C144" s="90"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="88"/>
       <c r="D144" s="56"/>
       <c r="E144" s="56"/>
       <c r="F144" s="53"/>
@@ -50276,8 +50280,8 @@
       <c r="H144" s="58"/>
     </row>
     <row r="145" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B145" s="87"/>
-      <c r="C145" s="88"/>
+      <c r="B145" s="89"/>
+      <c r="C145" s="90"/>
       <c r="D145" s="55"/>
       <c r="E145" s="55"/>
       <c r="F145" s="60"/>
@@ -50285,8 +50289,8 @@
       <c r="H145" s="59"/>
     </row>
     <row r="146" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B146" s="89"/>
-      <c r="C146" s="90"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="88"/>
       <c r="D146" s="56"/>
       <c r="E146" s="56"/>
       <c r="F146" s="53"/>
@@ -50294,8 +50298,8 @@
       <c r="H146" s="58"/>
     </row>
     <row r="147" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B147" s="87"/>
-      <c r="C147" s="88"/>
+      <c r="B147" s="89"/>
+      <c r="C147" s="90"/>
       <c r="D147" s="55"/>
       <c r="E147" s="55"/>
       <c r="F147" s="60"/>
@@ -50303,8 +50307,8 @@
       <c r="H147" s="59"/>
     </row>
     <row r="148" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B148" s="89"/>
-      <c r="C148" s="90"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="88"/>
       <c r="D148" s="56"/>
       <c r="E148" s="56"/>
       <c r="F148" s="53"/>
@@ -50312,8 +50316,8 @@
       <c r="H148" s="58"/>
     </row>
     <row r="149" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B149" s="87"/>
-      <c r="C149" s="88"/>
+      <c r="B149" s="89"/>
+      <c r="C149" s="90"/>
       <c r="D149" s="55"/>
       <c r="E149" s="55"/>
       <c r="F149" s="60"/>
@@ -50321,8 +50325,8 @@
       <c r="H149" s="59"/>
     </row>
     <row r="150" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B150" s="89"/>
-      <c r="C150" s="90"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="88"/>
       <c r="D150" s="56"/>
       <c r="E150" s="56"/>
       <c r="F150" s="53"/>
@@ -50330,8 +50334,8 @@
       <c r="H150" s="58"/>
     </row>
     <row r="151" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B151" s="87"/>
-      <c r="C151" s="88"/>
+      <c r="B151" s="89"/>
+      <c r="C151" s="90"/>
       <c r="D151" s="55"/>
       <c r="E151" s="55"/>
       <c r="F151" s="60"/>
@@ -50339,8 +50343,8 @@
       <c r="H151" s="59"/>
     </row>
     <row r="152" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B152" s="89"/>
-      <c r="C152" s="90"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="88"/>
       <c r="D152" s="56"/>
       <c r="E152" s="56"/>
       <c r="F152" s="53"/>
@@ -50348,8 +50352,8 @@
       <c r="H152" s="58"/>
     </row>
     <row r="153" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B153" s="87"/>
-      <c r="C153" s="88"/>
+      <c r="B153" s="89"/>
+      <c r="C153" s="90"/>
       <c r="D153" s="55"/>
       <c r="E153" s="55"/>
       <c r="F153" s="60"/>
@@ -50357,8 +50361,8 @@
       <c r="H153" s="59"/>
     </row>
     <row r="154" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B154" s="89"/>
-      <c r="C154" s="90"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="88"/>
       <c r="D154" s="56"/>
       <c r="E154" s="56"/>
       <c r="F154" s="53"/>
@@ -50366,8 +50370,8 @@
       <c r="H154" s="58"/>
     </row>
     <row r="155" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B155" s="87"/>
-      <c r="C155" s="88"/>
+      <c r="B155" s="89"/>
+      <c r="C155" s="90"/>
       <c r="D155" s="55"/>
       <c r="E155" s="55"/>
       <c r="F155" s="60"/>
@@ -50375,8 +50379,8 @@
       <c r="H155" s="59"/>
     </row>
     <row r="156" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B156" s="89"/>
-      <c r="C156" s="90"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="88"/>
       <c r="D156" s="56"/>
       <c r="E156" s="56"/>
       <c r="F156" s="53"/>
@@ -50384,8 +50388,8 @@
       <c r="H156" s="58"/>
     </row>
     <row r="157" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="87"/>
-      <c r="C157" s="88"/>
+      <c r="B157" s="89"/>
+      <c r="C157" s="90"/>
       <c r="D157" s="55"/>
       <c r="E157" s="55"/>
       <c r="F157" s="60"/>
@@ -50393,8 +50397,8 @@
       <c r="H157" s="59"/>
     </row>
     <row r="158" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="89"/>
-      <c r="C158" s="90"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="88"/>
       <c r="D158" s="56"/>
       <c r="E158" s="56"/>
       <c r="F158" s="53"/>
@@ -50402,8 +50406,8 @@
       <c r="H158" s="58"/>
     </row>
     <row r="159" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="87"/>
-      <c r="C159" s="88"/>
+      <c r="B159" s="89"/>
+      <c r="C159" s="90"/>
       <c r="D159" s="55"/>
       <c r="E159" s="55"/>
       <c r="F159" s="60"/>
@@ -50411,8 +50415,8 @@
       <c r="H159" s="59"/>
     </row>
     <row r="160" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B160" s="89"/>
-      <c r="C160" s="90"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="88"/>
       <c r="D160" s="56"/>
       <c r="E160" s="56"/>
       <c r="F160" s="53"/>
@@ -50420,8 +50424,8 @@
       <c r="H160" s="58"/>
     </row>
     <row r="161" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B161" s="87"/>
-      <c r="C161" s="88"/>
+      <c r="B161" s="89"/>
+      <c r="C161" s="90"/>
       <c r="D161" s="55"/>
       <c r="E161" s="55"/>
       <c r="F161" s="60"/>
@@ -50429,8 +50433,8 @@
       <c r="H161" s="59"/>
     </row>
     <row r="162" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B162" s="89"/>
-      <c r="C162" s="90"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="88"/>
       <c r="D162" s="56"/>
       <c r="E162" s="56"/>
       <c r="F162" s="53"/>
@@ -50438,8 +50442,8 @@
       <c r="H162" s="58"/>
     </row>
     <row r="163" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B163" s="87"/>
-      <c r="C163" s="88"/>
+      <c r="B163" s="89"/>
+      <c r="C163" s="90"/>
       <c r="D163" s="55"/>
       <c r="E163" s="55"/>
       <c r="F163" s="60"/>
@@ -50447,8 +50451,8 @@
       <c r="H163" s="59"/>
     </row>
     <row r="164" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="89"/>
-      <c r="C164" s="90"/>
+      <c r="B164" s="87"/>
+      <c r="C164" s="88"/>
       <c r="D164" s="56"/>
       <c r="E164" s="56"/>
       <c r="F164" s="53"/>
@@ -50456,8 +50460,8 @@
       <c r="H164" s="58"/>
     </row>
     <row r="165" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B165" s="87"/>
-      <c r="C165" s="88"/>
+      <c r="B165" s="89"/>
+      <c r="C165" s="90"/>
       <c r="D165" s="55"/>
       <c r="E165" s="55"/>
       <c r="F165" s="60"/>
@@ -50465,8 +50469,8 @@
       <c r="H165" s="59"/>
     </row>
     <row r="166" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="89"/>
-      <c r="C166" s="90"/>
+      <c r="B166" s="87"/>
+      <c r="C166" s="88"/>
       <c r="D166" s="56"/>
       <c r="E166" s="56"/>
       <c r="F166" s="53"/>
@@ -50474,8 +50478,8 @@
       <c r="H166" s="58"/>
     </row>
     <row r="167" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="87"/>
-      <c r="C167" s="88"/>
+      <c r="B167" s="89"/>
+      <c r="C167" s="90"/>
       <c r="D167" s="55"/>
       <c r="E167" s="55"/>
       <c r="F167" s="60"/>
@@ -50483,8 +50487,8 @@
       <c r="H167" s="59"/>
     </row>
     <row r="168" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B168" s="89"/>
-      <c r="C168" s="90"/>
+      <c r="B168" s="87"/>
+      <c r="C168" s="88"/>
       <c r="D168" s="56"/>
       <c r="E168" s="56"/>
       <c r="F168" s="53"/>
@@ -50492,8 +50496,8 @@
       <c r="H168" s="58"/>
     </row>
     <row r="169" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="87"/>
-      <c r="C169" s="88"/>
+      <c r="B169" s="89"/>
+      <c r="C169" s="90"/>
       <c r="D169" s="55"/>
       <c r="E169" s="55"/>
       <c r="F169" s="60"/>
@@ -50501,8 +50505,8 @@
       <c r="H169" s="59"/>
     </row>
     <row r="170" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B170" s="89"/>
-      <c r="C170" s="90"/>
+      <c r="B170" s="87"/>
+      <c r="C170" s="88"/>
       <c r="D170" s="56"/>
       <c r="E170" s="56"/>
       <c r="F170" s="53"/>
@@ -50510,8 +50514,8 @@
       <c r="H170" s="58"/>
     </row>
     <row r="171" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B171" s="87"/>
-      <c r="C171" s="88"/>
+      <c r="B171" s="89"/>
+      <c r="C171" s="90"/>
       <c r="D171" s="55"/>
       <c r="E171" s="55"/>
       <c r="F171" s="60"/>
@@ -50519,8 +50523,8 @@
       <c r="H171" s="59"/>
     </row>
     <row r="172" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B172" s="89"/>
-      <c r="C172" s="90"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="88"/>
       <c r="D172" s="56"/>
       <c r="E172" s="56"/>
       <c r="F172" s="53"/>
@@ -50528,8 +50532,8 @@
       <c r="H172" s="58"/>
     </row>
     <row r="173" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B173" s="87"/>
-      <c r="C173" s="88"/>
+      <c r="B173" s="89"/>
+      <c r="C173" s="90"/>
       <c r="D173" s="55"/>
       <c r="E173" s="55"/>
       <c r="F173" s="60"/>
@@ -50537,8 +50541,8 @@
       <c r="H173" s="59"/>
     </row>
     <row r="174" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B174" s="89"/>
-      <c r="C174" s="90"/>
+      <c r="B174" s="87"/>
+      <c r="C174" s="88"/>
       <c r="D174" s="56"/>
       <c r="E174" s="56"/>
       <c r="F174" s="53"/>
@@ -50546,8 +50550,8 @@
       <c r="H174" s="58"/>
     </row>
     <row r="175" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B175" s="87"/>
-      <c r="C175" s="88"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="90"/>
       <c r="D175" s="55"/>
       <c r="E175" s="55"/>
       <c r="F175" s="60"/>
@@ -50555,8 +50559,8 @@
       <c r="H175" s="59"/>
     </row>
     <row r="176" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B176" s="89"/>
-      <c r="C176" s="90"/>
+      <c r="B176" s="87"/>
+      <c r="C176" s="88"/>
       <c r="D176" s="56"/>
       <c r="E176" s="56"/>
       <c r="F176" s="53"/>
@@ -50564,8 +50568,8 @@
       <c r="H176" s="58"/>
     </row>
     <row r="177" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B177" s="87"/>
-      <c r="C177" s="88"/>
+      <c r="B177" s="89"/>
+      <c r="C177" s="90"/>
       <c r="D177" s="55"/>
       <c r="E177" s="55"/>
       <c r="F177" s="60"/>
@@ -50573,8 +50577,8 @@
       <c r="H177" s="59"/>
     </row>
     <row r="178" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B178" s="89"/>
-      <c r="C178" s="90"/>
+      <c r="B178" s="87"/>
+      <c r="C178" s="88"/>
       <c r="D178" s="56"/>
       <c r="E178" s="56"/>
       <c r="F178" s="53"/>
@@ -50582,8 +50586,8 @@
       <c r="H178" s="58"/>
     </row>
     <row r="179" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B179" s="87"/>
-      <c r="C179" s="88"/>
+      <c r="B179" s="89"/>
+      <c r="C179" s="90"/>
       <c r="D179" s="55"/>
       <c r="E179" s="55"/>
       <c r="F179" s="60"/>
@@ -50591,8 +50595,8 @@
       <c r="H179" s="59"/>
     </row>
     <row r="180" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B180" s="89"/>
-      <c r="C180" s="90"/>
+      <c r="B180" s="87"/>
+      <c r="C180" s="88"/>
       <c r="D180" s="56"/>
       <c r="E180" s="56"/>
       <c r="F180" s="53"/>
@@ -50600,8 +50604,8 @@
       <c r="H180" s="58"/>
     </row>
     <row r="181" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B181" s="87"/>
-      <c r="C181" s="88"/>
+      <c r="B181" s="89"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="55"/>
       <c r="E181" s="55"/>
       <c r="F181" s="60"/>
@@ -50609,8 +50613,8 @@
       <c r="H181" s="59"/>
     </row>
     <row r="182" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B182" s="89"/>
-      <c r="C182" s="90"/>
+      <c r="B182" s="87"/>
+      <c r="C182" s="88"/>
       <c r="D182" s="56"/>
       <c r="E182" s="56"/>
       <c r="F182" s="53"/>
@@ -50618,8 +50622,8 @@
       <c r="H182" s="58"/>
     </row>
     <row r="183" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B183" s="87"/>
-      <c r="C183" s="88"/>
+      <c r="B183" s="89"/>
+      <c r="C183" s="90"/>
       <c r="D183" s="55"/>
       <c r="E183" s="55"/>
       <c r="F183" s="60"/>
@@ -50627,8 +50631,8 @@
       <c r="H183" s="59"/>
     </row>
     <row r="184" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B184" s="89"/>
-      <c r="C184" s="90"/>
+      <c r="B184" s="87"/>
+      <c r="C184" s="88"/>
       <c r="D184" s="56"/>
       <c r="E184" s="56"/>
       <c r="F184" s="53"/>
@@ -50636,8 +50640,8 @@
       <c r="H184" s="58"/>
     </row>
     <row r="185" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B185" s="87"/>
-      <c r="C185" s="88"/>
+      <c r="B185" s="89"/>
+      <c r="C185" s="90"/>
       <c r="D185" s="55"/>
       <c r="E185" s="55"/>
       <c r="F185" s="60"/>
@@ -50645,8 +50649,8 @@
       <c r="H185" s="59"/>
     </row>
     <row r="186" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B186" s="89"/>
-      <c r="C186" s="90"/>
+      <c r="B186" s="87"/>
+      <c r="C186" s="88"/>
       <c r="D186" s="56"/>
       <c r="E186" s="56"/>
       <c r="F186" s="53"/>
@@ -50654,8 +50658,8 @@
       <c r="H186" s="58"/>
     </row>
     <row r="187" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B187" s="87"/>
-      <c r="C187" s="88"/>
+      <c r="B187" s="89"/>
+      <c r="C187" s="90"/>
       <c r="D187" s="55"/>
       <c r="E187" s="55"/>
       <c r="F187" s="60"/>
@@ -50663,8 +50667,8 @@
       <c r="H187" s="59"/>
     </row>
     <row r="188" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B188" s="89"/>
-      <c r="C188" s="90"/>
+      <c r="B188" s="87"/>
+      <c r="C188" s="88"/>
       <c r="D188" s="56"/>
       <c r="E188" s="56"/>
       <c r="F188" s="53"/>
@@ -50672,8 +50676,8 @@
       <c r="H188" s="58"/>
     </row>
     <row r="189" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B189" s="87"/>
-      <c r="C189" s="88"/>
+      <c r="B189" s="89"/>
+      <c r="C189" s="90"/>
       <c r="D189" s="55"/>
       <c r="E189" s="55"/>
       <c r="F189" s="60"/>
@@ -50681,8 +50685,8 @@
       <c r="H189" s="59"/>
     </row>
     <row r="190" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B190" s="89"/>
-      <c r="C190" s="90"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="88"/>
       <c r="D190" s="56"/>
       <c r="E190" s="56"/>
       <c r="F190" s="53"/>
@@ -50690,8 +50694,8 @@
       <c r="H190" s="58"/>
     </row>
     <row r="191" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B191" s="87"/>
-      <c r="C191" s="88"/>
+      <c r="B191" s="89"/>
+      <c r="C191" s="90"/>
       <c r="D191" s="55"/>
       <c r="E191" s="55"/>
       <c r="F191" s="60"/>
@@ -50699,8 +50703,8 @@
       <c r="H191" s="59"/>
     </row>
     <row r="192" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B192" s="89"/>
-      <c r="C192" s="90"/>
+      <c r="B192" s="87"/>
+      <c r="C192" s="88"/>
       <c r="D192" s="56"/>
       <c r="E192" s="56"/>
       <c r="F192" s="53"/>
@@ -50708,8 +50712,8 @@
       <c r="H192" s="58"/>
     </row>
     <row r="193" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B193" s="87"/>
-      <c r="C193" s="88"/>
+      <c r="B193" s="89"/>
+      <c r="C193" s="90"/>
       <c r="D193" s="55"/>
       <c r="E193" s="55"/>
       <c r="F193" s="60"/>
@@ -50717,8 +50721,8 @@
       <c r="H193" s="59"/>
     </row>
     <row r="194" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B194" s="89"/>
-      <c r="C194" s="90"/>
+      <c r="B194" s="87"/>
+      <c r="C194" s="88"/>
       <c r="D194" s="56"/>
       <c r="E194" s="56"/>
       <c r="F194" s="53"/>
@@ -50726,8 +50730,8 @@
       <c r="H194" s="58"/>
     </row>
     <row r="195" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B195" s="87"/>
-      <c r="C195" s="88"/>
+      <c r="B195" s="89"/>
+      <c r="C195" s="90"/>
       <c r="D195" s="55"/>
       <c r="E195" s="55"/>
       <c r="F195" s="60"/>
@@ -50735,8 +50739,8 @@
       <c r="H195" s="59"/>
     </row>
     <row r="196" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B196" s="89"/>
-      <c r="C196" s="90"/>
+      <c r="B196" s="87"/>
+      <c r="C196" s="88"/>
       <c r="D196" s="56"/>
       <c r="E196" s="56"/>
       <c r="F196" s="53"/>
@@ -50744,8 +50748,8 @@
       <c r="H196" s="58"/>
     </row>
     <row r="197" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B197" s="87"/>
-      <c r="C197" s="88"/>
+      <c r="B197" s="89"/>
+      <c r="C197" s="90"/>
       <c r="D197" s="55"/>
       <c r="E197" s="55"/>
       <c r="F197" s="60"/>
@@ -50753,8 +50757,8 @@
       <c r="H197" s="59"/>
     </row>
     <row r="198" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B198" s="89"/>
-      <c r="C198" s="90"/>
+      <c r="B198" s="87"/>
+      <c r="C198" s="88"/>
       <c r="D198" s="56"/>
       <c r="E198" s="56"/>
       <c r="F198" s="53"/>
@@ -50762,8 +50766,8 @@
       <c r="H198" s="58"/>
     </row>
     <row r="199" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B199" s="87"/>
-      <c r="C199" s="88"/>
+      <c r="B199" s="89"/>
+      <c r="C199" s="90"/>
       <c r="D199" s="55"/>
       <c r="E199" s="55"/>
       <c r="F199" s="60"/>
@@ -50771,8 +50775,8 @@
       <c r="H199" s="59"/>
     </row>
     <row r="200" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B200" s="89"/>
-      <c r="C200" s="90"/>
+      <c r="B200" s="87"/>
+      <c r="C200" s="88"/>
       <c r="D200" s="56"/>
       <c r="E200" s="56"/>
       <c r="F200" s="53"/>
@@ -50780,8 +50784,8 @@
       <c r="H200" s="58"/>
     </row>
     <row r="201" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B201" s="87"/>
-      <c r="C201" s="88"/>
+      <c r="B201" s="89"/>
+      <c r="C201" s="90"/>
       <c r="D201" s="55"/>
       <c r="E201" s="55"/>
       <c r="F201" s="60"/>
@@ -50789,8 +50793,8 @@
       <c r="H201" s="59"/>
     </row>
     <row r="202" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B202" s="89"/>
-      <c r="C202" s="90"/>
+      <c r="B202" s="87"/>
+      <c r="C202" s="88"/>
       <c r="D202" s="56"/>
       <c r="E202" s="56"/>
       <c r="F202" s="53"/>
@@ -50798,8 +50802,8 @@
       <c r="H202" s="58"/>
     </row>
     <row r="203" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B203" s="87"/>
-      <c r="C203" s="88"/>
+      <c r="B203" s="89"/>
+      <c r="C203" s="90"/>
       <c r="D203" s="55"/>
       <c r="E203" s="55"/>
       <c r="F203" s="60"/>
@@ -50807,8 +50811,8 @@
       <c r="H203" s="59"/>
     </row>
     <row r="204" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B204" s="89"/>
-      <c r="C204" s="90"/>
+      <c r="B204" s="87"/>
+      <c r="C204" s="88"/>
       <c r="D204" s="56"/>
       <c r="E204" s="56"/>
       <c r="F204" s="53"/>
@@ -50816,8 +50820,8 @@
       <c r="H204" s="58"/>
     </row>
     <row r="205" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B205" s="87"/>
-      <c r="C205" s="88"/>
+      <c r="B205" s="89"/>
+      <c r="C205" s="90"/>
       <c r="D205" s="55"/>
       <c r="E205" s="55"/>
       <c r="F205" s="60"/>
@@ -50825,8 +50829,8 @@
       <c r="H205" s="59"/>
     </row>
     <row r="206" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B206" s="89"/>
-      <c r="C206" s="90"/>
+      <c r="B206" s="87"/>
+      <c r="C206" s="88"/>
       <c r="D206" s="56"/>
       <c r="E206" s="56"/>
       <c r="F206" s="53"/>
@@ -50834,8 +50838,8 @@
       <c r="H206" s="58"/>
     </row>
     <row r="207" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B207" s="87"/>
-      <c r="C207" s="88"/>
+      <c r="B207" s="89"/>
+      <c r="C207" s="90"/>
       <c r="D207" s="55"/>
       <c r="E207" s="55"/>
       <c r="F207" s="60"/>
@@ -50843,8 +50847,8 @@
       <c r="H207" s="59"/>
     </row>
     <row r="208" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B208" s="89"/>
-      <c r="C208" s="90"/>
+      <c r="B208" s="87"/>
+      <c r="C208" s="88"/>
       <c r="D208" s="56"/>
       <c r="E208" s="56"/>
       <c r="F208" s="53"/>
@@ -50852,8 +50856,8 @@
       <c r="H208" s="58"/>
     </row>
     <row r="209" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B209" s="87"/>
-      <c r="C209" s="88"/>
+      <c r="B209" s="89"/>
+      <c r="C209" s="90"/>
       <c r="D209" s="55"/>
       <c r="E209" s="55"/>
       <c r="F209" s="60"/>
@@ -50861,8 +50865,8 @@
       <c r="H209" s="59"/>
     </row>
     <row r="210" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B210" s="89"/>
-      <c r="C210" s="90"/>
+      <c r="B210" s="87"/>
+      <c r="C210" s="88"/>
       <c r="D210" s="56"/>
       <c r="E210" s="56"/>
       <c r="F210" s="53"/>
@@ -50870,8 +50874,8 @@
       <c r="H210" s="58"/>
     </row>
     <row r="211" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B211" s="87"/>
-      <c r="C211" s="88"/>
+      <c r="B211" s="89"/>
+      <c r="C211" s="90"/>
       <c r="D211" s="55"/>
       <c r="E211" s="55"/>
       <c r="F211" s="60"/>
@@ -50879,8 +50883,8 @@
       <c r="H211" s="59"/>
     </row>
     <row r="212" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B212" s="89"/>
-      <c r="C212" s="90"/>
+      <c r="B212" s="87"/>
+      <c r="C212" s="88"/>
       <c r="D212" s="56"/>
       <c r="E212" s="56"/>
       <c r="F212" s="53"/>
@@ -50888,8 +50892,8 @@
       <c r="H212" s="58"/>
     </row>
     <row r="213" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B213" s="87"/>
-      <c r="C213" s="88"/>
+      <c r="B213" s="89"/>
+      <c r="C213" s="90"/>
       <c r="D213" s="55"/>
       <c r="E213" s="55"/>
       <c r="F213" s="60"/>
@@ -50897,8 +50901,8 @@
       <c r="H213" s="59"/>
     </row>
     <row r="214" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B214" s="89"/>
-      <c r="C214" s="90"/>
+      <c r="B214" s="87"/>
+      <c r="C214" s="88"/>
       <c r="D214" s="56"/>
       <c r="E214" s="56"/>
       <c r="F214" s="53"/>
@@ -50906,8 +50910,8 @@
       <c r="H214" s="58"/>
     </row>
     <row r="215" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B215" s="87"/>
-      <c r="C215" s="88"/>
+      <c r="B215" s="89"/>
+      <c r="C215" s="90"/>
       <c r="D215" s="55"/>
       <c r="E215" s="55"/>
       <c r="F215" s="60"/>
@@ -50915,8 +50919,8 @@
       <c r="H215" s="59"/>
     </row>
     <row r="216" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B216" s="89"/>
-      <c r="C216" s="90"/>
+      <c r="B216" s="87"/>
+      <c r="C216" s="88"/>
       <c r="D216" s="56"/>
       <c r="E216" s="56"/>
       <c r="F216" s="53"/>
@@ -50924,8 +50928,8 @@
       <c r="H216" s="58"/>
     </row>
     <row r="217" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B217" s="87"/>
-      <c r="C217" s="88"/>
+      <c r="B217" s="89"/>
+      <c r="C217" s="90"/>
       <c r="D217" s="55"/>
       <c r="E217" s="55"/>
       <c r="F217" s="60"/>
@@ -50933,8 +50937,8 @@
       <c r="H217" s="59"/>
     </row>
     <row r="218" spans="2:8" s="8" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B218" s="89"/>
-      <c r="C218" s="90"/>
+      <c r="B218" s="87"/>
+      <c r="C218" s="88"/>
       <c r="D218" s="56"/>
       <c r="E218" s="56"/>
       <c r="F218" s="53"/>
@@ -50942,8 +50946,8 @@
       <c r="H218" s="58"/>
     </row>
     <row r="219" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="87"/>
-      <c r="C219" s="88"/>
+      <c r="B219" s="89"/>
+      <c r="C219" s="90"/>
       <c r="D219" s="55"/>
       <c r="E219" s="55"/>
       <c r="F219" s="60"/>
@@ -50951,8 +50955,8 @@
       <c r="H219" s="59"/>
     </row>
     <row r="220" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="89"/>
-      <c r="C220" s="90"/>
+      <c r="B220" s="87"/>
+      <c r="C220" s="88"/>
       <c r="D220" s="56"/>
       <c r="E220" s="56"/>
       <c r="F220" s="53"/>
@@ -50960,8 +50964,8 @@
       <c r="H220" s="58"/>
     </row>
     <row r="221" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="87"/>
-      <c r="C221" s="88"/>
+      <c r="B221" s="89"/>
+      <c r="C221" s="90"/>
       <c r="D221" s="55"/>
       <c r="E221" s="55"/>
       <c r="F221" s="60"/>
@@ -50969,8 +50973,8 @@
       <c r="H221" s="59"/>
     </row>
     <row r="222" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B222" s="89"/>
-      <c r="C222" s="90"/>
+      <c r="B222" s="87"/>
+      <c r="C222" s="88"/>
       <c r="D222" s="56"/>
       <c r="E222" s="56"/>
       <c r="F222" s="53"/>
@@ -50978,8 +50982,8 @@
       <c r="H222" s="58"/>
     </row>
     <row r="223" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="87"/>
-      <c r="C223" s="88"/>
+      <c r="B223" s="89"/>
+      <c r="C223" s="90"/>
       <c r="D223" s="55"/>
       <c r="E223" s="55"/>
       <c r="F223" s="60"/>
@@ -50987,8 +50991,8 @@
       <c r="H223" s="59"/>
     </row>
     <row r="224" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="89"/>
-      <c r="C224" s="90"/>
+      <c r="B224" s="87"/>
+      <c r="C224" s="88"/>
       <c r="D224" s="56"/>
       <c r="E224" s="56"/>
       <c r="F224" s="53"/>
@@ -50996,8 +51000,8 @@
       <c r="H224" s="58"/>
     </row>
     <row r="225" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B225" s="87"/>
-      <c r="C225" s="88"/>
+      <c r="B225" s="89"/>
+      <c r="C225" s="90"/>
       <c r="D225" s="55"/>
       <c r="E225" s="55"/>
       <c r="F225" s="60"/>
@@ -51005,8 +51009,8 @@
       <c r="H225" s="59"/>
     </row>
     <row r="226" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="89"/>
-      <c r="C226" s="90"/>
+      <c r="B226" s="87"/>
+      <c r="C226" s="88"/>
       <c r="D226" s="56"/>
       <c r="E226" s="56"/>
       <c r="F226" s="53"/>
@@ -51014,8 +51018,8 @@
       <c r="H226" s="58"/>
     </row>
     <row r="227" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B227" s="87"/>
-      <c r="C227" s="88"/>
+      <c r="B227" s="89"/>
+      <c r="C227" s="90"/>
       <c r="D227" s="55"/>
       <c r="E227" s="55"/>
       <c r="F227" s="60"/>
@@ -51023,8 +51027,8 @@
       <c r="H227" s="59"/>
     </row>
     <row r="228" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="89"/>
-      <c r="C228" s="90"/>
+      <c r="B228" s="87"/>
+      <c r="C228" s="88"/>
       <c r="D228" s="56"/>
       <c r="E228" s="56"/>
       <c r="F228" s="53"/>
@@ -51032,8 +51036,8 @@
       <c r="H228" s="58"/>
     </row>
     <row r="229" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="87"/>
-      <c r="C229" s="88"/>
+      <c r="B229" s="89"/>
+      <c r="C229" s="90"/>
       <c r="D229" s="55"/>
       <c r="E229" s="55"/>
       <c r="F229" s="60"/>
@@ -51041,8 +51045,8 @@
       <c r="H229" s="59"/>
     </row>
     <row r="230" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="89"/>
-      <c r="C230" s="90"/>
+      <c r="B230" s="87"/>
+      <c r="C230" s="88"/>
       <c r="D230" s="56"/>
       <c r="E230" s="56"/>
       <c r="F230" s="53"/>
@@ -51050,8 +51054,8 @@
       <c r="H230" s="58"/>
     </row>
     <row r="231" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="87"/>
-      <c r="C231" s="88"/>
+      <c r="B231" s="89"/>
+      <c r="C231" s="90"/>
       <c r="D231" s="55"/>
       <c r="E231" s="55"/>
       <c r="F231" s="60"/>
@@ -51059,8 +51063,8 @@
       <c r="H231" s="59"/>
     </row>
     <row r="232" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="89"/>
-      <c r="C232" s="90"/>
+      <c r="B232" s="87"/>
+      <c r="C232" s="88"/>
       <c r="D232" s="56"/>
       <c r="E232" s="56"/>
       <c r="F232" s="53"/>
@@ -51068,8 +51072,8 @@
       <c r="H232" s="58"/>
     </row>
     <row r="233" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="87"/>
-      <c r="C233" s="88"/>
+      <c r="B233" s="89"/>
+      <c r="C233" s="90"/>
       <c r="D233" s="55"/>
       <c r="E233" s="55"/>
       <c r="F233" s="60"/>
@@ -51077,8 +51081,8 @@
       <c r="H233" s="59"/>
     </row>
     <row r="234" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B234" s="89"/>
-      <c r="C234" s="90"/>
+      <c r="B234" s="87"/>
+      <c r="C234" s="88"/>
       <c r="D234" s="56"/>
       <c r="E234" s="56"/>
       <c r="F234" s="53"/>
@@ -51086,8 +51090,8 @@
       <c r="H234" s="58"/>
     </row>
     <row r="235" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B235" s="87"/>
-      <c r="C235" s="88"/>
+      <c r="B235" s="89"/>
+      <c r="C235" s="90"/>
       <c r="D235" s="55"/>
       <c r="E235" s="55"/>
       <c r="F235" s="60"/>
@@ -51095,8 +51099,8 @@
       <c r="H235" s="59"/>
     </row>
     <row r="236" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="89"/>
-      <c r="C236" s="90"/>
+      <c r="B236" s="87"/>
+      <c r="C236" s="88"/>
       <c r="D236" s="56"/>
       <c r="E236" s="56"/>
       <c r="F236" s="53"/>
@@ -51104,8 +51108,8 @@
       <c r="H236" s="58"/>
     </row>
     <row r="237" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="87"/>
-      <c r="C237" s="88"/>
+      <c r="B237" s="89"/>
+      <c r="C237" s="90"/>
       <c r="D237" s="55"/>
       <c r="E237" s="55"/>
       <c r="F237" s="60"/>
@@ -51113,8 +51117,8 @@
       <c r="H237" s="59"/>
     </row>
     <row r="238" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="89"/>
-      <c r="C238" s="90"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="88"/>
       <c r="D238" s="56"/>
       <c r="E238" s="56"/>
       <c r="F238" s="53"/>
@@ -51122,8 +51126,8 @@
       <c r="H238" s="58"/>
     </row>
     <row r="239" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="87"/>
-      <c r="C239" s="88"/>
+      <c r="B239" s="89"/>
+      <c r="C239" s="90"/>
       <c r="D239" s="55"/>
       <c r="E239" s="55"/>
       <c r="F239" s="60"/>
@@ -51131,8 +51135,8 @@
       <c r="H239" s="59"/>
     </row>
     <row r="240" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="89"/>
-      <c r="C240" s="90"/>
+      <c r="B240" s="87"/>
+      <c r="C240" s="88"/>
       <c r="D240" s="56"/>
       <c r="E240" s="56"/>
       <c r="F240" s="53"/>
@@ -51140,8 +51144,8 @@
       <c r="H240" s="58"/>
     </row>
     <row r="241" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="87"/>
-      <c r="C241" s="88"/>
+      <c r="B241" s="89"/>
+      <c r="C241" s="90"/>
       <c r="D241" s="55"/>
       <c r="E241" s="55"/>
       <c r="F241" s="60"/>
@@ -51149,8 +51153,8 @@
       <c r="H241" s="59"/>
     </row>
     <row r="242" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="89"/>
-      <c r="C242" s="90"/>
+      <c r="B242" s="87"/>
+      <c r="C242" s="88"/>
       <c r="D242" s="56"/>
       <c r="E242" s="56"/>
       <c r="F242" s="53"/>
@@ -51158,8 +51162,8 @@
       <c r="H242" s="58"/>
     </row>
     <row r="243" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="87"/>
-      <c r="C243" s="88"/>
+      <c r="B243" s="89"/>
+      <c r="C243" s="90"/>
       <c r="D243" s="55"/>
       <c r="E243" s="55"/>
       <c r="F243" s="60"/>
@@ -51167,8 +51171,8 @@
       <c r="H243" s="59"/>
     </row>
     <row r="244" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="89"/>
-      <c r="C244" s="90"/>
+      <c r="B244" s="87"/>
+      <c r="C244" s="88"/>
       <c r="D244" s="56"/>
       <c r="E244" s="56"/>
       <c r="F244" s="53"/>
@@ -51176,8 +51180,8 @@
       <c r="H244" s="58"/>
     </row>
     <row r="245" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B245" s="87"/>
-      <c r="C245" s="88"/>
+      <c r="B245" s="89"/>
+      <c r="C245" s="90"/>
       <c r="D245" s="55"/>
       <c r="E245" s="55"/>
       <c r="F245" s="60"/>
@@ -51185,8 +51189,8 @@
       <c r="H245" s="59"/>
     </row>
     <row r="246" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="89"/>
-      <c r="C246" s="90"/>
+      <c r="B246" s="87"/>
+      <c r="C246" s="88"/>
       <c r="D246" s="56"/>
       <c r="E246" s="56"/>
       <c r="F246" s="53"/>
@@ -51194,8 +51198,8 @@
       <c r="H246" s="58"/>
     </row>
     <row r="247" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B247" s="87"/>
-      <c r="C247" s="88"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="90"/>
       <c r="D247" s="55"/>
       <c r="E247" s="55"/>
       <c r="F247" s="60"/>
@@ -51203,8 +51207,8 @@
       <c r="H247" s="59"/>
     </row>
     <row r="248" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B248" s="89"/>
-      <c r="C248" s="90"/>
+      <c r="B248" s="87"/>
+      <c r="C248" s="88"/>
       <c r="D248" s="56"/>
       <c r="E248" s="56"/>
       <c r="F248" s="53"/>
@@ -51212,8 +51216,8 @@
       <c r="H248" s="58"/>
     </row>
     <row r="249" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="87"/>
-      <c r="C249" s="88"/>
+      <c r="B249" s="89"/>
+      <c r="C249" s="90"/>
       <c r="D249" s="55"/>
       <c r="E249" s="55"/>
       <c r="F249" s="60"/>
@@ -51221,8 +51225,8 @@
       <c r="H249" s="59"/>
     </row>
     <row r="250" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B250" s="89"/>
-      <c r="C250" s="90"/>
+      <c r="B250" s="87"/>
+      <c r="C250" s="88"/>
       <c r="D250" s="56"/>
       <c r="E250" s="56"/>
       <c r="F250" s="53"/>
@@ -51230,8 +51234,8 @@
       <c r="H250" s="58"/>
     </row>
     <row r="251" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B251" s="87"/>
-      <c r="C251" s="88"/>
+      <c r="B251" s="89"/>
+      <c r="C251" s="90"/>
       <c r="D251" s="55"/>
       <c r="E251" s="55"/>
       <c r="F251" s="60"/>
@@ -51239,8 +51243,8 @@
       <c r="H251" s="59"/>
     </row>
     <row r="252" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B252" s="89"/>
-      <c r="C252" s="90"/>
+      <c r="B252" s="87"/>
+      <c r="C252" s="88"/>
       <c r="D252" s="56"/>
       <c r="E252" s="56"/>
       <c r="F252" s="53"/>
@@ -51248,8 +51252,8 @@
       <c r="H252" s="58"/>
     </row>
     <row r="253" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="87"/>
-      <c r="C253" s="88"/>
+      <c r="B253" s="89"/>
+      <c r="C253" s="90"/>
       <c r="D253" s="55"/>
       <c r="E253" s="55"/>
       <c r="F253" s="60"/>
@@ -51257,8 +51261,8 @@
       <c r="H253" s="59"/>
     </row>
     <row r="254" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="89"/>
-      <c r="C254" s="90"/>
+      <c r="B254" s="87"/>
+      <c r="C254" s="88"/>
       <c r="D254" s="56"/>
       <c r="E254" s="56"/>
       <c r="F254" s="53"/>
@@ -51266,8 +51270,8 @@
       <c r="H254" s="58"/>
     </row>
     <row r="255" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="87"/>
-      <c r="C255" s="88"/>
+      <c r="B255" s="89"/>
+      <c r="C255" s="90"/>
       <c r="D255" s="55"/>
       <c r="E255" s="55"/>
       <c r="F255" s="60"/>
@@ -51275,8 +51279,8 @@
       <c r="H255" s="59"/>
     </row>
     <row r="256" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="89"/>
-      <c r="C256" s="90"/>
+      <c r="B256" s="87"/>
+      <c r="C256" s="88"/>
       <c r="D256" s="56"/>
       <c r="E256" s="56"/>
       <c r="F256" s="53"/>
@@ -51284,8 +51288,8 @@
       <c r="H256" s="58"/>
     </row>
     <row r="257" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="87"/>
-      <c r="C257" s="88"/>
+      <c r="B257" s="89"/>
+      <c r="C257" s="90"/>
       <c r="D257" s="55"/>
       <c r="E257" s="55"/>
       <c r="F257" s="60"/>
@@ -51293,8 +51297,8 @@
       <c r="H257" s="59"/>
     </row>
     <row r="258" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="89"/>
-      <c r="C258" s="90"/>
+      <c r="B258" s="87"/>
+      <c r="C258" s="88"/>
       <c r="D258" s="56"/>
       <c r="E258" s="56"/>
       <c r="F258" s="53"/>
@@ -51302,8 +51306,8 @@
       <c r="H258" s="58"/>
     </row>
     <row r="259" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B259" s="87"/>
-      <c r="C259" s="88"/>
+      <c r="B259" s="89"/>
+      <c r="C259" s="90"/>
       <c r="D259" s="55"/>
       <c r="E259" s="55"/>
       <c r="F259" s="60"/>
@@ -51311,8 +51315,8 @@
       <c r="H259" s="59"/>
     </row>
     <row r="260" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="89"/>
-      <c r="C260" s="90"/>
+      <c r="B260" s="87"/>
+      <c r="C260" s="88"/>
       <c r="D260" s="56"/>
       <c r="E260" s="56"/>
       <c r="F260" s="53"/>
@@ -51320,8 +51324,8 @@
       <c r="H260" s="58"/>
     </row>
     <row r="261" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="87"/>
-      <c r="C261" s="88"/>
+      <c r="B261" s="89"/>
+      <c r="C261" s="90"/>
       <c r="D261" s="55"/>
       <c r="E261" s="55"/>
       <c r="F261" s="60"/>
@@ -51329,8 +51333,8 @@
       <c r="H261" s="59"/>
     </row>
     <row r="262" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="89"/>
-      <c r="C262" s="90"/>
+      <c r="B262" s="87"/>
+      <c r="C262" s="88"/>
       <c r="D262" s="56"/>
       <c r="E262" s="56"/>
       <c r="F262" s="53"/>
@@ -51338,8 +51342,8 @@
       <c r="H262" s="58"/>
     </row>
     <row r="263" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="87"/>
-      <c r="C263" s="88"/>
+      <c r="B263" s="89"/>
+      <c r="C263" s="90"/>
       <c r="D263" s="55"/>
       <c r="E263" s="55"/>
       <c r="F263" s="60"/>
@@ -51347,8 +51351,8 @@
       <c r="H263" s="59"/>
     </row>
     <row r="264" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="89"/>
-      <c r="C264" s="90"/>
+      <c r="B264" s="87"/>
+      <c r="C264" s="88"/>
       <c r="D264" s="56"/>
       <c r="E264" s="56"/>
       <c r="F264" s="53"/>
@@ -51356,8 +51360,8 @@
       <c r="H264" s="58"/>
     </row>
     <row r="265" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="87"/>
-      <c r="C265" s="88"/>
+      <c r="B265" s="89"/>
+      <c r="C265" s="90"/>
       <c r="D265" s="55"/>
       <c r="E265" s="55"/>
       <c r="F265" s="60"/>
@@ -51365,8 +51369,8 @@
       <c r="H265" s="59"/>
     </row>
     <row r="266" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="89"/>
-      <c r="C266" s="90"/>
+      <c r="B266" s="87"/>
+      <c r="C266" s="88"/>
       <c r="D266" s="56"/>
       <c r="E266" s="56"/>
       <c r="F266" s="53"/>
@@ -51374,8 +51378,8 @@
       <c r="H266" s="58"/>
     </row>
     <row r="267" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="87"/>
-      <c r="C267" s="88"/>
+      <c r="B267" s="89"/>
+      <c r="C267" s="90"/>
       <c r="D267" s="55"/>
       <c r="E267" s="55"/>
       <c r="F267" s="60"/>
@@ -51383,8 +51387,8 @@
       <c r="H267" s="59"/>
     </row>
     <row r="268" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="89"/>
-      <c r="C268" s="90"/>
+      <c r="B268" s="87"/>
+      <c r="C268" s="88"/>
       <c r="D268" s="56"/>
       <c r="E268" s="56"/>
       <c r="F268" s="53"/>
@@ -51392,8 +51396,8 @@
       <c r="H268" s="58"/>
     </row>
     <row r="269" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="87"/>
-      <c r="C269" s="88"/>
+      <c r="B269" s="89"/>
+      <c r="C269" s="90"/>
       <c r="D269" s="55"/>
       <c r="E269" s="55"/>
       <c r="F269" s="60"/>
@@ -51401,8 +51405,8 @@
       <c r="H269" s="59"/>
     </row>
     <row r="270" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="89"/>
-      <c r="C270" s="90"/>
+      <c r="B270" s="87"/>
+      <c r="C270" s="88"/>
       <c r="D270" s="56"/>
       <c r="E270" s="56"/>
       <c r="F270" s="53"/>
@@ -51410,8 +51414,8 @@
       <c r="H270" s="58"/>
     </row>
     <row r="271" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="87"/>
-      <c r="C271" s="88"/>
+      <c r="B271" s="89"/>
+      <c r="C271" s="90"/>
       <c r="D271" s="55"/>
       <c r="E271" s="55"/>
       <c r="F271" s="60"/>
@@ -51419,8 +51423,8 @@
       <c r="H271" s="59"/>
     </row>
     <row r="272" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="89"/>
-      <c r="C272" s="90"/>
+      <c r="B272" s="87"/>
+      <c r="C272" s="88"/>
       <c r="D272" s="56"/>
       <c r="E272" s="56"/>
       <c r="F272" s="53"/>
@@ -51428,8 +51432,8 @@
       <c r="H272" s="58"/>
     </row>
     <row r="273" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="87"/>
-      <c r="C273" s="88"/>
+      <c r="B273" s="89"/>
+      <c r="C273" s="90"/>
       <c r="D273" s="55"/>
       <c r="E273" s="55"/>
       <c r="F273" s="60"/>
@@ -51437,8 +51441,8 @@
       <c r="H273" s="59"/>
     </row>
     <row r="274" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B274" s="89"/>
-      <c r="C274" s="90"/>
+      <c r="B274" s="87"/>
+      <c r="C274" s="88"/>
       <c r="D274" s="56"/>
       <c r="E274" s="56"/>
       <c r="F274" s="53"/>
@@ -51446,8 +51450,8 @@
       <c r="H274" s="58"/>
     </row>
     <row r="275" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="87"/>
-      <c r="C275" s="88"/>
+      <c r="B275" s="89"/>
+      <c r="C275" s="90"/>
       <c r="D275" s="55"/>
       <c r="E275" s="55"/>
       <c r="F275" s="60"/>
@@ -51455,8 +51459,8 @@
       <c r="H275" s="59"/>
     </row>
     <row r="276" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="89"/>
-      <c r="C276" s="90"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="88"/>
       <c r="D276" s="56"/>
       <c r="E276" s="56"/>
       <c r="F276" s="53"/>
@@ -51464,8 +51468,8 @@
       <c r="H276" s="58"/>
     </row>
     <row r="277" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="87"/>
-      <c r="C277" s="88"/>
+      <c r="B277" s="89"/>
+      <c r="C277" s="90"/>
       <c r="D277" s="55"/>
       <c r="E277" s="55"/>
       <c r="F277" s="60"/>
@@ -51473,8 +51477,8 @@
       <c r="H277" s="59"/>
     </row>
     <row r="278" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="89"/>
-      <c r="C278" s="90"/>
+      <c r="B278" s="87"/>
+      <c r="C278" s="88"/>
       <c r="D278" s="56"/>
       <c r="E278" s="56"/>
       <c r="F278" s="53"/>
@@ -51482,8 +51486,8 @@
       <c r="H278" s="58"/>
     </row>
     <row r="279" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="87"/>
-      <c r="C279" s="88"/>
+      <c r="B279" s="89"/>
+      <c r="C279" s="90"/>
       <c r="D279" s="55"/>
       <c r="E279" s="55"/>
       <c r="F279" s="60"/>
@@ -51491,8 +51495,8 @@
       <c r="H279" s="59"/>
     </row>
     <row r="280" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="89"/>
-      <c r="C280" s="90"/>
+      <c r="B280" s="87"/>
+      <c r="C280" s="88"/>
       <c r="D280" s="56"/>
       <c r="E280" s="56"/>
       <c r="F280" s="53"/>
@@ -51500,8 +51504,8 @@
       <c r="H280" s="58"/>
     </row>
     <row r="281" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="87"/>
-      <c r="C281" s="88"/>
+      <c r="B281" s="89"/>
+      <c r="C281" s="90"/>
       <c r="D281" s="55"/>
       <c r="E281" s="55"/>
       <c r="F281" s="60"/>
@@ -51509,8 +51513,8 @@
       <c r="H281" s="59"/>
     </row>
     <row r="282" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="89"/>
-      <c r="C282" s="90"/>
+      <c r="B282" s="87"/>
+      <c r="C282" s="88"/>
       <c r="D282" s="56"/>
       <c r="E282" s="56"/>
       <c r="F282" s="53"/>
@@ -51518,8 +51522,8 @@
       <c r="H282" s="58"/>
     </row>
     <row r="283" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="87"/>
-      <c r="C283" s="88"/>
+      <c r="B283" s="89"/>
+      <c r="C283" s="90"/>
       <c r="D283" s="55"/>
       <c r="E283" s="55"/>
       <c r="F283" s="60"/>
@@ -51527,8 +51531,8 @@
       <c r="H283" s="59"/>
     </row>
     <row r="284" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="89"/>
-      <c r="C284" s="90"/>
+      <c r="B284" s="87"/>
+      <c r="C284" s="88"/>
       <c r="D284" s="56"/>
       <c r="E284" s="56"/>
       <c r="F284" s="53"/>
@@ -51536,8 +51540,8 @@
       <c r="H284" s="58"/>
     </row>
     <row r="285" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="87"/>
-      <c r="C285" s="88"/>
+      <c r="B285" s="89"/>
+      <c r="C285" s="90"/>
       <c r="D285" s="55"/>
       <c r="E285" s="55"/>
       <c r="F285" s="60"/>
@@ -51545,8 +51549,8 @@
       <c r="H285" s="59"/>
     </row>
     <row r="286" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="89"/>
-      <c r="C286" s="90"/>
+      <c r="B286" s="87"/>
+      <c r="C286" s="88"/>
       <c r="D286" s="56"/>
       <c r="E286" s="56"/>
       <c r="F286" s="53"/>
@@ -51554,8 +51558,8 @@
       <c r="H286" s="58"/>
     </row>
     <row r="287" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="87"/>
-      <c r="C287" s="88"/>
+      <c r="B287" s="89"/>
+      <c r="C287" s="90"/>
       <c r="D287" s="55"/>
       <c r="E287" s="55"/>
       <c r="F287" s="60"/>
@@ -51563,8 +51567,8 @@
       <c r="H287" s="59"/>
     </row>
     <row r="288" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="89"/>
-      <c r="C288" s="90"/>
+      <c r="B288" s="87"/>
+      <c r="C288" s="88"/>
       <c r="D288" s="56"/>
       <c r="E288" s="56"/>
       <c r="F288" s="53"/>
@@ -51572,8 +51576,8 @@
       <c r="H288" s="58"/>
     </row>
     <row r="289" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="87"/>
-      <c r="C289" s="88"/>
+      <c r="B289" s="89"/>
+      <c r="C289" s="90"/>
       <c r="D289" s="55"/>
       <c r="E289" s="55"/>
       <c r="F289" s="60"/>
@@ -51581,8 +51585,8 @@
       <c r="H289" s="59"/>
     </row>
     <row r="290" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B290" s="89"/>
-      <c r="C290" s="90"/>
+      <c r="B290" s="87"/>
+      <c r="C290" s="88"/>
       <c r="D290" s="56"/>
       <c r="E290" s="56"/>
       <c r="F290" s="53"/>
@@ -51590,8 +51594,8 @@
       <c r="H290" s="58"/>
     </row>
     <row r="291" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="87"/>
-      <c r="C291" s="88"/>
+      <c r="B291" s="89"/>
+      <c r="C291" s="90"/>
       <c r="D291" s="55"/>
       <c r="E291" s="55"/>
       <c r="F291" s="60"/>
@@ -51599,8 +51603,8 @@
       <c r="H291" s="59"/>
     </row>
     <row r="292" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B292" s="89"/>
-      <c r="C292" s="90"/>
+      <c r="B292" s="87"/>
+      <c r="C292" s="88"/>
       <c r="D292" s="56"/>
       <c r="E292" s="56"/>
       <c r="F292" s="53"/>
@@ -51608,8 +51612,8 @@
       <c r="H292" s="58"/>
     </row>
     <row r="293" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="87"/>
-      <c r="C293" s="88"/>
+      <c r="B293" s="89"/>
+      <c r="C293" s="90"/>
       <c r="D293" s="55"/>
       <c r="E293" s="55"/>
       <c r="F293" s="60"/>
@@ -51617,8 +51621,8 @@
       <c r="H293" s="59"/>
     </row>
     <row r="294" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="89"/>
-      <c r="C294" s="90"/>
+      <c r="B294" s="87"/>
+      <c r="C294" s="88"/>
       <c r="D294" s="56"/>
       <c r="E294" s="56"/>
       <c r="F294" s="53"/>
@@ -51626,8 +51630,8 @@
       <c r="H294" s="58"/>
     </row>
     <row r="295" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="87"/>
-      <c r="C295" s="88"/>
+      <c r="B295" s="89"/>
+      <c r="C295" s="90"/>
       <c r="D295" s="55"/>
       <c r="E295" s="55"/>
       <c r="F295" s="60"/>
@@ -51635,8 +51639,8 @@
       <c r="H295" s="59"/>
     </row>
     <row r="296" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="89"/>
-      <c r="C296" s="90"/>
+      <c r="B296" s="87"/>
+      <c r="C296" s="88"/>
       <c r="D296" s="56"/>
       <c r="E296" s="56"/>
       <c r="F296" s="53"/>
@@ -51644,8 +51648,8 @@
       <c r="H296" s="58"/>
     </row>
     <row r="297" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="87"/>
-      <c r="C297" s="88"/>
+      <c r="B297" s="89"/>
+      <c r="C297" s="90"/>
       <c r="D297" s="55"/>
       <c r="E297" s="55"/>
       <c r="F297" s="60"/>
@@ -51653,8 +51657,8 @@
       <c r="H297" s="59"/>
     </row>
     <row r="298" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="89"/>
-      <c r="C298" s="90"/>
+      <c r="B298" s="87"/>
+      <c r="C298" s="88"/>
       <c r="D298" s="56"/>
       <c r="E298" s="56"/>
       <c r="F298" s="53"/>
@@ -51662,8 +51666,8 @@
       <c r="H298" s="58"/>
     </row>
     <row r="299" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B299" s="87"/>
-      <c r="C299" s="88"/>
+      <c r="B299" s="89"/>
+      <c r="C299" s="90"/>
       <c r="D299" s="55"/>
       <c r="E299" s="55"/>
       <c r="F299" s="60"/>
@@ -51671,8 +51675,8 @@
       <c r="H299" s="59"/>
     </row>
     <row r="300" spans="2:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B300" s="89"/>
-      <c r="C300" s="90"/>
+      <c r="B300" s="87"/>
+      <c r="C300" s="88"/>
       <c r="D300" s="56"/>
       <c r="E300" s="56"/>
       <c r="F300" s="53"/>
@@ -51680,288 +51684,8 @@
       <c r="H300" s="58"/>
     </row>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <sheetProtection formatCells="0" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="292">
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B99:C99"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B101:C101"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B114:C114"/>
-    <mergeCell ref="B115:C115"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="B112:C112"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="B126:C126"/>
-    <mergeCell ref="B127:C127"/>
-    <mergeCell ref="B128:C128"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="B121:C121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="B134:C134"/>
-    <mergeCell ref="B135:C135"/>
-    <mergeCell ref="B136:C136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="B129:C129"/>
-    <mergeCell ref="B130:C130"/>
-    <mergeCell ref="B131:C131"/>
-    <mergeCell ref="B132:C132"/>
-    <mergeCell ref="B133:C133"/>
-    <mergeCell ref="B144:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="B139:C139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="B141:C141"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="B153:C153"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="B177:C177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="B184:C184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="B186:C186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="B179:C179"/>
-    <mergeCell ref="B180:C180"/>
-    <mergeCell ref="B181:C181"/>
-    <mergeCell ref="B182:C182"/>
-    <mergeCell ref="B183:C183"/>
-    <mergeCell ref="B194:C194"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="B196:C196"/>
-    <mergeCell ref="B197:C197"/>
-    <mergeCell ref="B198:C198"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="B190:C190"/>
-    <mergeCell ref="B191:C191"/>
-    <mergeCell ref="B192:C192"/>
-    <mergeCell ref="B193:C193"/>
-    <mergeCell ref="B204:C204"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="B206:C206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="B199:C199"/>
-    <mergeCell ref="B200:C200"/>
-    <mergeCell ref="B201:C201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="B203:C203"/>
-    <mergeCell ref="B214:C214"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B217:C217"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B209:C209"/>
-    <mergeCell ref="B210:C210"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="B212:C212"/>
-    <mergeCell ref="B213:C213"/>
-    <mergeCell ref="B224:C224"/>
-    <mergeCell ref="B225:C225"/>
-    <mergeCell ref="B226:C226"/>
-    <mergeCell ref="B227:C227"/>
-    <mergeCell ref="B228:C228"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="B220:C220"/>
-    <mergeCell ref="B221:C221"/>
-    <mergeCell ref="B222:C222"/>
-    <mergeCell ref="B223:C223"/>
-    <mergeCell ref="B234:C234"/>
-    <mergeCell ref="B235:C235"/>
-    <mergeCell ref="B236:C236"/>
-    <mergeCell ref="B237:C237"/>
-    <mergeCell ref="B238:C238"/>
-    <mergeCell ref="B229:C229"/>
-    <mergeCell ref="B230:C230"/>
-    <mergeCell ref="B231:C231"/>
-    <mergeCell ref="B232:C232"/>
-    <mergeCell ref="B233:C233"/>
-    <mergeCell ref="B244:C244"/>
-    <mergeCell ref="B245:C245"/>
-    <mergeCell ref="B246:C246"/>
-    <mergeCell ref="B247:C247"/>
-    <mergeCell ref="B248:C248"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="B240:C240"/>
-    <mergeCell ref="B241:C241"/>
-    <mergeCell ref="B242:C242"/>
-    <mergeCell ref="B243:C243"/>
-    <mergeCell ref="B254:C254"/>
-    <mergeCell ref="B255:C255"/>
-    <mergeCell ref="B256:C256"/>
-    <mergeCell ref="B257:C257"/>
-    <mergeCell ref="B258:C258"/>
-    <mergeCell ref="B249:C249"/>
-    <mergeCell ref="B250:C250"/>
-    <mergeCell ref="B251:C251"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="B253:C253"/>
-    <mergeCell ref="B264:C264"/>
-    <mergeCell ref="B265:C265"/>
-    <mergeCell ref="B266:C266"/>
-    <mergeCell ref="B267:C267"/>
-    <mergeCell ref="B268:C268"/>
-    <mergeCell ref="B259:C259"/>
-    <mergeCell ref="B260:C260"/>
-    <mergeCell ref="B261:C261"/>
-    <mergeCell ref="B262:C262"/>
-    <mergeCell ref="B263:C263"/>
-    <mergeCell ref="B274:C274"/>
-    <mergeCell ref="B275:C275"/>
-    <mergeCell ref="B276:C276"/>
-    <mergeCell ref="B277:C277"/>
-    <mergeCell ref="B278:C278"/>
-    <mergeCell ref="B269:C269"/>
-    <mergeCell ref="B270:C270"/>
-    <mergeCell ref="B271:C271"/>
-    <mergeCell ref="B272:C272"/>
-    <mergeCell ref="B273:C273"/>
-    <mergeCell ref="B284:C284"/>
-    <mergeCell ref="B285:C285"/>
-    <mergeCell ref="B286:C286"/>
-    <mergeCell ref="B287:C287"/>
-    <mergeCell ref="B288:C288"/>
-    <mergeCell ref="B279:C279"/>
-    <mergeCell ref="B280:C280"/>
-    <mergeCell ref="B281:C281"/>
-    <mergeCell ref="B282:C282"/>
-    <mergeCell ref="B283:C283"/>
     <mergeCell ref="B299:C299"/>
     <mergeCell ref="B300:C300"/>
     <mergeCell ref="B294:C294"/>
@@ -51974,6 +51698,286 @@
     <mergeCell ref="B291:C291"/>
     <mergeCell ref="B292:C292"/>
     <mergeCell ref="B293:C293"/>
+    <mergeCell ref="B284:C284"/>
+    <mergeCell ref="B285:C285"/>
+    <mergeCell ref="B286:C286"/>
+    <mergeCell ref="B287:C287"/>
+    <mergeCell ref="B288:C288"/>
+    <mergeCell ref="B279:C279"/>
+    <mergeCell ref="B280:C280"/>
+    <mergeCell ref="B281:C281"/>
+    <mergeCell ref="B282:C282"/>
+    <mergeCell ref="B283:C283"/>
+    <mergeCell ref="B274:C274"/>
+    <mergeCell ref="B275:C275"/>
+    <mergeCell ref="B276:C276"/>
+    <mergeCell ref="B277:C277"/>
+    <mergeCell ref="B278:C278"/>
+    <mergeCell ref="B269:C269"/>
+    <mergeCell ref="B270:C270"/>
+    <mergeCell ref="B271:C271"/>
+    <mergeCell ref="B272:C272"/>
+    <mergeCell ref="B273:C273"/>
+    <mergeCell ref="B264:C264"/>
+    <mergeCell ref="B265:C265"/>
+    <mergeCell ref="B266:C266"/>
+    <mergeCell ref="B267:C267"/>
+    <mergeCell ref="B268:C268"/>
+    <mergeCell ref="B259:C259"/>
+    <mergeCell ref="B260:C260"/>
+    <mergeCell ref="B261:C261"/>
+    <mergeCell ref="B262:C262"/>
+    <mergeCell ref="B263:C263"/>
+    <mergeCell ref="B254:C254"/>
+    <mergeCell ref="B255:C255"/>
+    <mergeCell ref="B256:C256"/>
+    <mergeCell ref="B257:C257"/>
+    <mergeCell ref="B258:C258"/>
+    <mergeCell ref="B249:C249"/>
+    <mergeCell ref="B250:C250"/>
+    <mergeCell ref="B251:C251"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="B253:C253"/>
+    <mergeCell ref="B244:C244"/>
+    <mergeCell ref="B245:C245"/>
+    <mergeCell ref="B246:C246"/>
+    <mergeCell ref="B247:C247"/>
+    <mergeCell ref="B248:C248"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="B240:C240"/>
+    <mergeCell ref="B241:C241"/>
+    <mergeCell ref="B242:C242"/>
+    <mergeCell ref="B243:C243"/>
+    <mergeCell ref="B234:C234"/>
+    <mergeCell ref="B235:C235"/>
+    <mergeCell ref="B236:C236"/>
+    <mergeCell ref="B237:C237"/>
+    <mergeCell ref="B238:C238"/>
+    <mergeCell ref="B229:C229"/>
+    <mergeCell ref="B230:C230"/>
+    <mergeCell ref="B231:C231"/>
+    <mergeCell ref="B232:C232"/>
+    <mergeCell ref="B233:C233"/>
+    <mergeCell ref="B224:C224"/>
+    <mergeCell ref="B225:C225"/>
+    <mergeCell ref="B226:C226"/>
+    <mergeCell ref="B227:C227"/>
+    <mergeCell ref="B228:C228"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="B221:C221"/>
+    <mergeCell ref="B222:C222"/>
+    <mergeCell ref="B223:C223"/>
+    <mergeCell ref="B214:C214"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B217:C217"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B209:C209"/>
+    <mergeCell ref="B210:C210"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="B212:C212"/>
+    <mergeCell ref="B213:C213"/>
+    <mergeCell ref="B204:C204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="B206:C206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="B199:C199"/>
+    <mergeCell ref="B200:C200"/>
+    <mergeCell ref="B201:C201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="B203:C203"/>
+    <mergeCell ref="B194:C194"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="B196:C196"/>
+    <mergeCell ref="B197:C197"/>
+    <mergeCell ref="B198:C198"/>
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="B190:C190"/>
+    <mergeCell ref="B191:C191"/>
+    <mergeCell ref="B192:C192"/>
+    <mergeCell ref="B193:C193"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="B186:C186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="B180:C180"/>
+    <mergeCell ref="B181:C181"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="B183:C183"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="B177:C177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="B153:C153"/>
+    <mergeCell ref="B144:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="B139:C139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="B141:C141"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="B134:C134"/>
+    <mergeCell ref="B135:C135"/>
+    <mergeCell ref="B136:C136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="B129:C129"/>
+    <mergeCell ref="B130:C130"/>
+    <mergeCell ref="B131:C131"/>
+    <mergeCell ref="B132:C132"/>
+    <mergeCell ref="B133:C133"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="B126:C126"/>
+    <mergeCell ref="B127:C127"/>
+    <mergeCell ref="B128:C128"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B99:C99"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B101:C101"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <conditionalFormatting sqref="F11:F300">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -52033,12 +52037,12 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81">
+      <c r="C2" s="85">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
       <c r="D2" s="93"/>
-      <c r="E2" s="82"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>

--- a/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
+++ b/Projectboard/Projectboard/bin/Debug/requirements/Projekt-Steckbrief.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="13440" windowHeight="9135" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stammdaten" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
   </sheets>
   <definedNames>
     <definedName name="AmpelFarben" localSheetId="4">Settings!$A$34:$A$37</definedName>
-    <definedName name="Bedarfe">Ressourcen!$E$12:$BY$100</definedName>
+    <definedName name="Bedarfe">Ressourcen!$F$12:$BY$100</definedName>
     <definedName name="BewertgErläuterung">Stammdaten!$C$23</definedName>
     <definedName name="Bewertung">Stammdaten!$C$21</definedName>
     <definedName name="Budget">Stammdaten!$C$12</definedName>
@@ -41,20 +41,23 @@
     <definedName name="Status">Attribute!$E$11</definedName>
     <definedName name="Strategischer_Fit">Attribute!$C$16</definedName>
     <definedName name="Variant_name">Attribute!$C$22</definedName>
-    <definedName name="Zeitleiste">Ressourcen!$E$10:$GH$10</definedName>
-    <definedName name="Zeitmatrix">Ressourcen!$E$11:$GH$250</definedName>
+    <definedName name="Zeitleiste">Ressourcen!$F$10:$GH$10</definedName>
+    <definedName name="Zeitmatrix">Ressourcen!$F$11:$GH$250</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Kurzbeschreibung</t>
   </si>
   <si>
     <t>Projektleiter</t>
+  </si>
+  <si>
+    <t>Ergebnisse</t>
   </si>
   <si>
     <t xml:space="preserve">Projekt Name </t>
@@ -274,19 +277,13 @@
     <t xml:space="preserve">  Zeitleiste</t>
   </si>
   <si>
-    <t>Ende-Datum</t>
+    <t>Summe</t>
   </si>
   <si>
     <t>Start-Datum</t>
   </si>
   <si>
-    <t>Termine</t>
-  </si>
-  <si>
-    <t>Ampel-Erläuterung</t>
-  </si>
-  <si>
-    <t>Ergebnisse</t>
+    <t>Ende-Datum</t>
   </si>
 </sst>
 </file>
@@ -797,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -900,9 +897,6 @@
     <xf numFmtId="17" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -940,6 +934,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1443,7 +1441,7 @@
   <dimension ref="B1:G256"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1462,18 +1460,18 @@
     </row>
     <row r="2" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="69"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
       <c r="F2" s="10"/>
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -1488,7 +1486,7 @@
     </row>
     <row r="6" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="21">
         <v>2958465</v>
@@ -1518,7 +1516,7 @@
     <row r="11" spans="2:7" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="24"/>
@@ -1534,39 +1532,39 @@
       <c r="B14" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="72"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
     </row>
     <row r="15" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="24"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="76"/>
     </row>
     <row r="16" spans="2:7" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="24"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="75"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="76"/>
     </row>
     <row r="17" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="24"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="76"/>
     </row>
     <row r="18" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="76"/>
     </row>
     <row r="19" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="78"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="79"/>
     </row>
     <row r="20" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -1576,7 +1574,7 @@
     </row>
     <row r="21" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="48"/>
       <c r="D21" s="30"/>
@@ -1589,36 +1587,36 @@
     </row>
     <row r="23" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B23" s="29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="72"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
     </row>
     <row r="24" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="73"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="75"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
     </row>
     <row r="25" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="73"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="76"/>
     </row>
     <row r="26" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="73"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="75"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
     </row>
     <row r="27" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="73"/>
-      <c r="D27" s="74"/>
-      <c r="E27" s="75"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
     </row>
     <row r="28" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="76"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="78"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="79"/>
     </row>
     <row r="29" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:5" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1849,7 +1847,7 @@
     <row r="255" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="256" s="13" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection password="CEBA" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C14:E19"/>
@@ -1900,8 +1898,8 @@
   <sheetPr codeName="Tabelle3"/>
   <dimension ref="A1:GI250"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1909,14 +1907,13 @@
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="190" width="4.7109375" customWidth="1"/>
+    <col min="6" max="190" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:191" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -1925,25 +1922,23 @@
     </row>
     <row r="2" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="C2" s="85">
+      <c r="C2" s="86">
         <f>Projekt_Name</f>
         <v>0</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
+      <c r="D2" s="87"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
     </row>
     <row r="3" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -1952,14 +1947,13 @@
     </row>
     <row r="4" spans="1:191" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="11">
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="D4" s="64"/>
-      <c r="E4" s="2"/>
+      <c r="D4" s="63"/>
       <c r="H4" s="3"/>
       <c r="J4" s="6"/>
     </row>
@@ -1968,7 +1962,6 @@
       <c r="B5" s="3"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="2"/>
       <c r="G5" s="3"/>
       <c r="I5" s="6"/>
       <c r="J5" s="2"/>
@@ -1976,13 +1969,13 @@
     <row r="6" spans="1:191" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6"/>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="11">
         <f>EndeDatum</f>
         <v>2958465</v>
       </c>
-      <c r="D6" s="66"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:191" s="1" customFormat="1" ht="18.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7"/>
@@ -1992,771 +1985,769 @@
     </row>
     <row r="8" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:191" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="81" t="s">
-        <v>57</v>
+      <c r="B10" s="82" t="s">
+        <v>58</v>
       </c>
-      <c r="C10" s="82"/>
+      <c r="C10" s="83"/>
       <c r="D10" s="37"/>
-      <c r="E10" s="51">
+      <c r="E10" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="50">
         <f>StartDatum</f>
         <v>1</v>
       </c>
-      <c r="F10" s="50">
-        <f>EDATE(E10,1)</f>
-        <v>32</v>
-      </c>
       <c r="G10" s="50">
         <f t="shared" ref="G10:BR10" si="0">EDATE(F10,1)</f>
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="H10" s="50">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="I10" s="50">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J10" s="50">
         <f t="shared" si="0"/>
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="K10" s="50">
         <f t="shared" si="0"/>
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="L10" s="50">
         <f t="shared" si="0"/>
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="M10" s="50">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="N10" s="50">
         <f t="shared" si="0"/>
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="O10" s="50">
         <f t="shared" si="0"/>
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="P10" s="50">
         <f t="shared" si="0"/>
-        <v>336</v>
+        <v>306</v>
       </c>
       <c r="Q10" s="50">
         <f t="shared" si="0"/>
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="R10" s="50">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="S10" s="50">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>398</v>
       </c>
       <c r="T10" s="50">
         <f t="shared" si="0"/>
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="U10" s="50">
         <f t="shared" si="0"/>
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="V10" s="50">
         <f t="shared" si="0"/>
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="W10" s="50">
         <f t="shared" si="0"/>
-        <v>548</v>
+        <v>518</v>
       </c>
       <c r="X10" s="50">
         <f t="shared" si="0"/>
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="Y10" s="50">
         <f t="shared" si="0"/>
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="Z10" s="50">
         <f t="shared" si="0"/>
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="AA10" s="50">
         <f t="shared" si="0"/>
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="AB10" s="50">
         <f t="shared" si="0"/>
-        <v>701</v>
+        <v>671</v>
       </c>
       <c r="AC10" s="50">
         <f t="shared" si="0"/>
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="AD10" s="50">
         <f t="shared" si="0"/>
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="AE10" s="50">
         <f t="shared" si="0"/>
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="AF10" s="50">
         <f t="shared" si="0"/>
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="AG10" s="50">
         <f t="shared" si="0"/>
-        <v>852</v>
+        <v>822</v>
       </c>
       <c r="AH10" s="50">
         <f t="shared" si="0"/>
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="AI10" s="50">
         <f t="shared" si="0"/>
-        <v>913</v>
+        <v>883</v>
       </c>
       <c r="AJ10" s="50">
         <f t="shared" si="0"/>
-        <v>944</v>
+        <v>913</v>
       </c>
       <c r="AK10" s="50">
         <f t="shared" si="0"/>
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="AL10" s="50">
         <f t="shared" si="0"/>
-        <v>1005</v>
+        <v>975</v>
       </c>
       <c r="AM10" s="50">
         <f t="shared" si="0"/>
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="AN10" s="50">
         <f t="shared" si="0"/>
-        <v>1066</v>
+        <v>1036</v>
       </c>
       <c r="AO10" s="50">
         <f t="shared" si="0"/>
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="AP10" s="50">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="AQ10" s="50">
         <f t="shared" si="0"/>
-        <v>1156</v>
+        <v>1128</v>
       </c>
       <c r="AR10" s="50">
         <f t="shared" si="0"/>
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="AS10" s="50">
         <f t="shared" si="0"/>
-        <v>1217</v>
+        <v>1187</v>
       </c>
       <c r="AT10" s="50">
         <f t="shared" si="0"/>
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="AU10" s="50">
         <f t="shared" si="0"/>
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="AV10" s="50">
         <f t="shared" si="0"/>
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="AW10" s="50">
         <f t="shared" si="0"/>
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="AX10" s="50">
         <f t="shared" si="0"/>
-        <v>1370</v>
+        <v>1340</v>
       </c>
       <c r="AY10" s="50">
         <f t="shared" si="0"/>
-        <v>1401</v>
+        <v>1370</v>
       </c>
       <c r="AZ10" s="50">
         <f t="shared" si="0"/>
-        <v>1431</v>
+        <v>1401</v>
       </c>
       <c r="BA10" s="50">
         <f t="shared" si="0"/>
-        <v>1462</v>
+        <v>1431</v>
       </c>
       <c r="BB10" s="50">
         <f t="shared" si="0"/>
-        <v>1493</v>
+        <v>1462</v>
       </c>
       <c r="BC10" s="50">
         <f t="shared" si="0"/>
-        <v>1522</v>
+        <v>1493</v>
       </c>
       <c r="BD10" s="50">
         <f t="shared" si="0"/>
-        <v>1553</v>
+        <v>1522</v>
       </c>
       <c r="BE10" s="50">
         <f t="shared" si="0"/>
-        <v>1583</v>
+        <v>1553</v>
       </c>
       <c r="BF10" s="50">
         <f t="shared" si="0"/>
-        <v>1614</v>
+        <v>1583</v>
       </c>
       <c r="BG10" s="50">
         <f t="shared" si="0"/>
-        <v>1644</v>
+        <v>1614</v>
       </c>
       <c r="BH10" s="50">
         <f t="shared" si="0"/>
-        <v>1675</v>
+        <v>1644</v>
       </c>
       <c r="BI10" s="50">
         <f t="shared" si="0"/>
-        <v>1706</v>
+        <v>1675</v>
       </c>
       <c r="BJ10" s="50">
         <f t="shared" si="0"/>
-        <v>1736</v>
+        <v>1706</v>
       </c>
       <c r="BK10" s="50">
         <f t="shared" si="0"/>
-        <v>1767</v>
+        <v>1736</v>
       </c>
       <c r="BL10" s="50">
         <f t="shared" si="0"/>
-        <v>1797</v>
+        <v>1767</v>
       </c>
       <c r="BM10" s="50">
         <f t="shared" si="0"/>
-        <v>1828</v>
+        <v>1797</v>
       </c>
       <c r="BN10" s="50">
         <f t="shared" si="0"/>
-        <v>1859</v>
+        <v>1828</v>
       </c>
       <c r="BO10" s="50">
         <f t="shared" si="0"/>
-        <v>1887</v>
+        <v>1859</v>
       </c>
       <c r="BP10" s="50">
         <f t="shared" si="0"/>
-        <v>1918</v>
+        <v>1887</v>
       </c>
       <c r="BQ10" s="50">
         <f t="shared" si="0"/>
-        <v>1948</v>
+        <v>1918</v>
       </c>
       <c r="BR10" s="50">
         <f t="shared" si="0"/>
-        <v>1979</v>
+        <v>1948</v>
       </c>
       <c r="BS10" s="50">
         <f t="shared" ref="BS10:ED10" si="1">EDATE(BR10,1)</f>
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="BT10" s="50">
         <f t="shared" si="1"/>
-        <v>2040</v>
+        <v>2009</v>
       </c>
       <c r="BU10" s="50">
         <f t="shared" si="1"/>
-        <v>2071</v>
+        <v>2040</v>
       </c>
       <c r="BV10" s="50">
         <f t="shared" si="1"/>
-        <v>2101</v>
+        <v>2071</v>
       </c>
       <c r="BW10" s="50">
         <f t="shared" si="1"/>
-        <v>2132</v>
+        <v>2101</v>
       </c>
       <c r="BX10" s="50">
         <f t="shared" si="1"/>
-        <v>2162</v>
+        <v>2132</v>
       </c>
       <c r="BY10" s="50">
         <f t="shared" si="1"/>
-        <v>2193</v>
+        <v>2162</v>
       </c>
       <c r="BZ10" s="50">
         <f t="shared" si="1"/>
-        <v>2224</v>
+        <v>2193</v>
       </c>
       <c r="CA10" s="50">
         <f t="shared" si="1"/>
-        <v>2252</v>
+        <v>2224</v>
       </c>
       <c r="CB10" s="50">
         <f t="shared" si="1"/>
-        <v>2283</v>
+        <v>2252</v>
       </c>
       <c r="CC10" s="50">
         <f t="shared" si="1"/>
-        <v>2313</v>
+        <v>2283</v>
       </c>
       <c r="CD10" s="50">
         <f t="shared" si="1"/>
-        <v>2344</v>
+        <v>2313</v>
       </c>
       <c r="CE10" s="50">
         <f t="shared" si="1"/>
-        <v>2374</v>
+        <v>2344</v>
       </c>
       <c r="CF10" s="50">
         <f t="shared" si="1"/>
-        <v>2405</v>
+        <v>2374</v>
       </c>
       <c r="CG10" s="50">
         <f t="shared" si="1"/>
-        <v>2436</v>
+        <v>2405</v>
       </c>
       <c r="CH10" s="50">
         <f t="shared" si="1"/>
-        <v>2466</v>
+        <v>2436</v>
       </c>
       <c r="CI10" s="50">
         <f t="shared" si="1"/>
-        <v>2497</v>
+        <v>2466</v>
       </c>
       <c r="CJ10" s="50">
         <f t="shared" si="1"/>
-        <v>2527</v>
+        <v>2497</v>
       </c>
       <c r="CK10" s="50">
         <f t="shared" si="1"/>
-        <v>2558</v>
+        <v>2527</v>
       </c>
       <c r="CL10" s="50">
         <f t="shared" si="1"/>
-        <v>2589</v>
+        <v>2558</v>
       </c>
       <c r="CM10" s="50">
         <f t="shared" si="1"/>
-        <v>2617</v>
+        <v>2589</v>
       </c>
       <c r="CN10" s="50">
         <f t="shared" si="1"/>
-        <v>2648</v>
+        <v>2617</v>
       </c>
       <c r="CO10" s="50">
         <f t="shared" si="1"/>
-        <v>2678</v>
+        <v>2648</v>
       </c>
       <c r="CP10" s="50">
         <f t="shared" si="1"/>
-        <v>2709</v>
+        <v>2678</v>
       </c>
       <c r="CQ10" s="50">
         <f t="shared" si="1"/>
-        <v>2739</v>
+        <v>2709</v>
       </c>
       <c r="CR10" s="50">
         <f t="shared" si="1"/>
-        <v>2770</v>
+        <v>2739</v>
       </c>
       <c r="CS10" s="50">
         <f t="shared" si="1"/>
-        <v>2801</v>
+        <v>2770</v>
       </c>
       <c r="CT10" s="50">
         <f t="shared" si="1"/>
-        <v>2831</v>
+        <v>2801</v>
       </c>
       <c r="CU10" s="50">
         <f t="shared" si="1"/>
-        <v>2862</v>
+        <v>2831</v>
       </c>
       <c r="CV10" s="50">
         <f t="shared" si="1"/>
-        <v>2892</v>
+        <v>2862</v>
       </c>
       <c r="CW10" s="50">
         <f t="shared" si="1"/>
-        <v>2923</v>
+        <v>2892</v>
       </c>
       <c r="CX10" s="50">
         <f t="shared" si="1"/>
-        <v>2954</v>
+        <v>2923</v>
       </c>
       <c r="CY10" s="50">
         <f t="shared" si="1"/>
-        <v>2983</v>
+        <v>2954</v>
       </c>
       <c r="CZ10" s="50">
         <f t="shared" si="1"/>
-        <v>3014</v>
+        <v>2983</v>
       </c>
       <c r="DA10" s="50">
         <f t="shared" si="1"/>
-        <v>3044</v>
+        <v>3014</v>
       </c>
       <c r="DB10" s="50">
         <f t="shared" si="1"/>
-        <v>3075</v>
+        <v>3044</v>
       </c>
       <c r="DC10" s="50">
         <f t="shared" si="1"/>
-        <v>3105</v>
+        <v>3075</v>
       </c>
       <c r="DD10" s="50">
         <f t="shared" si="1"/>
-        <v>3136</v>
+        <v>3105</v>
       </c>
       <c r="DE10" s="50">
         <f t="shared" si="1"/>
-        <v>3167</v>
+        <v>3136</v>
       </c>
       <c r="DF10" s="50">
         <f t="shared" si="1"/>
-        <v>3197</v>
+        <v>3167</v>
       </c>
       <c r="DG10" s="50">
         <f t="shared" si="1"/>
-        <v>3228</v>
+        <v>3197</v>
       </c>
       <c r="DH10" s="50">
         <f t="shared" si="1"/>
-        <v>3258</v>
+        <v>3228</v>
       </c>
       <c r="DI10" s="50">
         <f t="shared" si="1"/>
-        <v>3289</v>
+        <v>3258</v>
       </c>
       <c r="DJ10" s="50">
         <f t="shared" si="1"/>
-        <v>3320</v>
+        <v>3289</v>
       </c>
       <c r="DK10" s="50">
         <f t="shared" si="1"/>
-        <v>3348</v>
+        <v>3320</v>
       </c>
       <c r="DL10" s="50">
         <f t="shared" si="1"/>
-        <v>3379</v>
+        <v>3348</v>
       </c>
       <c r="DM10" s="50">
         <f t="shared" si="1"/>
-        <v>3409</v>
+        <v>3379</v>
       </c>
       <c r="DN10" s="50">
         <f t="shared" si="1"/>
-        <v>3440</v>
+        <v>3409</v>
       </c>
       <c r="DO10" s="50">
         <f t="shared" si="1"/>
-        <v>3470</v>
+        <v>3440</v>
       </c>
       <c r="DP10" s="50">
         <f t="shared" si="1"/>
-        <v>3501</v>
+        <v>3470</v>
       </c>
       <c r="DQ10" s="50">
         <f t="shared" si="1"/>
-        <v>3532</v>
+        <v>3501</v>
       </c>
       <c r="DR10" s="50">
         <f t="shared" si="1"/>
-        <v>3562</v>
+        <v>3532</v>
       </c>
       <c r="DS10" s="50">
         <f t="shared" si="1"/>
-        <v>3593</v>
+        <v>3562</v>
       </c>
       <c r="DT10" s="50">
         <f t="shared" si="1"/>
-        <v>3623</v>
+        <v>3593</v>
       </c>
       <c r="DU10" s="50">
         <f t="shared" si="1"/>
-        <v>3654</v>
+        <v>3623</v>
       </c>
       <c r="DV10" s="50">
         <f t="shared" si="1"/>
-        <v>3685</v>
+        <v>3654</v>
       </c>
       <c r="DW10" s="50">
         <f t="shared" si="1"/>
-        <v>3713</v>
+        <v>3685</v>
       </c>
       <c r="DX10" s="50">
         <f t="shared" si="1"/>
-        <v>3744</v>
+        <v>3713</v>
       </c>
       <c r="DY10" s="50">
         <f t="shared" si="1"/>
-        <v>3774</v>
+        <v>3744</v>
       </c>
       <c r="DZ10" s="50">
         <f t="shared" si="1"/>
-        <v>3805</v>
+        <v>3774</v>
       </c>
       <c r="EA10" s="50">
         <f t="shared" si="1"/>
-        <v>3835</v>
+        <v>3805</v>
       </c>
       <c r="EB10" s="50">
         <f t="shared" si="1"/>
-        <v>3866</v>
+        <v>3835</v>
       </c>
       <c r="EC10" s="50">
         <f t="shared" si="1"/>
-        <v>3897</v>
+        <v>3866</v>
       </c>
       <c r="ED10" s="50">
         <f t="shared" si="1"/>
-        <v>3927</v>
+        <v>3897</v>
       </c>
       <c r="EE10" s="50">
         <f t="shared" ref="EE10:GH10" si="2">EDATE(ED10,1)</f>
-        <v>3958</v>
+        <v>3927</v>
       </c>
       <c r="EF10" s="50">
         <f t="shared" si="2"/>
-        <v>3988</v>
+        <v>3958</v>
       </c>
       <c r="EG10" s="50">
         <f t="shared" si="2"/>
-        <v>4019</v>
+        <v>3988</v>
       </c>
       <c r="EH10" s="50">
         <f t="shared" si="2"/>
-        <v>4050</v>
+        <v>4019</v>
       </c>
       <c r="EI10" s="50">
         <f t="shared" si="2"/>
-        <v>4078</v>
+        <v>4050</v>
       </c>
       <c r="EJ10" s="50">
         <f t="shared" si="2"/>
-        <v>4109</v>
+        <v>4078</v>
       </c>
       <c r="EK10" s="50">
         <f t="shared" si="2"/>
-        <v>4139</v>
+        <v>4109</v>
       </c>
       <c r="EL10" s="50">
         <f t="shared" si="2"/>
-        <v>4170</v>
+        <v>4139</v>
       </c>
       <c r="EM10" s="50">
         <f t="shared" si="2"/>
-        <v>4200</v>
+        <v>4170</v>
       </c>
       <c r="EN10" s="50">
         <f t="shared" si="2"/>
-        <v>4231</v>
+        <v>4200</v>
       </c>
       <c r="EO10" s="50">
         <f t="shared" si="2"/>
-        <v>4262</v>
+        <v>4231</v>
       </c>
       <c r="EP10" s="50">
         <f t="shared" si="2"/>
-        <v>4292</v>
+        <v>4262</v>
       </c>
       <c r="EQ10" s="50">
         <f t="shared" si="2"/>
-        <v>4323</v>
+        <v>4292</v>
       </c>
       <c r="ER10" s="50">
         <f t="shared" si="2"/>
-        <v>4353</v>
+        <v>4323</v>
       </c>
       <c r="ES10" s="50">
         <f t="shared" si="2"/>
-        <v>4384</v>
+        <v>4353</v>
       </c>
       <c r="ET10" s="50">
         <f t="shared" si="2"/>
-        <v>4415</v>
+        <v>4384</v>
       </c>
       <c r="EU10" s="50">
         <f t="shared" si="2"/>
-        <v>4444</v>
+        <v>4415</v>
       </c>
       <c r="EV10" s="50">
         <f t="shared" si="2"/>
-        <v>4475</v>
+        <v>4444</v>
       </c>
       <c r="EW10" s="50">
         <f t="shared" si="2"/>
-        <v>4505</v>
+        <v>4475</v>
       </c>
       <c r="EX10" s="50">
         <f t="shared" si="2"/>
-        <v>4536</v>
+        <v>4505</v>
       </c>
       <c r="EY10" s="50">
         <f t="shared" si="2"/>
-        <v>4566</v>
+        <v>4536</v>
       </c>
       <c r="EZ10" s="50">
         <f t="shared" si="2"/>
-        <v>4597</v>
+        <v>4566</v>
       </c>
       <c r="FA10" s="50">
         <f t="shared" si="2"/>
-        <v>4628</v>
+        <v>4597</v>
       </c>
       <c r="FB10" s="50">
         <f t="shared" si="2"/>
-        <v>4658</v>
+        <v>4628</v>
       </c>
       <c r="FC10" s="50">
         <f t="shared" si="2"/>
-        <v>4689</v>
+        <v>4658</v>
       </c>
       <c r="FD10" s="50">
         <f t="shared" si="2"/>
-        <v>4719</v>
+        <v>4689</v>
       </c>
       <c r="FE10" s="50">
         <f t="shared" si="2"/>
-        <v>4750</v>
+        <v>4719</v>
       </c>
       <c r="FF10" s="50">
         <f t="shared" si="2"/>
-        <v>4781</v>
+        <v>4750</v>
       </c>
       <c r="FG10" s="50">
         <f t="shared" si="2"/>
-        <v>4809</v>
+        <v>4781</v>
       </c>
       <c r="FH10" s="50">
         <f t="shared" si="2"/>
-        <v>4840</v>
+        <v>4809</v>
       </c>
       <c r="FI10" s="50">
         <f t="shared" si="2"/>
-        <v>4870</v>
+        <v>4840</v>
       </c>
       <c r="FJ10" s="50">
         <f t="shared" si="2"/>
-        <v>4901</v>
+        <v>4870</v>
       </c>
       <c r="FK10" s="50">
         <f t="shared" si="2"/>
-        <v>4931</v>
+        <v>4901</v>
       </c>
       <c r="FL10" s="50">
         <f t="shared" si="2"/>
-        <v>4962</v>
+        <v>4931</v>
       </c>
       <c r="FM10" s="50">
         <f t="shared" si="2"/>
-        <v>4993</v>
+        <v>4962</v>
       </c>
       <c r="FN10" s="50">
         <f t="shared" si="2"/>
-        <v>5023</v>
+        <v>4993</v>
       </c>
       <c r="FO10" s="50">
         <f t="shared" si="2"/>
-        <v>5054</v>
+        <v>5023</v>
       </c>
       <c r="FP10" s="50">
         <f t="shared" si="2"/>
-        <v>5084</v>
+        <v>5054</v>
       </c>
       <c r="FQ10" s="50">
         <f t="shared" si="2"/>
-        <v>5115</v>
+        <v>5084</v>
       </c>
       <c r="FR10" s="50">
         <f t="shared" si="2"/>
-        <v>5146</v>
+        <v>5115</v>
       </c>
       <c r="FS10" s="50">
         <f t="shared" si="2"/>
-        <v>5174</v>
+        <v>5146</v>
       </c>
       <c r="FT10" s="50">
         <f t="shared" si="2"/>
-        <v>5205</v>
+        <v>5174</v>
       </c>
       <c r="FU10" s="50">
         <f t="shared" si="2"/>
-        <v>5235</v>
+        <v>5205</v>
       </c>
       <c r="FV10" s="50">
         <f t="shared" si="2"/>
-        <v>5266</v>
+        <v>5235</v>
       </c>
       <c r="FW10" s="50">
         <f t="shared" si="2"/>
-        <v>5296</v>
+        <v>5266</v>
       </c>
       <c r="FX10" s="50">
         <f t="shared" si="2"/>
-        <v>5327</v>
+        <v>5296</v>
       </c>
       <c r="FY10" s="50">
         <f t="shared" si="2"/>
-        <v>5358</v>
+        <v>5327</v>
       </c>
       <c r="FZ10" s="50">
         <f t="shared" si="2"/>
-        <v>5388</v>
+        <v>5358</v>
       </c>
       <c r="GA10" s="50">
         <f t="shared" si="2"/>
-        <v>5419</v>
+        <v>5388</v>
       </c>
       <c r="GB10" s="50">
         <f t="shared" si="2"/>
-        <v>5449</v>
+        <v>5419</v>
       </c>
       <c r="GC10" s="50">
         <f t="shared" si="2"/>
-        <v>5480</v>
+        <v>5449</v>
       </c>
       <c r="GD10" s="50">
         <f t="shared" si="2"/>
-        <v>5511</v>
+        <v>5480</v>
       </c>
       <c r="GE10" s="50">
         <f t="shared" si="2"/>
-        <v>5539</v>
+        <v>5511</v>
       </c>
       <c r="GF10" s="50">
         <f t="shared" si="2"/>
-        <v>5570</v>
+        <v>5539</v>
       </c>
       <c r="GG10" s="50">
         <f t="shared" si="2"/>
-        <v>5600</v>
+        <v>5570</v>
       </c>
       <c r="GH10" s="50">
         <f t="shared" si="2"/>
-        <v>5631</v>
+        <v>5600</v>
       </c>
       <c r="GI10" s="49"/>
     </row>
     <row r="11" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="83"/>
-      <c r="C11" s="84"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="37"/>
-      <c r="E11" s="42"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="42"/>
       <c r="G11" s="42"/>
       <c r="H11" s="42"/>
@@ -2944,10 +2935,10 @@
       <c r="GH11" s="42"/>
     </row>
     <row r="12" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="38"/>
-      <c r="E12" s="41"/>
+      <c r="E12" s="66"/>
       <c r="F12" s="41"/>
       <c r="G12" s="41"/>
       <c r="H12" s="41"/>
@@ -3135,10 +3126,10 @@
       <c r="GH12" s="41"/>
     </row>
     <row r="13" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="38"/>
-      <c r="E13" s="41"/>
+      <c r="E13" s="66"/>
       <c r="F13" s="41"/>
       <c r="G13" s="41"/>
       <c r="H13" s="41"/>
@@ -3326,10 +3317,10 @@
       <c r="GH13" s="41"/>
     </row>
     <row r="14" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="79"/>
-      <c r="C14" s="80"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="41"/>
+      <c r="E14" s="66"/>
       <c r="F14" s="41"/>
       <c r="G14" s="41"/>
       <c r="H14" s="41"/>
@@ -3517,10 +3508,10 @@
       <c r="GH14" s="41"/>
     </row>
     <row r="15" spans="1:191" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="79"/>
-      <c r="C15" s="80"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="38"/>
-      <c r="E15" s="41"/>
+      <c r="E15" s="66"/>
       <c r="F15" s="41"/>
       <c r="G15" s="41"/>
       <c r="H15" s="41"/>
@@ -3708,10 +3699,10 @@
       <c r="GH15" s="41"/>
     </row>
     <row r="16" spans="1:191" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="79"/>
-      <c r="C16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="38"/>
-      <c r="E16" s="41"/>
+      <c r="E16" s="66"/>
       <c r="F16" s="41"/>
       <c r="G16" s="41"/>
       <c r="H16" s="41"/>
@@ -3899,10 +3890,10 @@
       <c r="GH16" s="41"/>
     </row>
     <row r="17" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="79"/>
-      <c r="C17" s="80"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="38"/>
-      <c r="E17" s="41"/>
+      <c r="E17" s="66"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
       <c r="H17" s="41"/>
@@ -4090,10 +4081,10 @@
       <c r="GH17" s="41"/>
     </row>
     <row r="18" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="79"/>
-      <c r="C18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="38"/>
-      <c r="E18" s="41"/>
+      <c r="E18" s="66"/>
       <c r="F18" s="41"/>
       <c r="G18" s="41"/>
       <c r="H18" s="41"/>
@@ -4281,10 +4272,10 @@
       <c r="GH18" s="41"/>
     </row>
     <row r="19" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="38"/>
-      <c r="E19" s="41"/>
+      <c r="E19" s="66"/>
       <c r="F19" s="41"/>
       <c r="G19" s="41"/>
       <c r="H19" s="41"/>
@@ -4472,10 +4463,10 @@
       <c r="GH19" s="41"/>
     </row>
     <row r="20" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="79"/>
-      <c r="C20" s="80"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="38"/>
-      <c r="E20" s="41"/>
+      <c r="E20" s="66"/>
       <c r="F20" s="41"/>
       <c r="G20" s="41"/>
       <c r="H20" s="41"/>
@@ -4663,10 +4654,10 @@
       <c r="GH20" s="41"/>
     </row>
     <row r="21" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="79"/>
-      <c r="C21" s="80"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="38"/>
-      <c r="E21" s="41"/>
+      <c r="E21" s="66"/>
       <c r="F21" s="41"/>
       <c r="G21" s="41"/>
       <c r="H21" s="41"/>
@@ -4854,10 +4845,10 @@
       <c r="GH21" s="41"/>
     </row>
     <row r="22" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="79"/>
-      <c r="C22" s="80"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="38"/>
-      <c r="E22" s="41"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="41"/>
       <c r="G22" s="41"/>
       <c r="H22" s="41"/>
@@ -5045,10 +5036,10 @@
       <c r="GH22" s="41"/>
     </row>
     <row r="23" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="38"/>
-      <c r="E23" s="41"/>
+      <c r="E23" s="66"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
       <c r="H23" s="41"/>
@@ -5236,10 +5227,10 @@
       <c r="GH23" s="41"/>
     </row>
     <row r="24" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="79"/>
-      <c r="C24" s="80"/>
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="38"/>
-      <c r="E24" s="41"/>
+      <c r="E24" s="66"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
       <c r="H24" s="41"/>
@@ -5427,10 +5418,10 @@
       <c r="GH24" s="41"/>
     </row>
     <row r="25" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="38"/>
-      <c r="E25" s="41"/>
+      <c r="E25" s="66"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
       <c r="H25" s="41"/>
@@ -5618,10 +5609,10 @@
       <c r="GH25" s="41"/>
     </row>
     <row r="26" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="38"/>
-      <c r="E26" s="41"/>
+      <c r="E26" s="66"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
@@ -5809,10 +5800,10 @@
       <c r="GH26" s="41"/>
     </row>
     <row r="27" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="79"/>
-      <c r="C27" s="80"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="38"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="66"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
@@ -6000,10 +5991,10 @@
       <c r="GH27" s="41"/>
     </row>
     <row r="28" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="79"/>
-      <c r="C28" s="80"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="38"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="66"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
@@ -6191,10 +6182,10 @@
       <c r="GH28" s="41"/>
     </row>
     <row r="29" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="38"/>
-      <c r="E29" s="41"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
       <c r="H29" s="41"/>
@@ -6382,10 +6373,10 @@
       <c r="GH29" s="41"/>
     </row>
     <row r="30" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="38"/>
-      <c r="E30" s="41"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="41"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
@@ -6573,10 +6564,10 @@
       <c r="GH30" s="41"/>
     </row>
     <row r="31" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="38"/>
-      <c r="E31" s="41"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="41"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
@@ -6764,10 +6755,10 @@
       <c r="GH31" s="41"/>
     </row>
     <row r="32" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="66"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
       <c r="H32" s="41"/>
@@ -6955,10 +6946,10 @@
       <c r="GH32" s="41"/>
     </row>
     <row r="33" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="38"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="66"/>
       <c r="F33" s="41"/>
       <c r="G33" s="41"/>
       <c r="H33" s="41"/>
@@ -7146,10 +7137,10 @@
       <c r="GH33" s="41"/>
     </row>
     <row r="34" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="38"/>
-      <c r="E34" s="41"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="41"/>
       <c r="G34" s="41"/>
       <c r="H34" s="41"/>
@@ -7337,10 +7328,10 @@
       <c r="GH34" s="41"/>
     </row>
     <row r="35" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="41"/>
+      <c r="E35" s="66"/>
       <c r="F35" s="41"/>
       <c r="G35" s="41"/>
       <c r="H35" s="41"/>
@@ -7528,10 +7519,10 @@
       <c r="GH35" s="41"/>
     </row>
     <row r="36" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="41"/>
+      <c r="E36" s="66"/>
       <c r="F36" s="41"/>
       <c r="G36" s="41"/>
       <c r="H36" s="41"/>
@@ -7719,10 +7710,10 @@
       <c r="GH36" s="41"/>
     </row>
     <row r="37" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
       <c r="D37" s="38"/>
-      <c r="E37" s="41"/>
+      <c r="E37" s="66"/>
       <c r="F37" s="41"/>
       <c r="G37" s="41"/>
       <c r="H37" s="41"/>
@@ -7910,10 +7901,10 @@
       <c r="GH37" s="41"/>
     </row>
     <row r="38" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="38"/>
-      <c r="E38" s="41"/>
+      <c r="E38" s="66"/>
       <c r="F38" s="41"/>
       <c r="G38" s="41"/>
       <c r="H38" s="41"/>
@@ -8101,10 +8092,10 @@
       <c r="GH38" s="41"/>
     </row>
     <row r="39" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="38"/>
-      <c r="E39" s="41"/>
+      <c r="E39" s="66"/>
       <c r="F39" s="41"/>
       <c r="G39" s="41"/>
       <c r="H39" s="41"/>
@@ -8292,10 +8283,10 @@
       <c r="GH39" s="41"/>
     </row>
     <row r="40" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="38"/>
-      <c r="E40" s="41"/>
+      <c r="E40" s="66"/>
       <c r="F40" s="41"/>
       <c r="G40" s="41"/>
       <c r="H40" s="41"/>
@@ -8483,10 +8474,10 @@
       <c r="GH40" s="41"/>
     </row>
     <row r="41" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="80"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="41"/>
+      <c r="E41" s="66"/>
       <c r="F41" s="41"/>
       <c r="G41" s="41"/>
       <c r="H41" s="41"/>
@@ -8674,10 +8665,10 @@
       <c r="GH41" s="41"/>
     </row>
     <row r="42" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
+      <c r="B42" s="80"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="41"/>
+      <c r="E42" s="66"/>
       <c r="F42" s="41"/>
       <c r="G42" s="41"/>
       <c r="H42" s="41"/>
@@ -8865,10 +8856,10 @@
       <c r="GH42" s="41"/>
     </row>
     <row r="43" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
+      <c r="B43" s="80"/>
+      <c r="C43" s="81"/>
       <c r="D43" s="38"/>
-      <c r="E43" s="41"/>
+      <c r="E43" s="66"/>
       <c r="F43" s="41"/>
       <c r="G43" s="41"/>
       <c r="H43" s="41"/>
@@ -9056,10 +9047,10 @@
       <c r="GH43" s="41"/>
     </row>
     <row r="44" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="38"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="41"/>
       <c r="G44" s="41"/>
       <c r="H44" s="41"/>
@@ -9247,10 +9238,10 @@
       <c r="GH44" s="41"/>
     </row>
     <row r="45" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
+      <c r="B45" s="80"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="38"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="41"/>
       <c r="G45" s="41"/>
       <c r="H45" s="41"/>
@@ -9438,10 +9429,10 @@
       <c r="GH45" s="41"/>
     </row>
     <row r="46" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
+      <c r="B46" s="80"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="38"/>
-      <c r="E46" s="41"/>
+      <c r="E46" s="66"/>
       <c r="F46" s="41"/>
       <c r="G46" s="41"/>
       <c r="H46" s="41"/>
@@ -9629,10 +9620,10 @@
       <c r="GH46" s="41"/>
     </row>
     <row r="47" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="41"/>
+      <c r="E47" s="66"/>
       <c r="F47" s="41"/>
       <c r="G47" s="41"/>
       <c r="H47" s="41"/>
@@ -9820,10 +9811,10 @@
       <c r="GH47" s="41"/>
     </row>
     <row r="48" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="38"/>
-      <c r="E48" s="41"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="41"/>
       <c r="G48" s="41"/>
       <c r="H48" s="41"/>
@@ -10011,10 +10002,10 @@
       <c r="GH48" s="41"/>
     </row>
     <row r="49" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="81"/>
       <c r="D49" s="38"/>
-      <c r="E49" s="41"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="41"/>
       <c r="G49" s="41"/>
       <c r="H49" s="41"/>
@@ -10202,10 +10193,10 @@
       <c r="GH49" s="41"/>
     </row>
     <row r="50" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="38"/>
-      <c r="E50" s="41"/>
+      <c r="E50" s="66"/>
       <c r="F50" s="41"/>
       <c r="G50" s="41"/>
       <c r="H50" s="41"/>
@@ -10393,10 +10384,10 @@
       <c r="GH50" s="41"/>
     </row>
     <row r="51" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="38"/>
-      <c r="E51" s="41"/>
+      <c r="E51" s="66"/>
       <c r="F51" s="41"/>
       <c r="G51" s="41"/>
       <c r="H51" s="41"/>
@@ -10584,10 +10575,10 @@
       <c r="GH51" s="41"/>
     </row>
     <row r="52" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="38"/>
-      <c r="E52" s="41"/>
+      <c r="E52" s="66"/>
       <c r="F52" s="41"/>
       <c r="G52" s="41"/>
       <c r="H52" s="41"/>
@@ -10775,10 +10766,10 @@
       <c r="GH52" s="41"/>
     </row>
     <row r="53" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="81"/>
       <c r="D53" s="38"/>
-      <c r="E53" s="41"/>
+      <c r="E53" s="66"/>
       <c r="F53" s="41"/>
       <c r="G53" s="41"/>
       <c r="H53" s="41"/>
@@ -10966,10 +10957,10 @@
       <c r="GH53" s="41"/>
     </row>
     <row r="54" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="81"/>
       <c r="D54" s="38"/>
-      <c r="E54" s="41"/>
+      <c r="E54" s="66"/>
       <c r="F54" s="41"/>
       <c r="G54" s="41"/>
       <c r="H54" s="41"/>
@@ -11157,10 +11148,10 @@
       <c r="GH54" s="41"/>
     </row>
     <row r="55" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="79"/>
-      <c r="C55" s="80"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="81"/>
       <c r="D55" s="38"/>
-      <c r="E55" s="41"/>
+      <c r="E55" s="66"/>
       <c r="F55" s="41"/>
       <c r="G55" s="41"/>
       <c r="H55" s="41"/>
@@ -11348,10 +11339,10 @@
       <c r="GH55" s="41"/>
     </row>
     <row r="56" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="79"/>
-      <c r="C56" s="80"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="81"/>
       <c r="D56" s="38"/>
-      <c r="E56" s="41"/>
+      <c r="E56" s="66"/>
       <c r="F56" s="41"/>
       <c r="G56" s="41"/>
       <c r="H56" s="41"/>
@@ -11539,10 +11530,10 @@
       <c r="GH56" s="41"/>
     </row>
     <row r="57" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="79"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="38"/>
-      <c r="E57" s="41"/>
+      <c r="E57" s="66"/>
       <c r="F57" s="41"/>
       <c r="G57" s="41"/>
       <c r="H57" s="41"/>
@@ -11730,10 +11721,10 @@
       <c r="GH57" s="41"/>
     </row>
     <row r="58" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="79"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="80"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="38"/>
-      <c r="E58" s="41"/>
+      <c r="E58" s="66"/>
       <c r="F58" s="41"/>
       <c r="G58" s="41"/>
       <c r="H58" s="41"/>
@@ -11921,10 +11912,10 @@
       <c r="GH58" s="41"/>
     </row>
     <row r="59" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="79"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="80"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="38"/>
-      <c r="E59" s="41"/>
+      <c r="E59" s="66"/>
       <c r="F59" s="41"/>
       <c r="G59" s="41"/>
       <c r="H59" s="41"/>
@@ -12112,10 +12103,10 @@
       <c r="GH59" s="41"/>
     </row>
     <row r="60" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="79"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="81"/>
       <c r="D60" s="38"/>
-      <c r="E60" s="41"/>
+      <c r="E60" s="66"/>
       <c r="F60" s="41"/>
       <c r="G60" s="41"/>
       <c r="H60" s="41"/>
@@ -12303,10 +12294,10 @@
       <c r="GH60" s="41"/>
     </row>
     <row r="61" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="79"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="80"/>
+      <c r="C61" s="81"/>
       <c r="D61" s="38"/>
-      <c r="E61" s="41"/>
+      <c r="E61" s="66"/>
       <c r="F61" s="41"/>
       <c r="G61" s="41"/>
       <c r="H61" s="41"/>
@@ -12494,10 +12485,10 @@
       <c r="GH61" s="41"/>
     </row>
     <row r="62" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="79"/>
-      <c r="C62" s="80"/>
+      <c r="B62" s="80"/>
+      <c r="C62" s="81"/>
       <c r="D62" s="38"/>
-      <c r="E62" s="41"/>
+      <c r="E62" s="66"/>
       <c r="F62" s="41"/>
       <c r="G62" s="41"/>
       <c r="H62" s="41"/>
@@ -12685,10 +12676,10 @@
       <c r="GH62" s="41"/>
     </row>
     <row r="63" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="79"/>
-      <c r="C63" s="80"/>
+      <c r="B63" s="80"/>
+      <c r="C63" s="81"/>
       <c r="D63" s="38"/>
-      <c r="E63" s="41"/>
+      <c r="E63" s="66"/>
       <c r="F63" s="41"/>
       <c r="G63" s="41"/>
       <c r="H63" s="41"/>
@@ -12876,10 +12867,10 @@
       <c r="GH63" s="41"/>
     </row>
     <row r="64" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="79"/>
-      <c r="C64" s="80"/>
+      <c r="B64" s="80"/>
+      <c r="C64" s="81"/>
       <c r="D64" s="38"/>
-      <c r="E64" s="41"/>
+      <c r="E64" s="66"/>
       <c r="F64" s="41"/>
       <c r="G64" s="41"/>
       <c r="H64" s="41"/>
@@ -13067,10 +13058,10 @@
       <c r="GH64" s="41"/>
     </row>
     <row r="65" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="79"/>
-      <c r="C65" s="80"/>
+      <c r="B65" s="80"/>
+      <c r="C65" s="81"/>
       <c r="D65" s="38"/>
-      <c r="E65" s="41"/>
+      <c r="E65" s="66"/>
       <c r="F65" s="41"/>
       <c r="G65" s="41"/>
       <c r="H65" s="41"/>
@@ -13258,10 +13249,10 @@
       <c r="GH65" s="41"/>
     </row>
     <row r="66" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="79"/>
-      <c r="C66" s="80"/>
+      <c r="B66" s="80"/>
+      <c r="C66" s="81"/>
       <c r="D66" s="38"/>
-      <c r="E66" s="41"/>
+      <c r="E66" s="66"/>
       <c r="F66" s="41"/>
       <c r="G66" s="41"/>
       <c r="H66" s="41"/>
@@ -13449,10 +13440,10 @@
       <c r="GH66" s="41"/>
     </row>
     <row r="67" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="79"/>
-      <c r="C67" s="80"/>
+      <c r="B67" s="80"/>
+      <c r="C67" s="81"/>
       <c r="D67" s="38"/>
-      <c r="E67" s="41"/>
+      <c r="E67" s="66"/>
       <c r="F67" s="41"/>
       <c r="G67" s="41"/>
       <c r="H67" s="41"/>
@@ -13640,10 +13631,10 @@
       <c r="GH67" s="41"/>
     </row>
     <row r="68" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="79"/>
-      <c r="C68" s="80"/>
+      <c r="B68" s="80"/>
+      <c r="C68" s="81"/>
       <c r="D68" s="38"/>
-      <c r="E68" s="41"/>
+      <c r="E68" s="66"/>
       <c r="F68" s="41"/>
       <c r="G68" s="41"/>
       <c r="H68" s="41"/>
@@ -13831,10 +13822,10 @@
       <c r="GH68" s="41"/>
     </row>
     <row r="69" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="79"/>
-      <c r="C69" s="80"/>
+      <c r="B69" s="80"/>
+      <c r="C69" s="81"/>
       <c r="D69" s="38"/>
-      <c r="E69" s="41"/>
+      <c r="E69" s="66"/>
       <c r="F69" s="41"/>
       <c r="G69" s="41"/>
       <c r="H69" s="41"/>
@@ -14022,10 +14013,10 @@
       <c r="GH69" s="41"/>
     </row>
     <row r="70" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="79"/>
-      <c r="C70" s="80"/>
+      <c r="B70" s="80"/>
+      <c r="C70" s="81"/>
       <c r="D70" s="38"/>
-      <c r="E70" s="41"/>
+      <c r="E70" s="66"/>
       <c r="F70" s="41"/>
       <c r="G70" s="41"/>
       <c r="H70" s="41"/>
@@ -14213,10 +14204,10 @@
       <c r="GH70" s="41"/>
     </row>
     <row r="71" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="79"/>
-      <c r="C71" s="80"/>
+      <c r="B71" s="80"/>
+      <c r="C71" s="81"/>
       <c r="D71" s="38"/>
-      <c r="E71" s="41"/>
+      <c r="E71" s="66"/>
       <c r="F71" s="41"/>
       <c r="G71" s="41"/>
       <c r="H71" s="41"/>
@@ -14404,10 +14395,10 @@
       <c r="GH71" s="41"/>
     </row>
     <row r="72" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="79"/>
-      <c r="C72" s="80"/>
+      <c r="B72" s="80"/>
+      <c r="C72" s="81"/>
       <c r="D72" s="38"/>
-      <c r="E72" s="41"/>
+      <c r="E72" s="66"/>
       <c r="F72" s="41"/>
       <c r="G72" s="41"/>
       <c r="H72" s="41"/>
@@ -14595,10 +14586,10 @@
       <c r="GH72" s="41"/>
     </row>
     <row r="73" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="79"/>
-      <c r="C73" s="80"/>
+      <c r="B73" s="80"/>
+      <c r="C73" s="81"/>
       <c r="D73" s="38"/>
-      <c r="E73" s="41"/>
+      <c r="E73" s="66"/>
       <c r="F73" s="41"/>
       <c r="G73" s="41"/>
       <c r="H73" s="41"/>
@@ -14786,10 +14777,10 @@
       <c r="GH73" s="41"/>
     </row>
     <row r="74" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="79"/>
-      <c r="C74" s="80"/>
+      <c r="B74" s="80"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="38"/>
-      <c r="E74" s="41"/>
+      <c r="E74" s="66"/>
       <c r="F74" s="41"/>
       <c r="G74" s="41"/>
       <c r="H74" s="41"/>
@@ -14977,10 +14968,10 @@
       <c r="GH74" s="41"/>
     </row>
     <row r="75" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="79"/>
-      <c r="C75" s="80"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="38"/>
-      <c r="E75" s="41"/>
+      <c r="E75" s="66"/>
       <c r="F75" s="41"/>
       <c r="G75" s="41"/>
       <c r="H75" s="41"/>
@@ -15168,10 +15159,10 @@
       <c r="GH75" s="41"/>
     </row>
     <row r="76" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="79"/>
-      <c r="C76" s="80"/>
+      <c r="B76" s="80"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="38"/>
-      <c r="E76" s="41"/>
+      <c r="E76" s="66"/>
       <c r="F76" s="41"/>
       <c r="G76" s="41"/>
       <c r="H76" s="41"/>
@@ -15359,10 +15350,10 @@
       <c r="GH76" s="41"/>
     </row>
     <row r="77" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="79"/>
-      <c r="C77" s="80"/>
+      <c r="B77" s="80"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="38"/>
-      <c r="E77" s="41"/>
+      <c r="E77" s="66"/>
       <c r="F77" s="41"/>
       <c r="G77" s="41"/>
       <c r="H77" s="41"/>
@@ -15550,10 +15541,10 @@
       <c r="GH77" s="41"/>
     </row>
     <row r="78" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="79"/>
-      <c r="C78" s="80"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="38"/>
-      <c r="E78" s="41"/>
+      <c r="E78" s="66"/>
       <c r="F78" s="41"/>
       <c r="G78" s="41"/>
       <c r="H78" s="41"/>
@@ -15741,10 +15732,10 @@
       <c r="GH78" s="41"/>
     </row>
     <row r="79" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="79"/>
-      <c r="C79" s="80"/>
+      <c r="B79" s="80"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="38"/>
-      <c r="E79" s="41"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="41"/>
       <c r="G79" s="41"/>
       <c r="H79" s="41"/>
@@ -15932,10 +15923,10 @@
       <c r="GH79" s="41"/>
     </row>
     <row r="80" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="79"/>
-      <c r="C80" s="80"/>
+      <c r="B80" s="80"/>
+      <c r="C80" s="81"/>
       <c r="D80" s="38"/>
-      <c r="E80" s="41"/>
+      <c r="E80" s="66"/>
       <c r="F80" s="41"/>
       <c r="G80" s="41"/>
       <c r="H80" s="41"/>
@@ -16123,10 +16114,10 @@
       <c r="GH80" s="41"/>
     </row>
     <row r="81" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="79"/>
-      <c r="C81" s="80"/>
+      <c r="B81" s="80"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="38"/>
-      <c r="E81" s="41"/>
+      <c r="E81" s="66"/>
       <c r="F81" s="41"/>
       <c r="G81" s="41"/>
       <c r="H81" s="41"/>
@@ -16314,10 +16305,10 @@
       <c r="GH81" s="41"/>
     </row>
     <row r="82" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="79"/>
-      <c r="C82" s="80"/>
+      <c r="B82" s="80"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="38"/>
-      <c r="E82" s="41"/>
+      <c r="E82" s="66"/>
       <c r="F82" s="41"/>
       <c r="G82" s="41"/>
       <c r="H82" s="41"/>
@@ -16505,10 +16496,10 @@
       <c r="GH82" s="41"/>
     </row>
     <row r="83" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="79"/>
-      <c r="C83" s="80"/>
+      <c r="B83" s="80"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="38"/>
-      <c r="E83" s="41"/>
+      <c r="E83" s="66"/>
       <c r="F83" s="41"/>
       <c r="G83" s="41"/>
       <c r="H83" s="41"/>
@@ -16696,10 +16687,10 @@
       <c r="GH83" s="41"/>
     </row>
     <row r="84" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="79"/>
-      <c r="C84" s="80"/>
+      <c r="B84" s="80"/>
+      <c r="C84" s="81"/>
       <c r="D84" s="38"/>
-      <c r="E84" s="41"/>
+      <c r="E84" s="66"/>
       <c r="F84" s="41"/>
       <c r="G84" s="41"/>
       <c r="H84" s="41"/>
@@ -16887,10 +16878,10 @@
       <c r="GH84" s="41"/>
     </row>
     <row r="85" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="79"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="80"/>
+      <c r="C85" s="81"/>
       <c r="D85" s="38"/>
-      <c r="E85" s="41"/>
+      <c r="E85" s="66"/>
       <c r="F85" s="41"/>
       <c r="G85" s="41"/>
       <c r="H85" s="41"/>
@@ -17078,10 +17069,10 @@
       <c r="GH85" s="41"/>
     </row>
     <row r="86" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="79"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="80"/>
+      <c r="C86" s="81"/>
       <c r="D86" s="38"/>
-      <c r="E86" s="41"/>
+      <c r="E86" s="66"/>
       <c r="F86" s="41"/>
       <c r="G86" s="41"/>
       <c r="H86" s="41"/>
@@ -17269,10 +17260,10 @@
       <c r="GH86" s="41"/>
     </row>
     <row r="87" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="79"/>
-      <c r="C87" s="80"/>
+      <c r="B87" s="80"/>
+      <c r="C87" s="81"/>
       <c r="D87" s="38"/>
-      <c r="E87" s="41"/>
+      <c r="E87" s="66"/>
       <c r="F87" s="41"/>
       <c r="G87" s="41"/>
       <c r="H87" s="41"/>
@@ -17460,10 +17451,10 @@
       <c r="GH87" s="41"/>
     </row>
     <row r="88" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="79"/>
-      <c r="C88" s="80"/>
+      <c r="B88" s="80"/>
+      <c r="C88" s="81"/>
       <c r="D88" s="38"/>
-      <c r="E88" s="41"/>
+      <c r="E88" s="66"/>
       <c r="F88" s="41"/>
       <c r="G88" s="41"/>
       <c r="H88" s="41"/>
@@ -17651,10 +17642,10 @@
       <c r="GH88" s="41"/>
     </row>
     <row r="89" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="79"/>
-      <c r="C89" s="80"/>
+      <c r="B89" s="80"/>
+      <c r="C89" s="81"/>
       <c r="D89" s="38"/>
-      <c r="E89" s="41"/>
+      <c r="E89" s="66"/>
       <c r="F89" s="41"/>
       <c r="G89" s="41"/>
       <c r="H89" s="41"/>
@@ -17842,10 +17833,10 @@
       <c r="GH89" s="41"/>
     </row>
     <row r="90" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="79"/>
-      <c r="C90" s="80"/>
+      <c r="B90" s="80"/>
+      <c r="C90" s="81"/>
       <c r="D90" s="38"/>
-      <c r="E90" s="41"/>
+      <c r="E90" s="66"/>
       <c r="F90" s="41"/>
       <c r="G90" s="41"/>
       <c r="H90" s="41"/>
@@ -18033,10 +18024,10 @@
       <c r="GH90" s="41"/>
     </row>
     <row r="91" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="79"/>
-      <c r="C91" s="80"/>
+      <c r="B91" s="80"/>
+      <c r="C91" s="81"/>
       <c r="D91" s="38"/>
-      <c r="E91" s="41"/>
+      <c r="E91" s="66"/>
       <c r="F91" s="41"/>
       <c r="G91" s="41"/>
       <c r="H91" s="41"/>
@@ -18224,10 +18215,10 @@
       <c r="GH91" s="41"/>
     </row>
     <row r="92" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="79"/>
-      <c r="C92" s="80"/>
+      <c r="B92" s="80"/>
+      <c r="C92" s="81"/>
       <c r="D92" s="38"/>
-      <c r="E92" s="41"/>
+      <c r="E92" s="66"/>
       <c r="F92" s="41"/>
       <c r="G92" s="41"/>
       <c r="H92" s="41"/>
@@ -18415,10 +18406,10 @@
       <c r="GH92" s="41"/>
     </row>
     <row r="93" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="79"/>
-      <c r="C93" s="80"/>
+      <c r="B93" s="80"/>
+      <c r="C93" s="81"/>
       <c r="D93" s="38"/>
-      <c r="E93" s="41"/>
+      <c r="E93" s="66"/>
       <c r="F93" s="41"/>
       <c r="G93" s="41"/>
       <c r="H93" s="41"/>
@@ -18606,10 +18597,10 @@
       <c r="GH93" s="41"/>
     </row>
     <row r="94" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="79"/>
-      <c r="C94" s="80"/>
+      <c r="B94" s="80"/>
+      <c r="C94" s="81"/>
       <c r="D94" s="38"/>
-      <c r="E94" s="41"/>
+      <c r="E94" s="66"/>
       <c r="F94" s="41"/>
       <c r="G94" s="41"/>
       <c r="H94" s="41"/>
@@ -18797,10 +18788,10 @@
       <c r="GH94" s="41"/>
     </row>
     <row r="95" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="79"/>
-      <c r="C95" s="80"/>
+      <c r="B95" s="80"/>
+      <c r="C95" s="81"/>
       <c r="D95" s="38"/>
-      <c r="E95" s="41"/>
+      <c r="E95" s="66"/>
       <c r="F95" s="41"/>
       <c r="G95" s="41"/>
       <c r="H95" s="41"/>
@@ -18988,10 +18979,10 @@
       <c r="GH95" s="41"/>
     </row>
     <row r="96" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="79"/>
-      <c r="C96" s="80"/>
+      <c r="B96" s="80"/>
+      <c r="C96" s="81"/>
       <c r="D96" s="38"/>
-      <c r="E96" s="41"/>
+      <c r="E96" s="66"/>
       <c r="F96" s="41"/>
       <c r="G96" s="41"/>
       <c r="H96" s="41"/>
@@ -19179,10 +19170,10 @@
       <c r="GH96" s="41"/>
     </row>
     <row r="97" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="79"/>
-      <c r="C97" s="80"/>
+      <c r="B97" s="80"/>
+      <c r="C97" s="81"/>
       <c r="D97" s="38"/>
-      <c r="E97" s="41"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="41"/>
       <c r="G97" s="41"/>
       <c r="H97" s="41"/>
@@ -19370,10 +19361,10 @@
       <c r="GH97" s="41"/>
     </row>
     <row r="98" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="79"/>
-      <c r="C98" s="80"/>
+      <c r="B98" s="80"/>
+      <c r="C98" s="81"/>
       <c r="D98" s="38"/>
-      <c r="E98" s="41"/>
+      <c r="E98" s="66"/>
       <c r="F98" s="41"/>
       <c r="G98" s="41"/>
       <c r="H98" s="41"/>
@@ -19561,10 +19552,10 @@
       <c r="GH98" s="41"/>
     </row>
     <row r="99" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="79"/>
-      <c r="C99" s="80"/>
+      <c r="B99" s="80"/>
+      <c r="C99" s="81"/>
       <c r="D99" s="38"/>
-      <c r="E99" s="41"/>
+      <c r="E99" s="66"/>
       <c r="F99" s="41"/>
       <c r="G99" s="41"/>
       <c r="H99" s="41"/>
@@ -19752,10 +19743,10 @@
       <c r="GH99" s="41"/>
     </row>
     <row r="100" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="79"/>
-      <c r="C100" s="80"/>
+      <c r="B100" s="80"/>
+      <c r="C100" s="81"/>
       <c r="D100" s="38"/>
-      <c r="E100" s="41"/>
+      <c r="E100" s="66"/>
       <c r="F100" s="41"/>
       <c r="G100" s="41"/>
       <c r="H100" s="41"/>
@@ -19943,10 +19934,10 @@
       <c r="GH100" s="41"/>
     </row>
     <row r="101" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="79"/>
-      <c r="C101" s="80"/>
+      <c r="B101" s="80"/>
+      <c r="C101" s="81"/>
       <c r="D101" s="38"/>
-      <c r="E101" s="41"/>
+      <c r="E101" s="66"/>
       <c r="F101" s="41"/>
       <c r="G101" s="41"/>
       <c r="H101" s="41"/>
@@ -20134,10 +20125,10 @@
       <c r="GH101" s="41"/>
     </row>
     <row r="102" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="79"/>
-      <c r="C102" s="80"/>
+      <c r="B102" s="80"/>
+      <c r="C102" s="81"/>
       <c r="D102" s="38"/>
-      <c r="E102" s="41"/>
+      <c r="E102" s="66"/>
       <c r="F102" s="41"/>
       <c r="G102" s="41"/>
       <c r="H102" s="41"/>
@@ -20325,10 +20316,10 @@
       <c r="GH102" s="41"/>
     </row>
     <row r="103" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="79"/>
-      <c r="C103" s="80"/>
+      <c r="B103" s="80"/>
+      <c r="C103" s="81"/>
       <c r="D103" s="38"/>
-      <c r="E103" s="41"/>
+      <c r="E103" s="66"/>
       <c r="F103" s="41"/>
       <c r="G103" s="41"/>
       <c r="H103" s="41"/>
@@ -20516,10 +20507,10 @@
       <c r="GH103" s="41"/>
     </row>
     <row r="104" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="79"/>
-      <c r="C104" s="80"/>
+      <c r="B104" s="80"/>
+      <c r="C104" s="81"/>
       <c r="D104" s="38"/>
-      <c r="E104" s="41"/>
+      <c r="E104" s="66"/>
       <c r="F104" s="41"/>
       <c r="G104" s="41"/>
       <c r="H104" s="41"/>
@@ -20707,10 +20698,10 @@
       <c r="GH104" s="41"/>
     </row>
     <row r="105" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="79"/>
-      <c r="C105" s="80"/>
+      <c r="B105" s="80"/>
+      <c r="C105" s="81"/>
       <c r="D105" s="38"/>
-      <c r="E105" s="41"/>
+      <c r="E105" s="66"/>
       <c r="F105" s="41"/>
       <c r="G105" s="41"/>
       <c r="H105" s="41"/>
@@ -20898,10 +20889,10 @@
       <c r="GH105" s="41"/>
     </row>
     <row r="106" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="79"/>
-      <c r="C106" s="80"/>
+      <c r="B106" s="80"/>
+      <c r="C106" s="81"/>
       <c r="D106" s="38"/>
-      <c r="E106" s="41"/>
+      <c r="E106" s="66"/>
       <c r="F106" s="41"/>
       <c r="G106" s="41"/>
       <c r="H106" s="41"/>
@@ -21089,10 +21080,10 @@
       <c r="GH106" s="41"/>
     </row>
     <row r="107" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="79"/>
-      <c r="C107" s="80"/>
+      <c r="B107" s="80"/>
+      <c r="C107" s="81"/>
       <c r="D107" s="38"/>
-      <c r="E107" s="41"/>
+      <c r="E107" s="66"/>
       <c r="F107" s="41"/>
       <c r="G107" s="41"/>
       <c r="H107" s="41"/>
@@ -21280,10 +21271,10 @@
       <c r="GH107" s="41"/>
     </row>
     <row r="108" spans="2:190" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="79"/>
-      <c r="C108" s="80"/>
+      <c r="B108" s="80"/>
+      <c r="C108" s="81"/>
       <c r="D108" s="38"/>
-      <c r="E108" s="41"/>
+      <c r="E108" s="66"/>
       <c r="F10